--- a/statistics_files/2024/2024_99_g_net_borrower_lender.xlsx
+++ b/statistics_files/2024/2024_99_g_net_borrower_lender.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20407"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\GitHub\next_statistics\statistics_files\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D53920-2D86-4709-AB59-707E0597953A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9863E270-3EF8-4630-BF67-B269DF62377C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" tabRatio="673" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="147">
   <si>
     <t>NET</t>
   </si>
@@ -376,6 +376,123 @@
   </si>
   <si>
     <t>1.51 : 1</t>
+  </si>
+  <si>
+    <t>1.30 : 1</t>
+  </si>
+  <si>
+    <t>0.68 : 1</t>
+  </si>
+  <si>
+    <t>1.06 : 1</t>
+  </si>
+  <si>
+    <t>1.23 : 1</t>
+  </si>
+  <si>
+    <t>2.52 : 1</t>
+  </si>
+  <si>
+    <t>0.41 : 1</t>
+  </si>
+  <si>
+    <t>1.89 : 1</t>
+  </si>
+  <si>
+    <t>0.36 : 1</t>
+  </si>
+  <si>
+    <t>0.93 : 1</t>
+  </si>
+  <si>
+    <t>0.32 : 1</t>
+  </si>
+  <si>
+    <t>0.08 : 1</t>
+  </si>
+  <si>
+    <t>0.18 : 1</t>
+  </si>
+  <si>
+    <t>0.13 : 1</t>
+  </si>
+  <si>
+    <t>1.44 : 1</t>
+  </si>
+  <si>
+    <t>0.48 : 1</t>
+  </si>
+  <si>
+    <t>0.79 : 1</t>
+  </si>
+  <si>
+    <t>1.28 : 1</t>
+  </si>
+  <si>
+    <t>0.92 : 1</t>
+  </si>
+  <si>
+    <t>0.21 : 1</t>
+  </si>
+  <si>
+    <t>6.33 : 1</t>
+  </si>
+  <si>
+    <t>1.45 : 1</t>
+  </si>
+  <si>
+    <t>0.98 : 1</t>
+  </si>
+  <si>
+    <t>0.46 : 1</t>
+  </si>
+  <si>
+    <t>1.64 : 1</t>
+  </si>
+  <si>
+    <t>1.90 : 1</t>
+  </si>
+  <si>
+    <t>0.12 : 1</t>
+  </si>
+  <si>
+    <t>0.01 : 1</t>
+  </si>
+  <si>
+    <t>1.18 : 1</t>
+  </si>
+  <si>
+    <t>0.88 : 1</t>
+  </si>
+  <si>
+    <t>1.35 : 1</t>
+  </si>
+  <si>
+    <t>0.57 : 1</t>
+  </si>
+  <si>
+    <t>1.99 : 1</t>
+  </si>
+  <si>
+    <t>5.73 : 1</t>
+  </si>
+  <si>
+    <t>0.00 : 1</t>
+  </si>
+  <si>
+    <t>0.72 : 1</t>
+  </si>
+  <si>
+    <t>1.38 : 1</t>
+  </si>
+  <si>
+    <t>0.65 : 1</t>
+  </si>
+  <si>
+    <t>0.99 : 1</t>
+  </si>
+  <si>
+    <t>1.10 : 1</t>
   </si>
 </sst>
 </file>
@@ -1285,15 +1402,15 @@
       </c>
       <c r="B2" s="2">
         <f>January!B2+February!B2+March!B2+April!B2+May!B2+June!B2+July!B2+August!B2+September!B2+October!B2+November!B2+December!B2</f>
-        <v>1329</v>
+        <v>2737</v>
       </c>
       <c r="C2" s="2">
         <f>January!C2+February!C2+March!C2+April!C2+May!C2+June!C2+July!C2+August!C2+September!C2+October!C2+November!C2+December!C2</f>
-        <v>1284</v>
+        <v>2423</v>
       </c>
       <c r="D2" s="2">
         <f>January!D2+February!D2+March!D2+April!D2+May!D2+June!D2+July!D2+August!D2+September!D2+October!D2+November!D2+December!D2</f>
-        <v>45</v>
+        <v>314</v>
       </c>
       <c r="E2" s="28" t="str">
         <f t="shared" ref="E2:E33" si="0">IF(D2 &gt; 0, "We borrowed more than we lent this year", "")</f>
@@ -1305,7 +1422,7 @@
       </c>
       <c r="G2" s="3" t="str">
         <f t="shared" ref="G2:G33" si="2">IF(ISERROR(ROUND(B2/C2,2)&amp;" : 1"), "", ROUND(B2/C2,2)&amp;" : 1")</f>
-        <v>1.04 : 1</v>
+        <v>1.13 : 1</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1314,15 +1431,15 @@
       </c>
       <c r="B3" s="4">
         <f>January!B3+February!B3+March!B3+April!B3+May!B3+June!B3+July!B3+August!B3+September!B3+October!B3+November!B3+December!B3</f>
-        <v>534</v>
+        <v>1082</v>
       </c>
       <c r="C3" s="4">
         <f>January!C3+February!C3+March!C3+April!C3+May!C3+June!C3+July!C3+August!C3+September!C3+October!C3+November!C3+December!C3</f>
-        <v>401</v>
+        <v>899</v>
       </c>
       <c r="D3" s="4">
         <f>January!D3+February!D3+March!D3+April!D3+May!D3+June!D3+July!D3+August!D3+September!D3+October!D3+November!D3+December!D3</f>
-        <v>133</v>
+        <v>183</v>
       </c>
       <c r="E3" s="29" t="str">
         <f t="shared" si="0"/>
@@ -1334,7 +1451,7 @@
       </c>
       <c r="G3" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>1.33 : 1</v>
+        <v>1.2 : 1</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1343,15 +1460,15 @@
       </c>
       <c r="B4" s="2">
         <f>January!B4+February!B4+March!B4+April!B4+May!B4+June!B4+July!B4+August!B4+September!B4+October!B4+November!B4+December!B4</f>
-        <v>1209</v>
+        <v>2442</v>
       </c>
       <c r="C4" s="2">
         <f>January!C4+February!C4+March!C4+April!C4+May!C4+June!C4+July!C4+August!C4+September!C4+October!C4+November!C4+December!C4</f>
-        <v>1168</v>
+        <v>2408</v>
       </c>
       <c r="D4" s="2">
         <f>January!D4+February!D4+March!D4+April!D4+May!D4+June!D4+July!D4+August!D4+September!D4+October!D4+November!D4+December!D4</f>
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E4" s="28" t="str">
         <f t="shared" si="0"/>
@@ -1363,7 +1480,7 @@
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>1.04 : 1</v>
+        <v>1.01 : 1</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1372,15 +1489,15 @@
       </c>
       <c r="B5" s="4">
         <f>January!B5+February!B5+March!B5+April!B5+May!B5+June!B5+July!B5+August!B5+September!B5+October!B5+November!B5+December!B5</f>
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="C5" s="4">
         <f>January!C5+February!C5+March!C5+April!C5+May!C5+June!C5+July!C5+August!C5+September!C5+October!C5+November!C5+December!C5</f>
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="D5" s="4">
         <f>January!D5+February!D5+March!D5+April!D5+May!D5+June!D5+July!D5+August!D5+September!D5+October!D5+November!D5+December!D5</f>
-        <v>-95</v>
+        <v>-143</v>
       </c>
       <c r="E5" s="29" t="str">
         <f t="shared" si="0"/>
@@ -1392,7 +1509,7 @@
       </c>
       <c r="G5" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>0.27 : 1</v>
+        <v>0.39 : 1</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1401,15 +1518,15 @@
       </c>
       <c r="B6" s="2">
         <f>January!B6+February!B6+March!B6+April!B6+May!B6+June!B6+July!B6+August!B6+September!B6+October!B6+November!B6+December!B6</f>
-        <v>1109</v>
+        <v>2148</v>
       </c>
       <c r="C6" s="2">
         <f>January!C6+February!C6+March!C6+April!C6+May!C6+June!C6+July!C6+August!C6+September!C6+October!C6+November!C6+December!C6</f>
-        <v>1358</v>
+        <v>2945</v>
       </c>
       <c r="D6" s="2">
         <f>January!D6+February!D6+March!D6+April!D6+May!D6+June!D6+July!D6+August!D6+September!D6+October!D6+November!D6+December!D6</f>
-        <v>-249</v>
+        <v>-797</v>
       </c>
       <c r="E6" s="28" t="str">
         <f t="shared" si="0"/>
@@ -1421,7 +1538,7 @@
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.82 : 1</v>
+        <v>0.73 : 1</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1430,15 +1547,15 @@
       </c>
       <c r="B7" s="4">
         <f>January!B7+February!B7+March!B7+April!B7+May!B7+June!B7+July!B7+August!B7+September!B7+October!B7+November!B7+December!B7</f>
-        <v>257</v>
+        <v>488</v>
       </c>
       <c r="C7" s="4">
         <f>January!C7+February!C7+March!C7+April!C7+May!C7+June!C7+July!C7+August!C7+September!C7+October!C7+November!C7+December!C7</f>
-        <v>133</v>
+        <v>301</v>
       </c>
       <c r="D7" s="4">
         <f>January!D7+February!D7+March!D7+April!D7+May!D7+June!D7+July!D7+August!D7+September!D7+October!D7+November!D7+December!D7</f>
-        <v>124</v>
+        <v>187</v>
       </c>
       <c r="E7" s="29" t="str">
         <f t="shared" si="0"/>
@@ -1450,7 +1567,7 @@
       </c>
       <c r="G7" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>1.93 : 1</v>
+        <v>1.62 : 1</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1459,15 +1576,15 @@
       </c>
       <c r="B8" s="2">
         <f>January!B8+February!B8+March!B8+April!B8+May!B8+June!B8+July!B8+August!B8+September!B8+October!B8+November!B8+December!B8</f>
-        <v>85</v>
+        <v>222</v>
       </c>
       <c r="C8" s="2">
         <f>January!C8+February!C8+March!C8+April!C8+May!C8+June!C8+July!C8+August!C8+September!C8+October!C8+November!C8+December!C8</f>
-        <v>160</v>
+        <v>360</v>
       </c>
       <c r="D8" s="2">
         <f>January!D8+February!D8+March!D8+April!D8+May!D8+June!D8+July!D8+August!D8+September!D8+October!D8+November!D8+December!D8</f>
-        <v>-75</v>
+        <v>-138</v>
       </c>
       <c r="E8" s="28" t="str">
         <f t="shared" si="0"/>
@@ -1479,7 +1596,7 @@
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.53 : 1</v>
+        <v>0.62 : 1</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1488,15 +1605,15 @@
       </c>
       <c r="B9" s="4">
         <f>January!B9+February!B9+March!B9+April!B9+May!B9+June!B9+July!B9+August!B9+September!B9+October!B9+November!B9+December!B9</f>
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="C9" s="4">
         <f>January!C9+February!C9+March!C9+April!C9+May!C9+June!C9+July!C9+August!C9+September!C9+October!C9+November!C9+December!C9</f>
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="D9" s="4">
         <f>January!D9+February!D9+March!D9+April!D9+May!D9+June!D9+July!D9+August!D9+September!D9+October!D9+November!D9+December!D9</f>
-        <v>-21</v>
+        <v>-43</v>
       </c>
       <c r="E9" s="29" t="str">
         <f t="shared" si="0"/>
@@ -1508,7 +1625,7 @@
       </c>
       <c r="G9" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>0.73 : 1</v>
+        <v>0.72 : 1</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1521,11 +1638,11 @@
       </c>
       <c r="C10" s="2">
         <f>January!C10+February!C10+March!C10+April!C10+May!C10+June!C10+July!C10+August!C10+September!C10+October!C10+November!C10+December!C10</f>
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="D10" s="2">
         <f>January!D10+February!D10+March!D10+April!D10+May!D10+June!D10+July!D10+August!D10+September!D10+October!D10+November!D10+December!D10</f>
-        <v>-34</v>
+        <v>-91</v>
       </c>
       <c r="E10" s="28" t="str">
         <f t="shared" si="0"/>
@@ -1537,7 +1654,7 @@
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.03 : 1</v>
+        <v>0.01 : 1</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1575,27 +1692,27 @@
       </c>
       <c r="B12" s="6">
         <f>January!B12+February!B12+March!B12+April!B12+May!B12+June!B12+July!B12+August!B12+September!B12+October!B12+November!B12+December!B12</f>
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="C12" s="6">
         <f>January!C12+February!C12+March!C12+April!C12+May!C12+June!C12+July!C12+August!C12+September!C12+October!C12+November!C12+December!C12</f>
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D12" s="6">
         <f>January!D12+February!D12+March!D12+April!D12+May!D12+June!D12+July!D12+August!D12+September!D12+October!D12+November!D12+December!D12</f>
-        <v>-5</v>
+        <v>66</v>
       </c>
       <c r="E12" s="30" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>We borrowed more than we lent this year</v>
       </c>
       <c r="F12" s="30" t="str">
         <f t="shared" si="1"/>
-        <v>We lent more than we borrowed this year</v>
+        <v/>
       </c>
       <c r="G12" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>0.81 : 1</v>
+        <v>2.61 : 1</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1604,15 +1721,15 @@
       </c>
       <c r="B13" s="6">
         <f>January!B13+February!B13+March!B13+April!B13+May!B13+June!B13+July!B13+August!B13+September!B13+October!B13+November!B13+December!B13</f>
-        <v>170</v>
+        <v>375</v>
       </c>
       <c r="C13" s="6">
         <f>January!C13+February!C13+March!C13+April!C13+May!C13+June!C13+July!C13+August!C13+September!C13+October!C13+November!C13+December!C13</f>
-        <v>107</v>
+        <v>210</v>
       </c>
       <c r="D13" s="6">
         <f>January!D13+February!D13+March!D13+April!D13+May!D13+June!D13+July!D13+August!D13+September!D13+October!D13+November!D13+December!D13</f>
-        <v>63</v>
+        <v>165</v>
       </c>
       <c r="E13" s="30" t="str">
         <f t="shared" si="0"/>
@@ -1624,7 +1741,7 @@
       </c>
       <c r="G13" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>1.59 : 1</v>
+        <v>1.79 : 1</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1633,15 +1750,15 @@
       </c>
       <c r="B14" s="6">
         <f>January!B14+February!B14+March!B14+April!B14+May!B14+June!B14+July!B14+August!B14+September!B14+October!B14+November!B14+December!B14</f>
-        <v>152</v>
+        <v>283</v>
       </c>
       <c r="C14" s="6">
         <f>January!C14+February!C14+March!C14+April!C14+May!C14+June!C14+July!C14+August!C14+September!C14+October!C14+November!C14+December!C14</f>
-        <v>274</v>
+        <v>546</v>
       </c>
       <c r="D14" s="6">
         <f>January!D14+February!D14+March!D14+April!D14+May!D14+June!D14+July!D14+August!D14+September!D14+October!D14+November!D14+December!D14</f>
-        <v>-122</v>
+        <v>-263</v>
       </c>
       <c r="E14" s="30" t="str">
         <f t="shared" si="0"/>
@@ -1653,7 +1770,7 @@
       </c>
       <c r="G14" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>0.55 : 1</v>
+        <v>0.52 : 1</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1662,15 +1779,15 @@
       </c>
       <c r="B15" s="6">
         <f>January!B15+February!B15+March!B15+April!B15+May!B15+June!B15+July!B15+August!B15+September!B15+October!B15+November!B15+December!B15</f>
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="C15" s="6">
         <f>January!C15+February!C15+March!C15+April!C15+May!C15+June!C15+July!C15+August!C15+September!C15+October!C15+November!C15+December!C15</f>
-        <v>159</v>
+        <v>276</v>
       </c>
       <c r="D15" s="6">
         <f>January!D15+February!D15+March!D15+April!D15+May!D15+June!D15+July!D15+August!D15+September!D15+October!D15+November!D15+December!D15</f>
-        <v>-93</v>
+        <v>-161</v>
       </c>
       <c r="E15" s="30" t="str">
         <f t="shared" si="0"/>
@@ -1691,15 +1808,15 @@
       </c>
       <c r="B16" s="2">
         <f>January!B16+February!B16+March!B16+April!B16+May!B16+June!B16+July!B16+August!B16+September!B16+October!B16+November!B16+December!B16</f>
-        <v>50</v>
+        <v>132</v>
       </c>
       <c r="C16" s="2">
         <f>January!C16+February!C16+March!C16+April!C16+May!C16+June!C16+July!C16+August!C16+September!C16+October!C16+November!C16+December!C16</f>
-        <v>164</v>
+        <v>308</v>
       </c>
       <c r="D16" s="2">
         <f>January!D16+February!D16+March!D16+April!D16+May!D16+June!D16+July!D16+August!D16+September!D16+October!D16+November!D16+December!D16</f>
-        <v>-114</v>
+        <v>-176</v>
       </c>
       <c r="E16" s="28" t="str">
         <f t="shared" si="0"/>
@@ -1711,7 +1828,7 @@
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.3 : 1</v>
+        <v>0.43 : 1</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1720,15 +1837,15 @@
       </c>
       <c r="B17" s="4">
         <f>January!B17+February!B17+March!B17+April!B17+May!B17+June!B17+July!B17+August!B17+September!B17+October!B17+November!B17+December!B17</f>
-        <v>619</v>
+        <v>1200</v>
       </c>
       <c r="C17" s="4">
         <f>January!C17+February!C17+March!C17+April!C17+May!C17+June!C17+July!C17+August!C17+September!C17+October!C17+November!C17+December!C17</f>
-        <v>444</v>
+        <v>873</v>
       </c>
       <c r="D17" s="4">
         <f>January!D17+February!D17+March!D17+April!D17+May!D17+June!D17+July!D17+August!D17+September!D17+October!D17+November!D17+December!D17</f>
-        <v>175</v>
+        <v>327</v>
       </c>
       <c r="E17" s="29" t="str">
         <f t="shared" si="0"/>
@@ -1740,7 +1857,7 @@
       </c>
       <c r="G17" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>1.39 : 1</v>
+        <v>1.37 : 1</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1749,15 +1866,15 @@
       </c>
       <c r="B18" s="2">
         <f>January!B18+February!B18+March!B18+April!B18+May!B18+June!B18+July!B18+August!B18+September!B18+October!B18+November!B18+December!B18</f>
-        <v>85</v>
+        <v>161</v>
       </c>
       <c r="C18" s="2">
         <f>January!C18+February!C18+March!C18+April!C18+May!C18+June!C18+July!C18+August!C18+September!C18+October!C18+November!C18+December!C18</f>
-        <v>98</v>
+        <v>184</v>
       </c>
       <c r="D18" s="2">
         <f>January!D18+February!D18+March!D18+April!D18+May!D18+June!D18+July!D18+August!D18+September!D18+October!D18+November!D18+December!D18</f>
-        <v>-13</v>
+        <v>-23</v>
       </c>
       <c r="E18" s="28" t="str">
         <f t="shared" si="0"/>
@@ -1769,7 +1886,7 @@
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.87 : 1</v>
+        <v>0.88 : 1</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1778,15 +1895,15 @@
       </c>
       <c r="B19" s="4">
         <f>January!B19+February!B19+March!B19+April!B19+May!B19+June!B19+July!B19+August!B19+September!B19+October!B19+November!B19+December!B19</f>
-        <v>615</v>
+        <v>1118</v>
       </c>
       <c r="C19" s="4">
         <f>January!C19+February!C19+March!C19+April!C19+May!C19+June!C19+July!C19+August!C19+September!C19+October!C19+November!C19+December!C19</f>
-        <v>429</v>
+        <v>857</v>
       </c>
       <c r="D19" s="4">
         <f>January!D19+February!D19+March!D19+April!D19+May!D19+June!D19+July!D19+August!D19+September!D19+October!D19+November!D19+December!D19</f>
-        <v>186</v>
+        <v>261</v>
       </c>
       <c r="E19" s="29" t="str">
         <f t="shared" si="0"/>
@@ -1798,7 +1915,7 @@
       </c>
       <c r="G19" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>1.43 : 1</v>
+        <v>1.3 : 1</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1807,15 +1924,15 @@
       </c>
       <c r="B20" s="2">
         <f>January!B20+February!B20+March!B20+April!B20+May!B20+June!B20+July!B20+August!B20+September!B20+October!B20+November!B20+December!B20</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C20" s="2">
         <f>January!C20+February!C20+March!C20+April!C20+May!C20+June!C20+July!C20+August!C20+September!C20+October!C20+November!C20+December!C20</f>
-        <v>61</v>
+        <v>180</v>
       </c>
       <c r="D20" s="2">
         <f>January!D20+February!D20+March!D20+April!D20+May!D20+June!D20+July!D20+August!D20+September!D20+October!D20+November!D20+December!D20</f>
-        <v>-57</v>
+        <v>-175</v>
       </c>
       <c r="E20" s="28" t="str">
         <f t="shared" si="0"/>
@@ -1827,7 +1944,7 @@
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.07 : 1</v>
+        <v>0.03 : 1</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1836,15 +1953,15 @@
       </c>
       <c r="B21" s="4">
         <f>January!B21+February!B21+March!B21+April!B21+May!B21+June!B21+July!B21+August!B21+September!B21+October!B21+November!B21+December!B21</f>
-        <v>423</v>
+        <v>837</v>
       </c>
       <c r="C21" s="4">
         <f>January!C21+February!C21+March!C21+April!C21+May!C21+June!C21+July!C21+August!C21+September!C21+October!C21+November!C21+December!C21</f>
-        <v>340</v>
+        <v>730</v>
       </c>
       <c r="D21" s="4">
         <f>January!D21+February!D21+March!D21+April!D21+May!D21+June!D21+July!D21+August!D21+September!D21+October!D21+November!D21+December!D21</f>
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="E21" s="29" t="str">
         <f t="shared" si="0"/>
@@ -1856,7 +1973,7 @@
       </c>
       <c r="G21" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>1.24 : 1</v>
+        <v>1.15 : 1</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1865,15 +1982,15 @@
       </c>
       <c r="B22" s="2">
         <f>January!B22+February!B22+March!B22+April!B22+May!B22+June!B22+July!B22+August!B22+September!B22+October!B22+November!B22+December!B22</f>
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C22" s="2">
         <f>January!C22+February!C22+March!C22+April!C22+May!C22+June!C22+July!C22+August!C22+September!C22+October!C22+November!C22+December!C22</f>
-        <v>151</v>
+        <v>298</v>
       </c>
       <c r="D22" s="2">
         <f>January!D22+February!D22+March!D22+April!D22+May!D22+June!D22+July!D22+August!D22+September!D22+October!D22+November!D22+December!D22</f>
-        <v>-135</v>
+        <v>-264</v>
       </c>
       <c r="E22" s="28" t="str">
         <f t="shared" si="0"/>
@@ -1894,15 +2011,15 @@
       </c>
       <c r="B23" s="4">
         <f>January!B23+February!B23+March!B23+April!B23+May!B23+June!B23+July!B23+August!B23+September!B23+October!B23+November!B23+December!B23</f>
-        <v>619</v>
+        <v>1263</v>
       </c>
       <c r="C23" s="4">
         <f>January!C23+February!C23+March!C23+April!C23+May!C23+June!C23+July!C23+August!C23+September!C23+October!C23+November!C23+December!C23</f>
-        <v>366</v>
+        <v>705</v>
       </c>
       <c r="D23" s="4">
         <f>January!D23+February!D23+March!D23+April!D23+May!D23+June!D23+July!D23+August!D23+September!D23+October!D23+November!D23+December!D23</f>
-        <v>253</v>
+        <v>558</v>
       </c>
       <c r="E23" s="29" t="str">
         <f t="shared" si="0"/>
@@ -1914,7 +2031,7 @@
       </c>
       <c r="G23" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>1.69 : 1</v>
+        <v>1.79 : 1</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1923,15 +2040,15 @@
       </c>
       <c r="B24" s="2">
         <f>January!B24+February!B24+March!B24+April!B24+May!B24+June!B24+July!B24+August!B24+September!B24+October!B24+November!B24+December!B24</f>
-        <v>1721</v>
+        <v>3610</v>
       </c>
       <c r="C24" s="2">
         <f>January!C24+February!C24+March!C24+April!C24+May!C24+June!C24+July!C24+August!C24+September!C24+October!C24+November!C24+December!C24</f>
-        <v>1144</v>
+        <v>2298</v>
       </c>
       <c r="D24" s="2">
         <f>January!D24+February!D24+March!D24+April!D24+May!D24+June!D24+July!D24+August!D24+September!D24+October!D24+November!D24+December!D24</f>
-        <v>577</v>
+        <v>1312</v>
       </c>
       <c r="E24" s="28" t="str">
         <f t="shared" si="0"/>
@@ -1943,7 +2060,7 @@
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>1.5 : 1</v>
+        <v>1.57 : 1</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1952,15 +2069,15 @@
       </c>
       <c r="B25" s="4">
         <f>January!B25+February!B25+March!B25+April!B25+May!B25+June!B25+July!B25+August!B25+September!B25+October!B25+November!B25+December!B25</f>
-        <v>158</v>
+        <v>294</v>
       </c>
       <c r="C25" s="4">
         <f>January!C25+February!C25+March!C25+April!C25+May!C25+June!C25+July!C25+August!C25+September!C25+October!C25+November!C25+December!C25</f>
-        <v>297</v>
+        <v>591</v>
       </c>
       <c r="D25" s="4">
         <f>January!D25+February!D25+March!D25+April!D25+May!D25+June!D25+July!D25+August!D25+September!D25+October!D25+November!D25+December!D25</f>
-        <v>-139</v>
+        <v>-297</v>
       </c>
       <c r="E25" s="29" t="str">
         <f t="shared" si="0"/>
@@ -1972,7 +2089,7 @@
       </c>
       <c r="G25" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>0.53 : 1</v>
+        <v>0.5 : 1</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2010,15 +2127,15 @@
       </c>
       <c r="B27" s="4">
         <f>January!B27+February!B27+March!B27+April!B27+May!B27+June!B27+July!B27+August!B27+September!B27+October!B27+November!B27+December!B27</f>
-        <v>255</v>
+        <v>456</v>
       </c>
       <c r="C27" s="4">
         <f>January!C27+February!C27+March!C27+April!C27+May!C27+June!C27+July!C27+August!C27+September!C27+October!C27+November!C27+December!C27</f>
-        <v>218</v>
+        <v>424</v>
       </c>
       <c r="D27" s="4">
         <f>January!D27+February!D27+March!D27+April!D27+May!D27+June!D27+July!D27+August!D27+September!D27+October!D27+November!D27+December!D27</f>
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E27" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2030,7 +2147,7 @@
       </c>
       <c r="G27" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>1.17 : 1</v>
+        <v>1.08 : 1</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2039,15 +2156,15 @@
       </c>
       <c r="B28" s="2">
         <f>January!B28+February!B28+March!B28+April!B28+May!B28+June!B28+July!B28+August!B28+September!B28+October!B28+November!B28+December!B28</f>
-        <v>58</v>
+        <v>133</v>
       </c>
       <c r="C28" s="2">
         <f>January!C28+February!C28+March!C28+April!C28+May!C28+June!C28+July!C28+August!C28+September!C28+October!C28+November!C28+December!C28</f>
-        <v>113</v>
+        <v>220</v>
       </c>
       <c r="D28" s="2">
         <f>January!D28+February!D28+March!D28+April!D28+May!D28+June!D28+July!D28+August!D28+September!D28+October!D28+November!D28+December!D28</f>
-        <v>-55</v>
+        <v>-87</v>
       </c>
       <c r="E28" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2059,7 +2176,7 @@
       </c>
       <c r="G28" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.51 : 1</v>
+        <v>0.6 : 1</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2068,15 +2185,15 @@
       </c>
       <c r="B29" s="4">
         <f>January!B29+February!B29+March!B29+April!B29+May!B29+June!B29+July!B29+August!B29+September!B29+October!B29+November!B29+December!B29</f>
-        <v>528</v>
+        <v>1111</v>
       </c>
       <c r="C29" s="4">
         <f>January!C29+February!C29+March!C29+April!C29+May!C29+June!C29+July!C29+August!C29+September!C29+October!C29+November!C29+December!C29</f>
-        <v>422</v>
+        <v>824</v>
       </c>
       <c r="D29" s="4">
         <f>January!D29+February!D29+March!D29+April!D29+May!D29+June!D29+July!D29+August!D29+September!D29+October!D29+November!D29+December!D29</f>
-        <v>106</v>
+        <v>287</v>
       </c>
       <c r="E29" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2088,7 +2205,7 @@
       </c>
       <c r="G29" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>1.25 : 1</v>
+        <v>1.35 : 1</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2097,15 +2214,15 @@
       </c>
       <c r="B30" s="2">
         <f>January!B30+February!B30+March!B30+April!B30+May!B30+June!B30+July!B30+August!B30+September!B30+October!B30+November!B30+December!B30</f>
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="C30" s="2">
         <f>January!C30+February!C30+March!C30+April!C30+May!C30+June!C30+July!C30+August!C30+September!C30+October!C30+November!C30+December!C30</f>
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D30" s="2">
         <f>January!D30+February!D30+March!D30+April!D30+May!D30+June!D30+July!D30+August!D30+September!D30+October!D30+November!D30+December!D30</f>
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="E30" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2117,7 +2234,7 @@
       </c>
       <c r="G30" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>2.95 : 1</v>
+        <v>3.68 : 1</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2126,15 +2243,15 @@
       </c>
       <c r="B31" s="4">
         <f>January!B31+February!B31+March!B31+April!B31+May!B31+June!B31+July!B31+August!B31+September!B31+October!B31+November!B31+December!B31</f>
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="C31" s="4">
         <f>January!C31+February!C31+March!C31+April!C31+May!C31+June!C31+July!C31+August!C31+September!C31+October!C31+November!C31+December!C31</f>
-        <v>302</v>
+        <v>654</v>
       </c>
       <c r="D31" s="4">
         <f>January!D31+February!D31+March!D31+April!D31+May!D31+June!D31+July!D31+August!D31+September!D31+October!D31+November!D31+December!D31</f>
-        <v>-235</v>
+        <v>-512</v>
       </c>
       <c r="E31" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2155,15 +2272,15 @@
       </c>
       <c r="B32" s="2">
         <f>January!B32+February!B32+March!B32+April!B32+May!B32+June!B32+July!B32+August!B32+September!B32+October!B32+November!B32+December!B32</f>
-        <v>361</v>
+        <v>858</v>
       </c>
       <c r="C32" s="2">
         <f>January!C32+February!C32+March!C32+April!C32+May!C32+June!C32+July!C32+August!C32+September!C32+October!C32+November!C32+December!C32</f>
-        <v>513</v>
+        <v>1054</v>
       </c>
       <c r="D32" s="2">
         <f>January!D32+February!D32+March!D32+April!D32+May!D32+June!D32+July!D32+August!D32+September!D32+October!D32+November!D32+December!D32</f>
-        <v>-152</v>
+        <v>-196</v>
       </c>
       <c r="E32" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2175,7 +2292,7 @@
       </c>
       <c r="G32" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.7 : 1</v>
+        <v>0.81 : 1</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2184,15 +2301,15 @@
       </c>
       <c r="B33" s="4">
         <f>January!B33+February!B33+March!B33+April!B33+May!B33+June!B33+July!B33+August!B33+September!B33+October!B33+November!B33+December!B33</f>
-        <v>336</v>
+        <v>609</v>
       </c>
       <c r="C33" s="4">
         <f>January!C33+February!C33+March!C33+April!C33+May!C33+June!C33+July!C33+August!C33+September!C33+October!C33+November!C33+December!C33</f>
-        <v>485</v>
+        <v>1020</v>
       </c>
       <c r="D33" s="4">
         <f>January!D33+February!D33+March!D33+April!D33+May!D33+June!D33+July!D33+August!D33+September!D33+October!D33+November!D33+December!D33</f>
-        <v>-149</v>
+        <v>-411</v>
       </c>
       <c r="E33" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2204,7 +2321,7 @@
       </c>
       <c r="G33" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>0.69 : 1</v>
+        <v>0.6 : 1</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2213,18 +2330,18 @@
       </c>
       <c r="B34" s="2">
         <f>January!B34+February!B34+March!B34+April!B34+May!B34+June!B34+July!B34+August!B34+September!B34+October!B34+November!B34+December!B34</f>
-        <v>147</v>
+        <v>287</v>
       </c>
       <c r="C34" s="2">
         <f>January!C34+February!C34+March!C34+April!C34+May!C34+June!C34+July!C34+August!C34+September!C34+October!C34+November!C34+December!C34</f>
-        <v>107</v>
+        <v>216</v>
       </c>
       <c r="D34" s="2">
         <f>January!D34+February!D34+March!D34+April!D34+May!D34+June!D34+July!D34+August!D34+September!D34+October!D34+November!D34+December!D34</f>
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="E34" s="28" t="str">
-        <f t="shared" ref="E34:E65" si="3">IF(D34 &gt; 0, "We borrowed more than we lent this year", "")</f>
+        <f t="shared" ref="E34:E55" si="3">IF(D34 &gt; 0, "We borrowed more than we lent this year", "")</f>
         <v>We borrowed more than we lent this year</v>
       </c>
       <c r="F34" s="28" t="str">
@@ -2233,7 +2350,7 @@
       </c>
       <c r="G34" s="3" t="str">
         <f t="shared" ref="G34:G55" si="5">IF(ISERROR(ROUND(B34/C34,2)&amp;" : 1"), "", ROUND(B34/C34,2)&amp;" : 1")</f>
-        <v>1.37 : 1</v>
+        <v>1.33 : 1</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2242,15 +2359,15 @@
       </c>
       <c r="B35" s="4">
         <f>January!B35+February!B35+March!B35+April!B35+May!B35+June!B35+July!B35+August!B35+September!B35+October!B35+November!B35+December!B35</f>
-        <v>787</v>
+        <v>1619</v>
       </c>
       <c r="C35" s="4">
         <f>January!C35+February!C35+March!C35+April!C35+May!C35+June!C35+July!C35+August!C35+September!C35+October!C35+November!C35+December!C35</f>
-        <v>1111</v>
+        <v>2159</v>
       </c>
       <c r="D35" s="4">
         <f>January!D35+February!D35+March!D35+April!D35+May!D35+June!D35+July!D35+August!D35+September!D35+October!D35+November!D35+December!D35</f>
-        <v>-324</v>
+        <v>-540</v>
       </c>
       <c r="E35" s="29" t="str">
         <f t="shared" si="3"/>
@@ -2262,7 +2379,7 @@
       </c>
       <c r="G35" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>0.71 : 1</v>
+        <v>0.75 : 1</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2271,15 +2388,15 @@
       </c>
       <c r="B36" s="2">
         <f>January!B36+February!B36+March!B36+April!B36+May!B36+June!B36+July!B36+August!B36+September!B36+October!B36+November!B36+December!B36</f>
-        <v>176</v>
+        <v>411</v>
       </c>
       <c r="C36" s="2">
         <f>January!C36+February!C36+March!C36+April!C36+May!C36+June!C36+July!C36+August!C36+September!C36+October!C36+November!C36+December!C36</f>
-        <v>410</v>
+        <v>900</v>
       </c>
       <c r="D36" s="2">
         <f>January!D36+February!D36+March!D36+April!D36+May!D36+June!D36+July!D36+August!D36+September!D36+October!D36+November!D36+December!D36</f>
-        <v>-234</v>
+        <v>-489</v>
       </c>
       <c r="E36" s="28" t="str">
         <f t="shared" si="3"/>
@@ -2291,7 +2408,7 @@
       </c>
       <c r="G36" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>0.43 : 1</v>
+        <v>0.46 : 1</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2300,15 +2417,15 @@
       </c>
       <c r="B37" s="4">
         <f>January!B37+February!B37+March!B37+April!B37+May!B37+June!B37+July!B37+August!B37+September!B37+October!B37+November!B37+December!B37</f>
-        <v>450</v>
+        <v>890</v>
       </c>
       <c r="C37" s="4">
         <f>January!C37+February!C37+March!C37+April!C37+May!C37+June!C37+July!C37+August!C37+September!C37+October!C37+November!C37+December!C37</f>
-        <v>286</v>
+        <v>592</v>
       </c>
       <c r="D37" s="4">
         <f>January!D37+February!D37+March!D37+April!D37+May!D37+June!D37+July!D37+August!D37+September!D37+October!D37+November!D37+December!D37</f>
-        <v>164</v>
+        <v>298</v>
       </c>
       <c r="E37" s="29" t="str">
         <f t="shared" si="3"/>
@@ -2320,7 +2437,7 @@
       </c>
       <c r="G37" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>1.57 : 1</v>
+        <v>1.5 : 1</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2329,15 +2446,15 @@
       </c>
       <c r="B38" s="2">
         <f>January!B38+February!B38+March!B38+April!B38+May!B38+June!B38+July!B38+August!B38+September!B38+October!B38+November!B38+December!B38</f>
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="C38" s="2">
         <f>January!C38+February!C38+March!C38+April!C38+May!C38+June!C38+July!C38+August!C38+September!C38+October!C38+November!C38+December!C38</f>
-        <v>168</v>
+        <v>356</v>
       </c>
       <c r="D38" s="2">
         <f>January!D38+February!D38+March!D38+April!D38+May!D38+June!D38+July!D38+August!D38+September!D38+October!D38+November!D38+December!D38</f>
-        <v>-143</v>
+        <v>-307</v>
       </c>
       <c r="E38" s="28" t="str">
         <f t="shared" si="3"/>
@@ -2349,7 +2466,7 @@
       </c>
       <c r="G38" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>0.15 : 1</v>
+        <v>0.14 : 1</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2358,15 +2475,15 @@
       </c>
       <c r="B39" s="4">
         <f>January!B44+February!B44+March!B44+April!B44+May!B44+June!B44+July!B44+August!B44+September!B44+October!B44+November!B44+December!B44</f>
-        <v>47</v>
+        <v>124</v>
       </c>
       <c r="C39" s="4">
         <f>January!C44+February!C44+March!C44+April!C44+May!C44+June!C44+July!C44+August!C44+September!C44+October!C44+November!C44+December!C44</f>
-        <v>59</v>
+        <v>142</v>
       </c>
       <c r="D39" s="4">
         <f>January!D44+February!D44+March!D44+April!D44+May!D44+June!D44+July!D44+August!D44+September!D44+October!D44+November!D44+December!D44</f>
-        <v>-12</v>
+        <v>-18</v>
       </c>
       <c r="E39" s="29" t="str">
         <f t="shared" si="3"/>
@@ -2378,7 +2495,7 @@
       </c>
       <c r="G39" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>0.8 : 1</v>
+        <v>0.87 : 1</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2387,15 +2504,15 @@
       </c>
       <c r="B40" s="8">
         <f>January!B39+February!B39+March!B39+April!B39+May!B39+June!B39+July!B39+August!B39+September!B39+October!B39+November!B39+December!B39</f>
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="C40" s="8">
         <f>January!C39+February!C39+March!C39+April!C39+May!C39+June!C39+July!C39+August!C39+September!C39+October!C39+November!C39+December!C39</f>
-        <v>89</v>
+        <v>203</v>
       </c>
       <c r="D40" s="8">
         <f>January!D39+February!D39+March!D39+April!D39+May!D39+June!D39+July!D39+August!D39+September!D39+October!D39+November!D39+December!D39</f>
-        <v>-18</v>
+        <v>-111</v>
       </c>
       <c r="E40" s="31" t="str">
         <f t="shared" si="3"/>
@@ -2407,7 +2524,7 @@
       </c>
       <c r="G40" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>0.8 : 1</v>
+        <v>0.45 : 1</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2416,15 +2533,15 @@
       </c>
       <c r="B41" s="8">
         <f>January!B40+February!B40+March!B40+April!B40+May!B40+June!B40+July!B40+August!B40+September!B40+October!B40+November!B40+December!B40</f>
-        <v>101</v>
+        <v>197</v>
       </c>
       <c r="C41" s="8">
         <f>January!C40+February!C40+March!C40+April!C40+May!C40+June!C40+July!C40+August!C40+September!C40+October!C40+November!C40+December!C40</f>
-        <v>96</v>
+        <v>188</v>
       </c>
       <c r="D41" s="8">
         <f>January!D40+February!D40+March!D40+April!D40+May!D40+June!D40+July!D40+August!D40+September!D40+October!D40+November!D40+December!D40</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E41" s="31" t="str">
         <f t="shared" si="3"/>
@@ -2445,15 +2562,15 @@
       </c>
       <c r="B42" s="8">
         <f>January!B41+February!B41+March!B41+April!B41+May!B41+June!B41+July!B41+August!B41+September!B41+October!B41+November!B41+December!B41</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C42" s="8">
         <f>January!C41+February!C41+March!C41+April!C41+May!C41+June!C41+July!C41+August!C41+September!C41+October!C41+November!C41+December!C41</f>
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="D42" s="8">
         <f>January!D41+February!D41+March!D41+April!D41+May!D41+June!D41+July!D41+August!D41+September!D41+October!D41+November!D41+December!D41</f>
-        <v>-30</v>
+        <v>-63</v>
       </c>
       <c r="E42" s="31" t="str">
         <f t="shared" si="3"/>
@@ -2465,7 +2582,7 @@
       </c>
       <c r="G42" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>0.06 : 1</v>
+        <v>0.07 : 1</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2474,15 +2591,15 @@
       </c>
       <c r="B43" s="8">
         <f>January!B42+February!B42+March!B42+April!B42+May!B42+June!B42+July!B42+August!B42+September!B42+October!B42+November!B42+December!B42</f>
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C43" s="8">
         <f>January!C42+February!C42+March!C42+April!C42+May!C42+June!C42+July!C42+August!C42+September!C42+October!C42+November!C42+December!C42</f>
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="D43" s="8">
         <f>January!D42+February!D42+March!D42+April!D42+May!D42+June!D42+July!D42+August!D42+September!D42+October!D42+November!D42+December!D42</f>
-        <v>-17</v>
+        <v>-42</v>
       </c>
       <c r="E43" s="31" t="str">
         <f t="shared" si="3"/>
@@ -2494,7 +2611,7 @@
       </c>
       <c r="G43" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>0.37 : 1</v>
+        <v>0.34 : 1</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2532,15 +2649,15 @@
       </c>
       <c r="B45" s="2">
         <f>January!B45+February!B45+March!B45+April!B45+May!B45+June!B45+July!B45+August!B45+September!B45+October!B45+November!B45+December!B45</f>
-        <v>71</v>
+        <v>137</v>
       </c>
       <c r="C45" s="2">
         <f>January!C45+February!C45+March!C45+April!C45+May!C45+June!C45+July!C45+August!C45+September!C45+October!C45+November!C45+December!C45</f>
-        <v>126</v>
+        <v>309</v>
       </c>
       <c r="D45" s="2">
         <f>January!D45+February!D45+March!D45+April!D45+May!D45+June!D45+July!D45+August!D45+September!D45+October!D45+November!D45+December!D45</f>
-        <v>-55</v>
+        <v>-172</v>
       </c>
       <c r="E45" s="28" t="str">
         <f t="shared" si="3"/>
@@ -2552,7 +2669,7 @@
       </c>
       <c r="G45" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>0.56 : 1</v>
+        <v>0.44 : 1</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2561,15 +2678,15 @@
       </c>
       <c r="B46" s="4">
         <f>January!B46+February!B46+March!B46+April!B46+May!B46+June!B46+July!B46+August!B46+September!B46+October!B46+November!B46+December!B46</f>
-        <v>515</v>
+        <v>1123</v>
       </c>
       <c r="C46" s="4">
         <f>January!C46+February!C46+March!C46+April!C46+May!C46+June!C46+July!C46+August!C46+September!C46+October!C46+November!C46+December!C46</f>
-        <v>628</v>
+        <v>1210</v>
       </c>
       <c r="D46" s="4">
         <f>January!D46+February!D46+March!D46+April!D46+May!D46+June!D46+July!D46+August!D46+September!D46+October!D46+November!D46+December!D46</f>
-        <v>-113</v>
+        <v>-87</v>
       </c>
       <c r="E46" s="29" t="str">
         <f t="shared" si="3"/>
@@ -2581,7 +2698,7 @@
       </c>
       <c r="G46" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>0.82 : 1</v>
+        <v>0.93 : 1</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2590,15 +2707,15 @@
       </c>
       <c r="B47" s="2">
         <f>January!B47+February!B47+March!B47+April!B47+May!B47+June!B47+July!B47+August!B47+September!B47+October!B47+November!B47+December!B47</f>
-        <v>1087</v>
+        <v>2230</v>
       </c>
       <c r="C47" s="2">
         <f>January!C47+February!C47+March!C47+April!C47+May!C47+June!C47+July!C47+August!C47+September!C47+October!C47+November!C47+December!C47</f>
-        <v>551</v>
+        <v>1156</v>
       </c>
       <c r="D47" s="2">
         <f>January!D47+February!D47+March!D47+April!D47+May!D47+June!D47+July!D47+August!D47+September!D47+October!D47+November!D47+December!D47</f>
-        <v>536</v>
+        <v>1074</v>
       </c>
       <c r="E47" s="28" t="str">
         <f t="shared" si="3"/>
@@ -2610,7 +2727,7 @@
       </c>
       <c r="G47" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>1.97 : 1</v>
+        <v>1.93 : 1</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2619,15 +2736,15 @@
       </c>
       <c r="B48" s="4">
         <f>January!B48+February!B48+March!B48+April!B48+May!B48+June!B48+July!B48+August!B48+September!B48+October!B48+November!B48+December!B48</f>
-        <v>264</v>
+        <v>527</v>
       </c>
       <c r="C48" s="4">
         <f>January!C48+February!C48+March!C48+April!C48+May!C48+June!C48+July!C48+August!C48+September!C48+October!C48+November!C48+December!C48</f>
-        <v>673</v>
+        <v>1311</v>
       </c>
       <c r="D48" s="4">
         <f>January!D48+February!D48+March!D48+April!D48+May!D48+June!D48+July!D48+August!D48+September!D48+October!D48+November!D48+December!D48</f>
-        <v>-409</v>
+        <v>-784</v>
       </c>
       <c r="E48" s="29" t="str">
         <f t="shared" si="3"/>
@@ -2639,7 +2756,7 @@
       </c>
       <c r="G48" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>0.39 : 1</v>
+        <v>0.4 : 1</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2648,15 +2765,15 @@
       </c>
       <c r="B49" s="2">
         <f>January!B49+February!B49+March!B49+April!B49+May!B49+June!B49+July!B49+August!B49+September!B49+October!B49+November!B49+December!B49</f>
-        <v>513</v>
+        <v>1052</v>
       </c>
       <c r="C49" s="2">
         <f>January!C49+February!C49+March!C49+April!C49+May!C49+June!C49+July!C49+August!C49+September!C49+October!C49+November!C49+December!C49</f>
-        <v>251</v>
+        <v>465</v>
       </c>
       <c r="D49" s="2">
         <f>January!D49+February!D49+March!D49+April!D49+May!D49+June!D49+July!D49+August!D49+September!D49+October!D49+November!D49+December!D49</f>
-        <v>262</v>
+        <v>587</v>
       </c>
       <c r="E49" s="28" t="str">
         <f t="shared" si="3"/>
@@ -2668,7 +2785,7 @@
       </c>
       <c r="G49" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>2.04 : 1</v>
+        <v>2.26 : 1</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2677,15 +2794,15 @@
       </c>
       <c r="B50" s="4">
         <f>January!B50+February!B50+March!B50+April!B50+May!B50+June!B50+July!B50+August!B50+September!B50+October!B50+November!B50+December!B50</f>
-        <v>906</v>
+        <v>1803</v>
       </c>
       <c r="C50" s="4">
         <f>January!C50+February!C50+March!C50+April!C50+May!C50+June!C50+July!C50+August!C50+September!C50+October!C50+November!C50+December!C50</f>
-        <v>441</v>
+        <v>972</v>
       </c>
       <c r="D50" s="4">
         <f>January!D50+February!D50+March!D50+April!D50+May!D50+June!D50+July!D50+August!D50+September!D50+October!D50+November!D50+December!D50</f>
-        <v>465</v>
+        <v>831</v>
       </c>
       <c r="E50" s="29" t="str">
         <f t="shared" si="3"/>
@@ -2697,7 +2814,7 @@
       </c>
       <c r="G50" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>2.05 : 1</v>
+        <v>1.85 : 1</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2706,15 +2823,15 @@
       </c>
       <c r="B51" s="2">
         <f>January!B51+February!B51+March!B51+April!B51+May!B51+June!B51+July!B51+August!B51+September!B51+October!B51+November!B51+December!B51</f>
-        <v>187</v>
+        <v>391</v>
       </c>
       <c r="C51" s="2">
         <f>January!C51+February!C51+March!C51+April!C51+May!C51+June!C51+July!C51+August!C51+September!C51+October!C51+November!C51+December!C51</f>
-        <v>154</v>
+        <v>320</v>
       </c>
       <c r="D51" s="2">
         <f>January!D51+February!D51+March!D51+April!D51+May!D51+June!D51+July!D51+August!D51+September!D51+October!D51+November!D51+December!D51</f>
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="E51" s="28" t="str">
         <f t="shared" si="3"/>
@@ -2726,7 +2843,7 @@
       </c>
       <c r="G51" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>1.21 : 1</v>
+        <v>1.22 : 1</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2735,15 +2852,15 @@
       </c>
       <c r="B52" s="4">
         <f>January!B52+February!B52+March!B52+April!B52+May!B52+June!B52+July!B52+August!B52+September!B52+October!B52+November!B52+December!B52</f>
-        <v>322</v>
+        <v>689</v>
       </c>
       <c r="C52" s="4">
         <f>January!C52+February!C52+March!C52+April!C52+May!C52+June!C52+July!C52+August!C52+September!C52+October!C52+November!C52+December!C52</f>
-        <v>399</v>
+        <v>744</v>
       </c>
       <c r="D52" s="4">
         <f>January!D52+February!D52+March!D52+April!D52+May!D52+June!D52+July!D52+August!D52+September!D52+October!D52+November!D52+December!D52</f>
-        <v>-77</v>
+        <v>-55</v>
       </c>
       <c r="E52" s="29" t="str">
         <f t="shared" si="3"/>
@@ -2755,7 +2872,7 @@
       </c>
       <c r="G52" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>0.81 : 1</v>
+        <v>0.93 : 1</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2764,15 +2881,15 @@
       </c>
       <c r="B53" s="2">
         <f>January!B53+February!B53+March!B53+April!B53+May!B53+June!B53+July!B53+August!B53+September!B53+October!B53+November!B53+December!B53</f>
-        <v>113</v>
+        <v>251</v>
       </c>
       <c r="C53" s="2">
         <f>January!C53+February!C53+March!C53+April!C53+May!C53+June!C53+July!C53+August!C53+September!C53+October!C53+November!C53+December!C53</f>
-        <v>218</v>
+        <v>422</v>
       </c>
       <c r="D53" s="2">
         <f>January!D53+February!D53+March!D53+April!D53+May!D53+June!D53+July!D53+August!D53+September!D53+October!D53+November!D53+December!D53</f>
-        <v>-105</v>
+        <v>-171</v>
       </c>
       <c r="E53" s="28" t="str">
         <f t="shared" si="3"/>
@@ -2784,7 +2901,7 @@
       </c>
       <c r="G53" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>0.52 : 1</v>
+        <v>0.59 : 1</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2793,15 +2910,15 @@
       </c>
       <c r="B54" s="4">
         <f>January!B54+February!B54+March!B54+April!B54+May!B54+June!B54+July!B54+August!B54+September!B54+October!B54+November!B54+December!B54</f>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C54" s="4">
         <f>January!C54+February!C54+March!C54+April!C54+May!C54+June!C54+July!C54+August!C54+September!C54+October!C54+November!C54+December!C54</f>
-        <v>207</v>
+        <v>432</v>
       </c>
       <c r="D54" s="4">
         <f>January!D54+February!D54+March!D54+April!D54+May!D54+June!D54+July!D54+August!D54+September!D54+October!D54+November!D54+December!D54</f>
-        <v>-192</v>
+        <v>-401</v>
       </c>
       <c r="E54" s="29" t="str">
         <f t="shared" si="3"/>
@@ -2822,15 +2939,15 @@
       </c>
       <c r="B55" s="10">
         <f>January!B55+February!B55+March!B55+April!B55+May!B55+June!B55+July!B55+August!B55+September!B55+October!B55+November!B55+December!B55</f>
-        <v>300</v>
+        <v>588</v>
       </c>
       <c r="C55" s="10">
         <f>January!C55+February!C55+March!C55+April!C55+May!C55+June!C55+July!C55+August!C55+September!C55+October!C55+November!C55+December!C55</f>
-        <v>199</v>
+        <v>420</v>
       </c>
       <c r="D55" s="10">
         <f>January!D55+February!D55+March!D55+April!D55+May!D55+June!D55+July!D55+August!D55+September!D55+October!D55+November!D55+December!D55</f>
-        <v>101</v>
+        <v>168</v>
       </c>
       <c r="E55" s="32" t="str">
         <f t="shared" si="3"/>
@@ -2842,7 +2959,7 @@
       </c>
       <c r="G55" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>1.51 : 1</v>
+        <v>1.4 : 1</v>
       </c>
     </row>
   </sheetData>
@@ -6739,108 +6856,204 @@
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="28"/>
+      <c r="B2" s="18">
+        <v>1408</v>
+      </c>
+      <c r="C2" s="18">
+        <v>1139</v>
+      </c>
+      <c r="D2" s="18">
+        <v>269</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F2" s="28"/>
-      <c r="G2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="29"/>
+      <c r="B3" s="21">
+        <v>548</v>
+      </c>
+      <c r="C3" s="21">
+        <v>498</v>
+      </c>
+      <c r="D3" s="21">
+        <v>50</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F3" s="29"/>
-      <c r="G3" s="5"/>
+      <c r="G3" s="5" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="B4" s="18">
+        <v>1233</v>
+      </c>
+      <c r="C4" s="18">
+        <v>1240</v>
+      </c>
+      <c r="D4" s="18">
+        <v>-7</v>
+      </c>
       <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="3"/>
+      <c r="F4" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
+      <c r="B5" s="21">
+        <v>55</v>
+      </c>
+      <c r="C5" s="21">
+        <v>103</v>
+      </c>
+      <c r="D5" s="21">
+        <v>-48</v>
+      </c>
       <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="5"/>
+      <c r="F5" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
+      <c r="B6" s="18">
+        <v>1039</v>
+      </c>
+      <c r="C6" s="18">
+        <v>1587</v>
+      </c>
+      <c r="D6" s="18">
+        <v>-548</v>
+      </c>
       <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="3"/>
+      <c r="F6" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="29"/>
+      <c r="B7" s="21">
+        <v>231</v>
+      </c>
+      <c r="C7" s="21">
+        <v>168</v>
+      </c>
+      <c r="D7" s="21">
+        <v>63</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F7" s="29"/>
-      <c r="G7" s="5"/>
+      <c r="G7" s="5" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
+      <c r="B8" s="18">
+        <v>137</v>
+      </c>
+      <c r="C8" s="18">
+        <v>200</v>
+      </c>
+      <c r="D8" s="18">
+        <v>-63</v>
+      </c>
       <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
+      <c r="B9" s="21">
+        <v>56</v>
+      </c>
+      <c r="C9" s="21">
+        <v>78</v>
+      </c>
+      <c r="D9" s="21">
+        <v>-22</v>
+      </c>
       <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="5"/>
+      <c r="F9" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
+      <c r="B10" s="18">
+        <v>0</v>
+      </c>
+      <c r="C10" s="18">
+        <v>57</v>
+      </c>
+      <c r="D10" s="18">
+        <v>-57</v>
+      </c>
       <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="3"/>
+      <c r="F10" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
+      <c r="B11" s="21">
+        <v>0</v>
+      </c>
+      <c r="C11" s="21">
+        <v>0</v>
+      </c>
+      <c r="D11" s="21">
+        <v>0</v>
+      </c>
       <c r="E11" s="29"/>
       <c r="F11" s="29"/>
       <c r="G11" s="5"/>
@@ -6849,163 +7062,309 @@
       <c r="A12" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="30"/>
+      <c r="B12" s="23">
+        <v>86</v>
+      </c>
+      <c r="C12" s="23">
+        <v>15</v>
+      </c>
+      <c r="D12" s="23">
+        <v>71</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>61</v>
+      </c>
       <c r="F12" s="30"/>
-      <c r="G12" s="7"/>
+      <c r="G12" s="7" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="30"/>
+      <c r="B13" s="23">
+        <v>205</v>
+      </c>
+      <c r="C13" s="23">
+        <v>103</v>
+      </c>
+      <c r="D13" s="23">
+        <v>102</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>61</v>
+      </c>
       <c r="F13" s="30"/>
-      <c r="G13" s="7"/>
+      <c r="G13" s="7" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
+      <c r="B14" s="23">
+        <v>131</v>
+      </c>
+      <c r="C14" s="23">
+        <v>272</v>
+      </c>
+      <c r="D14" s="23">
+        <v>-141</v>
+      </c>
       <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="7"/>
+      <c r="F14" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
+      <c r="B15" s="23">
+        <v>49</v>
+      </c>
+      <c r="C15" s="23">
+        <v>117</v>
+      </c>
+      <c r="D15" s="23">
+        <v>-68</v>
+      </c>
       <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="7"/>
+      <c r="F15" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
+      <c r="B16" s="18">
+        <v>82</v>
+      </c>
+      <c r="C16" s="18">
+        <v>144</v>
+      </c>
+      <c r="D16" s="18">
+        <v>-62</v>
+      </c>
       <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="3"/>
+      <c r="F16" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="29"/>
+      <c r="B17" s="21">
+        <v>581</v>
+      </c>
+      <c r="C17" s="21">
+        <v>429</v>
+      </c>
+      <c r="D17" s="21">
+        <v>152</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F17" s="29"/>
-      <c r="G17" s="5"/>
+      <c r="G17" s="5" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
+      <c r="B18" s="18">
+        <v>76</v>
+      </c>
+      <c r="C18" s="18">
+        <v>86</v>
+      </c>
+      <c r="D18" s="18">
+        <v>-10</v>
+      </c>
       <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="3"/>
+      <c r="F18" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="29"/>
+      <c r="B19" s="21">
+        <v>503</v>
+      </c>
+      <c r="C19" s="21">
+        <v>428</v>
+      </c>
+      <c r="D19" s="21">
+        <v>75</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F19" s="29"/>
-      <c r="G19" s="5"/>
+      <c r="G19" s="5" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
+      <c r="B20" s="18">
+        <v>1</v>
+      </c>
+      <c r="C20" s="18">
+        <v>119</v>
+      </c>
+      <c r="D20" s="18">
+        <v>-118</v>
+      </c>
       <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="3"/>
+      <c r="F20" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="29"/>
+      <c r="B21" s="21">
+        <v>414</v>
+      </c>
+      <c r="C21" s="21">
+        <v>390</v>
+      </c>
+      <c r="D21" s="21">
+        <v>24</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F21" s="29"/>
-      <c r="G21" s="5"/>
+      <c r="G21" s="5" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
+      <c r="B22" s="18">
+        <v>18</v>
+      </c>
+      <c r="C22" s="18">
+        <v>147</v>
+      </c>
+      <c r="D22" s="18">
+        <v>-129</v>
+      </c>
       <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="3"/>
+      <c r="F22" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="29"/>
+      <c r="B23" s="21">
+        <v>644</v>
+      </c>
+      <c r="C23" s="21">
+        <v>339</v>
+      </c>
+      <c r="D23" s="21">
+        <v>305</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F23" s="29"/>
-      <c r="G23" s="5"/>
+      <c r="G23" s="5" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="28"/>
+      <c r="B24" s="18">
+        <v>1889</v>
+      </c>
+      <c r="C24" s="18">
+        <v>1154</v>
+      </c>
+      <c r="D24" s="18">
+        <v>735</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F24" s="28"/>
-      <c r="G24" s="3"/>
+      <c r="G24" s="3" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
+      <c r="B25" s="21">
+        <v>136</v>
+      </c>
+      <c r="C25" s="21">
+        <v>294</v>
+      </c>
+      <c r="D25" s="21">
+        <v>-158</v>
+      </c>
       <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="5"/>
+      <c r="F25" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
+      <c r="B26" s="18">
+        <v>0</v>
+      </c>
+      <c r="C26" s="18">
+        <v>0</v>
+      </c>
+      <c r="D26" s="18">
+        <v>0</v>
+      </c>
       <c r="E26" s="28"/>
       <c r="F26" s="28"/>
       <c r="G26" s="3"/>
@@ -7014,185 +7373,351 @@
       <c r="A27" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
+      <c r="B27" s="21">
+        <v>201</v>
+      </c>
+      <c r="C27" s="21">
+        <v>206</v>
+      </c>
+      <c r="D27" s="21">
+        <v>-5</v>
+      </c>
       <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="5"/>
+      <c r="F27" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
+      <c r="B28" s="18">
+        <v>75</v>
+      </c>
+      <c r="C28" s="18">
+        <v>107</v>
+      </c>
+      <c r="D28" s="18">
+        <v>-32</v>
+      </c>
       <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="3"/>
+      <c r="F28" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="29"/>
+      <c r="B29" s="21">
+        <v>583</v>
+      </c>
+      <c r="C29" s="21">
+        <v>402</v>
+      </c>
+      <c r="D29" s="21">
+        <v>181</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F29" s="29"/>
-      <c r="G29" s="5"/>
+      <c r="G29" s="5" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="28"/>
+      <c r="B30" s="18">
+        <v>38</v>
+      </c>
+      <c r="C30" s="18">
+        <v>6</v>
+      </c>
+      <c r="D30" s="18">
+        <v>32</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F30" s="28"/>
-      <c r="G30" s="3"/>
+      <c r="G30" s="3" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
+      <c r="B31" s="21">
+        <v>75</v>
+      </c>
+      <c r="C31" s="21">
+        <v>352</v>
+      </c>
+      <c r="D31" s="21">
+        <v>-277</v>
+      </c>
       <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="5"/>
+      <c r="F31" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
+      <c r="B32" s="18">
+        <v>497</v>
+      </c>
+      <c r="C32" s="18">
+        <v>541</v>
+      </c>
+      <c r="D32" s="18">
+        <v>-44</v>
+      </c>
       <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="3"/>
+      <c r="F32" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
+      <c r="B33" s="21">
+        <v>273</v>
+      </c>
+      <c r="C33" s="21">
+        <v>535</v>
+      </c>
+      <c r="D33" s="21">
+        <v>-262</v>
+      </c>
       <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="5"/>
+      <c r="F33" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="28"/>
+      <c r="B34" s="18">
+        <v>140</v>
+      </c>
+      <c r="C34" s="18">
+        <v>109</v>
+      </c>
+      <c r="D34" s="18">
+        <v>31</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F34" s="28"/>
-      <c r="G34" s="3"/>
+      <c r="G34" s="3" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
+      <c r="B35" s="21">
+        <v>832</v>
+      </c>
+      <c r="C35" s="21">
+        <v>1048</v>
+      </c>
+      <c r="D35" s="21">
+        <v>-216</v>
+      </c>
       <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="5"/>
+      <c r="F35" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
+      <c r="B36" s="18">
+        <v>235</v>
+      </c>
+      <c r="C36" s="18">
+        <v>490</v>
+      </c>
+      <c r="D36" s="18">
+        <v>-255</v>
+      </c>
       <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="3"/>
+      <c r="F36" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="29"/>
+      <c r="B37" s="21">
+        <v>440</v>
+      </c>
+      <c r="C37" s="21">
+        <v>306</v>
+      </c>
+      <c r="D37" s="21">
+        <v>134</v>
+      </c>
+      <c r="E37" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F37" s="29"/>
-      <c r="G37" s="5"/>
+      <c r="G37" s="5" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
+      <c r="B38" s="18">
+        <v>24</v>
+      </c>
+      <c r="C38" s="18">
+        <v>188</v>
+      </c>
+      <c r="D38" s="18">
+        <v>-164</v>
+      </c>
       <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="3"/>
+      <c r="F38" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
+      <c r="B39" s="25">
+        <v>21</v>
+      </c>
+      <c r="C39" s="25">
+        <v>114</v>
+      </c>
+      <c r="D39" s="25">
+        <v>-93</v>
+      </c>
       <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="9"/>
+      <c r="F39" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="31"/>
+      <c r="B40" s="25">
+        <v>96</v>
+      </c>
+      <c r="C40" s="25">
+        <v>92</v>
+      </c>
+      <c r="D40" s="25">
+        <v>4</v>
+      </c>
+      <c r="E40" s="31" t="s">
+        <v>61</v>
+      </c>
       <c r="F40" s="31"/>
-      <c r="G40" s="9"/>
+      <c r="G40" s="9" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
+      <c r="B41" s="25">
+        <v>3</v>
+      </c>
+      <c r="C41" s="25">
+        <v>36</v>
+      </c>
+      <c r="D41" s="25">
+        <v>-33</v>
+      </c>
       <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="9"/>
+      <c r="F41" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
+      <c r="B42" s="25">
+        <v>12</v>
+      </c>
+      <c r="C42" s="25">
+        <v>37</v>
+      </c>
+      <c r="D42" s="25">
+        <v>-25</v>
+      </c>
       <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="9"/>
+      <c r="F42" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
+      <c r="B43" s="25">
+        <v>0</v>
+      </c>
+      <c r="C43" s="25">
+        <v>0</v>
+      </c>
+      <c r="D43" s="25">
+        <v>0</v>
+      </c>
       <c r="E43" s="31"/>
       <c r="F43" s="31"/>
       <c r="G43" s="9"/>
@@ -7201,133 +7726,253 @@
       <c r="A44" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
+      <c r="B44" s="21">
+        <v>77</v>
+      </c>
+      <c r="C44" s="21">
+        <v>83</v>
+      </c>
+      <c r="D44" s="21">
+        <v>-6</v>
+      </c>
       <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="5"/>
+      <c r="F44" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
+      <c r="B45" s="18">
+        <v>66</v>
+      </c>
+      <c r="C45" s="18">
+        <v>183</v>
+      </c>
+      <c r="D45" s="18">
+        <v>-117</v>
+      </c>
       <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="3"/>
+      <c r="F45" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="29"/>
+      <c r="B46" s="21">
+        <v>608</v>
+      </c>
+      <c r="C46" s="21">
+        <v>582</v>
+      </c>
+      <c r="D46" s="21">
+        <v>26</v>
+      </c>
+      <c r="E46" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F46" s="29"/>
-      <c r="G46" s="5"/>
+      <c r="G46" s="5" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="28"/>
+      <c r="B47" s="18">
+        <v>1143</v>
+      </c>
+      <c r="C47" s="18">
+        <v>605</v>
+      </c>
+      <c r="D47" s="18">
+        <v>538</v>
+      </c>
+      <c r="E47" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F47" s="28"/>
-      <c r="G47" s="3"/>
+      <c r="G47" s="3" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
+      <c r="B48" s="21">
+        <v>263</v>
+      </c>
+      <c r="C48" s="21">
+        <v>638</v>
+      </c>
+      <c r="D48" s="21">
+        <v>-375</v>
+      </c>
       <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="5"/>
+      <c r="F48" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="28"/>
+      <c r="B49" s="18">
+        <v>539</v>
+      </c>
+      <c r="C49" s="18">
+        <v>214</v>
+      </c>
+      <c r="D49" s="18">
+        <v>325</v>
+      </c>
+      <c r="E49" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F49" s="28"/>
-      <c r="G49" s="3"/>
+      <c r="G49" s="3" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="29"/>
+      <c r="B50" s="21">
+        <v>897</v>
+      </c>
+      <c r="C50" s="21">
+        <v>531</v>
+      </c>
+      <c r="D50" s="21">
+        <v>366</v>
+      </c>
+      <c r="E50" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F50" s="29"/>
-      <c r="G50" s="5"/>
+      <c r="G50" s="5" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="28"/>
+      <c r="B51" s="18">
+        <v>204</v>
+      </c>
+      <c r="C51" s="18">
+        <v>166</v>
+      </c>
+      <c r="D51" s="18">
+        <v>38</v>
+      </c>
+      <c r="E51" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F51" s="28"/>
-      <c r="G51" s="3"/>
+      <c r="G51" s="3" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="29"/>
+      <c r="B52" s="21">
+        <v>367</v>
+      </c>
+      <c r="C52" s="21">
+        <v>345</v>
+      </c>
+      <c r="D52" s="21">
+        <v>22</v>
+      </c>
+      <c r="E52" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F52" s="29"/>
-      <c r="G52" s="5"/>
+      <c r="G52" s="5" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
+      <c r="B53" s="18">
+        <v>138</v>
+      </c>
+      <c r="C53" s="18">
+        <v>204</v>
+      </c>
+      <c r="D53" s="18">
+        <v>-66</v>
+      </c>
       <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="3"/>
+      <c r="F53" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B54" s="21"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
+      <c r="B54" s="21">
+        <v>16</v>
+      </c>
+      <c r="C54" s="21">
+        <v>225</v>
+      </c>
+      <c r="D54" s="21">
+        <v>-209</v>
+      </c>
       <c r="E54" s="29"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="5"/>
+      <c r="F54" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="B55" s="27"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="32"/>
+      <c r="B55" s="27">
+        <v>288</v>
+      </c>
+      <c r="C55" s="27">
+        <v>221</v>
+      </c>
+      <c r="D55" s="27">
+        <v>67</v>
+      </c>
+      <c r="E55" s="32" t="s">
+        <v>61</v>
+      </c>
       <c r="F55" s="32"/>
-      <c r="G55" s="11"/>
+      <c r="G55" s="11" t="s">
+        <v>108</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G55" xr:uid="{00000000-0009-0000-0000-000002000000}"/>

--- a/statistics_files/2024/2024_99_g_net_borrower_lender.xlsx
+++ b/statistics_files/2024/2024_99_g_net_borrower_lender.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20407"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\GitHub\next_statistics\statistics_files\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9863E270-3EF8-4630-BF67-B269DF62377C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{369C9401-6B85-4EC1-B7BA-0F6CCC120185}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" tabRatio="673" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="172">
   <si>
     <t>NET</t>
   </si>
@@ -493,6 +493,81 @@
   </si>
   <si>
     <t>1.10 : 1</t>
+  </si>
+  <si>
+    <t>1.13 : 1</t>
+  </si>
+  <si>
+    <t>1.27 : 1</t>
+  </si>
+  <si>
+    <t>1.02 : 1</t>
+  </si>
+  <si>
+    <t>0.76 : 1</t>
+  </si>
+  <si>
+    <t>1.82 : 1</t>
+  </si>
+  <si>
+    <t>0.50 : 1</t>
+  </si>
+  <si>
+    <t>1.73 : 1</t>
+  </si>
+  <si>
+    <t>0.33 : 1</t>
+  </si>
+  <si>
+    <t>1.58 : 1</t>
+  </si>
+  <si>
+    <t>0.78 : 1</t>
+  </si>
+  <si>
+    <t>0.02 : 1</t>
+  </si>
+  <si>
+    <t>1.66 : 1</t>
+  </si>
+  <si>
+    <t>1.75 : 1</t>
+  </si>
+  <si>
+    <t>1.54 : 1</t>
+  </si>
+  <si>
+    <t>0.90 : 1</t>
+  </si>
+  <si>
+    <t>2.14 : 1</t>
+  </si>
+  <si>
+    <t>0.47 : 1</t>
+  </si>
+  <si>
+    <t>1.96 : 1</t>
+  </si>
+  <si>
+    <t>0.17 : 1</t>
+  </si>
+  <si>
+    <t>0.25 : 1</t>
+  </si>
+  <si>
+    <t>0.60 : 1</t>
+  </si>
+  <si>
+    <t>1.47 : 1</t>
+  </si>
+  <si>
+    <t>0.66 : 1</t>
+  </si>
+  <si>
+    <t>1.67 : 1</t>
+  </si>
+  <si>
+    <t>1.46 : 1</t>
   </si>
 </sst>
 </file>
@@ -1402,15 +1477,15 @@
       </c>
       <c r="B2" s="2">
         <f>January!B2+February!B2+March!B2+April!B2+May!B2+June!B2+July!B2+August!B2+September!B2+October!B2+November!B2+December!B2</f>
-        <v>2737</v>
+        <v>4095</v>
       </c>
       <c r="C2" s="2">
         <f>January!C2+February!C2+March!C2+April!C2+May!C2+June!C2+July!C2+August!C2+September!C2+October!C2+November!C2+December!C2</f>
-        <v>2423</v>
+        <v>3623</v>
       </c>
       <c r="D2" s="2">
         <f>January!D2+February!D2+March!D2+April!D2+May!D2+June!D2+July!D2+August!D2+September!D2+October!D2+November!D2+December!D2</f>
-        <v>314</v>
+        <v>472</v>
       </c>
       <c r="E2" s="28" t="str">
         <f t="shared" ref="E2:E33" si="0">IF(D2 &gt; 0, "We borrowed more than we lent this year", "")</f>
@@ -1431,15 +1506,15 @@
       </c>
       <c r="B3" s="4">
         <f>January!B3+February!B3+March!B3+April!B3+May!B3+June!B3+July!B3+August!B3+September!B3+October!B3+November!B3+December!B3</f>
-        <v>1082</v>
+        <v>1701</v>
       </c>
       <c r="C3" s="4">
         <f>January!C3+February!C3+March!C3+April!C3+May!C3+June!C3+July!C3+August!C3+September!C3+October!C3+November!C3+December!C3</f>
-        <v>899</v>
+        <v>1386</v>
       </c>
       <c r="D3" s="4">
         <f>January!D3+February!D3+March!D3+April!D3+May!D3+June!D3+July!D3+August!D3+September!D3+October!D3+November!D3+December!D3</f>
-        <v>183</v>
+        <v>315</v>
       </c>
       <c r="E3" s="29" t="str">
         <f t="shared" si="0"/>
@@ -1451,7 +1526,7 @@
       </c>
       <c r="G3" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>1.2 : 1</v>
+        <v>1.23 : 1</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1460,15 +1535,15 @@
       </c>
       <c r="B4" s="2">
         <f>January!B4+February!B4+March!B4+April!B4+May!B4+June!B4+July!B4+August!B4+September!B4+October!B4+November!B4+December!B4</f>
-        <v>2442</v>
+        <v>3732</v>
       </c>
       <c r="C4" s="2">
         <f>January!C4+February!C4+March!C4+April!C4+May!C4+June!C4+July!C4+August!C4+September!C4+October!C4+November!C4+December!C4</f>
-        <v>2408</v>
+        <v>3675</v>
       </c>
       <c r="D4" s="2">
         <f>January!D4+February!D4+March!D4+April!D4+May!D4+June!D4+July!D4+August!D4+September!D4+October!D4+November!D4+December!D4</f>
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="E4" s="28" t="str">
         <f t="shared" si="0"/>
@@ -1480,7 +1555,7 @@
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>1.01 : 1</v>
+        <v>1.02 : 1</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1489,15 +1564,15 @@
       </c>
       <c r="B5" s="4">
         <f>January!B5+February!B5+March!B5+April!B5+May!B5+June!B5+July!B5+August!B5+September!B5+October!B5+November!B5+December!B5</f>
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="C5" s="4">
         <f>January!C5+February!C5+March!C5+April!C5+May!C5+June!C5+July!C5+August!C5+September!C5+October!C5+November!C5+December!C5</f>
-        <v>233</v>
+        <v>349</v>
       </c>
       <c r="D5" s="4">
         <f>January!D5+February!D5+March!D5+April!D5+May!D5+June!D5+July!D5+August!D5+September!D5+October!D5+November!D5+December!D5</f>
-        <v>-143</v>
+        <v>-233</v>
       </c>
       <c r="E5" s="29" t="str">
         <f t="shared" si="0"/>
@@ -1509,7 +1584,7 @@
       </c>
       <c r="G5" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>0.39 : 1</v>
+        <v>0.33 : 1</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1518,15 +1593,15 @@
       </c>
       <c r="B6" s="2">
         <f>January!B6+February!B6+March!B6+April!B6+May!B6+June!B6+July!B6+August!B6+September!B6+October!B6+November!B6+December!B6</f>
-        <v>2148</v>
+        <v>3354</v>
       </c>
       <c r="C6" s="2">
         <f>January!C6+February!C6+March!C6+April!C6+May!C6+June!C6+July!C6+August!C6+September!C6+October!C6+November!C6+December!C6</f>
-        <v>2945</v>
+        <v>4529</v>
       </c>
       <c r="D6" s="2">
         <f>January!D6+February!D6+March!D6+April!D6+May!D6+June!D6+July!D6+August!D6+September!D6+October!D6+November!D6+December!D6</f>
-        <v>-797</v>
+        <v>-1175</v>
       </c>
       <c r="E6" s="28" t="str">
         <f t="shared" si="0"/>
@@ -1538,7 +1613,7 @@
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.73 : 1</v>
+        <v>0.74 : 1</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1547,15 +1622,15 @@
       </c>
       <c r="B7" s="4">
         <f>January!B7+February!B7+March!B7+April!B7+May!B7+June!B7+July!B7+August!B7+September!B7+October!B7+November!B7+December!B7</f>
-        <v>488</v>
+        <v>779</v>
       </c>
       <c r="C7" s="4">
         <f>January!C7+February!C7+March!C7+April!C7+May!C7+June!C7+July!C7+August!C7+September!C7+October!C7+November!C7+December!C7</f>
-        <v>301</v>
+        <v>461</v>
       </c>
       <c r="D7" s="4">
         <f>January!D7+February!D7+March!D7+April!D7+May!D7+June!D7+July!D7+August!D7+September!D7+October!D7+November!D7+December!D7</f>
-        <v>187</v>
+        <v>318</v>
       </c>
       <c r="E7" s="29" t="str">
         <f t="shared" si="0"/>
@@ -1567,7 +1642,7 @@
       </c>
       <c r="G7" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>1.62 : 1</v>
+        <v>1.69 : 1</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1576,15 +1651,15 @@
       </c>
       <c r="B8" s="2">
         <f>January!B8+February!B8+March!B8+April!B8+May!B8+June!B8+July!B8+August!B8+September!B8+October!B8+November!B8+December!B8</f>
-        <v>222</v>
+        <v>331</v>
       </c>
       <c r="C8" s="2">
         <f>January!C8+February!C8+March!C8+April!C8+May!C8+June!C8+July!C8+August!C8+September!C8+October!C8+November!C8+December!C8</f>
-        <v>360</v>
+        <v>554</v>
       </c>
       <c r="D8" s="2">
         <f>January!D8+February!D8+March!D8+April!D8+May!D8+June!D8+July!D8+August!D8+September!D8+October!D8+November!D8+December!D8</f>
-        <v>-138</v>
+        <v>-223</v>
       </c>
       <c r="E8" s="28" t="str">
         <f t="shared" si="0"/>
@@ -1596,7 +1671,7 @@
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.62 : 1</v>
+        <v>0.6 : 1</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1605,15 +1680,15 @@
       </c>
       <c r="B9" s="4">
         <f>January!B9+February!B9+March!B9+April!B9+May!B9+June!B9+July!B9+August!B9+September!B9+October!B9+November!B9+December!B9</f>
-        <v>113</v>
+        <v>151</v>
       </c>
       <c r="C9" s="4">
         <f>January!C9+February!C9+March!C9+April!C9+May!C9+June!C9+July!C9+August!C9+September!C9+October!C9+November!C9+December!C9</f>
-        <v>156</v>
+        <v>232</v>
       </c>
       <c r="D9" s="4">
         <f>January!D9+February!D9+March!D9+April!D9+May!D9+June!D9+July!D9+August!D9+September!D9+October!D9+November!D9+December!D9</f>
-        <v>-43</v>
+        <v>-81</v>
       </c>
       <c r="E9" s="29" t="str">
         <f t="shared" si="0"/>
@@ -1625,7 +1700,7 @@
       </c>
       <c r="G9" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>0.72 : 1</v>
+        <v>0.65 : 1</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1638,11 +1713,11 @@
       </c>
       <c r="C10" s="2">
         <f>January!C10+February!C10+March!C10+April!C10+May!C10+June!C10+July!C10+August!C10+September!C10+October!C10+November!C10+December!C10</f>
-        <v>92</v>
+        <v>160</v>
       </c>
       <c r="D10" s="2">
         <f>January!D10+February!D10+March!D10+April!D10+May!D10+June!D10+July!D10+August!D10+September!D10+October!D10+November!D10+December!D10</f>
-        <v>-91</v>
+        <v>-159</v>
       </c>
       <c r="E10" s="28" t="str">
         <f t="shared" si="0"/>
@@ -1692,15 +1767,15 @@
       </c>
       <c r="B12" s="6">
         <f>January!B12+February!B12+March!B12+April!B12+May!B12+June!B12+July!B12+August!B12+September!B12+October!B12+November!B12+December!B12</f>
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="C12" s="6">
         <f>January!C12+February!C12+March!C12+April!C12+May!C12+June!C12+July!C12+August!C12+September!C12+October!C12+November!C12+December!C12</f>
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="D12" s="6">
         <f>January!D12+February!D12+March!D12+April!D12+May!D12+June!D12+July!D12+August!D12+September!D12+October!D12+November!D12+December!D12</f>
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E12" s="30" t="str">
         <f t="shared" si="0"/>
@@ -1712,7 +1787,7 @@
       </c>
       <c r="G12" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>2.61 : 1</v>
+        <v>1.91 : 1</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1721,15 +1796,15 @@
       </c>
       <c r="B13" s="6">
         <f>January!B13+February!B13+March!B13+April!B13+May!B13+June!B13+July!B13+August!B13+September!B13+October!B13+November!B13+December!B13</f>
-        <v>375</v>
+        <v>541</v>
       </c>
       <c r="C13" s="6">
         <f>January!C13+February!C13+March!C13+April!C13+May!C13+June!C13+July!C13+August!C13+September!C13+October!C13+November!C13+December!C13</f>
-        <v>210</v>
+        <v>306</v>
       </c>
       <c r="D13" s="6">
         <f>January!D13+February!D13+March!D13+April!D13+May!D13+June!D13+July!D13+August!D13+September!D13+October!D13+November!D13+December!D13</f>
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="E13" s="30" t="str">
         <f t="shared" si="0"/>
@@ -1741,7 +1816,7 @@
       </c>
       <c r="G13" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>1.79 : 1</v>
+        <v>1.77 : 1</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1750,15 +1825,15 @@
       </c>
       <c r="B14" s="6">
         <f>January!B14+February!B14+March!B14+April!B14+May!B14+June!B14+July!B14+August!B14+September!B14+October!B14+November!B14+December!B14</f>
-        <v>283</v>
+        <v>387</v>
       </c>
       <c r="C14" s="6">
         <f>January!C14+February!C14+March!C14+April!C14+May!C14+June!C14+July!C14+August!C14+September!C14+October!C14+November!C14+December!C14</f>
-        <v>546</v>
+        <v>816</v>
       </c>
       <c r="D14" s="6">
         <f>January!D14+February!D14+March!D14+April!D14+May!D14+June!D14+July!D14+August!D14+September!D14+October!D14+November!D14+December!D14</f>
-        <v>-263</v>
+        <v>-429</v>
       </c>
       <c r="E14" s="30" t="str">
         <f t="shared" si="0"/>
@@ -1770,7 +1845,7 @@
       </c>
       <c r="G14" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>0.52 : 1</v>
+        <v>0.47 : 1</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1779,15 +1854,15 @@
       </c>
       <c r="B15" s="6">
         <f>January!B15+February!B15+March!B15+April!B15+May!B15+June!B15+July!B15+August!B15+September!B15+October!B15+November!B15+December!B15</f>
-        <v>115</v>
+        <v>159</v>
       </c>
       <c r="C15" s="6">
         <f>January!C15+February!C15+March!C15+April!C15+May!C15+June!C15+July!C15+August!C15+September!C15+October!C15+November!C15+December!C15</f>
-        <v>276</v>
+        <v>409</v>
       </c>
       <c r="D15" s="6">
         <f>January!D15+February!D15+March!D15+April!D15+May!D15+June!D15+July!D15+August!D15+September!D15+October!D15+November!D15+December!D15</f>
-        <v>-161</v>
+        <v>-250</v>
       </c>
       <c r="E15" s="30" t="str">
         <f t="shared" si="0"/>
@@ -1799,7 +1874,7 @@
       </c>
       <c r="G15" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>0.42 : 1</v>
+        <v>0.39 : 1</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1808,15 +1883,15 @@
       </c>
       <c r="B16" s="2">
         <f>January!B16+February!B16+March!B16+April!B16+May!B16+June!B16+July!B16+August!B16+September!B16+October!B16+November!B16+December!B16</f>
-        <v>132</v>
+        <v>202</v>
       </c>
       <c r="C16" s="2">
         <f>January!C16+February!C16+March!C16+April!C16+May!C16+June!C16+July!C16+August!C16+September!C16+October!C16+November!C16+December!C16</f>
-        <v>308</v>
+        <v>445</v>
       </c>
       <c r="D16" s="2">
         <f>January!D16+February!D16+March!D16+April!D16+May!D16+June!D16+July!D16+August!D16+September!D16+October!D16+November!D16+December!D16</f>
-        <v>-176</v>
+        <v>-243</v>
       </c>
       <c r="E16" s="28" t="str">
         <f t="shared" si="0"/>
@@ -1828,7 +1903,7 @@
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.43 : 1</v>
+        <v>0.45 : 1</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1837,15 +1912,15 @@
       </c>
       <c r="B17" s="4">
         <f>January!B17+February!B17+March!B17+April!B17+May!B17+June!B17+July!B17+August!B17+September!B17+October!B17+November!B17+December!B17</f>
-        <v>1200</v>
+        <v>1810</v>
       </c>
       <c r="C17" s="4">
         <f>January!C17+February!C17+March!C17+April!C17+May!C17+June!C17+July!C17+August!C17+September!C17+October!C17+November!C17+December!C17</f>
-        <v>873</v>
+        <v>1259</v>
       </c>
       <c r="D17" s="4">
         <f>January!D17+February!D17+March!D17+April!D17+May!D17+June!D17+July!D17+August!D17+September!D17+October!D17+November!D17+December!D17</f>
-        <v>327</v>
+        <v>551</v>
       </c>
       <c r="E17" s="29" t="str">
         <f t="shared" si="0"/>
@@ -1857,7 +1932,7 @@
       </c>
       <c r="G17" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>1.37 : 1</v>
+        <v>1.44 : 1</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1866,15 +1941,15 @@
       </c>
       <c r="B18" s="2">
         <f>January!B18+February!B18+March!B18+April!B18+May!B18+June!B18+July!B18+August!B18+September!B18+October!B18+November!B18+December!B18</f>
-        <v>161</v>
+        <v>225</v>
       </c>
       <c r="C18" s="2">
         <f>January!C18+February!C18+March!C18+April!C18+May!C18+June!C18+July!C18+August!C18+September!C18+October!C18+November!C18+December!C18</f>
-        <v>184</v>
+        <v>266</v>
       </c>
       <c r="D18" s="2">
         <f>January!D18+February!D18+March!D18+April!D18+May!D18+June!D18+July!D18+August!D18+September!D18+October!D18+November!D18+December!D18</f>
-        <v>-23</v>
+        <v>-41</v>
       </c>
       <c r="E18" s="28" t="str">
         <f t="shared" si="0"/>
@@ -1886,7 +1961,7 @@
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.88 : 1</v>
+        <v>0.85 : 1</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1895,15 +1970,15 @@
       </c>
       <c r="B19" s="4">
         <f>January!B19+February!B19+March!B19+April!B19+May!B19+June!B19+July!B19+August!B19+September!B19+October!B19+November!B19+December!B19</f>
-        <v>1118</v>
+        <v>1673</v>
       </c>
       <c r="C19" s="4">
         <f>January!C19+February!C19+March!C19+April!C19+May!C19+June!C19+July!C19+August!C19+September!C19+October!C19+November!C19+December!C19</f>
-        <v>857</v>
+        <v>1400</v>
       </c>
       <c r="D19" s="4">
         <f>January!D19+February!D19+March!D19+April!D19+May!D19+June!D19+July!D19+August!D19+September!D19+October!D19+November!D19+December!D19</f>
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="E19" s="29" t="str">
         <f t="shared" si="0"/>
@@ -1915,7 +1990,7 @@
       </c>
       <c r="G19" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>1.3 : 1</v>
+        <v>1.2 : 1</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1924,15 +1999,15 @@
       </c>
       <c r="B20" s="2">
         <f>January!B20+February!B20+March!B20+April!B20+May!B20+June!B20+July!B20+August!B20+September!B20+October!B20+November!B20+December!B20</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C20" s="2">
         <f>January!C20+February!C20+March!C20+April!C20+May!C20+June!C20+July!C20+August!C20+September!C20+October!C20+November!C20+December!C20</f>
-        <v>180</v>
+        <v>274</v>
       </c>
       <c r="D20" s="2">
         <f>January!D20+February!D20+March!D20+April!D20+May!D20+June!D20+July!D20+August!D20+September!D20+October!D20+November!D20+December!D20</f>
-        <v>-175</v>
+        <v>-267</v>
       </c>
       <c r="E20" s="28" t="str">
         <f t="shared" si="0"/>
@@ -1953,15 +2028,15 @@
       </c>
       <c r="B21" s="4">
         <f>January!B21+February!B21+March!B21+April!B21+May!B21+June!B21+July!B21+August!B21+September!B21+October!B21+November!B21+December!B21</f>
-        <v>837</v>
+        <v>1301</v>
       </c>
       <c r="C21" s="4">
         <f>January!C21+February!C21+March!C21+April!C21+May!C21+June!C21+July!C21+August!C21+September!C21+October!C21+November!C21+December!C21</f>
-        <v>730</v>
+        <v>1068</v>
       </c>
       <c r="D21" s="4">
         <f>January!D21+February!D21+March!D21+April!D21+May!D21+June!D21+July!D21+August!D21+September!D21+October!D21+November!D21+December!D21</f>
-        <v>107</v>
+        <v>233</v>
       </c>
       <c r="E21" s="29" t="str">
         <f t="shared" si="0"/>
@@ -1973,7 +2048,7 @@
       </c>
       <c r="G21" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>1.15 : 1</v>
+        <v>1.22 : 1</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1982,15 +2057,15 @@
       </c>
       <c r="B22" s="2">
         <f>January!B22+February!B22+March!B22+April!B22+May!B22+June!B22+July!B22+August!B22+September!B22+October!B22+November!B22+December!B22</f>
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="C22" s="2">
         <f>January!C22+February!C22+March!C22+April!C22+May!C22+June!C22+July!C22+August!C22+September!C22+October!C22+November!C22+December!C22</f>
-        <v>298</v>
+        <v>424</v>
       </c>
       <c r="D22" s="2">
         <f>January!D22+February!D22+March!D22+April!D22+May!D22+June!D22+July!D22+August!D22+September!D22+October!D22+November!D22+December!D22</f>
-        <v>-264</v>
+        <v>-363</v>
       </c>
       <c r="E22" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2002,7 +2077,7 @@
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.11 : 1</v>
+        <v>0.14 : 1</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2011,15 +2086,15 @@
       </c>
       <c r="B23" s="4">
         <f>January!B23+February!B23+March!B23+April!B23+May!B23+June!B23+July!B23+August!B23+September!B23+October!B23+November!B23+December!B23</f>
-        <v>1263</v>
+        <v>1899</v>
       </c>
       <c r="C23" s="4">
         <f>January!C23+February!C23+March!C23+April!C23+May!C23+June!C23+July!C23+August!C23+September!C23+October!C23+November!C23+December!C23</f>
-        <v>705</v>
+        <v>1089</v>
       </c>
       <c r="D23" s="4">
         <f>January!D23+February!D23+March!D23+April!D23+May!D23+June!D23+July!D23+August!D23+September!D23+October!D23+November!D23+December!D23</f>
-        <v>558</v>
+        <v>810</v>
       </c>
       <c r="E23" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2031,7 +2106,7 @@
       </c>
       <c r="G23" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>1.79 : 1</v>
+        <v>1.74 : 1</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2040,15 +2115,15 @@
       </c>
       <c r="B24" s="2">
         <f>January!B24+February!B24+March!B24+April!B24+May!B24+June!B24+July!B24+August!B24+September!B24+October!B24+November!B24+December!B24</f>
-        <v>3610</v>
+        <v>5722</v>
       </c>
       <c r="C24" s="2">
         <f>January!C24+February!C24+March!C24+April!C24+May!C24+June!C24+July!C24+August!C24+September!C24+October!C24+November!C24+December!C24</f>
-        <v>2298</v>
+        <v>3507</v>
       </c>
       <c r="D24" s="2">
         <f>January!D24+February!D24+March!D24+April!D24+May!D24+June!D24+July!D24+August!D24+September!D24+October!D24+November!D24+December!D24</f>
-        <v>1312</v>
+        <v>2215</v>
       </c>
       <c r="E24" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2060,7 +2135,7 @@
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>1.57 : 1</v>
+        <v>1.63 : 1</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2069,15 +2144,15 @@
       </c>
       <c r="B25" s="4">
         <f>January!B25+February!B25+March!B25+April!B25+May!B25+June!B25+July!B25+August!B25+September!B25+October!B25+November!B25+December!B25</f>
-        <v>294</v>
+        <v>462</v>
       </c>
       <c r="C25" s="4">
         <f>January!C25+February!C25+March!C25+April!C25+May!C25+June!C25+July!C25+August!C25+September!C25+October!C25+November!C25+December!C25</f>
-        <v>591</v>
+        <v>915</v>
       </c>
       <c r="D25" s="4">
         <f>January!D25+February!D25+March!D25+April!D25+May!D25+June!D25+July!D25+August!D25+September!D25+October!D25+November!D25+December!D25</f>
-        <v>-297</v>
+        <v>-453</v>
       </c>
       <c r="E25" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2127,15 +2202,15 @@
       </c>
       <c r="B27" s="4">
         <f>January!B27+February!B27+March!B27+April!B27+May!B27+June!B27+July!B27+August!B27+September!B27+October!B27+November!B27+December!B27</f>
-        <v>456</v>
+        <v>720</v>
       </c>
       <c r="C27" s="4">
         <f>January!C27+February!C27+March!C27+April!C27+May!C27+June!C27+July!C27+August!C27+September!C27+October!C27+November!C27+December!C27</f>
-        <v>424</v>
+        <v>595</v>
       </c>
       <c r="D27" s="4">
         <f>January!D27+February!D27+March!D27+April!D27+May!D27+June!D27+July!D27+August!D27+September!D27+October!D27+November!D27+December!D27</f>
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="E27" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2147,7 +2222,7 @@
       </c>
       <c r="G27" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>1.08 : 1</v>
+        <v>1.21 : 1</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2156,15 +2231,15 @@
       </c>
       <c r="B28" s="2">
         <f>January!B28+February!B28+March!B28+April!B28+May!B28+June!B28+July!B28+August!B28+September!B28+October!B28+November!B28+December!B28</f>
-        <v>133</v>
+        <v>206</v>
       </c>
       <c r="C28" s="2">
         <f>January!C28+February!C28+March!C28+April!C28+May!C28+June!C28+July!C28+August!C28+September!C28+October!C28+November!C28+December!C28</f>
-        <v>220</v>
+        <v>301</v>
       </c>
       <c r="D28" s="2">
         <f>January!D28+February!D28+March!D28+April!D28+May!D28+June!D28+July!D28+August!D28+September!D28+October!D28+November!D28+December!D28</f>
-        <v>-87</v>
+        <v>-95</v>
       </c>
       <c r="E28" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2176,7 +2251,7 @@
       </c>
       <c r="G28" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.6 : 1</v>
+        <v>0.68 : 1</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2185,15 +2260,15 @@
       </c>
       <c r="B29" s="4">
         <f>January!B29+February!B29+March!B29+April!B29+May!B29+June!B29+July!B29+August!B29+September!B29+October!B29+November!B29+December!B29</f>
-        <v>1111</v>
+        <v>1773</v>
       </c>
       <c r="C29" s="4">
         <f>January!C29+February!C29+March!C29+April!C29+May!C29+June!C29+July!C29+August!C29+September!C29+October!C29+November!C29+December!C29</f>
-        <v>824</v>
+        <v>1242</v>
       </c>
       <c r="D29" s="4">
         <f>January!D29+February!D29+March!D29+April!D29+May!D29+June!D29+July!D29+August!D29+September!D29+October!D29+November!D29+December!D29</f>
-        <v>287</v>
+        <v>531</v>
       </c>
       <c r="E29" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2205,7 +2280,7 @@
       </c>
       <c r="G29" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>1.35 : 1</v>
+        <v>1.43 : 1</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2214,15 +2289,15 @@
       </c>
       <c r="B30" s="2">
         <f>January!B30+February!B30+March!B30+April!B30+May!B30+June!B30+July!B30+August!B30+September!B30+October!B30+November!B30+December!B30</f>
-        <v>103</v>
+        <v>150</v>
       </c>
       <c r="C30" s="2">
         <f>January!C30+February!C30+March!C30+April!C30+May!C30+June!C30+July!C30+August!C30+September!C30+October!C30+November!C30+December!C30</f>
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D30" s="2">
         <f>January!D30+February!D30+March!D30+April!D30+May!D30+June!D30+July!D30+August!D30+September!D30+October!D30+November!D30+December!D30</f>
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="E30" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2234,7 +2309,7 @@
       </c>
       <c r="G30" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>3.68 : 1</v>
+        <v>3 : 1</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2243,15 +2318,15 @@
       </c>
       <c r="B31" s="4">
         <f>January!B31+February!B31+March!B31+April!B31+May!B31+June!B31+July!B31+August!B31+September!B31+October!B31+November!B31+December!B31</f>
-        <v>142</v>
+        <v>194</v>
       </c>
       <c r="C31" s="4">
         <f>January!C31+February!C31+March!C31+April!C31+May!C31+June!C31+July!C31+August!C31+September!C31+October!C31+November!C31+December!C31</f>
-        <v>654</v>
+        <v>995</v>
       </c>
       <c r="D31" s="4">
         <f>January!D31+February!D31+March!D31+April!D31+May!D31+June!D31+July!D31+August!D31+September!D31+October!D31+November!D31+December!D31</f>
-        <v>-512</v>
+        <v>-801</v>
       </c>
       <c r="E31" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2263,7 +2338,7 @@
       </c>
       <c r="G31" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>0.22 : 1</v>
+        <v>0.19 : 1</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2272,15 +2347,15 @@
       </c>
       <c r="B32" s="2">
         <f>January!B32+February!B32+March!B32+April!B32+May!B32+June!B32+July!B32+August!B32+September!B32+October!B32+November!B32+December!B32</f>
-        <v>858</v>
+        <v>1270</v>
       </c>
       <c r="C32" s="2">
         <f>January!C32+February!C32+March!C32+April!C32+May!C32+June!C32+July!C32+August!C32+September!C32+October!C32+November!C32+December!C32</f>
-        <v>1054</v>
+        <v>1638</v>
       </c>
       <c r="D32" s="2">
         <f>January!D32+February!D32+March!D32+April!D32+May!D32+June!D32+July!D32+August!D32+September!D32+October!D32+November!D32+December!D32</f>
-        <v>-196</v>
+        <v>-368</v>
       </c>
       <c r="E32" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2292,7 +2367,7 @@
       </c>
       <c r="G32" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.81 : 1</v>
+        <v>0.78 : 1</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2301,15 +2376,15 @@
       </c>
       <c r="B33" s="4">
         <f>January!B33+February!B33+March!B33+April!B33+May!B33+June!B33+July!B33+August!B33+September!B33+October!B33+November!B33+December!B33</f>
-        <v>609</v>
+        <v>908</v>
       </c>
       <c r="C33" s="4">
         <f>January!C33+February!C33+March!C33+April!C33+May!C33+June!C33+July!C33+August!C33+September!C33+October!C33+November!C33+December!C33</f>
-        <v>1020</v>
+        <v>1652</v>
       </c>
       <c r="D33" s="4">
         <f>January!D33+February!D33+March!D33+April!D33+May!D33+June!D33+July!D33+August!D33+September!D33+October!D33+November!D33+December!D33</f>
-        <v>-411</v>
+        <v>-744</v>
       </c>
       <c r="E33" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2321,7 +2396,7 @@
       </c>
       <c r="G33" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>0.6 : 1</v>
+        <v>0.55 : 1</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2330,15 +2405,15 @@
       </c>
       <c r="B34" s="2">
         <f>January!B34+February!B34+March!B34+April!B34+May!B34+June!B34+July!B34+August!B34+September!B34+October!B34+November!B34+December!B34</f>
-        <v>287</v>
+        <v>469</v>
       </c>
       <c r="C34" s="2">
         <f>January!C34+February!C34+March!C34+April!C34+May!C34+June!C34+July!C34+August!C34+September!C34+October!C34+November!C34+December!C34</f>
-        <v>216</v>
+        <v>309</v>
       </c>
       <c r="D34" s="2">
         <f>January!D34+February!D34+March!D34+April!D34+May!D34+June!D34+July!D34+August!D34+September!D34+October!D34+November!D34+December!D34</f>
-        <v>71</v>
+        <v>160</v>
       </c>
       <c r="E34" s="28" t="str">
         <f t="shared" ref="E34:E55" si="3">IF(D34 &gt; 0, "We borrowed more than we lent this year", "")</f>
@@ -2350,7 +2425,7 @@
       </c>
       <c r="G34" s="3" t="str">
         <f t="shared" ref="G34:G55" si="5">IF(ISERROR(ROUND(B34/C34,2)&amp;" : 1"), "", ROUND(B34/C34,2)&amp;" : 1")</f>
-        <v>1.33 : 1</v>
+        <v>1.52 : 1</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2359,15 +2434,15 @@
       </c>
       <c r="B35" s="4">
         <f>January!B35+February!B35+March!B35+April!B35+May!B35+June!B35+July!B35+August!B35+September!B35+October!B35+November!B35+December!B35</f>
-        <v>1619</v>
+        <v>2484</v>
       </c>
       <c r="C35" s="4">
         <f>January!C35+February!C35+March!C35+April!C35+May!C35+June!C35+July!C35+August!C35+September!C35+October!C35+November!C35+December!C35</f>
-        <v>2159</v>
+        <v>3369</v>
       </c>
       <c r="D35" s="4">
         <f>January!D35+February!D35+March!D35+April!D35+May!D35+June!D35+July!D35+August!D35+September!D35+October!D35+November!D35+December!D35</f>
-        <v>-540</v>
+        <v>-885</v>
       </c>
       <c r="E35" s="29" t="str">
         <f t="shared" si="3"/>
@@ -2379,7 +2454,7 @@
       </c>
       <c r="G35" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>0.75 : 1</v>
+        <v>0.74 : 1</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2388,15 +2463,15 @@
       </c>
       <c r="B36" s="2">
         <f>January!B36+February!B36+March!B36+April!B36+May!B36+June!B36+July!B36+August!B36+September!B36+October!B36+November!B36+December!B36</f>
-        <v>411</v>
+        <v>631</v>
       </c>
       <c r="C36" s="2">
         <f>January!C36+February!C36+March!C36+April!C36+May!C36+June!C36+July!C36+August!C36+September!C36+October!C36+November!C36+December!C36</f>
-        <v>900</v>
+        <v>1344</v>
       </c>
       <c r="D36" s="2">
         <f>January!D36+February!D36+March!D36+April!D36+May!D36+June!D36+July!D36+August!D36+September!D36+October!D36+November!D36+December!D36</f>
-        <v>-489</v>
+        <v>-713</v>
       </c>
       <c r="E36" s="28" t="str">
         <f t="shared" si="3"/>
@@ -2408,7 +2483,7 @@
       </c>
       <c r="G36" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>0.46 : 1</v>
+        <v>0.47 : 1</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2417,15 +2492,15 @@
       </c>
       <c r="B37" s="4">
         <f>January!B37+February!B37+March!B37+April!B37+May!B37+June!B37+July!B37+August!B37+September!B37+October!B37+November!B37+December!B37</f>
-        <v>890</v>
+        <v>1377</v>
       </c>
       <c r="C37" s="4">
         <f>January!C37+February!C37+March!C37+April!C37+May!C37+June!C37+July!C37+August!C37+September!C37+October!C37+November!C37+December!C37</f>
-        <v>592</v>
+        <v>914</v>
       </c>
       <c r="D37" s="4">
         <f>January!D37+February!D37+March!D37+April!D37+May!D37+June!D37+July!D37+August!D37+September!D37+October!D37+November!D37+December!D37</f>
-        <v>298</v>
+        <v>463</v>
       </c>
       <c r="E37" s="29" t="str">
         <f t="shared" si="3"/>
@@ -2437,7 +2512,7 @@
       </c>
       <c r="G37" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>1.5 : 1</v>
+        <v>1.51 : 1</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2446,15 +2521,15 @@
       </c>
       <c r="B38" s="2">
         <f>January!B38+February!B38+March!B38+April!B38+May!B38+June!B38+July!B38+August!B38+September!B38+October!B38+November!B38+December!B38</f>
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="C38" s="2">
         <f>January!C38+February!C38+March!C38+April!C38+May!C38+June!C38+July!C38+August!C38+September!C38+October!C38+November!C38+December!C38</f>
-        <v>356</v>
+        <v>514</v>
       </c>
       <c r="D38" s="2">
         <f>January!D38+February!D38+March!D38+April!D38+May!D38+June!D38+July!D38+August!D38+September!D38+October!D38+November!D38+December!D38</f>
-        <v>-307</v>
+        <v>-438</v>
       </c>
       <c r="E38" s="28" t="str">
         <f t="shared" si="3"/>
@@ -2466,7 +2541,7 @@
       </c>
       <c r="G38" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>0.14 : 1</v>
+        <v>0.15 : 1</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2475,27 +2550,27 @@
       </c>
       <c r="B39" s="4">
         <f>January!B44+February!B44+March!B44+April!B44+May!B44+June!B44+July!B44+August!B44+September!B44+October!B44+November!B44+December!B44</f>
-        <v>124</v>
+        <v>233</v>
       </c>
       <c r="C39" s="4">
         <f>January!C44+February!C44+March!C44+April!C44+May!C44+June!C44+July!C44+August!C44+September!C44+October!C44+November!C44+December!C44</f>
-        <v>142</v>
+        <v>216</v>
       </c>
       <c r="D39" s="4">
         <f>January!D44+February!D44+March!D44+April!D44+May!D44+June!D44+July!D44+August!D44+September!D44+October!D44+November!D44+December!D44</f>
-        <v>-18</v>
+        <v>17</v>
       </c>
       <c r="E39" s="29" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>We borrowed more than we lent this year</v>
       </c>
       <c r="F39" s="29" t="str">
         <f t="shared" si="4"/>
-        <v>We lent more than we borrowed this year</v>
+        <v/>
       </c>
       <c r="G39" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>0.87 : 1</v>
+        <v>1.08 : 1</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2504,15 +2579,15 @@
       </c>
       <c r="B40" s="8">
         <f>January!B39+February!B39+March!B39+April!B39+May!B39+June!B39+July!B39+August!B39+September!B39+October!B39+November!B39+December!B39</f>
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="C40" s="8">
         <f>January!C39+February!C39+March!C39+April!C39+May!C39+June!C39+July!C39+August!C39+September!C39+October!C39+November!C39+December!C39</f>
-        <v>203</v>
+        <v>294</v>
       </c>
       <c r="D40" s="8">
         <f>January!D39+February!D39+March!D39+April!D39+May!D39+June!D39+July!D39+August!D39+September!D39+October!D39+November!D39+December!D39</f>
-        <v>-111</v>
+        <v>-179</v>
       </c>
       <c r="E40" s="31" t="str">
         <f t="shared" si="3"/>
@@ -2524,7 +2599,7 @@
       </c>
       <c r="G40" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>0.45 : 1</v>
+        <v>0.39 : 1</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2533,27 +2608,27 @@
       </c>
       <c r="B41" s="8">
         <f>January!B40+February!B40+March!B40+April!B40+May!B40+June!B40+July!B40+August!B40+September!B40+October!B40+November!B40+December!B40</f>
-        <v>197</v>
+        <v>259</v>
       </c>
       <c r="C41" s="8">
         <f>January!C40+February!C40+March!C40+April!C40+May!C40+June!C40+July!C40+August!C40+September!C40+October!C40+November!C40+December!C40</f>
-        <v>188</v>
+        <v>291</v>
       </c>
       <c r="D41" s="8">
         <f>January!D40+February!D40+March!D40+April!D40+May!D40+June!D40+July!D40+August!D40+September!D40+October!D40+November!D40+December!D40</f>
-        <v>9</v>
+        <v>-32</v>
       </c>
       <c r="E41" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>We borrowed more than we lent this year</v>
+        <v/>
       </c>
       <c r="F41" s="31" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>We lent more than we borrowed this year</v>
       </c>
       <c r="G41" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>1.05 : 1</v>
+        <v>0.89 : 1</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2562,15 +2637,15 @@
       </c>
       <c r="B42" s="8">
         <f>January!B41+February!B41+March!B41+April!B41+May!B41+June!B41+July!B41+August!B41+September!B41+October!B41+November!B41+December!B41</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C42" s="8">
         <f>January!C41+February!C41+March!C41+April!C41+May!C41+June!C41+July!C41+August!C41+September!C41+October!C41+November!C41+December!C41</f>
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="D42" s="8">
         <f>January!D41+February!D41+March!D41+April!D41+May!D41+June!D41+July!D41+August!D41+September!D41+October!D41+November!D41+December!D41</f>
-        <v>-63</v>
+        <v>-97</v>
       </c>
       <c r="E42" s="31" t="str">
         <f t="shared" si="3"/>
@@ -2582,7 +2657,7 @@
       </c>
       <c r="G42" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>0.07 : 1</v>
+        <v>0.08 : 1</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2591,15 +2666,15 @@
       </c>
       <c r="B43" s="8">
         <f>January!B42+February!B42+March!B42+April!B42+May!B42+June!B42+July!B42+August!B42+September!B42+October!B42+November!B42+December!B42</f>
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C43" s="8">
         <f>January!C42+February!C42+March!C42+April!C42+May!C42+June!C42+July!C42+August!C42+September!C42+October!C42+November!C42+December!C42</f>
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="D43" s="8">
         <f>January!D42+February!D42+March!D42+April!D42+May!D42+June!D42+July!D42+August!D42+September!D42+October!D42+November!D42+December!D42</f>
-        <v>-42</v>
+        <v>-55</v>
       </c>
       <c r="E43" s="31" t="str">
         <f t="shared" si="3"/>
@@ -2611,7 +2686,7 @@
       </c>
       <c r="G43" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>0.34 : 1</v>
+        <v>0.36 : 1</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2649,15 +2724,15 @@
       </c>
       <c r="B45" s="2">
         <f>January!B45+February!B45+March!B45+April!B45+May!B45+June!B45+July!B45+August!B45+September!B45+October!B45+November!B45+December!B45</f>
-        <v>137</v>
+        <v>222</v>
       </c>
       <c r="C45" s="2">
         <f>January!C45+February!C45+March!C45+April!C45+May!C45+June!C45+July!C45+August!C45+September!C45+October!C45+November!C45+December!C45</f>
-        <v>309</v>
+        <v>516</v>
       </c>
       <c r="D45" s="2">
         <f>January!D45+February!D45+March!D45+April!D45+May!D45+June!D45+July!D45+August!D45+September!D45+October!D45+November!D45+December!D45</f>
-        <v>-172</v>
+        <v>-294</v>
       </c>
       <c r="E45" s="28" t="str">
         <f t="shared" si="3"/>
@@ -2669,7 +2744,7 @@
       </c>
       <c r="G45" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>0.44 : 1</v>
+        <v>0.43 : 1</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2678,15 +2753,15 @@
       </c>
       <c r="B46" s="4">
         <f>January!B46+February!B46+March!B46+April!B46+May!B46+June!B46+July!B46+August!B46+September!B46+October!B46+November!B46+December!B46</f>
-        <v>1123</v>
+        <v>1567</v>
       </c>
       <c r="C46" s="4">
         <f>January!C46+February!C46+March!C46+April!C46+May!C46+June!C46+July!C46+August!C46+September!C46+October!C46+November!C46+December!C46</f>
-        <v>1210</v>
+        <v>1886</v>
       </c>
       <c r="D46" s="4">
         <f>January!D46+February!D46+March!D46+April!D46+May!D46+June!D46+July!D46+August!D46+September!D46+October!D46+November!D46+December!D46</f>
-        <v>-87</v>
+        <v>-319</v>
       </c>
       <c r="E46" s="29" t="str">
         <f t="shared" si="3"/>
@@ -2698,7 +2773,7 @@
       </c>
       <c r="G46" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>0.93 : 1</v>
+        <v>0.83 : 1</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2707,15 +2782,15 @@
       </c>
       <c r="B47" s="2">
         <f>January!B47+February!B47+March!B47+April!B47+May!B47+June!B47+July!B47+August!B47+September!B47+October!B47+November!B47+December!B47</f>
-        <v>2230</v>
+        <v>3309</v>
       </c>
       <c r="C47" s="2">
         <f>January!C47+February!C47+March!C47+April!C47+May!C47+June!C47+July!C47+August!C47+September!C47+October!C47+November!C47+December!C47</f>
-        <v>1156</v>
+        <v>1725</v>
       </c>
       <c r="D47" s="2">
         <f>January!D47+February!D47+March!D47+April!D47+May!D47+June!D47+July!D47+August!D47+September!D47+October!D47+November!D47+December!D47</f>
-        <v>1074</v>
+        <v>1584</v>
       </c>
       <c r="E47" s="28" t="str">
         <f t="shared" si="3"/>
@@ -2727,7 +2802,7 @@
       </c>
       <c r="G47" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>1.93 : 1</v>
+        <v>1.92 : 1</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2736,15 +2811,15 @@
       </c>
       <c r="B48" s="4">
         <f>January!B48+February!B48+March!B48+April!B48+May!B48+June!B48+July!B48+August!B48+September!B48+October!B48+November!B48+December!B48</f>
-        <v>527</v>
+        <v>826</v>
       </c>
       <c r="C48" s="4">
         <f>January!C48+February!C48+March!C48+April!C48+May!C48+June!C48+July!C48+August!C48+September!C48+October!C48+November!C48+December!C48</f>
-        <v>1311</v>
+        <v>1891</v>
       </c>
       <c r="D48" s="4">
         <f>January!D48+February!D48+March!D48+April!D48+May!D48+June!D48+July!D48+August!D48+September!D48+October!D48+November!D48+December!D48</f>
-        <v>-784</v>
+        <v>-1065</v>
       </c>
       <c r="E48" s="29" t="str">
         <f t="shared" si="3"/>
@@ -2756,7 +2831,7 @@
       </c>
       <c r="G48" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>0.4 : 1</v>
+        <v>0.44 : 1</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2765,15 +2840,15 @@
       </c>
       <c r="B49" s="2">
         <f>January!B49+February!B49+March!B49+April!B49+May!B49+June!B49+July!B49+August!B49+September!B49+October!B49+November!B49+December!B49</f>
-        <v>1052</v>
+        <v>1637</v>
       </c>
       <c r="C49" s="2">
         <f>January!C49+February!C49+March!C49+April!C49+May!C49+June!C49+July!C49+August!C49+September!C49+October!C49+November!C49+December!C49</f>
-        <v>465</v>
+        <v>697</v>
       </c>
       <c r="D49" s="2">
         <f>January!D49+February!D49+March!D49+April!D49+May!D49+June!D49+July!D49+August!D49+September!D49+October!D49+November!D49+December!D49</f>
-        <v>587</v>
+        <v>940</v>
       </c>
       <c r="E49" s="28" t="str">
         <f t="shared" si="3"/>
@@ -2785,7 +2860,7 @@
       </c>
       <c r="G49" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>2.26 : 1</v>
+        <v>2.35 : 1</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2794,15 +2869,15 @@
       </c>
       <c r="B50" s="4">
         <f>January!B50+February!B50+March!B50+April!B50+May!B50+June!B50+July!B50+August!B50+September!B50+October!B50+November!B50+December!B50</f>
-        <v>1803</v>
+        <v>2727</v>
       </c>
       <c r="C50" s="4">
         <f>January!C50+February!C50+March!C50+April!C50+May!C50+June!C50+July!C50+August!C50+September!C50+October!C50+November!C50+December!C50</f>
-        <v>972</v>
+        <v>1524</v>
       </c>
       <c r="D50" s="4">
         <f>January!D50+February!D50+March!D50+April!D50+May!D50+June!D50+July!D50+August!D50+September!D50+October!D50+November!D50+December!D50</f>
-        <v>831</v>
+        <v>1203</v>
       </c>
       <c r="E50" s="29" t="str">
         <f t="shared" si="3"/>
@@ -2814,7 +2889,7 @@
       </c>
       <c r="G50" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>1.85 : 1</v>
+        <v>1.79 : 1</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2823,15 +2898,15 @@
       </c>
       <c r="B51" s="2">
         <f>January!B51+February!B51+March!B51+April!B51+May!B51+June!B51+July!B51+August!B51+September!B51+October!B51+November!B51+December!B51</f>
-        <v>391</v>
+        <v>662</v>
       </c>
       <c r="C51" s="2">
         <f>January!C51+February!C51+March!C51+April!C51+May!C51+June!C51+July!C51+August!C51+September!C51+October!C51+November!C51+December!C51</f>
-        <v>320</v>
+        <v>506</v>
       </c>
       <c r="D51" s="2">
         <f>January!D51+February!D51+March!D51+April!D51+May!D51+June!D51+July!D51+August!D51+September!D51+October!D51+November!D51+December!D51</f>
-        <v>71</v>
+        <v>156</v>
       </c>
       <c r="E51" s="28" t="str">
         <f t="shared" si="3"/>
@@ -2843,7 +2918,7 @@
       </c>
       <c r="G51" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>1.22 : 1</v>
+        <v>1.31 : 1</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2852,15 +2927,15 @@
       </c>
       <c r="B52" s="4">
         <f>January!B52+February!B52+March!B52+April!B52+May!B52+June!B52+July!B52+August!B52+September!B52+October!B52+November!B52+December!B52</f>
-        <v>689</v>
+        <v>1067</v>
       </c>
       <c r="C52" s="4">
         <f>January!C52+February!C52+March!C52+April!C52+May!C52+June!C52+July!C52+August!C52+September!C52+October!C52+November!C52+December!C52</f>
-        <v>744</v>
+        <v>1221</v>
       </c>
       <c r="D52" s="4">
         <f>January!D52+February!D52+March!D52+April!D52+May!D52+June!D52+July!D52+August!D52+September!D52+October!D52+November!D52+December!D52</f>
-        <v>-55</v>
+        <v>-154</v>
       </c>
       <c r="E52" s="29" t="str">
         <f t="shared" si="3"/>
@@ -2872,7 +2947,7 @@
       </c>
       <c r="G52" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>0.93 : 1</v>
+        <v>0.87 : 1</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2881,15 +2956,15 @@
       </c>
       <c r="B53" s="2">
         <f>January!B53+February!B53+March!B53+April!B53+May!B53+June!B53+July!B53+August!B53+September!B53+October!B53+November!B53+December!B53</f>
-        <v>251</v>
+        <v>378</v>
       </c>
       <c r="C53" s="2">
         <f>January!C53+February!C53+March!C53+April!C53+May!C53+June!C53+July!C53+August!C53+September!C53+October!C53+November!C53+December!C53</f>
-        <v>422</v>
+        <v>651</v>
       </c>
       <c r="D53" s="2">
         <f>January!D53+February!D53+March!D53+April!D53+May!D53+June!D53+July!D53+August!D53+September!D53+October!D53+November!D53+December!D53</f>
-        <v>-171</v>
+        <v>-273</v>
       </c>
       <c r="E53" s="28" t="str">
         <f t="shared" si="3"/>
@@ -2901,7 +2976,7 @@
       </c>
       <c r="G53" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>0.59 : 1</v>
+        <v>0.58 : 1</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2910,15 +2985,15 @@
       </c>
       <c r="B54" s="4">
         <f>January!B54+February!B54+March!B54+April!B54+May!B54+June!B54+July!B54+August!B54+September!B54+October!B54+November!B54+December!B54</f>
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C54" s="4">
         <f>January!C54+February!C54+March!C54+April!C54+May!C54+June!C54+July!C54+August!C54+September!C54+October!C54+November!C54+December!C54</f>
-        <v>432</v>
+        <v>633</v>
       </c>
       <c r="D54" s="4">
         <f>January!D54+February!D54+March!D54+April!D54+May!D54+June!D54+July!D54+August!D54+September!D54+October!D54+November!D54+December!D54</f>
-        <v>-401</v>
+        <v>-588</v>
       </c>
       <c r="E54" s="29" t="str">
         <f t="shared" si="3"/>
@@ -2939,15 +3014,15 @@
       </c>
       <c r="B55" s="10">
         <f>January!B55+February!B55+March!B55+April!B55+May!B55+June!B55+July!B55+August!B55+September!B55+October!B55+November!B55+December!B55</f>
-        <v>588</v>
+        <v>856</v>
       </c>
       <c r="C55" s="10">
         <f>January!C55+February!C55+March!C55+April!C55+May!C55+June!C55+July!C55+August!C55+September!C55+October!C55+November!C55+December!C55</f>
-        <v>420</v>
+        <v>658</v>
       </c>
       <c r="D55" s="10">
         <f>January!D55+February!D55+March!D55+April!D55+May!D55+June!D55+July!D55+August!D55+September!D55+October!D55+November!D55+December!D55</f>
-        <v>168</v>
+        <v>198</v>
       </c>
       <c r="E55" s="32" t="str">
         <f t="shared" si="3"/>
@@ -2959,7 +3034,7 @@
       </c>
       <c r="G55" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>1.4 : 1</v>
+        <v>1.3 : 1</v>
       </c>
     </row>
   </sheetData>
@@ -8044,108 +8119,204 @@
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="28"/>
+      <c r="B2" s="18">
+        <v>1358</v>
+      </c>
+      <c r="C2" s="18">
+        <v>1200</v>
+      </c>
+      <c r="D2" s="18">
+        <v>158</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F2" s="28"/>
-      <c r="G2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="29"/>
+      <c r="B3" s="21">
+        <v>619</v>
+      </c>
+      <c r="C3" s="21">
+        <v>487</v>
+      </c>
+      <c r="D3" s="21">
+        <v>132</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F3" s="29"/>
-      <c r="G3" s="5"/>
+      <c r="G3" s="5" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="28"/>
+      <c r="B4" s="18">
+        <v>1290</v>
+      </c>
+      <c r="C4" s="18">
+        <v>1267</v>
+      </c>
+      <c r="D4" s="18">
+        <v>23</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F4" s="28"/>
-      <c r="G4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
+      <c r="B5" s="21">
+        <v>26</v>
+      </c>
+      <c r="C5" s="21">
+        <v>116</v>
+      </c>
+      <c r="D5" s="21">
+        <v>-90</v>
+      </c>
       <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="5"/>
+      <c r="F5" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
+      <c r="B6" s="18">
+        <v>1206</v>
+      </c>
+      <c r="C6" s="18">
+        <v>1584</v>
+      </c>
+      <c r="D6" s="18">
+        <v>-378</v>
+      </c>
       <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="3"/>
+      <c r="F6" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="29"/>
+      <c r="B7" s="21">
+        <v>291</v>
+      </c>
+      <c r="C7" s="21">
+        <v>160</v>
+      </c>
+      <c r="D7" s="21">
+        <v>131</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F7" s="29"/>
-      <c r="G7" s="5"/>
+      <c r="G7" s="5" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
+      <c r="B8" s="18">
+        <v>109</v>
+      </c>
+      <c r="C8" s="18">
+        <v>194</v>
+      </c>
+      <c r="D8" s="18">
+        <v>-85</v>
+      </c>
       <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
+      <c r="B9" s="21">
+        <v>38</v>
+      </c>
+      <c r="C9" s="21">
+        <v>76</v>
+      </c>
+      <c r="D9" s="21">
+        <v>-38</v>
+      </c>
       <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="5"/>
+      <c r="F9" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
+      <c r="B10" s="18">
+        <v>0</v>
+      </c>
+      <c r="C10" s="18">
+        <v>68</v>
+      </c>
+      <c r="D10" s="18">
+        <v>-68</v>
+      </c>
       <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="3"/>
+      <c r="F10" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
+      <c r="B11" s="21">
+        <v>0</v>
+      </c>
+      <c r="C11" s="21">
+        <v>0</v>
+      </c>
+      <c r="D11" s="21">
+        <v>0</v>
+      </c>
       <c r="E11" s="29"/>
       <c r="F11" s="29"/>
       <c r="G11" s="5"/>
@@ -8154,163 +8325,309 @@
       <c r="A12" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
+      <c r="B12" s="23">
+        <v>21</v>
+      </c>
+      <c r="C12" s="23">
+        <v>26</v>
+      </c>
+      <c r="D12" s="23">
+        <v>-5</v>
+      </c>
       <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="7"/>
+      <c r="F12" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="30"/>
+      <c r="B13" s="23">
+        <v>166</v>
+      </c>
+      <c r="C13" s="23">
+        <v>96</v>
+      </c>
+      <c r="D13" s="23">
+        <v>70</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>61</v>
+      </c>
       <c r="F13" s="30"/>
-      <c r="G13" s="7"/>
+      <c r="G13" s="7" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
+      <c r="B14" s="23">
+        <v>104</v>
+      </c>
+      <c r="C14" s="23">
+        <v>270</v>
+      </c>
+      <c r="D14" s="23">
+        <v>-166</v>
+      </c>
       <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="7"/>
+      <c r="F14" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
+      <c r="B15" s="23">
+        <v>44</v>
+      </c>
+      <c r="C15" s="23">
+        <v>133</v>
+      </c>
+      <c r="D15" s="23">
+        <v>-89</v>
+      </c>
       <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="7"/>
+      <c r="F15" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
+      <c r="B16" s="18">
+        <v>70</v>
+      </c>
+      <c r="C16" s="18">
+        <v>137</v>
+      </c>
+      <c r="D16" s="18">
+        <v>-67</v>
+      </c>
       <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="3"/>
+      <c r="F16" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="29"/>
+      <c r="B17" s="21">
+        <v>610</v>
+      </c>
+      <c r="C17" s="21">
+        <v>386</v>
+      </c>
+      <c r="D17" s="21">
+        <v>224</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F17" s="29"/>
-      <c r="G17" s="5"/>
+      <c r="G17" s="5" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
+      <c r="B18" s="18">
+        <v>64</v>
+      </c>
+      <c r="C18" s="18">
+        <v>82</v>
+      </c>
+      <c r="D18" s="18">
+        <v>-18</v>
+      </c>
       <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="3"/>
+      <c r="F18" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="29"/>
+      <c r="B19" s="21">
+        <v>555</v>
+      </c>
+      <c r="C19" s="21">
+        <v>543</v>
+      </c>
+      <c r="D19" s="21">
+        <v>12</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F19" s="29"/>
-      <c r="G19" s="5"/>
+      <c r="G19" s="5" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
+      <c r="B20" s="18">
+        <v>2</v>
+      </c>
+      <c r="C20" s="18">
+        <v>94</v>
+      </c>
+      <c r="D20" s="18">
+        <v>-92</v>
+      </c>
       <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="3"/>
+      <c r="F20" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="29"/>
+      <c r="B21" s="21">
+        <v>464</v>
+      </c>
+      <c r="C21" s="21">
+        <v>338</v>
+      </c>
+      <c r="D21" s="21">
+        <v>126</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F21" s="29"/>
-      <c r="G21" s="5"/>
+      <c r="G21" s="5" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
+      <c r="B22" s="18">
+        <v>27</v>
+      </c>
+      <c r="C22" s="18">
+        <v>126</v>
+      </c>
+      <c r="D22" s="18">
+        <v>-99</v>
+      </c>
       <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="3"/>
+      <c r="F22" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="29"/>
+      <c r="B23" s="21">
+        <v>636</v>
+      </c>
+      <c r="C23" s="21">
+        <v>384</v>
+      </c>
+      <c r="D23" s="21">
+        <v>252</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F23" s="29"/>
-      <c r="G23" s="5"/>
+      <c r="G23" s="5" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="28"/>
+      <c r="B24" s="18">
+        <v>2112</v>
+      </c>
+      <c r="C24" s="18">
+        <v>1209</v>
+      </c>
+      <c r="D24" s="18">
+        <v>903</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F24" s="28"/>
-      <c r="G24" s="3"/>
+      <c r="G24" s="3" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
+      <c r="B25" s="21">
+        <v>168</v>
+      </c>
+      <c r="C25" s="21">
+        <v>324</v>
+      </c>
+      <c r="D25" s="21">
+        <v>-156</v>
+      </c>
       <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="5"/>
+      <c r="F25" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
+      <c r="B26" s="18">
+        <v>0</v>
+      </c>
+      <c r="C26" s="18">
+        <v>0</v>
+      </c>
+      <c r="D26" s="18">
+        <v>0</v>
+      </c>
       <c r="E26" s="28"/>
       <c r="F26" s="28"/>
       <c r="G26" s="3"/>
@@ -8319,185 +8636,351 @@
       <c r="A27" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="29"/>
+      <c r="B27" s="21">
+        <v>264</v>
+      </c>
+      <c r="C27" s="21">
+        <v>171</v>
+      </c>
+      <c r="D27" s="21">
+        <v>93</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F27" s="29"/>
-      <c r="G27" s="5"/>
+      <c r="G27" s="5" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
+      <c r="B28" s="18">
+        <v>73</v>
+      </c>
+      <c r="C28" s="18">
+        <v>81</v>
+      </c>
+      <c r="D28" s="18">
+        <v>-8</v>
+      </c>
       <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="3"/>
+      <c r="F28" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="29"/>
+      <c r="B29" s="21">
+        <v>662</v>
+      </c>
+      <c r="C29" s="21">
+        <v>418</v>
+      </c>
+      <c r="D29" s="21">
+        <v>244</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F29" s="29"/>
-      <c r="G29" s="5"/>
+      <c r="G29" s="5" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="28"/>
+      <c r="B30" s="18">
+        <v>47</v>
+      </c>
+      <c r="C30" s="18">
+        <v>22</v>
+      </c>
+      <c r="D30" s="18">
+        <v>25</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F30" s="28"/>
-      <c r="G30" s="3"/>
+      <c r="G30" s="3" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
+      <c r="B31" s="21">
+        <v>52</v>
+      </c>
+      <c r="C31" s="21">
+        <v>341</v>
+      </c>
+      <c r="D31" s="21">
+        <v>-289</v>
+      </c>
       <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="5"/>
+      <c r="F31" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
+      <c r="B32" s="18">
+        <v>412</v>
+      </c>
+      <c r="C32" s="18">
+        <v>584</v>
+      </c>
+      <c r="D32" s="18">
+        <v>-172</v>
+      </c>
       <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="3"/>
+      <c r="F32" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
+      <c r="B33" s="21">
+        <v>299</v>
+      </c>
+      <c r="C33" s="21">
+        <v>632</v>
+      </c>
+      <c r="D33" s="21">
+        <v>-333</v>
+      </c>
       <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="5"/>
+      <c r="F33" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="28"/>
+      <c r="B34" s="18">
+        <v>182</v>
+      </c>
+      <c r="C34" s="18">
+        <v>93</v>
+      </c>
+      <c r="D34" s="18">
+        <v>89</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F34" s="28"/>
-      <c r="G34" s="3"/>
+      <c r="G34" s="3" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
+      <c r="B35" s="21">
+        <v>865</v>
+      </c>
+      <c r="C35" s="21">
+        <v>1210</v>
+      </c>
+      <c r="D35" s="21">
+        <v>-345</v>
+      </c>
       <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="5"/>
+      <c r="F35" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
+      <c r="B36" s="18">
+        <v>220</v>
+      </c>
+      <c r="C36" s="18">
+        <v>444</v>
+      </c>
+      <c r="D36" s="18">
+        <v>-224</v>
+      </c>
       <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="3"/>
+      <c r="F36" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="29"/>
+      <c r="B37" s="21">
+        <v>487</v>
+      </c>
+      <c r="C37" s="21">
+        <v>322</v>
+      </c>
+      <c r="D37" s="21">
+        <v>165</v>
+      </c>
+      <c r="E37" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F37" s="29"/>
-      <c r="G37" s="5"/>
+      <c r="G37" s="5" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
+      <c r="B38" s="18">
+        <v>27</v>
+      </c>
+      <c r="C38" s="18">
+        <v>158</v>
+      </c>
+      <c r="D38" s="18">
+        <v>-131</v>
+      </c>
       <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="3"/>
+      <c r="F38" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
+      <c r="B39" s="25">
+        <v>23</v>
+      </c>
+      <c r="C39" s="25">
+        <v>91</v>
+      </c>
+      <c r="D39" s="25">
+        <v>-68</v>
+      </c>
       <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="9"/>
+      <c r="F39" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
+      <c r="B40" s="25">
+        <v>62</v>
+      </c>
+      <c r="C40" s="25">
+        <v>103</v>
+      </c>
+      <c r="D40" s="25">
+        <v>-41</v>
+      </c>
       <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="9"/>
+      <c r="F40" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
+      <c r="B41" s="25">
+        <v>3</v>
+      </c>
+      <c r="C41" s="25">
+        <v>37</v>
+      </c>
+      <c r="D41" s="25">
+        <v>-34</v>
+      </c>
       <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="9"/>
+      <c r="F41" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
+      <c r="B42" s="25">
+        <v>9</v>
+      </c>
+      <c r="C42" s="25">
+        <v>22</v>
+      </c>
+      <c r="D42" s="25">
+        <v>-13</v>
+      </c>
       <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="9"/>
+      <c r="F42" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
+      <c r="B43" s="25">
+        <v>0</v>
+      </c>
+      <c r="C43" s="25">
+        <v>0</v>
+      </c>
+      <c r="D43" s="25">
+        <v>0</v>
+      </c>
       <c r="E43" s="31"/>
       <c r="F43" s="31"/>
       <c r="G43" s="9"/>
@@ -8506,133 +8989,253 @@
       <c r="A44" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="29"/>
+      <c r="B44" s="21">
+        <v>109</v>
+      </c>
+      <c r="C44" s="21">
+        <v>74</v>
+      </c>
+      <c r="D44" s="21">
+        <v>35</v>
+      </c>
+      <c r="E44" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F44" s="29"/>
-      <c r="G44" s="5"/>
+      <c r="G44" s="5" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
+      <c r="B45" s="18">
+        <v>85</v>
+      </c>
+      <c r="C45" s="18">
+        <v>207</v>
+      </c>
+      <c r="D45" s="18">
+        <v>-122</v>
+      </c>
       <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="3"/>
+      <c r="F45" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
+      <c r="B46" s="21">
+        <v>444</v>
+      </c>
+      <c r="C46" s="21">
+        <v>676</v>
+      </c>
+      <c r="D46" s="21">
+        <v>-232</v>
+      </c>
       <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="5"/>
+      <c r="F46" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="28"/>
+      <c r="B47" s="18">
+        <v>1079</v>
+      </c>
+      <c r="C47" s="18">
+        <v>569</v>
+      </c>
+      <c r="D47" s="18">
+        <v>510</v>
+      </c>
+      <c r="E47" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F47" s="28"/>
-      <c r="G47" s="3"/>
+      <c r="G47" s="3" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
+      <c r="B48" s="21">
+        <v>299</v>
+      </c>
+      <c r="C48" s="21">
+        <v>580</v>
+      </c>
+      <c r="D48" s="21">
+        <v>-281</v>
+      </c>
       <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="5"/>
+      <c r="F48" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="28"/>
+      <c r="B49" s="18">
+        <v>585</v>
+      </c>
+      <c r="C49" s="18">
+        <v>232</v>
+      </c>
+      <c r="D49" s="18">
+        <v>353</v>
+      </c>
+      <c r="E49" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F49" s="28"/>
-      <c r="G49" s="3"/>
+      <c r="G49" s="3" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="29"/>
+      <c r="B50" s="21">
+        <v>924</v>
+      </c>
+      <c r="C50" s="21">
+        <v>552</v>
+      </c>
+      <c r="D50" s="21">
+        <v>372</v>
+      </c>
+      <c r="E50" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F50" s="29"/>
-      <c r="G50" s="5"/>
+      <c r="G50" s="5" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="28"/>
+      <c r="B51" s="18">
+        <v>271</v>
+      </c>
+      <c r="C51" s="18">
+        <v>186</v>
+      </c>
+      <c r="D51" s="18">
+        <v>85</v>
+      </c>
+      <c r="E51" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F51" s="28"/>
-      <c r="G51" s="3"/>
+      <c r="G51" s="3" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
+      <c r="B52" s="21">
+        <v>378</v>
+      </c>
+      <c r="C52" s="21">
+        <v>477</v>
+      </c>
+      <c r="D52" s="21">
+        <v>-99</v>
+      </c>
       <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="5"/>
+      <c r="F52" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
+      <c r="B53" s="18">
+        <v>127</v>
+      </c>
+      <c r="C53" s="18">
+        <v>229</v>
+      </c>
+      <c r="D53" s="18">
+        <v>-102</v>
+      </c>
       <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="3"/>
+      <c r="F53" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B54" s="21"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
+      <c r="B54" s="21">
+        <v>14</v>
+      </c>
+      <c r="C54" s="21">
+        <v>201</v>
+      </c>
+      <c r="D54" s="21">
+        <v>-187</v>
+      </c>
       <c r="E54" s="29"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="5"/>
+      <c r="F54" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="B55" s="27"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="32"/>
+      <c r="B55" s="27">
+        <v>268</v>
+      </c>
+      <c r="C55" s="27">
+        <v>238</v>
+      </c>
+      <c r="D55" s="27">
+        <v>30</v>
+      </c>
+      <c r="E55" s="32" t="s">
+        <v>61</v>
+      </c>
       <c r="F55" s="32"/>
-      <c r="G55" s="11"/>
+      <c r="G55" s="11" t="s">
+        <v>147</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G55" xr:uid="{00000000-0009-0000-0000-000003000000}"/>

--- a/statistics_files/2024/2024_99_g_net_borrower_lender.xlsx
+++ b/statistics_files/2024/2024_99_g_net_borrower_lender.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20409"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\GitHub\next_statistics\statistics_files\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{369C9401-6B85-4EC1-B7BA-0F6CCC120185}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DB6C72-299E-4424-83A4-3A9C5E385594}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" tabRatio="673" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="194">
   <si>
     <t>NET</t>
   </si>
@@ -568,6 +568,72 @@
   </si>
   <si>
     <t>1.46 : 1</t>
+  </si>
+  <si>
+    <t>0.86 : 1</t>
+  </si>
+  <si>
+    <t>0.28 : 1</t>
+  </si>
+  <si>
+    <t>3.85 : 1</t>
+  </si>
+  <si>
+    <t>0.62 : 1</t>
+  </si>
+  <si>
+    <t>0.40 : 1</t>
+  </si>
+  <si>
+    <t>0.59 : 1</t>
+  </si>
+  <si>
+    <t>0.64 : 1</t>
+  </si>
+  <si>
+    <t>1.41 : 1</t>
+  </si>
+  <si>
+    <t>1.07 : 1</t>
+  </si>
+  <si>
+    <t>0.34 : 1</t>
+  </si>
+  <si>
+    <t>2.03 : 1</t>
+  </si>
+  <si>
+    <t>1.36 : 1</t>
+  </si>
+  <si>
+    <t>1.03 : 1</t>
+  </si>
+  <si>
+    <t>1.81 : 1</t>
+  </si>
+  <si>
+    <t>0.19 : 1</t>
+  </si>
+  <si>
+    <t>0.83 : 1</t>
+  </si>
+  <si>
+    <t>1.70 : 1</t>
+  </si>
+  <si>
+    <t>0.49 : 1</t>
+  </si>
+  <si>
+    <t>1.98 : 1</t>
+  </si>
+  <si>
+    <t>1.74 : 1</t>
+  </si>
+  <si>
+    <t>0.14 : 1</t>
+  </si>
+  <si>
+    <t>1.42 : 1</t>
   </si>
 </sst>
 </file>
@@ -1477,15 +1543,15 @@
       </c>
       <c r="B2" s="2">
         <f>January!B2+February!B2+March!B2+April!B2+May!B2+June!B2+July!B2+August!B2+September!B2+October!B2+November!B2+December!B2</f>
-        <v>4095</v>
+        <v>5434</v>
       </c>
       <c r="C2" s="2">
         <f>January!C2+February!C2+March!C2+April!C2+May!C2+June!C2+July!C2+August!C2+September!C2+October!C2+November!C2+December!C2</f>
-        <v>3623</v>
+        <v>4764</v>
       </c>
       <c r="D2" s="2">
         <f>January!D2+February!D2+March!D2+April!D2+May!D2+June!D2+July!D2+August!D2+September!D2+October!D2+November!D2+December!D2</f>
-        <v>472</v>
+        <v>670</v>
       </c>
       <c r="E2" s="28" t="str">
         <f t="shared" ref="E2:E33" si="0">IF(D2 &gt; 0, "We borrowed more than we lent this year", "")</f>
@@ -1497,7 +1563,7 @@
       </c>
       <c r="G2" s="3" t="str">
         <f t="shared" ref="G2:G33" si="2">IF(ISERROR(ROUND(B2/C2,2)&amp;" : 1"), "", ROUND(B2/C2,2)&amp;" : 1")</f>
-        <v>1.13 : 1</v>
+        <v>1.14 : 1</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1506,15 +1572,15 @@
       </c>
       <c r="B3" s="4">
         <f>January!B3+February!B3+March!B3+April!B3+May!B3+June!B3+July!B3+August!B3+September!B3+October!B3+November!B3+December!B3</f>
-        <v>1701</v>
+        <v>2304</v>
       </c>
       <c r="C3" s="4">
         <f>January!C3+February!C3+March!C3+April!C3+May!C3+June!C3+July!C3+August!C3+September!C3+October!C3+November!C3+December!C3</f>
-        <v>1386</v>
+        <v>1825</v>
       </c>
       <c r="D3" s="4">
         <f>January!D3+February!D3+March!D3+April!D3+May!D3+June!D3+July!D3+August!D3+September!D3+October!D3+November!D3+December!D3</f>
-        <v>315</v>
+        <v>479</v>
       </c>
       <c r="E3" s="29" t="str">
         <f t="shared" si="0"/>
@@ -1526,7 +1592,7 @@
       </c>
       <c r="G3" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>1.23 : 1</v>
+        <v>1.26 : 1</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1535,27 +1601,27 @@
       </c>
       <c r="B4" s="2">
         <f>January!B4+February!B4+March!B4+April!B4+May!B4+June!B4+July!B4+August!B4+September!B4+October!B4+November!B4+December!B4</f>
-        <v>3732</v>
+        <v>4838</v>
       </c>
       <c r="C4" s="2">
         <f>January!C4+February!C4+March!C4+April!C4+May!C4+June!C4+July!C4+August!C4+September!C4+October!C4+November!C4+December!C4</f>
-        <v>3675</v>
+        <v>4961</v>
       </c>
       <c r="D4" s="2">
         <f>January!D4+February!D4+March!D4+April!D4+May!D4+June!D4+July!D4+August!D4+September!D4+October!D4+November!D4+December!D4</f>
-        <v>57</v>
+        <v>-123</v>
       </c>
       <c r="E4" s="28" t="str">
         <f t="shared" si="0"/>
-        <v>We borrowed more than we lent this year</v>
+        <v/>
       </c>
       <c r="F4" s="28" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>We lent more than we borrowed this year</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>1.02 : 1</v>
+        <v>0.98 : 1</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1564,15 +1630,15 @@
       </c>
       <c r="B5" s="4">
         <f>January!B5+February!B5+March!B5+April!B5+May!B5+June!B5+July!B5+August!B5+September!B5+October!B5+November!B5+December!B5</f>
-        <v>116</v>
+        <v>156</v>
       </c>
       <c r="C5" s="4">
         <f>January!C5+February!C5+March!C5+April!C5+May!C5+June!C5+July!C5+August!C5+September!C5+October!C5+November!C5+December!C5</f>
-        <v>349</v>
+        <v>492</v>
       </c>
       <c r="D5" s="4">
         <f>January!D5+February!D5+March!D5+April!D5+May!D5+June!D5+July!D5+August!D5+September!D5+October!D5+November!D5+December!D5</f>
-        <v>-233</v>
+        <v>-336</v>
       </c>
       <c r="E5" s="29" t="str">
         <f t="shared" si="0"/>
@@ -1584,7 +1650,7 @@
       </c>
       <c r="G5" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>0.33 : 1</v>
+        <v>0.32 : 1</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1593,15 +1659,15 @@
       </c>
       <c r="B6" s="2">
         <f>January!B6+February!B6+March!B6+April!B6+May!B6+June!B6+July!B6+August!B6+September!B6+October!B6+November!B6+December!B6</f>
-        <v>3354</v>
+        <v>4345</v>
       </c>
       <c r="C6" s="2">
         <f>January!C6+February!C6+March!C6+April!C6+May!C6+June!C6+July!C6+August!C6+September!C6+October!C6+November!C6+December!C6</f>
-        <v>4529</v>
+        <v>5738</v>
       </c>
       <c r="D6" s="2">
         <f>January!D6+February!D6+March!D6+April!D6+May!D6+June!D6+July!D6+August!D6+September!D6+October!D6+November!D6+December!D6</f>
-        <v>-1175</v>
+        <v>-1393</v>
       </c>
       <c r="E6" s="28" t="str">
         <f t="shared" si="0"/>
@@ -1613,7 +1679,7 @@
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.74 : 1</v>
+        <v>0.76 : 1</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1622,15 +1688,15 @@
       </c>
       <c r="B7" s="4">
         <f>January!B7+February!B7+March!B7+April!B7+May!B7+June!B7+July!B7+August!B7+September!B7+October!B7+November!B7+December!B7</f>
-        <v>779</v>
+        <v>1280</v>
       </c>
       <c r="C7" s="4">
         <f>January!C7+February!C7+March!C7+April!C7+May!C7+June!C7+July!C7+August!C7+September!C7+October!C7+November!C7+December!C7</f>
-        <v>461</v>
+        <v>591</v>
       </c>
       <c r="D7" s="4">
         <f>January!D7+February!D7+March!D7+April!D7+May!D7+June!D7+July!D7+August!D7+September!D7+October!D7+November!D7+December!D7</f>
-        <v>318</v>
+        <v>689</v>
       </c>
       <c r="E7" s="29" t="str">
         <f t="shared" si="0"/>
@@ -1642,7 +1708,7 @@
       </c>
       <c r="G7" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>1.69 : 1</v>
+        <v>2.17 : 1</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1651,15 +1717,15 @@
       </c>
       <c r="B8" s="2">
         <f>January!B8+February!B8+March!B8+April!B8+May!B8+June!B8+July!B8+August!B8+September!B8+October!B8+November!B8+December!B8</f>
-        <v>331</v>
+        <v>451</v>
       </c>
       <c r="C8" s="2">
         <f>January!C8+February!C8+March!C8+April!C8+May!C8+June!C8+July!C8+August!C8+September!C8+October!C8+November!C8+December!C8</f>
-        <v>554</v>
+        <v>735</v>
       </c>
       <c r="D8" s="2">
         <f>January!D8+February!D8+March!D8+April!D8+May!D8+June!D8+July!D8+August!D8+September!D8+October!D8+November!D8+December!D8</f>
-        <v>-223</v>
+        <v>-284</v>
       </c>
       <c r="E8" s="28" t="str">
         <f t="shared" si="0"/>
@@ -1671,7 +1737,7 @@
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.6 : 1</v>
+        <v>0.61 : 1</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1680,15 +1746,15 @@
       </c>
       <c r="B9" s="4">
         <f>January!B9+February!B9+March!B9+April!B9+May!B9+June!B9+July!B9+August!B9+September!B9+October!B9+November!B9+December!B9</f>
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="C9" s="4">
         <f>January!C9+February!C9+March!C9+April!C9+May!C9+June!C9+July!C9+August!C9+September!C9+October!C9+November!C9+December!C9</f>
-        <v>232</v>
+        <v>304</v>
       </c>
       <c r="D9" s="4">
         <f>January!D9+February!D9+March!D9+April!D9+May!D9+June!D9+July!D9+August!D9+September!D9+October!D9+November!D9+December!D9</f>
-        <v>-81</v>
+        <v>-102</v>
       </c>
       <c r="E9" s="29" t="str">
         <f t="shared" si="0"/>
@@ -1700,7 +1766,7 @@
       </c>
       <c r="G9" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>0.65 : 1</v>
+        <v>0.66 : 1</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1709,15 +1775,15 @@
       </c>
       <c r="B10" s="2">
         <f>January!B10+February!B10+March!B10+April!B10+May!B10+June!B10+July!B10+August!B10+September!B10+October!B10+November!B10+December!B10</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" s="2">
         <f>January!C10+February!C10+March!C10+April!C10+May!C10+June!C10+July!C10+August!C10+September!C10+October!C10+November!C10+December!C10</f>
-        <v>160</v>
+        <v>213</v>
       </c>
       <c r="D10" s="2">
         <f>January!D10+February!D10+March!D10+April!D10+May!D10+June!D10+July!D10+August!D10+September!D10+October!D10+November!D10+December!D10</f>
-        <v>-159</v>
+        <v>-211</v>
       </c>
       <c r="E10" s="28" t="str">
         <f t="shared" si="0"/>
@@ -1767,15 +1833,15 @@
       </c>
       <c r="B12" s="6">
         <f>January!B12+February!B12+March!B12+April!B12+May!B12+June!B12+July!B12+August!B12+September!B12+October!B12+November!B12+December!B12</f>
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="C12" s="6">
         <f>January!C12+February!C12+March!C12+April!C12+May!C12+June!C12+July!C12+August!C12+September!C12+October!C12+November!C12+December!C12</f>
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="D12" s="6">
         <f>January!D12+February!D12+March!D12+April!D12+May!D12+June!D12+July!D12+August!D12+September!D12+October!D12+November!D12+December!D12</f>
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="E12" s="30" t="str">
         <f t="shared" si="0"/>
@@ -1787,7 +1853,7 @@
       </c>
       <c r="G12" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>1.91 : 1</v>
+        <v>1.76 : 1</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1796,15 +1862,15 @@
       </c>
       <c r="B13" s="6">
         <f>January!B13+February!B13+March!B13+April!B13+May!B13+June!B13+July!B13+August!B13+September!B13+October!B13+November!B13+December!B13</f>
-        <v>541</v>
+        <v>689</v>
       </c>
       <c r="C13" s="6">
         <f>January!C13+February!C13+March!C13+April!C13+May!C13+June!C13+July!C13+August!C13+September!C13+October!C13+November!C13+December!C13</f>
-        <v>306</v>
+        <v>375</v>
       </c>
       <c r="D13" s="6">
         <f>January!D13+February!D13+March!D13+April!D13+May!D13+June!D13+July!D13+August!D13+September!D13+October!D13+November!D13+December!D13</f>
-        <v>235</v>
+        <v>314</v>
       </c>
       <c r="E13" s="30" t="str">
         <f t="shared" si="0"/>
@@ -1816,7 +1882,7 @@
       </c>
       <c r="G13" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>1.77 : 1</v>
+        <v>1.84 : 1</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1825,15 +1891,15 @@
       </c>
       <c r="B14" s="6">
         <f>January!B14+February!B14+March!B14+April!B14+May!B14+June!B14+July!B14+August!B14+September!B14+October!B14+November!B14+December!B14</f>
-        <v>387</v>
+        <v>551</v>
       </c>
       <c r="C14" s="6">
         <f>January!C14+February!C14+March!C14+April!C14+May!C14+June!C14+July!C14+August!C14+September!C14+October!C14+November!C14+December!C14</f>
-        <v>816</v>
+        <v>1081</v>
       </c>
       <c r="D14" s="6">
         <f>January!D14+February!D14+March!D14+April!D14+May!D14+June!D14+July!D14+August!D14+September!D14+October!D14+November!D14+December!D14</f>
-        <v>-429</v>
+        <v>-530</v>
       </c>
       <c r="E14" s="30" t="str">
         <f t="shared" si="0"/>
@@ -1845,7 +1911,7 @@
       </c>
       <c r="G14" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>0.47 : 1</v>
+        <v>0.51 : 1</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1854,15 +1920,15 @@
       </c>
       <c r="B15" s="6">
         <f>January!B15+February!B15+March!B15+April!B15+May!B15+June!B15+July!B15+August!B15+September!B15+October!B15+November!B15+December!B15</f>
-        <v>159</v>
+        <v>206</v>
       </c>
       <c r="C15" s="6">
         <f>January!C15+February!C15+March!C15+April!C15+May!C15+June!C15+July!C15+August!C15+September!C15+October!C15+November!C15+December!C15</f>
-        <v>409</v>
+        <v>526</v>
       </c>
       <c r="D15" s="6">
         <f>January!D15+February!D15+March!D15+April!D15+May!D15+June!D15+July!D15+August!D15+September!D15+October!D15+November!D15+December!D15</f>
-        <v>-250</v>
+        <v>-320</v>
       </c>
       <c r="E15" s="30" t="str">
         <f t="shared" si="0"/>
@@ -1883,15 +1949,15 @@
       </c>
       <c r="B16" s="2">
         <f>January!B16+February!B16+March!B16+April!B16+May!B16+June!B16+July!B16+August!B16+September!B16+October!B16+November!B16+December!B16</f>
-        <v>202</v>
+        <v>283</v>
       </c>
       <c r="C16" s="2">
         <f>January!C16+February!C16+March!C16+April!C16+May!C16+June!C16+July!C16+August!C16+September!C16+October!C16+November!C16+December!C16</f>
-        <v>445</v>
+        <v>582</v>
       </c>
       <c r="D16" s="2">
         <f>January!D16+February!D16+March!D16+April!D16+May!D16+June!D16+July!D16+August!D16+September!D16+October!D16+November!D16+December!D16</f>
-        <v>-243</v>
+        <v>-299</v>
       </c>
       <c r="E16" s="28" t="str">
         <f t="shared" si="0"/>
@@ -1903,7 +1969,7 @@
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.45 : 1</v>
+        <v>0.49 : 1</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1912,15 +1978,15 @@
       </c>
       <c r="B17" s="4">
         <f>January!B17+February!B17+March!B17+April!B17+May!B17+June!B17+July!B17+August!B17+September!B17+October!B17+November!B17+December!B17</f>
-        <v>1810</v>
+        <v>2324</v>
       </c>
       <c r="C17" s="4">
         <f>January!C17+February!C17+March!C17+April!C17+May!C17+June!C17+July!C17+August!C17+September!C17+October!C17+November!C17+December!C17</f>
-        <v>1259</v>
+        <v>1677</v>
       </c>
       <c r="D17" s="4">
         <f>January!D17+February!D17+March!D17+April!D17+May!D17+June!D17+July!D17+August!D17+September!D17+October!D17+November!D17+December!D17</f>
-        <v>551</v>
+        <v>647</v>
       </c>
       <c r="E17" s="29" t="str">
         <f t="shared" si="0"/>
@@ -1932,7 +1998,7 @@
       </c>
       <c r="G17" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>1.44 : 1</v>
+        <v>1.39 : 1</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1941,15 +2007,15 @@
       </c>
       <c r="B18" s="2">
         <f>January!B18+February!B18+March!B18+April!B18+May!B18+June!B18+July!B18+August!B18+September!B18+October!B18+November!B18+December!B18</f>
-        <v>225</v>
+        <v>301</v>
       </c>
       <c r="C18" s="2">
         <f>January!C18+February!C18+March!C18+April!C18+May!C18+June!C18+July!C18+August!C18+September!C18+October!C18+November!C18+December!C18</f>
-        <v>266</v>
+        <v>385</v>
       </c>
       <c r="D18" s="2">
         <f>January!D18+February!D18+March!D18+April!D18+May!D18+June!D18+July!D18+August!D18+September!D18+October!D18+November!D18+December!D18</f>
-        <v>-41</v>
+        <v>-84</v>
       </c>
       <c r="E18" s="28" t="str">
         <f t="shared" si="0"/>
@@ -1961,7 +2027,7 @@
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.85 : 1</v>
+        <v>0.78 : 1</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1970,15 +2036,15 @@
       </c>
       <c r="B19" s="4">
         <f>January!B19+February!B19+March!B19+April!B19+May!B19+June!B19+July!B19+August!B19+September!B19+October!B19+November!B19+December!B19</f>
-        <v>1673</v>
+        <v>2310</v>
       </c>
       <c r="C19" s="4">
         <f>January!C19+February!C19+March!C19+April!C19+May!C19+June!C19+July!C19+August!C19+September!C19+October!C19+November!C19+December!C19</f>
-        <v>1400</v>
+        <v>1851</v>
       </c>
       <c r="D19" s="4">
         <f>January!D19+February!D19+March!D19+April!D19+May!D19+June!D19+July!D19+August!D19+September!D19+October!D19+November!D19+December!D19</f>
-        <v>273</v>
+        <v>459</v>
       </c>
       <c r="E19" s="29" t="str">
         <f t="shared" si="0"/>
@@ -1990,7 +2056,7 @@
       </c>
       <c r="G19" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>1.2 : 1</v>
+        <v>1.25 : 1</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1999,15 +2065,15 @@
       </c>
       <c r="B20" s="2">
         <f>January!B20+February!B20+March!B20+April!B20+May!B20+June!B20+July!B20+August!B20+September!B20+October!B20+November!B20+December!B20</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" s="2">
         <f>January!C20+February!C20+March!C20+April!C20+May!C20+June!C20+July!C20+August!C20+September!C20+October!C20+November!C20+December!C20</f>
-        <v>274</v>
+        <v>351</v>
       </c>
       <c r="D20" s="2">
         <f>January!D20+February!D20+March!D20+April!D20+May!D20+June!D20+July!D20+August!D20+September!D20+October!D20+November!D20+December!D20</f>
-        <v>-267</v>
+        <v>-343</v>
       </c>
       <c r="E20" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2019,7 +2085,7 @@
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.03 : 1</v>
+        <v>0.02 : 1</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2028,15 +2094,15 @@
       </c>
       <c r="B21" s="4">
         <f>January!B21+February!B21+March!B21+April!B21+May!B21+June!B21+July!B21+August!B21+September!B21+October!B21+November!B21+December!B21</f>
-        <v>1301</v>
+        <v>1711</v>
       </c>
       <c r="C21" s="4">
         <f>January!C21+February!C21+March!C21+April!C21+May!C21+June!C21+July!C21+August!C21+September!C21+October!C21+November!C21+December!C21</f>
-        <v>1068</v>
+        <v>1452</v>
       </c>
       <c r="D21" s="4">
         <f>January!D21+February!D21+March!D21+April!D21+May!D21+June!D21+July!D21+August!D21+September!D21+October!D21+November!D21+December!D21</f>
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="E21" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2048,7 +2114,7 @@
       </c>
       <c r="G21" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>1.22 : 1</v>
+        <v>1.18 : 1</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2057,15 +2123,15 @@
       </c>
       <c r="B22" s="2">
         <f>January!B22+February!B22+March!B22+April!B22+May!B22+June!B22+July!B22+August!B22+September!B22+October!B22+November!B22+December!B22</f>
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="C22" s="2">
         <f>January!C22+February!C22+March!C22+April!C22+May!C22+June!C22+July!C22+August!C22+September!C22+October!C22+November!C22+December!C22</f>
-        <v>424</v>
+        <v>540</v>
       </c>
       <c r="D22" s="2">
         <f>January!D22+February!D22+March!D22+April!D22+May!D22+June!D22+July!D22+August!D22+September!D22+October!D22+November!D22+December!D22</f>
-        <v>-363</v>
+        <v>-439</v>
       </c>
       <c r="E22" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2077,7 +2143,7 @@
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.14 : 1</v>
+        <v>0.19 : 1</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2086,15 +2152,15 @@
       </c>
       <c r="B23" s="4">
         <f>January!B23+February!B23+March!B23+April!B23+May!B23+June!B23+July!B23+August!B23+September!B23+October!B23+November!B23+December!B23</f>
-        <v>1899</v>
+        <v>2570</v>
       </c>
       <c r="C23" s="4">
         <f>January!C23+February!C23+March!C23+April!C23+May!C23+June!C23+July!C23+August!C23+September!C23+October!C23+November!C23+December!C23</f>
-        <v>1089</v>
+        <v>1420</v>
       </c>
       <c r="D23" s="4">
         <f>January!D23+February!D23+March!D23+April!D23+May!D23+June!D23+July!D23+August!D23+September!D23+October!D23+November!D23+December!D23</f>
-        <v>810</v>
+        <v>1150</v>
       </c>
       <c r="E23" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2106,7 +2172,7 @@
       </c>
       <c r="G23" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>1.74 : 1</v>
+        <v>1.81 : 1</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2115,15 +2181,15 @@
       </c>
       <c r="B24" s="2">
         <f>January!B24+February!B24+March!B24+April!B24+May!B24+June!B24+July!B24+August!B24+September!B24+October!B24+November!B24+December!B24</f>
-        <v>5722</v>
+        <v>7461</v>
       </c>
       <c r="C24" s="2">
         <f>January!C24+February!C24+March!C24+April!C24+May!C24+June!C24+July!C24+August!C24+September!C24+October!C24+November!C24+December!C24</f>
-        <v>3507</v>
+        <v>4783</v>
       </c>
       <c r="D24" s="2">
         <f>January!D24+February!D24+March!D24+April!D24+May!D24+June!D24+July!D24+August!D24+September!D24+October!D24+November!D24+December!D24</f>
-        <v>2215</v>
+        <v>2678</v>
       </c>
       <c r="E24" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2135,7 +2201,7 @@
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>1.63 : 1</v>
+        <v>1.56 : 1</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2144,15 +2210,15 @@
       </c>
       <c r="B25" s="4">
         <f>January!B25+February!B25+March!B25+April!B25+May!B25+June!B25+July!B25+August!B25+September!B25+October!B25+November!B25+December!B25</f>
-        <v>462</v>
+        <v>599</v>
       </c>
       <c r="C25" s="4">
         <f>January!C25+February!C25+March!C25+April!C25+May!C25+June!C25+July!C25+August!C25+September!C25+October!C25+November!C25+December!C25</f>
-        <v>915</v>
+        <v>1255</v>
       </c>
       <c r="D25" s="4">
         <f>January!D25+February!D25+March!D25+April!D25+May!D25+June!D25+July!D25+August!D25+September!D25+October!D25+November!D25+December!D25</f>
-        <v>-453</v>
+        <v>-656</v>
       </c>
       <c r="E25" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2164,7 +2230,7 @@
       </c>
       <c r="G25" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>0.5 : 1</v>
+        <v>0.48 : 1</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2202,15 +2268,15 @@
       </c>
       <c r="B27" s="4">
         <f>January!B27+February!B27+March!B27+April!B27+May!B27+June!B27+July!B27+August!B27+September!B27+October!B27+November!B27+December!B27</f>
-        <v>720</v>
+        <v>943</v>
       </c>
       <c r="C27" s="4">
         <f>January!C27+February!C27+March!C27+April!C27+May!C27+June!C27+July!C27+August!C27+September!C27+October!C27+November!C27+December!C27</f>
-        <v>595</v>
+        <v>792</v>
       </c>
       <c r="D27" s="4">
         <f>January!D27+February!D27+March!D27+April!D27+May!D27+June!D27+July!D27+August!D27+September!D27+October!D27+November!D27+December!D27</f>
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="E27" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2222,7 +2288,7 @@
       </c>
       <c r="G27" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>1.21 : 1</v>
+        <v>1.19 : 1</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2231,15 +2297,15 @@
       </c>
       <c r="B28" s="2">
         <f>January!B28+February!B28+March!B28+April!B28+May!B28+June!B28+July!B28+August!B28+September!B28+October!B28+November!B28+December!B28</f>
-        <v>206</v>
+        <v>320</v>
       </c>
       <c r="C28" s="2">
         <f>January!C28+February!C28+March!C28+April!C28+May!C28+June!C28+July!C28+August!C28+September!C28+October!C28+November!C28+December!C28</f>
-        <v>301</v>
+        <v>412</v>
       </c>
       <c r="D28" s="2">
         <f>January!D28+February!D28+March!D28+April!D28+May!D28+June!D28+July!D28+August!D28+September!D28+October!D28+November!D28+December!D28</f>
-        <v>-95</v>
+        <v>-92</v>
       </c>
       <c r="E28" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2251,7 +2317,7 @@
       </c>
       <c r="G28" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.68 : 1</v>
+        <v>0.78 : 1</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2260,15 +2326,15 @@
       </c>
       <c r="B29" s="4">
         <f>January!B29+February!B29+March!B29+April!B29+May!B29+June!B29+July!B29+August!B29+September!B29+October!B29+November!B29+December!B29</f>
-        <v>1773</v>
+        <v>2349</v>
       </c>
       <c r="C29" s="4">
         <f>January!C29+February!C29+March!C29+April!C29+May!C29+June!C29+July!C29+August!C29+September!C29+October!C29+November!C29+December!C29</f>
-        <v>1242</v>
+        <v>1627</v>
       </c>
       <c r="D29" s="4">
         <f>January!D29+February!D29+March!D29+April!D29+May!D29+June!D29+July!D29+August!D29+September!D29+October!D29+November!D29+December!D29</f>
-        <v>531</v>
+        <v>722</v>
       </c>
       <c r="E29" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2280,7 +2346,7 @@
       </c>
       <c r="G29" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>1.43 : 1</v>
+        <v>1.44 : 1</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2289,15 +2355,15 @@
       </c>
       <c r="B30" s="2">
         <f>January!B30+February!B30+March!B30+April!B30+May!B30+June!B30+July!B30+August!B30+September!B30+October!B30+November!B30+December!B30</f>
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="C30" s="2">
         <f>January!C30+February!C30+March!C30+April!C30+May!C30+June!C30+July!C30+August!C30+September!C30+October!C30+November!C30+December!C30</f>
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="D30" s="2">
         <f>January!D30+February!D30+March!D30+April!D30+May!D30+June!D30+July!D30+August!D30+September!D30+October!D30+November!D30+December!D30</f>
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="E30" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2309,7 +2375,7 @@
       </c>
       <c r="G30" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>3 : 1</v>
+        <v>2.41 : 1</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2318,15 +2384,15 @@
       </c>
       <c r="B31" s="4">
         <f>January!B31+February!B31+March!B31+April!B31+May!B31+June!B31+July!B31+August!B31+September!B31+October!B31+November!B31+December!B31</f>
-        <v>194</v>
+        <v>276</v>
       </c>
       <c r="C31" s="4">
         <f>January!C31+February!C31+March!C31+April!C31+May!C31+June!C31+July!C31+August!C31+September!C31+October!C31+November!C31+December!C31</f>
-        <v>995</v>
+        <v>1251</v>
       </c>
       <c r="D31" s="4">
         <f>January!D31+February!D31+March!D31+April!D31+May!D31+June!D31+July!D31+August!D31+September!D31+October!D31+November!D31+December!D31</f>
-        <v>-801</v>
+        <v>-975</v>
       </c>
       <c r="E31" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2338,7 +2404,7 @@
       </c>
       <c r="G31" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>0.19 : 1</v>
+        <v>0.22 : 1</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2347,15 +2413,15 @@
       </c>
       <c r="B32" s="2">
         <f>January!B32+February!B32+March!B32+April!B32+May!B32+June!B32+July!B32+August!B32+September!B32+October!B32+November!B32+December!B32</f>
-        <v>1270</v>
+        <v>1730</v>
       </c>
       <c r="C32" s="2">
         <f>January!C32+February!C32+March!C32+April!C32+May!C32+June!C32+July!C32+August!C32+September!C32+October!C32+November!C32+December!C32</f>
-        <v>1638</v>
+        <v>2168</v>
       </c>
       <c r="D32" s="2">
         <f>January!D32+February!D32+March!D32+April!D32+May!D32+June!D32+July!D32+August!D32+September!D32+October!D32+November!D32+December!D32</f>
-        <v>-368</v>
+        <v>-438</v>
       </c>
       <c r="E32" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2367,7 +2433,7 @@
       </c>
       <c r="G32" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.78 : 1</v>
+        <v>0.8 : 1</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2376,15 +2442,15 @@
       </c>
       <c r="B33" s="4">
         <f>January!B33+February!B33+March!B33+April!B33+May!B33+June!B33+July!B33+August!B33+September!B33+October!B33+November!B33+December!B33</f>
-        <v>908</v>
+        <v>1208</v>
       </c>
       <c r="C33" s="4">
         <f>January!C33+February!C33+March!C33+April!C33+May!C33+June!C33+July!C33+August!C33+September!C33+October!C33+November!C33+December!C33</f>
-        <v>1652</v>
+        <v>2215</v>
       </c>
       <c r="D33" s="4">
         <f>January!D33+February!D33+March!D33+April!D33+May!D33+June!D33+July!D33+August!D33+September!D33+October!D33+November!D33+December!D33</f>
-        <v>-744</v>
+        <v>-1007</v>
       </c>
       <c r="E33" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2405,15 +2471,15 @@
       </c>
       <c r="B34" s="2">
         <f>January!B34+February!B34+March!B34+April!B34+May!B34+June!B34+July!B34+August!B34+September!B34+October!B34+November!B34+December!B34</f>
-        <v>469</v>
+        <v>623</v>
       </c>
       <c r="C34" s="2">
         <f>January!C34+February!C34+March!C34+April!C34+May!C34+June!C34+July!C34+August!C34+September!C34+October!C34+November!C34+December!C34</f>
-        <v>309</v>
+        <v>394</v>
       </c>
       <c r="D34" s="2">
         <f>January!D34+February!D34+March!D34+April!D34+May!D34+June!D34+July!D34+August!D34+September!D34+October!D34+November!D34+December!D34</f>
-        <v>160</v>
+        <v>229</v>
       </c>
       <c r="E34" s="28" t="str">
         <f t="shared" ref="E34:E55" si="3">IF(D34 &gt; 0, "We borrowed more than we lent this year", "")</f>
@@ -2425,7 +2491,7 @@
       </c>
       <c r="G34" s="3" t="str">
         <f t="shared" ref="G34:G55" si="5">IF(ISERROR(ROUND(B34/C34,2)&amp;" : 1"), "", ROUND(B34/C34,2)&amp;" : 1")</f>
-        <v>1.52 : 1</v>
+        <v>1.58 : 1</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2434,15 +2500,15 @@
       </c>
       <c r="B35" s="4">
         <f>January!B35+February!B35+March!B35+April!B35+May!B35+June!B35+July!B35+August!B35+September!B35+October!B35+November!B35+December!B35</f>
-        <v>2484</v>
+        <v>3315</v>
       </c>
       <c r="C35" s="4">
         <f>January!C35+February!C35+March!C35+April!C35+May!C35+June!C35+July!C35+August!C35+September!C35+October!C35+November!C35+December!C35</f>
-        <v>3369</v>
+        <v>4458</v>
       </c>
       <c r="D35" s="4">
         <f>January!D35+February!D35+March!D35+April!D35+May!D35+June!D35+July!D35+August!D35+September!D35+October!D35+November!D35+December!D35</f>
-        <v>-885</v>
+        <v>-1143</v>
       </c>
       <c r="E35" s="29" t="str">
         <f t="shared" si="3"/>
@@ -2463,15 +2529,15 @@
       </c>
       <c r="B36" s="2">
         <f>January!B36+February!B36+March!B36+April!B36+May!B36+June!B36+July!B36+August!B36+September!B36+October!B36+November!B36+December!B36</f>
-        <v>631</v>
+        <v>809</v>
       </c>
       <c r="C36" s="2">
         <f>January!C36+February!C36+March!C36+April!C36+May!C36+June!C36+July!C36+August!C36+September!C36+October!C36+November!C36+December!C36</f>
-        <v>1344</v>
+        <v>1793</v>
       </c>
       <c r="D36" s="2">
         <f>January!D36+February!D36+March!D36+April!D36+May!D36+June!D36+July!D36+August!D36+September!D36+October!D36+November!D36+December!D36</f>
-        <v>-713</v>
+        <v>-984</v>
       </c>
       <c r="E36" s="28" t="str">
         <f t="shared" si="3"/>
@@ -2483,7 +2549,7 @@
       </c>
       <c r="G36" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>0.47 : 1</v>
+        <v>0.45 : 1</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2492,15 +2558,15 @@
       </c>
       <c r="B37" s="4">
         <f>January!B37+February!B37+March!B37+April!B37+May!B37+June!B37+July!B37+August!B37+September!B37+October!B37+November!B37+December!B37</f>
-        <v>1377</v>
+        <v>1805</v>
       </c>
       <c r="C37" s="4">
         <f>January!C37+February!C37+March!C37+April!C37+May!C37+June!C37+July!C37+August!C37+September!C37+October!C37+November!C37+December!C37</f>
-        <v>914</v>
+        <v>1267</v>
       </c>
       <c r="D37" s="4">
         <f>January!D37+February!D37+March!D37+April!D37+May!D37+June!D37+July!D37+August!D37+September!D37+October!D37+November!D37+December!D37</f>
-        <v>463</v>
+        <v>538</v>
       </c>
       <c r="E37" s="29" t="str">
         <f t="shared" si="3"/>
@@ -2512,7 +2578,7 @@
       </c>
       <c r="G37" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>1.51 : 1</v>
+        <v>1.42 : 1</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2521,15 +2587,15 @@
       </c>
       <c r="B38" s="2">
         <f>January!B38+February!B38+March!B38+April!B38+May!B38+June!B38+July!B38+August!B38+September!B38+October!B38+November!B38+December!B38</f>
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="C38" s="2">
         <f>January!C38+February!C38+March!C38+April!C38+May!C38+June!C38+July!C38+August!C38+September!C38+October!C38+November!C38+December!C38</f>
-        <v>514</v>
+        <v>698</v>
       </c>
       <c r="D38" s="2">
         <f>January!D38+February!D38+March!D38+April!D38+May!D38+June!D38+July!D38+August!D38+September!D38+October!D38+November!D38+December!D38</f>
-        <v>-438</v>
+        <v>-587</v>
       </c>
       <c r="E38" s="28" t="str">
         <f t="shared" si="3"/>
@@ -2541,7 +2607,7 @@
       </c>
       <c r="G38" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>0.15 : 1</v>
+        <v>0.16 : 1</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2550,15 +2616,15 @@
       </c>
       <c r="B39" s="4">
         <f>January!B44+February!B44+March!B44+April!B44+May!B44+June!B44+July!B44+August!B44+September!B44+October!B44+November!B44+December!B44</f>
-        <v>233</v>
+        <v>303</v>
       </c>
       <c r="C39" s="4">
         <f>January!C44+February!C44+March!C44+April!C44+May!C44+June!C44+July!C44+August!C44+September!C44+October!C44+November!C44+December!C44</f>
-        <v>216</v>
+        <v>296</v>
       </c>
       <c r="D39" s="4">
         <f>January!D44+February!D44+March!D44+April!D44+May!D44+June!D44+July!D44+August!D44+September!D44+October!D44+November!D44+December!D44</f>
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E39" s="29" t="str">
         <f t="shared" si="3"/>
@@ -2570,7 +2636,7 @@
       </c>
       <c r="G39" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>1.08 : 1</v>
+        <v>1.02 : 1</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2579,15 +2645,15 @@
       </c>
       <c r="B40" s="8">
         <f>January!B39+February!B39+March!B39+April!B39+May!B39+June!B39+July!B39+August!B39+September!B39+October!B39+November!B39+December!B39</f>
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C40" s="8">
         <f>January!C39+February!C39+March!C39+April!C39+May!C39+June!C39+July!C39+August!C39+September!C39+October!C39+November!C39+December!C39</f>
-        <v>294</v>
+        <v>409</v>
       </c>
       <c r="D40" s="8">
         <f>January!D39+February!D39+March!D39+April!D39+May!D39+June!D39+July!D39+August!D39+September!D39+October!D39+November!D39+December!D39</f>
-        <v>-179</v>
+        <v>-292</v>
       </c>
       <c r="E40" s="31" t="str">
         <f t="shared" si="3"/>
@@ -2599,7 +2665,7 @@
       </c>
       <c r="G40" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>0.39 : 1</v>
+        <v>0.29 : 1</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2608,15 +2674,15 @@
       </c>
       <c r="B41" s="8">
         <f>January!B40+February!B40+March!B40+April!B40+May!B40+June!B40+July!B40+August!B40+September!B40+October!B40+November!B40+December!B40</f>
-        <v>259</v>
+        <v>335</v>
       </c>
       <c r="C41" s="8">
         <f>January!C40+February!C40+March!C40+April!C40+May!C40+June!C40+July!C40+August!C40+September!C40+October!C40+November!C40+December!C40</f>
-        <v>291</v>
+        <v>419</v>
       </c>
       <c r="D41" s="8">
         <f>January!D40+February!D40+March!D40+April!D40+May!D40+June!D40+July!D40+August!D40+September!D40+October!D40+November!D40+December!D40</f>
-        <v>-32</v>
+        <v>-84</v>
       </c>
       <c r="E41" s="31" t="str">
         <f t="shared" si="3"/>
@@ -2628,7 +2694,7 @@
       </c>
       <c r="G41" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>0.89 : 1</v>
+        <v>0.8 : 1</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2637,15 +2703,15 @@
       </c>
       <c r="B42" s="8">
         <f>January!B41+February!B41+March!B41+April!B41+May!B41+June!B41+July!B41+August!B41+September!B41+October!B41+November!B41+December!B41</f>
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C42" s="8">
         <f>January!C41+February!C41+March!C41+April!C41+May!C41+June!C41+July!C41+August!C41+September!C41+October!C41+November!C41+December!C41</f>
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="D42" s="8">
         <f>January!D41+February!D41+March!D41+April!D41+May!D41+June!D41+July!D41+August!D41+September!D41+October!D41+November!D41+December!D41</f>
-        <v>-97</v>
+        <v>-136</v>
       </c>
       <c r="E42" s="31" t="str">
         <f t="shared" si="3"/>
@@ -2657,7 +2723,7 @@
       </c>
       <c r="G42" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>0.08 : 1</v>
+        <v>0.11 : 1</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2666,15 +2732,15 @@
       </c>
       <c r="B43" s="8">
         <f>January!B42+February!B42+March!B42+April!B42+May!B42+June!B42+July!B42+August!B42+September!B42+October!B42+November!B42+December!B42</f>
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C43" s="8">
         <f>January!C42+February!C42+March!C42+April!C42+May!C42+June!C42+July!C42+August!C42+September!C42+October!C42+November!C42+December!C42</f>
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="D43" s="8">
         <f>January!D42+February!D42+March!D42+April!D42+May!D42+June!D42+July!D42+August!D42+September!D42+October!D42+November!D42+December!D42</f>
-        <v>-55</v>
+        <v>-74</v>
       </c>
       <c r="E43" s="31" t="str">
         <f t="shared" si="3"/>
@@ -2724,15 +2790,15 @@
       </c>
       <c r="B45" s="2">
         <f>January!B45+February!B45+March!B45+April!B45+May!B45+June!B45+July!B45+August!B45+September!B45+October!B45+November!B45+December!B45</f>
-        <v>222</v>
+        <v>285</v>
       </c>
       <c r="C45" s="2">
         <f>January!C45+February!C45+March!C45+April!C45+May!C45+June!C45+July!C45+August!C45+September!C45+October!C45+November!C45+December!C45</f>
-        <v>516</v>
+        <v>701</v>
       </c>
       <c r="D45" s="2">
         <f>January!D45+February!D45+March!D45+April!D45+May!D45+June!D45+July!D45+August!D45+September!D45+October!D45+November!D45+December!D45</f>
-        <v>-294</v>
+        <v>-416</v>
       </c>
       <c r="E45" s="28" t="str">
         <f t="shared" si="3"/>
@@ -2744,7 +2810,7 @@
       </c>
       <c r="G45" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>0.43 : 1</v>
+        <v>0.41 : 1</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2753,15 +2819,15 @@
       </c>
       <c r="B46" s="4">
         <f>January!B46+February!B46+March!B46+April!B46+May!B46+June!B46+July!B46+August!B46+September!B46+October!B46+November!B46+December!B46</f>
-        <v>1567</v>
+        <v>2044</v>
       </c>
       <c r="C46" s="4">
         <f>January!C46+February!C46+March!C46+April!C46+May!C46+June!C46+July!C46+August!C46+September!C46+October!C46+November!C46+December!C46</f>
-        <v>1886</v>
+        <v>2458</v>
       </c>
       <c r="D46" s="4">
         <f>January!D46+February!D46+March!D46+April!D46+May!D46+June!D46+July!D46+August!D46+September!D46+October!D46+November!D46+December!D46</f>
-        <v>-319</v>
+        <v>-414</v>
       </c>
       <c r="E46" s="29" t="str">
         <f t="shared" si="3"/>
@@ -2782,15 +2848,15 @@
       </c>
       <c r="B47" s="2">
         <f>January!B47+February!B47+March!B47+April!B47+May!B47+June!B47+July!B47+August!B47+September!B47+October!B47+November!B47+December!B47</f>
-        <v>3309</v>
+        <v>4413</v>
       </c>
       <c r="C47" s="2">
         <f>January!C47+February!C47+March!C47+April!C47+May!C47+June!C47+July!C47+August!C47+September!C47+October!C47+November!C47+December!C47</f>
-        <v>1725</v>
+        <v>2374</v>
       </c>
       <c r="D47" s="2">
         <f>January!D47+February!D47+March!D47+April!D47+May!D47+June!D47+July!D47+August!D47+September!D47+October!D47+November!D47+December!D47</f>
-        <v>1584</v>
+        <v>2039</v>
       </c>
       <c r="E47" s="28" t="str">
         <f t="shared" si="3"/>
@@ -2802,7 +2868,7 @@
       </c>
       <c r="G47" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>1.92 : 1</v>
+        <v>1.86 : 1</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2811,15 +2877,15 @@
       </c>
       <c r="B48" s="4">
         <f>January!B48+February!B48+March!B48+April!B48+May!B48+June!B48+July!B48+August!B48+September!B48+October!B48+November!B48+December!B48</f>
-        <v>826</v>
+        <v>1099</v>
       </c>
       <c r="C48" s="4">
         <f>January!C48+February!C48+March!C48+April!C48+May!C48+June!C48+July!C48+August!C48+September!C48+October!C48+November!C48+December!C48</f>
-        <v>1891</v>
+        <v>2448</v>
       </c>
       <c r="D48" s="4">
         <f>January!D48+February!D48+March!D48+April!D48+May!D48+June!D48+July!D48+August!D48+September!D48+October!D48+November!D48+December!D48</f>
-        <v>-1065</v>
+        <v>-1349</v>
       </c>
       <c r="E48" s="29" t="str">
         <f t="shared" si="3"/>
@@ -2831,7 +2897,7 @@
       </c>
       <c r="G48" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>0.44 : 1</v>
+        <v>0.45 : 1</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2840,15 +2906,15 @@
       </c>
       <c r="B49" s="2">
         <f>January!B49+February!B49+March!B49+April!B49+May!B49+June!B49+July!B49+August!B49+September!B49+October!B49+November!B49+December!B49</f>
-        <v>1637</v>
+        <v>2165</v>
       </c>
       <c r="C49" s="2">
         <f>January!C49+February!C49+March!C49+April!C49+May!C49+June!C49+July!C49+August!C49+September!C49+October!C49+November!C49+December!C49</f>
-        <v>697</v>
+        <v>963</v>
       </c>
       <c r="D49" s="2">
         <f>January!D49+February!D49+March!D49+April!D49+May!D49+June!D49+July!D49+August!D49+September!D49+October!D49+November!D49+December!D49</f>
-        <v>940</v>
+        <v>1202</v>
       </c>
       <c r="E49" s="28" t="str">
         <f t="shared" si="3"/>
@@ -2860,7 +2926,7 @@
       </c>
       <c r="G49" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>2.35 : 1</v>
+        <v>2.25 : 1</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2869,15 +2935,15 @@
       </c>
       <c r="B50" s="4">
         <f>January!B50+February!B50+March!B50+April!B50+May!B50+June!B50+July!B50+August!B50+September!B50+October!B50+November!B50+December!B50</f>
-        <v>2727</v>
+        <v>3735</v>
       </c>
       <c r="C50" s="4">
         <f>January!C50+February!C50+March!C50+April!C50+May!C50+June!C50+July!C50+August!C50+September!C50+October!C50+November!C50+December!C50</f>
-        <v>1524</v>
+        <v>2103</v>
       </c>
       <c r="D50" s="4">
         <f>January!D50+February!D50+March!D50+April!D50+May!D50+June!D50+July!D50+August!D50+September!D50+October!D50+November!D50+December!D50</f>
-        <v>1203</v>
+        <v>1632</v>
       </c>
       <c r="E50" s="29" t="str">
         <f t="shared" si="3"/>
@@ -2889,7 +2955,7 @@
       </c>
       <c r="G50" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>1.79 : 1</v>
+        <v>1.78 : 1</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2898,15 +2964,15 @@
       </c>
       <c r="B51" s="2">
         <f>January!B51+February!B51+March!B51+April!B51+May!B51+June!B51+July!B51+August!B51+September!B51+October!B51+November!B51+December!B51</f>
-        <v>662</v>
+        <v>876</v>
       </c>
       <c r="C51" s="2">
         <f>January!C51+February!C51+March!C51+April!C51+May!C51+June!C51+July!C51+August!C51+September!C51+October!C51+November!C51+December!C51</f>
-        <v>506</v>
+        <v>670</v>
       </c>
       <c r="D51" s="2">
         <f>January!D51+February!D51+March!D51+April!D51+May!D51+June!D51+July!D51+August!D51+September!D51+October!D51+November!D51+December!D51</f>
-        <v>156</v>
+        <v>206</v>
       </c>
       <c r="E51" s="28" t="str">
         <f t="shared" si="3"/>
@@ -2927,15 +2993,15 @@
       </c>
       <c r="B52" s="4">
         <f>January!B52+February!B52+March!B52+April!B52+May!B52+June!B52+July!B52+August!B52+September!B52+October!B52+November!B52+December!B52</f>
-        <v>1067</v>
+        <v>1362</v>
       </c>
       <c r="C52" s="4">
         <f>January!C52+February!C52+March!C52+April!C52+May!C52+June!C52+July!C52+August!C52+September!C52+October!C52+November!C52+December!C52</f>
-        <v>1221</v>
+        <v>1644</v>
       </c>
       <c r="D52" s="4">
         <f>January!D52+February!D52+March!D52+April!D52+May!D52+June!D52+July!D52+August!D52+September!D52+October!D52+November!D52+December!D52</f>
-        <v>-154</v>
+        <v>-282</v>
       </c>
       <c r="E52" s="29" t="str">
         <f t="shared" si="3"/>
@@ -2947,7 +3013,7 @@
       </c>
       <c r="G52" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>0.87 : 1</v>
+        <v>0.83 : 1</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2956,15 +3022,15 @@
       </c>
       <c r="B53" s="2">
         <f>January!B53+February!B53+March!B53+April!B53+May!B53+June!B53+July!B53+August!B53+September!B53+October!B53+November!B53+December!B53</f>
-        <v>378</v>
+        <v>495</v>
       </c>
       <c r="C53" s="2">
         <f>January!C53+February!C53+March!C53+April!C53+May!C53+June!C53+July!C53+August!C53+September!C53+October!C53+November!C53+December!C53</f>
-        <v>651</v>
+        <v>879</v>
       </c>
       <c r="D53" s="2">
         <f>January!D53+February!D53+March!D53+April!D53+May!D53+June!D53+July!D53+August!D53+September!D53+October!D53+November!D53+December!D53</f>
-        <v>-273</v>
+        <v>-384</v>
       </c>
       <c r="E53" s="28" t="str">
         <f t="shared" si="3"/>
@@ -2976,7 +3042,7 @@
       </c>
       <c r="G53" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>0.58 : 1</v>
+        <v>0.56 : 1</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2985,15 +3051,15 @@
       </c>
       <c r="B54" s="4">
         <f>January!B54+February!B54+March!B54+April!B54+May!B54+June!B54+July!B54+August!B54+September!B54+October!B54+November!B54+December!B54</f>
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="C54" s="4">
         <f>January!C54+February!C54+March!C54+April!C54+May!C54+June!C54+July!C54+August!C54+September!C54+October!C54+November!C54+December!C54</f>
-        <v>633</v>
+        <v>829</v>
       </c>
       <c r="D54" s="4">
         <f>January!D54+February!D54+March!D54+April!D54+May!D54+June!D54+July!D54+August!D54+September!D54+October!D54+November!D54+December!D54</f>
-        <v>-588</v>
+        <v>-756</v>
       </c>
       <c r="E54" s="29" t="str">
         <f t="shared" si="3"/>
@@ -3005,7 +3071,7 @@
       </c>
       <c r="G54" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>0.07 : 1</v>
+        <v>0.09 : 1</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3014,15 +3080,15 @@
       </c>
       <c r="B55" s="10">
         <f>January!B55+February!B55+March!B55+April!B55+May!B55+June!B55+July!B55+August!B55+September!B55+October!B55+November!B55+December!B55</f>
-        <v>856</v>
+        <v>1131</v>
       </c>
       <c r="C55" s="10">
         <f>January!C55+February!C55+March!C55+April!C55+May!C55+June!C55+July!C55+August!C55+September!C55+October!C55+November!C55+December!C55</f>
-        <v>658</v>
+        <v>852</v>
       </c>
       <c r="D55" s="10">
         <f>January!D55+February!D55+March!D55+April!D55+May!D55+June!D55+July!D55+August!D55+September!D55+October!D55+November!D55+December!D55</f>
-        <v>198</v>
+        <v>279</v>
       </c>
       <c r="E55" s="32" t="str">
         <f t="shared" si="3"/>
@@ -3034,7 +3100,7 @@
       </c>
       <c r="G55" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>1.3 : 1</v>
+        <v>1.33 : 1</v>
       </c>
     </row>
   </sheetData>
@@ -9268,7 +9334,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9308,108 +9374,204 @@
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="28"/>
+      <c r="B2" s="18">
+        <v>1339</v>
+      </c>
+      <c r="C2" s="18">
+        <v>1141</v>
+      </c>
+      <c r="D2" s="18">
+        <v>198</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F2" s="28"/>
-      <c r="G2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="29"/>
+      <c r="B3" s="21">
+        <v>603</v>
+      </c>
+      <c r="C3" s="21">
+        <v>439</v>
+      </c>
+      <c r="D3" s="21">
+        <v>164</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F3" s="29"/>
-      <c r="G3" s="5"/>
+      <c r="G3" s="5" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="B4" s="18">
+        <v>1106</v>
+      </c>
+      <c r="C4" s="18">
+        <v>1286</v>
+      </c>
+      <c r="D4" s="18">
+        <v>-180</v>
+      </c>
       <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="3"/>
+      <c r="F4" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
+      <c r="B5" s="21">
+        <v>40</v>
+      </c>
+      <c r="C5" s="21">
+        <v>143</v>
+      </c>
+      <c r="D5" s="21">
+        <v>-103</v>
+      </c>
       <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="5"/>
+      <c r="F5" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
+      <c r="B6" s="18">
+        <v>991</v>
+      </c>
+      <c r="C6" s="18">
+        <v>1209</v>
+      </c>
+      <c r="D6" s="18">
+        <v>-218</v>
+      </c>
       <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="3"/>
+      <c r="F6" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="29"/>
+      <c r="B7" s="21">
+        <v>501</v>
+      </c>
+      <c r="C7" s="21">
+        <v>130</v>
+      </c>
+      <c r="D7" s="21">
+        <v>371</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F7" s="29"/>
-      <c r="G7" s="5"/>
+      <c r="G7" s="5" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
+      <c r="B8" s="18">
+        <v>120</v>
+      </c>
+      <c r="C8" s="18">
+        <v>181</v>
+      </c>
+      <c r="D8" s="18">
+        <v>-61</v>
+      </c>
       <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
+      <c r="B9" s="21">
+        <v>51</v>
+      </c>
+      <c r="C9" s="21">
+        <v>72</v>
+      </c>
+      <c r="D9" s="21">
+        <v>-21</v>
+      </c>
       <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="5"/>
+      <c r="F9" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
+      <c r="B10" s="18">
+        <v>1</v>
+      </c>
+      <c r="C10" s="18">
+        <v>53</v>
+      </c>
+      <c r="D10" s="18">
+        <v>-52</v>
+      </c>
       <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="3"/>
+      <c r="F10" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
+      <c r="B11" s="21">
+        <v>0</v>
+      </c>
+      <c r="C11" s="21">
+        <v>0</v>
+      </c>
+      <c r="D11" s="21">
+        <v>0</v>
+      </c>
       <c r="E11" s="29"/>
       <c r="F11" s="29"/>
       <c r="G11" s="5"/>
@@ -9418,163 +9580,309 @@
       <c r="A12" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="30"/>
+      <c r="B12" s="23">
+        <v>32</v>
+      </c>
+      <c r="C12" s="23">
+        <v>24</v>
+      </c>
+      <c r="D12" s="23">
+        <v>8</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>61</v>
+      </c>
       <c r="F12" s="30"/>
-      <c r="G12" s="7"/>
+      <c r="G12" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="30"/>
+      <c r="B13" s="23">
+        <v>148</v>
+      </c>
+      <c r="C13" s="23">
+        <v>69</v>
+      </c>
+      <c r="D13" s="23">
+        <v>79</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>61</v>
+      </c>
       <c r="F13" s="30"/>
-      <c r="G13" s="7"/>
+      <c r="G13" s="7" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
+      <c r="B14" s="23">
+        <v>164</v>
+      </c>
+      <c r="C14" s="23">
+        <v>265</v>
+      </c>
+      <c r="D14" s="23">
+        <v>-101</v>
+      </c>
       <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="7"/>
+      <c r="F14" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
+      <c r="B15" s="23">
+        <v>47</v>
+      </c>
+      <c r="C15" s="23">
+        <v>117</v>
+      </c>
+      <c r="D15" s="23">
+        <v>-70</v>
+      </c>
       <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="7"/>
+      <c r="F15" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
+      <c r="B16" s="18">
+        <v>81</v>
+      </c>
+      <c r="C16" s="18">
+        <v>137</v>
+      </c>
+      <c r="D16" s="18">
+        <v>-56</v>
+      </c>
       <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="3"/>
+      <c r="F16" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="29"/>
+      <c r="B17" s="21">
+        <v>514</v>
+      </c>
+      <c r="C17" s="21">
+        <v>418</v>
+      </c>
+      <c r="D17" s="21">
+        <v>96</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F17" s="29"/>
-      <c r="G17" s="5"/>
+      <c r="G17" s="5" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
+      <c r="B18" s="18">
+        <v>76</v>
+      </c>
+      <c r="C18" s="18">
+        <v>119</v>
+      </c>
+      <c r="D18" s="18">
+        <v>-43</v>
+      </c>
       <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="3"/>
+      <c r="F18" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="29"/>
+      <c r="B19" s="21">
+        <v>637</v>
+      </c>
+      <c r="C19" s="21">
+        <v>451</v>
+      </c>
+      <c r="D19" s="21">
+        <v>186</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F19" s="29"/>
-      <c r="G19" s="5"/>
+      <c r="G19" s="5" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
+      <c r="B20" s="18">
+        <v>1</v>
+      </c>
+      <c r="C20" s="18">
+        <v>77</v>
+      </c>
+      <c r="D20" s="18">
+        <v>-76</v>
+      </c>
       <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="3"/>
+      <c r="F20" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="29"/>
+      <c r="B21" s="21">
+        <v>410</v>
+      </c>
+      <c r="C21" s="21">
+        <v>384</v>
+      </c>
+      <c r="D21" s="21">
+        <v>26</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F21" s="29"/>
-      <c r="G21" s="5"/>
+      <c r="G21" s="5" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
+      <c r="B22" s="18">
+        <v>40</v>
+      </c>
+      <c r="C22" s="18">
+        <v>116</v>
+      </c>
+      <c r="D22" s="18">
+        <v>-76</v>
+      </c>
       <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="3"/>
+      <c r="F22" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="29"/>
+      <c r="B23" s="21">
+        <v>671</v>
+      </c>
+      <c r="C23" s="21">
+        <v>331</v>
+      </c>
+      <c r="D23" s="21">
+        <v>340</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F23" s="29"/>
-      <c r="G23" s="5"/>
+      <c r="G23" s="5" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="28"/>
+      <c r="B24" s="18">
+        <v>1739</v>
+      </c>
+      <c r="C24" s="18">
+        <v>1276</v>
+      </c>
+      <c r="D24" s="18">
+        <v>463</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F24" s="28"/>
-      <c r="G24" s="3"/>
+      <c r="G24" s="3" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
+      <c r="B25" s="21">
+        <v>137</v>
+      </c>
+      <c r="C25" s="21">
+        <v>340</v>
+      </c>
+      <c r="D25" s="21">
+        <v>-203</v>
+      </c>
       <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="5"/>
+      <c r="F25" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
+      <c r="B26" s="18">
+        <v>0</v>
+      </c>
+      <c r="C26" s="18">
+        <v>0</v>
+      </c>
+      <c r="D26" s="18">
+        <v>0</v>
+      </c>
       <c r="E26" s="28"/>
       <c r="F26" s="28"/>
       <c r="G26" s="3"/>
@@ -9583,185 +9891,351 @@
       <c r="A27" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="29"/>
+      <c r="B27" s="21">
+        <v>223</v>
+      </c>
+      <c r="C27" s="21">
+        <v>197</v>
+      </c>
+      <c r="D27" s="21">
+        <v>26</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F27" s="29"/>
-      <c r="G27" s="5"/>
+      <c r="G27" s="5" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="28"/>
+      <c r="B28" s="18">
+        <v>114</v>
+      </c>
+      <c r="C28" s="18">
+        <v>111</v>
+      </c>
+      <c r="D28" s="18">
+        <v>3</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F28" s="28"/>
-      <c r="G28" s="3"/>
+      <c r="G28" s="3" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="29"/>
+      <c r="B29" s="21">
+        <v>576</v>
+      </c>
+      <c r="C29" s="21">
+        <v>385</v>
+      </c>
+      <c r="D29" s="21">
+        <v>191</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F29" s="29"/>
-      <c r="G29" s="5"/>
+      <c r="G29" s="5" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="28"/>
+      <c r="B30" s="18">
+        <v>45</v>
+      </c>
+      <c r="C30" s="18">
+        <v>31</v>
+      </c>
+      <c r="D30" s="18">
+        <v>14</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F30" s="28"/>
-      <c r="G30" s="3"/>
+      <c r="G30" s="3" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
+      <c r="B31" s="21">
+        <v>82</v>
+      </c>
+      <c r="C31" s="21">
+        <v>256</v>
+      </c>
+      <c r="D31" s="21">
+        <v>-174</v>
+      </c>
       <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="5"/>
+      <c r="F31" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
+      <c r="B32" s="18">
+        <v>460</v>
+      </c>
+      <c r="C32" s="18">
+        <v>530</v>
+      </c>
+      <c r="D32" s="18">
+        <v>-70</v>
+      </c>
       <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="3"/>
+      <c r="F32" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
+      <c r="B33" s="21">
+        <v>300</v>
+      </c>
+      <c r="C33" s="21">
+        <v>563</v>
+      </c>
+      <c r="D33" s="21">
+        <v>-263</v>
+      </c>
       <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="5"/>
+      <c r="F33" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="28"/>
+      <c r="B34" s="18">
+        <v>154</v>
+      </c>
+      <c r="C34" s="18">
+        <v>85</v>
+      </c>
+      <c r="D34" s="18">
+        <v>69</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F34" s="28"/>
-      <c r="G34" s="3"/>
+      <c r="G34" s="3" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
+      <c r="B35" s="21">
+        <v>831</v>
+      </c>
+      <c r="C35" s="21">
+        <v>1089</v>
+      </c>
+      <c r="D35" s="21">
+        <v>-258</v>
+      </c>
       <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="5"/>
+      <c r="F35" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
+      <c r="B36" s="18">
+        <v>178</v>
+      </c>
+      <c r="C36" s="18">
+        <v>449</v>
+      </c>
+      <c r="D36" s="18">
+        <v>-271</v>
+      </c>
       <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="3"/>
+      <c r="F36" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="29"/>
+      <c r="B37" s="21">
+        <v>428</v>
+      </c>
+      <c r="C37" s="21">
+        <v>353</v>
+      </c>
+      <c r="D37" s="21">
+        <v>75</v>
+      </c>
+      <c r="E37" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F37" s="29"/>
-      <c r="G37" s="5"/>
+      <c r="G37" s="5" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
+      <c r="B38" s="18">
+        <v>35</v>
+      </c>
+      <c r="C38" s="18">
+        <v>184</v>
+      </c>
+      <c r="D38" s="18">
+        <v>-149</v>
+      </c>
       <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="3"/>
+      <c r="F38" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
+      <c r="B39" s="25">
+        <v>2</v>
+      </c>
+      <c r="C39" s="25">
+        <v>115</v>
+      </c>
+      <c r="D39" s="25">
+        <v>-113</v>
+      </c>
       <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="9"/>
+      <c r="F39" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
+      <c r="B40" s="25">
+        <v>76</v>
+      </c>
+      <c r="C40" s="25">
+        <v>128</v>
+      </c>
+      <c r="D40" s="25">
+        <v>-52</v>
+      </c>
       <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="9"/>
+      <c r="F40" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
+      <c r="B41" s="25">
+        <v>9</v>
+      </c>
+      <c r="C41" s="25">
+        <v>48</v>
+      </c>
+      <c r="D41" s="25">
+        <v>-39</v>
+      </c>
       <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="9"/>
+      <c r="F41" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
+      <c r="B42" s="25">
+        <v>10</v>
+      </c>
+      <c r="C42" s="25">
+        <v>29</v>
+      </c>
+      <c r="D42" s="25">
+        <v>-19</v>
+      </c>
       <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="9"/>
+      <c r="F42" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
+      <c r="B43" s="25">
+        <v>0</v>
+      </c>
+      <c r="C43" s="25">
+        <v>0</v>
+      </c>
+      <c r="D43" s="25">
+        <v>0</v>
+      </c>
       <c r="E43" s="31"/>
       <c r="F43" s="31"/>
       <c r="G43" s="9"/>
@@ -9770,133 +10244,253 @@
       <c r="A44" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
+      <c r="B44" s="21">
+        <v>70</v>
+      </c>
+      <c r="C44" s="21">
+        <v>80</v>
+      </c>
+      <c r="D44" s="21">
+        <v>-10</v>
+      </c>
       <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="5"/>
+      <c r="F44" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
+      <c r="B45" s="18">
+        <v>63</v>
+      </c>
+      <c r="C45" s="18">
+        <v>185</v>
+      </c>
+      <c r="D45" s="18">
+        <v>-122</v>
+      </c>
       <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="3"/>
+      <c r="F45" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
+      <c r="B46" s="21">
+        <v>477</v>
+      </c>
+      <c r="C46" s="21">
+        <v>572</v>
+      </c>
+      <c r="D46" s="21">
+        <v>-95</v>
+      </c>
       <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="5"/>
+      <c r="F46" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="28"/>
+      <c r="B47" s="18">
+        <v>1104</v>
+      </c>
+      <c r="C47" s="18">
+        <v>649</v>
+      </c>
+      <c r="D47" s="18">
+        <v>455</v>
+      </c>
+      <c r="E47" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F47" s="28"/>
-      <c r="G47" s="3"/>
+      <c r="G47" s="3" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
+      <c r="B48" s="21">
+        <v>273</v>
+      </c>
+      <c r="C48" s="21">
+        <v>557</v>
+      </c>
+      <c r="D48" s="21">
+        <v>-284</v>
+      </c>
       <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="5"/>
+      <c r="F48" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="28"/>
+      <c r="B49" s="18">
+        <v>528</v>
+      </c>
+      <c r="C49" s="18">
+        <v>266</v>
+      </c>
+      <c r="D49" s="18">
+        <v>262</v>
+      </c>
+      <c r="E49" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F49" s="28"/>
-      <c r="G49" s="3"/>
+      <c r="G49" s="3" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="29"/>
+      <c r="B50" s="21">
+        <v>1008</v>
+      </c>
+      <c r="C50" s="21">
+        <v>579</v>
+      </c>
+      <c r="D50" s="21">
+        <v>429</v>
+      </c>
+      <c r="E50" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F50" s="29"/>
-      <c r="G50" s="5"/>
+      <c r="G50" s="5" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="28"/>
+      <c r="B51" s="18">
+        <v>214</v>
+      </c>
+      <c r="C51" s="18">
+        <v>164</v>
+      </c>
+      <c r="D51" s="18">
+        <v>50</v>
+      </c>
+      <c r="E51" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F51" s="28"/>
-      <c r="G51" s="3"/>
+      <c r="G51" s="3" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
+      <c r="B52" s="21">
+        <v>295</v>
+      </c>
+      <c r="C52" s="21">
+        <v>423</v>
+      </c>
+      <c r="D52" s="21">
+        <v>-128</v>
+      </c>
       <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="5"/>
+      <c r="F52" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
+      <c r="B53" s="18">
+        <v>117</v>
+      </c>
+      <c r="C53" s="18">
+        <v>228</v>
+      </c>
+      <c r="D53" s="18">
+        <v>-111</v>
+      </c>
       <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="3"/>
+      <c r="F53" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B54" s="21"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
+      <c r="B54" s="21">
+        <v>28</v>
+      </c>
+      <c r="C54" s="21">
+        <v>196</v>
+      </c>
+      <c r="D54" s="21">
+        <v>-168</v>
+      </c>
       <c r="E54" s="29"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="5"/>
+      <c r="F54" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="B55" s="27"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="32"/>
+      <c r="B55" s="27">
+        <v>275</v>
+      </c>
+      <c r="C55" s="27">
+        <v>194</v>
+      </c>
+      <c r="D55" s="27">
+        <v>81</v>
+      </c>
+      <c r="E55" s="32" t="s">
+        <v>61</v>
+      </c>
       <c r="F55" s="32"/>
-      <c r="G55" s="11"/>
+      <c r="G55" s="11" t="s">
+        <v>193</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G55" xr:uid="{00000000-0009-0000-0000-000004000000}"/>

--- a/statistics_files/2024/2024_99_g_net_borrower_lender.xlsx
+++ b/statistics_files/2024/2024_99_g_net_borrower_lender.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20410"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\GitHub\next_statistics\statistics_files\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DB6C72-299E-4424-83A4-3A9C5E385594}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7A168D-AFD4-4440-93BE-A24C631B976E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" tabRatio="673" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="213">
   <si>
     <t>NET</t>
   </si>
@@ -634,6 +634,63 @@
   </si>
   <si>
     <t>1.42 : 1</t>
+  </si>
+  <si>
+    <t>1.01 : 1</t>
+  </si>
+  <si>
+    <t>0.44 : 1</t>
+  </si>
+  <si>
+    <t>2.71 : 1</t>
+  </si>
+  <si>
+    <t>0.75 : 1</t>
+  </si>
+  <si>
+    <t>1.88 : 1</t>
+  </si>
+  <si>
+    <t>0.74 : 1</t>
+  </si>
+  <si>
+    <t>1.62 : 1</t>
+  </si>
+  <si>
+    <t>1.32 : 1</t>
+  </si>
+  <si>
+    <t>1.16 : 1</t>
+  </si>
+  <si>
+    <t>1.15 : 1</t>
+  </si>
+  <si>
+    <t>1.56 : 1</t>
+  </si>
+  <si>
+    <t>1.72 : 1</t>
+  </si>
+  <si>
+    <t>0.35 : 1</t>
+  </si>
+  <si>
+    <t>1.49 : 1</t>
+  </si>
+  <si>
+    <t>0.54 : 1</t>
+  </si>
+  <si>
+    <t>0.96 : 1</t>
+  </si>
+  <si>
+    <t>1.68 : 1</t>
+  </si>
+  <si>
+    <t>1.87 : 1</t>
+  </si>
+  <si>
+    <t>1.85 : 1</t>
   </si>
 </sst>
 </file>
@@ -1543,15 +1600,15 @@
       </c>
       <c r="B2" s="2">
         <f>January!B2+February!B2+March!B2+April!B2+May!B2+June!B2+July!B2+August!B2+September!B2+October!B2+November!B2+December!B2</f>
-        <v>5434</v>
+        <v>6773</v>
       </c>
       <c r="C2" s="2">
         <f>January!C2+February!C2+March!C2+April!C2+May!C2+June!C2+July!C2+August!C2+September!C2+October!C2+November!C2+December!C2</f>
-        <v>4764</v>
+        <v>5904</v>
       </c>
       <c r="D2" s="2">
         <f>January!D2+February!D2+March!D2+April!D2+May!D2+June!D2+July!D2+August!D2+September!D2+October!D2+November!D2+December!D2</f>
-        <v>670</v>
+        <v>869</v>
       </c>
       <c r="E2" s="28" t="str">
         <f t="shared" ref="E2:E33" si="0">IF(D2 &gt; 0, "We borrowed more than we lent this year", "")</f>
@@ -1563,7 +1620,7 @@
       </c>
       <c r="G2" s="3" t="str">
         <f t="shared" ref="G2:G33" si="2">IF(ISERROR(ROUND(B2/C2,2)&amp;" : 1"), "", ROUND(B2/C2,2)&amp;" : 1")</f>
-        <v>1.14 : 1</v>
+        <v>1.15 : 1</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1572,15 +1629,15 @@
       </c>
       <c r="B3" s="4">
         <f>January!B3+February!B3+March!B3+April!B3+May!B3+June!B3+July!B3+August!B3+September!B3+October!B3+November!B3+December!B3</f>
-        <v>2304</v>
+        <v>2848</v>
       </c>
       <c r="C3" s="4">
         <f>January!C3+February!C3+March!C3+April!C3+May!C3+June!C3+July!C3+August!C3+September!C3+October!C3+November!C3+December!C3</f>
-        <v>1825</v>
+        <v>2252</v>
       </c>
       <c r="D3" s="4">
         <f>January!D3+February!D3+March!D3+April!D3+May!D3+June!D3+July!D3+August!D3+September!D3+October!D3+November!D3+December!D3</f>
-        <v>479</v>
+        <v>596</v>
       </c>
       <c r="E3" s="29" t="str">
         <f t="shared" si="0"/>
@@ -1601,15 +1658,15 @@
       </c>
       <c r="B4" s="2">
         <f>January!B4+February!B4+March!B4+April!B4+May!B4+June!B4+July!B4+August!B4+September!B4+October!B4+November!B4+December!B4</f>
-        <v>4838</v>
+        <v>6005</v>
       </c>
       <c r="C4" s="2">
         <f>January!C4+February!C4+March!C4+April!C4+May!C4+June!C4+July!C4+August!C4+September!C4+October!C4+November!C4+December!C4</f>
-        <v>4961</v>
+        <v>6113</v>
       </c>
       <c r="D4" s="2">
         <f>January!D4+February!D4+March!D4+April!D4+May!D4+June!D4+July!D4+August!D4+September!D4+October!D4+November!D4+December!D4</f>
-        <v>-123</v>
+        <v>-108</v>
       </c>
       <c r="E4" s="28" t="str">
         <f t="shared" si="0"/>
@@ -1630,15 +1687,15 @@
       </c>
       <c r="B5" s="4">
         <f>January!B5+February!B5+March!B5+April!B5+May!B5+June!B5+July!B5+August!B5+September!B5+October!B5+November!B5+December!B5</f>
-        <v>156</v>
+        <v>197</v>
       </c>
       <c r="C5" s="4">
         <f>January!C5+February!C5+March!C5+April!C5+May!C5+June!C5+July!C5+August!C5+September!C5+October!C5+November!C5+December!C5</f>
-        <v>492</v>
+        <v>585</v>
       </c>
       <c r="D5" s="4">
         <f>January!D5+February!D5+March!D5+April!D5+May!D5+June!D5+July!D5+August!D5+September!D5+October!D5+November!D5+December!D5</f>
-        <v>-336</v>
+        <v>-388</v>
       </c>
       <c r="E5" s="29" t="str">
         <f t="shared" si="0"/>
@@ -1650,7 +1707,7 @@
       </c>
       <c r="G5" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>0.32 : 1</v>
+        <v>0.34 : 1</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1659,15 +1716,15 @@
       </c>
       <c r="B6" s="2">
         <f>January!B6+February!B6+March!B6+April!B6+May!B6+June!B6+July!B6+August!B6+September!B6+October!B6+November!B6+December!B6</f>
-        <v>4345</v>
+        <v>5389</v>
       </c>
       <c r="C6" s="2">
         <f>January!C6+February!C6+March!C6+April!C6+May!C6+June!C6+July!C6+August!C6+September!C6+October!C6+November!C6+December!C6</f>
-        <v>5738</v>
+        <v>7007</v>
       </c>
       <c r="D6" s="2">
         <f>January!D6+February!D6+March!D6+April!D6+May!D6+June!D6+July!D6+August!D6+September!D6+October!D6+November!D6+December!D6</f>
-        <v>-1393</v>
+        <v>-1618</v>
       </c>
       <c r="E6" s="28" t="str">
         <f t="shared" si="0"/>
@@ -1679,7 +1736,7 @@
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.76 : 1</v>
+        <v>0.77 : 1</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1688,15 +1745,15 @@
       </c>
       <c r="B7" s="4">
         <f>January!B7+February!B7+March!B7+April!B7+May!B7+June!B7+July!B7+August!B7+September!B7+October!B7+November!B7+December!B7</f>
-        <v>1280</v>
+        <v>1611</v>
       </c>
       <c r="C7" s="4">
         <f>January!C7+February!C7+March!C7+April!C7+May!C7+June!C7+July!C7+August!C7+September!C7+October!C7+November!C7+December!C7</f>
-        <v>591</v>
+        <v>713</v>
       </c>
       <c r="D7" s="4">
         <f>January!D7+February!D7+March!D7+April!D7+May!D7+June!D7+July!D7+August!D7+September!D7+October!D7+November!D7+December!D7</f>
-        <v>689</v>
+        <v>898</v>
       </c>
       <c r="E7" s="29" t="str">
         <f t="shared" si="0"/>
@@ -1708,7 +1765,7 @@
       </c>
       <c r="G7" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>2.17 : 1</v>
+        <v>2.26 : 1</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1717,15 +1774,15 @@
       </c>
       <c r="B8" s="2">
         <f>January!B8+February!B8+March!B8+April!B8+May!B8+June!B8+July!B8+August!B8+September!B8+October!B8+November!B8+December!B8</f>
-        <v>451</v>
+        <v>585</v>
       </c>
       <c r="C8" s="2">
         <f>January!C8+February!C8+March!C8+April!C8+May!C8+June!C8+July!C8+August!C8+September!C8+October!C8+November!C8+December!C8</f>
-        <v>735</v>
+        <v>907</v>
       </c>
       <c r="D8" s="2">
         <f>January!D8+February!D8+March!D8+April!D8+May!D8+June!D8+July!D8+August!D8+September!D8+October!D8+November!D8+December!D8</f>
-        <v>-284</v>
+        <v>-322</v>
       </c>
       <c r="E8" s="28" t="str">
         <f t="shared" si="0"/>
@@ -1737,7 +1794,7 @@
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.61 : 1</v>
+        <v>0.64 : 1</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1746,15 +1803,15 @@
       </c>
       <c r="B9" s="4">
         <f>January!B9+February!B9+March!B9+April!B9+May!B9+June!B9+July!B9+August!B9+September!B9+October!B9+November!B9+December!B9</f>
-        <v>202</v>
+        <v>250</v>
       </c>
       <c r="C9" s="4">
         <f>January!C9+February!C9+March!C9+April!C9+May!C9+June!C9+July!C9+August!C9+September!C9+October!C9+November!C9+December!C9</f>
-        <v>304</v>
+        <v>368</v>
       </c>
       <c r="D9" s="4">
         <f>January!D9+February!D9+March!D9+April!D9+May!D9+June!D9+July!D9+August!D9+September!D9+October!D9+November!D9+December!D9</f>
-        <v>-102</v>
+        <v>-118</v>
       </c>
       <c r="E9" s="29" t="str">
         <f t="shared" si="0"/>
@@ -1766,7 +1823,7 @@
       </c>
       <c r="G9" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>0.66 : 1</v>
+        <v>0.68 : 1</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1779,11 +1836,11 @@
       </c>
       <c r="C10" s="2">
         <f>January!C10+February!C10+March!C10+April!C10+May!C10+June!C10+July!C10+August!C10+September!C10+October!C10+November!C10+December!C10</f>
-        <v>213</v>
+        <v>258</v>
       </c>
       <c r="D10" s="2">
         <f>January!D10+February!D10+March!D10+April!D10+May!D10+June!D10+July!D10+August!D10+September!D10+October!D10+November!D10+December!D10</f>
-        <v>-211</v>
+        <v>-256</v>
       </c>
       <c r="E10" s="28" t="str">
         <f t="shared" si="0"/>
@@ -1833,15 +1890,15 @@
       </c>
       <c r="B12" s="6">
         <f>January!B12+February!B12+March!B12+April!B12+May!B12+June!B12+July!B12+August!B12+September!B12+October!B12+November!B12+December!B12</f>
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="C12" s="6">
         <f>January!C12+February!C12+March!C12+April!C12+May!C12+June!C12+July!C12+August!C12+September!C12+October!C12+November!C12+December!C12</f>
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="D12" s="6">
         <f>January!D12+February!D12+March!D12+April!D12+May!D12+June!D12+July!D12+August!D12+September!D12+October!D12+November!D12+December!D12</f>
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E12" s="30" t="str">
         <f t="shared" si="0"/>
@@ -1853,7 +1910,7 @@
       </c>
       <c r="G12" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>1.76 : 1</v>
+        <v>1.54 : 1</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1862,15 +1919,15 @@
       </c>
       <c r="B13" s="6">
         <f>January!B13+February!B13+March!B13+April!B13+May!B13+June!B13+July!B13+August!B13+September!B13+October!B13+November!B13+December!B13</f>
-        <v>689</v>
+        <v>826</v>
       </c>
       <c r="C13" s="6">
         <f>January!C13+February!C13+March!C13+April!C13+May!C13+June!C13+July!C13+August!C13+September!C13+October!C13+November!C13+December!C13</f>
-        <v>375</v>
+        <v>448</v>
       </c>
       <c r="D13" s="6">
         <f>January!D13+February!D13+March!D13+April!D13+May!D13+June!D13+July!D13+August!D13+September!D13+October!D13+November!D13+December!D13</f>
-        <v>314</v>
+        <v>378</v>
       </c>
       <c r="E13" s="30" t="str">
         <f t="shared" si="0"/>
@@ -1891,15 +1948,15 @@
       </c>
       <c r="B14" s="6">
         <f>January!B14+February!B14+March!B14+April!B14+May!B14+June!B14+July!B14+August!B14+September!B14+October!B14+November!B14+December!B14</f>
-        <v>551</v>
+        <v>714</v>
       </c>
       <c r="C14" s="6">
         <f>January!C14+February!C14+March!C14+April!C14+May!C14+June!C14+July!C14+August!C14+September!C14+October!C14+November!C14+December!C14</f>
-        <v>1081</v>
+        <v>1302</v>
       </c>
       <c r="D14" s="6">
         <f>January!D14+February!D14+March!D14+April!D14+May!D14+June!D14+July!D14+August!D14+September!D14+October!D14+November!D14+December!D14</f>
-        <v>-530</v>
+        <v>-588</v>
       </c>
       <c r="E14" s="30" t="str">
         <f t="shared" si="0"/>
@@ -1911,7 +1968,7 @@
       </c>
       <c r="G14" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>0.51 : 1</v>
+        <v>0.55 : 1</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1920,15 +1977,15 @@
       </c>
       <c r="B15" s="6">
         <f>January!B15+February!B15+March!B15+April!B15+May!B15+June!B15+July!B15+August!B15+September!B15+October!B15+November!B15+December!B15</f>
-        <v>206</v>
+        <v>281</v>
       </c>
       <c r="C15" s="6">
         <f>January!C15+February!C15+March!C15+April!C15+May!C15+June!C15+July!C15+August!C15+September!C15+October!C15+November!C15+December!C15</f>
-        <v>526</v>
+        <v>643</v>
       </c>
       <c r="D15" s="6">
         <f>January!D15+February!D15+March!D15+April!D15+May!D15+June!D15+July!D15+August!D15+September!D15+October!D15+November!D15+December!D15</f>
-        <v>-320</v>
+        <v>-362</v>
       </c>
       <c r="E15" s="30" t="str">
         <f t="shared" si="0"/>
@@ -1940,7 +1997,7 @@
       </c>
       <c r="G15" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>0.39 : 1</v>
+        <v>0.44 : 1</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1949,15 +2006,15 @@
       </c>
       <c r="B16" s="2">
         <f>January!B16+February!B16+March!B16+April!B16+May!B16+June!B16+July!B16+August!B16+September!B16+October!B16+November!B16+December!B16</f>
-        <v>283</v>
+        <v>344</v>
       </c>
       <c r="C16" s="2">
         <f>January!C16+February!C16+March!C16+April!C16+May!C16+June!C16+July!C16+August!C16+September!C16+October!C16+November!C16+December!C16</f>
-        <v>582</v>
+        <v>692</v>
       </c>
       <c r="D16" s="2">
         <f>January!D16+February!D16+March!D16+April!D16+May!D16+June!D16+July!D16+August!D16+September!D16+October!D16+November!D16+December!D16</f>
-        <v>-299</v>
+        <v>-348</v>
       </c>
       <c r="E16" s="28" t="str">
         <f t="shared" si="0"/>
@@ -1969,7 +2026,7 @@
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.49 : 1</v>
+        <v>0.5 : 1</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1978,15 +2035,15 @@
       </c>
       <c r="B17" s="4">
         <f>January!B17+February!B17+March!B17+April!B17+May!B17+June!B17+July!B17+August!B17+September!B17+October!B17+November!B17+December!B17</f>
-        <v>2324</v>
+        <v>2932</v>
       </c>
       <c r="C17" s="4">
         <f>January!C17+February!C17+March!C17+April!C17+May!C17+June!C17+July!C17+August!C17+September!C17+October!C17+November!C17+December!C17</f>
-        <v>1677</v>
+        <v>2053</v>
       </c>
       <c r="D17" s="4">
         <f>January!D17+February!D17+March!D17+April!D17+May!D17+June!D17+July!D17+August!D17+September!D17+October!D17+November!D17+December!D17</f>
-        <v>647</v>
+        <v>879</v>
       </c>
       <c r="E17" s="29" t="str">
         <f t="shared" si="0"/>
@@ -1998,7 +2055,7 @@
       </c>
       <c r="G17" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>1.39 : 1</v>
+        <v>1.43 : 1</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2007,15 +2064,15 @@
       </c>
       <c r="B18" s="2">
         <f>January!B18+February!B18+March!B18+April!B18+May!B18+June!B18+July!B18+August!B18+September!B18+October!B18+November!B18+December!B18</f>
-        <v>301</v>
+        <v>372</v>
       </c>
       <c r="C18" s="2">
         <f>January!C18+February!C18+March!C18+April!C18+May!C18+June!C18+July!C18+August!C18+September!C18+October!C18+November!C18+December!C18</f>
-        <v>385</v>
+        <v>496</v>
       </c>
       <c r="D18" s="2">
         <f>January!D18+February!D18+March!D18+April!D18+May!D18+June!D18+July!D18+August!D18+September!D18+October!D18+November!D18+December!D18</f>
-        <v>-84</v>
+        <v>-124</v>
       </c>
       <c r="E18" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2027,7 +2084,7 @@
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.78 : 1</v>
+        <v>0.75 : 1</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2036,15 +2093,15 @@
       </c>
       <c r="B19" s="4">
         <f>January!B19+February!B19+March!B19+April!B19+May!B19+June!B19+July!B19+August!B19+September!B19+October!B19+November!B19+December!B19</f>
-        <v>2310</v>
+        <v>2827</v>
       </c>
       <c r="C19" s="4">
         <f>January!C19+February!C19+March!C19+April!C19+May!C19+June!C19+July!C19+August!C19+September!C19+October!C19+November!C19+December!C19</f>
-        <v>1851</v>
+        <v>2256</v>
       </c>
       <c r="D19" s="4">
         <f>January!D19+February!D19+March!D19+April!D19+May!D19+June!D19+July!D19+August!D19+September!D19+October!D19+November!D19+December!D19</f>
-        <v>459</v>
+        <v>571</v>
       </c>
       <c r="E19" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2065,15 +2122,15 @@
       </c>
       <c r="B20" s="2">
         <f>January!B20+February!B20+March!B20+April!B20+May!B20+June!B20+July!B20+August!B20+September!B20+October!B20+November!B20+December!B20</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C20" s="2">
         <f>January!C20+February!C20+March!C20+April!C20+May!C20+June!C20+July!C20+August!C20+September!C20+October!C20+November!C20+December!C20</f>
-        <v>351</v>
+        <v>407</v>
       </c>
       <c r="D20" s="2">
         <f>January!D20+February!D20+March!D20+April!D20+May!D20+June!D20+July!D20+August!D20+September!D20+October!D20+November!D20+December!D20</f>
-        <v>-343</v>
+        <v>-395</v>
       </c>
       <c r="E20" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2085,7 +2142,7 @@
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.02 : 1</v>
+        <v>0.03 : 1</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2094,15 +2151,15 @@
       </c>
       <c r="B21" s="4">
         <f>January!B21+February!B21+March!B21+April!B21+May!B21+June!B21+July!B21+August!B21+September!B21+October!B21+November!B21+December!B21</f>
-        <v>1711</v>
+        <v>2128</v>
       </c>
       <c r="C21" s="4">
         <f>January!C21+February!C21+March!C21+April!C21+May!C21+June!C21+July!C21+August!C21+September!C21+October!C21+November!C21+December!C21</f>
-        <v>1452</v>
+        <v>1769</v>
       </c>
       <c r="D21" s="4">
         <f>January!D21+February!D21+March!D21+April!D21+May!D21+June!D21+July!D21+August!D21+September!D21+October!D21+November!D21+December!D21</f>
-        <v>259</v>
+        <v>359</v>
       </c>
       <c r="E21" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2114,7 +2171,7 @@
       </c>
       <c r="G21" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>1.18 : 1</v>
+        <v>1.2 : 1</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2123,15 +2180,15 @@
       </c>
       <c r="B22" s="2">
         <f>January!B22+February!B22+March!B22+April!B22+May!B22+June!B22+July!B22+August!B22+September!B22+October!B22+November!B22+December!B22</f>
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="C22" s="2">
         <f>January!C22+February!C22+March!C22+April!C22+May!C22+June!C22+July!C22+August!C22+September!C22+October!C22+November!C22+December!C22</f>
-        <v>540</v>
+        <v>653</v>
       </c>
       <c r="D22" s="2">
         <f>January!D22+February!D22+March!D22+April!D22+May!D22+June!D22+July!D22+August!D22+September!D22+October!D22+November!D22+December!D22</f>
-        <v>-439</v>
+        <v>-533</v>
       </c>
       <c r="E22" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2143,7 +2200,7 @@
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.19 : 1</v>
+        <v>0.18 : 1</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2152,15 +2209,15 @@
       </c>
       <c r="B23" s="4">
         <f>January!B23+February!B23+March!B23+April!B23+May!B23+June!B23+July!B23+August!B23+September!B23+October!B23+November!B23+December!B23</f>
-        <v>2570</v>
+        <v>3160</v>
       </c>
       <c r="C23" s="4">
         <f>January!C23+February!C23+March!C23+April!C23+May!C23+June!C23+July!C23+August!C23+September!C23+October!C23+November!C23+December!C23</f>
-        <v>1420</v>
+        <v>1721</v>
       </c>
       <c r="D23" s="4">
         <f>January!D23+February!D23+March!D23+April!D23+May!D23+June!D23+July!D23+August!D23+September!D23+October!D23+November!D23+December!D23</f>
-        <v>1150</v>
+        <v>1439</v>
       </c>
       <c r="E23" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2172,7 +2229,7 @@
       </c>
       <c r="G23" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>1.81 : 1</v>
+        <v>1.84 : 1</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2181,15 +2238,15 @@
       </c>
       <c r="B24" s="2">
         <f>January!B24+February!B24+March!B24+April!B24+May!B24+June!B24+July!B24+August!B24+September!B24+October!B24+November!B24+December!B24</f>
-        <v>7461</v>
+        <v>8952</v>
       </c>
       <c r="C24" s="2">
         <f>January!C24+February!C24+March!C24+April!C24+May!C24+June!C24+July!C24+August!C24+September!C24+October!C24+November!C24+December!C24</f>
-        <v>4783</v>
+        <v>6064</v>
       </c>
       <c r="D24" s="2">
         <f>January!D24+February!D24+March!D24+April!D24+May!D24+June!D24+July!D24+August!D24+September!D24+October!D24+November!D24+December!D24</f>
-        <v>2678</v>
+        <v>2888</v>
       </c>
       <c r="E24" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2201,7 +2258,7 @@
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>1.56 : 1</v>
+        <v>1.48 : 1</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2210,15 +2267,15 @@
       </c>
       <c r="B25" s="4">
         <f>January!B25+February!B25+March!B25+April!B25+May!B25+June!B25+July!B25+August!B25+September!B25+October!B25+November!B25+December!B25</f>
-        <v>599</v>
+        <v>727</v>
       </c>
       <c r="C25" s="4">
         <f>January!C25+February!C25+March!C25+April!C25+May!C25+June!C25+July!C25+August!C25+September!C25+October!C25+November!C25+December!C25</f>
-        <v>1255</v>
+        <v>1571</v>
       </c>
       <c r="D25" s="4">
         <f>January!D25+February!D25+March!D25+April!D25+May!D25+June!D25+July!D25+August!D25+September!D25+October!D25+November!D25+December!D25</f>
-        <v>-656</v>
+        <v>-844</v>
       </c>
       <c r="E25" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2230,7 +2287,7 @@
       </c>
       <c r="G25" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>0.48 : 1</v>
+        <v>0.46 : 1</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2268,15 +2325,15 @@
       </c>
       <c r="B27" s="4">
         <f>January!B27+February!B27+March!B27+April!B27+May!B27+June!B27+July!B27+August!B27+September!B27+October!B27+November!B27+December!B27</f>
-        <v>943</v>
+        <v>1197</v>
       </c>
       <c r="C27" s="4">
         <f>January!C27+February!C27+March!C27+April!C27+May!C27+June!C27+July!C27+August!C27+September!C27+October!C27+November!C27+December!C27</f>
-        <v>792</v>
+        <v>961</v>
       </c>
       <c r="D27" s="4">
         <f>January!D27+February!D27+March!D27+April!D27+May!D27+June!D27+July!D27+August!D27+September!D27+October!D27+November!D27+December!D27</f>
-        <v>151</v>
+        <v>236</v>
       </c>
       <c r="E27" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2288,7 +2345,7 @@
       </c>
       <c r="G27" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>1.19 : 1</v>
+        <v>1.25 : 1</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2297,15 +2354,15 @@
       </c>
       <c r="B28" s="2">
         <f>January!B28+February!B28+March!B28+April!B28+May!B28+June!B28+July!B28+August!B28+September!B28+October!B28+November!B28+December!B28</f>
-        <v>320</v>
+        <v>389</v>
       </c>
       <c r="C28" s="2">
         <f>January!C28+February!C28+March!C28+April!C28+May!C28+June!C28+July!C28+August!C28+September!C28+October!C28+November!C28+December!C28</f>
-        <v>412</v>
+        <v>491</v>
       </c>
       <c r="D28" s="2">
         <f>January!D28+February!D28+March!D28+April!D28+May!D28+June!D28+July!D28+August!D28+September!D28+October!D28+November!D28+December!D28</f>
-        <v>-92</v>
+        <v>-102</v>
       </c>
       <c r="E28" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2317,7 +2374,7 @@
       </c>
       <c r="G28" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.78 : 1</v>
+        <v>0.79 : 1</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2326,15 +2383,15 @@
       </c>
       <c r="B29" s="4">
         <f>January!B29+February!B29+March!B29+April!B29+May!B29+June!B29+July!B29+August!B29+September!B29+October!B29+November!B29+December!B29</f>
-        <v>2349</v>
+        <v>2811</v>
       </c>
       <c r="C29" s="4">
         <f>January!C29+February!C29+March!C29+April!C29+May!C29+June!C29+July!C29+August!C29+September!C29+October!C29+November!C29+December!C29</f>
-        <v>1627</v>
+        <v>2029</v>
       </c>
       <c r="D29" s="4">
         <f>January!D29+February!D29+March!D29+April!D29+May!D29+June!D29+July!D29+August!D29+September!D29+October!D29+November!D29+December!D29</f>
-        <v>722</v>
+        <v>782</v>
       </c>
       <c r="E29" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2346,7 +2403,7 @@
       </c>
       <c r="G29" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>1.44 : 1</v>
+        <v>1.39 : 1</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2355,15 +2412,15 @@
       </c>
       <c r="B30" s="2">
         <f>January!B30+February!B30+March!B30+April!B30+May!B30+June!B30+July!B30+August!B30+September!B30+October!B30+November!B30+December!B30</f>
-        <v>195</v>
+        <v>251</v>
       </c>
       <c r="C30" s="2">
         <f>January!C30+February!C30+March!C30+April!C30+May!C30+June!C30+July!C30+August!C30+September!C30+October!C30+November!C30+December!C30</f>
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="D30" s="2">
         <f>January!D30+February!D30+March!D30+April!D30+May!D30+June!D30+July!D30+August!D30+September!D30+October!D30+November!D30+December!D30</f>
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="E30" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2375,7 +2432,7 @@
       </c>
       <c r="G30" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>2.41 : 1</v>
+        <v>2.15 : 1</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2384,15 +2441,15 @@
       </c>
       <c r="B31" s="4">
         <f>January!B31+February!B31+March!B31+April!B31+May!B31+June!B31+July!B31+August!B31+September!B31+October!B31+November!B31+December!B31</f>
-        <v>276</v>
+        <v>310</v>
       </c>
       <c r="C31" s="4">
         <f>January!C31+February!C31+March!C31+April!C31+May!C31+June!C31+July!C31+August!C31+September!C31+October!C31+November!C31+December!C31</f>
-        <v>1251</v>
+        <v>1506</v>
       </c>
       <c r="D31" s="4">
         <f>January!D31+February!D31+March!D31+April!D31+May!D31+June!D31+July!D31+August!D31+September!D31+October!D31+November!D31+December!D31</f>
-        <v>-975</v>
+        <v>-1196</v>
       </c>
       <c r="E31" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2404,7 +2461,7 @@
       </c>
       <c r="G31" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>0.22 : 1</v>
+        <v>0.21 : 1</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2413,15 +2470,15 @@
       </c>
       <c r="B32" s="2">
         <f>January!B32+February!B32+March!B32+April!B32+May!B32+June!B32+July!B32+August!B32+September!B32+October!B32+November!B32+December!B32</f>
-        <v>1730</v>
+        <v>2155</v>
       </c>
       <c r="C32" s="2">
         <f>January!C32+February!C32+March!C32+April!C32+May!C32+June!C32+July!C32+August!C32+September!C32+October!C32+November!C32+December!C32</f>
-        <v>2168</v>
+        <v>2655</v>
       </c>
       <c r="D32" s="2">
         <f>January!D32+February!D32+March!D32+April!D32+May!D32+June!D32+July!D32+August!D32+September!D32+October!D32+November!D32+December!D32</f>
-        <v>-438</v>
+        <v>-500</v>
       </c>
       <c r="E32" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2433,7 +2490,7 @@
       </c>
       <c r="G32" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.8 : 1</v>
+        <v>0.81 : 1</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2442,15 +2499,15 @@
       </c>
       <c r="B33" s="4">
         <f>January!B33+February!B33+March!B33+April!B33+May!B33+June!B33+July!B33+August!B33+September!B33+October!B33+November!B33+December!B33</f>
-        <v>1208</v>
+        <v>1555</v>
       </c>
       <c r="C33" s="4">
         <f>January!C33+February!C33+March!C33+April!C33+May!C33+June!C33+July!C33+August!C33+September!C33+October!C33+November!C33+December!C33</f>
-        <v>2215</v>
+        <v>2761</v>
       </c>
       <c r="D33" s="4">
         <f>January!D33+February!D33+March!D33+April!D33+May!D33+June!D33+July!D33+August!D33+September!D33+October!D33+November!D33+December!D33</f>
-        <v>-1007</v>
+        <v>-1206</v>
       </c>
       <c r="E33" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2462,7 +2519,7 @@
       </c>
       <c r="G33" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>0.55 : 1</v>
+        <v>0.56 : 1</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2471,15 +2528,15 @@
       </c>
       <c r="B34" s="2">
         <f>January!B34+February!B34+March!B34+April!B34+May!B34+June!B34+July!B34+August!B34+September!B34+October!B34+November!B34+December!B34</f>
-        <v>623</v>
+        <v>786</v>
       </c>
       <c r="C34" s="2">
         <f>January!C34+February!C34+March!C34+April!C34+May!C34+June!C34+July!C34+August!C34+September!C34+October!C34+November!C34+December!C34</f>
-        <v>394</v>
+        <v>489</v>
       </c>
       <c r="D34" s="2">
         <f>January!D34+February!D34+March!D34+April!D34+May!D34+June!D34+July!D34+August!D34+September!D34+October!D34+November!D34+December!D34</f>
-        <v>229</v>
+        <v>297</v>
       </c>
       <c r="E34" s="28" t="str">
         <f t="shared" ref="E34:E55" si="3">IF(D34 &gt; 0, "We borrowed more than we lent this year", "")</f>
@@ -2491,7 +2548,7 @@
       </c>
       <c r="G34" s="3" t="str">
         <f t="shared" ref="G34:G55" si="5">IF(ISERROR(ROUND(B34/C34,2)&amp;" : 1"), "", ROUND(B34/C34,2)&amp;" : 1")</f>
-        <v>1.58 : 1</v>
+        <v>1.61 : 1</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2500,15 +2557,15 @@
       </c>
       <c r="B35" s="4">
         <f>January!B35+February!B35+March!B35+April!B35+May!B35+June!B35+July!B35+August!B35+September!B35+October!B35+November!B35+December!B35</f>
-        <v>3315</v>
+        <v>4063</v>
       </c>
       <c r="C35" s="4">
         <f>January!C35+February!C35+March!C35+April!C35+May!C35+June!C35+July!C35+August!C35+September!C35+October!C35+November!C35+December!C35</f>
-        <v>4458</v>
+        <v>5511</v>
       </c>
       <c r="D35" s="4">
         <f>January!D35+February!D35+March!D35+April!D35+May!D35+June!D35+July!D35+August!D35+September!D35+October!D35+November!D35+December!D35</f>
-        <v>-1143</v>
+        <v>-1448</v>
       </c>
       <c r="E35" s="29" t="str">
         <f t="shared" si="3"/>
@@ -2529,15 +2586,15 @@
       </c>
       <c r="B36" s="2">
         <f>January!B36+February!B36+March!B36+April!B36+May!B36+June!B36+July!B36+August!B36+September!B36+October!B36+November!B36+December!B36</f>
-        <v>809</v>
+        <v>965</v>
       </c>
       <c r="C36" s="2">
         <f>January!C36+February!C36+March!C36+April!C36+May!C36+June!C36+July!C36+August!C36+September!C36+October!C36+November!C36+December!C36</f>
-        <v>1793</v>
+        <v>2245</v>
       </c>
       <c r="D36" s="2">
         <f>January!D36+February!D36+March!D36+April!D36+May!D36+June!D36+July!D36+August!D36+September!D36+October!D36+November!D36+December!D36</f>
-        <v>-984</v>
+        <v>-1280</v>
       </c>
       <c r="E36" s="28" t="str">
         <f t="shared" si="3"/>
@@ -2549,7 +2606,7 @@
       </c>
       <c r="G36" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>0.45 : 1</v>
+        <v>0.43 : 1</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2558,15 +2615,15 @@
       </c>
       <c r="B37" s="4">
         <f>January!B37+February!B37+March!B37+April!B37+May!B37+June!B37+July!B37+August!B37+September!B37+October!B37+November!B37+December!B37</f>
-        <v>1805</v>
+        <v>2265</v>
       </c>
       <c r="C37" s="4">
         <f>January!C37+February!C37+March!C37+April!C37+May!C37+June!C37+July!C37+August!C37+September!C37+October!C37+November!C37+December!C37</f>
-        <v>1267</v>
+        <v>1575</v>
       </c>
       <c r="D37" s="4">
         <f>January!D37+February!D37+March!D37+April!D37+May!D37+June!D37+July!D37+August!D37+September!D37+October!D37+November!D37+December!D37</f>
-        <v>538</v>
+        <v>690</v>
       </c>
       <c r="E37" s="29" t="str">
         <f t="shared" si="3"/>
@@ -2578,7 +2635,7 @@
       </c>
       <c r="G37" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>1.42 : 1</v>
+        <v>1.44 : 1</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2587,15 +2644,15 @@
       </c>
       <c r="B38" s="2">
         <f>January!B38+February!B38+March!B38+April!B38+May!B38+June!B38+July!B38+August!B38+September!B38+October!B38+November!B38+December!B38</f>
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="C38" s="2">
         <f>January!C38+February!C38+March!C38+April!C38+May!C38+June!C38+July!C38+August!C38+September!C38+October!C38+November!C38+December!C38</f>
-        <v>698</v>
+        <v>902</v>
       </c>
       <c r="D38" s="2">
         <f>January!D38+February!D38+March!D38+April!D38+May!D38+June!D38+July!D38+August!D38+September!D38+October!D38+November!D38+December!D38</f>
-        <v>-587</v>
+        <v>-760</v>
       </c>
       <c r="E38" s="28" t="str">
         <f t="shared" si="3"/>
@@ -2616,15 +2673,15 @@
       </c>
       <c r="B39" s="4">
         <f>January!B44+February!B44+March!B44+April!B44+May!B44+June!B44+July!B44+August!B44+September!B44+October!B44+November!B44+December!B44</f>
-        <v>303</v>
+        <v>433</v>
       </c>
       <c r="C39" s="4">
         <f>January!C44+February!C44+March!C44+April!C44+May!C44+June!C44+July!C44+August!C44+September!C44+October!C44+November!C44+December!C44</f>
-        <v>296</v>
+        <v>394</v>
       </c>
       <c r="D39" s="4">
         <f>January!D44+February!D44+March!D44+April!D44+May!D44+June!D44+July!D44+August!D44+September!D44+October!D44+November!D44+December!D44</f>
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="E39" s="29" t="str">
         <f t="shared" si="3"/>
@@ -2636,7 +2693,7 @@
       </c>
       <c r="G39" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>1.02 : 1</v>
+        <v>1.1 : 1</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2649,11 +2706,11 @@
       </c>
       <c r="C40" s="8">
         <f>January!C39+February!C39+March!C39+April!C39+May!C39+June!C39+July!C39+August!C39+September!C39+October!C39+November!C39+December!C39</f>
-        <v>409</v>
+        <v>477</v>
       </c>
       <c r="D40" s="8">
         <f>January!D39+February!D39+March!D39+April!D39+May!D39+June!D39+July!D39+August!D39+September!D39+October!D39+November!D39+December!D39</f>
-        <v>-292</v>
+        <v>-360</v>
       </c>
       <c r="E40" s="31" t="str">
         <f t="shared" si="3"/>
@@ -2665,7 +2722,7 @@
       </c>
       <c r="G40" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>0.29 : 1</v>
+        <v>0.25 : 1</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2674,15 +2731,15 @@
       </c>
       <c r="B41" s="8">
         <f>January!B40+February!B40+March!B40+April!B40+May!B40+June!B40+July!B40+August!B40+September!B40+October!B40+November!B40+December!B40</f>
-        <v>335</v>
+        <v>365</v>
       </c>
       <c r="C41" s="8">
         <f>January!C40+February!C40+March!C40+April!C40+May!C40+June!C40+July!C40+August!C40+September!C40+October!C40+November!C40+December!C40</f>
-        <v>419</v>
+        <v>475</v>
       </c>
       <c r="D41" s="8">
         <f>January!D40+February!D40+March!D40+April!D40+May!D40+June!D40+July!D40+August!D40+September!D40+October!D40+November!D40+December!D40</f>
-        <v>-84</v>
+        <v>-110</v>
       </c>
       <c r="E41" s="31" t="str">
         <f t="shared" si="3"/>
@@ -2694,7 +2751,7 @@
       </c>
       <c r="G41" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>0.8 : 1</v>
+        <v>0.77 : 1</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2703,15 +2760,15 @@
       </c>
       <c r="B42" s="8">
         <f>January!B41+February!B41+March!B41+April!B41+May!B41+June!B41+July!B41+August!B41+September!B41+October!B41+November!B41+December!B41</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C42" s="8">
         <f>January!C41+February!C41+March!C41+April!C41+May!C41+June!C41+July!C41+August!C41+September!C41+October!C41+November!C41+December!C41</f>
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="D42" s="8">
         <f>January!D41+February!D41+March!D41+April!D41+May!D41+June!D41+July!D41+August!D41+September!D41+October!D41+November!D41+December!D41</f>
-        <v>-136</v>
+        <v>-169</v>
       </c>
       <c r="E42" s="31" t="str">
         <f t="shared" si="3"/>
@@ -2723,7 +2780,7 @@
       </c>
       <c r="G42" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>0.11 : 1</v>
+        <v>0.1 : 1</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2736,11 +2793,11 @@
       </c>
       <c r="C43" s="8">
         <f>January!C42+February!C42+March!C42+April!C42+May!C42+June!C42+July!C42+August!C42+September!C42+October!C42+November!C42+December!C42</f>
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D43" s="8">
         <f>January!D42+February!D42+March!D42+April!D42+May!D42+June!D42+July!D42+August!D42+September!D42+October!D42+November!D42+December!D42</f>
-        <v>-74</v>
+        <v>-81</v>
       </c>
       <c r="E43" s="31" t="str">
         <f t="shared" si="3"/>
@@ -2752,7 +2809,7 @@
       </c>
       <c r="G43" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>0.36 : 1</v>
+        <v>0.34 : 1</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2790,15 +2847,15 @@
       </c>
       <c r="B45" s="2">
         <f>January!B45+February!B45+March!B45+April!B45+May!B45+June!B45+July!B45+August!B45+September!B45+October!B45+November!B45+December!B45</f>
-        <v>285</v>
+        <v>346</v>
       </c>
       <c r="C45" s="2">
         <f>January!C45+February!C45+March!C45+April!C45+May!C45+June!C45+July!C45+August!C45+September!C45+October!C45+November!C45+December!C45</f>
-        <v>701</v>
+        <v>874</v>
       </c>
       <c r="D45" s="2">
         <f>January!D45+February!D45+March!D45+April!D45+May!D45+June!D45+July!D45+August!D45+September!D45+October!D45+November!D45+December!D45</f>
-        <v>-416</v>
+        <v>-528</v>
       </c>
       <c r="E45" s="28" t="str">
         <f t="shared" si="3"/>
@@ -2810,7 +2867,7 @@
       </c>
       <c r="G45" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>0.41 : 1</v>
+        <v>0.4 : 1</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2819,15 +2876,15 @@
       </c>
       <c r="B46" s="4">
         <f>January!B46+February!B46+March!B46+April!B46+May!B46+June!B46+July!B46+August!B46+September!B46+October!B46+November!B46+December!B46</f>
-        <v>2044</v>
+        <v>2529</v>
       </c>
       <c r="C46" s="4">
         <f>January!C46+February!C46+March!C46+April!C46+May!C46+June!C46+July!C46+August!C46+September!C46+October!C46+November!C46+December!C46</f>
-        <v>2458</v>
+        <v>2964</v>
       </c>
       <c r="D46" s="4">
         <f>January!D46+February!D46+March!D46+April!D46+May!D46+June!D46+July!D46+August!D46+September!D46+October!D46+November!D46+December!D46</f>
-        <v>-414</v>
+        <v>-435</v>
       </c>
       <c r="E46" s="29" t="str">
         <f t="shared" si="3"/>
@@ -2839,7 +2896,7 @@
       </c>
       <c r="G46" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>0.83 : 1</v>
+        <v>0.85 : 1</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2848,15 +2905,15 @@
       </c>
       <c r="B47" s="2">
         <f>January!B47+February!B47+March!B47+April!B47+May!B47+June!B47+July!B47+August!B47+September!B47+October!B47+November!B47+December!B47</f>
-        <v>4413</v>
+        <v>5285</v>
       </c>
       <c r="C47" s="2">
         <f>January!C47+February!C47+March!C47+April!C47+May!C47+June!C47+July!C47+August!C47+September!C47+October!C47+November!C47+December!C47</f>
-        <v>2374</v>
+        <v>2892</v>
       </c>
       <c r="D47" s="2">
         <f>January!D47+February!D47+March!D47+April!D47+May!D47+June!D47+July!D47+August!D47+September!D47+October!D47+November!D47+December!D47</f>
-        <v>2039</v>
+        <v>2393</v>
       </c>
       <c r="E47" s="28" t="str">
         <f t="shared" si="3"/>
@@ -2868,7 +2925,7 @@
       </c>
       <c r="G47" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>1.86 : 1</v>
+        <v>1.83 : 1</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2877,15 +2934,15 @@
       </c>
       <c r="B48" s="4">
         <f>January!B48+February!B48+March!B48+April!B48+May!B48+June!B48+July!B48+August!B48+September!B48+October!B48+November!B48+December!B48</f>
-        <v>1099</v>
+        <v>1322</v>
       </c>
       <c r="C48" s="4">
         <f>January!C48+February!C48+March!C48+April!C48+May!C48+June!C48+July!C48+August!C48+September!C48+October!C48+November!C48+December!C48</f>
-        <v>2448</v>
+        <v>2921</v>
       </c>
       <c r="D48" s="4">
         <f>January!D48+February!D48+March!D48+April!D48+May!D48+June!D48+July!D48+August!D48+September!D48+October!D48+November!D48+December!D48</f>
-        <v>-1349</v>
+        <v>-1599</v>
       </c>
       <c r="E48" s="29" t="str">
         <f t="shared" si="3"/>
@@ -2906,15 +2963,15 @@
       </c>
       <c r="B49" s="2">
         <f>January!B49+February!B49+March!B49+April!B49+May!B49+June!B49+July!B49+August!B49+September!B49+October!B49+November!B49+December!B49</f>
-        <v>2165</v>
+        <v>2613</v>
       </c>
       <c r="C49" s="2">
         <f>January!C49+February!C49+March!C49+April!C49+May!C49+June!C49+July!C49+August!C49+September!C49+October!C49+November!C49+December!C49</f>
-        <v>963</v>
+        <v>1203</v>
       </c>
       <c r="D49" s="2">
         <f>January!D49+February!D49+March!D49+April!D49+May!D49+June!D49+July!D49+August!D49+September!D49+October!D49+November!D49+December!D49</f>
-        <v>1202</v>
+        <v>1410</v>
       </c>
       <c r="E49" s="28" t="str">
         <f t="shared" si="3"/>
@@ -2926,7 +2983,7 @@
       </c>
       <c r="G49" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>2.25 : 1</v>
+        <v>2.17 : 1</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2935,15 +2992,15 @@
       </c>
       <c r="B50" s="4">
         <f>January!B50+February!B50+March!B50+April!B50+May!B50+June!B50+July!B50+August!B50+September!B50+October!B50+November!B50+December!B50</f>
-        <v>3735</v>
+        <v>4616</v>
       </c>
       <c r="C50" s="4">
         <f>January!C50+February!C50+March!C50+April!C50+May!C50+June!C50+July!C50+August!C50+September!C50+October!C50+November!C50+December!C50</f>
-        <v>2103</v>
+        <v>2624</v>
       </c>
       <c r="D50" s="4">
         <f>January!D50+February!D50+March!D50+April!D50+May!D50+June!D50+July!D50+August!D50+September!D50+October!D50+November!D50+December!D50</f>
-        <v>1632</v>
+        <v>1992</v>
       </c>
       <c r="E50" s="29" t="str">
         <f t="shared" si="3"/>
@@ -2955,7 +3012,7 @@
       </c>
       <c r="G50" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>1.78 : 1</v>
+        <v>1.76 : 1</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2964,15 +3021,15 @@
       </c>
       <c r="B51" s="2">
         <f>January!B51+February!B51+March!B51+April!B51+May!B51+June!B51+July!B51+August!B51+September!B51+October!B51+November!B51+December!B51</f>
-        <v>876</v>
+        <v>1036</v>
       </c>
       <c r="C51" s="2">
         <f>January!C51+February!C51+March!C51+April!C51+May!C51+June!C51+July!C51+August!C51+September!C51+October!C51+November!C51+December!C51</f>
-        <v>670</v>
+        <v>866</v>
       </c>
       <c r="D51" s="2">
         <f>January!D51+February!D51+March!D51+April!D51+May!D51+June!D51+July!D51+August!D51+September!D51+October!D51+November!D51+December!D51</f>
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="E51" s="28" t="str">
         <f t="shared" si="3"/>
@@ -2984,7 +3041,7 @@
       </c>
       <c r="G51" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>1.31 : 1</v>
+        <v>1.2 : 1</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2993,15 +3050,15 @@
       </c>
       <c r="B52" s="4">
         <f>January!B52+February!B52+March!B52+April!B52+May!B52+June!B52+July!B52+August!B52+September!B52+October!B52+November!B52+December!B52</f>
-        <v>1362</v>
+        <v>1732</v>
       </c>
       <c r="C52" s="4">
         <f>January!C52+February!C52+March!C52+April!C52+May!C52+June!C52+July!C52+August!C52+September!C52+October!C52+November!C52+December!C52</f>
-        <v>1644</v>
+        <v>2000</v>
       </c>
       <c r="D52" s="4">
         <f>January!D52+February!D52+March!D52+April!D52+May!D52+June!D52+July!D52+August!D52+September!D52+October!D52+November!D52+December!D52</f>
-        <v>-282</v>
+        <v>-268</v>
       </c>
       <c r="E52" s="29" t="str">
         <f t="shared" si="3"/>
@@ -3013,7 +3070,7 @@
       </c>
       <c r="G52" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>0.83 : 1</v>
+        <v>0.87 : 1</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3022,15 +3079,15 @@
       </c>
       <c r="B53" s="2">
         <f>January!B53+February!B53+March!B53+April!B53+May!B53+June!B53+July!B53+August!B53+September!B53+October!B53+November!B53+December!B53</f>
-        <v>495</v>
+        <v>608</v>
       </c>
       <c r="C53" s="2">
         <f>January!C53+February!C53+March!C53+April!C53+May!C53+June!C53+July!C53+August!C53+September!C53+October!C53+November!C53+December!C53</f>
-        <v>879</v>
+        <v>1093</v>
       </c>
       <c r="D53" s="2">
         <f>January!D53+February!D53+March!D53+April!D53+May!D53+June!D53+July!D53+August!D53+September!D53+October!D53+November!D53+December!D53</f>
-        <v>-384</v>
+        <v>-485</v>
       </c>
       <c r="E53" s="28" t="str">
         <f t="shared" si="3"/>
@@ -3051,15 +3108,15 @@
       </c>
       <c r="B54" s="4">
         <f>January!B54+February!B54+March!B54+April!B54+May!B54+June!B54+July!B54+August!B54+September!B54+October!B54+November!B54+December!B54</f>
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="C54" s="4">
         <f>January!C54+February!C54+March!C54+April!C54+May!C54+June!C54+July!C54+August!C54+September!C54+October!C54+November!C54+December!C54</f>
-        <v>829</v>
+        <v>1071</v>
       </c>
       <c r="D54" s="4">
         <f>January!D54+February!D54+March!D54+April!D54+May!D54+June!D54+July!D54+August!D54+September!D54+October!D54+November!D54+December!D54</f>
-        <v>-756</v>
+        <v>-981</v>
       </c>
       <c r="E54" s="29" t="str">
         <f t="shared" si="3"/>
@@ -3071,7 +3128,7 @@
       </c>
       <c r="G54" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>0.09 : 1</v>
+        <v>0.08 : 1</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3080,15 +3137,15 @@
       </c>
       <c r="B55" s="10">
         <f>January!B55+February!B55+March!B55+April!B55+May!B55+June!B55+July!B55+August!B55+September!B55+October!B55+November!B55+December!B55</f>
-        <v>1131</v>
+        <v>1467</v>
       </c>
       <c r="C55" s="10">
         <f>January!C55+February!C55+March!C55+April!C55+May!C55+June!C55+July!C55+August!C55+September!C55+October!C55+November!C55+December!C55</f>
-        <v>852</v>
+        <v>1034</v>
       </c>
       <c r="D55" s="10">
         <f>January!D55+February!D55+March!D55+April!D55+May!D55+June!D55+July!D55+August!D55+September!D55+October!D55+November!D55+December!D55</f>
-        <v>279</v>
+        <v>433</v>
       </c>
       <c r="E55" s="32" t="str">
         <f t="shared" si="3"/>
@@ -3100,7 +3157,7 @@
       </c>
       <c r="G55" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>1.33 : 1</v>
+        <v>1.42 : 1</v>
       </c>
     </row>
   </sheetData>
@@ -10562,108 +10619,204 @@
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="28"/>
+      <c r="B2" s="18">
+        <v>1339</v>
+      </c>
+      <c r="C2" s="18">
+        <v>1140</v>
+      </c>
+      <c r="D2" s="18">
+        <v>199</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F2" s="28"/>
-      <c r="G2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="29"/>
+      <c r="B3" s="21">
+        <v>544</v>
+      </c>
+      <c r="C3" s="21">
+        <v>427</v>
+      </c>
+      <c r="D3" s="21">
+        <v>117</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F3" s="29"/>
-      <c r="G3" s="5"/>
+      <c r="G3" s="5" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="28"/>
+      <c r="B4" s="18">
+        <v>1167</v>
+      </c>
+      <c r="C4" s="18">
+        <v>1152</v>
+      </c>
+      <c r="D4" s="18">
+        <v>15</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F4" s="28"/>
-      <c r="G4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
+      <c r="B5" s="21">
+        <v>41</v>
+      </c>
+      <c r="C5" s="21">
+        <v>93</v>
+      </c>
+      <c r="D5" s="21">
+        <v>-52</v>
+      </c>
       <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="5"/>
+      <c r="F5" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
+      <c r="B6" s="18">
+        <v>1044</v>
+      </c>
+      <c r="C6" s="18">
+        <v>1269</v>
+      </c>
+      <c r="D6" s="18">
+        <v>-225</v>
+      </c>
       <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="3"/>
+      <c r="F6" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="29"/>
+      <c r="B7" s="21">
+        <v>331</v>
+      </c>
+      <c r="C7" s="21">
+        <v>122</v>
+      </c>
+      <c r="D7" s="21">
+        <v>209</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F7" s="29"/>
-      <c r="G7" s="5"/>
+      <c r="G7" s="5" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
+      <c r="B8" s="18">
+        <v>134</v>
+      </c>
+      <c r="C8" s="18">
+        <v>172</v>
+      </c>
+      <c r="D8" s="18">
+        <v>-38</v>
+      </c>
       <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
+      <c r="B9" s="21">
+        <v>48</v>
+      </c>
+      <c r="C9" s="21">
+        <v>64</v>
+      </c>
+      <c r="D9" s="21">
+        <v>-16</v>
+      </c>
       <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="5"/>
+      <c r="F9" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
+      <c r="B10" s="18">
+        <v>0</v>
+      </c>
+      <c r="C10" s="18">
+        <v>45</v>
+      </c>
+      <c r="D10" s="18">
+        <v>-45</v>
+      </c>
       <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="3"/>
+      <c r="F10" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
+      <c r="B11" s="21">
+        <v>0</v>
+      </c>
+      <c r="C11" s="21">
+        <v>0</v>
+      </c>
+      <c r="D11" s="21">
+        <v>0</v>
+      </c>
       <c r="E11" s="29"/>
       <c r="F11" s="29"/>
       <c r="G11" s="5"/>
@@ -10672,163 +10825,309 @@
       <c r="A12" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
+      <c r="B12" s="23">
+        <v>9</v>
+      </c>
+      <c r="C12" s="23">
+        <v>19</v>
+      </c>
+      <c r="D12" s="23">
+        <v>-10</v>
+      </c>
       <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="7"/>
+      <c r="F12" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="30"/>
+      <c r="B13" s="23">
+        <v>137</v>
+      </c>
+      <c r="C13" s="23">
+        <v>73</v>
+      </c>
+      <c r="D13" s="23">
+        <v>64</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>61</v>
+      </c>
       <c r="F13" s="30"/>
-      <c r="G13" s="7"/>
+      <c r="G13" s="7" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
+      <c r="B14" s="23">
+        <v>163</v>
+      </c>
+      <c r="C14" s="23">
+        <v>221</v>
+      </c>
+      <c r="D14" s="23">
+        <v>-58</v>
+      </c>
       <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="7"/>
+      <c r="F14" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
+      <c r="B15" s="23">
+        <v>75</v>
+      </c>
+      <c r="C15" s="23">
+        <v>117</v>
+      </c>
+      <c r="D15" s="23">
+        <v>-42</v>
+      </c>
       <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="7"/>
+      <c r="F15" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
+      <c r="B16" s="18">
+        <v>61</v>
+      </c>
+      <c r="C16" s="18">
+        <v>110</v>
+      </c>
+      <c r="D16" s="18">
+        <v>-49</v>
+      </c>
       <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="3"/>
+      <c r="F16" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="29"/>
+      <c r="B17" s="21">
+        <v>608</v>
+      </c>
+      <c r="C17" s="21">
+        <v>376</v>
+      </c>
+      <c r="D17" s="21">
+        <v>232</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F17" s="29"/>
-      <c r="G17" s="5"/>
+      <c r="G17" s="5" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
+      <c r="B18" s="18">
+        <v>71</v>
+      </c>
+      <c r="C18" s="18">
+        <v>111</v>
+      </c>
+      <c r="D18" s="18">
+        <v>-40</v>
+      </c>
       <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="3"/>
+      <c r="F18" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="29"/>
+      <c r="B19" s="21">
+        <v>517</v>
+      </c>
+      <c r="C19" s="21">
+        <v>405</v>
+      </c>
+      <c r="D19" s="21">
+        <v>112</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F19" s="29"/>
-      <c r="G19" s="5"/>
+      <c r="G19" s="5" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
+      <c r="B20" s="18">
+        <v>4</v>
+      </c>
+      <c r="C20" s="18">
+        <v>56</v>
+      </c>
+      <c r="D20" s="18">
+        <v>-52</v>
+      </c>
       <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="3"/>
+      <c r="F20" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="29"/>
+      <c r="B21" s="21">
+        <v>417</v>
+      </c>
+      <c r="C21" s="21">
+        <v>317</v>
+      </c>
+      <c r="D21" s="21">
+        <v>100</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F21" s="29"/>
-      <c r="G21" s="5"/>
+      <c r="G21" s="5" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
+      <c r="B22" s="18">
+        <v>19</v>
+      </c>
+      <c r="C22" s="18">
+        <v>113</v>
+      </c>
+      <c r="D22" s="18">
+        <v>-94</v>
+      </c>
       <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="3"/>
+      <c r="F22" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="29"/>
+      <c r="B23" s="21">
+        <v>590</v>
+      </c>
+      <c r="C23" s="21">
+        <v>301</v>
+      </c>
+      <c r="D23" s="21">
+        <v>289</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F23" s="29"/>
-      <c r="G23" s="5"/>
+      <c r="G23" s="5" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="28"/>
+      <c r="B24" s="18">
+        <v>1491</v>
+      </c>
+      <c r="C24" s="18">
+        <v>1281</v>
+      </c>
+      <c r="D24" s="18">
+        <v>210</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F24" s="28"/>
-      <c r="G24" s="3"/>
+      <c r="G24" s="3" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
+      <c r="B25" s="21">
+        <v>128</v>
+      </c>
+      <c r="C25" s="21">
+        <v>316</v>
+      </c>
+      <c r="D25" s="21">
+        <v>-188</v>
+      </c>
       <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="5"/>
+      <c r="F25" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
+      <c r="B26" s="18">
+        <v>0</v>
+      </c>
+      <c r="C26" s="18">
+        <v>0</v>
+      </c>
+      <c r="D26" s="18">
+        <v>0</v>
+      </c>
       <c r="E26" s="28"/>
       <c r="F26" s="28"/>
       <c r="G26" s="3"/>
@@ -10837,185 +11136,351 @@
       <c r="A27" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="29"/>
+      <c r="B27" s="21">
+        <v>254</v>
+      </c>
+      <c r="C27" s="21">
+        <v>169</v>
+      </c>
+      <c r="D27" s="21">
+        <v>85</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F27" s="29"/>
-      <c r="G27" s="5"/>
+      <c r="G27" s="5" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
+      <c r="B28" s="18">
+        <v>69</v>
+      </c>
+      <c r="C28" s="18">
+        <v>79</v>
+      </c>
+      <c r="D28" s="18">
+        <v>-10</v>
+      </c>
       <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="3"/>
+      <c r="F28" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="29"/>
+      <c r="B29" s="21">
+        <v>462</v>
+      </c>
+      <c r="C29" s="21">
+        <v>402</v>
+      </c>
+      <c r="D29" s="21">
+        <v>60</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F29" s="29"/>
-      <c r="G29" s="5"/>
+      <c r="G29" s="5" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="28"/>
+      <c r="B30" s="18">
+        <v>56</v>
+      </c>
+      <c r="C30" s="18">
+        <v>36</v>
+      </c>
+      <c r="D30" s="18">
+        <v>20</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F30" s="28"/>
-      <c r="G30" s="3"/>
+      <c r="G30" s="3" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
+      <c r="B31" s="21">
+        <v>34</v>
+      </c>
+      <c r="C31" s="21">
+        <v>255</v>
+      </c>
+      <c r="D31" s="21">
+        <v>-221</v>
+      </c>
       <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="5"/>
+      <c r="F31" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
+      <c r="B32" s="18">
+        <v>425</v>
+      </c>
+      <c r="C32" s="18">
+        <v>487</v>
+      </c>
+      <c r="D32" s="18">
+        <v>-62</v>
+      </c>
       <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="3"/>
+      <c r="F32" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
+      <c r="B33" s="21">
+        <v>347</v>
+      </c>
+      <c r="C33" s="21">
+        <v>546</v>
+      </c>
+      <c r="D33" s="21">
+        <v>-199</v>
+      </c>
       <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="5"/>
+      <c r="F33" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="28"/>
+      <c r="B34" s="18">
+        <v>163</v>
+      </c>
+      <c r="C34" s="18">
+        <v>95</v>
+      </c>
+      <c r="D34" s="18">
+        <v>68</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F34" s="28"/>
-      <c r="G34" s="3"/>
+      <c r="G34" s="3" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
+      <c r="B35" s="21">
+        <v>748</v>
+      </c>
+      <c r="C35" s="21">
+        <v>1053</v>
+      </c>
+      <c r="D35" s="21">
+        <v>-305</v>
+      </c>
       <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="5"/>
+      <c r="F35" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
+      <c r="B36" s="18">
+        <v>156</v>
+      </c>
+      <c r="C36" s="18">
+        <v>452</v>
+      </c>
+      <c r="D36" s="18">
+        <v>-296</v>
+      </c>
       <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="3"/>
+      <c r="F36" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="29"/>
+      <c r="B37" s="21">
+        <v>460</v>
+      </c>
+      <c r="C37" s="21">
+        <v>308</v>
+      </c>
+      <c r="D37" s="21">
+        <v>152</v>
+      </c>
+      <c r="E37" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F37" s="29"/>
-      <c r="G37" s="5"/>
+      <c r="G37" s="5" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
+      <c r="B38" s="18">
+        <v>31</v>
+      </c>
+      <c r="C38" s="18">
+        <v>204</v>
+      </c>
+      <c r="D38" s="18">
+        <v>-173</v>
+      </c>
       <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="3"/>
+      <c r="F38" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
+      <c r="B39" s="25">
+        <v>0</v>
+      </c>
+      <c r="C39" s="25">
+        <v>68</v>
+      </c>
+      <c r="D39" s="25">
+        <v>-68</v>
+      </c>
       <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="9"/>
+      <c r="F39" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
+      <c r="B40" s="25">
+        <v>30</v>
+      </c>
+      <c r="C40" s="25">
+        <v>56</v>
+      </c>
+      <c r="D40" s="25">
+        <v>-26</v>
+      </c>
       <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="9"/>
+      <c r="F40" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
+      <c r="B41" s="25">
+        <v>1</v>
+      </c>
+      <c r="C41" s="25">
+        <v>34</v>
+      </c>
+      <c r="D41" s="25">
+        <v>-33</v>
+      </c>
       <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="9"/>
+      <c r="F41" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
+      <c r="B42" s="25">
+        <v>0</v>
+      </c>
+      <c r="C42" s="25">
+        <v>7</v>
+      </c>
+      <c r="D42" s="25">
+        <v>-7</v>
+      </c>
       <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="9"/>
+      <c r="F42" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
+      <c r="B43" s="25">
+        <v>0</v>
+      </c>
+      <c r="C43" s="25">
+        <v>0</v>
+      </c>
+      <c r="D43" s="25">
+        <v>0</v>
+      </c>
       <c r="E43" s="31"/>
       <c r="F43" s="31"/>
       <c r="G43" s="9"/>
@@ -11024,133 +11489,253 @@
       <c r="A44" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="29"/>
+      <c r="B44" s="21">
+        <v>130</v>
+      </c>
+      <c r="C44" s="21">
+        <v>98</v>
+      </c>
+      <c r="D44" s="21">
+        <v>32</v>
+      </c>
+      <c r="E44" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F44" s="29"/>
-      <c r="G44" s="5"/>
+      <c r="G44" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
+      <c r="B45" s="18">
+        <v>61</v>
+      </c>
+      <c r="C45" s="18">
+        <v>173</v>
+      </c>
+      <c r="D45" s="18">
+        <v>-112</v>
+      </c>
       <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="3"/>
+      <c r="F45" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
+      <c r="B46" s="21">
+        <v>485</v>
+      </c>
+      <c r="C46" s="21">
+        <v>506</v>
+      </c>
+      <c r="D46" s="21">
+        <v>-21</v>
+      </c>
       <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="5"/>
+      <c r="F46" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="28"/>
+      <c r="B47" s="18">
+        <v>872</v>
+      </c>
+      <c r="C47" s="18">
+        <v>518</v>
+      </c>
+      <c r="D47" s="18">
+        <v>354</v>
+      </c>
+      <c r="E47" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F47" s="28"/>
-      <c r="G47" s="3"/>
+      <c r="G47" s="3" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
+      <c r="B48" s="21">
+        <v>223</v>
+      </c>
+      <c r="C48" s="21">
+        <v>473</v>
+      </c>
+      <c r="D48" s="21">
+        <v>-250</v>
+      </c>
       <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="5"/>
+      <c r="F48" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="28"/>
+      <c r="B49" s="18">
+        <v>448</v>
+      </c>
+      <c r="C49" s="18">
+        <v>240</v>
+      </c>
+      <c r="D49" s="18">
+        <v>208</v>
+      </c>
+      <c r="E49" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F49" s="28"/>
-      <c r="G49" s="3"/>
+      <c r="G49" s="3" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="29"/>
+      <c r="B50" s="21">
+        <v>881</v>
+      </c>
+      <c r="C50" s="21">
+        <v>521</v>
+      </c>
+      <c r="D50" s="21">
+        <v>360</v>
+      </c>
+      <c r="E50" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F50" s="29"/>
-      <c r="G50" s="5"/>
+      <c r="G50" s="5" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
+      <c r="B51" s="18">
+        <v>160</v>
+      </c>
+      <c r="C51" s="18">
+        <v>196</v>
+      </c>
+      <c r="D51" s="18">
+        <v>-36</v>
+      </c>
       <c r="E51" s="28"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="3"/>
+      <c r="F51" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="29"/>
+      <c r="B52" s="21">
+        <v>370</v>
+      </c>
+      <c r="C52" s="21">
+        <v>356</v>
+      </c>
+      <c r="D52" s="21">
+        <v>14</v>
+      </c>
+      <c r="E52" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F52" s="29"/>
-      <c r="G52" s="5"/>
+      <c r="G52" s="5" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
+      <c r="B53" s="18">
+        <v>113</v>
+      </c>
+      <c r="C53" s="18">
+        <v>214</v>
+      </c>
+      <c r="D53" s="18">
+        <v>-101</v>
+      </c>
       <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="3"/>
+      <c r="F53" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B54" s="21"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
+      <c r="B54" s="21">
+        <v>17</v>
+      </c>
+      <c r="C54" s="21">
+        <v>242</v>
+      </c>
+      <c r="D54" s="21">
+        <v>-225</v>
+      </c>
       <c r="E54" s="29"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="5"/>
+      <c r="F54" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="B55" s="27"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="32"/>
+      <c r="B55" s="27">
+        <v>336</v>
+      </c>
+      <c r="C55" s="27">
+        <v>182</v>
+      </c>
+      <c r="D55" s="27">
+        <v>154</v>
+      </c>
+      <c r="E55" s="32" t="s">
+        <v>61</v>
+      </c>
       <c r="F55" s="32"/>
-      <c r="G55" s="11"/>
+      <c r="G55" s="11" t="s">
+        <v>212</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G55" xr:uid="{00000000-0009-0000-0000-000005000000}"/>

--- a/statistics_files/2024/2024_99_g_net_borrower_lender.xlsx
+++ b/statistics_files/2024/2024_99_g_net_borrower_lender.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\GitHub\next_statistics\statistics_files\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\github\next_statistics\statistics_files\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7A168D-AFD4-4440-93BE-A24C631B976E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734E8F59-7D80-4CDA-A48C-53D6E1A327F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" tabRatio="673" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="673" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Yearly totals" sheetId="1" r:id="rId1"/>
@@ -47,12 +47,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="226">
   <si>
     <t>NET</t>
   </si>
@@ -691,6 +700,45 @@
   </si>
   <si>
     <t>1.85 : 1</t>
+  </si>
+  <si>
+    <t>1.19 : 1</t>
+  </si>
+  <si>
+    <t>0.26 : 1</t>
+  </si>
+  <si>
+    <t>2.25 : 1</t>
+  </si>
+  <si>
+    <t>0.61 : 1</t>
+  </si>
+  <si>
+    <t>1.34 : 1</t>
+  </si>
+  <si>
+    <t>1.79 : 1</t>
+  </si>
+  <si>
+    <t>0.67 : 1</t>
+  </si>
+  <si>
+    <t>2.51 : 1</t>
+  </si>
+  <si>
+    <t>1.86 : 1</t>
+  </si>
+  <si>
+    <t>0.85 : 1</t>
+  </si>
+  <si>
+    <t>1.83 : 1</t>
+  </si>
+  <si>
+    <t>1.26 : 1</t>
+  </si>
+  <si>
+    <t>2.11 : 1</t>
   </si>
 </sst>
 </file>
@@ -1554,7 +1602,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection sqref="A1:XFD1048576"/>
       <selection pane="topRight" sqref="A1:XFD1048576"/>
@@ -1600,15 +1648,15 @@
       </c>
       <c r="B2" s="2">
         <f>January!B2+February!B2+March!B2+April!B2+May!B2+June!B2+July!B2+August!B2+September!B2+October!B2+November!B2+December!B2</f>
-        <v>6773</v>
+        <v>8140</v>
       </c>
       <c r="C2" s="2">
         <f>January!C2+February!C2+March!C2+April!C2+May!C2+June!C2+July!C2+August!C2+September!C2+October!C2+November!C2+December!C2</f>
-        <v>5904</v>
+        <v>7055</v>
       </c>
       <c r="D2" s="2">
         <f>January!D2+February!D2+March!D2+April!D2+May!D2+June!D2+July!D2+August!D2+September!D2+October!D2+November!D2+December!D2</f>
-        <v>869</v>
+        <v>1085</v>
       </c>
       <c r="E2" s="28" t="str">
         <f t="shared" ref="E2:E33" si="0">IF(D2 &gt; 0, "We borrowed more than we lent this year", "")</f>
@@ -1629,15 +1677,15 @@
       </c>
       <c r="B3" s="4">
         <f>January!B3+February!B3+March!B3+April!B3+May!B3+June!B3+July!B3+August!B3+September!B3+October!B3+November!B3+December!B3</f>
-        <v>2848</v>
+        <v>3496</v>
       </c>
       <c r="C3" s="4">
         <f>January!C3+February!C3+March!C3+April!C3+May!C3+June!C3+July!C3+August!C3+September!C3+October!C3+November!C3+December!C3</f>
-        <v>2252</v>
+        <v>2622</v>
       </c>
       <c r="D3" s="4">
         <f>January!D3+February!D3+March!D3+April!D3+May!D3+June!D3+July!D3+August!D3+September!D3+October!D3+November!D3+December!D3</f>
-        <v>596</v>
+        <v>874</v>
       </c>
       <c r="E3" s="29" t="str">
         <f t="shared" si="0"/>
@@ -1649,7 +1697,7 @@
       </c>
       <c r="G3" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>1.26 : 1</v>
+        <v>1.33 : 1</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1658,15 +1706,15 @@
       </c>
       <c r="B4" s="2">
         <f>January!B4+February!B4+March!B4+April!B4+May!B4+June!B4+July!B4+August!B4+September!B4+October!B4+November!B4+December!B4</f>
-        <v>6005</v>
+        <v>7125</v>
       </c>
       <c r="C4" s="2">
         <f>January!C4+February!C4+March!C4+April!C4+May!C4+June!C4+July!C4+August!C4+September!C4+October!C4+November!C4+December!C4</f>
-        <v>6113</v>
+        <v>7127</v>
       </c>
       <c r="D4" s="2">
         <f>January!D4+February!D4+March!D4+April!D4+May!D4+June!D4+July!D4+August!D4+September!D4+October!D4+November!D4+December!D4</f>
-        <v>-108</v>
+        <v>-2</v>
       </c>
       <c r="E4" s="28" t="str">
         <f t="shared" si="0"/>
@@ -1678,7 +1726,7 @@
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.98 : 1</v>
+        <v>1 : 1</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1687,15 +1735,15 @@
       </c>
       <c r="B5" s="4">
         <f>January!B5+February!B5+March!B5+April!B5+May!B5+June!B5+July!B5+August!B5+September!B5+October!B5+November!B5+December!B5</f>
-        <v>197</v>
+        <v>241</v>
       </c>
       <c r="C5" s="4">
         <f>January!C5+February!C5+March!C5+April!C5+May!C5+June!C5+July!C5+August!C5+September!C5+October!C5+November!C5+December!C5</f>
-        <v>585</v>
+        <v>756</v>
       </c>
       <c r="D5" s="4">
         <f>January!D5+February!D5+March!D5+April!D5+May!D5+June!D5+July!D5+August!D5+September!D5+October!D5+November!D5+December!D5</f>
-        <v>-388</v>
+        <v>-515</v>
       </c>
       <c r="E5" s="29" t="str">
         <f t="shared" si="0"/>
@@ -1707,7 +1755,7 @@
       </c>
       <c r="G5" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>0.34 : 1</v>
+        <v>0.32 : 1</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1716,15 +1764,15 @@
       </c>
       <c r="B6" s="2">
         <f>January!B6+February!B6+March!B6+April!B6+May!B6+June!B6+July!B6+August!B6+September!B6+October!B6+November!B6+December!B6</f>
-        <v>5389</v>
+        <v>6397</v>
       </c>
       <c r="C6" s="2">
         <f>January!C6+February!C6+March!C6+April!C6+May!C6+June!C6+July!C6+August!C6+September!C6+October!C6+November!C6+December!C6</f>
-        <v>7007</v>
+        <v>8396</v>
       </c>
       <c r="D6" s="2">
         <f>January!D6+February!D6+March!D6+April!D6+May!D6+June!D6+July!D6+August!D6+September!D6+October!D6+November!D6+December!D6</f>
-        <v>-1618</v>
+        <v>-1999</v>
       </c>
       <c r="E6" s="28" t="str">
         <f t="shared" si="0"/>
@@ -1736,7 +1784,7 @@
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.77 : 1</v>
+        <v>0.76 : 1</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1745,15 +1793,15 @@
       </c>
       <c r="B7" s="4">
         <f>January!B7+February!B7+March!B7+April!B7+May!B7+June!B7+July!B7+August!B7+September!B7+October!B7+November!B7+December!B7</f>
-        <v>1611</v>
+        <v>1870</v>
       </c>
       <c r="C7" s="4">
         <f>January!C7+February!C7+March!C7+April!C7+May!C7+June!C7+July!C7+August!C7+September!C7+October!C7+November!C7+December!C7</f>
-        <v>713</v>
+        <v>866</v>
       </c>
       <c r="D7" s="4">
         <f>January!D7+February!D7+March!D7+April!D7+May!D7+June!D7+July!D7+August!D7+September!D7+October!D7+November!D7+December!D7</f>
-        <v>898</v>
+        <v>1004</v>
       </c>
       <c r="E7" s="29" t="str">
         <f t="shared" si="0"/>
@@ -1765,7 +1813,7 @@
       </c>
       <c r="G7" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>2.26 : 1</v>
+        <v>2.16 : 1</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1774,15 +1822,15 @@
       </c>
       <c r="B8" s="2">
         <f>January!B8+February!B8+March!B8+April!B8+May!B8+June!B8+July!B8+August!B8+September!B8+October!B8+November!B8+December!B8</f>
-        <v>585</v>
+        <v>762</v>
       </c>
       <c r="C8" s="2">
         <f>January!C8+February!C8+March!C8+April!C8+May!C8+June!C8+July!C8+August!C8+September!C8+October!C8+November!C8+December!C8</f>
-        <v>907</v>
+        <v>1112</v>
       </c>
       <c r="D8" s="2">
         <f>January!D8+February!D8+March!D8+April!D8+May!D8+June!D8+July!D8+August!D8+September!D8+October!D8+November!D8+December!D8</f>
-        <v>-322</v>
+        <v>-350</v>
       </c>
       <c r="E8" s="28" t="str">
         <f t="shared" si="0"/>
@@ -1794,7 +1842,7 @@
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.64 : 1</v>
+        <v>0.69 : 1</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1803,15 +1851,15 @@
       </c>
       <c r="B9" s="4">
         <f>January!B9+February!B9+March!B9+April!B9+May!B9+June!B9+July!B9+August!B9+September!B9+October!B9+November!B9+December!B9</f>
-        <v>250</v>
+        <v>295</v>
       </c>
       <c r="C9" s="4">
         <f>January!C9+February!C9+March!C9+April!C9+May!C9+June!C9+July!C9+August!C9+September!C9+October!C9+November!C9+December!C9</f>
-        <v>368</v>
+        <v>437</v>
       </c>
       <c r="D9" s="4">
         <f>January!D9+February!D9+March!D9+April!D9+May!D9+June!D9+July!D9+August!D9+September!D9+October!D9+November!D9+December!D9</f>
-        <v>-118</v>
+        <v>-142</v>
       </c>
       <c r="E9" s="29" t="str">
         <f t="shared" si="0"/>
@@ -1832,15 +1880,15 @@
       </c>
       <c r="B10" s="2">
         <f>January!B10+February!B10+March!B10+April!B10+May!B10+June!B10+July!B10+August!B10+September!B10+October!B10+November!B10+December!B10</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C10" s="2">
         <f>January!C10+February!C10+March!C10+April!C10+May!C10+June!C10+July!C10+August!C10+September!C10+October!C10+November!C10+December!C10</f>
-        <v>258</v>
+        <v>296</v>
       </c>
       <c r="D10" s="2">
         <f>January!D10+February!D10+March!D10+April!D10+May!D10+June!D10+July!D10+August!D10+September!D10+October!D10+November!D10+December!D10</f>
-        <v>-256</v>
+        <v>-287</v>
       </c>
       <c r="E10" s="28" t="str">
         <f t="shared" si="0"/>
@@ -1852,7 +1900,7 @@
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.01 : 1</v>
+        <v>0.03 : 1</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1890,15 +1938,15 @@
       </c>
       <c r="B12" s="6">
         <f>January!B12+February!B12+March!B12+April!B12+May!B12+June!B12+July!B12+August!B12+September!B12+October!B12+November!B12+December!B12</f>
-        <v>169</v>
+        <v>205</v>
       </c>
       <c r="C12" s="6">
         <f>January!C12+February!C12+March!C12+April!C12+May!C12+June!C12+July!C12+August!C12+September!C12+October!C12+November!C12+December!C12</f>
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="D12" s="6">
         <f>January!D12+February!D12+March!D12+April!D12+May!D12+June!D12+July!D12+August!D12+September!D12+October!D12+November!D12+December!D12</f>
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="E12" s="30" t="str">
         <f t="shared" si="0"/>
@@ -1910,7 +1958,7 @@
       </c>
       <c r="G12" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>1.54 : 1</v>
+        <v>1.63 : 1</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1919,15 +1967,15 @@
       </c>
       <c r="B13" s="6">
         <f>January!B13+February!B13+March!B13+April!B13+May!B13+June!B13+July!B13+August!B13+September!B13+October!B13+November!B13+December!B13</f>
-        <v>826</v>
+        <v>967</v>
       </c>
       <c r="C13" s="6">
         <f>January!C13+February!C13+March!C13+April!C13+May!C13+June!C13+July!C13+August!C13+September!C13+October!C13+November!C13+December!C13</f>
-        <v>448</v>
+        <v>534</v>
       </c>
       <c r="D13" s="6">
         <f>January!D13+February!D13+March!D13+April!D13+May!D13+June!D13+July!D13+August!D13+September!D13+October!D13+November!D13+December!D13</f>
-        <v>378</v>
+        <v>433</v>
       </c>
       <c r="E13" s="30" t="str">
         <f t="shared" si="0"/>
@@ -1939,7 +1987,7 @@
       </c>
       <c r="G13" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>1.84 : 1</v>
+        <v>1.81 : 1</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1948,15 +1996,15 @@
       </c>
       <c r="B14" s="6">
         <f>January!B14+February!B14+March!B14+April!B14+May!B14+June!B14+July!B14+August!B14+September!B14+October!B14+November!B14+December!B14</f>
-        <v>714</v>
+        <v>811</v>
       </c>
       <c r="C14" s="6">
         <f>January!C14+February!C14+March!C14+April!C14+May!C14+June!C14+July!C14+August!C14+September!C14+October!C14+November!C14+December!C14</f>
-        <v>1302</v>
+        <v>1544</v>
       </c>
       <c r="D14" s="6">
         <f>January!D14+February!D14+March!D14+April!D14+May!D14+June!D14+July!D14+August!D14+September!D14+October!D14+November!D14+December!D14</f>
-        <v>-588</v>
+        <v>-733</v>
       </c>
       <c r="E14" s="30" t="str">
         <f t="shared" si="0"/>
@@ -1968,7 +2016,7 @@
       </c>
       <c r="G14" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>0.55 : 1</v>
+        <v>0.53 : 1</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1977,15 +2025,15 @@
       </c>
       <c r="B15" s="6">
         <f>January!B15+February!B15+March!B15+April!B15+May!B15+June!B15+July!B15+August!B15+September!B15+October!B15+November!B15+December!B15</f>
-        <v>281</v>
+        <v>363</v>
       </c>
       <c r="C15" s="6">
         <f>January!C15+February!C15+March!C15+April!C15+May!C15+June!C15+July!C15+August!C15+September!C15+October!C15+November!C15+December!C15</f>
-        <v>643</v>
+        <v>777</v>
       </c>
       <c r="D15" s="6">
         <f>January!D15+February!D15+March!D15+April!D15+May!D15+June!D15+July!D15+August!D15+September!D15+October!D15+November!D15+December!D15</f>
-        <v>-362</v>
+        <v>-414</v>
       </c>
       <c r="E15" s="30" t="str">
         <f t="shared" si="0"/>
@@ -1997,7 +2045,7 @@
       </c>
       <c r="G15" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>0.44 : 1</v>
+        <v>0.47 : 1</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2006,15 +2054,15 @@
       </c>
       <c r="B16" s="2">
         <f>January!B16+February!B16+March!B16+April!B16+May!B16+June!B16+July!B16+August!B16+September!B16+October!B16+November!B16+December!B16</f>
-        <v>344</v>
+        <v>409</v>
       </c>
       <c r="C16" s="2">
         <f>January!C16+February!C16+March!C16+April!C16+May!C16+June!C16+July!C16+August!C16+September!C16+October!C16+November!C16+December!C16</f>
-        <v>692</v>
+        <v>839</v>
       </c>
       <c r="D16" s="2">
         <f>January!D16+February!D16+March!D16+April!D16+May!D16+June!D16+July!D16+August!D16+September!D16+October!D16+November!D16+December!D16</f>
-        <v>-348</v>
+        <v>-430</v>
       </c>
       <c r="E16" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2026,7 +2074,7 @@
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.5 : 1</v>
+        <v>0.49 : 1</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2035,15 +2083,15 @@
       </c>
       <c r="B17" s="4">
         <f>January!B17+February!B17+March!B17+April!B17+May!B17+June!B17+July!B17+August!B17+September!B17+October!B17+November!B17+December!B17</f>
-        <v>2932</v>
+        <v>3505</v>
       </c>
       <c r="C17" s="4">
         <f>January!C17+February!C17+March!C17+April!C17+May!C17+June!C17+July!C17+August!C17+September!C17+October!C17+November!C17+December!C17</f>
-        <v>2053</v>
+        <v>2519</v>
       </c>
       <c r="D17" s="4">
         <f>January!D17+February!D17+March!D17+April!D17+May!D17+June!D17+July!D17+August!D17+September!D17+October!D17+November!D17+December!D17</f>
-        <v>879</v>
+        <v>986</v>
       </c>
       <c r="E17" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2055,7 +2103,7 @@
       </c>
       <c r="G17" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>1.43 : 1</v>
+        <v>1.39 : 1</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2064,15 +2112,15 @@
       </c>
       <c r="B18" s="2">
         <f>January!B18+February!B18+March!B18+April!B18+May!B18+June!B18+July!B18+August!B18+September!B18+October!B18+November!B18+December!B18</f>
-        <v>372</v>
+        <v>443</v>
       </c>
       <c r="C18" s="2">
         <f>January!C18+February!C18+March!C18+April!C18+May!C18+June!C18+July!C18+August!C18+September!C18+October!C18+November!C18+December!C18</f>
-        <v>496</v>
+        <v>622</v>
       </c>
       <c r="D18" s="2">
         <f>January!D18+February!D18+March!D18+April!D18+May!D18+June!D18+July!D18+August!D18+September!D18+October!D18+November!D18+December!D18</f>
-        <v>-124</v>
+        <v>-179</v>
       </c>
       <c r="E18" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2084,7 +2132,7 @@
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.75 : 1</v>
+        <v>0.71 : 1</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2093,15 +2141,15 @@
       </c>
       <c r="B19" s="4">
         <f>January!B19+February!B19+March!B19+April!B19+May!B19+June!B19+July!B19+August!B19+September!B19+October!B19+November!B19+December!B19</f>
-        <v>2827</v>
+        <v>3309</v>
       </c>
       <c r="C19" s="4">
         <f>January!C19+February!C19+March!C19+April!C19+May!C19+June!C19+July!C19+August!C19+September!C19+October!C19+November!C19+December!C19</f>
-        <v>2256</v>
+        <v>2615</v>
       </c>
       <c r="D19" s="4">
         <f>January!D19+February!D19+March!D19+April!D19+May!D19+June!D19+July!D19+August!D19+September!D19+October!D19+November!D19+December!D19</f>
-        <v>571</v>
+        <v>694</v>
       </c>
       <c r="E19" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2113,7 +2161,7 @@
       </c>
       <c r="G19" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>1.25 : 1</v>
+        <v>1.27 : 1</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2122,15 +2170,15 @@
       </c>
       <c r="B20" s="2">
         <f>January!B20+February!B20+March!B20+April!B20+May!B20+June!B20+July!B20+August!B20+September!B20+October!B20+November!B20+December!B20</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C20" s="2">
         <f>January!C20+February!C20+March!C20+April!C20+May!C20+June!C20+July!C20+August!C20+September!C20+October!C20+November!C20+December!C20</f>
-        <v>407</v>
+        <v>466</v>
       </c>
       <c r="D20" s="2">
         <f>January!D20+February!D20+March!D20+April!D20+May!D20+June!D20+July!D20+August!D20+September!D20+October!D20+November!D20+December!D20</f>
-        <v>-395</v>
+        <v>-453</v>
       </c>
       <c r="E20" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2151,15 +2199,15 @@
       </c>
       <c r="B21" s="4">
         <f>January!B21+February!B21+March!B21+April!B21+May!B21+June!B21+July!B21+August!B21+September!B21+October!B21+November!B21+December!B21</f>
-        <v>2128</v>
+        <v>2768</v>
       </c>
       <c r="C21" s="4">
         <f>January!C21+February!C21+March!C21+April!C21+May!C21+June!C21+July!C21+August!C21+September!C21+October!C21+November!C21+December!C21</f>
-        <v>1769</v>
+        <v>2126</v>
       </c>
       <c r="D21" s="4">
         <f>January!D21+February!D21+March!D21+April!D21+May!D21+June!D21+July!D21+August!D21+September!D21+October!D21+November!D21+December!D21</f>
-        <v>359</v>
+        <v>642</v>
       </c>
       <c r="E21" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2171,7 +2219,7 @@
       </c>
       <c r="G21" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>1.2 : 1</v>
+        <v>1.3 : 1</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2180,15 +2228,15 @@
       </c>
       <c r="B22" s="2">
         <f>January!B22+February!B22+March!B22+April!B22+May!B22+June!B22+July!B22+August!B22+September!B22+October!B22+November!B22+December!B22</f>
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="C22" s="2">
         <f>January!C22+February!C22+March!C22+April!C22+May!C22+June!C22+July!C22+August!C22+September!C22+October!C22+November!C22+December!C22</f>
-        <v>653</v>
+        <v>735</v>
       </c>
       <c r="D22" s="2">
         <f>January!D22+February!D22+March!D22+April!D22+May!D22+June!D22+July!D22+August!D22+September!D22+October!D22+November!D22+December!D22</f>
-        <v>-533</v>
+        <v>-592</v>
       </c>
       <c r="E22" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2200,7 +2248,7 @@
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.18 : 1</v>
+        <v>0.19 : 1</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2209,15 +2257,15 @@
       </c>
       <c r="B23" s="4">
         <f>January!B23+February!B23+March!B23+April!B23+May!B23+June!B23+July!B23+August!B23+September!B23+October!B23+November!B23+December!B23</f>
-        <v>3160</v>
+        <v>3828</v>
       </c>
       <c r="C23" s="4">
         <f>January!C23+February!C23+March!C23+April!C23+May!C23+June!C23+July!C23+August!C23+September!C23+October!C23+November!C23+December!C23</f>
-        <v>1721</v>
+        <v>2094</v>
       </c>
       <c r="D23" s="4">
         <f>January!D23+February!D23+March!D23+April!D23+May!D23+June!D23+July!D23+August!D23+September!D23+October!D23+November!D23+December!D23</f>
-        <v>1439</v>
+        <v>1734</v>
       </c>
       <c r="E23" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2229,7 +2277,7 @@
       </c>
       <c r="G23" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>1.84 : 1</v>
+        <v>1.83 : 1</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2238,15 +2286,15 @@
       </c>
       <c r="B24" s="2">
         <f>January!B24+February!B24+March!B24+April!B24+May!B24+June!B24+July!B24+August!B24+September!B24+October!B24+November!B24+December!B24</f>
-        <v>8952</v>
+        <v>10290</v>
       </c>
       <c r="C24" s="2">
         <f>January!C24+February!C24+March!C24+April!C24+May!C24+June!C24+July!C24+August!C24+September!C24+October!C24+November!C24+December!C24</f>
-        <v>6064</v>
+        <v>7338</v>
       </c>
       <c r="D24" s="2">
         <f>January!D24+February!D24+March!D24+April!D24+May!D24+June!D24+July!D24+August!D24+September!D24+October!D24+November!D24+December!D24</f>
-        <v>2888</v>
+        <v>2952</v>
       </c>
       <c r="E24" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2258,7 +2306,7 @@
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>1.48 : 1</v>
+        <v>1.4 : 1</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2267,15 +2315,15 @@
       </c>
       <c r="B25" s="4">
         <f>January!B25+February!B25+March!B25+April!B25+May!B25+June!B25+July!B25+August!B25+September!B25+October!B25+November!B25+December!B25</f>
-        <v>727</v>
+        <v>909</v>
       </c>
       <c r="C25" s="4">
         <f>January!C25+February!C25+March!C25+April!C25+May!C25+June!C25+July!C25+August!C25+September!C25+October!C25+November!C25+December!C25</f>
-        <v>1571</v>
+        <v>1941</v>
       </c>
       <c r="D25" s="4">
         <f>January!D25+February!D25+March!D25+April!D25+May!D25+June!D25+July!D25+August!D25+September!D25+October!D25+November!D25+December!D25</f>
-        <v>-844</v>
+        <v>-1032</v>
       </c>
       <c r="E25" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2287,7 +2335,7 @@
       </c>
       <c r="G25" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>0.46 : 1</v>
+        <v>0.47 : 1</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2325,15 +2373,15 @@
       </c>
       <c r="B27" s="4">
         <f>January!B27+February!B27+March!B27+April!B27+May!B27+June!B27+July!B27+August!B27+September!B27+October!B27+November!B27+December!B27</f>
-        <v>1197</v>
+        <v>1474</v>
       </c>
       <c r="C27" s="4">
         <f>January!C27+February!C27+March!C27+April!C27+May!C27+June!C27+July!C27+August!C27+September!C27+October!C27+November!C27+December!C27</f>
-        <v>961</v>
+        <v>1150</v>
       </c>
       <c r="D27" s="4">
         <f>January!D27+February!D27+March!D27+April!D27+May!D27+June!D27+July!D27+August!D27+September!D27+October!D27+November!D27+December!D27</f>
-        <v>236</v>
+        <v>324</v>
       </c>
       <c r="E27" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2345,7 +2393,7 @@
       </c>
       <c r="G27" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>1.25 : 1</v>
+        <v>1.28 : 1</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2354,15 +2402,15 @@
       </c>
       <c r="B28" s="2">
         <f>January!B28+February!B28+March!B28+April!B28+May!B28+June!B28+July!B28+August!B28+September!B28+October!B28+November!B28+December!B28</f>
-        <v>389</v>
+        <v>450</v>
       </c>
       <c r="C28" s="2">
         <f>January!C28+February!C28+March!C28+April!C28+May!C28+June!C28+July!C28+August!C28+September!C28+October!C28+November!C28+December!C28</f>
-        <v>491</v>
+        <v>587</v>
       </c>
       <c r="D28" s="2">
         <f>January!D28+February!D28+March!D28+April!D28+May!D28+June!D28+July!D28+August!D28+September!D28+October!D28+November!D28+December!D28</f>
-        <v>-102</v>
+        <v>-137</v>
       </c>
       <c r="E28" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2374,7 +2422,7 @@
       </c>
       <c r="G28" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.79 : 1</v>
+        <v>0.77 : 1</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2383,15 +2431,15 @@
       </c>
       <c r="B29" s="4">
         <f>January!B29+February!B29+March!B29+April!B29+May!B29+June!B29+July!B29+August!B29+September!B29+October!B29+November!B29+December!B29</f>
-        <v>2811</v>
+        <v>3205</v>
       </c>
       <c r="C29" s="4">
         <f>January!C29+February!C29+March!C29+April!C29+May!C29+June!C29+July!C29+August!C29+September!C29+October!C29+November!C29+December!C29</f>
-        <v>2029</v>
+        <v>2454</v>
       </c>
       <c r="D29" s="4">
         <f>January!D29+February!D29+March!D29+April!D29+May!D29+June!D29+July!D29+August!D29+September!D29+October!D29+November!D29+December!D29</f>
-        <v>782</v>
+        <v>751</v>
       </c>
       <c r="E29" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2403,7 +2451,7 @@
       </c>
       <c r="G29" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>1.39 : 1</v>
+        <v>1.31 : 1</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2412,15 +2460,15 @@
       </c>
       <c r="B30" s="2">
         <f>January!B30+February!B30+March!B30+April!B30+May!B30+June!B30+July!B30+August!B30+September!B30+October!B30+November!B30+December!B30</f>
-        <v>251</v>
+        <v>295</v>
       </c>
       <c r="C30" s="2">
         <f>January!C30+February!C30+March!C30+April!C30+May!C30+June!C30+July!C30+August!C30+September!C30+October!C30+November!C30+December!C30</f>
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="D30" s="2">
         <f>January!D30+February!D30+March!D30+April!D30+May!D30+June!D30+July!D30+August!D30+September!D30+October!D30+November!D30+December!D30</f>
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="E30" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2432,7 +2480,7 @@
       </c>
       <c r="G30" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>2.15 : 1</v>
+        <v>2.06 : 1</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2441,15 +2489,15 @@
       </c>
       <c r="B31" s="4">
         <f>January!B31+February!B31+March!B31+April!B31+May!B31+June!B31+July!B31+August!B31+September!B31+October!B31+November!B31+December!B31</f>
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="C31" s="4">
         <f>January!C31+February!C31+March!C31+April!C31+May!C31+June!C31+July!C31+August!C31+September!C31+October!C31+November!C31+December!C31</f>
-        <v>1506</v>
+        <v>1764</v>
       </c>
       <c r="D31" s="4">
         <f>January!D31+February!D31+March!D31+April!D31+May!D31+June!D31+July!D31+August!D31+September!D31+October!D31+November!D31+December!D31</f>
-        <v>-1196</v>
+        <v>-1422</v>
       </c>
       <c r="E31" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2461,7 +2509,7 @@
       </c>
       <c r="G31" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>0.21 : 1</v>
+        <v>0.19 : 1</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2470,15 +2518,15 @@
       </c>
       <c r="B32" s="2">
         <f>January!B32+February!B32+March!B32+April!B32+May!B32+June!B32+July!B32+August!B32+September!B32+October!B32+November!B32+December!B32</f>
-        <v>2155</v>
+        <v>2563</v>
       </c>
       <c r="C32" s="2">
         <f>January!C32+February!C32+March!C32+April!C32+May!C32+June!C32+July!C32+August!C32+September!C32+October!C32+November!C32+December!C32</f>
-        <v>2655</v>
+        <v>3266</v>
       </c>
       <c r="D32" s="2">
         <f>January!D32+February!D32+March!D32+April!D32+May!D32+June!D32+July!D32+August!D32+September!D32+October!D32+November!D32+December!D32</f>
-        <v>-500</v>
+        <v>-703</v>
       </c>
       <c r="E32" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2490,7 +2538,7 @@
       </c>
       <c r="G32" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.81 : 1</v>
+        <v>0.78 : 1</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2499,15 +2547,15 @@
       </c>
       <c r="B33" s="4">
         <f>January!B33+February!B33+March!B33+April!B33+May!B33+June!B33+July!B33+August!B33+September!B33+October!B33+November!B33+December!B33</f>
-        <v>1555</v>
+        <v>1940</v>
       </c>
       <c r="C33" s="4">
         <f>January!C33+February!C33+March!C33+April!C33+May!C33+June!C33+July!C33+August!C33+September!C33+October!C33+November!C33+December!C33</f>
-        <v>2761</v>
+        <v>3326</v>
       </c>
       <c r="D33" s="4">
         <f>January!D33+February!D33+March!D33+April!D33+May!D33+June!D33+July!D33+August!D33+September!D33+October!D33+November!D33+December!D33</f>
-        <v>-1206</v>
+        <v>-1386</v>
       </c>
       <c r="E33" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2519,7 +2567,7 @@
       </c>
       <c r="G33" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>0.56 : 1</v>
+        <v>0.58 : 1</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2528,15 +2576,15 @@
       </c>
       <c r="B34" s="2">
         <f>January!B34+February!B34+March!B34+April!B34+May!B34+June!B34+July!B34+August!B34+September!B34+October!B34+November!B34+December!B34</f>
-        <v>786</v>
+        <v>972</v>
       </c>
       <c r="C34" s="2">
         <f>January!C34+February!C34+March!C34+April!C34+May!C34+June!C34+July!C34+August!C34+September!C34+October!C34+November!C34+December!C34</f>
-        <v>489</v>
+        <v>563</v>
       </c>
       <c r="D34" s="2">
         <f>January!D34+February!D34+March!D34+April!D34+May!D34+June!D34+July!D34+August!D34+September!D34+October!D34+November!D34+December!D34</f>
-        <v>297</v>
+        <v>409</v>
       </c>
       <c r="E34" s="28" t="str">
         <f t="shared" ref="E34:E55" si="3">IF(D34 &gt; 0, "We borrowed more than we lent this year", "")</f>
@@ -2548,7 +2596,7 @@
       </c>
       <c r="G34" s="3" t="str">
         <f t="shared" ref="G34:G55" si="5">IF(ISERROR(ROUND(B34/C34,2)&amp;" : 1"), "", ROUND(B34/C34,2)&amp;" : 1")</f>
-        <v>1.61 : 1</v>
+        <v>1.73 : 1</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2557,15 +2605,15 @@
       </c>
       <c r="B35" s="4">
         <f>January!B35+February!B35+March!B35+April!B35+May!B35+June!B35+July!B35+August!B35+September!B35+October!B35+November!B35+December!B35</f>
-        <v>4063</v>
+        <v>4825</v>
       </c>
       <c r="C35" s="4">
         <f>January!C35+February!C35+March!C35+April!C35+May!C35+June!C35+July!C35+August!C35+September!C35+October!C35+November!C35+December!C35</f>
-        <v>5511</v>
+        <v>6513</v>
       </c>
       <c r="D35" s="4">
         <f>January!D35+February!D35+March!D35+April!D35+May!D35+June!D35+July!D35+August!D35+September!D35+October!D35+November!D35+December!D35</f>
-        <v>-1448</v>
+        <v>-1688</v>
       </c>
       <c r="E35" s="29" t="str">
         <f t="shared" si="3"/>
@@ -2586,15 +2634,15 @@
       </c>
       <c r="B36" s="2">
         <f>January!B36+February!B36+March!B36+April!B36+May!B36+June!B36+July!B36+August!B36+September!B36+October!B36+November!B36+December!B36</f>
-        <v>965</v>
+        <v>1188</v>
       </c>
       <c r="C36" s="2">
         <f>January!C36+February!C36+March!C36+April!C36+May!C36+June!C36+July!C36+August!C36+September!C36+October!C36+November!C36+December!C36</f>
-        <v>2245</v>
+        <v>2698</v>
       </c>
       <c r="D36" s="2">
         <f>January!D36+February!D36+March!D36+April!D36+May!D36+June!D36+July!D36+August!D36+September!D36+October!D36+November!D36+December!D36</f>
-        <v>-1280</v>
+        <v>-1510</v>
       </c>
       <c r="E36" s="28" t="str">
         <f t="shared" si="3"/>
@@ -2606,7 +2654,7 @@
       </c>
       <c r="G36" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>0.43 : 1</v>
+        <v>0.44 : 1</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2615,15 +2663,15 @@
       </c>
       <c r="B37" s="4">
         <f>January!B37+February!B37+March!B37+April!B37+May!B37+June!B37+July!B37+August!B37+September!B37+October!B37+November!B37+December!B37</f>
-        <v>2265</v>
+        <v>2759</v>
       </c>
       <c r="C37" s="4">
         <f>January!C37+February!C37+March!C37+April!C37+May!C37+June!C37+July!C37+August!C37+September!C37+October!C37+November!C37+December!C37</f>
-        <v>1575</v>
+        <v>1840</v>
       </c>
       <c r="D37" s="4">
         <f>January!D37+February!D37+March!D37+April!D37+May!D37+June!D37+July!D37+August!D37+September!D37+October!D37+November!D37+December!D37</f>
-        <v>690</v>
+        <v>919</v>
       </c>
       <c r="E37" s="29" t="str">
         <f t="shared" si="3"/>
@@ -2635,7 +2683,7 @@
       </c>
       <c r="G37" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>1.44 : 1</v>
+        <v>1.5 : 1</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2644,15 +2692,15 @@
       </c>
       <c r="B38" s="2">
         <f>January!B38+February!B38+March!B38+April!B38+May!B38+June!B38+July!B38+August!B38+September!B38+October!B38+November!B38+December!B38</f>
-        <v>142</v>
+        <v>177</v>
       </c>
       <c r="C38" s="2">
         <f>January!C38+February!C38+March!C38+April!C38+May!C38+June!C38+July!C38+August!C38+September!C38+October!C38+November!C38+December!C38</f>
-        <v>902</v>
+        <v>1086</v>
       </c>
       <c r="D38" s="2">
         <f>January!D38+February!D38+March!D38+April!D38+May!D38+June!D38+July!D38+August!D38+September!D38+October!D38+November!D38+December!D38</f>
-        <v>-760</v>
+        <v>-909</v>
       </c>
       <c r="E38" s="28" t="str">
         <f t="shared" si="3"/>
@@ -2673,15 +2721,15 @@
       </c>
       <c r="B39" s="4">
         <f>January!B44+February!B44+March!B44+April!B44+May!B44+June!B44+July!B44+August!B44+September!B44+October!B44+November!B44+December!B44</f>
-        <v>433</v>
+        <v>487</v>
       </c>
       <c r="C39" s="4">
         <f>January!C44+February!C44+March!C44+April!C44+May!C44+June!C44+July!C44+August!C44+September!C44+October!C44+November!C44+December!C44</f>
-        <v>394</v>
+        <v>467</v>
       </c>
       <c r="D39" s="4">
         <f>January!D44+February!D44+March!D44+April!D44+May!D44+June!D44+July!D44+August!D44+September!D44+October!D44+November!D44+December!D44</f>
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E39" s="29" t="str">
         <f t="shared" si="3"/>
@@ -2693,7 +2741,7 @@
       </c>
       <c r="G39" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>1.1 : 1</v>
+        <v>1.04 : 1</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2706,11 +2754,11 @@
       </c>
       <c r="C40" s="8">
         <f>January!C39+February!C39+March!C39+April!C39+May!C39+June!C39+July!C39+August!C39+September!C39+October!C39+November!C39+December!C39</f>
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="D40" s="8">
         <f>January!D39+February!D39+March!D39+April!D39+May!D39+June!D39+July!D39+August!D39+September!D39+October!D39+November!D39+December!D39</f>
-        <v>-360</v>
+        <v>-370</v>
       </c>
       <c r="E40" s="31" t="str">
         <f t="shared" si="3"/>
@@ -2722,7 +2770,7 @@
       </c>
       <c r="G40" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>0.25 : 1</v>
+        <v>0.24 : 1</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2735,11 +2783,11 @@
       </c>
       <c r="C41" s="8">
         <f>January!C40+February!C40+March!C40+April!C40+May!C40+June!C40+July!C40+August!C40+September!C40+October!C40+November!C40+December!C40</f>
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="D41" s="8">
         <f>January!D40+February!D40+March!D40+April!D40+May!D40+June!D40+July!D40+August!D40+September!D40+October!D40+November!D40+December!D40</f>
-        <v>-110</v>
+        <v>-119</v>
       </c>
       <c r="E41" s="31" t="str">
         <f t="shared" si="3"/>
@@ -2751,7 +2799,7 @@
       </c>
       <c r="G41" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>0.77 : 1</v>
+        <v>0.75 : 1</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2764,11 +2812,11 @@
       </c>
       <c r="C42" s="8">
         <f>January!C41+February!C41+March!C41+April!C41+May!C41+June!C41+July!C41+August!C41+September!C41+October!C41+November!C41+December!C41</f>
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D42" s="8">
         <f>January!D41+February!D41+March!D41+April!D41+May!D41+June!D41+July!D41+August!D41+September!D41+October!D41+November!D41+December!D41</f>
-        <v>-169</v>
+        <v>-171</v>
       </c>
       <c r="E42" s="31" t="str">
         <f t="shared" si="3"/>
@@ -2793,11 +2841,11 @@
       </c>
       <c r="C43" s="8">
         <f>January!C42+February!C42+March!C42+April!C42+May!C42+June!C42+July!C42+August!C42+September!C42+October!C42+November!C42+December!C42</f>
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D43" s="8">
         <f>January!D42+February!D42+March!D42+April!D42+May!D42+June!D42+July!D42+August!D42+September!D42+October!D42+November!D42+December!D42</f>
-        <v>-81</v>
+        <v>-83</v>
       </c>
       <c r="E43" s="31" t="str">
         <f t="shared" si="3"/>
@@ -2809,7 +2857,7 @@
       </c>
       <c r="G43" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>0.34 : 1</v>
+        <v>0.33 : 1</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2847,15 +2895,15 @@
       </c>
       <c r="B45" s="2">
         <f>January!B45+February!B45+March!B45+April!B45+May!B45+June!B45+July!B45+August!B45+September!B45+October!B45+November!B45+December!B45</f>
-        <v>346</v>
+        <v>437</v>
       </c>
       <c r="C45" s="2">
         <f>January!C45+February!C45+March!C45+April!C45+May!C45+June!C45+July!C45+August!C45+September!C45+October!C45+November!C45+December!C45</f>
-        <v>874</v>
+        <v>1063</v>
       </c>
       <c r="D45" s="2">
         <f>January!D45+February!D45+March!D45+April!D45+May!D45+June!D45+July!D45+August!D45+September!D45+October!D45+November!D45+December!D45</f>
-        <v>-528</v>
+        <v>-626</v>
       </c>
       <c r="E45" s="28" t="str">
         <f t="shared" si="3"/>
@@ -2867,7 +2915,7 @@
       </c>
       <c r="G45" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>0.4 : 1</v>
+        <v>0.41 : 1</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2876,15 +2924,15 @@
       </c>
       <c r="B46" s="4">
         <f>January!B46+February!B46+March!B46+April!B46+May!B46+June!B46+July!B46+August!B46+September!B46+October!B46+November!B46+December!B46</f>
-        <v>2529</v>
+        <v>2974</v>
       </c>
       <c r="C46" s="4">
         <f>January!C46+February!C46+March!C46+April!C46+May!C46+June!C46+July!C46+August!C46+September!C46+October!C46+November!C46+December!C46</f>
-        <v>2964</v>
+        <v>3488</v>
       </c>
       <c r="D46" s="4">
         <f>January!D46+February!D46+March!D46+April!D46+May!D46+June!D46+July!D46+August!D46+September!D46+October!D46+November!D46+December!D46</f>
-        <v>-435</v>
+        <v>-514</v>
       </c>
       <c r="E46" s="29" t="str">
         <f t="shared" si="3"/>
@@ -2905,15 +2953,15 @@
       </c>
       <c r="B47" s="2">
         <f>January!B47+February!B47+March!B47+April!B47+May!B47+June!B47+July!B47+August!B47+September!B47+October!B47+November!B47+December!B47</f>
-        <v>5285</v>
+        <v>6319</v>
       </c>
       <c r="C47" s="2">
         <f>January!C47+February!C47+March!C47+April!C47+May!C47+June!C47+July!C47+August!C47+September!C47+October!C47+November!C47+December!C47</f>
-        <v>2892</v>
+        <v>3417</v>
       </c>
       <c r="D47" s="2">
         <f>January!D47+February!D47+March!D47+April!D47+May!D47+June!D47+July!D47+August!D47+September!D47+October!D47+November!D47+December!D47</f>
-        <v>2393</v>
+        <v>2902</v>
       </c>
       <c r="E47" s="28" t="str">
         <f t="shared" si="3"/>
@@ -2925,7 +2973,7 @@
       </c>
       <c r="G47" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>1.83 : 1</v>
+        <v>1.85 : 1</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2934,15 +2982,15 @@
       </c>
       <c r="B48" s="4">
         <f>January!B48+February!B48+March!B48+April!B48+May!B48+June!B48+July!B48+August!B48+September!B48+October!B48+November!B48+December!B48</f>
-        <v>1322</v>
+        <v>1537</v>
       </c>
       <c r="C48" s="4">
         <f>January!C48+February!C48+March!C48+April!C48+May!C48+June!C48+July!C48+August!C48+September!C48+October!C48+November!C48+December!C48</f>
-        <v>2921</v>
+        <v>3418</v>
       </c>
       <c r="D48" s="4">
         <f>January!D48+February!D48+March!D48+April!D48+May!D48+June!D48+July!D48+August!D48+September!D48+October!D48+November!D48+December!D48</f>
-        <v>-1599</v>
+        <v>-1881</v>
       </c>
       <c r="E48" s="29" t="str">
         <f t="shared" si="3"/>
@@ -2963,15 +3011,15 @@
       </c>
       <c r="B49" s="2">
         <f>January!B49+February!B49+March!B49+April!B49+May!B49+June!B49+July!B49+August!B49+September!B49+October!B49+November!B49+December!B49</f>
-        <v>2613</v>
+        <v>3117</v>
       </c>
       <c r="C49" s="2">
         <f>January!C49+February!C49+March!C49+April!C49+May!C49+June!C49+July!C49+August!C49+September!C49+October!C49+November!C49+December!C49</f>
-        <v>1203</v>
+        <v>1479</v>
       </c>
       <c r="D49" s="2">
         <f>January!D49+February!D49+March!D49+April!D49+May!D49+June!D49+July!D49+August!D49+September!D49+October!D49+November!D49+December!D49</f>
-        <v>1410</v>
+        <v>1638</v>
       </c>
       <c r="E49" s="28" t="str">
         <f t="shared" si="3"/>
@@ -2983,7 +3031,7 @@
       </c>
       <c r="G49" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>2.17 : 1</v>
+        <v>2.11 : 1</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2992,15 +3040,15 @@
       </c>
       <c r="B50" s="4">
         <f>January!B50+February!B50+March!B50+April!B50+May!B50+June!B50+July!B50+August!B50+September!B50+October!B50+November!B50+December!B50</f>
-        <v>4616</v>
+        <v>5585</v>
       </c>
       <c r="C50" s="4">
         <f>January!C50+February!C50+March!C50+April!C50+May!C50+June!C50+July!C50+August!C50+September!C50+October!C50+November!C50+December!C50</f>
-        <v>2624</v>
+        <v>3232</v>
       </c>
       <c r="D50" s="4">
         <f>January!D50+February!D50+March!D50+April!D50+May!D50+June!D50+July!D50+August!D50+September!D50+October!D50+November!D50+December!D50</f>
-        <v>1992</v>
+        <v>2353</v>
       </c>
       <c r="E50" s="29" t="str">
         <f t="shared" si="3"/>
@@ -3012,7 +3060,7 @@
       </c>
       <c r="G50" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>1.76 : 1</v>
+        <v>1.73 : 1</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3021,15 +3069,15 @@
       </c>
       <c r="B51" s="2">
         <f>January!B51+February!B51+March!B51+April!B51+May!B51+June!B51+July!B51+August!B51+September!B51+October!B51+November!B51+December!B51</f>
-        <v>1036</v>
+        <v>1239</v>
       </c>
       <c r="C51" s="2">
         <f>January!C51+February!C51+March!C51+April!C51+May!C51+June!C51+July!C51+August!C51+September!C51+October!C51+November!C51+December!C51</f>
-        <v>866</v>
+        <v>1027</v>
       </c>
       <c r="D51" s="2">
         <f>January!D51+February!D51+March!D51+April!D51+May!D51+June!D51+July!D51+August!D51+September!D51+October!D51+November!D51+December!D51</f>
-        <v>170</v>
+        <v>212</v>
       </c>
       <c r="E51" s="28" t="str">
         <f t="shared" si="3"/>
@@ -3041,7 +3089,7 @@
       </c>
       <c r="G51" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>1.2 : 1</v>
+        <v>1.21 : 1</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3050,15 +3098,15 @@
       </c>
       <c r="B52" s="4">
         <f>January!B52+February!B52+March!B52+April!B52+May!B52+June!B52+July!B52+August!B52+September!B52+October!B52+November!B52+December!B52</f>
-        <v>1732</v>
+        <v>2052</v>
       </c>
       <c r="C52" s="4">
         <f>January!C52+February!C52+March!C52+April!C52+May!C52+June!C52+July!C52+August!C52+September!C52+October!C52+November!C52+December!C52</f>
-        <v>2000</v>
+        <v>2407</v>
       </c>
       <c r="D52" s="4">
         <f>January!D52+February!D52+March!D52+April!D52+May!D52+June!D52+July!D52+August!D52+September!D52+October!D52+November!D52+December!D52</f>
-        <v>-268</v>
+        <v>-355</v>
       </c>
       <c r="E52" s="29" t="str">
         <f t="shared" si="3"/>
@@ -3070,7 +3118,7 @@
       </c>
       <c r="G52" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>0.87 : 1</v>
+        <v>0.85 : 1</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3079,15 +3127,15 @@
       </c>
       <c r="B53" s="2">
         <f>January!B53+February!B53+March!B53+April!B53+May!B53+June!B53+July!B53+August!B53+September!B53+October!B53+November!B53+December!B53</f>
-        <v>608</v>
+        <v>711</v>
       </c>
       <c r="C53" s="2">
         <f>January!C53+February!C53+March!C53+April!C53+May!C53+June!C53+July!C53+August!C53+September!C53+October!C53+November!C53+December!C53</f>
-        <v>1093</v>
+        <v>1330</v>
       </c>
       <c r="D53" s="2">
         <f>January!D53+February!D53+March!D53+April!D53+May!D53+June!D53+July!D53+August!D53+September!D53+October!D53+November!D53+December!D53</f>
-        <v>-485</v>
+        <v>-619</v>
       </c>
       <c r="E53" s="28" t="str">
         <f t="shared" si="3"/>
@@ -3099,7 +3147,7 @@
       </c>
       <c r="G53" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>0.56 : 1</v>
+        <v>0.53 : 1</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3108,15 +3156,15 @@
       </c>
       <c r="B54" s="4">
         <f>January!B54+February!B54+March!B54+April!B54+May!B54+June!B54+July!B54+August!B54+September!B54+October!B54+November!B54+December!B54</f>
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="C54" s="4">
         <f>January!C54+February!C54+March!C54+April!C54+May!C54+June!C54+July!C54+August!C54+September!C54+October!C54+November!C54+December!C54</f>
-        <v>1071</v>
+        <v>1284</v>
       </c>
       <c r="D54" s="4">
         <f>January!D54+February!D54+March!D54+April!D54+May!D54+June!D54+July!D54+August!D54+September!D54+October!D54+November!D54+December!D54</f>
-        <v>-981</v>
+        <v>-1166</v>
       </c>
       <c r="E54" s="29" t="str">
         <f t="shared" si="3"/>
@@ -3128,7 +3176,7 @@
       </c>
       <c r="G54" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>0.08 : 1</v>
+        <v>0.09 : 1</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3137,15 +3185,15 @@
       </c>
       <c r="B55" s="10">
         <f>January!B55+February!B55+March!B55+April!B55+May!B55+June!B55+July!B55+August!B55+September!B55+October!B55+November!B55+December!B55</f>
-        <v>1467</v>
+        <v>1830</v>
       </c>
       <c r="C55" s="10">
         <f>January!C55+February!C55+March!C55+April!C55+May!C55+June!C55+July!C55+August!C55+September!C55+October!C55+November!C55+December!C55</f>
-        <v>1034</v>
+        <v>1206</v>
       </c>
       <c r="D55" s="10">
         <f>January!D55+February!D55+March!D55+April!D55+May!D55+June!D55+July!D55+August!D55+September!D55+October!D55+November!D55+December!D55</f>
-        <v>433</v>
+        <v>624</v>
       </c>
       <c r="E55" s="32" t="str">
         <f t="shared" si="3"/>
@@ -3157,7 +3205,7 @@
       </c>
       <c r="G55" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>1.42 : 1</v>
+        <v>1.52 : 1</v>
       </c>
     </row>
   </sheetData>
@@ -11763,7 +11811,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -11807,108 +11855,204 @@
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="28"/>
+      <c r="B2" s="18">
+        <v>1367</v>
+      </c>
+      <c r="C2" s="18">
+        <v>1151</v>
+      </c>
+      <c r="D2" s="18">
+        <v>216</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F2" s="28"/>
-      <c r="G2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="29"/>
+      <c r="B3" s="21">
+        <v>648</v>
+      </c>
+      <c r="C3" s="21">
+        <v>370</v>
+      </c>
+      <c r="D3" s="21">
+        <v>278</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F3" s="29"/>
-      <c r="G3" s="5"/>
+      <c r="G3" s="5" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="28"/>
+      <c r="B4" s="18">
+        <v>1120</v>
+      </c>
+      <c r="C4" s="18">
+        <v>1014</v>
+      </c>
+      <c r="D4" s="18">
+        <v>106</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F4" s="28"/>
-      <c r="G4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
+      <c r="B5" s="21">
+        <v>44</v>
+      </c>
+      <c r="C5" s="21">
+        <v>171</v>
+      </c>
+      <c r="D5" s="21">
+        <v>-127</v>
+      </c>
       <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="5"/>
+      <c r="F5" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
+      <c r="B6" s="18">
+        <v>1008</v>
+      </c>
+      <c r="C6" s="18">
+        <v>1389</v>
+      </c>
+      <c r="D6" s="18">
+        <v>-381</v>
+      </c>
       <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="3"/>
+      <c r="F6" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="29"/>
+      <c r="B7" s="21">
+        <v>259</v>
+      </c>
+      <c r="C7" s="21">
+        <v>153</v>
+      </c>
+      <c r="D7" s="21">
+        <v>106</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F7" s="29"/>
-      <c r="G7" s="5"/>
+      <c r="G7" s="5" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
+      <c r="B8" s="18">
+        <v>177</v>
+      </c>
+      <c r="C8" s="18">
+        <v>205</v>
+      </c>
+      <c r="D8" s="18">
+        <v>-28</v>
+      </c>
       <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
+      <c r="B9" s="21">
+        <v>45</v>
+      </c>
+      <c r="C9" s="21">
+        <v>69</v>
+      </c>
+      <c r="D9" s="21">
+        <v>-24</v>
+      </c>
       <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="5"/>
+      <c r="F9" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
+      <c r="B10" s="18">
+        <v>7</v>
+      </c>
+      <c r="C10" s="18">
+        <v>38</v>
+      </c>
+      <c r="D10" s="18">
+        <v>-31</v>
+      </c>
       <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="3"/>
+      <c r="F10" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
+      <c r="B11" s="21">
+        <v>0</v>
+      </c>
+      <c r="C11" s="21">
+        <v>0</v>
+      </c>
+      <c r="D11" s="21">
+        <v>0</v>
+      </c>
       <c r="E11" s="29"/>
       <c r="F11" s="29"/>
       <c r="G11" s="5"/>
@@ -11917,163 +12061,309 @@
       <c r="A12" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="30"/>
+      <c r="B12" s="23">
+        <v>36</v>
+      </c>
+      <c r="C12" s="23">
+        <v>16</v>
+      </c>
+      <c r="D12" s="23">
+        <v>20</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>61</v>
+      </c>
       <c r="F12" s="30"/>
-      <c r="G12" s="7"/>
+      <c r="G12" s="7" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="30"/>
+      <c r="B13" s="23">
+        <v>141</v>
+      </c>
+      <c r="C13" s="23">
+        <v>86</v>
+      </c>
+      <c r="D13" s="23">
+        <v>55</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>61</v>
+      </c>
       <c r="F13" s="30"/>
-      <c r="G13" s="7"/>
+      <c r="G13" s="7" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
+      <c r="B14" s="23">
+        <v>97</v>
+      </c>
+      <c r="C14" s="23">
+        <v>242</v>
+      </c>
+      <c r="D14" s="23">
+        <v>-145</v>
+      </c>
       <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="7"/>
+      <c r="F14" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
+      <c r="B15" s="23">
+        <v>82</v>
+      </c>
+      <c r="C15" s="23">
+        <v>134</v>
+      </c>
+      <c r="D15" s="23">
+        <v>-52</v>
+      </c>
       <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="7"/>
+      <c r="F15" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
+      <c r="B16" s="18">
+        <v>65</v>
+      </c>
+      <c r="C16" s="18">
+        <v>147</v>
+      </c>
+      <c r="D16" s="18">
+        <v>-82</v>
+      </c>
       <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="3"/>
+      <c r="F16" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="29"/>
+      <c r="B17" s="21">
+        <v>573</v>
+      </c>
+      <c r="C17" s="21">
+        <v>466</v>
+      </c>
+      <c r="D17" s="21">
+        <v>107</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F17" s="29"/>
-      <c r="G17" s="5"/>
+      <c r="G17" s="5" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
+      <c r="B18" s="18">
+        <v>71</v>
+      </c>
+      <c r="C18" s="18">
+        <v>126</v>
+      </c>
+      <c r="D18" s="18">
+        <v>-55</v>
+      </c>
       <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="3"/>
+      <c r="F18" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="29"/>
+      <c r="B19" s="21">
+        <v>482</v>
+      </c>
+      <c r="C19" s="21">
+        <v>359</v>
+      </c>
+      <c r="D19" s="21">
+        <v>123</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F19" s="29"/>
-      <c r="G19" s="5"/>
+      <c r="G19" s="5" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
+      <c r="B20" s="18">
+        <v>1</v>
+      </c>
+      <c r="C20" s="18">
+        <v>59</v>
+      </c>
+      <c r="D20" s="18">
+        <v>-58</v>
+      </c>
       <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="3"/>
+      <c r="F20" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="29"/>
+      <c r="B21" s="21">
+        <v>640</v>
+      </c>
+      <c r="C21" s="21">
+        <v>357</v>
+      </c>
+      <c r="D21" s="21">
+        <v>283</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F21" s="29"/>
-      <c r="G21" s="5"/>
+      <c r="G21" s="5" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
+      <c r="B22" s="18">
+        <v>23</v>
+      </c>
+      <c r="C22" s="18">
+        <v>82</v>
+      </c>
+      <c r="D22" s="18">
+        <v>-59</v>
+      </c>
       <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="3"/>
+      <c r="F22" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="29"/>
+      <c r="B23" s="21">
+        <v>668</v>
+      </c>
+      <c r="C23" s="21">
+        <v>373</v>
+      </c>
+      <c r="D23" s="21">
+        <v>295</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F23" s="29"/>
-      <c r="G23" s="5"/>
+      <c r="G23" s="5" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="28"/>
+      <c r="B24" s="18">
+        <v>1338</v>
+      </c>
+      <c r="C24" s="18">
+        <v>1274</v>
+      </c>
+      <c r="D24" s="18">
+        <v>64</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F24" s="28"/>
-      <c r="G24" s="3"/>
+      <c r="G24" s="3" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
+      <c r="B25" s="21">
+        <v>182</v>
+      </c>
+      <c r="C25" s="21">
+        <v>370</v>
+      </c>
+      <c r="D25" s="21">
+        <v>-188</v>
+      </c>
       <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="5"/>
+      <c r="F25" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
+      <c r="B26" s="18">
+        <v>0</v>
+      </c>
+      <c r="C26" s="18">
+        <v>0</v>
+      </c>
+      <c r="D26" s="18">
+        <v>0</v>
+      </c>
       <c r="E26" s="28"/>
       <c r="F26" s="28"/>
       <c r="G26" s="3"/>
@@ -12082,185 +12372,351 @@
       <c r="A27" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="29"/>
+      <c r="B27" s="21">
+        <v>277</v>
+      </c>
+      <c r="C27" s="21">
+        <v>189</v>
+      </c>
+      <c r="D27" s="21">
+        <v>88</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F27" s="29"/>
-      <c r="G27" s="5"/>
+      <c r="G27" s="5" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
+      <c r="B28" s="18">
+        <v>61</v>
+      </c>
+      <c r="C28" s="18">
+        <v>96</v>
+      </c>
+      <c r="D28" s="18">
+        <v>-35</v>
+      </c>
       <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="3"/>
+      <c r="F28" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
+      <c r="B29" s="21">
+        <v>394</v>
+      </c>
+      <c r="C29" s="21">
+        <v>425</v>
+      </c>
+      <c r="D29" s="21">
+        <v>-31</v>
+      </c>
       <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="5"/>
+      <c r="F29" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="28"/>
+      <c r="B30" s="18">
+        <v>44</v>
+      </c>
+      <c r="C30" s="18">
+        <v>26</v>
+      </c>
+      <c r="D30" s="18">
+        <v>18</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F30" s="28"/>
-      <c r="G30" s="3"/>
+      <c r="G30" s="3" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
+      <c r="B31" s="21">
+        <v>32</v>
+      </c>
+      <c r="C31" s="21">
+        <v>258</v>
+      </c>
+      <c r="D31" s="21">
+        <v>-226</v>
+      </c>
       <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="5"/>
+      <c r="F31" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
+      <c r="B32" s="18">
+        <v>408</v>
+      </c>
+      <c r="C32" s="18">
+        <v>611</v>
+      </c>
+      <c r="D32" s="18">
+        <v>-203</v>
+      </c>
       <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="3"/>
+      <c r="F32" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
+      <c r="B33" s="21">
+        <v>385</v>
+      </c>
+      <c r="C33" s="21">
+        <v>565</v>
+      </c>
+      <c r="D33" s="21">
+        <v>-180</v>
+      </c>
       <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="5"/>
+      <c r="F33" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="28"/>
+      <c r="B34" s="18">
+        <v>186</v>
+      </c>
+      <c r="C34" s="18">
+        <v>74</v>
+      </c>
+      <c r="D34" s="18">
+        <v>112</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F34" s="28"/>
-      <c r="G34" s="3"/>
+      <c r="G34" s="3" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
+      <c r="B35" s="21">
+        <v>762</v>
+      </c>
+      <c r="C35" s="21">
+        <v>1002</v>
+      </c>
+      <c r="D35" s="21">
+        <v>-240</v>
+      </c>
       <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="5"/>
+      <c r="F35" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
+      <c r="B36" s="18">
+        <v>223</v>
+      </c>
+      <c r="C36" s="18">
+        <v>453</v>
+      </c>
+      <c r="D36" s="18">
+        <v>-230</v>
+      </c>
       <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="3"/>
+      <c r="F36" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="29"/>
+      <c r="B37" s="21">
+        <v>494</v>
+      </c>
+      <c r="C37" s="21">
+        <v>265</v>
+      </c>
+      <c r="D37" s="21">
+        <v>229</v>
+      </c>
+      <c r="E37" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F37" s="29"/>
-      <c r="G37" s="5"/>
+      <c r="G37" s="5" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
+      <c r="B38" s="18">
+        <v>35</v>
+      </c>
+      <c r="C38" s="18">
+        <v>184</v>
+      </c>
+      <c r="D38" s="18">
+        <v>-149</v>
+      </c>
       <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="3"/>
+      <c r="F38" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
+      <c r="B39" s="25">
+        <v>0</v>
+      </c>
+      <c r="C39" s="25">
+        <v>10</v>
+      </c>
+      <c r="D39" s="25">
+        <v>-10</v>
+      </c>
       <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="9"/>
+      <c r="F39" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
+      <c r="B40" s="25">
+        <v>0</v>
+      </c>
+      <c r="C40" s="25">
+        <v>9</v>
+      </c>
+      <c r="D40" s="25">
+        <v>-9</v>
+      </c>
       <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="9"/>
+      <c r="F40" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
+      <c r="B41" s="25">
+        <v>0</v>
+      </c>
+      <c r="C41" s="25">
+        <v>2</v>
+      </c>
+      <c r="D41" s="25">
+        <v>-2</v>
+      </c>
       <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="9"/>
+      <c r="F41" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
+      <c r="B42" s="25">
+        <v>0</v>
+      </c>
+      <c r="C42" s="25">
+        <v>2</v>
+      </c>
+      <c r="D42" s="25">
+        <v>-2</v>
+      </c>
       <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="9"/>
+      <c r="F42" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
+      <c r="B43" s="25">
+        <v>0</v>
+      </c>
+      <c r="C43" s="25">
+        <v>0</v>
+      </c>
+      <c r="D43" s="25">
+        <v>0</v>
+      </c>
       <c r="E43" s="31"/>
       <c r="F43" s="31"/>
       <c r="G43" s="9"/>
@@ -12269,133 +12725,253 @@
       <c r="A44" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
+      <c r="B44" s="21">
+        <v>54</v>
+      </c>
+      <c r="C44" s="21">
+        <v>73</v>
+      </c>
+      <c r="D44" s="21">
+        <v>-19</v>
+      </c>
       <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="5"/>
+      <c r="F44" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
+      <c r="B45" s="18">
+        <v>91</v>
+      </c>
+      <c r="C45" s="18">
+        <v>189</v>
+      </c>
+      <c r="D45" s="18">
+        <v>-98</v>
+      </c>
       <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="3"/>
+      <c r="F45" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
+      <c r="B46" s="21">
+        <v>445</v>
+      </c>
+      <c r="C46" s="21">
+        <v>524</v>
+      </c>
+      <c r="D46" s="21">
+        <v>-79</v>
+      </c>
       <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="5"/>
+      <c r="F46" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="28"/>
+      <c r="B47" s="18">
+        <v>1034</v>
+      </c>
+      <c r="C47" s="18">
+        <v>525</v>
+      </c>
+      <c r="D47" s="18">
+        <v>509</v>
+      </c>
+      <c r="E47" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F47" s="28"/>
-      <c r="G47" s="3"/>
+      <c r="G47" s="3" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
+      <c r="B48" s="21">
+        <v>215</v>
+      </c>
+      <c r="C48" s="21">
+        <v>497</v>
+      </c>
+      <c r="D48" s="21">
+        <v>-282</v>
+      </c>
       <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="5"/>
+      <c r="F48" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="28"/>
+      <c r="B49" s="18">
+        <v>504</v>
+      </c>
+      <c r="C49" s="18">
+        <v>276</v>
+      </c>
+      <c r="D49" s="18">
+        <v>228</v>
+      </c>
+      <c r="E49" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F49" s="28"/>
-      <c r="G49" s="3"/>
+      <c r="G49" s="3" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="29"/>
+      <c r="B50" s="21">
+        <v>969</v>
+      </c>
+      <c r="C50" s="21">
+        <v>608</v>
+      </c>
+      <c r="D50" s="21">
+        <v>361</v>
+      </c>
+      <c r="E50" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F50" s="29"/>
-      <c r="G50" s="5"/>
+      <c r="G50" s="5" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="28"/>
+      <c r="B51" s="18">
+        <v>203</v>
+      </c>
+      <c r="C51" s="18">
+        <v>161</v>
+      </c>
+      <c r="D51" s="18">
+        <v>42</v>
+      </c>
+      <c r="E51" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F51" s="28"/>
-      <c r="G51" s="3"/>
+      <c r="G51" s="3" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
+      <c r="B52" s="21">
+        <v>320</v>
+      </c>
+      <c r="C52" s="21">
+        <v>407</v>
+      </c>
+      <c r="D52" s="21">
+        <v>-87</v>
+      </c>
       <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="5"/>
+      <c r="F52" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
+      <c r="B53" s="18">
+        <v>103</v>
+      </c>
+      <c r="C53" s="18">
+        <v>237</v>
+      </c>
+      <c r="D53" s="18">
+        <v>-134</v>
+      </c>
       <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="3"/>
+      <c r="F53" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B54" s="21"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
+      <c r="B54" s="21">
+        <v>28</v>
+      </c>
+      <c r="C54" s="21">
+        <v>213</v>
+      </c>
+      <c r="D54" s="21">
+        <v>-185</v>
+      </c>
       <c r="E54" s="29"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="5"/>
+      <c r="F54" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="B55" s="27"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="32"/>
+      <c r="B55" s="27">
+        <v>363</v>
+      </c>
+      <c r="C55" s="27">
+        <v>172</v>
+      </c>
+      <c r="D55" s="27">
+        <v>191</v>
+      </c>
+      <c r="E55" s="32" t="s">
+        <v>61</v>
+      </c>
       <c r="F55" s="32"/>
-      <c r="G55" s="11"/>
+      <c r="G55" s="11" t="s">
+        <v>225</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G55" xr:uid="{00000000-0009-0000-0000-000006000000}"/>

--- a/statistics_files/2024/2024_99_g_net_borrower_lender.xlsx
+++ b/statistics_files/2024/2024_99_g_net_borrower_lender.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20412"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\github\next_statistics\statistics_files\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734E8F59-7D80-4CDA-A48C-53D6E1A327F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05991BA-1704-4876-AEE3-CD3065935A6B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="673" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="673" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Yearly totals" sheetId="1" r:id="rId1"/>
@@ -47,21 +47,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="242">
   <si>
     <t>NET</t>
   </si>
@@ -739,6 +730,54 @@
   </si>
   <si>
     <t>2.11 : 1</t>
+  </si>
+  <si>
+    <t>1.31 : 1</t>
+  </si>
+  <si>
+    <t>2.48 : 1</t>
+  </si>
+  <si>
+    <t>1.84 : 1</t>
+  </si>
+  <si>
+    <t>1.14 : 1</t>
+  </si>
+  <si>
+    <t>0.31 : 1</t>
+  </si>
+  <si>
+    <t>1.08 : 1</t>
+  </si>
+  <si>
+    <t>2.40 : 1</t>
+  </si>
+  <si>
+    <t>0.84 : 1</t>
+  </si>
+  <si>
+    <t>1.78 : 1</t>
+  </si>
+  <si>
+    <t>0.45 : 1</t>
+  </si>
+  <si>
+    <t>1.61 : 1</t>
+  </si>
+  <si>
+    <t>0.95 : 1</t>
+  </si>
+  <si>
+    <t>2.16 : 1</t>
+  </si>
+  <si>
+    <t>2.13 : 1</t>
+  </si>
+  <si>
+    <t>1.77 : 1</t>
+  </si>
+  <si>
+    <t>1.53 : 1</t>
   </si>
 </sst>
 </file>
@@ -1602,7 +1641,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection sqref="A1:XFD1048576"/>
       <selection pane="topRight" sqref="A1:XFD1048576"/>
@@ -1610,16 +1649,16 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" style="19" customWidth="1"/>
-    <col min="2" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="6" width="25.7109375" style="13" customWidth="1"/>
-    <col min="7" max="7" width="28.7109375" customWidth="1"/>
+    <col min="1" max="1" width="45.69140625" style="19" customWidth="1"/>
+    <col min="2" max="3" width="30.69140625" customWidth="1"/>
+    <col min="4" max="4" width="20.69140625" customWidth="1"/>
+    <col min="5" max="6" width="25.69140625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="28.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
@@ -1642,21 +1681,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2">
         <f>January!B2+February!B2+March!B2+April!B2+May!B2+June!B2+July!B2+August!B2+September!B2+October!B2+November!B2+December!B2</f>
-        <v>8140</v>
+        <v>9704</v>
       </c>
       <c r="C2" s="2">
         <f>January!C2+February!C2+March!C2+April!C2+May!C2+June!C2+July!C2+August!C2+September!C2+October!C2+November!C2+December!C2</f>
-        <v>7055</v>
+        <v>8253</v>
       </c>
       <c r="D2" s="2">
         <f>January!D2+February!D2+March!D2+April!D2+May!D2+June!D2+July!D2+August!D2+September!D2+October!D2+November!D2+December!D2</f>
-        <v>1085</v>
+        <v>1451</v>
       </c>
       <c r="E2" s="28" t="str">
         <f t="shared" ref="E2:E33" si="0">IF(D2 &gt; 0, "We borrowed more than we lent this year", "")</f>
@@ -1668,24 +1707,24 @@
       </c>
       <c r="G2" s="3" t="str">
         <f t="shared" ref="G2:G33" si="2">IF(ISERROR(ROUND(B2/C2,2)&amp;" : 1"), "", ROUND(B2/C2,2)&amp;" : 1")</f>
-        <v>1.15 : 1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1.18 : 1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="20" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="4">
         <f>January!B3+February!B3+March!B3+April!B3+May!B3+June!B3+July!B3+August!B3+September!B3+October!B3+November!B3+December!B3</f>
-        <v>3496</v>
+        <v>4184</v>
       </c>
       <c r="C3" s="4">
         <f>January!C3+February!C3+March!C3+April!C3+May!C3+June!C3+July!C3+August!C3+September!C3+October!C3+November!C3+December!C3</f>
-        <v>2622</v>
+        <v>3018</v>
       </c>
       <c r="D3" s="4">
         <f>January!D3+February!D3+March!D3+April!D3+May!D3+June!D3+July!D3+August!D3+September!D3+October!D3+November!D3+December!D3</f>
-        <v>874</v>
+        <v>1166</v>
       </c>
       <c r="E3" s="29" t="str">
         <f t="shared" si="0"/>
@@ -1697,53 +1736,53 @@
       </c>
       <c r="G3" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>1.33 : 1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1.39 : 1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="2">
         <f>January!B4+February!B4+March!B4+April!B4+May!B4+June!B4+July!B4+August!B4+September!B4+October!B4+November!B4+December!B4</f>
-        <v>7125</v>
+        <v>8293</v>
       </c>
       <c r="C4" s="2">
         <f>January!C4+February!C4+March!C4+April!C4+May!C4+June!C4+July!C4+August!C4+September!C4+October!C4+November!C4+December!C4</f>
-        <v>7127</v>
+        <v>8238</v>
       </c>
       <c r="D4" s="2">
         <f>January!D4+February!D4+March!D4+April!D4+May!D4+June!D4+July!D4+August!D4+September!D4+October!D4+November!D4+December!D4</f>
-        <v>-2</v>
+        <v>55</v>
       </c>
       <c r="E4" s="28" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>We borrowed more than we lent this year</v>
       </c>
       <c r="F4" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>We lent more than we borrowed this year</v>
+        <v/>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>1 : 1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1.01 : 1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="4">
         <f>January!B5+February!B5+March!B5+April!B5+May!B5+June!B5+July!B5+August!B5+September!B5+October!B5+November!B5+December!B5</f>
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="C5" s="4">
         <f>January!C5+February!C5+March!C5+April!C5+May!C5+June!C5+July!C5+August!C5+September!C5+October!C5+November!C5+December!C5</f>
-        <v>756</v>
+        <v>886</v>
       </c>
       <c r="D5" s="4">
         <f>January!D5+February!D5+March!D5+April!D5+May!D5+June!D5+July!D5+August!D5+September!D5+October!D5+November!D5+December!D5</f>
-        <v>-515</v>
+        <v>-574</v>
       </c>
       <c r="E5" s="29" t="str">
         <f t="shared" si="0"/>
@@ -1755,24 +1794,24 @@
       </c>
       <c r="G5" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>0.32 : 1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.35 : 1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="2">
         <f>January!B6+February!B6+March!B6+April!B6+May!B6+June!B6+July!B6+August!B6+September!B6+October!B6+November!B6+December!B6</f>
-        <v>6397</v>
+        <v>7285</v>
       </c>
       <c r="C6" s="2">
         <f>January!C6+February!C6+March!C6+April!C6+May!C6+June!C6+July!C6+August!C6+September!C6+October!C6+November!C6+December!C6</f>
-        <v>8396</v>
+        <v>9766</v>
       </c>
       <c r="D6" s="2">
         <f>January!D6+February!D6+March!D6+April!D6+May!D6+June!D6+July!D6+August!D6+September!D6+October!D6+November!D6+December!D6</f>
-        <v>-1999</v>
+        <v>-2481</v>
       </c>
       <c r="E6" s="28" t="str">
         <f t="shared" si="0"/>
@@ -1784,24 +1823,24 @@
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.76 : 1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.75 : 1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="20" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="4">
         <f>January!B7+February!B7+March!B7+April!B7+May!B7+June!B7+July!B7+August!B7+September!B7+October!B7+November!B7+December!B7</f>
-        <v>1870</v>
+        <v>2076</v>
       </c>
       <c r="C7" s="4">
         <f>January!C7+February!C7+March!C7+April!C7+May!C7+June!C7+July!C7+August!C7+September!C7+October!C7+November!C7+December!C7</f>
-        <v>866</v>
+        <v>1087</v>
       </c>
       <c r="D7" s="4">
         <f>January!D7+February!D7+March!D7+April!D7+May!D7+June!D7+July!D7+August!D7+September!D7+October!D7+November!D7+December!D7</f>
-        <v>1004</v>
+        <v>989</v>
       </c>
       <c r="E7" s="29" t="str">
         <f t="shared" si="0"/>
@@ -1813,24 +1852,24 @@
       </c>
       <c r="G7" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>2.16 : 1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1.91 : 1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="2">
         <f>January!B8+February!B8+March!B8+April!B8+May!B8+June!B8+July!B8+August!B8+September!B8+October!B8+November!B8+December!B8</f>
-        <v>762</v>
+        <v>915</v>
       </c>
       <c r="C8" s="2">
         <f>January!C8+February!C8+March!C8+April!C8+May!C8+June!C8+July!C8+August!C8+September!C8+October!C8+November!C8+December!C8</f>
-        <v>1112</v>
+        <v>1331</v>
       </c>
       <c r="D8" s="2">
         <f>January!D8+February!D8+March!D8+April!D8+May!D8+June!D8+July!D8+August!D8+September!D8+October!D8+November!D8+December!D8</f>
-        <v>-350</v>
+        <v>-416</v>
       </c>
       <c r="E8" s="28" t="str">
         <f t="shared" si="0"/>
@@ -1845,21 +1884,21 @@
         <v>0.69 : 1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="20" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="4">
         <f>January!B9+February!B9+March!B9+April!B9+May!B9+June!B9+July!B9+August!B9+September!B9+October!B9+November!B9+December!B9</f>
-        <v>295</v>
+        <v>329</v>
       </c>
       <c r="C9" s="4">
         <f>January!C9+February!C9+March!C9+April!C9+May!C9+June!C9+July!C9+August!C9+September!C9+October!C9+November!C9+December!C9</f>
-        <v>437</v>
+        <v>492</v>
       </c>
       <c r="D9" s="4">
         <f>January!D9+February!D9+March!D9+April!D9+May!D9+June!D9+July!D9+August!D9+September!D9+October!D9+November!D9+December!D9</f>
-        <v>-142</v>
+        <v>-163</v>
       </c>
       <c r="E9" s="29" t="str">
         <f t="shared" si="0"/>
@@ -1871,24 +1910,24 @@
       </c>
       <c r="G9" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>0.68 : 1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.67 : 1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="2">
         <f>January!B10+February!B10+March!B10+April!B10+May!B10+June!B10+July!B10+August!B10+September!B10+October!B10+November!B10+December!B10</f>
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2">
         <f>January!C10+February!C10+March!C10+April!C10+May!C10+June!C10+July!C10+August!C10+September!C10+October!C10+November!C10+December!C10</f>
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="D10" s="2">
         <f>January!D10+February!D10+March!D10+April!D10+May!D10+June!D10+July!D10+August!D10+September!D10+October!D10+November!D10+December!D10</f>
-        <v>-287</v>
+        <v>-325</v>
       </c>
       <c r="E10" s="28" t="str">
         <f t="shared" si="0"/>
@@ -1900,10 +1939,10 @@
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.03 : 1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.06 : 1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="20" t="s">
         <v>16</v>
       </c>
@@ -1913,11 +1952,11 @@
       </c>
       <c r="C11" s="4">
         <f>January!C11+February!C11+March!C11+April!C11+May!C11+June!C11+July!C11+August!C11+September!C11+October!C11+November!C11+December!C11</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D11" s="4">
         <f>January!D11+February!D11+March!D11+April!D11+May!D11+June!D11+July!D11+August!D11+September!D11+October!D11+November!D11+December!D11</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E11" s="29" t="str">
         <f t="shared" si="0"/>
@@ -1925,28 +1964,28 @@
       </c>
       <c r="F11" s="29" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>We lent more than we borrowed this year</v>
       </c>
       <c r="G11" s="5" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0 : 1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="22" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="6">
         <f>January!B12+February!B12+March!B12+April!B12+May!B12+June!B12+July!B12+August!B12+September!B12+October!B12+November!B12+December!B12</f>
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="C12" s="6">
         <f>January!C12+February!C12+March!C12+April!C12+May!C12+June!C12+July!C12+August!C12+September!C12+October!C12+November!C12+December!C12</f>
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="D12" s="6">
         <f>January!D12+February!D12+March!D12+April!D12+May!D12+June!D12+July!D12+August!D12+September!D12+October!D12+November!D12+December!D12</f>
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E12" s="30" t="str">
         <f t="shared" si="0"/>
@@ -1958,24 +1997,24 @@
       </c>
       <c r="G12" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>1.63 : 1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1.57 : 1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="22" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="6">
         <f>January!B13+February!B13+March!B13+April!B13+May!B13+June!B13+July!B13+August!B13+September!B13+October!B13+November!B13+December!B13</f>
-        <v>967</v>
+        <v>1133</v>
       </c>
       <c r="C13" s="6">
         <f>January!C13+February!C13+March!C13+April!C13+May!C13+June!C13+July!C13+August!C13+September!C13+October!C13+November!C13+December!C13</f>
-        <v>534</v>
+        <v>601</v>
       </c>
       <c r="D13" s="6">
         <f>January!D13+February!D13+March!D13+April!D13+May!D13+June!D13+July!D13+August!D13+September!D13+October!D13+November!D13+December!D13</f>
-        <v>433</v>
+        <v>532</v>
       </c>
       <c r="E13" s="30" t="str">
         <f t="shared" si="0"/>
@@ -1987,24 +2026,24 @@
       </c>
       <c r="G13" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>1.81 : 1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1.89 : 1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="22" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="6">
         <f>January!B14+February!B14+March!B14+April!B14+May!B14+June!B14+July!B14+August!B14+September!B14+October!B14+November!B14+December!B14</f>
-        <v>811</v>
+        <v>939</v>
       </c>
       <c r="C14" s="6">
         <f>January!C14+February!C14+March!C14+April!C14+May!C14+June!C14+July!C14+August!C14+September!C14+October!C14+November!C14+December!C14</f>
-        <v>1544</v>
+        <v>1846</v>
       </c>
       <c r="D14" s="6">
         <f>January!D14+February!D14+March!D14+April!D14+May!D14+June!D14+July!D14+August!D14+September!D14+October!D14+November!D14+December!D14</f>
-        <v>-733</v>
+        <v>-907</v>
       </c>
       <c r="E14" s="30" t="str">
         <f t="shared" si="0"/>
@@ -2016,24 +2055,24 @@
       </c>
       <c r="G14" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>0.53 : 1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.51 : 1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="22" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="6">
         <f>January!B15+February!B15+March!B15+April!B15+May!B15+June!B15+July!B15+August!B15+September!B15+October!B15+November!B15+December!B15</f>
-        <v>363</v>
+        <v>454</v>
       </c>
       <c r="C15" s="6">
         <f>January!C15+February!C15+March!C15+April!C15+May!C15+June!C15+July!C15+August!C15+September!C15+October!C15+November!C15+December!C15</f>
-        <v>777</v>
+        <v>955</v>
       </c>
       <c r="D15" s="6">
         <f>January!D15+February!D15+March!D15+April!D15+May!D15+June!D15+July!D15+August!D15+September!D15+October!D15+November!D15+December!D15</f>
-        <v>-414</v>
+        <v>-501</v>
       </c>
       <c r="E15" s="30" t="str">
         <f t="shared" si="0"/>
@@ -2045,24 +2084,24 @@
       </c>
       <c r="G15" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>0.47 : 1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.48 : 1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="2">
         <f>January!B16+February!B16+March!B16+April!B16+May!B16+June!B16+July!B16+August!B16+September!B16+October!B16+November!B16+December!B16</f>
-        <v>409</v>
+        <v>440</v>
       </c>
       <c r="C16" s="2">
         <f>January!C16+February!C16+March!C16+April!C16+May!C16+June!C16+July!C16+August!C16+September!C16+October!C16+November!C16+December!C16</f>
-        <v>839</v>
+        <v>1007</v>
       </c>
       <c r="D16" s="2">
         <f>January!D16+February!D16+March!D16+April!D16+May!D16+June!D16+July!D16+August!D16+September!D16+October!D16+November!D16+December!D16</f>
-        <v>-430</v>
+        <v>-567</v>
       </c>
       <c r="E16" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2074,24 +2113,24 @@
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.49 : 1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.44 : 1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="20" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="4">
         <f>January!B17+February!B17+March!B17+April!B17+May!B17+June!B17+July!B17+August!B17+September!B17+October!B17+November!B17+December!B17</f>
-        <v>3505</v>
+        <v>4053</v>
       </c>
       <c r="C17" s="4">
         <f>January!C17+February!C17+March!C17+April!C17+May!C17+June!C17+July!C17+August!C17+September!C17+October!C17+November!C17+December!C17</f>
-        <v>2519</v>
+        <v>2979</v>
       </c>
       <c r="D17" s="4">
         <f>January!D17+February!D17+March!D17+April!D17+May!D17+June!D17+July!D17+August!D17+September!D17+October!D17+November!D17+December!D17</f>
-        <v>986</v>
+        <v>1074</v>
       </c>
       <c r="E17" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2103,24 +2142,24 @@
       </c>
       <c r="G17" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>1.39 : 1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1.36 : 1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="2">
         <f>January!B18+February!B18+March!B18+April!B18+May!B18+June!B18+July!B18+August!B18+September!B18+October!B18+November!B18+December!B18</f>
-        <v>443</v>
+        <v>508</v>
       </c>
       <c r="C18" s="2">
         <f>January!C18+February!C18+March!C18+April!C18+May!C18+June!C18+July!C18+August!C18+September!C18+October!C18+November!C18+December!C18</f>
-        <v>622</v>
+        <v>693</v>
       </c>
       <c r="D18" s="2">
         <f>January!D18+February!D18+March!D18+April!D18+May!D18+June!D18+July!D18+August!D18+September!D18+October!D18+November!D18+December!D18</f>
-        <v>-179</v>
+        <v>-185</v>
       </c>
       <c r="E18" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2132,24 +2171,24 @@
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.71 : 1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.73 : 1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="20" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="4">
         <f>January!B19+February!B19+March!B19+April!B19+May!B19+June!B19+July!B19+August!B19+September!B19+October!B19+November!B19+December!B19</f>
-        <v>3309</v>
+        <v>3813</v>
       </c>
       <c r="C19" s="4">
         <f>January!C19+February!C19+March!C19+April!C19+May!C19+June!C19+July!C19+August!C19+September!C19+October!C19+November!C19+December!C19</f>
-        <v>2615</v>
+        <v>3075</v>
       </c>
       <c r="D19" s="4">
         <f>January!D19+February!D19+March!D19+April!D19+May!D19+June!D19+July!D19+August!D19+September!D19+October!D19+November!D19+December!D19</f>
-        <v>694</v>
+        <v>738</v>
       </c>
       <c r="E19" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2161,24 +2200,24 @@
       </c>
       <c r="G19" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>1.27 : 1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1.24 : 1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="2">
         <f>January!B20+February!B20+March!B20+April!B20+May!B20+June!B20+July!B20+August!B20+September!B20+October!B20+November!B20+December!B20</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C20" s="2">
         <f>January!C20+February!C20+March!C20+April!C20+May!C20+June!C20+July!C20+August!C20+September!C20+October!C20+November!C20+December!C20</f>
-        <v>466</v>
+        <v>526</v>
       </c>
       <c r="D20" s="2">
         <f>January!D20+February!D20+March!D20+April!D20+May!D20+June!D20+July!D20+August!D20+September!D20+October!D20+November!D20+December!D20</f>
-        <v>-453</v>
+        <v>-512</v>
       </c>
       <c r="E20" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2193,21 +2232,21 @@
         <v>0.03 : 1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="20" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="4">
         <f>January!B21+February!B21+March!B21+April!B21+May!B21+June!B21+July!B21+August!B21+September!B21+October!B21+November!B21+December!B21</f>
-        <v>2768</v>
+        <v>3296</v>
       </c>
       <c r="C21" s="4">
         <f>January!C21+February!C21+March!C21+April!C21+May!C21+June!C21+July!C21+August!C21+September!C21+October!C21+November!C21+December!C21</f>
-        <v>2126</v>
+        <v>2451</v>
       </c>
       <c r="D21" s="4">
         <f>January!D21+February!D21+March!D21+April!D21+May!D21+June!D21+July!D21+August!D21+September!D21+October!D21+November!D21+December!D21</f>
-        <v>642</v>
+        <v>845</v>
       </c>
       <c r="E21" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2219,24 +2258,24 @@
       </c>
       <c r="G21" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>1.3 : 1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1.34 : 1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B22" s="2">
         <f>January!B22+February!B22+March!B22+April!B22+May!B22+June!B22+July!B22+August!B22+September!B22+October!B22+November!B22+December!B22</f>
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="C22" s="2">
         <f>January!C22+February!C22+March!C22+April!C22+May!C22+June!C22+July!C22+August!C22+September!C22+October!C22+November!C22+December!C22</f>
-        <v>735</v>
+        <v>795</v>
       </c>
       <c r="D22" s="2">
         <f>January!D22+February!D22+March!D22+April!D22+May!D22+June!D22+July!D22+August!D22+September!D22+October!D22+November!D22+December!D22</f>
-        <v>-592</v>
+        <v>-627</v>
       </c>
       <c r="E22" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2248,24 +2287,24 @@
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.19 : 1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.21 : 1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="20" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="4">
         <f>January!B23+February!B23+March!B23+April!B23+May!B23+June!B23+July!B23+August!B23+September!B23+October!B23+November!B23+December!B23</f>
-        <v>3828</v>
+        <v>4548</v>
       </c>
       <c r="C23" s="4">
         <f>January!C23+February!C23+March!C23+April!C23+May!C23+June!C23+July!C23+August!C23+September!C23+October!C23+November!C23+December!C23</f>
-        <v>2094</v>
+        <v>2485</v>
       </c>
       <c r="D23" s="4">
         <f>January!D23+February!D23+March!D23+April!D23+May!D23+June!D23+July!D23+August!D23+September!D23+October!D23+November!D23+December!D23</f>
-        <v>1734</v>
+        <v>2063</v>
       </c>
       <c r="E23" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2280,21 +2319,21 @@
         <v>1.83 : 1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="2">
         <f>January!B24+February!B24+March!B24+April!B24+May!B24+June!B24+July!B24+August!B24+September!B24+October!B24+November!B24+December!B24</f>
-        <v>10290</v>
+        <v>11673</v>
       </c>
       <c r="C24" s="2">
         <f>January!C24+February!C24+March!C24+April!C24+May!C24+June!C24+July!C24+August!C24+September!C24+October!C24+November!C24+December!C24</f>
-        <v>7338</v>
+        <v>8556</v>
       </c>
       <c r="D24" s="2">
         <f>January!D24+February!D24+March!D24+April!D24+May!D24+June!D24+July!D24+August!D24+September!D24+October!D24+November!D24+December!D24</f>
-        <v>2952</v>
+        <v>3117</v>
       </c>
       <c r="E24" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2306,24 +2345,24 @@
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>1.4 : 1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1.36 : 1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="20" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="4">
         <f>January!B25+February!B25+March!B25+April!B25+May!B25+June!B25+July!B25+August!B25+September!B25+October!B25+November!B25+December!B25</f>
-        <v>909</v>
+        <v>1038</v>
       </c>
       <c r="C25" s="4">
         <f>January!C25+February!C25+March!C25+April!C25+May!C25+June!C25+July!C25+August!C25+September!C25+October!C25+November!C25+December!C25</f>
-        <v>1941</v>
+        <v>2355</v>
       </c>
       <c r="D25" s="4">
         <f>January!D25+February!D25+March!D25+April!D25+May!D25+June!D25+July!D25+August!D25+September!D25+October!D25+November!D25+December!D25</f>
-        <v>-1032</v>
+        <v>-1317</v>
       </c>
       <c r="E25" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2335,10 +2374,10 @@
       </c>
       <c r="G25" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>0.47 : 1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.44 : 1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -2367,21 +2406,21 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="20" t="s">
         <v>32</v>
       </c>
       <c r="B27" s="4">
         <f>January!B27+February!B27+March!B27+April!B27+May!B27+June!B27+July!B27+August!B27+September!B27+October!B27+November!B27+December!B27</f>
-        <v>1474</v>
+        <v>1724</v>
       </c>
       <c r="C27" s="4">
         <f>January!C27+February!C27+March!C27+April!C27+May!C27+June!C27+July!C27+August!C27+September!C27+October!C27+November!C27+December!C27</f>
-        <v>1150</v>
+        <v>1353</v>
       </c>
       <c r="D27" s="4">
         <f>January!D27+February!D27+March!D27+April!D27+May!D27+June!D27+July!D27+August!D27+September!D27+October!D27+November!D27+December!D27</f>
-        <v>324</v>
+        <v>371</v>
       </c>
       <c r="E27" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2393,24 +2432,24 @@
       </c>
       <c r="G27" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>1.28 : 1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1.27 : 1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B28" s="2">
         <f>January!B28+February!B28+March!B28+April!B28+May!B28+June!B28+July!B28+August!B28+September!B28+October!B28+November!B28+December!B28</f>
-        <v>450</v>
+        <v>533</v>
       </c>
       <c r="C28" s="2">
         <f>January!C28+February!C28+March!C28+April!C28+May!C28+June!C28+July!C28+August!C28+September!C28+October!C28+November!C28+December!C28</f>
-        <v>587</v>
+        <v>664</v>
       </c>
       <c r="D28" s="2">
         <f>January!D28+February!D28+March!D28+April!D28+May!D28+June!D28+July!D28+August!D28+September!D28+October!D28+November!D28+December!D28</f>
-        <v>-137</v>
+        <v>-131</v>
       </c>
       <c r="E28" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2422,24 +2461,24 @@
       </c>
       <c r="G28" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.77 : 1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.8 : 1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="20" t="s">
         <v>34</v>
       </c>
       <c r="B29" s="4">
         <f>January!B29+February!B29+March!B29+April!B29+May!B29+June!B29+July!B29+August!B29+September!B29+October!B29+November!B29+December!B29</f>
-        <v>3205</v>
+        <v>3620</v>
       </c>
       <c r="C29" s="4">
         <f>January!C29+February!C29+March!C29+April!C29+May!C29+June!C29+July!C29+August!C29+September!C29+October!C29+November!C29+December!C29</f>
-        <v>2454</v>
+        <v>2873</v>
       </c>
       <c r="D29" s="4">
         <f>January!D29+February!D29+March!D29+April!D29+May!D29+June!D29+July!D29+August!D29+September!D29+October!D29+November!D29+December!D29</f>
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="E29" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2451,24 +2490,24 @@
       </c>
       <c r="G29" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>1.31 : 1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1.26 : 1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B30" s="2">
         <f>January!B30+February!B30+March!B30+April!B30+May!B30+June!B30+July!B30+August!B30+September!B30+October!B30+November!B30+December!B30</f>
-        <v>295</v>
+        <v>331</v>
       </c>
       <c r="C30" s="2">
         <f>January!C30+February!C30+March!C30+April!C30+May!C30+June!C30+July!C30+August!C30+September!C30+October!C30+November!C30+December!C30</f>
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="D30" s="2">
         <f>January!D30+February!D30+March!D30+April!D30+May!D30+June!D30+July!D30+August!D30+September!D30+October!D30+November!D30+December!D30</f>
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="E30" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2480,24 +2519,24 @@
       </c>
       <c r="G30" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>2.06 : 1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2.09 : 1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="20" t="s">
         <v>36</v>
       </c>
       <c r="B31" s="4">
         <f>January!B31+February!B31+March!B31+April!B31+May!B31+June!B31+July!B31+August!B31+September!B31+October!B31+November!B31+December!B31</f>
-        <v>342</v>
+        <v>397</v>
       </c>
       <c r="C31" s="4">
         <f>January!C31+February!C31+March!C31+April!C31+May!C31+June!C31+July!C31+August!C31+September!C31+October!C31+November!C31+December!C31</f>
-        <v>1764</v>
+        <v>2030</v>
       </c>
       <c r="D31" s="4">
         <f>January!D31+February!D31+March!D31+April!D31+May!D31+June!D31+July!D31+August!D31+September!D31+October!D31+November!D31+December!D31</f>
-        <v>-1422</v>
+        <v>-1633</v>
       </c>
       <c r="E31" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2509,24 +2548,24 @@
       </c>
       <c r="G31" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>0.19 : 1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.2 : 1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B32" s="2">
         <f>January!B32+February!B32+March!B32+April!B32+May!B32+June!B32+July!B32+August!B32+September!B32+October!B32+November!B32+December!B32</f>
-        <v>2563</v>
+        <v>3021</v>
       </c>
       <c r="C32" s="2">
         <f>January!C32+February!C32+March!C32+April!C32+May!C32+June!C32+July!C32+August!C32+September!C32+October!C32+November!C32+December!C32</f>
-        <v>3266</v>
+        <v>3813</v>
       </c>
       <c r="D32" s="2">
         <f>January!D32+February!D32+March!D32+April!D32+May!D32+June!D32+July!D32+August!D32+September!D32+October!D32+November!D32+December!D32</f>
-        <v>-703</v>
+        <v>-792</v>
       </c>
       <c r="E32" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2538,24 +2577,24 @@
       </c>
       <c r="G32" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.78 : 1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.79 : 1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="20" t="s">
         <v>38</v>
       </c>
       <c r="B33" s="4">
         <f>January!B33+February!B33+March!B33+April!B33+May!B33+June!B33+July!B33+August!B33+September!B33+October!B33+November!B33+December!B33</f>
-        <v>1940</v>
+        <v>2395</v>
       </c>
       <c r="C33" s="4">
         <f>January!C33+February!C33+March!C33+April!C33+May!C33+June!C33+July!C33+August!C33+September!C33+October!C33+November!C33+December!C33</f>
-        <v>3326</v>
+        <v>3925</v>
       </c>
       <c r="D33" s="4">
         <f>January!D33+February!D33+March!D33+April!D33+May!D33+June!D33+July!D33+August!D33+September!D33+October!D33+November!D33+December!D33</f>
-        <v>-1386</v>
+        <v>-1530</v>
       </c>
       <c r="E33" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2567,24 +2606,24 @@
       </c>
       <c r="G33" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>0.58 : 1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.61 : 1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B34" s="2">
         <f>January!B34+February!B34+March!B34+April!B34+May!B34+June!B34+July!B34+August!B34+September!B34+October!B34+November!B34+December!B34</f>
-        <v>972</v>
+        <v>1177</v>
       </c>
       <c r="C34" s="2">
         <f>January!C34+February!C34+March!C34+April!C34+May!C34+June!C34+July!C34+August!C34+September!C34+October!C34+November!C34+December!C34</f>
-        <v>563</v>
+        <v>678</v>
       </c>
       <c r="D34" s="2">
         <f>January!D34+February!D34+March!D34+April!D34+May!D34+June!D34+July!D34+August!D34+September!D34+October!D34+November!D34+December!D34</f>
-        <v>409</v>
+        <v>499</v>
       </c>
       <c r="E34" s="28" t="str">
         <f t="shared" ref="E34:E55" si="3">IF(D34 &gt; 0, "We borrowed more than we lent this year", "")</f>
@@ -2596,24 +2635,24 @@
       </c>
       <c r="G34" s="3" t="str">
         <f t="shared" ref="G34:G55" si="5">IF(ISERROR(ROUND(B34/C34,2)&amp;" : 1"), "", ROUND(B34/C34,2)&amp;" : 1")</f>
-        <v>1.73 : 1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1.74 : 1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
       <c r="B35" s="4">
         <f>January!B35+February!B35+March!B35+April!B35+May!B35+June!B35+July!B35+August!B35+September!B35+October!B35+November!B35+December!B35</f>
-        <v>4825</v>
+        <v>5695</v>
       </c>
       <c r="C35" s="4">
         <f>January!C35+February!C35+March!C35+April!C35+May!C35+June!C35+July!C35+August!C35+September!C35+October!C35+November!C35+December!C35</f>
-        <v>6513</v>
+        <v>7701</v>
       </c>
       <c r="D35" s="4">
         <f>January!D35+February!D35+March!D35+April!D35+May!D35+June!D35+July!D35+August!D35+September!D35+October!D35+November!D35+December!D35</f>
-        <v>-1688</v>
+        <v>-2006</v>
       </c>
       <c r="E35" s="29" t="str">
         <f t="shared" si="3"/>
@@ -2628,21 +2667,21 @@
         <v>0.74 : 1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B36" s="2">
         <f>January!B36+February!B36+March!B36+April!B36+May!B36+June!B36+July!B36+August!B36+September!B36+October!B36+November!B36+December!B36</f>
-        <v>1188</v>
+        <v>1402</v>
       </c>
       <c r="C36" s="2">
         <f>January!C36+February!C36+March!C36+April!C36+May!C36+June!C36+July!C36+August!C36+September!C36+October!C36+November!C36+December!C36</f>
-        <v>2698</v>
+        <v>3171</v>
       </c>
       <c r="D36" s="2">
         <f>January!D36+February!D36+March!D36+April!D36+May!D36+June!D36+July!D36+August!D36+September!D36+October!D36+November!D36+December!D36</f>
-        <v>-1510</v>
+        <v>-1769</v>
       </c>
       <c r="E36" s="28" t="str">
         <f t="shared" si="3"/>
@@ -2657,21 +2696,21 @@
         <v>0.44 : 1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
         <v>42</v>
       </c>
       <c r="B37" s="4">
         <f>January!B37+February!B37+March!B37+April!B37+May!B37+June!B37+July!B37+August!B37+September!B37+October!B37+November!B37+December!B37</f>
-        <v>2759</v>
+        <v>3315</v>
       </c>
       <c r="C37" s="4">
         <f>January!C37+February!C37+March!C37+April!C37+May!C37+June!C37+July!C37+August!C37+September!C37+October!C37+November!C37+December!C37</f>
-        <v>1840</v>
+        <v>2186</v>
       </c>
       <c r="D37" s="4">
         <f>January!D37+February!D37+March!D37+April!D37+May!D37+June!D37+July!D37+August!D37+September!D37+October!D37+November!D37+December!D37</f>
-        <v>919</v>
+        <v>1129</v>
       </c>
       <c r="E37" s="29" t="str">
         <f t="shared" si="3"/>
@@ -2683,24 +2722,24 @@
       </c>
       <c r="G37" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>1.5 : 1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1.52 : 1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B38" s="2">
         <f>January!B38+February!B38+March!B38+April!B38+May!B38+June!B38+July!B38+August!B38+September!B38+October!B38+November!B38+December!B38</f>
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="C38" s="2">
         <f>January!C38+February!C38+March!C38+April!C38+May!C38+June!C38+July!C38+August!C38+September!C38+October!C38+November!C38+December!C38</f>
-        <v>1086</v>
+        <v>1233</v>
       </c>
       <c r="D38" s="2">
         <f>January!D38+February!D38+March!D38+April!D38+May!D38+June!D38+July!D38+August!D38+September!D38+October!D38+November!D38+December!D38</f>
-        <v>-909</v>
+        <v>-1038</v>
       </c>
       <c r="E38" s="28" t="str">
         <f t="shared" si="3"/>
@@ -2715,21 +2754,21 @@
         <v>0.16 : 1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="20" t="s">
         <v>49</v>
       </c>
       <c r="B39" s="4">
         <f>January!B44+February!B44+March!B44+April!B44+May!B44+June!B44+July!B44+August!B44+September!B44+October!B44+November!B44+December!B44</f>
-        <v>487</v>
+        <v>556</v>
       </c>
       <c r="C39" s="4">
         <f>January!C44+February!C44+March!C44+April!C44+May!C44+June!C44+July!C44+August!C44+September!C44+October!C44+November!C44+December!C44</f>
-        <v>467</v>
+        <v>540</v>
       </c>
       <c r="D39" s="4">
         <f>January!D44+February!D44+March!D44+April!D44+May!D44+June!D44+July!D44+August!D44+September!D44+October!D44+November!D44+December!D44</f>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E39" s="29" t="str">
         <f t="shared" si="3"/>
@@ -2741,10 +2780,10 @@
       </c>
       <c r="G39" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>1.04 : 1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1.03 : 1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="24" t="s">
         <v>44</v>
       </c>
@@ -2754,11 +2793,11 @@
       </c>
       <c r="C40" s="8">
         <f>January!C39+February!C39+March!C39+April!C39+May!C39+June!C39+July!C39+August!C39+September!C39+October!C39+November!C39+December!C39</f>
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="D40" s="8">
         <f>January!D39+February!D39+March!D39+April!D39+May!D39+June!D39+July!D39+August!D39+September!D39+October!D39+November!D39+December!D39</f>
-        <v>-370</v>
+        <v>-377</v>
       </c>
       <c r="E40" s="31" t="str">
         <f t="shared" si="3"/>
@@ -2773,7 +2812,7 @@
         <v>0.24 : 1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="24" t="s">
         <v>45</v>
       </c>
@@ -2783,11 +2822,11 @@
       </c>
       <c r="C41" s="8">
         <f>January!C40+February!C40+March!C40+April!C40+May!C40+June!C40+July!C40+August!C40+September!C40+October!C40+November!C40+December!C40</f>
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="D41" s="8">
         <f>January!D40+February!D40+March!D40+April!D40+May!D40+June!D40+July!D40+August!D40+September!D40+October!D40+November!D40+December!D40</f>
-        <v>-119</v>
+        <v>-123</v>
       </c>
       <c r="E41" s="31" t="str">
         <f t="shared" si="3"/>
@@ -2802,7 +2841,7 @@
         <v>0.75 : 1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="24" t="s">
         <v>46</v>
       </c>
@@ -2831,7 +2870,7 @@
         <v>0.1 : 1</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="24" t="s">
         <v>47</v>
       </c>
@@ -2841,11 +2880,11 @@
       </c>
       <c r="C43" s="8">
         <f>January!C42+February!C42+March!C42+April!C42+May!C42+June!C42+July!C42+August!C42+September!C42+October!C42+November!C42+December!C42</f>
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8">
         <f>January!D42+February!D42+March!D42+April!D42+May!D42+June!D42+July!D42+August!D42+September!D42+October!D42+November!D42+December!D42</f>
-        <v>-83</v>
+        <v>-84</v>
       </c>
       <c r="E43" s="31" t="str">
         <f t="shared" si="3"/>
@@ -2860,7 +2899,7 @@
         <v>0.33 : 1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="24" t="s">
         <v>48</v>
       </c>
@@ -2889,21 +2928,21 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B45" s="2">
         <f>January!B45+February!B45+March!B45+April!B45+May!B45+June!B45+July!B45+August!B45+September!B45+October!B45+November!B45+December!B45</f>
-        <v>437</v>
+        <v>552</v>
       </c>
       <c r="C45" s="2">
         <f>January!C45+February!C45+March!C45+April!C45+May!C45+June!C45+July!C45+August!C45+September!C45+October!C45+November!C45+December!C45</f>
-        <v>1063</v>
+        <v>1254</v>
       </c>
       <c r="D45" s="2">
         <f>January!D45+February!D45+March!D45+April!D45+May!D45+June!D45+July!D45+August!D45+September!D45+October!D45+November!D45+December!D45</f>
-        <v>-626</v>
+        <v>-702</v>
       </c>
       <c r="E45" s="28" t="str">
         <f t="shared" si="3"/>
@@ -2915,24 +2954,24 @@
       </c>
       <c r="G45" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>0.41 : 1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.44 : 1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="20" t="s">
         <v>51</v>
       </c>
       <c r="B46" s="4">
         <f>January!B46+February!B46+March!B46+April!B46+May!B46+June!B46+July!B46+August!B46+September!B46+October!B46+November!B46+December!B46</f>
-        <v>2974</v>
+        <v>3453</v>
       </c>
       <c r="C46" s="4">
         <f>January!C46+February!C46+March!C46+April!C46+May!C46+June!C46+July!C46+August!C46+September!C46+October!C46+November!C46+December!C46</f>
-        <v>3488</v>
+        <v>4080</v>
       </c>
       <c r="D46" s="4">
         <f>January!D46+February!D46+March!D46+April!D46+May!D46+June!D46+July!D46+August!D46+September!D46+October!D46+November!D46+December!D46</f>
-        <v>-514</v>
+        <v>-627</v>
       </c>
       <c r="E46" s="29" t="str">
         <f t="shared" si="3"/>
@@ -2947,21 +2986,21 @@
         <v>0.85 : 1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B47" s="2">
         <f>January!B47+February!B47+March!B47+April!B47+May!B47+June!B47+July!B47+August!B47+September!B47+October!B47+November!B47+December!B47</f>
-        <v>6319</v>
+        <v>7401</v>
       </c>
       <c r="C47" s="2">
         <f>January!C47+February!C47+March!C47+April!C47+May!C47+June!C47+July!C47+August!C47+September!C47+October!C47+November!C47+December!C47</f>
-        <v>3417</v>
+        <v>3919</v>
       </c>
       <c r="D47" s="2">
         <f>January!D47+February!D47+March!D47+April!D47+May!D47+June!D47+July!D47+August!D47+September!D47+October!D47+November!D47+December!D47</f>
-        <v>2902</v>
+        <v>3482</v>
       </c>
       <c r="E47" s="28" t="str">
         <f t="shared" si="3"/>
@@ -2973,24 +3012,24 @@
       </c>
       <c r="G47" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>1.85 : 1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1.89 : 1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="20" t="s">
         <v>53</v>
       </c>
       <c r="B48" s="4">
         <f>January!B48+February!B48+March!B48+April!B48+May!B48+June!B48+July!B48+August!B48+September!B48+October!B48+November!B48+December!B48</f>
-        <v>1537</v>
+        <v>1818</v>
       </c>
       <c r="C48" s="4">
         <f>January!C48+February!C48+March!C48+April!C48+May!C48+June!C48+July!C48+August!C48+September!C48+October!C48+November!C48+December!C48</f>
-        <v>3418</v>
+        <v>3967</v>
       </c>
       <c r="D48" s="4">
         <f>January!D48+February!D48+March!D48+April!D48+May!D48+June!D48+July!D48+August!D48+September!D48+October!D48+November!D48+December!D48</f>
-        <v>-1881</v>
+        <v>-2149</v>
       </c>
       <c r="E48" s="29" t="str">
         <f t="shared" si="3"/>
@@ -3002,24 +3041,24 @@
       </c>
       <c r="G48" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>0.45 : 1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.46 : 1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B49" s="2">
         <f>January!B49+February!B49+March!B49+April!B49+May!B49+June!B49+July!B49+August!B49+September!B49+October!B49+November!B49+December!B49</f>
-        <v>3117</v>
+        <v>3712</v>
       </c>
       <c r="C49" s="2">
         <f>January!C49+February!C49+March!C49+April!C49+May!C49+June!C49+July!C49+August!C49+September!C49+October!C49+November!C49+December!C49</f>
-        <v>1479</v>
+        <v>1759</v>
       </c>
       <c r="D49" s="2">
         <f>January!D49+February!D49+March!D49+April!D49+May!D49+June!D49+July!D49+August!D49+September!D49+October!D49+November!D49+December!D49</f>
-        <v>1638</v>
+        <v>1953</v>
       </c>
       <c r="E49" s="28" t="str">
         <f t="shared" si="3"/>
@@ -3034,21 +3073,21 @@
         <v>2.11 : 1</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="20" t="s">
         <v>55</v>
       </c>
       <c r="B50" s="4">
         <f>January!B50+February!B50+March!B50+April!B50+May!B50+June!B50+July!B50+August!B50+September!B50+October!B50+November!B50+December!B50</f>
-        <v>5585</v>
+        <v>6617</v>
       </c>
       <c r="C50" s="4">
         <f>January!C50+February!C50+March!C50+April!C50+May!C50+June!C50+July!C50+August!C50+September!C50+October!C50+November!C50+December!C50</f>
-        <v>3232</v>
+        <v>3816</v>
       </c>
       <c r="D50" s="4">
         <f>January!D50+February!D50+March!D50+April!D50+May!D50+June!D50+July!D50+August!D50+September!D50+October!D50+November!D50+December!D50</f>
-        <v>2353</v>
+        <v>2801</v>
       </c>
       <c r="E50" s="29" t="str">
         <f t="shared" si="3"/>
@@ -3063,21 +3102,21 @@
         <v>1.73 : 1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B51" s="2">
         <f>January!B51+February!B51+March!B51+April!B51+May!B51+June!B51+July!B51+August!B51+September!B51+October!B51+November!B51+December!B51</f>
-        <v>1239</v>
+        <v>1460</v>
       </c>
       <c r="C51" s="2">
         <f>January!C51+February!C51+March!C51+April!C51+May!C51+June!C51+July!C51+August!C51+September!C51+October!C51+November!C51+December!C51</f>
-        <v>1027</v>
+        <v>1190</v>
       </c>
       <c r="D51" s="2">
         <f>January!D51+February!D51+March!D51+April!D51+May!D51+June!D51+July!D51+August!D51+September!D51+October!D51+November!D51+December!D51</f>
-        <v>212</v>
+        <v>270</v>
       </c>
       <c r="E51" s="28" t="str">
         <f t="shared" si="3"/>
@@ -3089,24 +3128,24 @@
       </c>
       <c r="G51" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>1.21 : 1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1.23 : 1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="20" t="s">
         <v>57</v>
       </c>
       <c r="B52" s="4">
         <f>January!B52+February!B52+March!B52+April!B52+May!B52+June!B52+July!B52+August!B52+September!B52+October!B52+November!B52+December!B52</f>
-        <v>2052</v>
+        <v>2385</v>
       </c>
       <c r="C52" s="4">
         <f>January!C52+February!C52+March!C52+April!C52+May!C52+June!C52+July!C52+August!C52+September!C52+October!C52+November!C52+December!C52</f>
-        <v>2407</v>
+        <v>2790</v>
       </c>
       <c r="D52" s="4">
         <f>January!D52+February!D52+March!D52+April!D52+May!D52+June!D52+July!D52+August!D52+September!D52+October!D52+November!D52+December!D52</f>
-        <v>-355</v>
+        <v>-405</v>
       </c>
       <c r="E52" s="29" t="str">
         <f t="shared" si="3"/>
@@ -3121,21 +3160,21 @@
         <v>0.85 : 1</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B53" s="2">
         <f>January!B53+February!B53+March!B53+April!B53+May!B53+June!B53+July!B53+August!B53+September!B53+October!B53+November!B53+December!B53</f>
-        <v>711</v>
+        <v>825</v>
       </c>
       <c r="C53" s="2">
         <f>January!C53+February!C53+March!C53+April!C53+May!C53+June!C53+July!C53+August!C53+September!C53+October!C53+November!C53+December!C53</f>
-        <v>1330</v>
+        <v>1596</v>
       </c>
       <c r="D53" s="2">
         <f>January!D53+February!D53+March!D53+April!D53+May!D53+June!D53+July!D53+August!D53+September!D53+October!D53+November!D53+December!D53</f>
-        <v>-619</v>
+        <v>-771</v>
       </c>
       <c r="E53" s="28" t="str">
         <f t="shared" si="3"/>
@@ -3147,24 +3186,24 @@
       </c>
       <c r="G53" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>0.53 : 1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.52 : 1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="20" t="s">
         <v>59</v>
       </c>
       <c r="B54" s="4">
         <f>January!B54+February!B54+March!B54+April!B54+May!B54+June!B54+July!B54+August!B54+September!B54+October!B54+November!B54+December!B54</f>
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="C54" s="4">
         <f>January!C54+February!C54+March!C54+April!C54+May!C54+June!C54+July!C54+August!C54+September!C54+October!C54+November!C54+December!C54</f>
-        <v>1284</v>
+        <v>1534</v>
       </c>
       <c r="D54" s="4">
         <f>January!D54+February!D54+March!D54+April!D54+May!D54+June!D54+July!D54+August!D54+September!D54+October!D54+November!D54+December!D54</f>
-        <v>-1166</v>
+        <v>-1401</v>
       </c>
       <c r="E54" s="29" t="str">
         <f t="shared" si="3"/>
@@ -3179,21 +3218,21 @@
         <v>0.09 : 1</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="26" t="s">
         <v>60</v>
       </c>
       <c r="B55" s="10">
         <f>January!B55+February!B55+March!B55+April!B55+May!B55+June!B55+July!B55+August!B55+September!B55+October!B55+November!B55+December!B55</f>
-        <v>1830</v>
+        <v>2133</v>
       </c>
       <c r="C55" s="10">
         <f>January!C55+February!C55+March!C55+April!C55+May!C55+June!C55+July!C55+August!C55+September!C55+October!C55+November!C55+December!C55</f>
-        <v>1206</v>
+        <v>1404</v>
       </c>
       <c r="D55" s="10">
         <f>January!D55+February!D55+March!D55+April!D55+May!D55+June!D55+July!D55+August!D55+September!D55+October!D55+November!D55+December!D55</f>
-        <v>624</v>
+        <v>729</v>
       </c>
       <c r="E55" s="32" t="str">
         <f t="shared" si="3"/>
@@ -3237,17 +3276,17 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" style="19" customWidth="1"/>
-    <col min="2" max="3" width="30.7109375" style="19" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="19" customWidth="1"/>
-    <col min="5" max="6" width="25.7109375" style="13" customWidth="1"/>
-    <col min="7" max="7" width="28.7109375" style="19" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="19"/>
+    <col min="1" max="1" width="45.69140625" style="19" customWidth="1"/>
+    <col min="2" max="3" width="30.69140625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="20.69140625" style="19" customWidth="1"/>
+    <col min="5" max="6" width="25.69140625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="28.69140625" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="9.15234375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
@@ -3270,7 +3309,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -3281,7 +3320,7 @@
       <c r="F2" s="28"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="20" t="s">
         <v>8</v>
       </c>
@@ -3292,7 +3331,7 @@
       <c r="F3" s="29"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -3303,7 +3342,7 @@
       <c r="F4" s="28"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
@@ -3314,7 +3353,7 @@
       <c r="F5" s="29"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -3325,7 +3364,7 @@
       <c r="F6" s="28"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="20" t="s">
         <v>12</v>
       </c>
@@ -3336,7 +3375,7 @@
       <c r="F7" s="29"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -3347,7 +3386,7 @@
       <c r="F8" s="28"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="20" t="s">
         <v>14</v>
       </c>
@@ -3358,7 +3397,7 @@
       <c r="F9" s="29"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -3369,7 +3408,7 @@
       <c r="F10" s="28"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="20" t="s">
         <v>16</v>
       </c>
@@ -3380,7 +3419,7 @@
       <c r="F11" s="29"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="22" t="s">
         <v>17</v>
       </c>
@@ -3391,7 +3430,7 @@
       <c r="F12" s="30"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="22" t="s">
         <v>18</v>
       </c>
@@ -3402,7 +3441,7 @@
       <c r="F13" s="30"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="22" t="s">
         <v>19</v>
       </c>
@@ -3413,7 +3452,7 @@
       <c r="F14" s="30"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="22" t="s">
         <v>20</v>
       </c>
@@ -3424,7 +3463,7 @@
       <c r="F15" s="30"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -3435,7 +3474,7 @@
       <c r="F16" s="28"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="20" t="s">
         <v>22</v>
       </c>
@@ -3446,7 +3485,7 @@
       <c r="F17" s="29"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -3457,7 +3496,7 @@
       <c r="F18" s="28"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="20" t="s">
         <v>24</v>
       </c>
@@ -3468,7 +3507,7 @@
       <c r="F19" s="29"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -3479,7 +3518,7 @@
       <c r="F20" s="28"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="20" t="s">
         <v>26</v>
       </c>
@@ -3490,7 +3529,7 @@
       <c r="F21" s="29"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -3501,7 +3540,7 @@
       <c r="F22" s="28"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="20" t="s">
         <v>28</v>
       </c>
@@ -3512,7 +3551,7 @@
       <c r="F23" s="29"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -3523,7 +3562,7 @@
       <c r="F24" s="28"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="20" t="s">
         <v>30</v>
       </c>
@@ -3534,7 +3573,7 @@
       <c r="F25" s="29"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -3545,7 +3584,7 @@
       <c r="F26" s="28"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="20" t="s">
         <v>32</v>
       </c>
@@ -3556,7 +3595,7 @@
       <c r="F27" s="29"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
@@ -3567,7 +3606,7 @@
       <c r="F28" s="28"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="20" t="s">
         <v>34</v>
       </c>
@@ -3578,7 +3617,7 @@
       <c r="F29" s="29"/>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
@@ -3589,7 +3628,7 @@
       <c r="F30" s="28"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="20" t="s">
         <v>36</v>
       </c>
@@ -3600,7 +3639,7 @@
       <c r="F31" s="29"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -3611,7 +3650,7 @@
       <c r="F32" s="28"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="20" t="s">
         <v>38</v>
       </c>
@@ -3622,7 +3661,7 @@
       <c r="F33" s="29"/>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
@@ -3633,7 +3672,7 @@
       <c r="F34" s="28"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
@@ -3644,7 +3683,7 @@
       <c r="F35" s="29"/>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
@@ -3655,7 +3694,7 @@
       <c r="F36" s="28"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
         <v>42</v>
       </c>
@@ -3666,7 +3705,7 @@
       <c r="F37" s="29"/>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
@@ -3677,7 +3716,7 @@
       <c r="F38" s="28"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="24" t="s">
         <v>44</v>
       </c>
@@ -3688,7 +3727,7 @@
       <c r="F39" s="31"/>
       <c r="G39" s="9"/>
     </row>
-    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="24" t="s">
         <v>45</v>
       </c>
@@ -3699,7 +3738,7 @@
       <c r="F40" s="31"/>
       <c r="G40" s="9"/>
     </row>
-    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="24" t="s">
         <v>46</v>
       </c>
@@ -3710,7 +3749,7 @@
       <c r="F41" s="31"/>
       <c r="G41" s="9"/>
     </row>
-    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="24" t="s">
         <v>47</v>
       </c>
@@ -3721,7 +3760,7 @@
       <c r="F42" s="31"/>
       <c r="G42" s="9"/>
     </row>
-    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="24" t="s">
         <v>48</v>
       </c>
@@ -3732,7 +3771,7 @@
       <c r="F43" s="31"/>
       <c r="G43" s="9"/>
     </row>
-    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="20" t="s">
         <v>49</v>
       </c>
@@ -3743,7 +3782,7 @@
       <c r="F44" s="29"/>
       <c r="G44" s="5"/>
     </row>
-    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
@@ -3754,7 +3793,7 @@
       <c r="F45" s="28"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="20" t="s">
         <v>51</v>
       </c>
@@ -3765,7 +3804,7 @@
       <c r="F46" s="29"/>
       <c r="G46" s="5"/>
     </row>
-    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
@@ -3776,7 +3815,7 @@
       <c r="F47" s="28"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="20" t="s">
         <v>53</v>
       </c>
@@ -3787,7 +3826,7 @@
       <c r="F48" s="29"/>
       <c r="G48" s="5"/>
     </row>
-    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
@@ -3798,7 +3837,7 @@
       <c r="F49" s="28"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="20" t="s">
         <v>55</v>
       </c>
@@ -3809,7 +3848,7 @@
       <c r="F50" s="29"/>
       <c r="G50" s="5"/>
     </row>
-    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
@@ -3820,7 +3859,7 @@
       <c r="F51" s="28"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="20" t="s">
         <v>57</v>
       </c>
@@ -3831,7 +3870,7 @@
       <c r="F52" s="29"/>
       <c r="G52" s="5"/>
     </row>
-    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
@@ -3842,7 +3881,7 @@
       <c r="F53" s="28"/>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="20" t="s">
         <v>59</v>
       </c>
@@ -3853,7 +3892,7 @@
       <c r="F54" s="29"/>
       <c r="G54" s="5"/>
     </row>
-    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="26" t="s">
         <v>60</v>
       </c>
@@ -3897,17 +3936,17 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" style="19" customWidth="1"/>
-    <col min="2" max="3" width="30.7109375" style="19" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="19" customWidth="1"/>
-    <col min="5" max="6" width="25.7109375" style="13" customWidth="1"/>
-    <col min="7" max="7" width="28.7109375" style="19" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="19"/>
+    <col min="1" max="1" width="45.69140625" style="19" customWidth="1"/>
+    <col min="2" max="3" width="30.69140625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="20.69140625" style="19" customWidth="1"/>
+    <col min="5" max="6" width="25.69140625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="28.69140625" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="9.15234375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
@@ -3930,7 +3969,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -3941,7 +3980,7 @@
       <c r="F2" s="28"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="20" t="s">
         <v>8</v>
       </c>
@@ -3952,7 +3991,7 @@
       <c r="F3" s="29"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -3963,7 +4002,7 @@
       <c r="F4" s="28"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
@@ -3974,7 +4013,7 @@
       <c r="F5" s="29"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -3985,7 +4024,7 @@
       <c r="F6" s="28"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="20" t="s">
         <v>12</v>
       </c>
@@ -3996,7 +4035,7 @@
       <c r="F7" s="29"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -4007,7 +4046,7 @@
       <c r="F8" s="28"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="20" t="s">
         <v>14</v>
       </c>
@@ -4018,7 +4057,7 @@
       <c r="F9" s="29"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -4029,7 +4068,7 @@
       <c r="F10" s="28"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="20" t="s">
         <v>16</v>
       </c>
@@ -4040,7 +4079,7 @@
       <c r="F11" s="29"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="22" t="s">
         <v>17</v>
       </c>
@@ -4051,7 +4090,7 @@
       <c r="F12" s="30"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="22" t="s">
         <v>18</v>
       </c>
@@ -4062,7 +4101,7 @@
       <c r="F13" s="30"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="22" t="s">
         <v>19</v>
       </c>
@@ -4073,7 +4112,7 @@
       <c r="F14" s="30"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="22" t="s">
         <v>20</v>
       </c>
@@ -4084,7 +4123,7 @@
       <c r="F15" s="30"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -4095,7 +4134,7 @@
       <c r="F16" s="28"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="20" t="s">
         <v>22</v>
       </c>
@@ -4106,7 +4145,7 @@
       <c r="F17" s="29"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -4117,7 +4156,7 @@
       <c r="F18" s="28"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="20" t="s">
         <v>24</v>
       </c>
@@ -4128,7 +4167,7 @@
       <c r="F19" s="29"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -4139,7 +4178,7 @@
       <c r="F20" s="28"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="20" t="s">
         <v>26</v>
       </c>
@@ -4150,7 +4189,7 @@
       <c r="F21" s="29"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -4161,7 +4200,7 @@
       <c r="F22" s="28"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="20" t="s">
         <v>28</v>
       </c>
@@ -4172,7 +4211,7 @@
       <c r="F23" s="29"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -4183,7 +4222,7 @@
       <c r="F24" s="28"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="20" t="s">
         <v>30</v>
       </c>
@@ -4194,7 +4233,7 @@
       <c r="F25" s="29"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -4205,7 +4244,7 @@
       <c r="F26" s="28"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="20" t="s">
         <v>32</v>
       </c>
@@ -4216,7 +4255,7 @@
       <c r="F27" s="29"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
@@ -4227,7 +4266,7 @@
       <c r="F28" s="28"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="20" t="s">
         <v>34</v>
       </c>
@@ -4238,7 +4277,7 @@
       <c r="F29" s="29"/>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
@@ -4249,7 +4288,7 @@
       <c r="F30" s="28"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="20" t="s">
         <v>36</v>
       </c>
@@ -4260,7 +4299,7 @@
       <c r="F31" s="29"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -4271,7 +4310,7 @@
       <c r="F32" s="28"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="20" t="s">
         <v>38</v>
       </c>
@@ -4282,7 +4321,7 @@
       <c r="F33" s="29"/>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
@@ -4293,7 +4332,7 @@
       <c r="F34" s="28"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
@@ -4304,7 +4343,7 @@
       <c r="F35" s="29"/>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
@@ -4315,7 +4354,7 @@
       <c r="F36" s="28"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
         <v>42</v>
       </c>
@@ -4326,7 +4365,7 @@
       <c r="F37" s="29"/>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
@@ -4337,7 +4376,7 @@
       <c r="F38" s="28"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="24" t="s">
         <v>44</v>
       </c>
@@ -4348,7 +4387,7 @@
       <c r="F39" s="31"/>
       <c r="G39" s="9"/>
     </row>
-    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="24" t="s">
         <v>45</v>
       </c>
@@ -4359,7 +4398,7 @@
       <c r="F40" s="31"/>
       <c r="G40" s="9"/>
     </row>
-    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="24" t="s">
         <v>46</v>
       </c>
@@ -4370,7 +4409,7 @@
       <c r="F41" s="31"/>
       <c r="G41" s="9"/>
     </row>
-    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="24" t="s">
         <v>47</v>
       </c>
@@ -4381,7 +4420,7 @@
       <c r="F42" s="31"/>
       <c r="G42" s="9"/>
     </row>
-    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="24" t="s">
         <v>48</v>
       </c>
@@ -4392,7 +4431,7 @@
       <c r="F43" s="31"/>
       <c r="G43" s="9"/>
     </row>
-    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="20" t="s">
         <v>49</v>
       </c>
@@ -4403,7 +4442,7 @@
       <c r="F44" s="29"/>
       <c r="G44" s="5"/>
     </row>
-    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
@@ -4414,7 +4453,7 @@
       <c r="F45" s="28"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="20" t="s">
         <v>51</v>
       </c>
@@ -4425,7 +4464,7 @@
       <c r="F46" s="29"/>
       <c r="G46" s="5"/>
     </row>
-    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
@@ -4436,7 +4475,7 @@
       <c r="F47" s="28"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="20" t="s">
         <v>53</v>
       </c>
@@ -4447,7 +4486,7 @@
       <c r="F48" s="29"/>
       <c r="G48" s="5"/>
     </row>
-    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
@@ -4458,7 +4497,7 @@
       <c r="F49" s="28"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="20" t="s">
         <v>55</v>
       </c>
@@ -4469,7 +4508,7 @@
       <c r="F50" s="29"/>
       <c r="G50" s="5"/>
     </row>
-    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
@@ -4480,7 +4519,7 @@
       <c r="F51" s="28"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="20" t="s">
         <v>57</v>
       </c>
@@ -4491,7 +4530,7 @@
       <c r="F52" s="29"/>
       <c r="G52" s="5"/>
     </row>
-    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
@@ -4502,7 +4541,7 @@
       <c r="F53" s="28"/>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="20" t="s">
         <v>59</v>
       </c>
@@ -4513,7 +4552,7 @@
       <c r="F54" s="29"/>
       <c r="G54" s="5"/>
     </row>
-    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="26" t="s">
         <v>60</v>
       </c>
@@ -4555,17 +4594,17 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" style="19" customWidth="1"/>
-    <col min="2" max="3" width="30.7109375" style="19" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="19" customWidth="1"/>
-    <col min="5" max="6" width="25.7109375" style="13" customWidth="1"/>
-    <col min="7" max="7" width="28.7109375" style="19" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="19"/>
+    <col min="1" max="1" width="45.69140625" style="19" customWidth="1"/>
+    <col min="2" max="3" width="30.69140625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="20.69140625" style="19" customWidth="1"/>
+    <col min="5" max="6" width="25.69140625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="28.69140625" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="9.15234375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
@@ -4588,7 +4627,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -4599,7 +4638,7 @@
       <c r="F2" s="28"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="20" t="s">
         <v>8</v>
       </c>
@@ -4610,7 +4649,7 @@
       <c r="F3" s="29"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -4621,7 +4660,7 @@
       <c r="F4" s="28"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
@@ -4632,7 +4671,7 @@
       <c r="F5" s="29"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -4643,7 +4682,7 @@
       <c r="F6" s="28"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="20" t="s">
         <v>12</v>
       </c>
@@ -4654,7 +4693,7 @@
       <c r="F7" s="29"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -4665,7 +4704,7 @@
       <c r="F8" s="28"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="20" t="s">
         <v>14</v>
       </c>
@@ -4676,7 +4715,7 @@
       <c r="F9" s="29"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -4687,7 +4726,7 @@
       <c r="F10" s="28"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="20" t="s">
         <v>16</v>
       </c>
@@ -4698,7 +4737,7 @@
       <c r="F11" s="29"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="22" t="s">
         <v>17</v>
       </c>
@@ -4709,7 +4748,7 @@
       <c r="F12" s="30"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="22" t="s">
         <v>18</v>
       </c>
@@ -4720,7 +4759,7 @@
       <c r="F13" s="30"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="22" t="s">
         <v>19</v>
       </c>
@@ -4731,7 +4770,7 @@
       <c r="F14" s="30"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="22" t="s">
         <v>20</v>
       </c>
@@ -4742,7 +4781,7 @@
       <c r="F15" s="30"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -4753,7 +4792,7 @@
       <c r="F16" s="28"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="20" t="s">
         <v>22</v>
       </c>
@@ -4764,7 +4803,7 @@
       <c r="F17" s="29"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -4775,7 +4814,7 @@
       <c r="F18" s="28"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="20" t="s">
         <v>24</v>
       </c>
@@ -4786,7 +4825,7 @@
       <c r="F19" s="29"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -4797,7 +4836,7 @@
       <c r="F20" s="28"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="20" t="s">
         <v>26</v>
       </c>
@@ -4808,7 +4847,7 @@
       <c r="F21" s="29"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -4819,7 +4858,7 @@
       <c r="F22" s="28"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="20" t="s">
         <v>28</v>
       </c>
@@ -4830,7 +4869,7 @@
       <c r="F23" s="29"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -4841,7 +4880,7 @@
       <c r="F24" s="28"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="20" t="s">
         <v>30</v>
       </c>
@@ -4852,7 +4891,7 @@
       <c r="F25" s="29"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -4863,7 +4902,7 @@
       <c r="F26" s="28"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="20" t="s">
         <v>32</v>
       </c>
@@ -4874,7 +4913,7 @@
       <c r="F27" s="29"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
@@ -4885,7 +4924,7 @@
       <c r="F28" s="28"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="20" t="s">
         <v>34</v>
       </c>
@@ -4896,7 +4935,7 @@
       <c r="F29" s="29"/>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
@@ -4907,7 +4946,7 @@
       <c r="F30" s="28"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="20" t="s">
         <v>36</v>
       </c>
@@ -4918,7 +4957,7 @@
       <c r="F31" s="29"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -4929,7 +4968,7 @@
       <c r="F32" s="28"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="20" t="s">
         <v>38</v>
       </c>
@@ -4940,7 +4979,7 @@
       <c r="F33" s="29"/>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
@@ -4951,7 +4990,7 @@
       <c r="F34" s="28"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
@@ -4962,7 +5001,7 @@
       <c r="F35" s="29"/>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
@@ -4973,7 +5012,7 @@
       <c r="F36" s="28"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
         <v>42</v>
       </c>
@@ -4984,7 +5023,7 @@
       <c r="F37" s="29"/>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
@@ -4995,7 +5034,7 @@
       <c r="F38" s="28"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="24" t="s">
         <v>44</v>
       </c>
@@ -5006,7 +5045,7 @@
       <c r="F39" s="31"/>
       <c r="G39" s="9"/>
     </row>
-    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="24" t="s">
         <v>45</v>
       </c>
@@ -5017,7 +5056,7 @@
       <c r="F40" s="31"/>
       <c r="G40" s="9"/>
     </row>
-    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="24" t="s">
         <v>46</v>
       </c>
@@ -5028,7 +5067,7 @@
       <c r="F41" s="31"/>
       <c r="G41" s="9"/>
     </row>
-    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="24" t="s">
         <v>47</v>
       </c>
@@ -5039,7 +5078,7 @@
       <c r="F42" s="31"/>
       <c r="G42" s="9"/>
     </row>
-    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="24" t="s">
         <v>48</v>
       </c>
@@ -5050,7 +5089,7 @@
       <c r="F43" s="31"/>
       <c r="G43" s="9"/>
     </row>
-    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="20" t="s">
         <v>49</v>
       </c>
@@ -5061,7 +5100,7 @@
       <c r="F44" s="29"/>
       <c r="G44" s="5"/>
     </row>
-    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
@@ -5072,7 +5111,7 @@
       <c r="F45" s="28"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="20" t="s">
         <v>51</v>
       </c>
@@ -5083,7 +5122,7 @@
       <c r="F46" s="29"/>
       <c r="G46" s="5"/>
     </row>
-    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
@@ -5094,7 +5133,7 @@
       <c r="F47" s="28"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="20" t="s">
         <v>53</v>
       </c>
@@ -5105,7 +5144,7 @@
       <c r="F48" s="29"/>
       <c r="G48" s="5"/>
     </row>
-    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
@@ -5116,7 +5155,7 @@
       <c r="F49" s="28"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="20" t="s">
         <v>55</v>
       </c>
@@ -5127,7 +5166,7 @@
       <c r="F50" s="29"/>
       <c r="G50" s="5"/>
     </row>
-    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
@@ -5138,7 +5177,7 @@
       <c r="F51" s="28"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="20" t="s">
         <v>57</v>
       </c>
@@ -5149,7 +5188,7 @@
       <c r="F52" s="29"/>
       <c r="G52" s="5"/>
     </row>
-    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
@@ -5160,7 +5199,7 @@
       <c r="F53" s="28"/>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="20" t="s">
         <v>59</v>
       </c>
@@ -5171,7 +5210,7 @@
       <c r="F54" s="29"/>
       <c r="G54" s="5"/>
     </row>
-    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="26" t="s">
         <v>60</v>
       </c>
@@ -5215,17 +5254,17 @@
       <selection pane="bottomRight" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" style="19" customWidth="1"/>
-    <col min="2" max="3" width="30.7109375" style="19" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="19" customWidth="1"/>
-    <col min="5" max="6" width="25.7109375" style="13" customWidth="1"/>
-    <col min="7" max="7" width="28.7109375" style="19" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="19"/>
+    <col min="1" max="1" width="45.69140625" style="19" customWidth="1"/>
+    <col min="2" max="3" width="30.69140625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="20.69140625" style="19" customWidth="1"/>
+    <col min="5" max="6" width="25.69140625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="28.69140625" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="9.15234375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
@@ -5248,7 +5287,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -5259,7 +5298,7 @@
       <c r="F2" s="28"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="20" t="s">
         <v>8</v>
       </c>
@@ -5270,7 +5309,7 @@
       <c r="F3" s="29"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -5281,7 +5320,7 @@
       <c r="F4" s="28"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
@@ -5292,7 +5331,7 @@
       <c r="F5" s="29"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -5303,7 +5342,7 @@
       <c r="F6" s="28"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="20" t="s">
         <v>12</v>
       </c>
@@ -5314,7 +5353,7 @@
       <c r="F7" s="29"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -5325,7 +5364,7 @@
       <c r="F8" s="28"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="20" t="s">
         <v>14</v>
       </c>
@@ -5336,7 +5375,7 @@
       <c r="F9" s="29"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -5347,7 +5386,7 @@
       <c r="F10" s="28"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="20" t="s">
         <v>16</v>
       </c>
@@ -5358,7 +5397,7 @@
       <c r="F11" s="29"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="22" t="s">
         <v>17</v>
       </c>
@@ -5369,7 +5408,7 @@
       <c r="F12" s="30"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="22" t="s">
         <v>18</v>
       </c>
@@ -5380,7 +5419,7 @@
       <c r="F13" s="30"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="22" t="s">
         <v>19</v>
       </c>
@@ -5391,7 +5430,7 @@
       <c r="F14" s="30"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="22" t="s">
         <v>20</v>
       </c>
@@ -5402,7 +5441,7 @@
       <c r="F15" s="30"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -5413,7 +5452,7 @@
       <c r="F16" s="28"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="20" t="s">
         <v>22</v>
       </c>
@@ -5424,7 +5463,7 @@
       <c r="F17" s="29"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -5435,7 +5474,7 @@
       <c r="F18" s="28"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="20" t="s">
         <v>24</v>
       </c>
@@ -5446,7 +5485,7 @@
       <c r="F19" s="29"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -5457,7 +5496,7 @@
       <c r="F20" s="28"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="20" t="s">
         <v>26</v>
       </c>
@@ -5468,7 +5507,7 @@
       <c r="F21" s="29"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -5479,7 +5518,7 @@
       <c r="F22" s="28"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="20" t="s">
         <v>28</v>
       </c>
@@ -5490,7 +5529,7 @@
       <c r="F23" s="29"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -5501,7 +5540,7 @@
       <c r="F24" s="28"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="20" t="s">
         <v>30</v>
       </c>
@@ -5512,7 +5551,7 @@
       <c r="F25" s="29"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -5523,7 +5562,7 @@
       <c r="F26" s="28"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="20" t="s">
         <v>32</v>
       </c>
@@ -5534,7 +5573,7 @@
       <c r="F27" s="29"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
@@ -5545,7 +5584,7 @@
       <c r="F28" s="28"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="20" t="s">
         <v>34</v>
       </c>
@@ -5556,7 +5595,7 @@
       <c r="F29" s="29"/>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
@@ -5567,7 +5606,7 @@
       <c r="F30" s="28"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="20" t="s">
         <v>36</v>
       </c>
@@ -5578,7 +5617,7 @@
       <c r="F31" s="29"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -5589,7 +5628,7 @@
       <c r="F32" s="28"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="20" t="s">
         <v>38</v>
       </c>
@@ -5600,7 +5639,7 @@
       <c r="F33" s="29"/>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
@@ -5611,7 +5650,7 @@
       <c r="F34" s="28"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
@@ -5622,7 +5661,7 @@
       <c r="F35" s="29"/>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
@@ -5633,7 +5672,7 @@
       <c r="F36" s="28"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
         <v>42</v>
       </c>
@@ -5644,7 +5683,7 @@
       <c r="F37" s="29"/>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
@@ -5655,7 +5694,7 @@
       <c r="F38" s="28"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="24" t="s">
         <v>44</v>
       </c>
@@ -5666,7 +5705,7 @@
       <c r="F39" s="31"/>
       <c r="G39" s="9"/>
     </row>
-    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="24" t="s">
         <v>45</v>
       </c>
@@ -5677,7 +5716,7 @@
       <c r="F40" s="31"/>
       <c r="G40" s="9"/>
     </row>
-    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="24" t="s">
         <v>46</v>
       </c>
@@ -5688,7 +5727,7 @@
       <c r="F41" s="31"/>
       <c r="G41" s="9"/>
     </row>
-    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="24" t="s">
         <v>47</v>
       </c>
@@ -5699,7 +5738,7 @@
       <c r="F42" s="31"/>
       <c r="G42" s="9"/>
     </row>
-    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="24" t="s">
         <v>48</v>
       </c>
@@ -5710,7 +5749,7 @@
       <c r="F43" s="31"/>
       <c r="G43" s="9"/>
     </row>
-    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="20" t="s">
         <v>49</v>
       </c>
@@ -5721,7 +5760,7 @@
       <c r="F44" s="29"/>
       <c r="G44" s="5"/>
     </row>
-    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
@@ -5732,7 +5771,7 @@
       <c r="F45" s="28"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="20" t="s">
         <v>51</v>
       </c>
@@ -5743,7 +5782,7 @@
       <c r="F46" s="29"/>
       <c r="G46" s="5"/>
     </row>
-    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
@@ -5754,7 +5793,7 @@
       <c r="F47" s="28"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="20" t="s">
         <v>53</v>
       </c>
@@ -5765,7 +5804,7 @@
       <c r="F48" s="29"/>
       <c r="G48" s="5"/>
     </row>
-    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
@@ -5776,7 +5815,7 @@
       <c r="F49" s="28"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="20" t="s">
         <v>55</v>
       </c>
@@ -5787,7 +5826,7 @@
       <c r="F50" s="29"/>
       <c r="G50" s="5"/>
     </row>
-    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
@@ -5798,7 +5837,7 @@
       <c r="F51" s="28"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="20" t="s">
         <v>57</v>
       </c>
@@ -5809,7 +5848,7 @@
       <c r="F52" s="29"/>
       <c r="G52" s="5"/>
     </row>
-    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
@@ -5820,7 +5859,7 @@
       <c r="F53" s="28"/>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="20" t="s">
         <v>59</v>
       </c>
@@ -5831,7 +5870,7 @@
       <c r="F54" s="29"/>
       <c r="G54" s="5"/>
     </row>
-    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="26" t="s">
         <v>60</v>
       </c>
@@ -5876,17 +5915,17 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" style="19" customWidth="1"/>
-    <col min="2" max="3" width="30.7109375" style="19" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="19" customWidth="1"/>
-    <col min="5" max="6" width="25.7109375" style="13" customWidth="1"/>
-    <col min="7" max="7" width="28.7109375" style="19" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="19"/>
+    <col min="1" max="1" width="45.69140625" style="19" customWidth="1"/>
+    <col min="2" max="3" width="30.69140625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="20.69140625" style="19" customWidth="1"/>
+    <col min="5" max="6" width="25.69140625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="28.69140625" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="9.15234375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
@@ -5909,7 +5948,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -5930,7 +5969,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="20" t="s">
         <v>8</v>
       </c>
@@ -5951,7 +5990,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -5972,7 +6011,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
@@ -5993,7 +6032,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -6014,7 +6053,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="20" t="s">
         <v>12</v>
       </c>
@@ -6035,7 +6074,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -6056,7 +6095,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="20" t="s">
         <v>14</v>
       </c>
@@ -6077,7 +6116,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -6098,7 +6137,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="20" t="s">
         <v>16</v>
       </c>
@@ -6115,7 +6154,7 @@
       <c r="F11" s="29"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="22" t="s">
         <v>17</v>
       </c>
@@ -6136,7 +6175,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="22" t="s">
         <v>18</v>
       </c>
@@ -6157,7 +6196,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="22" t="s">
         <v>19</v>
       </c>
@@ -6178,7 +6217,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="22" t="s">
         <v>20</v>
       </c>
@@ -6199,7 +6238,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -6220,7 +6259,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="20" t="s">
         <v>22</v>
       </c>
@@ -6241,7 +6280,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -6262,7 +6301,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="20" t="s">
         <v>24</v>
       </c>
@@ -6283,7 +6322,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -6304,7 +6343,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="20" t="s">
         <v>26</v>
       </c>
@@ -6325,7 +6364,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -6346,7 +6385,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="20" t="s">
         <v>28</v>
       </c>
@@ -6367,7 +6406,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -6388,7 +6427,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="20" t="s">
         <v>30</v>
       </c>
@@ -6409,7 +6448,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -6426,7 +6465,7 @@
       <c r="F26" s="28"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="20" t="s">
         <v>32</v>
       </c>
@@ -6447,7 +6486,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
@@ -6468,7 +6507,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="20" t="s">
         <v>34</v>
       </c>
@@ -6489,7 +6528,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
@@ -6510,7 +6549,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="20" t="s">
         <v>36</v>
       </c>
@@ -6531,7 +6570,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -6552,7 +6591,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="20" t="s">
         <v>38</v>
       </c>
@@ -6573,7 +6612,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
@@ -6594,7 +6633,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
@@ -6615,7 +6654,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
@@ -6636,7 +6675,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
         <v>42</v>
       </c>
@@ -6657,7 +6696,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
@@ -6678,7 +6717,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="24" t="s">
         <v>44</v>
       </c>
@@ -6699,7 +6738,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="24" t="s">
         <v>45</v>
       </c>
@@ -6720,7 +6759,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="24" t="s">
         <v>46</v>
       </c>
@@ -6741,7 +6780,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="24" t="s">
         <v>47</v>
       </c>
@@ -6762,7 +6801,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="24" t="s">
         <v>48</v>
       </c>
@@ -6779,7 +6818,7 @@
       <c r="F43" s="31"/>
       <c r="G43" s="9"/>
     </row>
-    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="20" t="s">
         <v>49</v>
       </c>
@@ -6800,7 +6839,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
@@ -6821,7 +6860,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="20" t="s">
         <v>51</v>
       </c>
@@ -6842,7 +6881,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
@@ -6863,7 +6902,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="20" t="s">
         <v>53</v>
       </c>
@@ -6884,7 +6923,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
@@ -6905,7 +6944,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="20" t="s">
         <v>55</v>
       </c>
@@ -6926,7 +6965,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
@@ -6947,7 +6986,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="20" t="s">
         <v>57</v>
       </c>
@@ -6968,7 +7007,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
@@ -6989,7 +7028,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="20" t="s">
         <v>59</v>
       </c>
@@ -7010,7 +7049,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="26" t="s">
         <v>60</v>
       </c>
@@ -7065,17 +7104,17 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" style="19" customWidth="1"/>
-    <col min="2" max="3" width="30.7109375" style="19" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="19" customWidth="1"/>
-    <col min="5" max="6" width="25.7109375" style="13" customWidth="1"/>
-    <col min="7" max="7" width="28.7109375" style="19" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="19"/>
+    <col min="1" max="1" width="45.69140625" style="19" customWidth="1"/>
+    <col min="2" max="3" width="30.69140625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="20.69140625" style="19" customWidth="1"/>
+    <col min="5" max="6" width="25.69140625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="28.69140625" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="9.15234375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
@@ -7098,7 +7137,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -7119,7 +7158,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="20" t="s">
         <v>8</v>
       </c>
@@ -7140,7 +7179,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -7161,7 +7200,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
@@ -7182,7 +7221,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -7203,7 +7242,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="20" t="s">
         <v>12</v>
       </c>
@@ -7224,7 +7263,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -7245,7 +7284,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="20" t="s">
         <v>14</v>
       </c>
@@ -7266,7 +7305,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -7287,7 +7326,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="20" t="s">
         <v>16</v>
       </c>
@@ -7304,7 +7343,7 @@
       <c r="F11" s="29"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="22" t="s">
         <v>17</v>
       </c>
@@ -7325,7 +7364,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="22" t="s">
         <v>18</v>
       </c>
@@ -7346,7 +7385,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="22" t="s">
         <v>19</v>
       </c>
@@ -7367,7 +7406,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="22" t="s">
         <v>20</v>
       </c>
@@ -7388,7 +7427,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -7409,7 +7448,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="20" t="s">
         <v>22</v>
       </c>
@@ -7430,7 +7469,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -7451,7 +7490,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="20" t="s">
         <v>24</v>
       </c>
@@ -7472,7 +7511,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -7493,7 +7532,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="20" t="s">
         <v>26</v>
       </c>
@@ -7514,7 +7553,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -7535,7 +7574,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="20" t="s">
         <v>28</v>
       </c>
@@ -7556,7 +7595,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -7577,7 +7616,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="20" t="s">
         <v>30</v>
       </c>
@@ -7598,7 +7637,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -7615,7 +7654,7 @@
       <c r="F26" s="28"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="20" t="s">
         <v>32</v>
       </c>
@@ -7636,7 +7675,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
@@ -7657,7 +7696,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="20" t="s">
         <v>34</v>
       </c>
@@ -7678,7 +7717,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
@@ -7699,7 +7738,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="20" t="s">
         <v>36</v>
       </c>
@@ -7720,7 +7759,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -7741,7 +7780,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="20" t="s">
         <v>38</v>
       </c>
@@ -7762,7 +7801,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
@@ -7783,7 +7822,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
@@ -7804,7 +7843,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
@@ -7825,7 +7864,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
         <v>42</v>
       </c>
@@ -7846,7 +7885,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
@@ -7867,7 +7906,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="24" t="s">
         <v>44</v>
       </c>
@@ -7888,7 +7927,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="24" t="s">
         <v>45</v>
       </c>
@@ -7909,7 +7948,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="24" t="s">
         <v>46</v>
       </c>
@@ -7930,7 +7969,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="24" t="s">
         <v>47</v>
       </c>
@@ -7951,7 +7990,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="24" t="s">
         <v>48</v>
       </c>
@@ -7968,7 +8007,7 @@
       <c r="F43" s="31"/>
       <c r="G43" s="9"/>
     </row>
-    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="20" t="s">
         <v>49</v>
       </c>
@@ -7989,7 +8028,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
@@ -8010,7 +8049,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="20" t="s">
         <v>51</v>
       </c>
@@ -8031,7 +8070,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
@@ -8052,7 +8091,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="20" t="s">
         <v>53</v>
       </c>
@@ -8073,7 +8112,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
@@ -8094,7 +8133,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="20" t="s">
         <v>55</v>
       </c>
@@ -8115,7 +8154,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
@@ -8136,7 +8175,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="20" t="s">
         <v>57</v>
       </c>
@@ -8157,7 +8196,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
@@ -8178,7 +8217,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="20" t="s">
         <v>59</v>
       </c>
@@ -8199,7 +8238,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="26" t="s">
         <v>60</v>
       </c>
@@ -8253,17 +8292,17 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" style="19" customWidth="1"/>
-    <col min="2" max="3" width="30.7109375" style="19" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="19" customWidth="1"/>
-    <col min="5" max="6" width="25.7109375" style="13" customWidth="1"/>
-    <col min="7" max="7" width="28.7109375" style="19" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="19"/>
+    <col min="1" max="1" width="45.69140625" style="19" customWidth="1"/>
+    <col min="2" max="3" width="30.69140625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="20.69140625" style="19" customWidth="1"/>
+    <col min="5" max="6" width="25.69140625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="28.69140625" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="9.15234375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
@@ -8286,7 +8325,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -8307,7 +8346,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="20" t="s">
         <v>8</v>
       </c>
@@ -8328,7 +8367,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -8349,7 +8388,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
@@ -8370,7 +8409,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -8391,7 +8430,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="20" t="s">
         <v>12</v>
       </c>
@@ -8412,7 +8451,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -8433,7 +8472,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="20" t="s">
         <v>14</v>
       </c>
@@ -8454,7 +8493,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -8475,7 +8514,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="20" t="s">
         <v>16</v>
       </c>
@@ -8492,7 +8531,7 @@
       <c r="F11" s="29"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="22" t="s">
         <v>17</v>
       </c>
@@ -8513,7 +8552,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="22" t="s">
         <v>18</v>
       </c>
@@ -8534,7 +8573,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="22" t="s">
         <v>19</v>
       </c>
@@ -8555,7 +8594,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="22" t="s">
         <v>20</v>
       </c>
@@ -8576,7 +8615,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -8597,7 +8636,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="20" t="s">
         <v>22</v>
       </c>
@@ -8618,7 +8657,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -8639,7 +8678,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="20" t="s">
         <v>24</v>
       </c>
@@ -8660,7 +8699,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -8681,7 +8720,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="20" t="s">
         <v>26</v>
       </c>
@@ -8702,7 +8741,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -8723,7 +8762,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="20" t="s">
         <v>28</v>
       </c>
@@ -8744,7 +8783,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -8765,7 +8804,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="20" t="s">
         <v>30</v>
       </c>
@@ -8786,7 +8825,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -8803,7 +8842,7 @@
       <c r="F26" s="28"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="20" t="s">
         <v>32</v>
       </c>
@@ -8824,7 +8863,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
@@ -8845,7 +8884,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="20" t="s">
         <v>34</v>
       </c>
@@ -8866,7 +8905,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
@@ -8887,7 +8926,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="20" t="s">
         <v>36</v>
       </c>
@@ -8908,7 +8947,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -8929,7 +8968,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="20" t="s">
         <v>38</v>
       </c>
@@ -8950,7 +8989,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
@@ -8971,7 +9010,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
@@ -8992,7 +9031,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
@@ -9013,7 +9052,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
         <v>42</v>
       </c>
@@ -9034,7 +9073,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
@@ -9055,7 +9094,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="24" t="s">
         <v>44</v>
       </c>
@@ -9076,7 +9115,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="24" t="s">
         <v>45</v>
       </c>
@@ -9097,7 +9136,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="24" t="s">
         <v>46</v>
       </c>
@@ -9118,7 +9157,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="24" t="s">
         <v>47</v>
       </c>
@@ -9139,7 +9178,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="24" t="s">
         <v>48</v>
       </c>
@@ -9156,7 +9195,7 @@
       <c r="F43" s="31"/>
       <c r="G43" s="9"/>
     </row>
-    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="20" t="s">
         <v>49</v>
       </c>
@@ -9177,7 +9216,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
@@ -9198,7 +9237,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="20" t="s">
         <v>51</v>
       </c>
@@ -9219,7 +9258,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
@@ -9240,7 +9279,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="20" t="s">
         <v>53</v>
       </c>
@@ -9261,7 +9300,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
@@ -9282,7 +9321,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="20" t="s">
         <v>55</v>
       </c>
@@ -9303,7 +9342,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
@@ -9324,7 +9363,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="20" t="s">
         <v>57</v>
       </c>
@@ -9345,7 +9384,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
@@ -9366,7 +9405,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="20" t="s">
         <v>59</v>
       </c>
@@ -9387,7 +9426,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="26" t="s">
         <v>60</v>
       </c>
@@ -9442,17 +9481,17 @@
       <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" style="19" customWidth="1"/>
-    <col min="2" max="3" width="30.7109375" style="19" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="19" customWidth="1"/>
-    <col min="5" max="6" width="25.7109375" style="13" customWidth="1"/>
-    <col min="7" max="7" width="28.7109375" style="19" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="19"/>
+    <col min="1" max="1" width="45.69140625" style="19" customWidth="1"/>
+    <col min="2" max="3" width="30.69140625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="20.69140625" style="19" customWidth="1"/>
+    <col min="5" max="6" width="25.69140625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="28.69140625" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="9.15234375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
@@ -9475,7 +9514,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -9496,7 +9535,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="20" t="s">
         <v>8</v>
       </c>
@@ -9517,7 +9556,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -9538,7 +9577,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
@@ -9559,7 +9598,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -9580,7 +9619,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="20" t="s">
         <v>12</v>
       </c>
@@ -9601,7 +9640,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -9622,7 +9661,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="20" t="s">
         <v>14</v>
       </c>
@@ -9643,7 +9682,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -9664,7 +9703,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="20" t="s">
         <v>16</v>
       </c>
@@ -9681,7 +9720,7 @@
       <c r="F11" s="29"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="22" t="s">
         <v>17</v>
       </c>
@@ -9702,7 +9741,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="22" t="s">
         <v>18</v>
       </c>
@@ -9723,7 +9762,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="22" t="s">
         <v>19</v>
       </c>
@@ -9744,7 +9783,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="22" t="s">
         <v>20</v>
       </c>
@@ -9765,7 +9804,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -9786,7 +9825,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="20" t="s">
         <v>22</v>
       </c>
@@ -9807,7 +9846,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -9828,7 +9867,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="20" t="s">
         <v>24</v>
       </c>
@@ -9849,7 +9888,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -9870,7 +9909,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="20" t="s">
         <v>26</v>
       </c>
@@ -9891,7 +9930,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -9912,7 +9951,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="20" t="s">
         <v>28</v>
       </c>
@@ -9933,7 +9972,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -9954,7 +9993,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="20" t="s">
         <v>30</v>
       </c>
@@ -9975,7 +10014,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -9992,7 +10031,7 @@
       <c r="F26" s="28"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="20" t="s">
         <v>32</v>
       </c>
@@ -10013,7 +10052,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
@@ -10034,7 +10073,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="20" t="s">
         <v>34</v>
       </c>
@@ -10055,7 +10094,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
@@ -10076,7 +10115,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="20" t="s">
         <v>36</v>
       </c>
@@ -10097,7 +10136,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -10118,7 +10157,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="20" t="s">
         <v>38</v>
       </c>
@@ -10139,7 +10178,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
@@ -10160,7 +10199,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
@@ -10181,7 +10220,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
@@ -10202,7 +10241,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
         <v>42</v>
       </c>
@@ -10223,7 +10262,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
@@ -10244,7 +10283,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="24" t="s">
         <v>44</v>
       </c>
@@ -10265,7 +10304,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="24" t="s">
         <v>45</v>
       </c>
@@ -10286,7 +10325,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="24" t="s">
         <v>46</v>
       </c>
@@ -10307,7 +10346,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="24" t="s">
         <v>47</v>
       </c>
@@ -10328,7 +10367,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="24" t="s">
         <v>48</v>
       </c>
@@ -10345,7 +10384,7 @@
       <c r="F43" s="31"/>
       <c r="G43" s="9"/>
     </row>
-    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="20" t="s">
         <v>49</v>
       </c>
@@ -10366,7 +10405,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
@@ -10387,7 +10426,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="20" t="s">
         <v>51</v>
       </c>
@@ -10408,7 +10447,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
@@ -10429,7 +10468,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="20" t="s">
         <v>53</v>
       </c>
@@ -10450,7 +10489,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
@@ -10471,7 +10510,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="20" t="s">
         <v>55</v>
       </c>
@@ -10492,7 +10531,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
@@ -10513,7 +10552,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="20" t="s">
         <v>57</v>
       </c>
@@ -10534,7 +10573,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
@@ -10555,7 +10594,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="20" t="s">
         <v>59</v>
       </c>
@@ -10576,7 +10615,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="26" t="s">
         <v>60</v>
       </c>
@@ -10630,17 +10669,17 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" style="19" customWidth="1"/>
-    <col min="2" max="3" width="30.7109375" style="19" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="19" customWidth="1"/>
-    <col min="5" max="6" width="25.7109375" style="13" customWidth="1"/>
-    <col min="7" max="7" width="28.7109375" style="19" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="19"/>
+    <col min="1" max="1" width="45.69140625" style="19" customWidth="1"/>
+    <col min="2" max="3" width="30.69140625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="20.69140625" style="19" customWidth="1"/>
+    <col min="5" max="6" width="25.69140625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="28.69140625" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="9.15234375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
@@ -10663,7 +10702,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -10684,7 +10723,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="20" t="s">
         <v>8</v>
       </c>
@@ -10705,7 +10744,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -10726,7 +10765,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
@@ -10747,7 +10786,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -10768,7 +10807,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="20" t="s">
         <v>12</v>
       </c>
@@ -10789,7 +10828,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -10810,7 +10849,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="20" t="s">
         <v>14</v>
       </c>
@@ -10831,7 +10870,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -10852,7 +10891,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="20" t="s">
         <v>16</v>
       </c>
@@ -10869,7 +10908,7 @@
       <c r="F11" s="29"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="22" t="s">
         <v>17</v>
       </c>
@@ -10890,7 +10929,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="22" t="s">
         <v>18</v>
       </c>
@@ -10911,7 +10950,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="22" t="s">
         <v>19</v>
       </c>
@@ -10932,7 +10971,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="22" t="s">
         <v>20</v>
       </c>
@@ -10953,7 +10992,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -10974,7 +11013,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="20" t="s">
         <v>22</v>
       </c>
@@ -10995,7 +11034,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -11016,7 +11055,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="20" t="s">
         <v>24</v>
       </c>
@@ -11037,7 +11076,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -11058,7 +11097,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="20" t="s">
         <v>26</v>
       </c>
@@ -11079,7 +11118,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -11100,7 +11139,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="20" t="s">
         <v>28</v>
       </c>
@@ -11121,7 +11160,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -11142,7 +11181,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="20" t="s">
         <v>30</v>
       </c>
@@ -11163,7 +11202,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -11180,7 +11219,7 @@
       <c r="F26" s="28"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="20" t="s">
         <v>32</v>
       </c>
@@ -11201,7 +11240,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
@@ -11222,7 +11261,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="20" t="s">
         <v>34</v>
       </c>
@@ -11243,7 +11282,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
@@ -11264,7 +11303,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="20" t="s">
         <v>36</v>
       </c>
@@ -11285,7 +11324,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -11306,7 +11345,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="20" t="s">
         <v>38</v>
       </c>
@@ -11327,7 +11366,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
@@ -11348,7 +11387,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
@@ -11369,7 +11408,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
@@ -11390,7 +11429,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
         <v>42</v>
       </c>
@@ -11411,7 +11450,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
@@ -11432,7 +11471,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="24" t="s">
         <v>44</v>
       </c>
@@ -11453,7 +11492,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="24" t="s">
         <v>45</v>
       </c>
@@ -11474,7 +11513,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="24" t="s">
         <v>46</v>
       </c>
@@ -11495,7 +11534,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="24" t="s">
         <v>47</v>
       </c>
@@ -11516,7 +11555,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="24" t="s">
         <v>48</v>
       </c>
@@ -11533,7 +11572,7 @@
       <c r="F43" s="31"/>
       <c r="G43" s="9"/>
     </row>
-    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="20" t="s">
         <v>49</v>
       </c>
@@ -11554,7 +11593,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
@@ -11575,7 +11614,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="20" t="s">
         <v>51</v>
       </c>
@@ -11596,7 +11635,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
@@ -11617,7 +11656,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="20" t="s">
         <v>53</v>
       </c>
@@ -11638,7 +11677,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
@@ -11659,7 +11698,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="20" t="s">
         <v>55</v>
       </c>
@@ -11680,7 +11719,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
@@ -11701,7 +11740,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="20" t="s">
         <v>57</v>
       </c>
@@ -11722,7 +11761,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
@@ -11743,7 +11782,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="20" t="s">
         <v>59</v>
       </c>
@@ -11764,7 +11803,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="26" t="s">
         <v>60</v>
       </c>
@@ -11811,24 +11850,24 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" style="19" customWidth="1"/>
-    <col min="2" max="3" width="30.7109375" style="19" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="19" customWidth="1"/>
-    <col min="5" max="6" width="25.7109375" style="13" customWidth="1"/>
-    <col min="7" max="7" width="28.7109375" style="19" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="19"/>
+    <col min="1" max="1" width="45.69140625" style="19" customWidth="1"/>
+    <col min="2" max="3" width="30.69140625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="20.69140625" style="19" customWidth="1"/>
+    <col min="5" max="6" width="25.69140625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="28.69140625" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="9.15234375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
@@ -11851,7 +11890,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -11872,7 +11911,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="20" t="s">
         <v>8</v>
       </c>
@@ -11893,7 +11932,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -11914,7 +11953,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
@@ -11935,7 +11974,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -11956,7 +11995,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="20" t="s">
         <v>12</v>
       </c>
@@ -11977,7 +12016,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -11998,7 +12037,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="20" t="s">
         <v>14</v>
       </c>
@@ -12019,7 +12058,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -12040,7 +12079,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="20" t="s">
         <v>16</v>
       </c>
@@ -12057,7 +12096,7 @@
       <c r="F11" s="29"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="22" t="s">
         <v>17</v>
       </c>
@@ -12078,7 +12117,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="22" t="s">
         <v>18</v>
       </c>
@@ -12099,7 +12138,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="22" t="s">
         <v>19</v>
       </c>
@@ -12120,7 +12159,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="22" t="s">
         <v>20</v>
       </c>
@@ -12141,7 +12180,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -12162,7 +12201,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="20" t="s">
         <v>22</v>
       </c>
@@ -12183,7 +12222,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -12204,7 +12243,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="20" t="s">
         <v>24</v>
       </c>
@@ -12225,7 +12264,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -12246,7 +12285,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="20" t="s">
         <v>26</v>
       </c>
@@ -12267,7 +12306,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -12288,7 +12327,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="20" t="s">
         <v>28</v>
       </c>
@@ -12309,7 +12348,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -12330,7 +12369,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="20" t="s">
         <v>30</v>
       </c>
@@ -12351,7 +12390,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -12368,7 +12407,7 @@
       <c r="F26" s="28"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="20" t="s">
         <v>32</v>
       </c>
@@ -12389,7 +12428,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
@@ -12410,7 +12449,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="20" t="s">
         <v>34</v>
       </c>
@@ -12431,7 +12470,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
@@ -12452,7 +12491,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="20" t="s">
         <v>36</v>
       </c>
@@ -12473,7 +12512,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -12494,7 +12533,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="20" t="s">
         <v>38</v>
       </c>
@@ -12515,7 +12554,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
@@ -12536,7 +12575,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
@@ -12557,7 +12596,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
@@ -12578,7 +12617,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
         <v>42</v>
       </c>
@@ -12599,7 +12638,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
@@ -12620,7 +12659,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="24" t="s">
         <v>44</v>
       </c>
@@ -12641,7 +12680,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="24" t="s">
         <v>45</v>
       </c>
@@ -12662,7 +12701,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="24" t="s">
         <v>46</v>
       </c>
@@ -12683,7 +12722,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="24" t="s">
         <v>47</v>
       </c>
@@ -12704,7 +12743,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="24" t="s">
         <v>48</v>
       </c>
@@ -12721,7 +12760,7 @@
       <c r="F43" s="31"/>
       <c r="G43" s="9"/>
     </row>
-    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="20" t="s">
         <v>49</v>
       </c>
@@ -12742,7 +12781,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
@@ -12763,7 +12802,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="20" t="s">
         <v>51</v>
       </c>
@@ -12784,7 +12823,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
@@ -12805,7 +12844,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="20" t="s">
         <v>53</v>
       </c>
@@ -12826,7 +12865,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
@@ -12847,7 +12886,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="20" t="s">
         <v>55</v>
       </c>
@@ -12868,7 +12907,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
@@ -12889,7 +12928,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="20" t="s">
         <v>57</v>
       </c>
@@ -12910,7 +12949,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
@@ -12931,7 +12970,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="20" t="s">
         <v>59</v>
       </c>
@@ -12952,7 +12991,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="26" t="s">
         <v>60</v>
       </c>
@@ -13006,17 +13045,17 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" style="19" customWidth="1"/>
-    <col min="2" max="3" width="30.7109375" style="19" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="19" customWidth="1"/>
-    <col min="5" max="6" width="25.7109375" style="13" customWidth="1"/>
-    <col min="7" max="7" width="28.7109375" style="19" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="19"/>
+    <col min="1" max="1" width="45.69140625" style="19" customWidth="1"/>
+    <col min="2" max="3" width="30.69140625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="20.69140625" style="19" customWidth="1"/>
+    <col min="5" max="6" width="25.69140625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="28.69140625" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="9.15234375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
@@ -13039,599 +13078,1127 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="28"/>
+      <c r="B2" s="18">
+        <v>1564</v>
+      </c>
+      <c r="C2" s="18">
+        <v>1198</v>
+      </c>
+      <c r="D2" s="18">
+        <v>366</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F2" s="28"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="29"/>
+      <c r="B3" s="21">
+        <v>688</v>
+      </c>
+      <c r="C3" s="21">
+        <v>396</v>
+      </c>
+      <c r="D3" s="21">
+        <v>292</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F3" s="29"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="28"/>
+      <c r="B4" s="18">
+        <v>1168</v>
+      </c>
+      <c r="C4" s="18">
+        <v>1111</v>
+      </c>
+      <c r="D4" s="18">
+        <v>57</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F4" s="28"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
+      <c r="B5" s="21">
+        <v>71</v>
+      </c>
+      <c r="C5" s="21">
+        <v>130</v>
+      </c>
+      <c r="D5" s="21">
+        <v>-59</v>
+      </c>
       <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
+      <c r="B6" s="18">
+        <v>888</v>
+      </c>
+      <c r="C6" s="18">
+        <v>1370</v>
+      </c>
+      <c r="D6" s="18">
+        <v>-482</v>
+      </c>
       <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
+      <c r="B7" s="21">
+        <v>206</v>
+      </c>
+      <c r="C7" s="21">
+        <v>221</v>
+      </c>
+      <c r="D7" s="21">
+        <v>-15</v>
+      </c>
       <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
+      <c r="B8" s="18">
+        <v>153</v>
+      </c>
+      <c r="C8" s="18">
+        <v>219</v>
+      </c>
+      <c r="D8" s="18">
+        <v>-66</v>
+      </c>
       <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F8" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
+      <c r="B9" s="21">
+        <v>34</v>
+      </c>
+      <c r="C9" s="21">
+        <v>55</v>
+      </c>
+      <c r="D9" s="21">
+        <v>-21</v>
+      </c>
       <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F9" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
+      <c r="B10" s="18">
+        <v>10</v>
+      </c>
+      <c r="C10" s="18">
+        <v>48</v>
+      </c>
+      <c r="D10" s="18">
+        <v>-38</v>
+      </c>
       <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F10" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
+      <c r="B11" s="21">
+        <v>0</v>
+      </c>
+      <c r="C11" s="21">
+        <v>2</v>
+      </c>
+      <c r="D11" s="21">
+        <v>-2</v>
+      </c>
       <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F11" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="30"/>
+      <c r="B12" s="23">
+        <v>32</v>
+      </c>
+      <c r="C12" s="23">
+        <v>25</v>
+      </c>
+      <c r="D12" s="23">
+        <v>7</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>61</v>
+      </c>
       <c r="F12" s="30"/>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="30"/>
+      <c r="B13" s="23">
+        <v>166</v>
+      </c>
+      <c r="C13" s="23">
+        <v>67</v>
+      </c>
+      <c r="D13" s="23">
+        <v>99</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>61</v>
+      </c>
       <c r="F13" s="30"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
+      <c r="B14" s="23">
+        <v>128</v>
+      </c>
+      <c r="C14" s="23">
+        <v>302</v>
+      </c>
+      <c r="D14" s="23">
+        <v>-174</v>
+      </c>
       <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F14" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
+      <c r="B15" s="23">
+        <v>91</v>
+      </c>
+      <c r="C15" s="23">
+        <v>178</v>
+      </c>
+      <c r="D15" s="23">
+        <v>-87</v>
+      </c>
       <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F15" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
+      <c r="B16" s="18">
+        <v>31</v>
+      </c>
+      <c r="C16" s="18">
+        <v>168</v>
+      </c>
+      <c r="D16" s="18">
+        <v>-137</v>
+      </c>
       <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F16" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="29"/>
+      <c r="B17" s="21">
+        <v>548</v>
+      </c>
+      <c r="C17" s="21">
+        <v>460</v>
+      </c>
+      <c r="D17" s="21">
+        <v>88</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F17" s="29"/>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G17" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
+      <c r="B18" s="18">
+        <v>65</v>
+      </c>
+      <c r="C18" s="18">
+        <v>71</v>
+      </c>
+      <c r="D18" s="18">
+        <v>-6</v>
+      </c>
       <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F18" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="29"/>
+      <c r="B19" s="21">
+        <v>504</v>
+      </c>
+      <c r="C19" s="21">
+        <v>460</v>
+      </c>
+      <c r="D19" s="21">
+        <v>44</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F19" s="29"/>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G19" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
+      <c r="B20" s="18">
+        <v>1</v>
+      </c>
+      <c r="C20" s="18">
+        <v>60</v>
+      </c>
+      <c r="D20" s="18">
+        <v>-59</v>
+      </c>
       <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F20" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="29"/>
+      <c r="B21" s="21">
+        <v>528</v>
+      </c>
+      <c r="C21" s="21">
+        <v>325</v>
+      </c>
+      <c r="D21" s="21">
+        <v>203</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F21" s="29"/>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G21" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
+      <c r="B22" s="18">
+        <v>25</v>
+      </c>
+      <c r="C22" s="18">
+        <v>60</v>
+      </c>
+      <c r="D22" s="18">
+        <v>-35</v>
+      </c>
       <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F22" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="29"/>
+      <c r="B23" s="21">
+        <v>720</v>
+      </c>
+      <c r="C23" s="21">
+        <v>391</v>
+      </c>
+      <c r="D23" s="21">
+        <v>329</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F23" s="29"/>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G23" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="28"/>
+      <c r="B24" s="18">
+        <v>1383</v>
+      </c>
+      <c r="C24" s="18">
+        <v>1218</v>
+      </c>
+      <c r="D24" s="18">
+        <v>165</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F24" s="28"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G24" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
+      <c r="B25" s="21">
+        <v>129</v>
+      </c>
+      <c r="C25" s="21">
+        <v>414</v>
+      </c>
+      <c r="D25" s="21">
+        <v>-285</v>
+      </c>
       <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F25" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
+      <c r="B26" s="18">
+        <v>0</v>
+      </c>
+      <c r="C26" s="18">
+        <v>0</v>
+      </c>
+      <c r="D26" s="18">
+        <v>0</v>
+      </c>
       <c r="E26" s="28"/>
       <c r="F26" s="28"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="29"/>
+      <c r="B27" s="21">
+        <v>250</v>
+      </c>
+      <c r="C27" s="21">
+        <v>203</v>
+      </c>
+      <c r="D27" s="21">
+        <v>47</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F27" s="29"/>
-      <c r="G27" s="5"/>
-    </row>
-    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G27" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="28"/>
+      <c r="B28" s="18">
+        <v>83</v>
+      </c>
+      <c r="C28" s="18">
+        <v>77</v>
+      </c>
+      <c r="D28" s="18">
+        <v>6</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F28" s="28"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G28" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
+      <c r="B29" s="21">
+        <v>415</v>
+      </c>
+      <c r="C29" s="21">
+        <v>419</v>
+      </c>
+      <c r="D29" s="21">
+        <v>-4</v>
+      </c>
       <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="5"/>
-    </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F29" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="28"/>
+      <c r="B30" s="18">
+        <v>36</v>
+      </c>
+      <c r="C30" s="18">
+        <v>15</v>
+      </c>
+      <c r="D30" s="18">
+        <v>21</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F30" s="28"/>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G30" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
+      <c r="B31" s="21">
+        <v>55</v>
+      </c>
+      <c r="C31" s="21">
+        <v>266</v>
+      </c>
+      <c r="D31" s="21">
+        <v>-211</v>
+      </c>
       <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="5"/>
-    </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F31" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
+      <c r="B32" s="18">
+        <v>458</v>
+      </c>
+      <c r="C32" s="18">
+        <v>547</v>
+      </c>
+      <c r="D32" s="18">
+        <v>-89</v>
+      </c>
       <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F32" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
+      <c r="B33" s="21">
+        <v>455</v>
+      </c>
+      <c r="C33" s="21">
+        <v>599</v>
+      </c>
+      <c r="D33" s="21">
+        <v>-144</v>
+      </c>
       <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="5"/>
-    </row>
-    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F33" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="28"/>
+      <c r="B34" s="18">
+        <v>205</v>
+      </c>
+      <c r="C34" s="18">
+        <v>115</v>
+      </c>
+      <c r="D34" s="18">
+        <v>90</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F34" s="28"/>
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G34" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
+      <c r="B35" s="21">
+        <v>870</v>
+      </c>
+      <c r="C35" s="21">
+        <v>1188</v>
+      </c>
+      <c r="D35" s="21">
+        <v>-318</v>
+      </c>
       <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="5"/>
-    </row>
-    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F35" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
+      <c r="B36" s="18">
+        <v>214</v>
+      </c>
+      <c r="C36" s="18">
+        <v>473</v>
+      </c>
+      <c r="D36" s="18">
+        <v>-259</v>
+      </c>
       <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="3"/>
-    </row>
-    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F36" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="29"/>
+      <c r="B37" s="21">
+        <v>556</v>
+      </c>
+      <c r="C37" s="21">
+        <v>346</v>
+      </c>
+      <c r="D37" s="21">
+        <v>210</v>
+      </c>
+      <c r="E37" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F37" s="29"/>
-      <c r="G37" s="5"/>
-    </row>
-    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G37" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
+      <c r="B38" s="18">
+        <v>18</v>
+      </c>
+      <c r="C38" s="18">
+        <v>147</v>
+      </c>
+      <c r="D38" s="18">
+        <v>-129</v>
+      </c>
       <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="3"/>
-    </row>
-    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F38" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
+      <c r="B39" s="25">
+        <v>0</v>
+      </c>
+      <c r="C39" s="25">
+        <v>7</v>
+      </c>
+      <c r="D39" s="25">
+        <v>-7</v>
+      </c>
       <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="9"/>
-    </row>
-    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F39" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
+      <c r="B40" s="25">
+        <v>0</v>
+      </c>
+      <c r="C40" s="25">
+        <v>4</v>
+      </c>
+      <c r="D40" s="25">
+        <v>-4</v>
+      </c>
       <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="9"/>
-    </row>
-    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F40" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
+      <c r="B41" s="25">
+        <v>0</v>
+      </c>
+      <c r="C41" s="25">
+        <v>0</v>
+      </c>
+      <c r="D41" s="25">
+        <v>0</v>
+      </c>
       <c r="E41" s="31"/>
       <c r="F41" s="31"/>
       <c r="G41" s="9"/>
     </row>
-    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
+      <c r="B42" s="25">
+        <v>0</v>
+      </c>
+      <c r="C42" s="25">
+        <v>1</v>
+      </c>
+      <c r="D42" s="25">
+        <v>-1</v>
+      </c>
       <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="9"/>
-    </row>
-    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F42" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
+      <c r="B43" s="25">
+        <v>0</v>
+      </c>
+      <c r="C43" s="25">
+        <v>0</v>
+      </c>
+      <c r="D43" s="25">
+        <v>0</v>
+      </c>
       <c r="E43" s="31"/>
       <c r="F43" s="31"/>
       <c r="G43" s="9"/>
     </row>
-    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
+      <c r="B44" s="21">
+        <v>69</v>
+      </c>
+      <c r="C44" s="21">
+        <v>73</v>
+      </c>
+      <c r="D44" s="21">
+        <v>-4</v>
+      </c>
       <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="5"/>
-    </row>
-    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F44" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
+      <c r="B45" s="18">
+        <v>115</v>
+      </c>
+      <c r="C45" s="18">
+        <v>191</v>
+      </c>
+      <c r="D45" s="18">
+        <v>-76</v>
+      </c>
       <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="3"/>
-    </row>
-    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F45" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
+      <c r="B46" s="21">
+        <v>479</v>
+      </c>
+      <c r="C46" s="21">
+        <v>592</v>
+      </c>
+      <c r="D46" s="21">
+        <v>-113</v>
+      </c>
       <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="5"/>
-    </row>
-    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F46" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="28"/>
+      <c r="B47" s="18">
+        <v>1082</v>
+      </c>
+      <c r="C47" s="18">
+        <v>502</v>
+      </c>
+      <c r="D47" s="18">
+        <v>580</v>
+      </c>
+      <c r="E47" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F47" s="28"/>
-      <c r="G47" s="3"/>
-    </row>
-    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G47" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
+      <c r="B48" s="21">
+        <v>281</v>
+      </c>
+      <c r="C48" s="21">
+        <v>549</v>
+      </c>
+      <c r="D48" s="21">
+        <v>-268</v>
+      </c>
       <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="5"/>
-    </row>
-    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F48" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="28"/>
+      <c r="B49" s="18">
+        <v>595</v>
+      </c>
+      <c r="C49" s="18">
+        <v>280</v>
+      </c>
+      <c r="D49" s="18">
+        <v>315</v>
+      </c>
+      <c r="E49" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F49" s="28"/>
-      <c r="G49" s="3"/>
-    </row>
-    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G49" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="29"/>
+      <c r="B50" s="21">
+        <v>1032</v>
+      </c>
+      <c r="C50" s="21">
+        <v>584</v>
+      </c>
+      <c r="D50" s="21">
+        <v>448</v>
+      </c>
+      <c r="E50" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F50" s="29"/>
-      <c r="G50" s="5"/>
-    </row>
-    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G50" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="28"/>
+      <c r="B51" s="18">
+        <v>221</v>
+      </c>
+      <c r="C51" s="18">
+        <v>163</v>
+      </c>
+      <c r="D51" s="18">
+        <v>58</v>
+      </c>
+      <c r="E51" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F51" s="28"/>
-      <c r="G51" s="3"/>
-    </row>
-    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G51" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
+      <c r="B52" s="21">
+        <v>333</v>
+      </c>
+      <c r="C52" s="21">
+        <v>383</v>
+      </c>
+      <c r="D52" s="21">
+        <v>-50</v>
+      </c>
       <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="5"/>
-    </row>
-    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F52" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
+      <c r="B53" s="18">
+        <v>114</v>
+      </c>
+      <c r="C53" s="18">
+        <v>266</v>
+      </c>
+      <c r="D53" s="18">
+        <v>-152</v>
+      </c>
       <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="3"/>
-    </row>
-    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F53" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B54" s="21"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
+      <c r="B54" s="21">
+        <v>15</v>
+      </c>
+      <c r="C54" s="21">
+        <v>250</v>
+      </c>
+      <c r="D54" s="21">
+        <v>-235</v>
+      </c>
       <c r="E54" s="29"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="5"/>
-    </row>
-    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F54" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="B55" s="27"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="32"/>
+      <c r="B55" s="27">
+        <v>303</v>
+      </c>
+      <c r="C55" s="27">
+        <v>198</v>
+      </c>
+      <c r="D55" s="27">
+        <v>105</v>
+      </c>
+      <c r="E55" s="32" t="s">
+        <v>61</v>
+      </c>
       <c r="F55" s="32"/>
-      <c r="G55" s="11"/>
+      <c r="G55" s="11" t="s">
+        <v>241</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G55" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
@@ -13666,17 +14233,17 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" style="19" customWidth="1"/>
-    <col min="2" max="3" width="30.7109375" style="19" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="19" customWidth="1"/>
-    <col min="5" max="6" width="25.7109375" style="13" customWidth="1"/>
-    <col min="7" max="7" width="28.7109375" style="19" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="19"/>
+    <col min="1" max="1" width="45.69140625" style="19" customWidth="1"/>
+    <col min="2" max="3" width="30.69140625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="20.69140625" style="19" customWidth="1"/>
+    <col min="5" max="6" width="25.69140625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="28.69140625" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="9.15234375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
@@ -13699,7 +14266,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -13710,7 +14277,7 @@
       <c r="F2" s="28"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="20" t="s">
         <v>8</v>
       </c>
@@ -13721,7 +14288,7 @@
       <c r="F3" s="29"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -13732,7 +14299,7 @@
       <c r="F4" s="28"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
@@ -13743,7 +14310,7 @@
       <c r="F5" s="29"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -13754,7 +14321,7 @@
       <c r="F6" s="28"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="20" t="s">
         <v>12</v>
       </c>
@@ -13765,7 +14332,7 @@
       <c r="F7" s="29"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -13776,7 +14343,7 @@
       <c r="F8" s="28"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="20" t="s">
         <v>14</v>
       </c>
@@ -13787,7 +14354,7 @@
       <c r="F9" s="29"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -13798,7 +14365,7 @@
       <c r="F10" s="28"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="20" t="s">
         <v>16</v>
       </c>
@@ -13809,7 +14376,7 @@
       <c r="F11" s="29"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="22" t="s">
         <v>17</v>
       </c>
@@ -13820,7 +14387,7 @@
       <c r="F12" s="30"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="22" t="s">
         <v>18</v>
       </c>
@@ -13831,7 +14398,7 @@
       <c r="F13" s="30"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="22" t="s">
         <v>19</v>
       </c>
@@ -13842,7 +14409,7 @@
       <c r="F14" s="30"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="22" t="s">
         <v>20</v>
       </c>
@@ -13853,7 +14420,7 @@
       <c r="F15" s="30"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -13864,7 +14431,7 @@
       <c r="F16" s="28"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="20" t="s">
         <v>22</v>
       </c>
@@ -13875,7 +14442,7 @@
       <c r="F17" s="29"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -13886,7 +14453,7 @@
       <c r="F18" s="28"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="20" t="s">
         <v>24</v>
       </c>
@@ -13897,7 +14464,7 @@
       <c r="F19" s="29"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -13908,7 +14475,7 @@
       <c r="F20" s="28"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="20" t="s">
         <v>26</v>
       </c>
@@ -13919,7 +14486,7 @@
       <c r="F21" s="29"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -13930,7 +14497,7 @@
       <c r="F22" s="28"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="20" t="s">
         <v>28</v>
       </c>
@@ -13941,7 +14508,7 @@
       <c r="F23" s="29"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -13952,7 +14519,7 @@
       <c r="F24" s="28"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="20" t="s">
         <v>30</v>
       </c>
@@ -13963,7 +14530,7 @@
       <c r="F25" s="29"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -13974,7 +14541,7 @@
       <c r="F26" s="28"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="20" t="s">
         <v>32</v>
       </c>
@@ -13985,7 +14552,7 @@
       <c r="F27" s="29"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
@@ -13996,7 +14563,7 @@
       <c r="F28" s="28"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="20" t="s">
         <v>34</v>
       </c>
@@ -14007,7 +14574,7 @@
       <c r="F29" s="29"/>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
@@ -14018,7 +14585,7 @@
       <c r="F30" s="28"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="20" t="s">
         <v>36</v>
       </c>
@@ -14029,7 +14596,7 @@
       <c r="F31" s="29"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -14040,7 +14607,7 @@
       <c r="F32" s="28"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="20" t="s">
         <v>38</v>
       </c>
@@ -14051,7 +14618,7 @@
       <c r="F33" s="29"/>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
@@ -14062,7 +14629,7 @@
       <c r="F34" s="28"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
@@ -14073,7 +14640,7 @@
       <c r="F35" s="29"/>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
@@ -14084,7 +14651,7 @@
       <c r="F36" s="28"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
         <v>42</v>
       </c>
@@ -14095,7 +14662,7 @@
       <c r="F37" s="29"/>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
@@ -14106,7 +14673,7 @@
       <c r="F38" s="28"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="24" t="s">
         <v>44</v>
       </c>
@@ -14117,7 +14684,7 @@
       <c r="F39" s="31"/>
       <c r="G39" s="9"/>
     </row>
-    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="24" t="s">
         <v>45</v>
       </c>
@@ -14128,7 +14695,7 @@
       <c r="F40" s="31"/>
       <c r="G40" s="9"/>
     </row>
-    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="24" t="s">
         <v>46</v>
       </c>
@@ -14139,7 +14706,7 @@
       <c r="F41" s="31"/>
       <c r="G41" s="9"/>
     </row>
-    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="24" t="s">
         <v>47</v>
       </c>
@@ -14150,7 +14717,7 @@
       <c r="F42" s="31"/>
       <c r="G42" s="9"/>
     </row>
-    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="24" t="s">
         <v>48</v>
       </c>
@@ -14161,7 +14728,7 @@
       <c r="F43" s="31"/>
       <c r="G43" s="9"/>
     </row>
-    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="20" t="s">
         <v>49</v>
       </c>
@@ -14172,7 +14739,7 @@
       <c r="F44" s="29"/>
       <c r="G44" s="5"/>
     </row>
-    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
@@ -14183,7 +14750,7 @@
       <c r="F45" s="28"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="20" t="s">
         <v>51</v>
       </c>
@@ -14194,7 +14761,7 @@
       <c r="F46" s="29"/>
       <c r="G46" s="5"/>
     </row>
-    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
@@ -14205,7 +14772,7 @@
       <c r="F47" s="28"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="20" t="s">
         <v>53</v>
       </c>
@@ -14216,7 +14783,7 @@
       <c r="F48" s="29"/>
       <c r="G48" s="5"/>
     </row>
-    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
@@ -14227,7 +14794,7 @@
       <c r="F49" s="28"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="20" t="s">
         <v>55</v>
       </c>
@@ -14238,7 +14805,7 @@
       <c r="F50" s="29"/>
       <c r="G50" s="5"/>
     </row>
-    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
@@ -14249,7 +14816,7 @@
       <c r="F51" s="28"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="20" t="s">
         <v>57</v>
       </c>
@@ -14260,7 +14827,7 @@
       <c r="F52" s="29"/>
       <c r="G52" s="5"/>
     </row>
-    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
@@ -14271,7 +14838,7 @@
       <c r="F53" s="28"/>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="20" t="s">
         <v>59</v>
       </c>
@@ -14282,7 +14849,7 @@
       <c r="F54" s="29"/>
       <c r="G54" s="5"/>
     </row>
-    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="26" t="s">
         <v>60</v>
       </c>

--- a/statistics_files/2024/2024_99_g_net_borrower_lender.xlsx
+++ b/statistics_files/2024/2024_99_g_net_borrower_lender.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20413"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\github\next_statistics\statistics_files\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05991BA-1704-4876-AEE3-CD3065935A6B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592195E8-9BA4-4721-946F-B175E6E5FE82}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="673" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1609" uniqueCount="252">
   <si>
     <t>NET</t>
   </si>
@@ -778,6 +778,36 @@
   </si>
   <si>
     <t>1.53 : 1</t>
+  </si>
+  <si>
+    <t>0.89 : 1</t>
+  </si>
+  <si>
+    <t>1.60 : 1</t>
+  </si>
+  <si>
+    <t>2.06 : 1</t>
+  </si>
+  <si>
+    <t>1.20 : 1</t>
+  </si>
+  <si>
+    <t>0.09 : 1</t>
+  </si>
+  <si>
+    <t>0.10 : 1</t>
+  </si>
+  <si>
+    <t>0.63 : 1</t>
+  </si>
+  <si>
+    <t>0.38 : 1</t>
+  </si>
+  <si>
+    <t>2.07 : 1</t>
+  </si>
+  <si>
+    <t>2.17 : 1</t>
   </si>
 </sst>
 </file>
@@ -1649,16 +1679,16 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.69140625" style="19" customWidth="1"/>
-    <col min="2" max="3" width="30.69140625" customWidth="1"/>
-    <col min="4" max="4" width="20.69140625" customWidth="1"/>
-    <col min="5" max="6" width="25.69140625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="28.69140625" customWidth="1"/>
+    <col min="1" max="1" width="45.6640625" style="19" customWidth="1"/>
+    <col min="2" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="6" width="25.6640625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
@@ -1681,21 +1711,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2">
         <f>January!B2+February!B2+March!B2+April!B2+May!B2+June!B2+July!B2+August!B2+September!B2+October!B2+November!B2+December!B2</f>
-        <v>9704</v>
+        <v>11251</v>
       </c>
       <c r="C2" s="2">
         <f>January!C2+February!C2+March!C2+April!C2+May!C2+June!C2+July!C2+August!C2+September!C2+October!C2+November!C2+December!C2</f>
-        <v>8253</v>
+        <v>9598</v>
       </c>
       <c r="D2" s="2">
         <f>January!D2+February!D2+March!D2+April!D2+May!D2+June!D2+July!D2+August!D2+September!D2+October!D2+November!D2+December!D2</f>
-        <v>1451</v>
+        <v>1653</v>
       </c>
       <c r="E2" s="28" t="str">
         <f t="shared" ref="E2:E33" si="0">IF(D2 &gt; 0, "We borrowed more than we lent this year", "")</f>
@@ -1707,24 +1737,24 @@
       </c>
       <c r="G2" s="3" t="str">
         <f t="shared" ref="G2:G33" si="2">IF(ISERROR(ROUND(B2/C2,2)&amp;" : 1"), "", ROUND(B2/C2,2)&amp;" : 1")</f>
-        <v>1.18 : 1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+        <v>1.17 : 1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="4">
         <f>January!B3+February!B3+March!B3+April!B3+May!B3+June!B3+July!B3+August!B3+September!B3+October!B3+November!B3+December!B3</f>
-        <v>4184</v>
+        <v>4952</v>
       </c>
       <c r="C3" s="4">
         <f>January!C3+February!C3+March!C3+April!C3+May!C3+June!C3+July!C3+August!C3+September!C3+October!C3+November!C3+December!C3</f>
-        <v>3018</v>
+        <v>3449</v>
       </c>
       <c r="D3" s="4">
         <f>January!D3+February!D3+March!D3+April!D3+May!D3+June!D3+July!D3+August!D3+September!D3+October!D3+November!D3+December!D3</f>
-        <v>1166</v>
+        <v>1503</v>
       </c>
       <c r="E3" s="29" t="str">
         <f t="shared" si="0"/>
@@ -1736,24 +1766,24 @@
       </c>
       <c r="G3" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>1.39 : 1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+        <v>1.44 : 1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="2">
         <f>January!B4+February!B4+March!B4+April!B4+May!B4+June!B4+July!B4+August!B4+September!B4+October!B4+November!B4+December!B4</f>
-        <v>8293</v>
+        <v>9374</v>
       </c>
       <c r="C4" s="2">
         <f>January!C4+February!C4+March!C4+April!C4+May!C4+June!C4+July!C4+August!C4+September!C4+October!C4+November!C4+December!C4</f>
-        <v>8238</v>
+        <v>9336</v>
       </c>
       <c r="D4" s="2">
         <f>January!D4+February!D4+March!D4+April!D4+May!D4+June!D4+July!D4+August!D4+September!D4+October!D4+November!D4+December!D4</f>
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="E4" s="28" t="str">
         <f t="shared" si="0"/>
@@ -1765,24 +1795,24 @@
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>1.01 : 1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+        <v>1 : 1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="4">
         <f>January!B5+February!B5+March!B5+April!B5+May!B5+June!B5+July!B5+August!B5+September!B5+October!B5+November!B5+December!B5</f>
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="C5" s="4">
         <f>January!C5+February!C5+March!C5+April!C5+May!C5+June!C5+July!C5+August!C5+September!C5+October!C5+November!C5+December!C5</f>
-        <v>886</v>
+        <v>1025</v>
       </c>
       <c r="D5" s="4">
         <f>January!D5+February!D5+March!D5+April!D5+May!D5+June!D5+July!D5+August!D5+September!D5+October!D5+November!D5+December!D5</f>
-        <v>-574</v>
+        <v>-694</v>
       </c>
       <c r="E5" s="29" t="str">
         <f t="shared" si="0"/>
@@ -1794,24 +1824,24 @@
       </c>
       <c r="G5" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>0.35 : 1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+        <v>0.32 : 1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="2">
         <f>January!B6+February!B6+March!B6+April!B6+May!B6+June!B6+July!B6+August!B6+September!B6+October!B6+November!B6+December!B6</f>
-        <v>7285</v>
+        <v>8332</v>
       </c>
       <c r="C6" s="2">
         <f>January!C6+February!C6+March!C6+April!C6+May!C6+June!C6+July!C6+August!C6+September!C6+October!C6+November!C6+December!C6</f>
-        <v>9766</v>
+        <v>11378</v>
       </c>
       <c r="D6" s="2">
         <f>January!D6+February!D6+March!D6+April!D6+May!D6+June!D6+July!D6+August!D6+September!D6+October!D6+November!D6+December!D6</f>
-        <v>-2481</v>
+        <v>-3046</v>
       </c>
       <c r="E6" s="28" t="str">
         <f t="shared" si="0"/>
@@ -1823,24 +1853,24 @@
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.75 : 1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+        <v>0.73 : 1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="4">
         <f>January!B7+February!B7+March!B7+April!B7+May!B7+June!B7+July!B7+August!B7+September!B7+October!B7+November!B7+December!B7</f>
-        <v>2076</v>
+        <v>2330</v>
       </c>
       <c r="C7" s="4">
         <f>January!C7+February!C7+March!C7+April!C7+May!C7+June!C7+July!C7+August!C7+September!C7+October!C7+November!C7+December!C7</f>
-        <v>1087</v>
+        <v>1318</v>
       </c>
       <c r="D7" s="4">
         <f>January!D7+February!D7+March!D7+April!D7+May!D7+June!D7+July!D7+August!D7+September!D7+October!D7+November!D7+December!D7</f>
-        <v>989</v>
+        <v>1012</v>
       </c>
       <c r="E7" s="29" t="str">
         <f t="shared" si="0"/>
@@ -1852,24 +1882,24 @@
       </c>
       <c r="G7" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>1.91 : 1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+        <v>1.77 : 1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="2">
         <f>January!B8+February!B8+March!B8+April!B8+May!B8+June!B8+July!B8+August!B8+September!B8+October!B8+November!B8+December!B8</f>
-        <v>915</v>
+        <v>1082</v>
       </c>
       <c r="C8" s="2">
         <f>January!C8+February!C8+March!C8+April!C8+May!C8+June!C8+July!C8+August!C8+September!C8+October!C8+November!C8+December!C8</f>
-        <v>1331</v>
+        <v>1519</v>
       </c>
       <c r="D8" s="2">
         <f>January!D8+February!D8+March!D8+April!D8+May!D8+June!D8+July!D8+August!D8+September!D8+October!D8+November!D8+December!D8</f>
-        <v>-416</v>
+        <v>-437</v>
       </c>
       <c r="E8" s="28" t="str">
         <f t="shared" si="0"/>
@@ -1881,24 +1911,24 @@
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.69 : 1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+        <v>0.71 : 1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="4">
         <f>January!B9+February!B9+March!B9+April!B9+May!B9+June!B9+July!B9+August!B9+September!B9+October!B9+November!B9+December!B9</f>
-        <v>329</v>
+        <v>358</v>
       </c>
       <c r="C9" s="4">
         <f>January!C9+February!C9+March!C9+April!C9+May!C9+June!C9+July!C9+August!C9+September!C9+October!C9+November!C9+December!C9</f>
-        <v>492</v>
+        <v>582</v>
       </c>
       <c r="D9" s="4">
         <f>January!D9+February!D9+March!D9+April!D9+May!D9+June!D9+July!D9+August!D9+September!D9+October!D9+November!D9+December!D9</f>
-        <v>-163</v>
+        <v>-224</v>
       </c>
       <c r="E9" s="29" t="str">
         <f t="shared" si="0"/>
@@ -1910,10 +1940,10 @@
       </c>
       <c r="G9" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>0.67 : 1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+        <v>0.62 : 1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -1923,11 +1953,11 @@
       </c>
       <c r="C10" s="2">
         <f>January!C10+February!C10+March!C10+April!C10+May!C10+June!C10+July!C10+August!C10+September!C10+October!C10+November!C10+December!C10</f>
-        <v>344</v>
+        <v>413</v>
       </c>
       <c r="D10" s="2">
         <f>January!D10+February!D10+March!D10+April!D10+May!D10+June!D10+July!D10+August!D10+September!D10+October!D10+November!D10+December!D10</f>
-        <v>-325</v>
+        <v>-394</v>
       </c>
       <c r="E10" s="28" t="str">
         <f t="shared" si="0"/>
@@ -1939,10 +1969,10 @@
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.06 : 1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+        <v>0.05 : 1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>16</v>
       </c>
@@ -1971,21 +2001,21 @@
         <v>0 : 1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="6">
         <f>January!B12+February!B12+March!B12+April!B12+May!B12+June!B12+July!B12+August!B12+September!B12+October!B12+November!B12+December!B12</f>
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="C12" s="6">
         <f>January!C12+February!C12+March!C12+April!C12+May!C12+June!C12+July!C12+August!C12+September!C12+October!C12+November!C12+December!C12</f>
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="D12" s="6">
         <f>January!D12+February!D12+March!D12+April!D12+May!D12+June!D12+July!D12+August!D12+September!D12+October!D12+November!D12+December!D12</f>
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="E12" s="30" t="str">
         <f t="shared" si="0"/>
@@ -2000,21 +2030,21 @@
         <v>1.57 : 1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="6">
         <f>January!B13+February!B13+March!B13+April!B13+May!B13+June!B13+July!B13+August!B13+September!B13+October!B13+November!B13+December!B13</f>
-        <v>1133</v>
+        <v>1218</v>
       </c>
       <c r="C13" s="6">
         <f>January!C13+February!C13+March!C13+April!C13+May!C13+June!C13+July!C13+August!C13+September!C13+October!C13+November!C13+December!C13</f>
-        <v>601</v>
+        <v>680</v>
       </c>
       <c r="D13" s="6">
         <f>January!D13+February!D13+March!D13+April!D13+May!D13+June!D13+July!D13+August!D13+September!D13+October!D13+November!D13+December!D13</f>
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="E13" s="30" t="str">
         <f t="shared" si="0"/>
@@ -2026,24 +2056,24 @@
       </c>
       <c r="G13" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>1.89 : 1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+        <v>1.79 : 1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="6">
         <f>January!B14+February!B14+March!B14+April!B14+May!B14+June!B14+July!B14+August!B14+September!B14+October!B14+November!B14+December!B14</f>
-        <v>939</v>
+        <v>1085</v>
       </c>
       <c r="C14" s="6">
         <f>January!C14+February!C14+March!C14+April!C14+May!C14+June!C14+July!C14+August!C14+September!C14+October!C14+November!C14+December!C14</f>
-        <v>1846</v>
+        <v>2070</v>
       </c>
       <c r="D14" s="6">
         <f>January!D14+February!D14+March!D14+April!D14+May!D14+June!D14+July!D14+August!D14+September!D14+October!D14+November!D14+December!D14</f>
-        <v>-907</v>
+        <v>-985</v>
       </c>
       <c r="E14" s="30" t="str">
         <f t="shared" si="0"/>
@@ -2055,24 +2085,24 @@
       </c>
       <c r="G14" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>0.51 : 1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+        <v>0.52 : 1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="6">
         <f>January!B15+February!B15+March!B15+April!B15+May!B15+June!B15+July!B15+August!B15+September!B15+October!B15+November!B15+December!B15</f>
-        <v>454</v>
+        <v>510</v>
       </c>
       <c r="C15" s="6">
         <f>January!C15+February!C15+March!C15+April!C15+May!C15+June!C15+July!C15+August!C15+September!C15+October!C15+November!C15+December!C15</f>
-        <v>955</v>
+        <v>1122</v>
       </c>
       <c r="D15" s="6">
         <f>January!D15+February!D15+March!D15+April!D15+May!D15+June!D15+July!D15+August!D15+September!D15+October!D15+November!D15+December!D15</f>
-        <v>-501</v>
+        <v>-612</v>
       </c>
       <c r="E15" s="30" t="str">
         <f t="shared" si="0"/>
@@ -2084,24 +2114,24 @@
       </c>
       <c r="G15" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>0.48 : 1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+        <v>0.45 : 1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="2">
         <f>January!B16+February!B16+March!B16+April!B16+May!B16+June!B16+July!B16+August!B16+September!B16+October!B16+November!B16+December!B16</f>
-        <v>440</v>
+        <v>522</v>
       </c>
       <c r="C16" s="2">
         <f>January!C16+February!C16+March!C16+April!C16+May!C16+June!C16+July!C16+August!C16+September!C16+October!C16+November!C16+December!C16</f>
-        <v>1007</v>
+        <v>1173</v>
       </c>
       <c r="D16" s="2">
         <f>January!D16+February!D16+March!D16+April!D16+May!D16+June!D16+July!D16+August!D16+September!D16+October!D16+November!D16+December!D16</f>
-        <v>-567</v>
+        <v>-651</v>
       </c>
       <c r="E16" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2113,24 +2143,24 @@
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.44 : 1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+        <v>0.45 : 1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="4">
         <f>January!B17+February!B17+March!B17+April!B17+May!B17+June!B17+July!B17+August!B17+September!B17+October!B17+November!B17+December!B17</f>
-        <v>4053</v>
+        <v>4763</v>
       </c>
       <c r="C17" s="4">
         <f>January!C17+February!C17+March!C17+April!C17+May!C17+June!C17+July!C17+August!C17+September!C17+October!C17+November!C17+December!C17</f>
-        <v>2979</v>
+        <v>3379</v>
       </c>
       <c r="D17" s="4">
         <f>January!D17+February!D17+March!D17+April!D17+May!D17+June!D17+July!D17+August!D17+September!D17+October!D17+November!D17+December!D17</f>
-        <v>1074</v>
+        <v>1384</v>
       </c>
       <c r="E17" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2142,24 +2172,24 @@
       </c>
       <c r="G17" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>1.36 : 1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+        <v>1.41 : 1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="2">
         <f>January!B18+February!B18+March!B18+April!B18+May!B18+June!B18+July!B18+August!B18+September!B18+October!B18+November!B18+December!B18</f>
-        <v>508</v>
+        <v>611</v>
       </c>
       <c r="C18" s="2">
         <f>January!C18+February!C18+March!C18+April!C18+May!C18+June!C18+July!C18+August!C18+September!C18+October!C18+November!C18+December!C18</f>
-        <v>693</v>
+        <v>783</v>
       </c>
       <c r="D18" s="2">
         <f>January!D18+February!D18+March!D18+April!D18+May!D18+June!D18+July!D18+August!D18+September!D18+October!D18+November!D18+December!D18</f>
-        <v>-185</v>
+        <v>-172</v>
       </c>
       <c r="E18" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2171,24 +2201,24 @@
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.73 : 1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+        <v>0.78 : 1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="4">
         <f>January!B19+February!B19+March!B19+April!B19+May!B19+June!B19+July!B19+August!B19+September!B19+October!B19+November!B19+December!B19</f>
-        <v>3813</v>
+        <v>4283</v>
       </c>
       <c r="C19" s="4">
         <f>January!C19+February!C19+March!C19+April!C19+May!C19+June!C19+July!C19+August!C19+September!C19+October!C19+November!C19+December!C19</f>
-        <v>3075</v>
+        <v>3531</v>
       </c>
       <c r="D19" s="4">
         <f>January!D19+February!D19+March!D19+April!D19+May!D19+June!D19+July!D19+August!D19+September!D19+October!D19+November!D19+December!D19</f>
-        <v>738</v>
+        <v>752</v>
       </c>
       <c r="E19" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2200,24 +2230,24 @@
       </c>
       <c r="G19" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>1.24 : 1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+        <v>1.21 : 1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="2">
         <f>January!B20+February!B20+March!B20+April!B20+May!B20+June!B20+July!B20+August!B20+September!B20+October!B20+November!B20+December!B20</f>
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C20" s="2">
         <f>January!C20+February!C20+March!C20+April!C20+May!C20+June!C20+July!C20+August!C20+September!C20+October!C20+November!C20+December!C20</f>
-        <v>526</v>
+        <v>589</v>
       </c>
       <c r="D20" s="2">
         <f>January!D20+February!D20+March!D20+April!D20+May!D20+June!D20+July!D20+August!D20+September!D20+October!D20+November!D20+December!D20</f>
-        <v>-512</v>
+        <v>-547</v>
       </c>
       <c r="E20" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2229,24 +2259,24 @@
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.03 : 1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+        <v>0.07 : 1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="4">
         <f>January!B21+February!B21+March!B21+April!B21+May!B21+June!B21+July!B21+August!B21+September!B21+October!B21+November!B21+December!B21</f>
-        <v>3296</v>
+        <v>3871</v>
       </c>
       <c r="C21" s="4">
         <f>January!C21+February!C21+March!C21+April!C21+May!C21+June!C21+July!C21+August!C21+September!C21+October!C21+November!C21+December!C21</f>
-        <v>2451</v>
+        <v>2779</v>
       </c>
       <c r="D21" s="4">
         <f>January!D21+February!D21+March!D21+April!D21+May!D21+June!D21+July!D21+August!D21+September!D21+October!D21+November!D21+December!D21</f>
-        <v>845</v>
+        <v>1092</v>
       </c>
       <c r="E21" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2258,24 +2288,24 @@
       </c>
       <c r="G21" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>1.34 : 1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+        <v>1.39 : 1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B22" s="2">
         <f>January!B22+February!B22+March!B22+April!B22+May!B22+June!B22+July!B22+August!B22+September!B22+October!B22+November!B22+December!B22</f>
-        <v>168</v>
+        <v>206</v>
       </c>
       <c r="C22" s="2">
         <f>January!C22+February!C22+March!C22+April!C22+May!C22+June!C22+July!C22+August!C22+September!C22+October!C22+November!C22+December!C22</f>
-        <v>795</v>
+        <v>904</v>
       </c>
       <c r="D22" s="2">
         <f>January!D22+February!D22+March!D22+April!D22+May!D22+June!D22+July!D22+August!D22+September!D22+October!D22+November!D22+December!D22</f>
-        <v>-627</v>
+        <v>-698</v>
       </c>
       <c r="E22" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2287,24 +2317,24 @@
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.21 : 1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+        <v>0.23 : 1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="4">
         <f>January!B23+February!B23+March!B23+April!B23+May!B23+June!B23+July!B23+August!B23+September!B23+October!B23+November!B23+December!B23</f>
-        <v>4548</v>
+        <v>5278</v>
       </c>
       <c r="C23" s="4">
         <f>January!C23+February!C23+March!C23+April!C23+May!C23+June!C23+July!C23+August!C23+September!C23+October!C23+November!C23+December!C23</f>
-        <v>2485</v>
+        <v>2840</v>
       </c>
       <c r="D23" s="4">
         <f>January!D23+February!D23+March!D23+April!D23+May!D23+June!D23+July!D23+August!D23+September!D23+October!D23+November!D23+December!D23</f>
-        <v>2063</v>
+        <v>2438</v>
       </c>
       <c r="E23" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2316,24 +2346,24 @@
       </c>
       <c r="G23" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>1.83 : 1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+        <v>1.86 : 1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="2">
         <f>January!B24+February!B24+March!B24+April!B24+May!B24+June!B24+July!B24+August!B24+September!B24+October!B24+November!B24+December!B24</f>
-        <v>11673</v>
+        <v>13240</v>
       </c>
       <c r="C24" s="2">
         <f>January!C24+February!C24+March!C24+April!C24+May!C24+June!C24+July!C24+August!C24+September!C24+October!C24+November!C24+December!C24</f>
-        <v>8556</v>
+        <v>9779</v>
       </c>
       <c r="D24" s="2">
         <f>January!D24+February!D24+March!D24+April!D24+May!D24+June!D24+July!D24+August!D24+September!D24+October!D24+November!D24+December!D24</f>
-        <v>3117</v>
+        <v>3461</v>
       </c>
       <c r="E24" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2345,24 +2375,24 @@
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>1.36 : 1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+        <v>1.35 : 1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="4">
         <f>January!B25+February!B25+March!B25+April!B25+May!B25+June!B25+July!B25+August!B25+September!B25+October!B25+November!B25+December!B25</f>
-        <v>1038</v>
+        <v>1187</v>
       </c>
       <c r="C25" s="4">
         <f>January!C25+February!C25+March!C25+April!C25+May!C25+June!C25+July!C25+August!C25+September!C25+October!C25+November!C25+December!C25</f>
-        <v>2355</v>
+        <v>2828</v>
       </c>
       <c r="D25" s="4">
         <f>January!D25+February!D25+March!D25+April!D25+May!D25+June!D25+July!D25+August!D25+September!D25+October!D25+November!D25+December!D25</f>
-        <v>-1317</v>
+        <v>-1641</v>
       </c>
       <c r="E25" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2374,10 +2404,10 @@
       </c>
       <c r="G25" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>0.44 : 1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+        <v>0.42 : 1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -2406,21 +2436,21 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
         <v>32</v>
       </c>
       <c r="B27" s="4">
         <f>January!B27+February!B27+March!B27+April!B27+May!B27+June!B27+July!B27+August!B27+September!B27+October!B27+November!B27+December!B27</f>
-        <v>1724</v>
+        <v>1925</v>
       </c>
       <c r="C27" s="4">
         <f>January!C27+February!C27+March!C27+April!C27+May!C27+June!C27+July!C27+August!C27+September!C27+October!C27+November!C27+December!C27</f>
-        <v>1353</v>
+        <v>1553</v>
       </c>
       <c r="D27" s="4">
         <f>January!D27+February!D27+March!D27+April!D27+May!D27+June!D27+July!D27+August!D27+September!D27+October!D27+November!D27+December!D27</f>
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E27" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2432,24 +2462,24 @@
       </c>
       <c r="G27" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>1.27 : 1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+        <v>1.24 : 1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B28" s="2">
         <f>January!B28+February!B28+March!B28+April!B28+May!B28+June!B28+July!B28+August!B28+September!B28+October!B28+November!B28+December!B28</f>
-        <v>533</v>
+        <v>634</v>
       </c>
       <c r="C28" s="2">
         <f>January!C28+February!C28+March!C28+April!C28+May!C28+June!C28+July!C28+August!C28+September!C28+October!C28+November!C28+December!C28</f>
-        <v>664</v>
+        <v>752</v>
       </c>
       <c r="D28" s="2">
         <f>January!D28+February!D28+March!D28+April!D28+May!D28+June!D28+July!D28+August!D28+September!D28+October!D28+November!D28+December!D28</f>
-        <v>-131</v>
+        <v>-118</v>
       </c>
       <c r="E28" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2461,24 +2491,24 @@
       </c>
       <c r="G28" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.8 : 1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+        <v>0.84 : 1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
         <v>34</v>
       </c>
       <c r="B29" s="4">
         <f>January!B29+February!B29+March!B29+April!B29+May!B29+June!B29+July!B29+August!B29+September!B29+October!B29+November!B29+December!B29</f>
-        <v>3620</v>
+        <v>4245</v>
       </c>
       <c r="C29" s="4">
         <f>January!C29+February!C29+March!C29+April!C29+May!C29+June!C29+July!C29+August!C29+September!C29+October!C29+November!C29+December!C29</f>
-        <v>2873</v>
+        <v>3300</v>
       </c>
       <c r="D29" s="4">
         <f>January!D29+February!D29+March!D29+April!D29+May!D29+June!D29+July!D29+August!D29+September!D29+October!D29+November!D29+December!D29</f>
-        <v>747</v>
+        <v>945</v>
       </c>
       <c r="E29" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2490,24 +2520,24 @@
       </c>
       <c r="G29" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>1.26 : 1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+        <v>1.29 : 1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B30" s="2">
         <f>January!B30+February!B30+March!B30+April!B30+May!B30+June!B30+July!B30+August!B30+September!B30+October!B30+November!B30+December!B30</f>
-        <v>331</v>
+        <v>362</v>
       </c>
       <c r="C30" s="2">
         <f>January!C30+February!C30+March!C30+April!C30+May!C30+June!C30+July!C30+August!C30+September!C30+October!C30+November!C30+December!C30</f>
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="D30" s="2">
         <f>January!D30+February!D30+March!D30+April!D30+May!D30+June!D30+July!D30+August!D30+September!D30+October!D30+November!D30+December!D30</f>
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="E30" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2519,24 +2549,24 @@
       </c>
       <c r="G30" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>2.09 : 1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+        <v>2.01 : 1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
         <v>36</v>
       </c>
       <c r="B31" s="4">
         <f>January!B31+February!B31+March!B31+April!B31+May!B31+June!B31+July!B31+August!B31+September!B31+October!B31+November!B31+December!B31</f>
-        <v>397</v>
+        <v>429</v>
       </c>
       <c r="C31" s="4">
         <f>January!C31+February!C31+March!C31+April!C31+May!C31+June!C31+July!C31+August!C31+September!C31+October!C31+November!C31+December!C31</f>
-        <v>2030</v>
+        <v>2288</v>
       </c>
       <c r="D31" s="4">
         <f>January!D31+February!D31+March!D31+April!D31+May!D31+June!D31+July!D31+August!D31+September!D31+October!D31+November!D31+December!D31</f>
-        <v>-1633</v>
+        <v>-1859</v>
       </c>
       <c r="E31" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2548,24 +2578,24 @@
       </c>
       <c r="G31" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>0.2 : 1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+        <v>0.19 : 1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B32" s="2">
         <f>January!B32+February!B32+March!B32+April!B32+May!B32+June!B32+July!B32+August!B32+September!B32+October!B32+November!B32+December!B32</f>
-        <v>3021</v>
+        <v>3473</v>
       </c>
       <c r="C32" s="2">
         <f>January!C32+February!C32+March!C32+April!C32+May!C32+June!C32+July!C32+August!C32+September!C32+October!C32+November!C32+December!C32</f>
-        <v>3813</v>
+        <v>4452</v>
       </c>
       <c r="D32" s="2">
         <f>January!D32+February!D32+March!D32+April!D32+May!D32+June!D32+July!D32+August!D32+September!D32+October!D32+November!D32+December!D32</f>
-        <v>-792</v>
+        <v>-979</v>
       </c>
       <c r="E32" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2577,24 +2607,24 @@
       </c>
       <c r="G32" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.79 : 1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+        <v>0.78 : 1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="20" t="s">
         <v>38</v>
       </c>
       <c r="B33" s="4">
         <f>January!B33+February!B33+March!B33+April!B33+May!B33+June!B33+July!B33+August!B33+September!B33+October!B33+November!B33+December!B33</f>
-        <v>2395</v>
+        <v>2820</v>
       </c>
       <c r="C33" s="4">
         <f>January!C33+February!C33+March!C33+April!C33+May!C33+June!C33+July!C33+August!C33+September!C33+October!C33+November!C33+December!C33</f>
-        <v>3925</v>
+        <v>4549</v>
       </c>
       <c r="D33" s="4">
         <f>January!D33+February!D33+March!D33+April!D33+May!D33+June!D33+July!D33+August!D33+September!D33+October!D33+November!D33+December!D33</f>
-        <v>-1530</v>
+        <v>-1729</v>
       </c>
       <c r="E33" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2606,24 +2636,24 @@
       </c>
       <c r="G33" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>0.61 : 1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+        <v>0.62 : 1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B34" s="2">
         <f>January!B34+February!B34+March!B34+April!B34+May!B34+June!B34+July!B34+August!B34+September!B34+October!B34+November!B34+December!B34</f>
-        <v>1177</v>
+        <v>1402</v>
       </c>
       <c r="C34" s="2">
         <f>January!C34+February!C34+March!C34+April!C34+May!C34+June!C34+July!C34+August!C34+September!C34+October!C34+November!C34+December!C34</f>
-        <v>678</v>
+        <v>789</v>
       </c>
       <c r="D34" s="2">
         <f>January!D34+February!D34+March!D34+April!D34+May!D34+June!D34+July!D34+August!D34+September!D34+October!D34+November!D34+December!D34</f>
-        <v>499</v>
+        <v>613</v>
       </c>
       <c r="E34" s="28" t="str">
         <f t="shared" ref="E34:E55" si="3">IF(D34 &gt; 0, "We borrowed more than we lent this year", "")</f>
@@ -2635,24 +2665,24 @@
       </c>
       <c r="G34" s="3" t="str">
         <f t="shared" ref="G34:G55" si="5">IF(ISERROR(ROUND(B34/C34,2)&amp;" : 1"), "", ROUND(B34/C34,2)&amp;" : 1")</f>
-        <v>1.74 : 1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+        <v>1.78 : 1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
       <c r="B35" s="4">
         <f>January!B35+February!B35+March!B35+April!B35+May!B35+June!B35+July!B35+August!B35+September!B35+October!B35+November!B35+December!B35</f>
-        <v>5695</v>
+        <v>6613</v>
       </c>
       <c r="C35" s="4">
         <f>January!C35+February!C35+March!C35+April!C35+May!C35+June!C35+July!C35+August!C35+September!C35+October!C35+November!C35+December!C35</f>
-        <v>7701</v>
+        <v>8924</v>
       </c>
       <c r="D35" s="4">
         <f>January!D35+February!D35+March!D35+April!D35+May!D35+June!D35+July!D35+August!D35+September!D35+October!D35+November!D35+December!D35</f>
-        <v>-2006</v>
+        <v>-2311</v>
       </c>
       <c r="E35" s="29" t="str">
         <f t="shared" si="3"/>
@@ -2667,21 +2697,21 @@
         <v>0.74 : 1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B36" s="2">
         <f>January!B36+February!B36+March!B36+April!B36+May!B36+June!B36+July!B36+August!B36+September!B36+October!B36+November!B36+December!B36</f>
-        <v>1402</v>
+        <v>1574</v>
       </c>
       <c r="C36" s="2">
         <f>January!C36+February!C36+March!C36+April!C36+May!C36+June!C36+July!C36+August!C36+September!C36+October!C36+November!C36+December!C36</f>
-        <v>3171</v>
+        <v>3703</v>
       </c>
       <c r="D36" s="2">
         <f>January!D36+February!D36+March!D36+April!D36+May!D36+June!D36+July!D36+August!D36+September!D36+October!D36+November!D36+December!D36</f>
-        <v>-1769</v>
+        <v>-2129</v>
       </c>
       <c r="E36" s="28" t="str">
         <f t="shared" si="3"/>
@@ -2693,24 +2723,24 @@
       </c>
       <c r="G36" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>0.44 : 1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+        <v>0.43 : 1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="20" t="s">
         <v>42</v>
       </c>
       <c r="B37" s="4">
         <f>January!B37+February!B37+March!B37+April!B37+May!B37+June!B37+July!B37+August!B37+September!B37+October!B37+November!B37+December!B37</f>
-        <v>3315</v>
+        <v>3783</v>
       </c>
       <c r="C37" s="4">
         <f>January!C37+February!C37+March!C37+April!C37+May!C37+June!C37+July!C37+August!C37+September!C37+October!C37+November!C37+December!C37</f>
-        <v>2186</v>
+        <v>2576</v>
       </c>
       <c r="D37" s="4">
         <f>January!D37+February!D37+March!D37+April!D37+May!D37+June!D37+July!D37+August!D37+September!D37+October!D37+November!D37+December!D37</f>
-        <v>1129</v>
+        <v>1207</v>
       </c>
       <c r="E37" s="29" t="str">
         <f t="shared" si="3"/>
@@ -2722,24 +2752,24 @@
       </c>
       <c r="G37" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>1.52 : 1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+        <v>1.47 : 1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B38" s="2">
         <f>January!B38+February!B38+March!B38+April!B38+May!B38+June!B38+July!B38+August!B38+September!B38+October!B38+November!B38+December!B38</f>
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="C38" s="2">
         <f>January!C38+February!C38+March!C38+April!C38+May!C38+June!C38+July!C38+August!C38+September!C38+October!C38+November!C38+December!C38</f>
-        <v>1233</v>
+        <v>1413</v>
       </c>
       <c r="D38" s="2">
         <f>January!D38+February!D38+March!D38+April!D38+May!D38+June!D38+July!D38+August!D38+September!D38+October!D38+November!D38+December!D38</f>
-        <v>-1038</v>
+        <v>-1192</v>
       </c>
       <c r="E38" s="28" t="str">
         <f t="shared" si="3"/>
@@ -2754,21 +2784,21 @@
         <v>0.16 : 1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="20" t="s">
         <v>49</v>
       </c>
       <c r="B39" s="4">
         <f>January!B44+February!B44+March!B44+April!B44+May!B44+June!B44+July!B44+August!B44+September!B44+October!B44+November!B44+December!B44</f>
-        <v>556</v>
+        <v>640</v>
       </c>
       <c r="C39" s="4">
         <f>January!C44+February!C44+March!C44+April!C44+May!C44+June!C44+July!C44+August!C44+September!C44+October!C44+November!C44+December!C44</f>
-        <v>540</v>
+        <v>612</v>
       </c>
       <c r="D39" s="4">
         <f>January!D44+February!D44+March!D44+April!D44+May!D44+June!D44+July!D44+August!D44+September!D44+October!D44+November!D44+December!D44</f>
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E39" s="29" t="str">
         <f t="shared" si="3"/>
@@ -2780,24 +2810,24 @@
       </c>
       <c r="G39" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>1.03 : 1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+        <v>1.05 : 1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="24" t="s">
         <v>44</v>
       </c>
       <c r="B40" s="8">
         <f>January!B39+February!B39+March!B39+April!B39+May!B39+June!B39+July!B39+August!B39+September!B39+October!B39+November!B39+December!B39</f>
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="C40" s="8">
         <f>January!C39+February!C39+March!C39+April!C39+May!C39+June!C39+July!C39+August!C39+September!C39+October!C39+November!C39+December!C39</f>
-        <v>494</v>
+        <v>539</v>
       </c>
       <c r="D40" s="8">
         <f>January!D39+February!D39+March!D39+April!D39+May!D39+June!D39+July!D39+August!D39+September!D39+October!D39+November!D39+December!D39</f>
-        <v>-377</v>
+        <v>-408</v>
       </c>
       <c r="E40" s="31" t="str">
         <f t="shared" si="3"/>
@@ -2812,21 +2842,21 @@
         <v>0.24 : 1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="24" t="s">
         <v>45</v>
       </c>
       <c r="B41" s="8">
         <f>January!B40+February!B40+March!B40+April!B40+May!B40+June!B40+July!B40+August!B40+September!B40+October!B40+November!B40+December!B40</f>
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C41" s="8">
         <f>January!C40+February!C40+March!C40+April!C40+May!C40+June!C40+July!C40+August!C40+September!C40+October!C40+November!C40+December!C40</f>
-        <v>488</v>
+        <v>546</v>
       </c>
       <c r="D41" s="8">
         <f>January!D40+February!D40+March!D40+April!D40+May!D40+June!D40+July!D40+August!D40+September!D40+October!D40+November!D40+December!D40</f>
-        <v>-123</v>
+        <v>-176</v>
       </c>
       <c r="E41" s="31" t="str">
         <f t="shared" si="3"/>
@@ -2838,24 +2868,24 @@
       </c>
       <c r="G41" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>0.75 : 1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+        <v>0.68 : 1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="24" t="s">
         <v>46</v>
       </c>
       <c r="B42" s="8">
         <f>January!B41+February!B41+March!B41+April!B41+May!B41+June!B41+July!B41+August!B41+September!B41+October!B41+November!B41+December!B41</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C42" s="8">
         <f>January!C41+February!C41+March!C41+April!C41+May!C41+June!C41+July!C41+August!C41+September!C41+October!C41+November!C41+December!C41</f>
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="D42" s="8">
         <f>January!D41+February!D41+March!D41+April!D41+May!D41+June!D41+July!D41+August!D41+September!D41+October!D41+November!D41+December!D41</f>
-        <v>-171</v>
+        <v>-180</v>
       </c>
       <c r="E42" s="31" t="str">
         <f t="shared" si="3"/>
@@ -2870,21 +2900,21 @@
         <v>0.1 : 1</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="24" t="s">
         <v>47</v>
       </c>
       <c r="B43" s="8">
         <f>January!B42+February!B42+March!B42+April!B42+May!B42+June!B42+July!B42+August!B42+September!B42+October!B42+November!B42+December!B42</f>
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C43" s="8">
         <f>January!C42+February!C42+March!C42+April!C42+May!C42+June!C42+July!C42+August!C42+September!C42+October!C42+November!C42+December!C42</f>
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8">
         <f>January!D42+February!D42+March!D42+April!D42+May!D42+June!D42+July!D42+August!D42+September!D42+October!D42+November!D42+December!D42</f>
-        <v>-84</v>
+        <v>-88</v>
       </c>
       <c r="E43" s="31" t="str">
         <f t="shared" si="3"/>
@@ -2899,7 +2929,7 @@
         <v>0.33 : 1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="24" t="s">
         <v>48</v>
       </c>
@@ -2928,21 +2958,21 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B45" s="2">
         <f>January!B45+February!B45+March!B45+April!B45+May!B45+June!B45+July!B45+August!B45+September!B45+October!B45+November!B45+December!B45</f>
-        <v>552</v>
+        <v>647</v>
       </c>
       <c r="C45" s="2">
         <f>January!C45+February!C45+March!C45+April!C45+May!C45+June!C45+July!C45+August!C45+September!C45+October!C45+November!C45+December!C45</f>
-        <v>1254</v>
+        <v>1404</v>
       </c>
       <c r="D45" s="2">
         <f>January!D45+February!D45+March!D45+April!D45+May!D45+June!D45+July!D45+August!D45+September!D45+October!D45+November!D45+December!D45</f>
-        <v>-702</v>
+        <v>-757</v>
       </c>
       <c r="E45" s="28" t="str">
         <f t="shared" si="3"/>
@@ -2954,24 +2984,24 @@
       </c>
       <c r="G45" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>0.44 : 1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+        <v>0.46 : 1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="20" t="s">
         <v>51</v>
       </c>
       <c r="B46" s="4">
         <f>January!B46+February!B46+March!B46+April!B46+May!B46+June!B46+July!B46+August!B46+September!B46+October!B46+November!B46+December!B46</f>
-        <v>3453</v>
+        <v>4091</v>
       </c>
       <c r="C46" s="4">
         <f>January!C46+February!C46+March!C46+April!C46+May!C46+June!C46+July!C46+August!C46+September!C46+October!C46+November!C46+December!C46</f>
-        <v>4080</v>
+        <v>4611</v>
       </c>
       <c r="D46" s="4">
         <f>January!D46+February!D46+March!D46+April!D46+May!D46+June!D46+July!D46+August!D46+September!D46+October!D46+November!D46+December!D46</f>
-        <v>-627</v>
+        <v>-520</v>
       </c>
       <c r="E46" s="29" t="str">
         <f t="shared" si="3"/>
@@ -2983,24 +3013,24 @@
       </c>
       <c r="G46" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>0.85 : 1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+        <v>0.89 : 1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B47" s="2">
         <f>January!B47+February!B47+March!B47+April!B47+May!B47+June!B47+July!B47+August!B47+September!B47+October!B47+November!B47+December!B47</f>
-        <v>7401</v>
+        <v>8434</v>
       </c>
       <c r="C47" s="2">
         <f>January!C47+February!C47+March!C47+April!C47+May!C47+June!C47+July!C47+August!C47+September!C47+October!C47+November!C47+December!C47</f>
-        <v>3919</v>
+        <v>4529</v>
       </c>
       <c r="D47" s="2">
         <f>January!D47+February!D47+March!D47+April!D47+May!D47+June!D47+July!D47+August!D47+September!D47+October!D47+November!D47+December!D47</f>
-        <v>3482</v>
+        <v>3905</v>
       </c>
       <c r="E47" s="28" t="str">
         <f t="shared" si="3"/>
@@ -3012,24 +3042,24 @@
       </c>
       <c r="G47" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>1.89 : 1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+        <v>1.86 : 1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="20" t="s">
         <v>53</v>
       </c>
       <c r="B48" s="4">
         <f>January!B48+February!B48+March!B48+April!B48+May!B48+June!B48+July!B48+August!B48+September!B48+October!B48+November!B48+December!B48</f>
-        <v>1818</v>
+        <v>2059</v>
       </c>
       <c r="C48" s="4">
         <f>January!C48+February!C48+March!C48+April!C48+May!C48+June!C48+July!C48+August!C48+September!C48+October!C48+November!C48+December!C48</f>
-        <v>3967</v>
+        <v>4593</v>
       </c>
       <c r="D48" s="4">
         <f>January!D48+February!D48+March!D48+April!D48+May!D48+June!D48+July!D48+August!D48+September!D48+October!D48+November!D48+December!D48</f>
-        <v>-2149</v>
+        <v>-2534</v>
       </c>
       <c r="E48" s="29" t="str">
         <f t="shared" si="3"/>
@@ -3041,24 +3071,24 @@
       </c>
       <c r="G48" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>0.46 : 1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+        <v>0.45 : 1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B49" s="2">
         <f>January!B49+February!B49+March!B49+April!B49+May!B49+June!B49+July!B49+August!B49+September!B49+October!B49+November!B49+December!B49</f>
-        <v>3712</v>
+        <v>4338</v>
       </c>
       <c r="C49" s="2">
         <f>January!C49+February!C49+March!C49+April!C49+May!C49+June!C49+July!C49+August!C49+September!C49+October!C49+November!C49+December!C49</f>
-        <v>1759</v>
+        <v>2062</v>
       </c>
       <c r="D49" s="2">
         <f>January!D49+February!D49+March!D49+April!D49+May!D49+June!D49+July!D49+August!D49+September!D49+October!D49+November!D49+December!D49</f>
-        <v>1953</v>
+        <v>2276</v>
       </c>
       <c r="E49" s="28" t="str">
         <f t="shared" si="3"/>
@@ -3070,24 +3100,24 @@
       </c>
       <c r="G49" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>2.11 : 1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+        <v>2.1 : 1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="20" t="s">
         <v>55</v>
       </c>
       <c r="B50" s="4">
         <f>January!B50+February!B50+March!B50+April!B50+May!B50+June!B50+July!B50+August!B50+September!B50+October!B50+November!B50+December!B50</f>
-        <v>6617</v>
+        <v>7588</v>
       </c>
       <c r="C50" s="4">
         <f>January!C50+February!C50+March!C50+April!C50+May!C50+June!C50+July!C50+August!C50+September!C50+October!C50+November!C50+December!C50</f>
-        <v>3816</v>
+        <v>4462</v>
       </c>
       <c r="D50" s="4">
         <f>January!D50+February!D50+March!D50+April!D50+May!D50+June!D50+July!D50+August!D50+September!D50+October!D50+November!D50+December!D50</f>
-        <v>2801</v>
+        <v>3126</v>
       </c>
       <c r="E50" s="29" t="str">
         <f t="shared" si="3"/>
@@ -3099,24 +3129,24 @@
       </c>
       <c r="G50" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>1.73 : 1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+        <v>1.7 : 1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B51" s="2">
         <f>January!B51+February!B51+March!B51+April!B51+May!B51+June!B51+July!B51+August!B51+September!B51+October!B51+November!B51+December!B51</f>
-        <v>1460</v>
+        <v>1677</v>
       </c>
       <c r="C51" s="2">
         <f>January!C51+February!C51+March!C51+April!C51+May!C51+June!C51+July!C51+August!C51+September!C51+October!C51+November!C51+December!C51</f>
-        <v>1190</v>
+        <v>1347</v>
       </c>
       <c r="D51" s="2">
         <f>January!D51+February!D51+March!D51+April!D51+May!D51+June!D51+July!D51+August!D51+September!D51+October!D51+November!D51+December!D51</f>
-        <v>270</v>
+        <v>330</v>
       </c>
       <c r="E51" s="28" t="str">
         <f t="shared" si="3"/>
@@ -3128,24 +3158,24 @@
       </c>
       <c r="G51" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>1.23 : 1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+        <v>1.24 : 1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="20" t="s">
         <v>57</v>
       </c>
       <c r="B52" s="4">
         <f>January!B52+February!B52+March!B52+April!B52+May!B52+June!B52+July!B52+August!B52+September!B52+October!B52+November!B52+December!B52</f>
-        <v>2385</v>
+        <v>2770</v>
       </c>
       <c r="C52" s="4">
         <f>January!C52+February!C52+March!C52+April!C52+May!C52+June!C52+July!C52+August!C52+September!C52+October!C52+November!C52+December!C52</f>
-        <v>2790</v>
+        <v>3191</v>
       </c>
       <c r="D52" s="4">
         <f>January!D52+February!D52+March!D52+April!D52+May!D52+June!D52+July!D52+August!D52+September!D52+October!D52+November!D52+December!D52</f>
-        <v>-405</v>
+        <v>-421</v>
       </c>
       <c r="E52" s="29" t="str">
         <f t="shared" si="3"/>
@@ -3157,24 +3187,24 @@
       </c>
       <c r="G52" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>0.85 : 1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+        <v>0.87 : 1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B53" s="2">
         <f>January!B53+February!B53+March!B53+April!B53+May!B53+June!B53+July!B53+August!B53+September!B53+October!B53+November!B53+December!B53</f>
-        <v>825</v>
+        <v>972</v>
       </c>
       <c r="C53" s="2">
         <f>January!C53+February!C53+March!C53+April!C53+May!C53+June!C53+July!C53+August!C53+September!C53+October!C53+November!C53+December!C53</f>
-        <v>1596</v>
+        <v>1816</v>
       </c>
       <c r="D53" s="2">
         <f>January!D53+February!D53+March!D53+April!D53+May!D53+June!D53+July!D53+August!D53+September!D53+October!D53+November!D53+December!D53</f>
-        <v>-771</v>
+        <v>-844</v>
       </c>
       <c r="E53" s="28" t="str">
         <f t="shared" si="3"/>
@@ -3186,24 +3216,24 @@
       </c>
       <c r="G53" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>0.52 : 1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+        <v>0.54 : 1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="20" t="s">
         <v>59</v>
       </c>
       <c r="B54" s="4">
         <f>January!B54+February!B54+March!B54+April!B54+May!B54+June!B54+July!B54+August!B54+September!B54+October!B54+November!B54+December!B54</f>
-        <v>133</v>
+        <v>192</v>
       </c>
       <c r="C54" s="4">
         <f>January!C54+February!C54+March!C54+April!C54+May!C54+June!C54+July!C54+August!C54+September!C54+October!C54+November!C54+December!C54</f>
-        <v>1534</v>
+        <v>1750</v>
       </c>
       <c r="D54" s="4">
         <f>January!D54+February!D54+March!D54+April!D54+May!D54+June!D54+July!D54+August!D54+September!D54+October!D54+November!D54+December!D54</f>
-        <v>-1401</v>
+        <v>-1558</v>
       </c>
       <c r="E54" s="29" t="str">
         <f t="shared" si="3"/>
@@ -3215,24 +3245,24 @@
       </c>
       <c r="G54" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>0.09 : 1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+        <v>0.11 : 1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="26" t="s">
         <v>60</v>
       </c>
       <c r="B55" s="10">
         <f>January!B55+February!B55+March!B55+April!B55+May!B55+June!B55+July!B55+August!B55+September!B55+October!B55+November!B55+December!B55</f>
-        <v>2133</v>
+        <v>2548</v>
       </c>
       <c r="C55" s="10">
         <f>January!C55+February!C55+March!C55+April!C55+May!C55+June!C55+July!C55+August!C55+September!C55+October!C55+November!C55+December!C55</f>
-        <v>1404</v>
+        <v>1595</v>
       </c>
       <c r="D55" s="10">
         <f>January!D55+February!D55+March!D55+April!D55+May!D55+June!D55+July!D55+August!D55+September!D55+October!D55+November!D55+December!D55</f>
-        <v>729</v>
+        <v>953</v>
       </c>
       <c r="E55" s="32" t="str">
         <f t="shared" si="3"/>
@@ -3244,7 +3274,7 @@
       </c>
       <c r="G55" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>1.52 : 1</v>
+        <v>1.6 : 1</v>
       </c>
     </row>
   </sheetData>
@@ -3276,17 +3306,17 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.69140625" style="19" customWidth="1"/>
-    <col min="2" max="3" width="30.69140625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="20.69140625" style="19" customWidth="1"/>
-    <col min="5" max="6" width="25.69140625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="28.69140625" style="19" customWidth="1"/>
-    <col min="8" max="16384" width="9.15234375" style="19"/>
+    <col min="1" max="1" width="45.6640625" style="19" customWidth="1"/>
+    <col min="2" max="3" width="30.6640625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="19" customWidth="1"/>
+    <col min="5" max="6" width="25.6640625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
@@ -3309,7 +3339,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -3320,7 +3350,7 @@
       <c r="F2" s="28"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>8</v>
       </c>
@@ -3331,7 +3361,7 @@
       <c r="F3" s="29"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -3342,7 +3372,7 @@
       <c r="F4" s="28"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
@@ -3353,7 +3383,7 @@
       <c r="F5" s="29"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -3364,7 +3394,7 @@
       <c r="F6" s="28"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>12</v>
       </c>
@@ -3375,7 +3405,7 @@
       <c r="F7" s="29"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -3386,7 +3416,7 @@
       <c r="F8" s="28"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>14</v>
       </c>
@@ -3397,7 +3427,7 @@
       <c r="F9" s="29"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -3408,7 +3438,7 @@
       <c r="F10" s="28"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>16</v>
       </c>
@@ -3419,7 +3449,7 @@
       <c r="F11" s="29"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
         <v>17</v>
       </c>
@@ -3430,7 +3460,7 @@
       <c r="F12" s="30"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
         <v>18</v>
       </c>
@@ -3441,7 +3471,7 @@
       <c r="F13" s="30"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
         <v>19</v>
       </c>
@@ -3452,7 +3482,7 @@
       <c r="F14" s="30"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
         <v>20</v>
       </c>
@@ -3463,7 +3493,7 @@
       <c r="F15" s="30"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -3474,7 +3504,7 @@
       <c r="F16" s="28"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
         <v>22</v>
       </c>
@@ -3485,7 +3515,7 @@
       <c r="F17" s="29"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -3496,7 +3526,7 @@
       <c r="F18" s="28"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
         <v>24</v>
       </c>
@@ -3507,7 +3537,7 @@
       <c r="F19" s="29"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -3518,7 +3548,7 @@
       <c r="F20" s="28"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
         <v>26</v>
       </c>
@@ -3529,7 +3559,7 @@
       <c r="F21" s="29"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -3540,7 +3570,7 @@
       <c r="F22" s="28"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
         <v>28</v>
       </c>
@@ -3551,7 +3581,7 @@
       <c r="F23" s="29"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -3562,7 +3592,7 @@
       <c r="F24" s="28"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
         <v>30</v>
       </c>
@@ -3573,7 +3603,7 @@
       <c r="F25" s="29"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -3584,7 +3614,7 @@
       <c r="F26" s="28"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
         <v>32</v>
       </c>
@@ -3595,7 +3625,7 @@
       <c r="F27" s="29"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
@@ -3606,7 +3636,7 @@
       <c r="F28" s="28"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
         <v>34</v>
       </c>
@@ -3617,7 +3647,7 @@
       <c r="F29" s="29"/>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
@@ -3628,7 +3658,7 @@
       <c r="F30" s="28"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
         <v>36</v>
       </c>
@@ -3639,7 +3669,7 @@
       <c r="F31" s="29"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -3650,7 +3680,7 @@
       <c r="F32" s="28"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="20" t="s">
         <v>38</v>
       </c>
@@ -3661,7 +3691,7 @@
       <c r="F33" s="29"/>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
@@ -3672,7 +3702,7 @@
       <c r="F34" s="28"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
@@ -3683,7 +3713,7 @@
       <c r="F35" s="29"/>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
@@ -3694,7 +3724,7 @@
       <c r="F36" s="28"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="20" t="s">
         <v>42</v>
       </c>
@@ -3705,7 +3735,7 @@
       <c r="F37" s="29"/>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
@@ -3716,7 +3746,7 @@
       <c r="F38" s="28"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="24" t="s">
         <v>44</v>
       </c>
@@ -3727,7 +3757,7 @@
       <c r="F39" s="31"/>
       <c r="G39" s="9"/>
     </row>
-    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="24" t="s">
         <v>45</v>
       </c>
@@ -3738,7 +3768,7 @@
       <c r="F40" s="31"/>
       <c r="G40" s="9"/>
     </row>
-    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="24" t="s">
         <v>46</v>
       </c>
@@ -3749,7 +3779,7 @@
       <c r="F41" s="31"/>
       <c r="G41" s="9"/>
     </row>
-    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="24" t="s">
         <v>47</v>
       </c>
@@ -3760,7 +3790,7 @@
       <c r="F42" s="31"/>
       <c r="G42" s="9"/>
     </row>
-    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="24" t="s">
         <v>48</v>
       </c>
@@ -3771,7 +3801,7 @@
       <c r="F43" s="31"/>
       <c r="G43" s="9"/>
     </row>
-    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="20" t="s">
         <v>49</v>
       </c>
@@ -3782,7 +3812,7 @@
       <c r="F44" s="29"/>
       <c r="G44" s="5"/>
     </row>
-    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
@@ -3793,7 +3823,7 @@
       <c r="F45" s="28"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="20" t="s">
         <v>51</v>
       </c>
@@ -3804,7 +3834,7 @@
       <c r="F46" s="29"/>
       <c r="G46" s="5"/>
     </row>
-    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
@@ -3815,7 +3845,7 @@
       <c r="F47" s="28"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="20" t="s">
         <v>53</v>
       </c>
@@ -3826,7 +3856,7 @@
       <c r="F48" s="29"/>
       <c r="G48" s="5"/>
     </row>
-    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
@@ -3837,7 +3867,7 @@
       <c r="F49" s="28"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="20" t="s">
         <v>55</v>
       </c>
@@ -3848,7 +3878,7 @@
       <c r="F50" s="29"/>
       <c r="G50" s="5"/>
     </row>
-    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
@@ -3859,7 +3889,7 @@
       <c r="F51" s="28"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="20" t="s">
         <v>57</v>
       </c>
@@ -3870,7 +3900,7 @@
       <c r="F52" s="29"/>
       <c r="G52" s="5"/>
     </row>
-    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
@@ -3881,7 +3911,7 @@
       <c r="F53" s="28"/>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="20" t="s">
         <v>59</v>
       </c>
@@ -3892,7 +3922,7 @@
       <c r="F54" s="29"/>
       <c r="G54" s="5"/>
     </row>
-    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="26" t="s">
         <v>60</v>
       </c>
@@ -3936,17 +3966,17 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.69140625" style="19" customWidth="1"/>
-    <col min="2" max="3" width="30.69140625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="20.69140625" style="19" customWidth="1"/>
-    <col min="5" max="6" width="25.69140625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="28.69140625" style="19" customWidth="1"/>
-    <col min="8" max="16384" width="9.15234375" style="19"/>
+    <col min="1" max="1" width="45.6640625" style="19" customWidth="1"/>
+    <col min="2" max="3" width="30.6640625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="19" customWidth="1"/>
+    <col min="5" max="6" width="25.6640625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
@@ -3969,7 +3999,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -3980,7 +4010,7 @@
       <c r="F2" s="28"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>8</v>
       </c>
@@ -3991,7 +4021,7 @@
       <c r="F3" s="29"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -4002,7 +4032,7 @@
       <c r="F4" s="28"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
@@ -4013,7 +4043,7 @@
       <c r="F5" s="29"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -4024,7 +4054,7 @@
       <c r="F6" s="28"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>12</v>
       </c>
@@ -4035,7 +4065,7 @@
       <c r="F7" s="29"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -4046,7 +4076,7 @@
       <c r="F8" s="28"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>14</v>
       </c>
@@ -4057,7 +4087,7 @@
       <c r="F9" s="29"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -4068,7 +4098,7 @@
       <c r="F10" s="28"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>16</v>
       </c>
@@ -4079,7 +4109,7 @@
       <c r="F11" s="29"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
         <v>17</v>
       </c>
@@ -4090,7 +4120,7 @@
       <c r="F12" s="30"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
         <v>18</v>
       </c>
@@ -4101,7 +4131,7 @@
       <c r="F13" s="30"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
         <v>19</v>
       </c>
@@ -4112,7 +4142,7 @@
       <c r="F14" s="30"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
         <v>20</v>
       </c>
@@ -4123,7 +4153,7 @@
       <c r="F15" s="30"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -4134,7 +4164,7 @@
       <c r="F16" s="28"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
         <v>22</v>
       </c>
@@ -4145,7 +4175,7 @@
       <c r="F17" s="29"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -4156,7 +4186,7 @@
       <c r="F18" s="28"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
         <v>24</v>
       </c>
@@ -4167,7 +4197,7 @@
       <c r="F19" s="29"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -4178,7 +4208,7 @@
       <c r="F20" s="28"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
         <v>26</v>
       </c>
@@ -4189,7 +4219,7 @@
       <c r="F21" s="29"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -4200,7 +4230,7 @@
       <c r="F22" s="28"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
         <v>28</v>
       </c>
@@ -4211,7 +4241,7 @@
       <c r="F23" s="29"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -4222,7 +4252,7 @@
       <c r="F24" s="28"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
         <v>30</v>
       </c>
@@ -4233,7 +4263,7 @@
       <c r="F25" s="29"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -4244,7 +4274,7 @@
       <c r="F26" s="28"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
         <v>32</v>
       </c>
@@ -4255,7 +4285,7 @@
       <c r="F27" s="29"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
@@ -4266,7 +4296,7 @@
       <c r="F28" s="28"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
         <v>34</v>
       </c>
@@ -4277,7 +4307,7 @@
       <c r="F29" s="29"/>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
@@ -4288,7 +4318,7 @@
       <c r="F30" s="28"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
         <v>36</v>
       </c>
@@ -4299,7 +4329,7 @@
       <c r="F31" s="29"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -4310,7 +4340,7 @@
       <c r="F32" s="28"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="20" t="s">
         <v>38</v>
       </c>
@@ -4321,7 +4351,7 @@
       <c r="F33" s="29"/>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
@@ -4332,7 +4362,7 @@
       <c r="F34" s="28"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
@@ -4343,7 +4373,7 @@
       <c r="F35" s="29"/>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
@@ -4354,7 +4384,7 @@
       <c r="F36" s="28"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="20" t="s">
         <v>42</v>
       </c>
@@ -4365,7 +4395,7 @@
       <c r="F37" s="29"/>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
@@ -4376,7 +4406,7 @@
       <c r="F38" s="28"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="24" t="s">
         <v>44</v>
       </c>
@@ -4387,7 +4417,7 @@
       <c r="F39" s="31"/>
       <c r="G39" s="9"/>
     </row>
-    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="24" t="s">
         <v>45</v>
       </c>
@@ -4398,7 +4428,7 @@
       <c r="F40" s="31"/>
       <c r="G40" s="9"/>
     </row>
-    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="24" t="s">
         <v>46</v>
       </c>
@@ -4409,7 +4439,7 @@
       <c r="F41" s="31"/>
       <c r="G41" s="9"/>
     </row>
-    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="24" t="s">
         <v>47</v>
       </c>
@@ -4420,7 +4450,7 @@
       <c r="F42" s="31"/>
       <c r="G42" s="9"/>
     </row>
-    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="24" t="s">
         <v>48</v>
       </c>
@@ -4431,7 +4461,7 @@
       <c r="F43" s="31"/>
       <c r="G43" s="9"/>
     </row>
-    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="20" t="s">
         <v>49</v>
       </c>
@@ -4442,7 +4472,7 @@
       <c r="F44" s="29"/>
       <c r="G44" s="5"/>
     </row>
-    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
@@ -4453,7 +4483,7 @@
       <c r="F45" s="28"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="20" t="s">
         <v>51</v>
       </c>
@@ -4464,7 +4494,7 @@
       <c r="F46" s="29"/>
       <c r="G46" s="5"/>
     </row>
-    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
@@ -4475,7 +4505,7 @@
       <c r="F47" s="28"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="20" t="s">
         <v>53</v>
       </c>
@@ -4486,7 +4516,7 @@
       <c r="F48" s="29"/>
       <c r="G48" s="5"/>
     </row>
-    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
@@ -4497,7 +4527,7 @@
       <c r="F49" s="28"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="20" t="s">
         <v>55</v>
       </c>
@@ -4508,7 +4538,7 @@
       <c r="F50" s="29"/>
       <c r="G50" s="5"/>
     </row>
-    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
@@ -4519,7 +4549,7 @@
       <c r="F51" s="28"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="20" t="s">
         <v>57</v>
       </c>
@@ -4530,7 +4560,7 @@
       <c r="F52" s="29"/>
       <c r="G52" s="5"/>
     </row>
-    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
@@ -4541,7 +4571,7 @@
       <c r="F53" s="28"/>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="20" t="s">
         <v>59</v>
       </c>
@@ -4552,7 +4582,7 @@
       <c r="F54" s="29"/>
       <c r="G54" s="5"/>
     </row>
-    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="26" t="s">
         <v>60</v>
       </c>
@@ -4594,17 +4624,17 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.69140625" style="19" customWidth="1"/>
-    <col min="2" max="3" width="30.69140625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="20.69140625" style="19" customWidth="1"/>
-    <col min="5" max="6" width="25.69140625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="28.69140625" style="19" customWidth="1"/>
-    <col min="8" max="16384" width="9.15234375" style="19"/>
+    <col min="1" max="1" width="45.6640625" style="19" customWidth="1"/>
+    <col min="2" max="3" width="30.6640625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="19" customWidth="1"/>
+    <col min="5" max="6" width="25.6640625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
@@ -4627,7 +4657,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -4638,7 +4668,7 @@
       <c r="F2" s="28"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>8</v>
       </c>
@@ -4649,7 +4679,7 @@
       <c r="F3" s="29"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -4660,7 +4690,7 @@
       <c r="F4" s="28"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
@@ -4671,7 +4701,7 @@
       <c r="F5" s="29"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -4682,7 +4712,7 @@
       <c r="F6" s="28"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>12</v>
       </c>
@@ -4693,7 +4723,7 @@
       <c r="F7" s="29"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -4704,7 +4734,7 @@
       <c r="F8" s="28"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>14</v>
       </c>
@@ -4715,7 +4745,7 @@
       <c r="F9" s="29"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -4726,7 +4756,7 @@
       <c r="F10" s="28"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>16</v>
       </c>
@@ -4737,7 +4767,7 @@
       <c r="F11" s="29"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
         <v>17</v>
       </c>
@@ -4748,7 +4778,7 @@
       <c r="F12" s="30"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
         <v>18</v>
       </c>
@@ -4759,7 +4789,7 @@
       <c r="F13" s="30"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
         <v>19</v>
       </c>
@@ -4770,7 +4800,7 @@
       <c r="F14" s="30"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
         <v>20</v>
       </c>
@@ -4781,7 +4811,7 @@
       <c r="F15" s="30"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -4792,7 +4822,7 @@
       <c r="F16" s="28"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
         <v>22</v>
       </c>
@@ -4803,7 +4833,7 @@
       <c r="F17" s="29"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -4814,7 +4844,7 @@
       <c r="F18" s="28"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
         <v>24</v>
       </c>
@@ -4825,7 +4855,7 @@
       <c r="F19" s="29"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -4836,7 +4866,7 @@
       <c r="F20" s="28"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
         <v>26</v>
       </c>
@@ -4847,7 +4877,7 @@
       <c r="F21" s="29"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -4858,7 +4888,7 @@
       <c r="F22" s="28"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
         <v>28</v>
       </c>
@@ -4869,7 +4899,7 @@
       <c r="F23" s="29"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -4880,7 +4910,7 @@
       <c r="F24" s="28"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
         <v>30</v>
       </c>
@@ -4891,7 +4921,7 @@
       <c r="F25" s="29"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -4902,7 +4932,7 @@
       <c r="F26" s="28"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
         <v>32</v>
       </c>
@@ -4913,7 +4943,7 @@
       <c r="F27" s="29"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
@@ -4924,7 +4954,7 @@
       <c r="F28" s="28"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
         <v>34</v>
       </c>
@@ -4935,7 +4965,7 @@
       <c r="F29" s="29"/>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
@@ -4946,7 +4976,7 @@
       <c r="F30" s="28"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
         <v>36</v>
       </c>
@@ -4957,7 +4987,7 @@
       <c r="F31" s="29"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -4968,7 +4998,7 @@
       <c r="F32" s="28"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="20" t="s">
         <v>38</v>
       </c>
@@ -4979,7 +5009,7 @@
       <c r="F33" s="29"/>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
@@ -4990,7 +5020,7 @@
       <c r="F34" s="28"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
@@ -5001,7 +5031,7 @@
       <c r="F35" s="29"/>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
@@ -5012,7 +5042,7 @@
       <c r="F36" s="28"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="20" t="s">
         <v>42</v>
       </c>
@@ -5023,7 +5053,7 @@
       <c r="F37" s="29"/>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
@@ -5034,7 +5064,7 @@
       <c r="F38" s="28"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="24" t="s">
         <v>44</v>
       </c>
@@ -5045,7 +5075,7 @@
       <c r="F39" s="31"/>
       <c r="G39" s="9"/>
     </row>
-    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="24" t="s">
         <v>45</v>
       </c>
@@ -5056,7 +5086,7 @@
       <c r="F40" s="31"/>
       <c r="G40" s="9"/>
     </row>
-    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="24" t="s">
         <v>46</v>
       </c>
@@ -5067,7 +5097,7 @@
       <c r="F41" s="31"/>
       <c r="G41" s="9"/>
     </row>
-    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="24" t="s">
         <v>47</v>
       </c>
@@ -5078,7 +5108,7 @@
       <c r="F42" s="31"/>
       <c r="G42" s="9"/>
     </row>
-    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="24" t="s">
         <v>48</v>
       </c>
@@ -5089,7 +5119,7 @@
       <c r="F43" s="31"/>
       <c r="G43" s="9"/>
     </row>
-    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="20" t="s">
         <v>49</v>
       </c>
@@ -5100,7 +5130,7 @@
       <c r="F44" s="29"/>
       <c r="G44" s="5"/>
     </row>
-    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
@@ -5111,7 +5141,7 @@
       <c r="F45" s="28"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="20" t="s">
         <v>51</v>
       </c>
@@ -5122,7 +5152,7 @@
       <c r="F46" s="29"/>
       <c r="G46" s="5"/>
     </row>
-    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
@@ -5133,7 +5163,7 @@
       <c r="F47" s="28"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="20" t="s">
         <v>53</v>
       </c>
@@ -5144,7 +5174,7 @@
       <c r="F48" s="29"/>
       <c r="G48" s="5"/>
     </row>
-    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
@@ -5155,7 +5185,7 @@
       <c r="F49" s="28"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="20" t="s">
         <v>55</v>
       </c>
@@ -5166,7 +5196,7 @@
       <c r="F50" s="29"/>
       <c r="G50" s="5"/>
     </row>
-    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
@@ -5177,7 +5207,7 @@
       <c r="F51" s="28"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="20" t="s">
         <v>57</v>
       </c>
@@ -5188,7 +5218,7 @@
       <c r="F52" s="29"/>
       <c r="G52" s="5"/>
     </row>
-    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
@@ -5199,7 +5229,7 @@
       <c r="F53" s="28"/>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="20" t="s">
         <v>59</v>
       </c>
@@ -5210,7 +5240,7 @@
       <c r="F54" s="29"/>
       <c r="G54" s="5"/>
     </row>
-    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="26" t="s">
         <v>60</v>
       </c>
@@ -5254,17 +5284,17 @@
       <selection pane="bottomRight" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.69140625" style="19" customWidth="1"/>
-    <col min="2" max="3" width="30.69140625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="20.69140625" style="19" customWidth="1"/>
-    <col min="5" max="6" width="25.69140625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="28.69140625" style="19" customWidth="1"/>
-    <col min="8" max="16384" width="9.15234375" style="19"/>
+    <col min="1" max="1" width="45.6640625" style="19" customWidth="1"/>
+    <col min="2" max="3" width="30.6640625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="19" customWidth="1"/>
+    <col min="5" max="6" width="25.6640625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
@@ -5287,7 +5317,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -5298,7 +5328,7 @@
       <c r="F2" s="28"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>8</v>
       </c>
@@ -5309,7 +5339,7 @@
       <c r="F3" s="29"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -5320,7 +5350,7 @@
       <c r="F4" s="28"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
@@ -5331,7 +5361,7 @@
       <c r="F5" s="29"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -5342,7 +5372,7 @@
       <c r="F6" s="28"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>12</v>
       </c>
@@ -5353,7 +5383,7 @@
       <c r="F7" s="29"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -5364,7 +5394,7 @@
       <c r="F8" s="28"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>14</v>
       </c>
@@ -5375,7 +5405,7 @@
       <c r="F9" s="29"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -5386,7 +5416,7 @@
       <c r="F10" s="28"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>16</v>
       </c>
@@ -5397,7 +5427,7 @@
       <c r="F11" s="29"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
         <v>17</v>
       </c>
@@ -5408,7 +5438,7 @@
       <c r="F12" s="30"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
         <v>18</v>
       </c>
@@ -5419,7 +5449,7 @@
       <c r="F13" s="30"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
         <v>19</v>
       </c>
@@ -5430,7 +5460,7 @@
       <c r="F14" s="30"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
         <v>20</v>
       </c>
@@ -5441,7 +5471,7 @@
       <c r="F15" s="30"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -5452,7 +5482,7 @@
       <c r="F16" s="28"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
         <v>22</v>
       </c>
@@ -5463,7 +5493,7 @@
       <c r="F17" s="29"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -5474,7 +5504,7 @@
       <c r="F18" s="28"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
         <v>24</v>
       </c>
@@ -5485,7 +5515,7 @@
       <c r="F19" s="29"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -5496,7 +5526,7 @@
       <c r="F20" s="28"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
         <v>26</v>
       </c>
@@ -5507,7 +5537,7 @@
       <c r="F21" s="29"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -5518,7 +5548,7 @@
       <c r="F22" s="28"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
         <v>28</v>
       </c>
@@ -5529,7 +5559,7 @@
       <c r="F23" s="29"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -5540,7 +5570,7 @@
       <c r="F24" s="28"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
         <v>30</v>
       </c>
@@ -5551,7 +5581,7 @@
       <c r="F25" s="29"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -5562,7 +5592,7 @@
       <c r="F26" s="28"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
         <v>32</v>
       </c>
@@ -5573,7 +5603,7 @@
       <c r="F27" s="29"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
@@ -5584,7 +5614,7 @@
       <c r="F28" s="28"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
         <v>34</v>
       </c>
@@ -5595,7 +5625,7 @@
       <c r="F29" s="29"/>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
@@ -5606,7 +5636,7 @@
       <c r="F30" s="28"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
         <v>36</v>
       </c>
@@ -5617,7 +5647,7 @@
       <c r="F31" s="29"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -5628,7 +5658,7 @@
       <c r="F32" s="28"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="20" t="s">
         <v>38</v>
       </c>
@@ -5639,7 +5669,7 @@
       <c r="F33" s="29"/>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
@@ -5650,7 +5680,7 @@
       <c r="F34" s="28"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
@@ -5661,7 +5691,7 @@
       <c r="F35" s="29"/>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
@@ -5672,7 +5702,7 @@
       <c r="F36" s="28"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="20" t="s">
         <v>42</v>
       </c>
@@ -5683,7 +5713,7 @@
       <c r="F37" s="29"/>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
@@ -5694,7 +5724,7 @@
       <c r="F38" s="28"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="24" t="s">
         <v>44</v>
       </c>
@@ -5705,7 +5735,7 @@
       <c r="F39" s="31"/>
       <c r="G39" s="9"/>
     </row>
-    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="24" t="s">
         <v>45</v>
       </c>
@@ -5716,7 +5746,7 @@
       <c r="F40" s="31"/>
       <c r="G40" s="9"/>
     </row>
-    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="24" t="s">
         <v>46</v>
       </c>
@@ -5727,7 +5757,7 @@
       <c r="F41" s="31"/>
       <c r="G41" s="9"/>
     </row>
-    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="24" t="s">
         <v>47</v>
       </c>
@@ -5738,7 +5768,7 @@
       <c r="F42" s="31"/>
       <c r="G42" s="9"/>
     </row>
-    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="24" t="s">
         <v>48</v>
       </c>
@@ -5749,7 +5779,7 @@
       <c r="F43" s="31"/>
       <c r="G43" s="9"/>
     </row>
-    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="20" t="s">
         <v>49</v>
       </c>
@@ -5760,7 +5790,7 @@
       <c r="F44" s="29"/>
       <c r="G44" s="5"/>
     </row>
-    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
@@ -5771,7 +5801,7 @@
       <c r="F45" s="28"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="20" t="s">
         <v>51</v>
       </c>
@@ -5782,7 +5812,7 @@
       <c r="F46" s="29"/>
       <c r="G46" s="5"/>
     </row>
-    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
@@ -5793,7 +5823,7 @@
       <c r="F47" s="28"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="20" t="s">
         <v>53</v>
       </c>
@@ -5804,7 +5834,7 @@
       <c r="F48" s="29"/>
       <c r="G48" s="5"/>
     </row>
-    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
@@ -5815,7 +5845,7 @@
       <c r="F49" s="28"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="20" t="s">
         <v>55</v>
       </c>
@@ -5826,7 +5856,7 @@
       <c r="F50" s="29"/>
       <c r="G50" s="5"/>
     </row>
-    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
@@ -5837,7 +5867,7 @@
       <c r="F51" s="28"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="20" t="s">
         <v>57</v>
       </c>
@@ -5848,7 +5878,7 @@
       <c r="F52" s="29"/>
       <c r="G52" s="5"/>
     </row>
-    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
@@ -5859,7 +5889,7 @@
       <c r="F53" s="28"/>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="20" t="s">
         <v>59</v>
       </c>
@@ -5870,7 +5900,7 @@
       <c r="F54" s="29"/>
       <c r="G54" s="5"/>
     </row>
-    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="26" t="s">
         <v>60</v>
       </c>
@@ -5915,17 +5945,17 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.69140625" style="19" customWidth="1"/>
-    <col min="2" max="3" width="30.69140625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="20.69140625" style="19" customWidth="1"/>
-    <col min="5" max="6" width="25.69140625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="28.69140625" style="19" customWidth="1"/>
-    <col min="8" max="16384" width="9.15234375" style="19"/>
+    <col min="1" max="1" width="45.6640625" style="19" customWidth="1"/>
+    <col min="2" max="3" width="30.6640625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="19" customWidth="1"/>
+    <col min="5" max="6" width="25.6640625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
@@ -5948,7 +5978,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -5969,7 +5999,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>8</v>
       </c>
@@ -5990,7 +6020,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -6011,7 +6041,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
@@ -6032,7 +6062,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -6053,7 +6083,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>12</v>
       </c>
@@ -6074,7 +6104,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -6095,7 +6125,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>14</v>
       </c>
@@ -6116,7 +6146,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -6137,7 +6167,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>16</v>
       </c>
@@ -6154,7 +6184,7 @@
       <c r="F11" s="29"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
         <v>17</v>
       </c>
@@ -6175,7 +6205,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
         <v>18</v>
       </c>
@@ -6196,7 +6226,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
         <v>19</v>
       </c>
@@ -6217,7 +6247,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
         <v>20</v>
       </c>
@@ -6238,7 +6268,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -6259,7 +6289,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
         <v>22</v>
       </c>
@@ -6280,7 +6310,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -6301,7 +6331,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
         <v>24</v>
       </c>
@@ -6322,7 +6352,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -6343,7 +6373,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
         <v>26</v>
       </c>
@@ -6364,7 +6394,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -6385,7 +6415,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
         <v>28</v>
       </c>
@@ -6406,7 +6436,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -6427,7 +6457,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
         <v>30</v>
       </c>
@@ -6448,7 +6478,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -6465,7 +6495,7 @@
       <c r="F26" s="28"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
         <v>32</v>
       </c>
@@ -6486,7 +6516,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
@@ -6507,7 +6537,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
         <v>34</v>
       </c>
@@ -6528,7 +6558,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
@@ -6549,7 +6579,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
         <v>36</v>
       </c>
@@ -6570,7 +6600,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -6591,7 +6621,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="20" t="s">
         <v>38</v>
       </c>
@@ -6612,7 +6642,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
@@ -6633,7 +6663,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
@@ -6654,7 +6684,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
@@ -6675,7 +6705,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="20" t="s">
         <v>42</v>
       </c>
@@ -6696,7 +6726,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
@@ -6717,7 +6747,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="24" t="s">
         <v>44</v>
       </c>
@@ -6738,7 +6768,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="24" t="s">
         <v>45</v>
       </c>
@@ -6759,7 +6789,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="24" t="s">
         <v>46</v>
       </c>
@@ -6780,7 +6810,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="24" t="s">
         <v>47</v>
       </c>
@@ -6801,7 +6831,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="24" t="s">
         <v>48</v>
       </c>
@@ -6818,7 +6848,7 @@
       <c r="F43" s="31"/>
       <c r="G43" s="9"/>
     </row>
-    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="20" t="s">
         <v>49</v>
       </c>
@@ -6839,7 +6869,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
@@ -6860,7 +6890,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="20" t="s">
         <v>51</v>
       </c>
@@ -6881,7 +6911,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
@@ -6902,7 +6932,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="20" t="s">
         <v>53</v>
       </c>
@@ -6923,7 +6953,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
@@ -6944,7 +6974,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="20" t="s">
         <v>55</v>
       </c>
@@ -6965,7 +6995,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
@@ -6986,7 +7016,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="20" t="s">
         <v>57</v>
       </c>
@@ -7007,7 +7037,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
@@ -7028,7 +7058,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="20" t="s">
         <v>59</v>
       </c>
@@ -7049,7 +7079,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="26" t="s">
         <v>60</v>
       </c>
@@ -7104,17 +7134,17 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.69140625" style="19" customWidth="1"/>
-    <col min="2" max="3" width="30.69140625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="20.69140625" style="19" customWidth="1"/>
-    <col min="5" max="6" width="25.69140625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="28.69140625" style="19" customWidth="1"/>
-    <col min="8" max="16384" width="9.15234375" style="19"/>
+    <col min="1" max="1" width="45.6640625" style="19" customWidth="1"/>
+    <col min="2" max="3" width="30.6640625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="19" customWidth="1"/>
+    <col min="5" max="6" width="25.6640625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
@@ -7137,7 +7167,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -7158,7 +7188,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>8</v>
       </c>
@@ -7179,7 +7209,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -7200,7 +7230,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
@@ -7221,7 +7251,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -7242,7 +7272,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>12</v>
       </c>
@@ -7263,7 +7293,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -7284,7 +7314,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>14</v>
       </c>
@@ -7305,7 +7335,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -7326,7 +7356,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>16</v>
       </c>
@@ -7343,7 +7373,7 @@
       <c r="F11" s="29"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
         <v>17</v>
       </c>
@@ -7364,7 +7394,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
         <v>18</v>
       </c>
@@ -7385,7 +7415,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
         <v>19</v>
       </c>
@@ -7406,7 +7436,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
         <v>20</v>
       </c>
@@ -7427,7 +7457,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -7448,7 +7478,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
         <v>22</v>
       </c>
@@ -7469,7 +7499,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -7490,7 +7520,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
         <v>24</v>
       </c>
@@ -7511,7 +7541,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -7532,7 +7562,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
         <v>26</v>
       </c>
@@ -7553,7 +7583,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -7574,7 +7604,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
         <v>28</v>
       </c>
@@ -7595,7 +7625,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -7616,7 +7646,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
         <v>30</v>
       </c>
@@ -7637,7 +7667,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -7654,7 +7684,7 @@
       <c r="F26" s="28"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
         <v>32</v>
       </c>
@@ -7675,7 +7705,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
@@ -7696,7 +7726,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
         <v>34</v>
       </c>
@@ -7717,7 +7747,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
@@ -7738,7 +7768,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
         <v>36</v>
       </c>
@@ -7759,7 +7789,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -7780,7 +7810,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="20" t="s">
         <v>38</v>
       </c>
@@ -7801,7 +7831,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
@@ -7822,7 +7852,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
@@ -7843,7 +7873,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
@@ -7864,7 +7894,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="20" t="s">
         <v>42</v>
       </c>
@@ -7885,7 +7915,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
@@ -7906,7 +7936,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="24" t="s">
         <v>44</v>
       </c>
@@ -7927,7 +7957,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="24" t="s">
         <v>45</v>
       </c>
@@ -7948,7 +7978,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="24" t="s">
         <v>46</v>
       </c>
@@ -7969,7 +7999,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="24" t="s">
         <v>47</v>
       </c>
@@ -7990,7 +8020,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="24" t="s">
         <v>48</v>
       </c>
@@ -8007,7 +8037,7 @@
       <c r="F43" s="31"/>
       <c r="G43" s="9"/>
     </row>
-    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="20" t="s">
         <v>49</v>
       </c>
@@ -8028,7 +8058,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
@@ -8049,7 +8079,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="20" t="s">
         <v>51</v>
       </c>
@@ -8070,7 +8100,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
@@ -8091,7 +8121,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="20" t="s">
         <v>53</v>
       </c>
@@ -8112,7 +8142,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
@@ -8133,7 +8163,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="20" t="s">
         <v>55</v>
       </c>
@@ -8154,7 +8184,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
@@ -8175,7 +8205,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="20" t="s">
         <v>57</v>
       </c>
@@ -8196,7 +8226,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
@@ -8217,7 +8247,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="20" t="s">
         <v>59</v>
       </c>
@@ -8238,7 +8268,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="26" t="s">
         <v>60</v>
       </c>
@@ -8292,17 +8322,17 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.69140625" style="19" customWidth="1"/>
-    <col min="2" max="3" width="30.69140625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="20.69140625" style="19" customWidth="1"/>
-    <col min="5" max="6" width="25.69140625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="28.69140625" style="19" customWidth="1"/>
-    <col min="8" max="16384" width="9.15234375" style="19"/>
+    <col min="1" max="1" width="45.6640625" style="19" customWidth="1"/>
+    <col min="2" max="3" width="30.6640625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="19" customWidth="1"/>
+    <col min="5" max="6" width="25.6640625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
@@ -8325,7 +8355,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -8346,7 +8376,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>8</v>
       </c>
@@ -8367,7 +8397,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -8388,7 +8418,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
@@ -8409,7 +8439,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -8430,7 +8460,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>12</v>
       </c>
@@ -8451,7 +8481,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -8472,7 +8502,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>14</v>
       </c>
@@ -8493,7 +8523,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -8514,7 +8544,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>16</v>
       </c>
@@ -8531,7 +8561,7 @@
       <c r="F11" s="29"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
         <v>17</v>
       </c>
@@ -8552,7 +8582,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
         <v>18</v>
       </c>
@@ -8573,7 +8603,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
         <v>19</v>
       </c>
@@ -8594,7 +8624,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
         <v>20</v>
       </c>
@@ -8615,7 +8645,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -8636,7 +8666,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
         <v>22</v>
       </c>
@@ -8657,7 +8687,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -8678,7 +8708,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
         <v>24</v>
       </c>
@@ -8699,7 +8729,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -8720,7 +8750,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
         <v>26</v>
       </c>
@@ -8741,7 +8771,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -8762,7 +8792,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
         <v>28</v>
       </c>
@@ -8783,7 +8813,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -8804,7 +8834,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
         <v>30</v>
       </c>
@@ -8825,7 +8855,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -8842,7 +8872,7 @@
       <c r="F26" s="28"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
         <v>32</v>
       </c>
@@ -8863,7 +8893,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
@@ -8884,7 +8914,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
         <v>34</v>
       </c>
@@ -8905,7 +8935,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
@@ -8926,7 +8956,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
         <v>36</v>
       </c>
@@ -8947,7 +8977,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -8968,7 +8998,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="20" t="s">
         <v>38</v>
       </c>
@@ -8989,7 +9019,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
@@ -9010,7 +9040,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
@@ -9031,7 +9061,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
@@ -9052,7 +9082,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="20" t="s">
         <v>42</v>
       </c>
@@ -9073,7 +9103,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
@@ -9094,7 +9124,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="24" t="s">
         <v>44</v>
       </c>
@@ -9115,7 +9145,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="24" t="s">
         <v>45</v>
       </c>
@@ -9136,7 +9166,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="24" t="s">
         <v>46</v>
       </c>
@@ -9157,7 +9187,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="24" t="s">
         <v>47</v>
       </c>
@@ -9178,7 +9208,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="24" t="s">
         <v>48</v>
       </c>
@@ -9195,7 +9225,7 @@
       <c r="F43" s="31"/>
       <c r="G43" s="9"/>
     </row>
-    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="20" t="s">
         <v>49</v>
       </c>
@@ -9216,7 +9246,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
@@ -9237,7 +9267,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="20" t="s">
         <v>51</v>
       </c>
@@ -9258,7 +9288,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
@@ -9279,7 +9309,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="20" t="s">
         <v>53</v>
       </c>
@@ -9300,7 +9330,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
@@ -9321,7 +9351,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="20" t="s">
         <v>55</v>
       </c>
@@ -9342,7 +9372,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
@@ -9363,7 +9393,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="20" t="s">
         <v>57</v>
       </c>
@@ -9384,7 +9414,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
@@ -9405,7 +9435,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="20" t="s">
         <v>59</v>
       </c>
@@ -9426,7 +9456,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="26" t="s">
         <v>60</v>
       </c>
@@ -9481,17 +9511,17 @@
       <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.69140625" style="19" customWidth="1"/>
-    <col min="2" max="3" width="30.69140625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="20.69140625" style="19" customWidth="1"/>
-    <col min="5" max="6" width="25.69140625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="28.69140625" style="19" customWidth="1"/>
-    <col min="8" max="16384" width="9.15234375" style="19"/>
+    <col min="1" max="1" width="45.6640625" style="19" customWidth="1"/>
+    <col min="2" max="3" width="30.6640625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="19" customWidth="1"/>
+    <col min="5" max="6" width="25.6640625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
@@ -9514,7 +9544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -9535,7 +9565,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>8</v>
       </c>
@@ -9556,7 +9586,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -9577,7 +9607,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
@@ -9598,7 +9628,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -9619,7 +9649,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>12</v>
       </c>
@@ -9640,7 +9670,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -9661,7 +9691,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>14</v>
       </c>
@@ -9682,7 +9712,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -9703,7 +9733,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>16</v>
       </c>
@@ -9720,7 +9750,7 @@
       <c r="F11" s="29"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
         <v>17</v>
       </c>
@@ -9741,7 +9771,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
         <v>18</v>
       </c>
@@ -9762,7 +9792,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
         <v>19</v>
       </c>
@@ -9783,7 +9813,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
         <v>20</v>
       </c>
@@ -9804,7 +9834,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -9825,7 +9855,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
         <v>22</v>
       </c>
@@ -9846,7 +9876,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -9867,7 +9897,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
         <v>24</v>
       </c>
@@ -9888,7 +9918,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -9909,7 +9939,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
         <v>26</v>
       </c>
@@ -9930,7 +9960,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -9951,7 +9981,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
         <v>28</v>
       </c>
@@ -9972,7 +10002,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -9993,7 +10023,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
         <v>30</v>
       </c>
@@ -10014,7 +10044,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -10031,7 +10061,7 @@
       <c r="F26" s="28"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
         <v>32</v>
       </c>
@@ -10052,7 +10082,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
@@ -10073,7 +10103,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
         <v>34</v>
       </c>
@@ -10094,7 +10124,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
@@ -10115,7 +10145,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
         <v>36</v>
       </c>
@@ -10136,7 +10166,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -10157,7 +10187,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="20" t="s">
         <v>38</v>
       </c>
@@ -10178,7 +10208,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
@@ -10199,7 +10229,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
@@ -10220,7 +10250,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
@@ -10241,7 +10271,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="20" t="s">
         <v>42</v>
       </c>
@@ -10262,7 +10292,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
@@ -10283,7 +10313,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="24" t="s">
         <v>44</v>
       </c>
@@ -10304,7 +10334,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="24" t="s">
         <v>45</v>
       </c>
@@ -10325,7 +10355,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="24" t="s">
         <v>46</v>
       </c>
@@ -10346,7 +10376,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="24" t="s">
         <v>47</v>
       </c>
@@ -10367,7 +10397,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="24" t="s">
         <v>48</v>
       </c>
@@ -10384,7 +10414,7 @@
       <c r="F43" s="31"/>
       <c r="G43" s="9"/>
     </row>
-    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="20" t="s">
         <v>49</v>
       </c>
@@ -10405,7 +10435,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
@@ -10426,7 +10456,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="20" t="s">
         <v>51</v>
       </c>
@@ -10447,7 +10477,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
@@ -10468,7 +10498,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="20" t="s">
         <v>53</v>
       </c>
@@ -10489,7 +10519,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
@@ -10510,7 +10540,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="20" t="s">
         <v>55</v>
       </c>
@@ -10531,7 +10561,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
@@ -10552,7 +10582,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="20" t="s">
         <v>57</v>
       </c>
@@ -10573,7 +10603,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
@@ -10594,7 +10624,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="20" t="s">
         <v>59</v>
       </c>
@@ -10615,7 +10645,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="26" t="s">
         <v>60</v>
       </c>
@@ -10669,17 +10699,17 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.69140625" style="19" customWidth="1"/>
-    <col min="2" max="3" width="30.69140625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="20.69140625" style="19" customWidth="1"/>
-    <col min="5" max="6" width="25.69140625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="28.69140625" style="19" customWidth="1"/>
-    <col min="8" max="16384" width="9.15234375" style="19"/>
+    <col min="1" max="1" width="45.6640625" style="19" customWidth="1"/>
+    <col min="2" max="3" width="30.6640625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="19" customWidth="1"/>
+    <col min="5" max="6" width="25.6640625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
@@ -10702,7 +10732,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -10723,7 +10753,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>8</v>
       </c>
@@ -10744,7 +10774,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -10765,7 +10795,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
@@ -10786,7 +10816,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -10807,7 +10837,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>12</v>
       </c>
@@ -10828,7 +10858,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -10849,7 +10879,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>14</v>
       </c>
@@ -10870,7 +10900,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -10891,7 +10921,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>16</v>
       </c>
@@ -10908,7 +10938,7 @@
       <c r="F11" s="29"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
         <v>17</v>
       </c>
@@ -10929,7 +10959,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
         <v>18</v>
       </c>
@@ -10950,7 +10980,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
         <v>19</v>
       </c>
@@ -10971,7 +11001,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
         <v>20</v>
       </c>
@@ -10992,7 +11022,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -11013,7 +11043,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
         <v>22</v>
       </c>
@@ -11034,7 +11064,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -11055,7 +11085,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
         <v>24</v>
       </c>
@@ -11076,7 +11106,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -11097,7 +11127,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
         <v>26</v>
       </c>
@@ -11118,7 +11148,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -11139,7 +11169,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
         <v>28</v>
       </c>
@@ -11160,7 +11190,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -11181,7 +11211,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
         <v>30</v>
       </c>
@@ -11202,7 +11232,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -11219,7 +11249,7 @@
       <c r="F26" s="28"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
         <v>32</v>
       </c>
@@ -11240,7 +11270,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
@@ -11261,7 +11291,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
         <v>34</v>
       </c>
@@ -11282,7 +11312,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
@@ -11303,7 +11333,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
         <v>36</v>
       </c>
@@ -11324,7 +11354,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -11345,7 +11375,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="20" t="s">
         <v>38</v>
       </c>
@@ -11366,7 +11396,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
@@ -11387,7 +11417,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
@@ -11408,7 +11438,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
@@ -11429,7 +11459,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="20" t="s">
         <v>42</v>
       </c>
@@ -11450,7 +11480,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
@@ -11471,7 +11501,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="24" t="s">
         <v>44</v>
       </c>
@@ -11492,7 +11522,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="24" t="s">
         <v>45</v>
       </c>
@@ -11513,7 +11543,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="24" t="s">
         <v>46</v>
       </c>
@@ -11534,7 +11564,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="24" t="s">
         <v>47</v>
       </c>
@@ -11555,7 +11585,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="24" t="s">
         <v>48</v>
       </c>
@@ -11572,7 +11602,7 @@
       <c r="F43" s="31"/>
       <c r="G43" s="9"/>
     </row>
-    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="20" t="s">
         <v>49</v>
       </c>
@@ -11593,7 +11623,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
@@ -11614,7 +11644,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="20" t="s">
         <v>51</v>
       </c>
@@ -11635,7 +11665,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
@@ -11656,7 +11686,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="20" t="s">
         <v>53</v>
       </c>
@@ -11677,7 +11707,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
@@ -11698,7 +11728,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="20" t="s">
         <v>55</v>
       </c>
@@ -11719,7 +11749,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
@@ -11740,7 +11770,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="20" t="s">
         <v>57</v>
       </c>
@@ -11761,7 +11791,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
@@ -11782,7 +11812,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="20" t="s">
         <v>59</v>
       </c>
@@ -11803,7 +11833,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="26" t="s">
         <v>60</v>
       </c>
@@ -11857,17 +11887,17 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.69140625" style="19" customWidth="1"/>
-    <col min="2" max="3" width="30.69140625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="20.69140625" style="19" customWidth="1"/>
-    <col min="5" max="6" width="25.69140625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="28.69140625" style="19" customWidth="1"/>
-    <col min="8" max="16384" width="9.15234375" style="19"/>
+    <col min="1" max="1" width="45.6640625" style="19" customWidth="1"/>
+    <col min="2" max="3" width="30.6640625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="19" customWidth="1"/>
+    <col min="5" max="6" width="25.6640625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
@@ -11890,7 +11920,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -11911,7 +11941,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>8</v>
       </c>
@@ -11932,7 +11962,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -11953,7 +11983,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
@@ -11974,7 +12004,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -11995,7 +12025,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>12</v>
       </c>
@@ -12016,7 +12046,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -12037,7 +12067,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>14</v>
       </c>
@@ -12058,7 +12088,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -12079,7 +12109,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>16</v>
       </c>
@@ -12096,7 +12126,7 @@
       <c r="F11" s="29"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
         <v>17</v>
       </c>
@@ -12117,7 +12147,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
         <v>18</v>
       </c>
@@ -12138,7 +12168,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
         <v>19</v>
       </c>
@@ -12159,7 +12189,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
         <v>20</v>
       </c>
@@ -12180,7 +12210,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -12201,7 +12231,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
         <v>22</v>
       </c>
@@ -12222,7 +12252,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -12243,7 +12273,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
         <v>24</v>
       </c>
@@ -12264,7 +12294,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -12285,7 +12315,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
         <v>26</v>
       </c>
@@ -12306,7 +12336,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -12327,7 +12357,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
         <v>28</v>
       </c>
@@ -12348,7 +12378,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -12369,7 +12399,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
         <v>30</v>
       </c>
@@ -12390,7 +12420,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -12407,7 +12437,7 @@
       <c r="F26" s="28"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
         <v>32</v>
       </c>
@@ -12428,7 +12458,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
@@ -12449,7 +12479,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
         <v>34</v>
       </c>
@@ -12470,7 +12500,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
@@ -12491,7 +12521,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
         <v>36</v>
       </c>
@@ -12512,7 +12542,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -12533,7 +12563,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="20" t="s">
         <v>38</v>
       </c>
@@ -12554,7 +12584,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
@@ -12575,7 +12605,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
@@ -12596,7 +12626,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
@@ -12617,7 +12647,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="20" t="s">
         <v>42</v>
       </c>
@@ -12638,7 +12668,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
@@ -12659,7 +12689,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="24" t="s">
         <v>44</v>
       </c>
@@ -12680,7 +12710,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="24" t="s">
         <v>45</v>
       </c>
@@ -12701,7 +12731,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="24" t="s">
         <v>46</v>
       </c>
@@ -12722,7 +12752,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="24" t="s">
         <v>47</v>
       </c>
@@ -12743,7 +12773,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="24" t="s">
         <v>48</v>
       </c>
@@ -12760,7 +12790,7 @@
       <c r="F43" s="31"/>
       <c r="G43" s="9"/>
     </row>
-    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="20" t="s">
         <v>49</v>
       </c>
@@ -12781,7 +12811,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
@@ -12802,7 +12832,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="20" t="s">
         <v>51</v>
       </c>
@@ -12823,7 +12853,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
@@ -12844,7 +12874,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="20" t="s">
         <v>53</v>
       </c>
@@ -12865,7 +12895,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
@@ -12886,7 +12916,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="20" t="s">
         <v>55</v>
       </c>
@@ -12907,7 +12937,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
@@ -12928,7 +12958,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="20" t="s">
         <v>57</v>
       </c>
@@ -12949,7 +12979,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
@@ -12970,7 +13000,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="20" t="s">
         <v>59</v>
       </c>
@@ -12991,7 +13021,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="26" t="s">
         <v>60</v>
       </c>
@@ -13045,17 +13075,17 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.69140625" style="19" customWidth="1"/>
-    <col min="2" max="3" width="30.69140625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="20.69140625" style="19" customWidth="1"/>
-    <col min="5" max="6" width="25.69140625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="28.69140625" style="19" customWidth="1"/>
-    <col min="8" max="16384" width="9.15234375" style="19"/>
+    <col min="1" max="1" width="45.6640625" style="19" customWidth="1"/>
+    <col min="2" max="3" width="30.6640625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="19" customWidth="1"/>
+    <col min="5" max="6" width="25.6640625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
@@ -13078,7 +13108,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -13099,7 +13129,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>8</v>
       </c>
@@ -13120,7 +13150,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -13141,7 +13171,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
@@ -13162,7 +13192,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -13183,7 +13213,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>12</v>
       </c>
@@ -13204,7 +13234,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -13225,7 +13255,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>14</v>
       </c>
@@ -13246,7 +13276,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -13267,7 +13297,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>16</v>
       </c>
@@ -13288,7 +13318,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
         <v>17</v>
       </c>
@@ -13309,7 +13339,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
         <v>18</v>
       </c>
@@ -13330,7 +13360,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
         <v>19</v>
       </c>
@@ -13351,7 +13381,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
         <v>20</v>
       </c>
@@ -13372,7 +13402,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -13393,7 +13423,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
         <v>22</v>
       </c>
@@ -13414,7 +13444,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -13435,7 +13465,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
         <v>24</v>
       </c>
@@ -13456,7 +13486,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -13477,7 +13507,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
         <v>26</v>
       </c>
@@ -13498,7 +13528,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -13519,7 +13549,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
         <v>28</v>
       </c>
@@ -13540,7 +13570,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -13561,7 +13591,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
         <v>30</v>
       </c>
@@ -13582,7 +13612,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -13599,7 +13629,7 @@
       <c r="F26" s="28"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
         <v>32</v>
       </c>
@@ -13620,7 +13650,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
@@ -13641,7 +13671,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
         <v>34</v>
       </c>
@@ -13662,7 +13692,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
@@ -13683,7 +13713,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
         <v>36</v>
       </c>
@@ -13704,7 +13734,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -13725,7 +13755,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="20" t="s">
         <v>38</v>
       </c>
@@ -13746,7 +13776,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
@@ -13767,7 +13797,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
@@ -13788,7 +13818,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
@@ -13809,7 +13839,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="20" t="s">
         <v>42</v>
       </c>
@@ -13830,7 +13860,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
@@ -13851,7 +13881,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="24" t="s">
         <v>44</v>
       </c>
@@ -13872,7 +13902,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="24" t="s">
         <v>45</v>
       </c>
@@ -13893,7 +13923,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="24" t="s">
         <v>46</v>
       </c>
@@ -13910,7 +13940,7 @@
       <c r="F41" s="31"/>
       <c r="G41" s="9"/>
     </row>
-    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="24" t="s">
         <v>47</v>
       </c>
@@ -13931,7 +13961,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="24" t="s">
         <v>48</v>
       </c>
@@ -13948,7 +13978,7 @@
       <c r="F43" s="31"/>
       <c r="G43" s="9"/>
     </row>
-    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="20" t="s">
         <v>49</v>
       </c>
@@ -13969,7 +13999,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
@@ -13990,7 +14020,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="20" t="s">
         <v>51</v>
       </c>
@@ -14011,7 +14041,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
@@ -14032,7 +14062,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="20" t="s">
         <v>53</v>
       </c>
@@ -14053,7 +14083,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
@@ -14074,7 +14104,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="20" t="s">
         <v>55</v>
       </c>
@@ -14095,7 +14125,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
@@ -14116,7 +14146,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="20" t="s">
         <v>57</v>
       </c>
@@ -14137,7 +14167,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
@@ -14158,7 +14188,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="20" t="s">
         <v>59</v>
       </c>
@@ -14179,7 +14209,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="26" t="s">
         <v>60</v>
       </c>
@@ -14233,17 +14263,17 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.69140625" style="19" customWidth="1"/>
-    <col min="2" max="3" width="30.69140625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="20.69140625" style="19" customWidth="1"/>
-    <col min="5" max="6" width="25.69140625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="28.69140625" style="19" customWidth="1"/>
-    <col min="8" max="16384" width="9.15234375" style="19"/>
+    <col min="1" max="1" width="45.6640625" style="19" customWidth="1"/>
+    <col min="2" max="3" width="30.6640625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="19" customWidth="1"/>
+    <col min="5" max="6" width="25.6640625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
@@ -14266,599 +14296,1127 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="28"/>
+      <c r="B2" s="18">
+        <v>1547</v>
+      </c>
+      <c r="C2" s="18">
+        <v>1345</v>
+      </c>
+      <c r="D2" s="18">
+        <v>202</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F2" s="28"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G2" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="29"/>
+      <c r="B3" s="21">
+        <v>768</v>
+      </c>
+      <c r="C3" s="21">
+        <v>431</v>
+      </c>
+      <c r="D3" s="21">
+        <v>337</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F3" s="29"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G3" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="B4" s="18">
+        <v>1081</v>
+      </c>
+      <c r="C4" s="18">
+        <v>1098</v>
+      </c>
+      <c r="D4" s="18">
+        <v>-17</v>
+      </c>
       <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F4" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
+      <c r="B5" s="21">
+        <v>19</v>
+      </c>
+      <c r="C5" s="21">
+        <v>139</v>
+      </c>
+      <c r="D5" s="21">
+        <v>-120</v>
+      </c>
       <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F5" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
+      <c r="B6" s="18">
+        <v>1047</v>
+      </c>
+      <c r="C6" s="18">
+        <v>1612</v>
+      </c>
+      <c r="D6" s="18">
+        <v>-565</v>
+      </c>
       <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F6" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="29"/>
+      <c r="B7" s="21">
+        <v>254</v>
+      </c>
+      <c r="C7" s="21">
+        <v>231</v>
+      </c>
+      <c r="D7" s="21">
+        <v>23</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F7" s="29"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G7" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
+      <c r="B8" s="18">
+        <v>167</v>
+      </c>
+      <c r="C8" s="18">
+        <v>188</v>
+      </c>
+      <c r="D8" s="18">
+        <v>-21</v>
+      </c>
       <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F8" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
+      <c r="B9" s="21">
+        <v>29</v>
+      </c>
+      <c r="C9" s="21">
+        <v>90</v>
+      </c>
+      <c r="D9" s="21">
+        <v>-61</v>
+      </c>
       <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F9" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
+      <c r="B10" s="18">
+        <v>0</v>
+      </c>
+      <c r="C10" s="18">
+        <v>69</v>
+      </c>
+      <c r="D10" s="18">
+        <v>-69</v>
+      </c>
       <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F10" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
+      <c r="B11" s="21">
+        <v>0</v>
+      </c>
+      <c r="C11" s="21">
+        <v>0</v>
+      </c>
+      <c r="D11" s="21">
+        <v>0</v>
+      </c>
       <c r="E11" s="29"/>
       <c r="F11" s="29"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="30"/>
+      <c r="B12" s="23">
+        <v>32</v>
+      </c>
+      <c r="C12" s="23">
+        <v>20</v>
+      </c>
+      <c r="D12" s="23">
+        <v>12</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>61</v>
+      </c>
       <c r="F12" s="30"/>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G12" s="7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="30"/>
+      <c r="B13" s="23">
+        <v>85</v>
+      </c>
+      <c r="C13" s="23">
+        <v>79</v>
+      </c>
+      <c r="D13" s="23">
+        <v>6</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>61</v>
+      </c>
       <c r="F13" s="30"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G13" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
+      <c r="B14" s="23">
+        <v>146</v>
+      </c>
+      <c r="C14" s="23">
+        <v>224</v>
+      </c>
+      <c r="D14" s="23">
+        <v>-78</v>
+      </c>
       <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F14" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
+      <c r="B15" s="23">
+        <v>56</v>
+      </c>
+      <c r="C15" s="23">
+        <v>167</v>
+      </c>
+      <c r="D15" s="23">
+        <v>-111</v>
+      </c>
       <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F15" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
+      <c r="B16" s="18">
+        <v>82</v>
+      </c>
+      <c r="C16" s="18">
+        <v>166</v>
+      </c>
+      <c r="D16" s="18">
+        <v>-84</v>
+      </c>
       <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F16" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="29"/>
+      <c r="B17" s="21">
+        <v>710</v>
+      </c>
+      <c r="C17" s="21">
+        <v>400</v>
+      </c>
+      <c r="D17" s="21">
+        <v>310</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F17" s="29"/>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G17" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="28"/>
+      <c r="B18" s="18">
+        <v>103</v>
+      </c>
+      <c r="C18" s="18">
+        <v>90</v>
+      </c>
+      <c r="D18" s="18">
+        <v>13</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F18" s="28"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G18" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="29"/>
+      <c r="B19" s="21">
+        <v>470</v>
+      </c>
+      <c r="C19" s="21">
+        <v>456</v>
+      </c>
+      <c r="D19" s="21">
+        <v>14</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F19" s="29"/>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G19" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
+      <c r="B20" s="18">
+        <v>28</v>
+      </c>
+      <c r="C20" s="18">
+        <v>63</v>
+      </c>
+      <c r="D20" s="18">
+        <v>-35</v>
+      </c>
       <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F20" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="29"/>
+      <c r="B21" s="21">
+        <v>575</v>
+      </c>
+      <c r="C21" s="21">
+        <v>328</v>
+      </c>
+      <c r="D21" s="21">
+        <v>247</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F21" s="29"/>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G21" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
+      <c r="B22" s="18">
+        <v>38</v>
+      </c>
+      <c r="C22" s="18">
+        <v>109</v>
+      </c>
+      <c r="D22" s="18">
+        <v>-71</v>
+      </c>
       <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F22" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="29"/>
+      <c r="B23" s="21">
+        <v>730</v>
+      </c>
+      <c r="C23" s="21">
+        <v>355</v>
+      </c>
+      <c r="D23" s="21">
+        <v>375</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F23" s="29"/>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G23" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="28"/>
+      <c r="B24" s="18">
+        <v>1567</v>
+      </c>
+      <c r="C24" s="18">
+        <v>1223</v>
+      </c>
+      <c r="D24" s="18">
+        <v>344</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F24" s="28"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G24" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
+      <c r="B25" s="21">
+        <v>149</v>
+      </c>
+      <c r="C25" s="21">
+        <v>473</v>
+      </c>
+      <c r="D25" s="21">
+        <v>-324</v>
+      </c>
       <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F25" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
+      <c r="B26" s="18">
+        <v>0</v>
+      </c>
+      <c r="C26" s="18">
+        <v>0</v>
+      </c>
+      <c r="D26" s="18">
+        <v>0</v>
+      </c>
       <c r="E26" s="28"/>
       <c r="F26" s="28"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="29"/>
+      <c r="B27" s="21">
+        <v>201</v>
+      </c>
+      <c r="C27" s="21">
+        <v>200</v>
+      </c>
+      <c r="D27" s="21">
+        <v>1</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F27" s="29"/>
-      <c r="G27" s="5"/>
-    </row>
-    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G27" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="28"/>
+      <c r="B28" s="18">
+        <v>101</v>
+      </c>
+      <c r="C28" s="18">
+        <v>88</v>
+      </c>
+      <c r="D28" s="18">
+        <v>13</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F28" s="28"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G28" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="29"/>
+      <c r="B29" s="21">
+        <v>625</v>
+      </c>
+      <c r="C29" s="21">
+        <v>427</v>
+      </c>
+      <c r="D29" s="21">
+        <v>198</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F29" s="29"/>
-      <c r="G29" s="5"/>
-    </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G29" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="28"/>
+      <c r="B30" s="18">
+        <v>31</v>
+      </c>
+      <c r="C30" s="18">
+        <v>22</v>
+      </c>
+      <c r="D30" s="18">
+        <v>9</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F30" s="28"/>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G30" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
+      <c r="B31" s="21">
+        <v>32</v>
+      </c>
+      <c r="C31" s="21">
+        <v>258</v>
+      </c>
+      <c r="D31" s="21">
+        <v>-226</v>
+      </c>
       <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="5"/>
-    </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F31" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
+      <c r="B32" s="18">
+        <v>452</v>
+      </c>
+      <c r="C32" s="18">
+        <v>639</v>
+      </c>
+      <c r="D32" s="18">
+        <v>-187</v>
+      </c>
       <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F32" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
+      <c r="B33" s="21">
+        <v>425</v>
+      </c>
+      <c r="C33" s="21">
+        <v>624</v>
+      </c>
+      <c r="D33" s="21">
+        <v>-199</v>
+      </c>
       <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="5"/>
-    </row>
-    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F33" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="28"/>
+      <c r="B34" s="18">
+        <v>225</v>
+      </c>
+      <c r="C34" s="18">
+        <v>111</v>
+      </c>
+      <c r="D34" s="18">
+        <v>114</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F34" s="28"/>
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G34" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
+      <c r="B35" s="21">
+        <v>918</v>
+      </c>
+      <c r="C35" s="21">
+        <v>1223</v>
+      </c>
+      <c r="D35" s="21">
+        <v>-305</v>
+      </c>
       <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="5"/>
-    </row>
-    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F35" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
+      <c r="B36" s="18">
+        <v>172</v>
+      </c>
+      <c r="C36" s="18">
+        <v>532</v>
+      </c>
+      <c r="D36" s="18">
+        <v>-360</v>
+      </c>
       <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="3"/>
-    </row>
-    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F36" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="29"/>
+      <c r="B37" s="21">
+        <v>468</v>
+      </c>
+      <c r="C37" s="21">
+        <v>390</v>
+      </c>
+      <c r="D37" s="21">
+        <v>78</v>
+      </c>
+      <c r="E37" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F37" s="29"/>
-      <c r="G37" s="5"/>
-    </row>
-    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G37" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
+      <c r="B38" s="18">
+        <v>26</v>
+      </c>
+      <c r="C38" s="18">
+        <v>180</v>
+      </c>
+      <c r="D38" s="18">
+        <v>-154</v>
+      </c>
       <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="3"/>
-    </row>
-    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F38" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
+      <c r="B39" s="25">
+        <v>14</v>
+      </c>
+      <c r="C39" s="25">
+        <v>45</v>
+      </c>
+      <c r="D39" s="25">
+        <v>-31</v>
+      </c>
       <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="9"/>
-    </row>
-    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F39" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
+      <c r="B40" s="25">
+        <v>5</v>
+      </c>
+      <c r="C40" s="25">
+        <v>58</v>
+      </c>
+      <c r="D40" s="25">
+        <v>-53</v>
+      </c>
       <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="9"/>
-    </row>
-    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F40" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
+      <c r="B41" s="25">
+        <v>1</v>
+      </c>
+      <c r="C41" s="25">
+        <v>10</v>
+      </c>
+      <c r="D41" s="25">
+        <v>-9</v>
+      </c>
       <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="9"/>
-    </row>
-    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F41" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
+      <c r="B42" s="25">
+        <v>3</v>
+      </c>
+      <c r="C42" s="25">
+        <v>7</v>
+      </c>
+      <c r="D42" s="25">
+        <v>-4</v>
+      </c>
       <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="9"/>
-    </row>
-    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F42" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
+      <c r="B43" s="25">
+        <v>0</v>
+      </c>
+      <c r="C43" s="25">
+        <v>0</v>
+      </c>
+      <c r="D43" s="25">
+        <v>0</v>
+      </c>
       <c r="E43" s="31"/>
       <c r="F43" s="31"/>
       <c r="G43" s="9"/>
     </row>
-    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="29"/>
+      <c r="B44" s="21">
+        <v>84</v>
+      </c>
+      <c r="C44" s="21">
+        <v>72</v>
+      </c>
+      <c r="D44" s="21">
+        <v>12</v>
+      </c>
+      <c r="E44" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F44" s="29"/>
-      <c r="G44" s="5"/>
-    </row>
-    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G44" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
+      <c r="B45" s="18">
+        <v>95</v>
+      </c>
+      <c r="C45" s="18">
+        <v>150</v>
+      </c>
+      <c r="D45" s="18">
+        <v>-55</v>
+      </c>
       <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="3"/>
-    </row>
-    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F45" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="29"/>
+      <c r="B46" s="21">
+        <v>638</v>
+      </c>
+      <c r="C46" s="21">
+        <v>531</v>
+      </c>
+      <c r="D46" s="21">
+        <v>107</v>
+      </c>
+      <c r="E46" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F46" s="29"/>
-      <c r="G46" s="5"/>
-    </row>
-    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G46" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="28"/>
+      <c r="B47" s="18">
+        <v>1033</v>
+      </c>
+      <c r="C47" s="18">
+        <v>610</v>
+      </c>
+      <c r="D47" s="18">
+        <v>423</v>
+      </c>
+      <c r="E47" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F47" s="28"/>
-      <c r="G47" s="3"/>
-    </row>
-    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G47" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
+      <c r="B48" s="21">
+        <v>241</v>
+      </c>
+      <c r="C48" s="21">
+        <v>626</v>
+      </c>
+      <c r="D48" s="21">
+        <v>-385</v>
+      </c>
       <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="5"/>
-    </row>
-    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F48" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="28"/>
+      <c r="B49" s="18">
+        <v>626</v>
+      </c>
+      <c r="C49" s="18">
+        <v>303</v>
+      </c>
+      <c r="D49" s="18">
+        <v>323</v>
+      </c>
+      <c r="E49" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F49" s="28"/>
-      <c r="G49" s="3"/>
-    </row>
-    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G49" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="29"/>
+      <c r="B50" s="21">
+        <v>971</v>
+      </c>
+      <c r="C50" s="21">
+        <v>646</v>
+      </c>
+      <c r="D50" s="21">
+        <v>325</v>
+      </c>
+      <c r="E50" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F50" s="29"/>
-      <c r="G50" s="5"/>
-    </row>
-    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G50" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="28"/>
+      <c r="B51" s="18">
+        <v>217</v>
+      </c>
+      <c r="C51" s="18">
+        <v>157</v>
+      </c>
+      <c r="D51" s="18">
+        <v>60</v>
+      </c>
+      <c r="E51" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F51" s="28"/>
-      <c r="G51" s="3"/>
-    </row>
-    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G51" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
+      <c r="B52" s="21">
+        <v>385</v>
+      </c>
+      <c r="C52" s="21">
+        <v>401</v>
+      </c>
+      <c r="D52" s="21">
+        <v>-16</v>
+      </c>
       <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="5"/>
-    </row>
-    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F52" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
+      <c r="B53" s="18">
+        <v>147</v>
+      </c>
+      <c r="C53" s="18">
+        <v>220</v>
+      </c>
+      <c r="D53" s="18">
+        <v>-73</v>
+      </c>
       <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="3"/>
-    </row>
-    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F53" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B54" s="21"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
+      <c r="B54" s="21">
+        <v>59</v>
+      </c>
+      <c r="C54" s="21">
+        <v>216</v>
+      </c>
+      <c r="D54" s="21">
+        <v>-157</v>
+      </c>
       <c r="E54" s="29"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="5"/>
-    </row>
-    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F54" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="B55" s="27"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="32"/>
+      <c r="B55" s="27">
+        <v>415</v>
+      </c>
+      <c r="C55" s="27">
+        <v>191</v>
+      </c>
+      <c r="D55" s="27">
+        <v>224</v>
+      </c>
+      <c r="E55" s="32" t="s">
+        <v>61</v>
+      </c>
       <c r="F55" s="32"/>
-      <c r="G55" s="11"/>
+      <c r="G55" s="11" t="s">
+        <v>251</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G55" xr:uid="{00000000-0009-0000-0000-000008000000}"/>

--- a/statistics_files/2024/2024_99_g_net_borrower_lender.xlsx
+++ b/statistics_files/2024/2024_99_g_net_borrower_lender.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\github\next_statistics\statistics_files\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592195E8-9BA4-4721-946F-B175E6E5FE82}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9588CF81-CE57-41FA-8B90-DA1333C39480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="673" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,12 +47,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1609" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="259">
   <si>
     <t>NET</t>
   </si>
@@ -808,6 +817,27 @@
   </si>
   <si>
     <t>2.17 : 1</t>
+  </si>
+  <si>
+    <t>2.26 : 1</t>
+  </si>
+  <si>
+    <t>0.23 : 1</t>
+  </si>
+  <si>
+    <t>1.91 : 1</t>
+  </si>
+  <si>
+    <t>1.48 : 1</t>
+  </si>
+  <si>
+    <t>Prairie Hills Schools - Wetmore Academic Center (Permanently closed)</t>
+  </si>
+  <si>
+    <t>2.55 : 1</t>
+  </si>
+  <si>
+    <t>0.20 : 1</t>
   </si>
 </sst>
 </file>
@@ -1679,16 +1709,16 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" style="19" customWidth="1"/>
-    <col min="2" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-    <col min="5" max="6" width="25.6640625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="28.6640625" customWidth="1"/>
+    <col min="1" max="1" width="45.7109375" style="19" customWidth="1"/>
+    <col min="2" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="6" width="25.7109375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
@@ -1711,21 +1741,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2">
         <f>January!B2+February!B2+March!B2+April!B2+May!B2+June!B2+July!B2+August!B2+September!B2+October!B2+November!B2+December!B2</f>
-        <v>11251</v>
+        <v>12673</v>
       </c>
       <c r="C2" s="2">
         <f>January!C2+February!C2+March!C2+April!C2+May!C2+June!C2+July!C2+August!C2+September!C2+October!C2+November!C2+December!C2</f>
-        <v>9598</v>
+        <v>10836</v>
       </c>
       <c r="D2" s="2">
         <f>January!D2+February!D2+March!D2+April!D2+May!D2+June!D2+July!D2+August!D2+September!D2+October!D2+November!D2+December!D2</f>
-        <v>1653</v>
+        <v>1837</v>
       </c>
       <c r="E2" s="28" t="str">
         <f t="shared" ref="E2:E33" si="0">IF(D2 &gt; 0, "We borrowed more than we lent this year", "")</f>
@@ -1740,21 +1770,21 @@
         <v>1.17 : 1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="4">
         <f>January!B3+February!B3+March!B3+April!B3+May!B3+June!B3+July!B3+August!B3+September!B3+October!B3+November!B3+December!B3</f>
-        <v>4952</v>
+        <v>5634</v>
       </c>
       <c r="C3" s="4">
         <f>January!C3+February!C3+March!C3+April!C3+May!C3+June!C3+July!C3+August!C3+September!C3+October!C3+November!C3+December!C3</f>
-        <v>3449</v>
+        <v>3916</v>
       </c>
       <c r="D3" s="4">
         <f>January!D3+February!D3+March!D3+April!D3+May!D3+June!D3+July!D3+August!D3+September!D3+October!D3+November!D3+December!D3</f>
-        <v>1503</v>
+        <v>1718</v>
       </c>
       <c r="E3" s="29" t="str">
         <f t="shared" si="0"/>
@@ -1769,21 +1799,21 @@
         <v>1.44 : 1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="2">
         <f>January!B4+February!B4+March!B4+April!B4+May!B4+June!B4+July!B4+August!B4+September!B4+October!B4+November!B4+December!B4</f>
-        <v>9374</v>
+        <v>10582</v>
       </c>
       <c r="C4" s="2">
         <f>January!C4+February!C4+March!C4+April!C4+May!C4+June!C4+July!C4+August!C4+September!C4+October!C4+November!C4+December!C4</f>
-        <v>9336</v>
+        <v>10508</v>
       </c>
       <c r="D4" s="2">
         <f>January!D4+February!D4+March!D4+April!D4+May!D4+June!D4+July!D4+August!D4+September!D4+October!D4+November!D4+December!D4</f>
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="E4" s="28" t="str">
         <f t="shared" si="0"/>
@@ -1795,24 +1825,24 @@
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>1 : 1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1.01 : 1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="4">
         <f>January!B5+February!B5+March!B5+April!B5+May!B5+June!B5+July!B5+August!B5+September!B5+October!B5+November!B5+December!B5</f>
-        <v>331</v>
+        <v>401</v>
       </c>
       <c r="C5" s="4">
         <f>January!C5+February!C5+March!C5+April!C5+May!C5+June!C5+July!C5+August!C5+September!C5+October!C5+November!C5+December!C5</f>
-        <v>1025</v>
+        <v>1122</v>
       </c>
       <c r="D5" s="4">
         <f>January!D5+February!D5+March!D5+April!D5+May!D5+June!D5+July!D5+August!D5+September!D5+October!D5+November!D5+December!D5</f>
-        <v>-694</v>
+        <v>-721</v>
       </c>
       <c r="E5" s="29" t="str">
         <f t="shared" si="0"/>
@@ -1824,24 +1854,24 @@
       </c>
       <c r="G5" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>0.32 : 1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.36 : 1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="2">
         <f>January!B6+February!B6+March!B6+April!B6+May!B6+June!B6+July!B6+August!B6+September!B6+October!B6+November!B6+December!B6</f>
-        <v>8332</v>
+        <v>9478</v>
       </c>
       <c r="C6" s="2">
         <f>January!C6+February!C6+March!C6+April!C6+May!C6+June!C6+July!C6+August!C6+September!C6+October!C6+November!C6+December!C6</f>
-        <v>11378</v>
+        <v>12797</v>
       </c>
       <c r="D6" s="2">
         <f>January!D6+February!D6+March!D6+April!D6+May!D6+June!D6+July!D6+August!D6+September!D6+October!D6+November!D6+December!D6</f>
-        <v>-3046</v>
+        <v>-3319</v>
       </c>
       <c r="E6" s="28" t="str">
         <f t="shared" si="0"/>
@@ -1853,24 +1883,24 @@
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.73 : 1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.74 : 1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="4">
         <f>January!B7+February!B7+March!B7+April!B7+May!B7+June!B7+July!B7+August!B7+September!B7+October!B7+November!B7+December!B7</f>
-        <v>2330</v>
+        <v>2597</v>
       </c>
       <c r="C7" s="4">
         <f>January!C7+February!C7+March!C7+April!C7+May!C7+June!C7+July!C7+August!C7+September!C7+October!C7+November!C7+December!C7</f>
-        <v>1318</v>
+        <v>1484</v>
       </c>
       <c r="D7" s="4">
         <f>January!D7+February!D7+March!D7+April!D7+May!D7+June!D7+July!D7+August!D7+September!D7+October!D7+November!D7+December!D7</f>
-        <v>1012</v>
+        <v>1113</v>
       </c>
       <c r="E7" s="29" t="str">
         <f t="shared" si="0"/>
@@ -1882,24 +1912,24 @@
       </c>
       <c r="G7" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>1.77 : 1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1.75 : 1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="2">
         <f>January!B8+February!B8+March!B8+April!B8+May!B8+June!B8+July!B8+August!B8+September!B8+October!B8+November!B8+December!B8</f>
-        <v>1082</v>
+        <v>1157</v>
       </c>
       <c r="C8" s="2">
         <f>January!C8+February!C8+March!C8+April!C8+May!C8+June!C8+July!C8+August!C8+September!C8+October!C8+November!C8+December!C8</f>
-        <v>1519</v>
+        <v>1698</v>
       </c>
       <c r="D8" s="2">
         <f>January!D8+February!D8+March!D8+April!D8+May!D8+June!D8+July!D8+August!D8+September!D8+October!D8+November!D8+December!D8</f>
-        <v>-437</v>
+        <v>-541</v>
       </c>
       <c r="E8" s="28" t="str">
         <f t="shared" si="0"/>
@@ -1911,24 +1941,24 @@
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.71 : 1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.68 : 1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="4">
         <f>January!B9+February!B9+March!B9+April!B9+May!B9+June!B9+July!B9+August!B9+September!B9+October!B9+November!B9+December!B9</f>
-        <v>358</v>
+        <v>393</v>
       </c>
       <c r="C9" s="4">
         <f>January!C9+February!C9+March!C9+April!C9+May!C9+June!C9+July!C9+August!C9+September!C9+October!C9+November!C9+December!C9</f>
-        <v>582</v>
+        <v>632</v>
       </c>
       <c r="D9" s="4">
         <f>January!D9+February!D9+March!D9+April!D9+May!D9+June!D9+July!D9+August!D9+September!D9+October!D9+November!D9+December!D9</f>
-        <v>-224</v>
+        <v>-239</v>
       </c>
       <c r="E9" s="29" t="str">
         <f t="shared" si="0"/>
@@ -1943,7 +1973,7 @@
         <v>0.62 : 1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -1953,11 +1983,11 @@
       </c>
       <c r="C10" s="2">
         <f>January!C10+February!C10+March!C10+April!C10+May!C10+June!C10+July!C10+August!C10+September!C10+October!C10+November!C10+December!C10</f>
-        <v>413</v>
+        <v>461</v>
       </c>
       <c r="D10" s="2">
         <f>January!D10+February!D10+March!D10+April!D10+May!D10+June!D10+July!D10+August!D10+September!D10+October!D10+November!D10+December!D10</f>
-        <v>-394</v>
+        <v>-442</v>
       </c>
       <c r="E10" s="28" t="str">
         <f t="shared" si="0"/>
@@ -1969,10 +1999,10 @@
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.05 : 1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.04 : 1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>16</v>
       </c>
@@ -2001,21 +2031,21 @@
         <v>0 : 1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="6">
         <f>January!B12+February!B12+March!B12+April!B12+May!B12+June!B12+July!B12+August!B12+September!B12+October!B12+November!B12+December!B12</f>
-        <v>269</v>
+        <v>312</v>
       </c>
       <c r="C12" s="6">
         <f>January!C12+February!C12+March!C12+April!C12+May!C12+June!C12+July!C12+August!C12+September!C12+October!C12+November!C12+December!C12</f>
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="D12" s="6">
         <f>January!D12+February!D12+March!D12+April!D12+May!D12+June!D12+July!D12+August!D12+September!D12+October!D12+November!D12+December!D12</f>
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="E12" s="30" t="str">
         <f t="shared" si="0"/>
@@ -2027,24 +2057,24 @@
       </c>
       <c r="G12" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>1.57 : 1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1.64 : 1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="6">
         <f>January!B13+February!B13+March!B13+April!B13+May!B13+June!B13+July!B13+August!B13+September!B13+October!B13+November!B13+December!B13</f>
-        <v>1218</v>
+        <v>1319</v>
       </c>
       <c r="C13" s="6">
         <f>January!C13+February!C13+March!C13+April!C13+May!C13+June!C13+July!C13+August!C13+September!C13+October!C13+November!C13+December!C13</f>
-        <v>680</v>
+        <v>750</v>
       </c>
       <c r="D13" s="6">
         <f>January!D13+February!D13+March!D13+April!D13+May!D13+June!D13+July!D13+August!D13+September!D13+October!D13+November!D13+December!D13</f>
-        <v>538</v>
+        <v>569</v>
       </c>
       <c r="E13" s="30" t="str">
         <f t="shared" si="0"/>
@@ -2056,24 +2086,24 @@
       </c>
       <c r="G13" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>1.79 : 1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1.76 : 1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="6">
         <f>January!B14+February!B14+March!B14+April!B14+May!B14+June!B14+July!B14+August!B14+September!B14+October!B14+November!B14+December!B14</f>
-        <v>1085</v>
+        <v>1204</v>
       </c>
       <c r="C14" s="6">
         <f>January!C14+February!C14+March!C14+April!C14+May!C14+June!C14+July!C14+August!C14+September!C14+October!C14+November!C14+December!C14</f>
-        <v>2070</v>
+        <v>2286</v>
       </c>
       <c r="D14" s="6">
         <f>January!D14+February!D14+March!D14+April!D14+May!D14+June!D14+July!D14+August!D14+September!D14+October!D14+November!D14+December!D14</f>
-        <v>-985</v>
+        <v>-1082</v>
       </c>
       <c r="E14" s="30" t="str">
         <f t="shared" si="0"/>
@@ -2085,24 +2115,24 @@
       </c>
       <c r="G14" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>0.52 : 1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.53 : 1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="6">
         <f>January!B15+February!B15+March!B15+April!B15+May!B15+June!B15+July!B15+August!B15+September!B15+October!B15+November!B15+December!B15</f>
-        <v>510</v>
+        <v>558</v>
       </c>
       <c r="C15" s="6">
         <f>January!C15+February!C15+March!C15+April!C15+May!C15+June!C15+July!C15+August!C15+September!C15+October!C15+November!C15+December!C15</f>
-        <v>1122</v>
+        <v>1253</v>
       </c>
       <c r="D15" s="6">
         <f>January!D15+February!D15+March!D15+April!D15+May!D15+June!D15+July!D15+August!D15+September!D15+October!D15+November!D15+December!D15</f>
-        <v>-612</v>
+        <v>-695</v>
       </c>
       <c r="E15" s="30" t="str">
         <f t="shared" si="0"/>
@@ -2117,21 +2147,21 @@
         <v>0.45 : 1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="2">
         <f>January!B16+February!B16+March!B16+April!B16+May!B16+June!B16+July!B16+August!B16+September!B16+October!B16+November!B16+December!B16</f>
-        <v>522</v>
+        <v>569</v>
       </c>
       <c r="C16" s="2">
         <f>January!C16+February!C16+March!C16+April!C16+May!C16+June!C16+July!C16+August!C16+September!C16+October!C16+November!C16+December!C16</f>
-        <v>1173</v>
+        <v>1329</v>
       </c>
       <c r="D16" s="2">
         <f>January!D16+February!D16+March!D16+April!D16+May!D16+June!D16+July!D16+August!D16+September!D16+October!D16+November!D16+December!D16</f>
-        <v>-651</v>
+        <v>-760</v>
       </c>
       <c r="E16" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2143,24 +2173,24 @@
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.45 : 1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.43 : 1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="4">
         <f>January!B17+February!B17+March!B17+April!B17+May!B17+June!B17+July!B17+August!B17+September!B17+October!B17+November!B17+December!B17</f>
-        <v>4763</v>
+        <v>5369</v>
       </c>
       <c r="C17" s="4">
         <f>January!C17+February!C17+March!C17+April!C17+May!C17+June!C17+July!C17+August!C17+September!C17+October!C17+November!C17+December!C17</f>
-        <v>3379</v>
+        <v>3766</v>
       </c>
       <c r="D17" s="4">
         <f>January!D17+February!D17+March!D17+April!D17+May!D17+June!D17+July!D17+August!D17+September!D17+October!D17+November!D17+December!D17</f>
-        <v>1384</v>
+        <v>1603</v>
       </c>
       <c r="E17" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2172,24 +2202,24 @@
       </c>
       <c r="G17" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>1.41 : 1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1.43 : 1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="2">
         <f>January!B18+February!B18+March!B18+April!B18+May!B18+June!B18+July!B18+August!B18+September!B18+October!B18+November!B18+December!B18</f>
-        <v>611</v>
+        <v>678</v>
       </c>
       <c r="C18" s="2">
         <f>January!C18+February!C18+March!C18+April!C18+May!C18+June!C18+July!C18+August!C18+September!C18+October!C18+November!C18+December!C18</f>
-        <v>783</v>
+        <v>921</v>
       </c>
       <c r="D18" s="2">
         <f>January!D18+February!D18+March!D18+April!D18+May!D18+June!D18+July!D18+August!D18+September!D18+October!D18+November!D18+December!D18</f>
-        <v>-172</v>
+        <v>-243</v>
       </c>
       <c r="E18" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2201,24 +2231,24 @@
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.78 : 1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.74 : 1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="4">
         <f>January!B19+February!B19+March!B19+April!B19+May!B19+June!B19+July!B19+August!B19+September!B19+October!B19+November!B19+December!B19</f>
-        <v>4283</v>
+        <v>4836</v>
       </c>
       <c r="C19" s="4">
         <f>January!C19+February!C19+March!C19+April!C19+May!C19+June!C19+July!C19+August!C19+September!C19+October!C19+November!C19+December!C19</f>
-        <v>3531</v>
+        <v>3951</v>
       </c>
       <c r="D19" s="4">
         <f>January!D19+February!D19+March!D19+April!D19+May!D19+June!D19+July!D19+August!D19+September!D19+October!D19+November!D19+December!D19</f>
-        <v>752</v>
+        <v>885</v>
       </c>
       <c r="E19" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2230,24 +2260,24 @@
       </c>
       <c r="G19" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>1.21 : 1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1.22 : 1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="2">
         <f>January!B20+February!B20+March!B20+April!B20+May!B20+June!B20+July!B20+August!B20+September!B20+October!B20+November!B20+December!B20</f>
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="C20" s="2">
         <f>January!C20+February!C20+March!C20+April!C20+May!C20+June!C20+July!C20+August!C20+September!C20+October!C20+November!C20+December!C20</f>
-        <v>589</v>
+        <v>673</v>
       </c>
       <c r="D20" s="2">
         <f>January!D20+February!D20+March!D20+April!D20+May!D20+June!D20+July!D20+August!D20+September!D20+October!D20+November!D20+December!D20</f>
-        <v>-547</v>
+        <v>-587</v>
       </c>
       <c r="E20" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2259,24 +2289,24 @@
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.07 : 1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.13 : 1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="4">
         <f>January!B21+February!B21+March!B21+April!B21+May!B21+June!B21+July!B21+August!B21+September!B21+October!B21+November!B21+December!B21</f>
-        <v>3871</v>
+        <v>4409</v>
       </c>
       <c r="C21" s="4">
         <f>January!C21+February!C21+March!C21+April!C21+May!C21+June!C21+July!C21+August!C21+September!C21+October!C21+November!C21+December!C21</f>
-        <v>2779</v>
+        <v>3160</v>
       </c>
       <c r="D21" s="4">
         <f>January!D21+February!D21+March!D21+April!D21+May!D21+June!D21+July!D21+August!D21+September!D21+October!D21+November!D21+December!D21</f>
-        <v>1092</v>
+        <v>1249</v>
       </c>
       <c r="E21" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2288,24 +2318,24 @@
       </c>
       <c r="G21" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>1.39 : 1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1.4 : 1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B22" s="2">
         <f>January!B22+February!B22+March!B22+April!B22+May!B22+June!B22+July!B22+August!B22+September!B22+October!B22+November!B22+December!B22</f>
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="C22" s="2">
         <f>January!C22+February!C22+March!C22+April!C22+May!C22+June!C22+July!C22+August!C22+September!C22+October!C22+November!C22+December!C22</f>
-        <v>904</v>
+        <v>1016</v>
       </c>
       <c r="D22" s="2">
         <f>January!D22+February!D22+March!D22+April!D22+May!D22+June!D22+July!D22+August!D22+September!D22+October!D22+November!D22+December!D22</f>
-        <v>-698</v>
+        <v>-782</v>
       </c>
       <c r="E22" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2320,21 +2350,21 @@
         <v>0.23 : 1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="4">
         <f>January!B23+February!B23+March!B23+April!B23+May!B23+June!B23+July!B23+August!B23+September!B23+October!B23+November!B23+December!B23</f>
-        <v>5278</v>
+        <v>5907</v>
       </c>
       <c r="C23" s="4">
         <f>January!C23+February!C23+March!C23+April!C23+May!C23+June!C23+July!C23+August!C23+September!C23+October!C23+November!C23+December!C23</f>
-        <v>2840</v>
+        <v>3219</v>
       </c>
       <c r="D23" s="4">
         <f>January!D23+February!D23+March!D23+April!D23+May!D23+June!D23+July!D23+August!D23+September!D23+October!D23+November!D23+December!D23</f>
-        <v>2438</v>
+        <v>2688</v>
       </c>
       <c r="E23" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2346,24 +2376,24 @@
       </c>
       <c r="G23" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>1.86 : 1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1.84 : 1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="2">
         <f>January!B24+February!B24+March!B24+April!B24+May!B24+June!B24+July!B24+August!B24+September!B24+October!B24+November!B24+December!B24</f>
-        <v>13240</v>
+        <v>15035</v>
       </c>
       <c r="C24" s="2">
         <f>January!C24+February!C24+March!C24+April!C24+May!C24+June!C24+July!C24+August!C24+September!C24+October!C24+November!C24+December!C24</f>
-        <v>9779</v>
+        <v>10791</v>
       </c>
       <c r="D24" s="2">
         <f>January!D24+February!D24+March!D24+April!D24+May!D24+June!D24+July!D24+August!D24+September!D24+October!D24+November!D24+December!D24</f>
-        <v>3461</v>
+        <v>4244</v>
       </c>
       <c r="E24" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2375,24 +2405,24 @@
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>1.35 : 1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1.39 : 1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="4">
         <f>January!B25+February!B25+March!B25+April!B25+May!B25+June!B25+July!B25+August!B25+September!B25+October!B25+November!B25+December!B25</f>
-        <v>1187</v>
+        <v>1305</v>
       </c>
       <c r="C25" s="4">
         <f>January!C25+February!C25+March!C25+April!C25+May!C25+June!C25+July!C25+August!C25+September!C25+October!C25+November!C25+December!C25</f>
-        <v>2828</v>
+        <v>3341</v>
       </c>
       <c r="D25" s="4">
         <f>January!D25+February!D25+March!D25+April!D25+May!D25+June!D25+July!D25+August!D25+September!D25+October!D25+November!D25+December!D25</f>
-        <v>-1641</v>
+        <v>-2036</v>
       </c>
       <c r="E25" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2404,10 +2434,10 @@
       </c>
       <c r="G25" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>0.42 : 1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.39 : 1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -2436,21 +2466,21 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
         <v>32</v>
       </c>
       <c r="B27" s="4">
         <f>January!B27+February!B27+March!B27+April!B27+May!B27+June!B27+July!B27+August!B27+September!B27+October!B27+November!B27+December!B27</f>
-        <v>1925</v>
+        <v>2161</v>
       </c>
       <c r="C27" s="4">
         <f>January!C27+February!C27+March!C27+April!C27+May!C27+June!C27+July!C27+August!C27+September!C27+October!C27+November!C27+December!C27</f>
-        <v>1553</v>
+        <v>1798</v>
       </c>
       <c r="D27" s="4">
         <f>January!D27+February!D27+March!D27+April!D27+May!D27+June!D27+July!D27+August!D27+September!D27+October!D27+November!D27+December!D27</f>
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="E27" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2462,24 +2492,24 @@
       </c>
       <c r="G27" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>1.24 : 1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1.2 : 1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B28" s="2">
         <f>January!B28+February!B28+March!B28+April!B28+May!B28+June!B28+July!B28+August!B28+September!B28+October!B28+November!B28+December!B28</f>
-        <v>634</v>
+        <v>741</v>
       </c>
       <c r="C28" s="2">
         <f>January!C28+February!C28+March!C28+April!C28+May!C28+June!C28+July!C28+August!C28+September!C28+October!C28+November!C28+December!C28</f>
-        <v>752</v>
+        <v>865</v>
       </c>
       <c r="D28" s="2">
         <f>January!D28+February!D28+March!D28+April!D28+May!D28+June!D28+July!D28+August!D28+September!D28+October!D28+November!D28+December!D28</f>
-        <v>-118</v>
+        <v>-124</v>
       </c>
       <c r="E28" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2491,24 +2521,24 @@
       </c>
       <c r="G28" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.84 : 1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.86 : 1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>34</v>
       </c>
       <c r="B29" s="4">
         <f>January!B29+February!B29+March!B29+April!B29+May!B29+June!B29+July!B29+August!B29+September!B29+October!B29+November!B29+December!B29</f>
-        <v>4245</v>
+        <v>4845</v>
       </c>
       <c r="C29" s="4">
         <f>January!C29+February!C29+March!C29+April!C29+May!C29+June!C29+July!C29+August!C29+September!C29+October!C29+November!C29+December!C29</f>
-        <v>3300</v>
+        <v>3788</v>
       </c>
       <c r="D29" s="4">
         <f>January!D29+February!D29+March!D29+April!D29+May!D29+June!D29+July!D29+August!D29+September!D29+October!D29+November!D29+December!D29</f>
-        <v>945</v>
+        <v>1057</v>
       </c>
       <c r="E29" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2520,24 +2550,24 @@
       </c>
       <c r="G29" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>1.29 : 1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1.28 : 1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B30" s="2">
         <f>January!B30+February!B30+March!B30+April!B30+May!B30+June!B30+July!B30+August!B30+September!B30+October!B30+November!B30+December!B30</f>
-        <v>362</v>
+        <v>383</v>
       </c>
       <c r="C30" s="2">
         <f>January!C30+February!C30+March!C30+April!C30+May!C30+June!C30+July!C30+August!C30+September!C30+October!C30+November!C30+December!C30</f>
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="D30" s="2">
         <f>January!D30+February!D30+March!D30+April!D30+May!D30+June!D30+July!D30+August!D30+September!D30+October!D30+November!D30+December!D30</f>
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="E30" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2552,21 +2582,21 @@
         <v>2.01 : 1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>36</v>
       </c>
       <c r="B31" s="4">
         <f>January!B31+February!B31+March!B31+April!B31+May!B31+June!B31+July!B31+August!B31+September!B31+October!B31+November!B31+December!B31</f>
-        <v>429</v>
+        <v>472</v>
       </c>
       <c r="C31" s="4">
         <f>January!C31+February!C31+March!C31+April!C31+May!C31+June!C31+July!C31+August!C31+September!C31+October!C31+November!C31+December!C31</f>
-        <v>2288</v>
+        <v>2617</v>
       </c>
       <c r="D31" s="4">
         <f>January!D31+February!D31+March!D31+April!D31+May!D31+June!D31+July!D31+August!D31+September!D31+October!D31+November!D31+December!D31</f>
-        <v>-1859</v>
+        <v>-2145</v>
       </c>
       <c r="E31" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2578,24 +2608,24 @@
       </c>
       <c r="G31" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>0.19 : 1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.18 : 1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B32" s="2">
         <f>January!B32+February!B32+March!B32+April!B32+May!B32+June!B32+July!B32+August!B32+September!B32+October!B32+November!B32+December!B32</f>
-        <v>3473</v>
+        <v>3851</v>
       </c>
       <c r="C32" s="2">
         <f>January!C32+February!C32+March!C32+April!C32+May!C32+June!C32+July!C32+August!C32+September!C32+October!C32+November!C32+December!C32</f>
-        <v>4452</v>
+        <v>5030</v>
       </c>
       <c r="D32" s="2">
         <f>January!D32+February!D32+March!D32+April!D32+May!D32+June!D32+July!D32+August!D32+September!D32+October!D32+November!D32+December!D32</f>
-        <v>-979</v>
+        <v>-1179</v>
       </c>
       <c r="E32" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2607,24 +2637,24 @@
       </c>
       <c r="G32" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.78 : 1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.77 : 1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>38</v>
       </c>
       <c r="B33" s="4">
         <f>January!B33+February!B33+March!B33+April!B33+May!B33+June!B33+July!B33+August!B33+September!B33+October!B33+November!B33+December!B33</f>
-        <v>2820</v>
+        <v>3200</v>
       </c>
       <c r="C33" s="4">
         <f>January!C33+February!C33+March!C33+April!C33+May!C33+June!C33+July!C33+August!C33+September!C33+October!C33+November!C33+December!C33</f>
-        <v>4549</v>
+        <v>5105</v>
       </c>
       <c r="D33" s="4">
         <f>January!D33+February!D33+March!D33+April!D33+May!D33+June!D33+July!D33+August!D33+September!D33+October!D33+November!D33+December!D33</f>
-        <v>-1729</v>
+        <v>-1905</v>
       </c>
       <c r="E33" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2636,24 +2666,24 @@
       </c>
       <c r="G33" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>0.62 : 1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.63 : 1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B34" s="2">
         <f>January!B34+February!B34+March!B34+April!B34+May!B34+June!B34+July!B34+August!B34+September!B34+October!B34+November!B34+December!B34</f>
-        <v>1402</v>
+        <v>1575</v>
       </c>
       <c r="C34" s="2">
         <f>January!C34+February!C34+March!C34+April!C34+May!C34+June!C34+July!C34+August!C34+September!C34+October!C34+November!C34+December!C34</f>
-        <v>789</v>
+        <v>906</v>
       </c>
       <c r="D34" s="2">
         <f>January!D34+February!D34+March!D34+April!D34+May!D34+June!D34+July!D34+August!D34+September!D34+October!D34+November!D34+December!D34</f>
-        <v>613</v>
+        <v>669</v>
       </c>
       <c r="E34" s="28" t="str">
         <f t="shared" ref="E34:E55" si="3">IF(D34 &gt; 0, "We borrowed more than we lent this year", "")</f>
@@ -2665,24 +2695,24 @@
       </c>
       <c r="G34" s="3" t="str">
         <f t="shared" ref="G34:G55" si="5">IF(ISERROR(ROUND(B34/C34,2)&amp;" : 1"), "", ROUND(B34/C34,2)&amp;" : 1")</f>
-        <v>1.78 : 1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1.74 : 1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
       <c r="B35" s="4">
         <f>January!B35+February!B35+March!B35+April!B35+May!B35+June!B35+July!B35+August!B35+September!B35+October!B35+November!B35+December!B35</f>
-        <v>6613</v>
+        <v>7599</v>
       </c>
       <c r="C35" s="4">
         <f>January!C35+February!C35+March!C35+April!C35+May!C35+June!C35+July!C35+August!C35+September!C35+October!C35+November!C35+December!C35</f>
-        <v>8924</v>
+        <v>10080</v>
       </c>
       <c r="D35" s="4">
         <f>January!D35+February!D35+March!D35+April!D35+May!D35+June!D35+July!D35+August!D35+September!D35+October!D35+November!D35+December!D35</f>
-        <v>-2311</v>
+        <v>-2481</v>
       </c>
       <c r="E35" s="29" t="str">
         <f t="shared" si="3"/>
@@ -2694,24 +2724,24 @@
       </c>
       <c r="G35" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>0.74 : 1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.75 : 1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B36" s="2">
         <f>January!B36+February!B36+March!B36+April!B36+May!B36+June!B36+July!B36+August!B36+September!B36+October!B36+November!B36+December!B36</f>
-        <v>1574</v>
+        <v>1746</v>
       </c>
       <c r="C36" s="2">
         <f>January!C36+February!C36+March!C36+April!C36+May!C36+June!C36+July!C36+August!C36+September!C36+October!C36+November!C36+December!C36</f>
-        <v>3703</v>
+        <v>4274</v>
       </c>
       <c r="D36" s="2">
         <f>January!D36+February!D36+March!D36+April!D36+May!D36+June!D36+July!D36+August!D36+September!D36+October!D36+November!D36+December!D36</f>
-        <v>-2129</v>
+        <v>-2528</v>
       </c>
       <c r="E36" s="28" t="str">
         <f t="shared" si="3"/>
@@ -2723,24 +2753,24 @@
       </c>
       <c r="G36" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>0.43 : 1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.41 : 1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
         <v>42</v>
       </c>
       <c r="B37" s="4">
         <f>January!B37+February!B37+March!B37+April!B37+May!B37+June!B37+July!B37+August!B37+September!B37+October!B37+November!B37+December!B37</f>
-        <v>3783</v>
+        <v>4273</v>
       </c>
       <c r="C37" s="4">
         <f>January!C37+February!C37+March!C37+April!C37+May!C37+June!C37+July!C37+August!C37+September!C37+October!C37+November!C37+December!C37</f>
-        <v>2576</v>
+        <v>2967</v>
       </c>
       <c r="D37" s="4">
         <f>January!D37+February!D37+March!D37+April!D37+May!D37+June!D37+July!D37+August!D37+September!D37+October!D37+November!D37+December!D37</f>
-        <v>1207</v>
+        <v>1306</v>
       </c>
       <c r="E37" s="29" t="str">
         <f t="shared" si="3"/>
@@ -2752,24 +2782,24 @@
       </c>
       <c r="G37" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>1.47 : 1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1.44 : 1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B38" s="2">
         <f>January!B38+February!B38+March!B38+April!B38+May!B38+June!B38+July!B38+August!B38+September!B38+October!B38+November!B38+December!B38</f>
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="C38" s="2">
         <f>January!C38+February!C38+March!C38+April!C38+May!C38+June!C38+July!C38+August!C38+September!C38+October!C38+November!C38+December!C38</f>
-        <v>1413</v>
+        <v>1584</v>
       </c>
       <c r="D38" s="2">
         <f>January!D38+February!D38+March!D38+April!D38+May!D38+June!D38+July!D38+August!D38+September!D38+October!D38+November!D38+December!D38</f>
-        <v>-1192</v>
+        <v>-1333</v>
       </c>
       <c r="E38" s="28" t="str">
         <f t="shared" si="3"/>
@@ -2784,21 +2814,21 @@
         <v>0.16 : 1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
         <v>49</v>
       </c>
       <c r="B39" s="4">
         <f>January!B44+February!B44+March!B44+April!B44+May!B44+June!B44+July!B44+August!B44+September!B44+October!B44+November!B44+December!B44</f>
-        <v>640</v>
+        <v>698</v>
       </c>
       <c r="C39" s="4">
         <f>January!C44+February!C44+March!C44+April!C44+May!C44+June!C44+July!C44+August!C44+September!C44+October!C44+November!C44+December!C44</f>
-        <v>612</v>
+        <v>696</v>
       </c>
       <c r="D39" s="4">
         <f>January!D44+February!D44+March!D44+April!D44+May!D44+June!D44+July!D44+August!D44+September!D44+October!D44+November!D44+December!D44</f>
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="E39" s="29" t="str">
         <f t="shared" si="3"/>
@@ -2810,24 +2840,24 @@
       </c>
       <c r="G39" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>1.05 : 1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1 : 1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
         <v>44</v>
       </c>
       <c r="B40" s="8">
         <f>January!B39+February!B39+March!B39+April!B39+May!B39+June!B39+July!B39+August!B39+September!B39+October!B39+November!B39+December!B39</f>
-        <v>131</v>
+        <v>195</v>
       </c>
       <c r="C40" s="8">
         <f>January!C39+February!C39+March!C39+April!C39+May!C39+June!C39+July!C39+August!C39+September!C39+October!C39+November!C39+December!C39</f>
-        <v>539</v>
+        <v>633</v>
       </c>
       <c r="D40" s="8">
         <f>January!D39+February!D39+March!D39+April!D39+May!D39+June!D39+July!D39+August!D39+September!D39+October!D39+November!D39+December!D39</f>
-        <v>-408</v>
+        <v>-438</v>
       </c>
       <c r="E40" s="31" t="str">
         <f t="shared" si="3"/>
@@ -2839,24 +2869,24 @@
       </c>
       <c r="G40" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>0.24 : 1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.31 : 1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
         <v>45</v>
       </c>
       <c r="B41" s="8">
         <f>January!B40+February!B40+March!B40+April!B40+May!B40+June!B40+July!B40+August!B40+September!B40+October!B40+November!B40+December!B40</f>
-        <v>370</v>
+        <v>406</v>
       </c>
       <c r="C41" s="8">
         <f>January!C40+February!C40+March!C40+April!C40+May!C40+June!C40+July!C40+August!C40+September!C40+October!C40+November!C40+December!C40</f>
-        <v>546</v>
+        <v>678</v>
       </c>
       <c r="D41" s="8">
         <f>January!D40+February!D40+March!D40+April!D40+May!D40+June!D40+July!D40+August!D40+September!D40+October!D40+November!D40+December!D40</f>
-        <v>-176</v>
+        <v>-272</v>
       </c>
       <c r="E41" s="31" t="str">
         <f t="shared" si="3"/>
@@ -2868,24 +2898,24 @@
       </c>
       <c r="G41" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>0.68 : 1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.6 : 1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>46</v>
       </c>
       <c r="B42" s="8">
         <f>January!B41+February!B41+March!B41+April!B41+May!B41+June!B41+July!B41+August!B41+September!B41+October!B41+November!B41+December!B41</f>
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="C42" s="8">
         <f>January!C41+February!C41+March!C41+April!C41+May!C41+June!C41+July!C41+August!C41+September!C41+October!C41+November!C41+December!C41</f>
-        <v>199</v>
+        <v>236</v>
       </c>
       <c r="D42" s="8">
         <f>January!D41+February!D41+March!D41+April!D41+May!D41+June!D41+July!D41+August!D41+September!D41+October!D41+November!D41+December!D41</f>
-        <v>-180</v>
+        <v>-192</v>
       </c>
       <c r="E42" s="31" t="str">
         <f t="shared" si="3"/>
@@ -2897,24 +2927,24 @@
       </c>
       <c r="G42" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>0.1 : 1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.19 : 1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="24" t="s">
         <v>47</v>
       </c>
       <c r="B43" s="8">
         <f>January!B42+February!B42+March!B42+April!B42+May!B42+June!B42+July!B42+August!B42+September!B42+October!B42+November!B42+December!B42</f>
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C43" s="8">
         <f>January!C42+February!C42+March!C42+April!C42+May!C42+June!C42+July!C42+August!C42+September!C42+October!C42+November!C42+December!C42</f>
-        <v>132</v>
+        <v>182</v>
       </c>
       <c r="D43" s="8">
         <f>January!D42+February!D42+March!D42+April!D42+May!D42+June!D42+July!D42+August!D42+September!D42+October!D42+November!D42+December!D42</f>
-        <v>-88</v>
+        <v>-133</v>
       </c>
       <c r="E43" s="31" t="str">
         <f t="shared" si="3"/>
@@ -2926,10 +2956,10 @@
       </c>
       <c r="G43" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>0.33 : 1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.27 : 1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="24" t="s">
         <v>48</v>
       </c>
@@ -2958,21 +2988,21 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B45" s="2">
         <f>January!B45+February!B45+March!B45+April!B45+May!B45+June!B45+July!B45+August!B45+September!B45+October!B45+November!B45+December!B45</f>
-        <v>647</v>
+        <v>729</v>
       </c>
       <c r="C45" s="2">
         <f>January!C45+February!C45+March!C45+April!C45+May!C45+June!C45+July!C45+August!C45+September!C45+October!C45+November!C45+December!C45</f>
-        <v>1404</v>
+        <v>1581</v>
       </c>
       <c r="D45" s="2">
         <f>January!D45+February!D45+March!D45+April!D45+May!D45+June!D45+July!D45+August!D45+September!D45+October!D45+November!D45+December!D45</f>
-        <v>-757</v>
+        <v>-852</v>
       </c>
       <c r="E45" s="28" t="str">
         <f t="shared" si="3"/>
@@ -2987,21 +3017,21 @@
         <v>0.46 : 1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
         <v>51</v>
       </c>
       <c r="B46" s="4">
         <f>January!B46+February!B46+March!B46+April!B46+May!B46+June!B46+July!B46+August!B46+September!B46+October!B46+November!B46+December!B46</f>
-        <v>4091</v>
+        <v>4641</v>
       </c>
       <c r="C46" s="4">
         <f>January!C46+February!C46+March!C46+April!C46+May!C46+June!C46+July!C46+August!C46+September!C46+October!C46+November!C46+December!C46</f>
-        <v>4611</v>
+        <v>5201</v>
       </c>
       <c r="D46" s="4">
         <f>January!D46+February!D46+March!D46+April!D46+May!D46+June!D46+July!D46+August!D46+September!D46+October!D46+November!D46+December!D46</f>
-        <v>-520</v>
+        <v>-560</v>
       </c>
       <c r="E46" s="29" t="str">
         <f t="shared" si="3"/>
@@ -3016,21 +3046,21 @@
         <v>0.89 : 1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B47" s="2">
         <f>January!B47+February!B47+March!B47+April!B47+May!B47+June!B47+July!B47+August!B47+September!B47+October!B47+November!B47+December!B47</f>
-        <v>8434</v>
+        <v>9420</v>
       </c>
       <c r="C47" s="2">
         <f>January!C47+February!C47+March!C47+April!C47+May!C47+June!C47+July!C47+August!C47+September!C47+October!C47+November!C47+December!C47</f>
-        <v>4529</v>
+        <v>5186</v>
       </c>
       <c r="D47" s="2">
         <f>January!D47+February!D47+March!D47+April!D47+May!D47+June!D47+July!D47+August!D47+September!D47+October!D47+November!D47+December!D47</f>
-        <v>3905</v>
+        <v>4234</v>
       </c>
       <c r="E47" s="28" t="str">
         <f t="shared" si="3"/>
@@ -3042,24 +3072,24 @@
       </c>
       <c r="G47" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>1.86 : 1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1.82 : 1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
         <v>53</v>
       </c>
       <c r="B48" s="4">
         <f>January!B48+February!B48+March!B48+April!B48+May!B48+June!B48+July!B48+August!B48+September!B48+October!B48+November!B48+December!B48</f>
-        <v>2059</v>
+        <v>2253</v>
       </c>
       <c r="C48" s="4">
         <f>January!C48+February!C48+March!C48+April!C48+May!C48+June!C48+July!C48+August!C48+September!C48+October!C48+November!C48+December!C48</f>
-        <v>4593</v>
+        <v>5186</v>
       </c>
       <c r="D48" s="4">
         <f>January!D48+February!D48+March!D48+April!D48+May!D48+June!D48+July!D48+August!D48+September!D48+October!D48+November!D48+December!D48</f>
-        <v>-2534</v>
+        <v>-2933</v>
       </c>
       <c r="E48" s="29" t="str">
         <f t="shared" si="3"/>
@@ -3071,24 +3101,24 @@
       </c>
       <c r="G48" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>0.45 : 1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.43 : 1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B49" s="2">
         <f>January!B49+February!B49+March!B49+April!B49+May!B49+June!B49+July!B49+August!B49+September!B49+October!B49+November!B49+December!B49</f>
-        <v>4338</v>
+        <v>5055</v>
       </c>
       <c r="C49" s="2">
         <f>January!C49+February!C49+March!C49+April!C49+May!C49+June!C49+July!C49+August!C49+September!C49+October!C49+November!C49+December!C49</f>
-        <v>2062</v>
+        <v>2343</v>
       </c>
       <c r="D49" s="2">
         <f>January!D49+February!D49+March!D49+April!D49+May!D49+June!D49+July!D49+August!D49+September!D49+October!D49+November!D49+December!D49</f>
-        <v>2276</v>
+        <v>2712</v>
       </c>
       <c r="E49" s="28" t="str">
         <f t="shared" si="3"/>
@@ -3100,24 +3130,24 @@
       </c>
       <c r="G49" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>2.1 : 1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2.16 : 1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
         <v>55</v>
       </c>
       <c r="B50" s="4">
         <f>January!B50+February!B50+March!B50+April!B50+May!B50+June!B50+July!B50+August!B50+September!B50+October!B50+November!B50+December!B50</f>
-        <v>7588</v>
+        <v>8437</v>
       </c>
       <c r="C50" s="4">
         <f>January!C50+February!C50+March!C50+April!C50+May!C50+June!C50+July!C50+August!C50+September!C50+October!C50+November!C50+December!C50</f>
-        <v>4462</v>
+        <v>5065</v>
       </c>
       <c r="D50" s="4">
         <f>January!D50+February!D50+March!D50+April!D50+May!D50+June!D50+July!D50+August!D50+September!D50+October!D50+November!D50+December!D50</f>
-        <v>3126</v>
+        <v>3372</v>
       </c>
       <c r="E50" s="29" t="str">
         <f t="shared" si="3"/>
@@ -3129,24 +3159,24 @@
       </c>
       <c r="G50" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>1.7 : 1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1.67 : 1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B51" s="2">
         <f>January!B51+February!B51+March!B51+April!B51+May!B51+June!B51+July!B51+August!B51+September!B51+October!B51+November!B51+December!B51</f>
-        <v>1677</v>
+        <v>1946</v>
       </c>
       <c r="C51" s="2">
         <f>January!C51+February!C51+March!C51+April!C51+May!C51+June!C51+July!C51+August!C51+September!C51+October!C51+November!C51+December!C51</f>
-        <v>1347</v>
+        <v>1484</v>
       </c>
       <c r="D51" s="2">
         <f>January!D51+February!D51+March!D51+April!D51+May!D51+June!D51+July!D51+August!D51+September!D51+October!D51+November!D51+December!D51</f>
-        <v>330</v>
+        <v>462</v>
       </c>
       <c r="E51" s="28" t="str">
         <f t="shared" si="3"/>
@@ -3158,24 +3188,24 @@
       </c>
       <c r="G51" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>1.24 : 1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1.31 : 1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
         <v>57</v>
       </c>
       <c r="B52" s="4">
         <f>January!B52+February!B52+March!B52+April!B52+May!B52+June!B52+July!B52+August!B52+September!B52+October!B52+November!B52+December!B52</f>
-        <v>2770</v>
+        <v>3167</v>
       </c>
       <c r="C52" s="4">
         <f>January!C52+February!C52+March!C52+April!C52+May!C52+June!C52+July!C52+August!C52+September!C52+October!C52+November!C52+December!C52</f>
-        <v>3191</v>
+        <v>3603</v>
       </c>
       <c r="D52" s="4">
         <f>January!D52+February!D52+March!D52+April!D52+May!D52+June!D52+July!D52+August!D52+September!D52+October!D52+November!D52+December!D52</f>
-        <v>-421</v>
+        <v>-436</v>
       </c>
       <c r="E52" s="29" t="str">
         <f t="shared" si="3"/>
@@ -3187,24 +3217,24 @@
       </c>
       <c r="G52" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>0.87 : 1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.88 : 1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B53" s="2">
         <f>January!B53+February!B53+March!B53+April!B53+May!B53+June!B53+July!B53+August!B53+September!B53+October!B53+November!B53+December!B53</f>
-        <v>972</v>
+        <v>1168</v>
       </c>
       <c r="C53" s="2">
         <f>January!C53+February!C53+March!C53+April!C53+May!C53+June!C53+July!C53+August!C53+September!C53+October!C53+November!C53+December!C53</f>
-        <v>1816</v>
+        <v>2055</v>
       </c>
       <c r="D53" s="2">
         <f>January!D53+February!D53+March!D53+April!D53+May!D53+June!D53+July!D53+August!D53+September!D53+October!D53+November!D53+December!D53</f>
-        <v>-844</v>
+        <v>-887</v>
       </c>
       <c r="E53" s="28" t="str">
         <f t="shared" si="3"/>
@@ -3216,24 +3246,24 @@
       </c>
       <c r="G53" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>0.54 : 1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.57 : 1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
         <v>59</v>
       </c>
       <c r="B54" s="4">
         <f>January!B54+February!B54+March!B54+April!B54+May!B54+June!B54+July!B54+August!B54+September!B54+October!B54+November!B54+December!B54</f>
-        <v>192</v>
+        <v>233</v>
       </c>
       <c r="C54" s="4">
         <f>January!C54+February!C54+March!C54+April!C54+May!C54+June!C54+July!C54+August!C54+September!C54+October!C54+November!C54+December!C54</f>
-        <v>1750</v>
+        <v>1954</v>
       </c>
       <c r="D54" s="4">
         <f>January!D54+February!D54+March!D54+April!D54+May!D54+June!D54+July!D54+August!D54+September!D54+October!D54+November!D54+December!D54</f>
-        <v>-1558</v>
+        <v>-1721</v>
       </c>
       <c r="E54" s="29" t="str">
         <f t="shared" si="3"/>
@@ -3245,24 +3275,24 @@
       </c>
       <c r="G54" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>0.11 : 1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.12 : 1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
         <v>60</v>
       </c>
       <c r="B55" s="10">
         <f>January!B55+February!B55+March!B55+April!B55+May!B55+June!B55+July!B55+August!B55+September!B55+October!B55+November!B55+December!B55</f>
-        <v>2548</v>
+        <v>2861</v>
       </c>
       <c r="C55" s="10">
         <f>January!C55+February!C55+March!C55+April!C55+May!C55+June!C55+July!C55+August!C55+September!C55+October!C55+November!C55+December!C55</f>
-        <v>1595</v>
+        <v>1764</v>
       </c>
       <c r="D55" s="10">
         <f>January!D55+February!D55+March!D55+April!D55+May!D55+June!D55+July!D55+August!D55+September!D55+October!D55+November!D55+December!D55</f>
-        <v>953</v>
+        <v>1097</v>
       </c>
       <c r="E55" s="32" t="str">
         <f t="shared" si="3"/>
@@ -3274,7 +3304,7 @@
       </c>
       <c r="G55" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>1.6 : 1</v>
+        <v>1.62 : 1</v>
       </c>
     </row>
   </sheetData>
@@ -3306,17 +3336,17 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" style="19" customWidth="1"/>
-    <col min="2" max="3" width="30.6640625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" style="19" customWidth="1"/>
-    <col min="5" max="6" width="25.6640625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="28.6640625" style="19" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="19"/>
+    <col min="1" max="1" width="45.7109375" style="19" customWidth="1"/>
+    <col min="2" max="3" width="30.7109375" style="19" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="19" customWidth="1"/>
+    <col min="5" max="6" width="25.7109375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
@@ -3339,599 +3369,1127 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="28"/>
+      <c r="B2" s="18">
+        <v>1422</v>
+      </c>
+      <c r="C2" s="18">
+        <v>1238</v>
+      </c>
+      <c r="D2" s="18">
+        <v>184</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F2" s="28"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="29"/>
+      <c r="B3" s="21">
+        <v>682</v>
+      </c>
+      <c r="C3" s="21">
+        <v>467</v>
+      </c>
+      <c r="D3" s="21">
+        <v>215</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F3" s="29"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="28"/>
+      <c r="B4" s="18">
+        <v>1208</v>
+      </c>
+      <c r="C4" s="18">
+        <v>1172</v>
+      </c>
+      <c r="D4" s="18">
+        <v>36</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F4" s="28"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G4" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
+      <c r="B5" s="21">
+        <v>70</v>
+      </c>
+      <c r="C5" s="21">
+        <v>97</v>
+      </c>
+      <c r="D5" s="21">
+        <v>-27</v>
+      </c>
       <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F5" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
+      <c r="B6" s="18">
+        <v>1146</v>
+      </c>
+      <c r="C6" s="18">
+        <v>1419</v>
+      </c>
+      <c r="D6" s="18">
+        <v>-273</v>
+      </c>
       <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F6" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="29"/>
+      <c r="B7" s="21">
+        <v>267</v>
+      </c>
+      <c r="C7" s="21">
+        <v>166</v>
+      </c>
+      <c r="D7" s="21">
+        <v>101</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F7" s="29"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G7" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
+      <c r="B8" s="18">
+        <v>75</v>
+      </c>
+      <c r="C8" s="18">
+        <v>179</v>
+      </c>
+      <c r="D8" s="18">
+        <v>-104</v>
+      </c>
       <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F8" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
+      <c r="B9" s="21">
+        <v>35</v>
+      </c>
+      <c r="C9" s="21">
+        <v>50</v>
+      </c>
+      <c r="D9" s="21">
+        <v>-15</v>
+      </c>
       <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F9" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
+      <c r="B10" s="18">
+        <v>0</v>
+      </c>
+      <c r="C10" s="18">
+        <v>48</v>
+      </c>
+      <c r="D10" s="18">
+        <v>-48</v>
+      </c>
       <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F10" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
+      <c r="B11" s="21">
+        <v>0</v>
+      </c>
+      <c r="C11" s="21">
+        <v>0</v>
+      </c>
+      <c r="D11" s="21">
+        <v>0</v>
+      </c>
       <c r="E11" s="29"/>
       <c r="F11" s="29"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="30"/>
+      <c r="B12" s="23">
+        <v>43</v>
+      </c>
+      <c r="C12" s="23">
+        <v>19</v>
+      </c>
+      <c r="D12" s="23">
+        <v>24</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>61</v>
+      </c>
       <c r="F12" s="30"/>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G12" s="7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="30"/>
+      <c r="B13" s="23">
+        <v>101</v>
+      </c>
+      <c r="C13" s="23">
+        <v>70</v>
+      </c>
+      <c r="D13" s="23">
+        <v>31</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>61</v>
+      </c>
       <c r="F13" s="30"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G13" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
+      <c r="B14" s="23">
+        <v>119</v>
+      </c>
+      <c r="C14" s="23">
+        <v>216</v>
+      </c>
+      <c r="D14" s="23">
+        <v>-97</v>
+      </c>
       <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F14" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
+      <c r="B15" s="23">
+        <v>48</v>
+      </c>
+      <c r="C15" s="23">
+        <v>131</v>
+      </c>
+      <c r="D15" s="23">
+        <v>-83</v>
+      </c>
       <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F15" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
+      <c r="B16" s="18">
+        <v>47</v>
+      </c>
+      <c r="C16" s="18">
+        <v>156</v>
+      </c>
+      <c r="D16" s="18">
+        <v>-109</v>
+      </c>
       <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F16" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="29"/>
+      <c r="B17" s="21">
+        <v>606</v>
+      </c>
+      <c r="C17" s="21">
+        <v>387</v>
+      </c>
+      <c r="D17" s="21">
+        <v>219</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F17" s="29"/>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G17" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
+      <c r="B18" s="18">
+        <v>67</v>
+      </c>
+      <c r="C18" s="18">
+        <v>138</v>
+      </c>
+      <c r="D18" s="18">
+        <v>-71</v>
+      </c>
       <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F18" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="29"/>
+      <c r="B19" s="21">
+        <v>553</v>
+      </c>
+      <c r="C19" s="21">
+        <v>420</v>
+      </c>
+      <c r="D19" s="21">
+        <v>133</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F19" s="29"/>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G19" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
+      <c r="B20" s="18">
+        <v>44</v>
+      </c>
+      <c r="C20" s="18">
+        <v>84</v>
+      </c>
+      <c r="D20" s="18">
+        <v>-40</v>
+      </c>
       <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F20" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="29"/>
+      <c r="B21" s="21">
+        <v>538</v>
+      </c>
+      <c r="C21" s="21">
+        <v>381</v>
+      </c>
+      <c r="D21" s="21">
+        <v>157</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F21" s="29"/>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G21" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
+      <c r="B22" s="18">
+        <v>28</v>
+      </c>
+      <c r="C22" s="18">
+        <v>112</v>
+      </c>
+      <c r="D22" s="18">
+        <v>-84</v>
+      </c>
       <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F22" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="29"/>
+      <c r="B23" s="21">
+        <v>629</v>
+      </c>
+      <c r="C23" s="21">
+        <v>379</v>
+      </c>
+      <c r="D23" s="21">
+        <v>250</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F23" s="29"/>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G23" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="28"/>
+      <c r="B24" s="18">
+        <v>1795</v>
+      </c>
+      <c r="C24" s="18">
+        <v>1012</v>
+      </c>
+      <c r="D24" s="18">
+        <v>783</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F24" s="28"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G24" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
+      <c r="B25" s="21">
+        <v>118</v>
+      </c>
+      <c r="C25" s="21">
+        <v>513</v>
+      </c>
+      <c r="D25" s="21">
+        <v>-395</v>
+      </c>
       <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F25" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
+      <c r="B26" s="18">
+        <v>0</v>
+      </c>
+      <c r="C26" s="18">
+        <v>0</v>
+      </c>
+      <c r="D26" s="18">
+        <v>0</v>
+      </c>
       <c r="E26" s="28"/>
       <c r="F26" s="28"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
+      <c r="B27" s="21">
+        <v>236</v>
+      </c>
+      <c r="C27" s="21">
+        <v>245</v>
+      </c>
+      <c r="D27" s="21">
+        <v>-9</v>
+      </c>
       <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="5"/>
-    </row>
-    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F27" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
+      <c r="B28" s="18">
+        <v>107</v>
+      </c>
+      <c r="C28" s="18">
+        <v>113</v>
+      </c>
+      <c r="D28" s="18">
+        <v>-6</v>
+      </c>
       <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F28" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="29"/>
+      <c r="B29" s="21">
+        <v>600</v>
+      </c>
+      <c r="C29" s="21">
+        <v>488</v>
+      </c>
+      <c r="D29" s="21">
+        <v>112</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F29" s="29"/>
-      <c r="G29" s="5"/>
-    </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G29" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="28"/>
+      <c r="B30" s="18">
+        <v>21</v>
+      </c>
+      <c r="C30" s="18">
+        <v>11</v>
+      </c>
+      <c r="D30" s="18">
+        <v>10</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F30" s="28"/>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G30" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
+      <c r="B31" s="21">
+        <v>43</v>
+      </c>
+      <c r="C31" s="21">
+        <v>329</v>
+      </c>
+      <c r="D31" s="21">
+        <v>-286</v>
+      </c>
       <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="5"/>
-    </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F31" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
+      <c r="B32" s="18">
+        <v>378</v>
+      </c>
+      <c r="C32" s="18">
+        <v>578</v>
+      </c>
+      <c r="D32" s="18">
+        <v>-200</v>
+      </c>
       <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F32" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
+      <c r="B33" s="21">
+        <v>380</v>
+      </c>
+      <c r="C33" s="21">
+        <v>556</v>
+      </c>
+      <c r="D33" s="21">
+        <v>-176</v>
+      </c>
       <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="5"/>
-    </row>
-    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F33" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="28"/>
+      <c r="B34" s="18">
+        <v>173</v>
+      </c>
+      <c r="C34" s="18">
+        <v>117</v>
+      </c>
+      <c r="D34" s="18">
+        <v>56</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F34" s="28"/>
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G34" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
+      <c r="B35" s="21">
+        <v>986</v>
+      </c>
+      <c r="C35" s="21">
+        <v>1156</v>
+      </c>
+      <c r="D35" s="21">
+        <v>-170</v>
+      </c>
       <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="5"/>
-    </row>
-    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F35" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
+      <c r="B36" s="18">
+        <v>172</v>
+      </c>
+      <c r="C36" s="18">
+        <v>571</v>
+      </c>
+      <c r="D36" s="18">
+        <v>-399</v>
+      </c>
       <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="3"/>
-    </row>
-    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F36" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="29"/>
+      <c r="B37" s="21">
+        <v>490</v>
+      </c>
+      <c r="C37" s="21">
+        <v>391</v>
+      </c>
+      <c r="D37" s="21">
+        <v>99</v>
+      </c>
+      <c r="E37" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F37" s="29"/>
-      <c r="G37" s="5"/>
-    </row>
-    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G37" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
+      <c r="B38" s="18">
+        <v>30</v>
+      </c>
+      <c r="C38" s="18">
+        <v>171</v>
+      </c>
+      <c r="D38" s="18">
+        <v>-141</v>
+      </c>
       <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="3"/>
-    </row>
-    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F38" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
+      <c r="B39" s="25">
+        <v>64</v>
+      </c>
+      <c r="C39" s="25">
+        <v>94</v>
+      </c>
+      <c r="D39" s="25">
+        <v>-30</v>
+      </c>
       <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="9"/>
-    </row>
-    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F39" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
+      <c r="B40" s="25">
+        <v>36</v>
+      </c>
+      <c r="C40" s="25">
+        <v>132</v>
+      </c>
+      <c r="D40" s="25">
+        <v>-96</v>
+      </c>
       <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="9"/>
-    </row>
-    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F40" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
+      <c r="B41" s="25">
+        <v>25</v>
+      </c>
+      <c r="C41" s="25">
+        <v>37</v>
+      </c>
+      <c r="D41" s="25">
+        <v>-12</v>
+      </c>
       <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="9"/>
-    </row>
-    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F41" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
+      <c r="B42" s="25">
+        <v>5</v>
+      </c>
+      <c r="C42" s="25">
+        <v>50</v>
+      </c>
+      <c r="D42" s="25">
+        <v>-45</v>
+      </c>
       <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="9"/>
-    </row>
-    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F42" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
+        <v>256</v>
+      </c>
+      <c r="B43" s="25">
+        <v>0</v>
+      </c>
+      <c r="C43" s="25">
+        <v>0</v>
+      </c>
+      <c r="D43" s="25">
+        <v>0</v>
+      </c>
       <c r="E43" s="31"/>
       <c r="F43" s="31"/>
       <c r="G43" s="9"/>
     </row>
-    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
+      <c r="B44" s="21">
+        <v>58</v>
+      </c>
+      <c r="C44" s="21">
+        <v>84</v>
+      </c>
+      <c r="D44" s="21">
+        <v>-26</v>
+      </c>
       <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="5"/>
-    </row>
-    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F44" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
+      <c r="B45" s="18">
+        <v>82</v>
+      </c>
+      <c r="C45" s="18">
+        <v>177</v>
+      </c>
+      <c r="D45" s="18">
+        <v>-95</v>
+      </c>
       <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="3"/>
-    </row>
-    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F45" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
+      <c r="B46" s="21">
+        <v>550</v>
+      </c>
+      <c r="C46" s="21">
+        <v>590</v>
+      </c>
+      <c r="D46" s="21">
+        <v>-40</v>
+      </c>
       <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="5"/>
-    </row>
-    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F46" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="28"/>
+      <c r="B47" s="18">
+        <v>986</v>
+      </c>
+      <c r="C47" s="18">
+        <v>657</v>
+      </c>
+      <c r="D47" s="18">
+        <v>329</v>
+      </c>
+      <c r="E47" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F47" s="28"/>
-      <c r="G47" s="3"/>
-    </row>
-    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G47" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
+      <c r="B48" s="21">
+        <v>194</v>
+      </c>
+      <c r="C48" s="21">
+        <v>593</v>
+      </c>
+      <c r="D48" s="21">
+        <v>-399</v>
+      </c>
       <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="5"/>
-    </row>
-    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F48" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="28"/>
+      <c r="B49" s="18">
+        <v>717</v>
+      </c>
+      <c r="C49" s="18">
+        <v>281</v>
+      </c>
+      <c r="D49" s="18">
+        <v>436</v>
+      </c>
+      <c r="E49" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F49" s="28"/>
-      <c r="G49" s="3"/>
-    </row>
-    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G49" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="29"/>
+      <c r="B50" s="21">
+        <v>849</v>
+      </c>
+      <c r="C50" s="21">
+        <v>603</v>
+      </c>
+      <c r="D50" s="21">
+        <v>246</v>
+      </c>
+      <c r="E50" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F50" s="29"/>
-      <c r="G50" s="5"/>
-    </row>
-    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G50" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="28"/>
+      <c r="B51" s="18">
+        <v>269</v>
+      </c>
+      <c r="C51" s="18">
+        <v>137</v>
+      </c>
+      <c r="D51" s="18">
+        <v>132</v>
+      </c>
+      <c r="E51" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F51" s="28"/>
-      <c r="G51" s="3"/>
-    </row>
-    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G51" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
+      <c r="B52" s="21">
+        <v>397</v>
+      </c>
+      <c r="C52" s="21">
+        <v>412</v>
+      </c>
+      <c r="D52" s="21">
+        <v>-15</v>
+      </c>
       <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="5"/>
-    </row>
-    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F52" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
+      <c r="B53" s="18">
+        <v>196</v>
+      </c>
+      <c r="C53" s="18">
+        <v>239</v>
+      </c>
+      <c r="D53" s="18">
+        <v>-43</v>
+      </c>
       <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="3"/>
-    </row>
-    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F53" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B54" s="21"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
+      <c r="B54" s="21">
+        <v>41</v>
+      </c>
+      <c r="C54" s="21">
+        <v>204</v>
+      </c>
+      <c r="D54" s="21">
+        <v>-163</v>
+      </c>
       <c r="E54" s="29"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="5"/>
-    </row>
-    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F54" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="B55" s="27"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="32"/>
+      <c r="B55" s="27">
+        <v>313</v>
+      </c>
+      <c r="C55" s="27">
+        <v>169</v>
+      </c>
+      <c r="D55" s="27">
+        <v>144</v>
+      </c>
+      <c r="E55" s="32" t="s">
+        <v>61</v>
+      </c>
       <c r="F55" s="32"/>
-      <c r="G55" s="11"/>
+      <c r="G55" s="11" t="s">
+        <v>212</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G55" xr:uid="{00000000-0009-0000-0000-000009000000}"/>
@@ -3966,17 +4524,17 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" style="19" customWidth="1"/>
-    <col min="2" max="3" width="30.6640625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" style="19" customWidth="1"/>
-    <col min="5" max="6" width="25.6640625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="28.6640625" style="19" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="19"/>
+    <col min="1" max="1" width="45.7109375" style="19" customWidth="1"/>
+    <col min="2" max="3" width="30.7109375" style="19" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="19" customWidth="1"/>
+    <col min="5" max="6" width="25.7109375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
@@ -3999,7 +4557,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -4010,7 +4568,7 @@
       <c r="F2" s="28"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>8</v>
       </c>
@@ -4021,7 +4579,7 @@
       <c r="F3" s="29"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -4032,7 +4590,7 @@
       <c r="F4" s="28"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
@@ -4043,7 +4601,7 @@
       <c r="F5" s="29"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -4054,7 +4612,7 @@
       <c r="F6" s="28"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>12</v>
       </c>
@@ -4065,7 +4623,7 @@
       <c r="F7" s="29"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -4076,7 +4634,7 @@
       <c r="F8" s="28"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>14</v>
       </c>
@@ -4087,7 +4645,7 @@
       <c r="F9" s="29"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -4098,7 +4656,7 @@
       <c r="F10" s="28"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>16</v>
       </c>
@@ -4109,7 +4667,7 @@
       <c r="F11" s="29"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>17</v>
       </c>
@@ -4120,7 +4678,7 @@
       <c r="F12" s="30"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>18</v>
       </c>
@@ -4131,7 +4689,7 @@
       <c r="F13" s="30"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>19</v>
       </c>
@@ -4142,7 +4700,7 @@
       <c r="F14" s="30"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>20</v>
       </c>
@@ -4153,7 +4711,7 @@
       <c r="F15" s="30"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -4164,7 +4722,7 @@
       <c r="F16" s="28"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>22</v>
       </c>
@@ -4175,7 +4733,7 @@
       <c r="F17" s="29"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -4186,7 +4744,7 @@
       <c r="F18" s="28"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>24</v>
       </c>
@@ -4197,7 +4755,7 @@
       <c r="F19" s="29"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -4208,7 +4766,7 @@
       <c r="F20" s="28"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>26</v>
       </c>
@@ -4219,7 +4777,7 @@
       <c r="F21" s="29"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -4230,7 +4788,7 @@
       <c r="F22" s="28"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>28</v>
       </c>
@@ -4241,7 +4799,7 @@
       <c r="F23" s="29"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -4252,7 +4810,7 @@
       <c r="F24" s="28"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>30</v>
       </c>
@@ -4263,7 +4821,7 @@
       <c r="F25" s="29"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -4274,7 +4832,7 @@
       <c r="F26" s="28"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
         <v>32</v>
       </c>
@@ -4285,7 +4843,7 @@
       <c r="F27" s="29"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
@@ -4296,7 +4854,7 @@
       <c r="F28" s="28"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>34</v>
       </c>
@@ -4307,7 +4865,7 @@
       <c r="F29" s="29"/>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
@@ -4318,7 +4876,7 @@
       <c r="F30" s="28"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>36</v>
       </c>
@@ -4329,7 +4887,7 @@
       <c r="F31" s="29"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -4340,7 +4898,7 @@
       <c r="F32" s="28"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>38</v>
       </c>
@@ -4351,7 +4909,7 @@
       <c r="F33" s="29"/>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
@@ -4362,7 +4920,7 @@
       <c r="F34" s="28"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
@@ -4373,7 +4931,7 @@
       <c r="F35" s="29"/>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
@@ -4384,7 +4942,7 @@
       <c r="F36" s="28"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
         <v>42</v>
       </c>
@@ -4395,7 +4953,7 @@
       <c r="F37" s="29"/>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
@@ -4406,7 +4964,7 @@
       <c r="F38" s="28"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
         <v>44</v>
       </c>
@@ -4417,7 +4975,7 @@
       <c r="F39" s="31"/>
       <c r="G39" s="9"/>
     </row>
-    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
         <v>45</v>
       </c>
@@ -4428,7 +4986,7 @@
       <c r="F40" s="31"/>
       <c r="G40" s="9"/>
     </row>
-    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
         <v>46</v>
       </c>
@@ -4439,7 +4997,7 @@
       <c r="F41" s="31"/>
       <c r="G41" s="9"/>
     </row>
-    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>47</v>
       </c>
@@ -4450,7 +5008,7 @@
       <c r="F42" s="31"/>
       <c r="G42" s="9"/>
     </row>
-    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="24" t="s">
         <v>48</v>
       </c>
@@ -4461,7 +5019,7 @@
       <c r="F43" s="31"/>
       <c r="G43" s="9"/>
     </row>
-    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
         <v>49</v>
       </c>
@@ -4472,7 +5030,7 @@
       <c r="F44" s="29"/>
       <c r="G44" s="5"/>
     </row>
-    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
@@ -4483,7 +5041,7 @@
       <c r="F45" s="28"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
         <v>51</v>
       </c>
@@ -4494,7 +5052,7 @@
       <c r="F46" s="29"/>
       <c r="G46" s="5"/>
     </row>
-    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
@@ -4505,7 +5063,7 @@
       <c r="F47" s="28"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
         <v>53</v>
       </c>
@@ -4516,7 +5074,7 @@
       <c r="F48" s="29"/>
       <c r="G48" s="5"/>
     </row>
-    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
@@ -4527,7 +5085,7 @@
       <c r="F49" s="28"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
         <v>55</v>
       </c>
@@ -4538,7 +5096,7 @@
       <c r="F50" s="29"/>
       <c r="G50" s="5"/>
     </row>
-    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
@@ -4549,7 +5107,7 @@
       <c r="F51" s="28"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
         <v>57</v>
       </c>
@@ -4560,7 +5118,7 @@
       <c r="F52" s="29"/>
       <c r="G52" s="5"/>
     </row>
-    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
@@ -4571,7 +5129,7 @@
       <c r="F53" s="28"/>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
         <v>59</v>
       </c>
@@ -4582,7 +5140,7 @@
       <c r="F54" s="29"/>
       <c r="G54" s="5"/>
     </row>
-    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
         <v>60</v>
       </c>
@@ -4624,17 +5182,17 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" style="19" customWidth="1"/>
-    <col min="2" max="3" width="30.6640625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" style="19" customWidth="1"/>
-    <col min="5" max="6" width="25.6640625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="28.6640625" style="19" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="19"/>
+    <col min="1" max="1" width="45.7109375" style="19" customWidth="1"/>
+    <col min="2" max="3" width="30.7109375" style="19" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="19" customWidth="1"/>
+    <col min="5" max="6" width="25.7109375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
@@ -4657,7 +5215,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -4668,7 +5226,7 @@
       <c r="F2" s="28"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>8</v>
       </c>
@@ -4679,7 +5237,7 @@
       <c r="F3" s="29"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -4690,7 +5248,7 @@
       <c r="F4" s="28"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
@@ -4701,7 +5259,7 @@
       <c r="F5" s="29"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -4712,7 +5270,7 @@
       <c r="F6" s="28"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>12</v>
       </c>
@@ -4723,7 +5281,7 @@
       <c r="F7" s="29"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -4734,7 +5292,7 @@
       <c r="F8" s="28"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>14</v>
       </c>
@@ -4745,7 +5303,7 @@
       <c r="F9" s="29"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -4756,7 +5314,7 @@
       <c r="F10" s="28"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>16</v>
       </c>
@@ -4767,7 +5325,7 @@
       <c r="F11" s="29"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>17</v>
       </c>
@@ -4778,7 +5336,7 @@
       <c r="F12" s="30"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>18</v>
       </c>
@@ -4789,7 +5347,7 @@
       <c r="F13" s="30"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>19</v>
       </c>
@@ -4800,7 +5358,7 @@
       <c r="F14" s="30"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>20</v>
       </c>
@@ -4811,7 +5369,7 @@
       <c r="F15" s="30"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -4822,7 +5380,7 @@
       <c r="F16" s="28"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>22</v>
       </c>
@@ -4833,7 +5391,7 @@
       <c r="F17" s="29"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -4844,7 +5402,7 @@
       <c r="F18" s="28"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>24</v>
       </c>
@@ -4855,7 +5413,7 @@
       <c r="F19" s="29"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -4866,7 +5424,7 @@
       <c r="F20" s="28"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>26</v>
       </c>
@@ -4877,7 +5435,7 @@
       <c r="F21" s="29"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -4888,7 +5446,7 @@
       <c r="F22" s="28"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>28</v>
       </c>
@@ -4899,7 +5457,7 @@
       <c r="F23" s="29"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -4910,7 +5468,7 @@
       <c r="F24" s="28"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>30</v>
       </c>
@@ -4921,7 +5479,7 @@
       <c r="F25" s="29"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -4932,7 +5490,7 @@
       <c r="F26" s="28"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
         <v>32</v>
       </c>
@@ -4943,7 +5501,7 @@
       <c r="F27" s="29"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
@@ -4954,7 +5512,7 @@
       <c r="F28" s="28"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>34</v>
       </c>
@@ -4965,7 +5523,7 @@
       <c r="F29" s="29"/>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
@@ -4976,7 +5534,7 @@
       <c r="F30" s="28"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>36</v>
       </c>
@@ -4987,7 +5545,7 @@
       <c r="F31" s="29"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -4998,7 +5556,7 @@
       <c r="F32" s="28"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>38</v>
       </c>
@@ -5009,7 +5567,7 @@
       <c r="F33" s="29"/>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
@@ -5020,7 +5578,7 @@
       <c r="F34" s="28"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
@@ -5031,7 +5589,7 @@
       <c r="F35" s="29"/>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
@@ -5042,7 +5600,7 @@
       <c r="F36" s="28"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
         <v>42</v>
       </c>
@@ -5053,7 +5611,7 @@
       <c r="F37" s="29"/>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
@@ -5064,7 +5622,7 @@
       <c r="F38" s="28"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
         <v>44</v>
       </c>
@@ -5075,7 +5633,7 @@
       <c r="F39" s="31"/>
       <c r="G39" s="9"/>
     </row>
-    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
         <v>45</v>
       </c>
@@ -5086,7 +5644,7 @@
       <c r="F40" s="31"/>
       <c r="G40" s="9"/>
     </row>
-    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
         <v>46</v>
       </c>
@@ -5097,7 +5655,7 @@
       <c r="F41" s="31"/>
       <c r="G41" s="9"/>
     </row>
-    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>47</v>
       </c>
@@ -5108,7 +5666,7 @@
       <c r="F42" s="31"/>
       <c r="G42" s="9"/>
     </row>
-    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="24" t="s">
         <v>48</v>
       </c>
@@ -5119,7 +5677,7 @@
       <c r="F43" s="31"/>
       <c r="G43" s="9"/>
     </row>
-    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
         <v>49</v>
       </c>
@@ -5130,7 +5688,7 @@
       <c r="F44" s="29"/>
       <c r="G44" s="5"/>
     </row>
-    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
@@ -5141,7 +5699,7 @@
       <c r="F45" s="28"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
         <v>51</v>
       </c>
@@ -5152,7 +5710,7 @@
       <c r="F46" s="29"/>
       <c r="G46" s="5"/>
     </row>
-    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
@@ -5163,7 +5721,7 @@
       <c r="F47" s="28"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
         <v>53</v>
       </c>
@@ -5174,7 +5732,7 @@
       <c r="F48" s="29"/>
       <c r="G48" s="5"/>
     </row>
-    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
@@ -5185,7 +5743,7 @@
       <c r="F49" s="28"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
         <v>55</v>
       </c>
@@ -5196,7 +5754,7 @@
       <c r="F50" s="29"/>
       <c r="G50" s="5"/>
     </row>
-    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
@@ -5207,7 +5765,7 @@
       <c r="F51" s="28"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
         <v>57</v>
       </c>
@@ -5218,7 +5776,7 @@
       <c r="F52" s="29"/>
       <c r="G52" s="5"/>
     </row>
-    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
@@ -5229,7 +5787,7 @@
       <c r="F53" s="28"/>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
         <v>59</v>
       </c>
@@ -5240,7 +5798,7 @@
       <c r="F54" s="29"/>
       <c r="G54" s="5"/>
     </row>
-    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
         <v>60</v>
       </c>
@@ -5284,17 +5842,17 @@
       <selection pane="bottomRight" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" style="19" customWidth="1"/>
-    <col min="2" max="3" width="30.6640625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" style="19" customWidth="1"/>
-    <col min="5" max="6" width="25.6640625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="28.6640625" style="19" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="19"/>
+    <col min="1" max="1" width="45.7109375" style="19" customWidth="1"/>
+    <col min="2" max="3" width="30.7109375" style="19" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="19" customWidth="1"/>
+    <col min="5" max="6" width="25.7109375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
@@ -5317,7 +5875,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -5328,7 +5886,7 @@
       <c r="F2" s="28"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>8</v>
       </c>
@@ -5339,7 +5897,7 @@
       <c r="F3" s="29"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -5350,7 +5908,7 @@
       <c r="F4" s="28"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
@@ -5361,7 +5919,7 @@
       <c r="F5" s="29"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -5372,7 +5930,7 @@
       <c r="F6" s="28"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>12</v>
       </c>
@@ -5383,7 +5941,7 @@
       <c r="F7" s="29"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -5394,7 +5952,7 @@
       <c r="F8" s="28"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>14</v>
       </c>
@@ -5405,7 +5963,7 @@
       <c r="F9" s="29"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -5416,7 +5974,7 @@
       <c r="F10" s="28"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>16</v>
       </c>
@@ -5427,7 +5985,7 @@
       <c r="F11" s="29"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>17</v>
       </c>
@@ -5438,7 +5996,7 @@
       <c r="F12" s="30"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>18</v>
       </c>
@@ -5449,7 +6007,7 @@
       <c r="F13" s="30"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>19</v>
       </c>
@@ -5460,7 +6018,7 @@
       <c r="F14" s="30"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>20</v>
       </c>
@@ -5471,7 +6029,7 @@
       <c r="F15" s="30"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -5482,7 +6040,7 @@
       <c r="F16" s="28"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>22</v>
       </c>
@@ -5493,7 +6051,7 @@
       <c r="F17" s="29"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -5504,7 +6062,7 @@
       <c r="F18" s="28"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>24</v>
       </c>
@@ -5515,7 +6073,7 @@
       <c r="F19" s="29"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -5526,7 +6084,7 @@
       <c r="F20" s="28"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>26</v>
       </c>
@@ -5537,7 +6095,7 @@
       <c r="F21" s="29"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -5548,7 +6106,7 @@
       <c r="F22" s="28"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>28</v>
       </c>
@@ -5559,7 +6117,7 @@
       <c r="F23" s="29"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -5570,7 +6128,7 @@
       <c r="F24" s="28"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>30</v>
       </c>
@@ -5581,7 +6139,7 @@
       <c r="F25" s="29"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -5592,7 +6150,7 @@
       <c r="F26" s="28"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
         <v>32</v>
       </c>
@@ -5603,7 +6161,7 @@
       <c r="F27" s="29"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
@@ -5614,7 +6172,7 @@
       <c r="F28" s="28"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>34</v>
       </c>
@@ -5625,7 +6183,7 @@
       <c r="F29" s="29"/>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
@@ -5636,7 +6194,7 @@
       <c r="F30" s="28"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>36</v>
       </c>
@@ -5647,7 +6205,7 @@
       <c r="F31" s="29"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -5658,7 +6216,7 @@
       <c r="F32" s="28"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>38</v>
       </c>
@@ -5669,7 +6227,7 @@
       <c r="F33" s="29"/>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
@@ -5680,7 +6238,7 @@
       <c r="F34" s="28"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
@@ -5691,7 +6249,7 @@
       <c r="F35" s="29"/>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
@@ -5702,7 +6260,7 @@
       <c r="F36" s="28"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
         <v>42</v>
       </c>
@@ -5713,7 +6271,7 @@
       <c r="F37" s="29"/>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
@@ -5724,7 +6282,7 @@
       <c r="F38" s="28"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
         <v>44</v>
       </c>
@@ -5735,7 +6293,7 @@
       <c r="F39" s="31"/>
       <c r="G39" s="9"/>
     </row>
-    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
         <v>45</v>
       </c>
@@ -5746,7 +6304,7 @@
       <c r="F40" s="31"/>
       <c r="G40" s="9"/>
     </row>
-    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
         <v>46</v>
       </c>
@@ -5757,7 +6315,7 @@
       <c r="F41" s="31"/>
       <c r="G41" s="9"/>
     </row>
-    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>47</v>
       </c>
@@ -5768,7 +6326,7 @@
       <c r="F42" s="31"/>
       <c r="G42" s="9"/>
     </row>
-    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="24" t="s">
         <v>48</v>
       </c>
@@ -5779,7 +6337,7 @@
       <c r="F43" s="31"/>
       <c r="G43" s="9"/>
     </row>
-    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
         <v>49</v>
       </c>
@@ -5790,7 +6348,7 @@
       <c r="F44" s="29"/>
       <c r="G44" s="5"/>
     </row>
-    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
@@ -5801,7 +6359,7 @@
       <c r="F45" s="28"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
         <v>51</v>
       </c>
@@ -5812,7 +6370,7 @@
       <c r="F46" s="29"/>
       <c r="G46" s="5"/>
     </row>
-    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
@@ -5823,7 +6381,7 @@
       <c r="F47" s="28"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
         <v>53</v>
       </c>
@@ -5834,7 +6392,7 @@
       <c r="F48" s="29"/>
       <c r="G48" s="5"/>
     </row>
-    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
@@ -5845,7 +6403,7 @@
       <c r="F49" s="28"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
         <v>55</v>
       </c>
@@ -5856,7 +6414,7 @@
       <c r="F50" s="29"/>
       <c r="G50" s="5"/>
     </row>
-    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
@@ -5867,7 +6425,7 @@
       <c r="F51" s="28"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
         <v>57</v>
       </c>
@@ -5878,7 +6436,7 @@
       <c r="F52" s="29"/>
       <c r="G52" s="5"/>
     </row>
-    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
@@ -5889,7 +6447,7 @@
       <c r="F53" s="28"/>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
         <v>59</v>
       </c>
@@ -5900,7 +6458,7 @@
       <c r="F54" s="29"/>
       <c r="G54" s="5"/>
     </row>
-    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
         <v>60</v>
       </c>
@@ -5945,17 +6503,17 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" style="19" customWidth="1"/>
-    <col min="2" max="3" width="30.6640625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" style="19" customWidth="1"/>
-    <col min="5" max="6" width="25.6640625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="28.6640625" style="19" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="19"/>
+    <col min="1" max="1" width="45.7109375" style="19" customWidth="1"/>
+    <col min="2" max="3" width="30.7109375" style="19" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="19" customWidth="1"/>
+    <col min="5" max="6" width="25.7109375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
@@ -5978,7 +6536,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -5999,7 +6557,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>8</v>
       </c>
@@ -6020,7 +6578,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -6041,7 +6599,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
@@ -6062,7 +6620,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -6083,7 +6641,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>12</v>
       </c>
@@ -6104,7 +6662,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -6125,7 +6683,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>14</v>
       </c>
@@ -6146,7 +6704,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -6167,7 +6725,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>16</v>
       </c>
@@ -6184,7 +6742,7 @@
       <c r="F11" s="29"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>17</v>
       </c>
@@ -6205,7 +6763,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>18</v>
       </c>
@@ -6226,7 +6784,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>19</v>
       </c>
@@ -6247,7 +6805,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>20</v>
       </c>
@@ -6268,7 +6826,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -6289,7 +6847,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>22</v>
       </c>
@@ -6310,7 +6868,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -6331,7 +6889,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>24</v>
       </c>
@@ -6352,7 +6910,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -6373,7 +6931,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>26</v>
       </c>
@@ -6394,7 +6952,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -6415,7 +6973,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>28</v>
       </c>
@@ -6436,7 +6994,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -6457,7 +7015,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>30</v>
       </c>
@@ -6478,7 +7036,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -6495,7 +7053,7 @@
       <c r="F26" s="28"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
         <v>32</v>
       </c>
@@ -6516,7 +7074,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
@@ -6537,7 +7095,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>34</v>
       </c>
@@ -6558,7 +7116,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
@@ -6579,7 +7137,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>36</v>
       </c>
@@ -6600,7 +7158,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -6621,7 +7179,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>38</v>
       </c>
@@ -6642,7 +7200,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
@@ -6663,7 +7221,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
@@ -6684,7 +7242,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
@@ -6705,7 +7263,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
         <v>42</v>
       </c>
@@ -6726,7 +7284,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
@@ -6747,7 +7305,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
         <v>44</v>
       </c>
@@ -6768,7 +7326,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
         <v>45</v>
       </c>
@@ -6789,7 +7347,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
         <v>46</v>
       </c>
@@ -6810,7 +7368,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>47</v>
       </c>
@@ -6831,7 +7389,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="24" t="s">
         <v>48</v>
       </c>
@@ -6848,7 +7406,7 @@
       <c r="F43" s="31"/>
       <c r="G43" s="9"/>
     </row>
-    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
         <v>49</v>
       </c>
@@ -6869,7 +7427,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
@@ -6890,7 +7448,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
         <v>51</v>
       </c>
@@ -6911,7 +7469,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
@@ -6932,7 +7490,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
         <v>53</v>
       </c>
@@ -6953,7 +7511,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
@@ -6974,7 +7532,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
         <v>55</v>
       </c>
@@ -6995,7 +7553,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
@@ -7016,7 +7574,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
         <v>57</v>
       </c>
@@ -7037,7 +7595,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
@@ -7058,7 +7616,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
         <v>59</v>
       </c>
@@ -7079,7 +7637,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
         <v>60</v>
       </c>
@@ -7134,17 +7692,17 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" style="19" customWidth="1"/>
-    <col min="2" max="3" width="30.6640625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" style="19" customWidth="1"/>
-    <col min="5" max="6" width="25.6640625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="28.6640625" style="19" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="19"/>
+    <col min="1" max="1" width="45.7109375" style="19" customWidth="1"/>
+    <col min="2" max="3" width="30.7109375" style="19" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="19" customWidth="1"/>
+    <col min="5" max="6" width="25.7109375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
@@ -7167,7 +7725,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -7188,7 +7746,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>8</v>
       </c>
@@ -7209,7 +7767,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -7230,7 +7788,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
@@ -7251,7 +7809,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -7272,7 +7830,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>12</v>
       </c>
@@ -7293,7 +7851,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -7314,7 +7872,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>14</v>
       </c>
@@ -7335,7 +7893,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -7356,7 +7914,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>16</v>
       </c>
@@ -7373,7 +7931,7 @@
       <c r="F11" s="29"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>17</v>
       </c>
@@ -7394,7 +7952,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>18</v>
       </c>
@@ -7415,7 +7973,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>19</v>
       </c>
@@ -7436,7 +7994,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>20</v>
       </c>
@@ -7457,7 +8015,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -7478,7 +8036,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>22</v>
       </c>
@@ -7499,7 +8057,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -7520,7 +8078,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>24</v>
       </c>
@@ -7541,7 +8099,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -7562,7 +8120,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>26</v>
       </c>
@@ -7583,7 +8141,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -7604,7 +8162,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>28</v>
       </c>
@@ -7625,7 +8183,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -7646,7 +8204,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>30</v>
       </c>
@@ -7667,7 +8225,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -7684,7 +8242,7 @@
       <c r="F26" s="28"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
         <v>32</v>
       </c>
@@ -7705,7 +8263,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
@@ -7726,7 +8284,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>34</v>
       </c>
@@ -7747,7 +8305,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
@@ -7768,7 +8326,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>36</v>
       </c>
@@ -7789,7 +8347,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -7810,7 +8368,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>38</v>
       </c>
@@ -7831,7 +8389,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
@@ -7852,7 +8410,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
@@ -7873,7 +8431,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
@@ -7894,7 +8452,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
         <v>42</v>
       </c>
@@ -7915,7 +8473,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
@@ -7936,7 +8494,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
         <v>44</v>
       </c>
@@ -7957,7 +8515,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
         <v>45</v>
       </c>
@@ -7978,7 +8536,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
         <v>46</v>
       </c>
@@ -7999,7 +8557,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>47</v>
       </c>
@@ -8020,7 +8578,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="24" t="s">
         <v>48</v>
       </c>
@@ -8037,7 +8595,7 @@
       <c r="F43" s="31"/>
       <c r="G43" s="9"/>
     </row>
-    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
         <v>49</v>
       </c>
@@ -8058,7 +8616,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
@@ -8079,7 +8637,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
         <v>51</v>
       </c>
@@ -8100,7 +8658,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
@@ -8121,7 +8679,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
         <v>53</v>
       </c>
@@ -8142,7 +8700,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
@@ -8163,7 +8721,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
         <v>55</v>
       </c>
@@ -8184,7 +8742,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
@@ -8205,7 +8763,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
         <v>57</v>
       </c>
@@ -8226,7 +8784,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
@@ -8247,7 +8805,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
         <v>59</v>
       </c>
@@ -8268,7 +8826,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
         <v>60</v>
       </c>
@@ -8322,17 +8880,17 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" style="19" customWidth="1"/>
-    <col min="2" max="3" width="30.6640625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" style="19" customWidth="1"/>
-    <col min="5" max="6" width="25.6640625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="28.6640625" style="19" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="19"/>
+    <col min="1" max="1" width="45.7109375" style="19" customWidth="1"/>
+    <col min="2" max="3" width="30.7109375" style="19" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="19" customWidth="1"/>
+    <col min="5" max="6" width="25.7109375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
@@ -8355,7 +8913,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -8376,7 +8934,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>8</v>
       </c>
@@ -8397,7 +8955,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -8418,7 +8976,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
@@ -8439,7 +8997,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -8460,7 +9018,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>12</v>
       </c>
@@ -8481,7 +9039,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -8502,7 +9060,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>14</v>
       </c>
@@ -8523,7 +9081,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -8544,7 +9102,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>16</v>
       </c>
@@ -8561,7 +9119,7 @@
       <c r="F11" s="29"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>17</v>
       </c>
@@ -8582,7 +9140,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>18</v>
       </c>
@@ -8603,7 +9161,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>19</v>
       </c>
@@ -8624,7 +9182,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>20</v>
       </c>
@@ -8645,7 +9203,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -8666,7 +9224,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>22</v>
       </c>
@@ -8687,7 +9245,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -8708,7 +9266,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>24</v>
       </c>
@@ -8729,7 +9287,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -8750,7 +9308,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>26</v>
       </c>
@@ -8771,7 +9329,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -8792,7 +9350,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>28</v>
       </c>
@@ -8813,7 +9371,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -8834,7 +9392,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>30</v>
       </c>
@@ -8855,7 +9413,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -8872,7 +9430,7 @@
       <c r="F26" s="28"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
         <v>32</v>
       </c>
@@ -8893,7 +9451,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
@@ -8914,7 +9472,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>34</v>
       </c>
@@ -8935,7 +9493,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
@@ -8956,7 +9514,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>36</v>
       </c>
@@ -8977,7 +9535,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -8998,7 +9556,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>38</v>
       </c>
@@ -9019,7 +9577,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
@@ -9040,7 +9598,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
@@ -9061,7 +9619,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
@@ -9082,7 +9640,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
         <v>42</v>
       </c>
@@ -9103,7 +9661,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
@@ -9124,7 +9682,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
         <v>44</v>
       </c>
@@ -9145,7 +9703,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
         <v>45</v>
       </c>
@@ -9166,7 +9724,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
         <v>46</v>
       </c>
@@ -9187,7 +9745,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>47</v>
       </c>
@@ -9208,7 +9766,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="24" t="s">
         <v>48</v>
       </c>
@@ -9225,7 +9783,7 @@
       <c r="F43" s="31"/>
       <c r="G43" s="9"/>
     </row>
-    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
         <v>49</v>
       </c>
@@ -9246,7 +9804,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
@@ -9267,7 +9825,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
         <v>51</v>
       </c>
@@ -9288,7 +9846,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
@@ -9309,7 +9867,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
         <v>53</v>
       </c>
@@ -9330,7 +9888,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
@@ -9351,7 +9909,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
         <v>55</v>
       </c>
@@ -9372,7 +9930,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
@@ -9393,7 +9951,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
         <v>57</v>
       </c>
@@ -9414,7 +9972,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
@@ -9435,7 +9993,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
         <v>59</v>
       </c>
@@ -9456,7 +10014,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
         <v>60</v>
       </c>
@@ -9511,17 +10069,17 @@
       <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" style="19" customWidth="1"/>
-    <col min="2" max="3" width="30.6640625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" style="19" customWidth="1"/>
-    <col min="5" max="6" width="25.6640625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="28.6640625" style="19" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="19"/>
+    <col min="1" max="1" width="45.7109375" style="19" customWidth="1"/>
+    <col min="2" max="3" width="30.7109375" style="19" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="19" customWidth="1"/>
+    <col min="5" max="6" width="25.7109375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
@@ -9544,7 +10102,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -9565,7 +10123,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>8</v>
       </c>
@@ -9586,7 +10144,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -9607,7 +10165,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
@@ -9628,7 +10186,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -9649,7 +10207,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>12</v>
       </c>
@@ -9670,7 +10228,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -9691,7 +10249,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>14</v>
       </c>
@@ -9712,7 +10270,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -9733,7 +10291,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>16</v>
       </c>
@@ -9750,7 +10308,7 @@
       <c r="F11" s="29"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>17</v>
       </c>
@@ -9771,7 +10329,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>18</v>
       </c>
@@ -9792,7 +10350,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>19</v>
       </c>
@@ -9813,7 +10371,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>20</v>
       </c>
@@ -9834,7 +10392,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -9855,7 +10413,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>22</v>
       </c>
@@ -9876,7 +10434,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -9897,7 +10455,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>24</v>
       </c>
@@ -9918,7 +10476,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -9939,7 +10497,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>26</v>
       </c>
@@ -9960,7 +10518,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -9981,7 +10539,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>28</v>
       </c>
@@ -10002,7 +10560,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -10023,7 +10581,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>30</v>
       </c>
@@ -10044,7 +10602,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -10061,7 +10619,7 @@
       <c r="F26" s="28"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
         <v>32</v>
       </c>
@@ -10082,7 +10640,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
@@ -10103,7 +10661,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>34</v>
       </c>
@@ -10124,7 +10682,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
@@ -10145,7 +10703,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>36</v>
       </c>
@@ -10166,7 +10724,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -10187,7 +10745,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>38</v>
       </c>
@@ -10208,7 +10766,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
@@ -10229,7 +10787,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
@@ -10250,7 +10808,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
@@ -10271,7 +10829,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
         <v>42</v>
       </c>
@@ -10292,7 +10850,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
@@ -10313,7 +10871,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
         <v>44</v>
       </c>
@@ -10334,7 +10892,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
         <v>45</v>
       </c>
@@ -10355,7 +10913,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
         <v>46</v>
       </c>
@@ -10376,7 +10934,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>47</v>
       </c>
@@ -10397,7 +10955,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="24" t="s">
         <v>48</v>
       </c>
@@ -10414,7 +10972,7 @@
       <c r="F43" s="31"/>
       <c r="G43" s="9"/>
     </row>
-    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
         <v>49</v>
       </c>
@@ -10435,7 +10993,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
@@ -10456,7 +11014,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
         <v>51</v>
       </c>
@@ -10477,7 +11035,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
@@ -10498,7 +11056,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
         <v>53</v>
       </c>
@@ -10519,7 +11077,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
@@ -10540,7 +11098,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
         <v>55</v>
       </c>
@@ -10561,7 +11119,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
@@ -10582,7 +11140,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
         <v>57</v>
       </c>
@@ -10603,7 +11161,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
@@ -10624,7 +11182,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
         <v>59</v>
       </c>
@@ -10645,7 +11203,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
         <v>60</v>
       </c>
@@ -10699,17 +11257,17 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" style="19" customWidth="1"/>
-    <col min="2" max="3" width="30.6640625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" style="19" customWidth="1"/>
-    <col min="5" max="6" width="25.6640625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="28.6640625" style="19" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="19"/>
+    <col min="1" max="1" width="45.7109375" style="19" customWidth="1"/>
+    <col min="2" max="3" width="30.7109375" style="19" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="19" customWidth="1"/>
+    <col min="5" max="6" width="25.7109375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
@@ -10732,7 +11290,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -10753,7 +11311,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>8</v>
       </c>
@@ -10774,7 +11332,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -10795,7 +11353,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
@@ -10816,7 +11374,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -10837,7 +11395,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>12</v>
       </c>
@@ -10858,7 +11416,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -10879,7 +11437,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>14</v>
       </c>
@@ -10900,7 +11458,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -10921,7 +11479,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>16</v>
       </c>
@@ -10938,7 +11496,7 @@
       <c r="F11" s="29"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>17</v>
       </c>
@@ -10959,7 +11517,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>18</v>
       </c>
@@ -10980,7 +11538,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>19</v>
       </c>
@@ -11001,7 +11559,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>20</v>
       </c>
@@ -11022,7 +11580,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -11043,7 +11601,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>22</v>
       </c>
@@ -11064,7 +11622,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -11085,7 +11643,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>24</v>
       </c>
@@ -11106,7 +11664,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -11127,7 +11685,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>26</v>
       </c>
@@ -11148,7 +11706,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -11169,7 +11727,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>28</v>
       </c>
@@ -11190,7 +11748,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -11211,7 +11769,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>30</v>
       </c>
@@ -11232,7 +11790,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -11249,7 +11807,7 @@
       <c r="F26" s="28"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
         <v>32</v>
       </c>
@@ -11270,7 +11828,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
@@ -11291,7 +11849,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>34</v>
       </c>
@@ -11312,7 +11870,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
@@ -11333,7 +11891,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>36</v>
       </c>
@@ -11354,7 +11912,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -11375,7 +11933,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>38</v>
       </c>
@@ -11396,7 +11954,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
@@ -11417,7 +11975,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
@@ -11438,7 +11996,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
@@ -11459,7 +12017,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
         <v>42</v>
       </c>
@@ -11480,7 +12038,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
@@ -11501,7 +12059,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
         <v>44</v>
       </c>
@@ -11522,7 +12080,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
         <v>45</v>
       </c>
@@ -11543,7 +12101,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
         <v>46</v>
       </c>
@@ -11564,7 +12122,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>47</v>
       </c>
@@ -11585,7 +12143,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="24" t="s">
         <v>48</v>
       </c>
@@ -11602,7 +12160,7 @@
       <c r="F43" s="31"/>
       <c r="G43" s="9"/>
     </row>
-    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
         <v>49</v>
       </c>
@@ -11623,7 +12181,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
@@ -11644,7 +12202,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
         <v>51</v>
       </c>
@@ -11665,7 +12223,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
@@ -11686,7 +12244,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
         <v>53</v>
       </c>
@@ -11707,7 +12265,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
@@ -11728,7 +12286,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
         <v>55</v>
       </c>
@@ -11749,7 +12307,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
@@ -11770,7 +12328,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
         <v>57</v>
       </c>
@@ -11791,7 +12349,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
@@ -11812,7 +12370,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
         <v>59</v>
       </c>
@@ -11833,7 +12391,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
         <v>60</v>
       </c>
@@ -11887,17 +12445,17 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" style="19" customWidth="1"/>
-    <col min="2" max="3" width="30.6640625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" style="19" customWidth="1"/>
-    <col min="5" max="6" width="25.6640625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="28.6640625" style="19" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="19"/>
+    <col min="1" max="1" width="45.7109375" style="19" customWidth="1"/>
+    <col min="2" max="3" width="30.7109375" style="19" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="19" customWidth="1"/>
+    <col min="5" max="6" width="25.7109375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
@@ -11920,7 +12478,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -11941,7 +12499,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>8</v>
       </c>
@@ -11962,7 +12520,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -11983,7 +12541,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
@@ -12004,7 +12562,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -12025,7 +12583,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>12</v>
       </c>
@@ -12046,7 +12604,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -12067,7 +12625,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>14</v>
       </c>
@@ -12088,7 +12646,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -12109,7 +12667,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>16</v>
       </c>
@@ -12126,7 +12684,7 @@
       <c r="F11" s="29"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>17</v>
       </c>
@@ -12147,7 +12705,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>18</v>
       </c>
@@ -12168,7 +12726,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>19</v>
       </c>
@@ -12189,7 +12747,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>20</v>
       </c>
@@ -12210,7 +12768,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -12231,7 +12789,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>22</v>
       </c>
@@ -12252,7 +12810,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -12273,7 +12831,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>24</v>
       </c>
@@ -12294,7 +12852,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -12315,7 +12873,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>26</v>
       </c>
@@ -12336,7 +12894,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -12357,7 +12915,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>28</v>
       </c>
@@ -12378,7 +12936,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -12399,7 +12957,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>30</v>
       </c>
@@ -12420,7 +12978,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -12437,7 +12995,7 @@
       <c r="F26" s="28"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
         <v>32</v>
       </c>
@@ -12458,7 +13016,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
@@ -12479,7 +13037,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>34</v>
       </c>
@@ -12500,7 +13058,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
@@ -12521,7 +13079,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>36</v>
       </c>
@@ -12542,7 +13100,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -12563,7 +13121,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>38</v>
       </c>
@@ -12584,7 +13142,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
@@ -12605,7 +13163,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
@@ -12626,7 +13184,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
@@ -12647,7 +13205,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
         <v>42</v>
       </c>
@@ -12668,7 +13226,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
@@ -12689,7 +13247,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
         <v>44</v>
       </c>
@@ -12710,7 +13268,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
         <v>45</v>
       </c>
@@ -12731,7 +13289,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
         <v>46</v>
       </c>
@@ -12752,7 +13310,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>47</v>
       </c>
@@ -12773,7 +13331,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="24" t="s">
         <v>48</v>
       </c>
@@ -12790,7 +13348,7 @@
       <c r="F43" s="31"/>
       <c r="G43" s="9"/>
     </row>
-    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
         <v>49</v>
       </c>
@@ -12811,7 +13369,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
@@ -12832,7 +13390,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
         <v>51</v>
       </c>
@@ -12853,7 +13411,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
@@ -12874,7 +13432,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
         <v>53</v>
       </c>
@@ -12895,7 +13453,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
@@ -12916,7 +13474,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
         <v>55</v>
       </c>
@@ -12937,7 +13495,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
@@ -12958,7 +13516,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
         <v>57</v>
       </c>
@@ -12979,7 +13537,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
@@ -13000,7 +13558,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
         <v>59</v>
       </c>
@@ -13021,7 +13579,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
         <v>60</v>
       </c>
@@ -13075,17 +13633,17 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" style="19" customWidth="1"/>
-    <col min="2" max="3" width="30.6640625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" style="19" customWidth="1"/>
-    <col min="5" max="6" width="25.6640625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="28.6640625" style="19" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="19"/>
+    <col min="1" max="1" width="45.7109375" style="19" customWidth="1"/>
+    <col min="2" max="3" width="30.7109375" style="19" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="19" customWidth="1"/>
+    <col min="5" max="6" width="25.7109375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
@@ -13108,7 +13666,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -13129,7 +13687,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>8</v>
       </c>
@@ -13150,7 +13708,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -13171,7 +13729,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
@@ -13192,7 +13750,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -13213,7 +13771,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>12</v>
       </c>
@@ -13234,7 +13792,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -13255,7 +13813,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>14</v>
       </c>
@@ -13276,7 +13834,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -13297,7 +13855,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>16</v>
       </c>
@@ -13318,7 +13876,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>17</v>
       </c>
@@ -13339,7 +13897,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>18</v>
       </c>
@@ -13360,7 +13918,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>19</v>
       </c>
@@ -13381,7 +13939,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>20</v>
       </c>
@@ -13402,7 +13960,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -13423,7 +13981,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>22</v>
       </c>
@@ -13444,7 +14002,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -13465,7 +14023,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>24</v>
       </c>
@@ -13486,7 +14044,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -13507,7 +14065,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>26</v>
       </c>
@@ -13528,7 +14086,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -13549,7 +14107,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>28</v>
       </c>
@@ -13570,7 +14128,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -13591,7 +14149,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>30</v>
       </c>
@@ -13612,7 +14170,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -13629,7 +14187,7 @@
       <c r="F26" s="28"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
         <v>32</v>
       </c>
@@ -13650,7 +14208,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
@@ -13671,7 +14229,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>34</v>
       </c>
@@ -13692,7 +14250,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
@@ -13713,7 +14271,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>36</v>
       </c>
@@ -13734,7 +14292,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -13755,7 +14313,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>38</v>
       </c>
@@ -13776,7 +14334,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
@@ -13797,7 +14355,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
@@ -13818,7 +14376,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
@@ -13839,7 +14397,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
         <v>42</v>
       </c>
@@ -13860,7 +14418,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
@@ -13881,7 +14439,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
         <v>44</v>
       </c>
@@ -13902,7 +14460,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
         <v>45</v>
       </c>
@@ -13923,7 +14481,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
         <v>46</v>
       </c>
@@ -13940,7 +14498,7 @@
       <c r="F41" s="31"/>
       <c r="G41" s="9"/>
     </row>
-    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>47</v>
       </c>
@@ -13961,7 +14519,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="24" t="s">
         <v>48</v>
       </c>
@@ -13978,7 +14536,7 @@
       <c r="F43" s="31"/>
       <c r="G43" s="9"/>
     </row>
-    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
         <v>49</v>
       </c>
@@ -13999,7 +14557,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
@@ -14020,7 +14578,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
         <v>51</v>
       </c>
@@ -14041,7 +14599,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
@@ -14062,7 +14620,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
         <v>53</v>
       </c>
@@ -14083,7 +14641,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
@@ -14104,7 +14662,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
         <v>55</v>
       </c>
@@ -14125,7 +14683,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
@@ -14146,7 +14704,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
         <v>57</v>
       </c>
@@ -14167,7 +14725,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
@@ -14188,7 +14746,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
         <v>59</v>
       </c>
@@ -14209,7 +14767,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
         <v>60</v>
       </c>
@@ -14263,17 +14821,17 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" style="19" customWidth="1"/>
-    <col min="2" max="3" width="30.6640625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" style="19" customWidth="1"/>
-    <col min="5" max="6" width="25.6640625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="28.6640625" style="19" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="19"/>
+    <col min="1" max="1" width="45.7109375" style="19" customWidth="1"/>
+    <col min="2" max="3" width="30.7109375" style="19" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="19" customWidth="1"/>
+    <col min="5" max="6" width="25.7109375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
@@ -14296,7 +14854,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -14317,7 +14875,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>8</v>
       </c>
@@ -14338,7 +14896,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -14359,7 +14917,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
@@ -14380,7 +14938,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -14401,7 +14959,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>12</v>
       </c>
@@ -14422,7 +14980,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -14443,7 +15001,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>14</v>
       </c>
@@ -14464,7 +15022,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -14485,7 +15043,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>16</v>
       </c>
@@ -14502,7 +15060,7 @@
       <c r="F11" s="29"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>17</v>
       </c>
@@ -14523,7 +15081,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>18</v>
       </c>
@@ -14544,7 +15102,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>19</v>
       </c>
@@ -14565,7 +15123,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>20</v>
       </c>
@@ -14586,7 +15144,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -14607,7 +15165,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>22</v>
       </c>
@@ -14628,7 +15186,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -14649,7 +15207,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>24</v>
       </c>
@@ -14670,7 +15228,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -14691,7 +15249,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>26</v>
       </c>
@@ -14712,7 +15270,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -14733,7 +15291,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>28</v>
       </c>
@@ -14754,7 +15312,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -14775,7 +15333,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>30</v>
       </c>
@@ -14796,7 +15354,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -14813,7 +15371,7 @@
       <c r="F26" s="28"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
         <v>32</v>
       </c>
@@ -14834,7 +15392,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
@@ -14855,7 +15413,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>34</v>
       </c>
@@ -14876,7 +15434,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
@@ -14897,7 +15455,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>36</v>
       </c>
@@ -14918,7 +15476,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -14939,7 +15497,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>38</v>
       </c>
@@ -14960,7 +15518,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
@@ -14981,7 +15539,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
@@ -15002,7 +15560,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
@@ -15023,7 +15581,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
         <v>42</v>
       </c>
@@ -15044,7 +15602,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
@@ -15065,7 +15623,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
         <v>44</v>
       </c>
@@ -15086,7 +15644,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
         <v>45</v>
       </c>
@@ -15107,7 +15665,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
         <v>46</v>
       </c>
@@ -15128,7 +15686,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>47</v>
       </c>
@@ -15149,7 +15707,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="24" t="s">
         <v>48</v>
       </c>
@@ -15166,7 +15724,7 @@
       <c r="F43" s="31"/>
       <c r="G43" s="9"/>
     </row>
-    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
         <v>49</v>
       </c>
@@ -15187,7 +15745,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
@@ -15208,7 +15766,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
         <v>51</v>
       </c>
@@ -15229,7 +15787,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
@@ -15250,7 +15808,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
         <v>53</v>
       </c>
@@ -15271,7 +15829,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
@@ -15292,7 +15850,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
         <v>55</v>
       </c>
@@ -15313,7 +15871,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
@@ -15334,7 +15892,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
         <v>57</v>
       </c>
@@ -15355,7 +15913,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
@@ -15376,7 +15934,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
         <v>59</v>
       </c>
@@ -15397,7 +15955,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
         <v>60</v>
       </c>

--- a/statistics_files/2024/2024_99_g_net_borrower_lender.xlsx
+++ b/statistics_files/2024/2024_99_g_net_borrower_lender.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\github\next_statistics\statistics_files\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9588CF81-CE57-41FA-8B90-DA1333C39480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9DFBEBF-063E-4058-9F3B-639F86FC816A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="673" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="264">
   <si>
     <t>NET</t>
   </si>
@@ -838,6 +838,21 @@
   </si>
   <si>
     <t>0.20 : 1</t>
+  </si>
+  <si>
+    <t>1.71 : 1</t>
+  </si>
+  <si>
+    <t>0.58 : 1</t>
+  </si>
+  <si>
+    <t>1.00 : 1</t>
+  </si>
+  <si>
+    <t>2.30 : 1</t>
+  </si>
+  <si>
+    <t>2.08 : 1</t>
   </si>
 </sst>
 </file>
@@ -1747,15 +1762,15 @@
       </c>
       <c r="B2" s="2">
         <f>January!B2+February!B2+March!B2+April!B2+May!B2+June!B2+July!B2+August!B2+September!B2+October!B2+November!B2+December!B2</f>
-        <v>12673</v>
+        <v>14389</v>
       </c>
       <c r="C2" s="2">
         <f>January!C2+February!C2+March!C2+April!C2+May!C2+June!C2+July!C2+August!C2+September!C2+October!C2+November!C2+December!C2</f>
-        <v>10836</v>
+        <v>12130</v>
       </c>
       <c r="D2" s="2">
         <f>January!D2+February!D2+March!D2+April!D2+May!D2+June!D2+July!D2+August!D2+September!D2+October!D2+November!D2+December!D2</f>
-        <v>1837</v>
+        <v>2259</v>
       </c>
       <c r="E2" s="28" t="str">
         <f t="shared" ref="E2:E33" si="0">IF(D2 &gt; 0, "We borrowed more than we lent this year", "")</f>
@@ -1767,7 +1782,7 @@
       </c>
       <c r="G2" s="3" t="str">
         <f t="shared" ref="G2:G33" si="2">IF(ISERROR(ROUND(B2/C2,2)&amp;" : 1"), "", ROUND(B2/C2,2)&amp;" : 1")</f>
-        <v>1.17 : 1</v>
+        <v>1.19 : 1</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1776,15 +1791,15 @@
       </c>
       <c r="B3" s="4">
         <f>January!B3+February!B3+March!B3+April!B3+May!B3+June!B3+July!B3+August!B3+September!B3+October!B3+November!B3+December!B3</f>
-        <v>5634</v>
+        <v>6346</v>
       </c>
       <c r="C3" s="4">
         <f>January!C3+February!C3+March!C3+April!C3+May!C3+June!C3+July!C3+August!C3+September!C3+October!C3+November!C3+December!C3</f>
-        <v>3916</v>
+        <v>4332</v>
       </c>
       <c r="D3" s="4">
         <f>January!D3+February!D3+March!D3+April!D3+May!D3+June!D3+July!D3+August!D3+September!D3+October!D3+November!D3+December!D3</f>
-        <v>1718</v>
+        <v>2014</v>
       </c>
       <c r="E3" s="29" t="str">
         <f t="shared" si="0"/>
@@ -1796,7 +1811,7 @@
       </c>
       <c r="G3" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>1.44 : 1</v>
+        <v>1.46 : 1</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1805,27 +1820,27 @@
       </c>
       <c r="B4" s="2">
         <f>January!B4+February!B4+March!B4+April!B4+May!B4+June!B4+July!B4+August!B4+September!B4+October!B4+November!B4+December!B4</f>
-        <v>10582</v>
+        <v>11795</v>
       </c>
       <c r="C4" s="2">
         <f>January!C4+February!C4+March!C4+April!C4+May!C4+June!C4+July!C4+August!C4+September!C4+October!C4+November!C4+December!C4</f>
-        <v>10508</v>
+        <v>11967</v>
       </c>
       <c r="D4" s="2">
         <f>January!D4+February!D4+March!D4+April!D4+May!D4+June!D4+July!D4+August!D4+September!D4+October!D4+November!D4+December!D4</f>
-        <v>74</v>
+        <v>-172</v>
       </c>
       <c r="E4" s="28" t="str">
         <f t="shared" si="0"/>
-        <v>We borrowed more than we lent this year</v>
+        <v/>
       </c>
       <c r="F4" s="28" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>We lent more than we borrowed this year</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>1.01 : 1</v>
+        <v>0.99 : 1</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1834,15 +1849,15 @@
       </c>
       <c r="B5" s="4">
         <f>January!B5+February!B5+March!B5+April!B5+May!B5+June!B5+July!B5+August!B5+September!B5+October!B5+November!B5+December!B5</f>
-        <v>401</v>
+        <v>434</v>
       </c>
       <c r="C5" s="4">
         <f>January!C5+February!C5+March!C5+April!C5+May!C5+June!C5+July!C5+August!C5+September!C5+October!C5+November!C5+December!C5</f>
-        <v>1122</v>
+        <v>1279</v>
       </c>
       <c r="D5" s="4">
         <f>January!D5+February!D5+March!D5+April!D5+May!D5+June!D5+July!D5+August!D5+September!D5+October!D5+November!D5+December!D5</f>
-        <v>-721</v>
+        <v>-845</v>
       </c>
       <c r="E5" s="29" t="str">
         <f t="shared" si="0"/>
@@ -1854,7 +1869,7 @@
       </c>
       <c r="G5" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>0.36 : 1</v>
+        <v>0.34 : 1</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1863,15 +1878,15 @@
       </c>
       <c r="B6" s="2">
         <f>January!B6+February!B6+March!B6+April!B6+May!B6+June!B6+July!B6+August!B6+September!B6+October!B6+November!B6+December!B6</f>
-        <v>9478</v>
+        <v>10736</v>
       </c>
       <c r="C6" s="2">
         <f>January!C6+February!C6+March!C6+April!C6+May!C6+June!C6+July!C6+August!C6+September!C6+October!C6+November!C6+December!C6</f>
-        <v>12797</v>
+        <v>14346</v>
       </c>
       <c r="D6" s="2">
         <f>January!D6+February!D6+March!D6+April!D6+May!D6+June!D6+July!D6+August!D6+September!D6+October!D6+November!D6+December!D6</f>
-        <v>-3319</v>
+        <v>-3610</v>
       </c>
       <c r="E6" s="28" t="str">
         <f t="shared" si="0"/>
@@ -1883,7 +1898,7 @@
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.74 : 1</v>
+        <v>0.75 : 1</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1892,15 +1907,15 @@
       </c>
       <c r="B7" s="4">
         <f>January!B7+February!B7+March!B7+April!B7+May!B7+June!B7+July!B7+August!B7+September!B7+October!B7+November!B7+December!B7</f>
-        <v>2597</v>
+        <v>2772</v>
       </c>
       <c r="C7" s="4">
         <f>January!C7+February!C7+March!C7+April!C7+May!C7+June!C7+July!C7+August!C7+September!C7+October!C7+November!C7+December!C7</f>
-        <v>1484</v>
+        <v>1675</v>
       </c>
       <c r="D7" s="4">
         <f>January!D7+February!D7+March!D7+April!D7+May!D7+June!D7+July!D7+August!D7+September!D7+October!D7+November!D7+December!D7</f>
-        <v>1113</v>
+        <v>1097</v>
       </c>
       <c r="E7" s="29" t="str">
         <f t="shared" si="0"/>
@@ -1912,7 +1927,7 @@
       </c>
       <c r="G7" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>1.75 : 1</v>
+        <v>1.65 : 1</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1921,15 +1936,15 @@
       </c>
       <c r="B8" s="2">
         <f>January!B8+February!B8+March!B8+April!B8+May!B8+June!B8+July!B8+August!B8+September!B8+October!B8+November!B8+December!B8</f>
-        <v>1157</v>
+        <v>1338</v>
       </c>
       <c r="C8" s="2">
         <f>January!C8+February!C8+March!C8+April!C8+May!C8+June!C8+July!C8+August!C8+September!C8+October!C8+November!C8+December!C8</f>
-        <v>1698</v>
+        <v>1905</v>
       </c>
       <c r="D8" s="2">
         <f>January!D8+February!D8+March!D8+April!D8+May!D8+June!D8+July!D8+August!D8+September!D8+October!D8+November!D8+December!D8</f>
-        <v>-541</v>
+        <v>-567</v>
       </c>
       <c r="E8" s="28" t="str">
         <f t="shared" si="0"/>
@@ -1941,7 +1956,7 @@
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.68 : 1</v>
+        <v>0.7 : 1</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1950,15 +1965,15 @@
       </c>
       <c r="B9" s="4">
         <f>January!B9+February!B9+March!B9+April!B9+May!B9+June!B9+July!B9+August!B9+September!B9+October!B9+November!B9+December!B9</f>
-        <v>393</v>
+        <v>448</v>
       </c>
       <c r="C9" s="4">
         <f>January!C9+February!C9+March!C9+April!C9+May!C9+June!C9+July!C9+August!C9+September!C9+October!C9+November!C9+December!C9</f>
-        <v>632</v>
+        <v>709</v>
       </c>
       <c r="D9" s="4">
         <f>January!D9+February!D9+March!D9+April!D9+May!D9+June!D9+July!D9+August!D9+September!D9+October!D9+November!D9+December!D9</f>
-        <v>-239</v>
+        <v>-261</v>
       </c>
       <c r="E9" s="29" t="str">
         <f t="shared" si="0"/>
@@ -1970,7 +1985,7 @@
       </c>
       <c r="G9" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>0.62 : 1</v>
+        <v>0.63 : 1</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1983,11 +1998,11 @@
       </c>
       <c r="C10" s="2">
         <f>January!C10+February!C10+March!C10+April!C10+May!C10+June!C10+July!C10+August!C10+September!C10+October!C10+November!C10+December!C10</f>
-        <v>461</v>
+        <v>503</v>
       </c>
       <c r="D10" s="2">
         <f>January!D10+February!D10+March!D10+April!D10+May!D10+June!D10+July!D10+August!D10+September!D10+October!D10+November!D10+December!D10</f>
-        <v>-442</v>
+        <v>-484</v>
       </c>
       <c r="E10" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2037,15 +2052,15 @@
       </c>
       <c r="B12" s="6">
         <f>January!B12+February!B12+March!B12+April!B12+May!B12+June!B12+July!B12+August!B12+September!B12+October!B12+November!B12+December!B12</f>
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="C12" s="6">
         <f>January!C12+February!C12+March!C12+April!C12+May!C12+June!C12+July!C12+August!C12+September!C12+October!C12+November!C12+December!C12</f>
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="D12" s="6">
         <f>January!D12+February!D12+March!D12+April!D12+May!D12+June!D12+July!D12+August!D12+September!D12+October!D12+November!D12+December!D12</f>
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E12" s="30" t="str">
         <f t="shared" si="0"/>
@@ -2057,7 +2072,7 @@
       </c>
       <c r="G12" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>1.64 : 1</v>
+        <v>1.63 : 1</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2066,15 +2081,15 @@
       </c>
       <c r="B13" s="6">
         <f>January!B13+February!B13+March!B13+April!B13+May!B13+June!B13+July!B13+August!B13+September!B13+October!B13+November!B13+December!B13</f>
-        <v>1319</v>
+        <v>1430</v>
       </c>
       <c r="C13" s="6">
         <f>January!C13+February!C13+March!C13+April!C13+May!C13+June!C13+July!C13+August!C13+September!C13+October!C13+November!C13+December!C13</f>
-        <v>750</v>
+        <v>825</v>
       </c>
       <c r="D13" s="6">
         <f>January!D13+February!D13+March!D13+April!D13+May!D13+June!D13+July!D13+August!D13+September!D13+October!D13+November!D13+December!D13</f>
-        <v>569</v>
+        <v>605</v>
       </c>
       <c r="E13" s="30" t="str">
         <f t="shared" si="0"/>
@@ -2086,7 +2101,7 @@
       </c>
       <c r="G13" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>1.76 : 1</v>
+        <v>1.73 : 1</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2095,15 +2110,15 @@
       </c>
       <c r="B14" s="6">
         <f>January!B14+February!B14+March!B14+April!B14+May!B14+June!B14+July!B14+August!B14+September!B14+October!B14+November!B14+December!B14</f>
-        <v>1204</v>
+        <v>1396</v>
       </c>
       <c r="C14" s="6">
         <f>January!C14+February!C14+March!C14+April!C14+May!C14+June!C14+July!C14+August!C14+September!C14+October!C14+November!C14+December!C14</f>
-        <v>2286</v>
+        <v>2521</v>
       </c>
       <c r="D14" s="6">
         <f>January!D14+February!D14+March!D14+April!D14+May!D14+June!D14+July!D14+August!D14+September!D14+October!D14+November!D14+December!D14</f>
-        <v>-1082</v>
+        <v>-1125</v>
       </c>
       <c r="E14" s="30" t="str">
         <f t="shared" si="0"/>
@@ -2115,7 +2130,7 @@
       </c>
       <c r="G14" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>0.53 : 1</v>
+        <v>0.55 : 1</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2124,15 +2139,15 @@
       </c>
       <c r="B15" s="6">
         <f>January!B15+February!B15+March!B15+April!B15+May!B15+June!B15+July!B15+August!B15+September!B15+October!B15+November!B15+December!B15</f>
-        <v>558</v>
+        <v>613</v>
       </c>
       <c r="C15" s="6">
         <f>January!C15+February!C15+March!C15+April!C15+May!C15+June!C15+July!C15+August!C15+September!C15+October!C15+November!C15+December!C15</f>
-        <v>1253</v>
+        <v>1424</v>
       </c>
       <c r="D15" s="6">
         <f>January!D15+February!D15+March!D15+April!D15+May!D15+June!D15+July!D15+August!D15+September!D15+October!D15+November!D15+December!D15</f>
-        <v>-695</v>
+        <v>-811</v>
       </c>
       <c r="E15" s="30" t="str">
         <f t="shared" si="0"/>
@@ -2144,7 +2159,7 @@
       </c>
       <c r="G15" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>0.45 : 1</v>
+        <v>0.43 : 1</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2153,15 +2168,15 @@
       </c>
       <c r="B16" s="2">
         <f>January!B16+February!B16+March!B16+April!B16+May!B16+June!B16+July!B16+August!B16+September!B16+October!B16+November!B16+December!B16</f>
-        <v>569</v>
+        <v>607</v>
       </c>
       <c r="C16" s="2">
         <f>January!C16+February!C16+March!C16+April!C16+May!C16+June!C16+July!C16+August!C16+September!C16+October!C16+November!C16+December!C16</f>
-        <v>1329</v>
+        <v>1463</v>
       </c>
       <c r="D16" s="2">
         <f>January!D16+February!D16+March!D16+April!D16+May!D16+June!D16+July!D16+August!D16+September!D16+October!D16+November!D16+December!D16</f>
-        <v>-760</v>
+        <v>-856</v>
       </c>
       <c r="E16" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2173,7 +2188,7 @@
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.43 : 1</v>
+        <v>0.41 : 1</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2182,15 +2197,15 @@
       </c>
       <c r="B17" s="4">
         <f>January!B17+February!B17+March!B17+April!B17+May!B17+June!B17+July!B17+August!B17+September!B17+October!B17+November!B17+December!B17</f>
-        <v>5369</v>
+        <v>6070</v>
       </c>
       <c r="C17" s="4">
         <f>January!C17+February!C17+March!C17+April!C17+May!C17+June!C17+July!C17+August!C17+September!C17+October!C17+November!C17+December!C17</f>
-        <v>3766</v>
+        <v>4200</v>
       </c>
       <c r="D17" s="4">
         <f>January!D17+February!D17+March!D17+April!D17+May!D17+June!D17+July!D17+August!D17+September!D17+October!D17+November!D17+December!D17</f>
-        <v>1603</v>
+        <v>1870</v>
       </c>
       <c r="E17" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2202,7 +2217,7 @@
       </c>
       <c r="G17" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>1.43 : 1</v>
+        <v>1.45 : 1</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2211,15 +2226,15 @@
       </c>
       <c r="B18" s="2">
         <f>January!B18+February!B18+March!B18+April!B18+May!B18+June!B18+July!B18+August!B18+September!B18+October!B18+November!B18+December!B18</f>
-        <v>678</v>
+        <v>771</v>
       </c>
       <c r="C18" s="2">
         <f>January!C18+February!C18+March!C18+April!C18+May!C18+June!C18+July!C18+August!C18+September!C18+October!C18+November!C18+December!C18</f>
-        <v>921</v>
+        <v>1081</v>
       </c>
       <c r="D18" s="2">
         <f>January!D18+February!D18+March!D18+April!D18+May!D18+June!D18+July!D18+August!D18+September!D18+October!D18+November!D18+December!D18</f>
-        <v>-243</v>
+        <v>-310</v>
       </c>
       <c r="E18" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2231,7 +2246,7 @@
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.74 : 1</v>
+        <v>0.71 : 1</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2240,15 +2255,15 @@
       </c>
       <c r="B19" s="4">
         <f>January!B19+February!B19+March!B19+April!B19+May!B19+June!B19+July!B19+August!B19+September!B19+October!B19+November!B19+December!B19</f>
-        <v>4836</v>
+        <v>5451</v>
       </c>
       <c r="C19" s="4">
         <f>January!C19+February!C19+March!C19+April!C19+May!C19+June!C19+July!C19+August!C19+September!C19+October!C19+November!C19+December!C19</f>
-        <v>3951</v>
+        <v>4406</v>
       </c>
       <c r="D19" s="4">
         <f>January!D19+February!D19+March!D19+April!D19+May!D19+June!D19+July!D19+August!D19+September!D19+October!D19+November!D19+December!D19</f>
-        <v>885</v>
+        <v>1045</v>
       </c>
       <c r="E19" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2260,7 +2275,7 @@
       </c>
       <c r="G19" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>1.22 : 1</v>
+        <v>1.24 : 1</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2269,15 +2284,15 @@
       </c>
       <c r="B20" s="2">
         <f>January!B20+February!B20+March!B20+April!B20+May!B20+June!B20+July!B20+August!B20+September!B20+October!B20+November!B20+December!B20</f>
-        <v>86</v>
+        <v>135</v>
       </c>
       <c r="C20" s="2">
         <f>January!C20+February!C20+March!C20+April!C20+May!C20+June!C20+July!C20+August!C20+September!C20+October!C20+November!C20+December!C20</f>
-        <v>673</v>
+        <v>742</v>
       </c>
       <c r="D20" s="2">
         <f>January!D20+February!D20+March!D20+April!D20+May!D20+June!D20+July!D20+August!D20+September!D20+October!D20+November!D20+December!D20</f>
-        <v>-587</v>
+        <v>-607</v>
       </c>
       <c r="E20" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2289,7 +2304,7 @@
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.13 : 1</v>
+        <v>0.18 : 1</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2298,15 +2313,15 @@
       </c>
       <c r="B21" s="4">
         <f>January!B21+February!B21+March!B21+April!B21+May!B21+June!B21+July!B21+August!B21+September!B21+October!B21+November!B21+December!B21</f>
-        <v>4409</v>
+        <v>4966</v>
       </c>
       <c r="C21" s="4">
         <f>January!C21+February!C21+March!C21+April!C21+May!C21+June!C21+July!C21+August!C21+September!C21+October!C21+November!C21+December!C21</f>
-        <v>3160</v>
+        <v>3521</v>
       </c>
       <c r="D21" s="4">
         <f>January!D21+February!D21+March!D21+April!D21+May!D21+June!D21+July!D21+August!D21+September!D21+October!D21+November!D21+December!D21</f>
-        <v>1249</v>
+        <v>1445</v>
       </c>
       <c r="E21" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2318,7 +2333,7 @@
       </c>
       <c r="G21" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>1.4 : 1</v>
+        <v>1.41 : 1</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2327,15 +2342,15 @@
       </c>
       <c r="B22" s="2">
         <f>January!B22+February!B22+March!B22+April!B22+May!B22+June!B22+July!B22+August!B22+September!B22+October!B22+November!B22+December!B22</f>
-        <v>234</v>
+        <v>287</v>
       </c>
       <c r="C22" s="2">
         <f>January!C22+February!C22+March!C22+April!C22+May!C22+June!C22+July!C22+August!C22+September!C22+October!C22+November!C22+December!C22</f>
-        <v>1016</v>
+        <v>1118</v>
       </c>
       <c r="D22" s="2">
         <f>January!D22+February!D22+March!D22+April!D22+May!D22+June!D22+July!D22+August!D22+September!D22+October!D22+November!D22+December!D22</f>
-        <v>-782</v>
+        <v>-831</v>
       </c>
       <c r="E22" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2347,7 +2362,7 @@
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.23 : 1</v>
+        <v>0.26 : 1</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2356,15 +2371,15 @@
       </c>
       <c r="B23" s="4">
         <f>January!B23+February!B23+March!B23+April!B23+May!B23+June!B23+July!B23+August!B23+September!B23+October!B23+November!B23+December!B23</f>
-        <v>5907</v>
+        <v>6542</v>
       </c>
       <c r="C23" s="4">
         <f>January!C23+February!C23+March!C23+April!C23+May!C23+June!C23+July!C23+August!C23+September!C23+October!C23+November!C23+December!C23</f>
-        <v>3219</v>
+        <v>3563</v>
       </c>
       <c r="D23" s="4">
         <f>January!D23+February!D23+March!D23+April!D23+May!D23+June!D23+July!D23+August!D23+September!D23+October!D23+November!D23+December!D23</f>
-        <v>2688</v>
+        <v>2979</v>
       </c>
       <c r="E23" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2385,15 +2400,15 @@
       </c>
       <c r="B24" s="2">
         <f>January!B24+February!B24+March!B24+April!B24+May!B24+June!B24+July!B24+August!B24+September!B24+October!B24+November!B24+December!B24</f>
-        <v>15035</v>
+        <v>16658</v>
       </c>
       <c r="C24" s="2">
         <f>January!C24+February!C24+March!C24+April!C24+May!C24+June!C24+July!C24+August!C24+September!C24+October!C24+November!C24+December!C24</f>
-        <v>10791</v>
+        <v>11993</v>
       </c>
       <c r="D24" s="2">
         <f>January!D24+February!D24+March!D24+April!D24+May!D24+June!D24+July!D24+August!D24+September!D24+October!D24+November!D24+December!D24</f>
-        <v>4244</v>
+        <v>4665</v>
       </c>
       <c r="E24" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2414,15 +2429,15 @@
       </c>
       <c r="B25" s="4">
         <f>January!B25+February!B25+March!B25+April!B25+May!B25+June!B25+July!B25+August!B25+September!B25+October!B25+November!B25+December!B25</f>
-        <v>1305</v>
+        <v>1474</v>
       </c>
       <c r="C25" s="4">
         <f>January!C25+February!C25+March!C25+April!C25+May!C25+June!C25+July!C25+August!C25+September!C25+October!C25+November!C25+December!C25</f>
-        <v>3341</v>
+        <v>3875</v>
       </c>
       <c r="D25" s="4">
         <f>January!D25+February!D25+March!D25+April!D25+May!D25+June!D25+July!D25+August!D25+September!D25+October!D25+November!D25+December!D25</f>
-        <v>-2036</v>
+        <v>-2401</v>
       </c>
       <c r="E25" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2434,7 +2449,7 @@
       </c>
       <c r="G25" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>0.39 : 1</v>
+        <v>0.38 : 1</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2472,15 +2487,15 @@
       </c>
       <c r="B27" s="4">
         <f>January!B27+February!B27+March!B27+April!B27+May!B27+June!B27+July!B27+August!B27+September!B27+October!B27+November!B27+December!B27</f>
-        <v>2161</v>
+        <v>2413</v>
       </c>
       <c r="C27" s="4">
         <f>January!C27+February!C27+March!C27+April!C27+May!C27+June!C27+July!C27+August!C27+September!C27+October!C27+November!C27+December!C27</f>
-        <v>1798</v>
+        <v>2019</v>
       </c>
       <c r="D27" s="4">
         <f>January!D27+February!D27+March!D27+April!D27+May!D27+June!D27+July!D27+August!D27+September!D27+October!D27+November!D27+December!D27</f>
-        <v>363</v>
+        <v>394</v>
       </c>
       <c r="E27" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2501,15 +2516,15 @@
       </c>
       <c r="B28" s="2">
         <f>January!B28+February!B28+March!B28+April!B28+May!B28+June!B28+July!B28+August!B28+September!B28+October!B28+November!B28+December!B28</f>
-        <v>741</v>
+        <v>892</v>
       </c>
       <c r="C28" s="2">
         <f>January!C28+February!C28+March!C28+April!C28+May!C28+June!C28+July!C28+August!C28+September!C28+October!C28+November!C28+December!C28</f>
-        <v>865</v>
+        <v>955</v>
       </c>
       <c r="D28" s="2">
         <f>January!D28+February!D28+March!D28+April!D28+May!D28+June!D28+July!D28+August!D28+September!D28+October!D28+November!D28+December!D28</f>
-        <v>-124</v>
+        <v>-63</v>
       </c>
       <c r="E28" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2521,7 +2536,7 @@
       </c>
       <c r="G28" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.86 : 1</v>
+        <v>0.93 : 1</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2530,15 +2545,15 @@
       </c>
       <c r="B29" s="4">
         <f>January!B29+February!B29+March!B29+April!B29+May!B29+June!B29+July!B29+August!B29+September!B29+October!B29+November!B29+December!B29</f>
-        <v>4845</v>
+        <v>5546</v>
       </c>
       <c r="C29" s="4">
         <f>January!C29+February!C29+March!C29+April!C29+May!C29+June!C29+July!C29+August!C29+September!C29+October!C29+November!C29+December!C29</f>
-        <v>3788</v>
+        <v>4259</v>
       </c>
       <c r="D29" s="4">
         <f>January!D29+February!D29+March!D29+April!D29+May!D29+June!D29+July!D29+August!D29+September!D29+October!D29+November!D29+December!D29</f>
-        <v>1057</v>
+        <v>1287</v>
       </c>
       <c r="E29" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2550,7 +2565,7 @@
       </c>
       <c r="G29" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>1.28 : 1</v>
+        <v>1.3 : 1</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2559,15 +2574,15 @@
       </c>
       <c r="B30" s="2">
         <f>January!B30+February!B30+March!B30+April!B30+May!B30+June!B30+July!B30+August!B30+September!B30+October!B30+November!B30+December!B30</f>
-        <v>383</v>
+        <v>438</v>
       </c>
       <c r="C30" s="2">
         <f>January!C30+February!C30+March!C30+April!C30+May!C30+June!C30+July!C30+August!C30+September!C30+October!C30+November!C30+December!C30</f>
-        <v>191</v>
+        <v>224</v>
       </c>
       <c r="D30" s="2">
         <f>January!D30+February!D30+March!D30+April!D30+May!D30+June!D30+July!D30+August!D30+September!D30+October!D30+November!D30+December!D30</f>
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="E30" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2579,7 +2594,7 @@
       </c>
       <c r="G30" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>2.01 : 1</v>
+        <v>1.96 : 1</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2588,15 +2603,15 @@
       </c>
       <c r="B31" s="4">
         <f>January!B31+February!B31+March!B31+April!B31+May!B31+June!B31+July!B31+August!B31+September!B31+October!B31+November!B31+December!B31</f>
-        <v>472</v>
+        <v>553</v>
       </c>
       <c r="C31" s="4">
         <f>January!C31+February!C31+March!C31+April!C31+May!C31+June!C31+July!C31+August!C31+September!C31+October!C31+November!C31+December!C31</f>
-        <v>2617</v>
+        <v>2903</v>
       </c>
       <c r="D31" s="4">
         <f>January!D31+February!D31+March!D31+April!D31+May!D31+June!D31+July!D31+August!D31+September!D31+October!D31+November!D31+December!D31</f>
-        <v>-2145</v>
+        <v>-2350</v>
       </c>
       <c r="E31" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2608,7 +2623,7 @@
       </c>
       <c r="G31" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>0.18 : 1</v>
+        <v>0.19 : 1</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2617,15 +2632,15 @@
       </c>
       <c r="B32" s="2">
         <f>January!B32+February!B32+March!B32+April!B32+May!B32+June!B32+July!B32+August!B32+September!B32+October!B32+November!B32+December!B32</f>
-        <v>3851</v>
+        <v>4294</v>
       </c>
       <c r="C32" s="2">
         <f>January!C32+February!C32+March!C32+April!C32+May!C32+June!C32+July!C32+August!C32+September!C32+October!C32+November!C32+December!C32</f>
-        <v>5030</v>
+        <v>5640</v>
       </c>
       <c r="D32" s="2">
         <f>January!D32+February!D32+March!D32+April!D32+May!D32+June!D32+July!D32+August!D32+September!D32+October!D32+November!D32+December!D32</f>
-        <v>-1179</v>
+        <v>-1346</v>
       </c>
       <c r="E32" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2637,7 +2652,7 @@
       </c>
       <c r="G32" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.77 : 1</v>
+        <v>0.76 : 1</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2646,15 +2661,15 @@
       </c>
       <c r="B33" s="4">
         <f>January!B33+February!B33+March!B33+April!B33+May!B33+June!B33+July!B33+August!B33+September!B33+October!B33+November!B33+December!B33</f>
-        <v>3200</v>
+        <v>3567</v>
       </c>
       <c r="C33" s="4">
         <f>January!C33+February!C33+March!C33+April!C33+May!C33+June!C33+July!C33+August!C33+September!C33+October!C33+November!C33+December!C33</f>
-        <v>5105</v>
+        <v>5617</v>
       </c>
       <c r="D33" s="4">
         <f>January!D33+February!D33+March!D33+April!D33+May!D33+June!D33+July!D33+August!D33+September!D33+October!D33+November!D33+December!D33</f>
-        <v>-1905</v>
+        <v>-2050</v>
       </c>
       <c r="E33" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2666,7 +2681,7 @@
       </c>
       <c r="G33" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>0.63 : 1</v>
+        <v>0.64 : 1</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2675,15 +2690,15 @@
       </c>
       <c r="B34" s="2">
         <f>January!B34+February!B34+March!B34+April!B34+May!B34+June!B34+July!B34+August!B34+September!B34+October!B34+November!B34+December!B34</f>
-        <v>1575</v>
+        <v>1760</v>
       </c>
       <c r="C34" s="2">
         <f>January!C34+February!C34+March!C34+April!C34+May!C34+June!C34+July!C34+August!C34+September!C34+October!C34+November!C34+December!C34</f>
-        <v>906</v>
+        <v>1043</v>
       </c>
       <c r="D34" s="2">
         <f>January!D34+February!D34+March!D34+April!D34+May!D34+June!D34+July!D34+August!D34+September!D34+October!D34+November!D34+December!D34</f>
-        <v>669</v>
+        <v>717</v>
       </c>
       <c r="E34" s="28" t="str">
         <f t="shared" ref="E34:E55" si="3">IF(D34 &gt; 0, "We borrowed more than we lent this year", "")</f>
@@ -2695,7 +2710,7 @@
       </c>
       <c r="G34" s="3" t="str">
         <f t="shared" ref="G34:G55" si="5">IF(ISERROR(ROUND(B34/C34,2)&amp;" : 1"), "", ROUND(B34/C34,2)&amp;" : 1")</f>
-        <v>1.74 : 1</v>
+        <v>1.69 : 1</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2704,15 +2719,15 @@
       </c>
       <c r="B35" s="4">
         <f>January!B35+February!B35+March!B35+April!B35+May!B35+June!B35+July!B35+August!B35+September!B35+October!B35+November!B35+December!B35</f>
-        <v>7599</v>
+        <v>8509</v>
       </c>
       <c r="C35" s="4">
         <f>January!C35+February!C35+March!C35+April!C35+May!C35+June!C35+July!C35+August!C35+September!C35+October!C35+November!C35+December!C35</f>
-        <v>10080</v>
+        <v>11380</v>
       </c>
       <c r="D35" s="4">
         <f>January!D35+February!D35+March!D35+April!D35+May!D35+June!D35+July!D35+August!D35+September!D35+October!D35+November!D35+December!D35</f>
-        <v>-2481</v>
+        <v>-2871</v>
       </c>
       <c r="E35" s="29" t="str">
         <f t="shared" si="3"/>
@@ -2733,15 +2748,15 @@
       </c>
       <c r="B36" s="2">
         <f>January!B36+February!B36+March!B36+April!B36+May!B36+June!B36+July!B36+August!B36+September!B36+October!B36+November!B36+December!B36</f>
-        <v>1746</v>
+        <v>1932</v>
       </c>
       <c r="C36" s="2">
         <f>January!C36+February!C36+March!C36+April!C36+May!C36+June!C36+July!C36+August!C36+September!C36+October!C36+November!C36+December!C36</f>
-        <v>4274</v>
+        <v>4846</v>
       </c>
       <c r="D36" s="2">
         <f>January!D36+February!D36+March!D36+April!D36+May!D36+June!D36+July!D36+August!D36+September!D36+October!D36+November!D36+December!D36</f>
-        <v>-2528</v>
+        <v>-2914</v>
       </c>
       <c r="E36" s="28" t="str">
         <f t="shared" si="3"/>
@@ -2753,7 +2768,7 @@
       </c>
       <c r="G36" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>0.41 : 1</v>
+        <v>0.4 : 1</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2762,15 +2777,15 @@
       </c>
       <c r="B37" s="4">
         <f>January!B37+February!B37+March!B37+April!B37+May!B37+June!B37+July!B37+August!B37+September!B37+October!B37+November!B37+December!B37</f>
-        <v>4273</v>
+        <v>4888</v>
       </c>
       <c r="C37" s="4">
         <f>January!C37+February!C37+March!C37+April!C37+May!C37+June!C37+July!C37+August!C37+September!C37+October!C37+November!C37+December!C37</f>
-        <v>2967</v>
+        <v>3456</v>
       </c>
       <c r="D37" s="4">
         <f>January!D37+February!D37+March!D37+April!D37+May!D37+June!D37+July!D37+August!D37+September!D37+October!D37+November!D37+December!D37</f>
-        <v>1306</v>
+        <v>1432</v>
       </c>
       <c r="E37" s="29" t="str">
         <f t="shared" si="3"/>
@@ -2782,7 +2797,7 @@
       </c>
       <c r="G37" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>1.44 : 1</v>
+        <v>1.41 : 1</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2791,15 +2806,15 @@
       </c>
       <c r="B38" s="2">
         <f>January!B38+February!B38+March!B38+April!B38+May!B38+June!B38+July!B38+August!B38+September!B38+October!B38+November!B38+December!B38</f>
-        <v>251</v>
+        <v>297</v>
       </c>
       <c r="C38" s="2">
         <f>January!C38+February!C38+March!C38+April!C38+May!C38+June!C38+July!C38+August!C38+September!C38+October!C38+November!C38+December!C38</f>
-        <v>1584</v>
+        <v>1770</v>
       </c>
       <c r="D38" s="2">
         <f>January!D38+February!D38+March!D38+April!D38+May!D38+June!D38+July!D38+August!D38+September!D38+October!D38+November!D38+December!D38</f>
-        <v>-1333</v>
+        <v>-1473</v>
       </c>
       <c r="E38" s="28" t="str">
         <f t="shared" si="3"/>
@@ -2811,7 +2826,7 @@
       </c>
       <c r="G38" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>0.16 : 1</v>
+        <v>0.17 : 1</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2820,23 +2835,23 @@
       </c>
       <c r="B39" s="4">
         <f>January!B44+February!B44+March!B44+April!B44+May!B44+June!B44+July!B44+August!B44+September!B44+October!B44+November!B44+December!B44</f>
-        <v>698</v>
+        <v>796</v>
       </c>
       <c r="C39" s="4">
         <f>January!C44+February!C44+March!C44+April!C44+May!C44+June!C44+July!C44+August!C44+September!C44+October!C44+November!C44+December!C44</f>
-        <v>696</v>
+        <v>799</v>
       </c>
       <c r="D39" s="4">
         <f>January!D44+February!D44+March!D44+April!D44+May!D44+June!D44+July!D44+August!D44+September!D44+October!D44+November!D44+December!D44</f>
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="E39" s="29" t="str">
         <f t="shared" si="3"/>
-        <v>We borrowed more than we lent this year</v>
+        <v/>
       </c>
       <c r="F39" s="29" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>We lent more than we borrowed this year</v>
       </c>
       <c r="G39" s="5" t="str">
         <f t="shared" si="5"/>
@@ -2849,15 +2864,15 @@
       </c>
       <c r="B40" s="8">
         <f>January!B39+February!B39+March!B39+April!B39+May!B39+June!B39+July!B39+August!B39+September!B39+October!B39+November!B39+December!B39</f>
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="C40" s="8">
         <f>January!C39+February!C39+March!C39+April!C39+May!C39+June!C39+July!C39+August!C39+September!C39+October!C39+November!C39+December!C39</f>
-        <v>633</v>
+        <v>742</v>
       </c>
       <c r="D40" s="8">
         <f>January!D39+February!D39+March!D39+April!D39+May!D39+June!D39+July!D39+August!D39+September!D39+October!D39+November!D39+December!D39</f>
-        <v>-438</v>
+        <v>-512</v>
       </c>
       <c r="E40" s="31" t="str">
         <f t="shared" si="3"/>
@@ -2878,15 +2893,15 @@
       </c>
       <c r="B41" s="8">
         <f>January!B40+February!B40+March!B40+April!B40+May!B40+June!B40+July!B40+August!B40+September!B40+October!B40+November!B40+December!B40</f>
-        <v>406</v>
+        <v>465</v>
       </c>
       <c r="C41" s="8">
         <f>January!C40+February!C40+March!C40+April!C40+May!C40+June!C40+July!C40+August!C40+September!C40+October!C40+November!C40+December!C40</f>
-        <v>678</v>
+        <v>825</v>
       </c>
       <c r="D41" s="8">
         <f>January!D40+February!D40+March!D40+April!D40+May!D40+June!D40+July!D40+August!D40+September!D40+October!D40+November!D40+December!D40</f>
-        <v>-272</v>
+        <v>-360</v>
       </c>
       <c r="E41" s="31" t="str">
         <f t="shared" si="3"/>
@@ -2898,7 +2913,7 @@
       </c>
       <c r="G41" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>0.6 : 1</v>
+        <v>0.56 : 1</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2907,15 +2922,15 @@
       </c>
       <c r="B42" s="8">
         <f>January!B41+February!B41+March!B41+April!B41+May!B41+June!B41+July!B41+August!B41+September!B41+October!B41+November!B41+December!B41</f>
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C42" s="8">
         <f>January!C41+February!C41+March!C41+April!C41+May!C41+June!C41+July!C41+August!C41+September!C41+October!C41+November!C41+December!C41</f>
-        <v>236</v>
+        <v>277</v>
       </c>
       <c r="D42" s="8">
         <f>January!D41+February!D41+March!D41+April!D41+May!D41+June!D41+July!D41+August!D41+September!D41+October!D41+November!D41+December!D41</f>
-        <v>-192</v>
+        <v>-213</v>
       </c>
       <c r="E42" s="31" t="str">
         <f t="shared" si="3"/>
@@ -2927,7 +2942,7 @@
       </c>
       <c r="G42" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>0.19 : 1</v>
+        <v>0.23 : 1</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2936,15 +2951,15 @@
       </c>
       <c r="B43" s="8">
         <f>January!B42+February!B42+March!B42+April!B42+May!B42+June!B42+July!B42+August!B42+September!B42+October!B42+November!B42+December!B42</f>
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C43" s="8">
         <f>January!C42+February!C42+March!C42+April!C42+May!C42+June!C42+July!C42+August!C42+September!C42+October!C42+November!C42+December!C42</f>
-        <v>182</v>
+        <v>238</v>
       </c>
       <c r="D43" s="8">
         <f>January!D42+February!D42+March!D42+April!D42+May!D42+June!D42+July!D42+August!D42+September!D42+October!D42+November!D42+December!D42</f>
-        <v>-133</v>
+        <v>-181</v>
       </c>
       <c r="E43" s="31" t="str">
         <f t="shared" si="3"/>
@@ -2956,7 +2971,7 @@
       </c>
       <c r="G43" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>0.27 : 1</v>
+        <v>0.24 : 1</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2994,15 +3009,15 @@
       </c>
       <c r="B45" s="2">
         <f>January!B45+February!B45+March!B45+April!B45+May!B45+June!B45+July!B45+August!B45+September!B45+October!B45+November!B45+December!B45</f>
-        <v>729</v>
+        <v>772</v>
       </c>
       <c r="C45" s="2">
         <f>January!C45+February!C45+March!C45+April!C45+May!C45+June!C45+July!C45+August!C45+September!C45+October!C45+November!C45+December!C45</f>
-        <v>1581</v>
+        <v>1775</v>
       </c>
       <c r="D45" s="2">
         <f>January!D45+February!D45+March!D45+April!D45+May!D45+June!D45+July!D45+August!D45+September!D45+October!D45+November!D45+December!D45</f>
-        <v>-852</v>
+        <v>-1003</v>
       </c>
       <c r="E45" s="28" t="str">
         <f t="shared" si="3"/>
@@ -3014,7 +3029,7 @@
       </c>
       <c r="G45" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>0.46 : 1</v>
+        <v>0.43 : 1</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3023,15 +3038,15 @@
       </c>
       <c r="B46" s="4">
         <f>January!B46+February!B46+March!B46+April!B46+May!B46+June!B46+July!B46+August!B46+September!B46+October!B46+November!B46+December!B46</f>
-        <v>4641</v>
+        <v>5267</v>
       </c>
       <c r="C46" s="4">
         <f>January!C46+February!C46+March!C46+April!C46+May!C46+June!C46+July!C46+August!C46+September!C46+October!C46+November!C46+December!C46</f>
-        <v>5201</v>
+        <v>5825</v>
       </c>
       <c r="D46" s="4">
         <f>January!D46+February!D46+March!D46+April!D46+May!D46+June!D46+July!D46+August!D46+September!D46+October!D46+November!D46+December!D46</f>
-        <v>-560</v>
+        <v>-558</v>
       </c>
       <c r="E46" s="29" t="str">
         <f t="shared" si="3"/>
@@ -3043,7 +3058,7 @@
       </c>
       <c r="G46" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>0.89 : 1</v>
+        <v>0.9 : 1</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3052,15 +3067,15 @@
       </c>
       <c r="B47" s="2">
         <f>January!B47+February!B47+March!B47+April!B47+May!B47+June!B47+July!B47+August!B47+September!B47+October!B47+November!B47+December!B47</f>
-        <v>9420</v>
+        <v>10574</v>
       </c>
       <c r="C47" s="2">
         <f>January!C47+February!C47+March!C47+April!C47+May!C47+June!C47+July!C47+August!C47+September!C47+October!C47+November!C47+December!C47</f>
-        <v>5186</v>
+        <v>5821</v>
       </c>
       <c r="D47" s="2">
         <f>January!D47+February!D47+March!D47+April!D47+May!D47+June!D47+July!D47+August!D47+September!D47+October!D47+November!D47+December!D47</f>
-        <v>4234</v>
+        <v>4753</v>
       </c>
       <c r="E47" s="28" t="str">
         <f t="shared" si="3"/>
@@ -3081,15 +3096,15 @@
       </c>
       <c r="B48" s="4">
         <f>January!B48+February!B48+March!B48+April!B48+May!B48+June!B48+July!B48+August!B48+September!B48+October!B48+November!B48+December!B48</f>
-        <v>2253</v>
+        <v>2495</v>
       </c>
       <c r="C48" s="4">
         <f>January!C48+February!C48+March!C48+April!C48+May!C48+June!C48+July!C48+August!C48+September!C48+October!C48+November!C48+December!C48</f>
-        <v>5186</v>
+        <v>5804</v>
       </c>
       <c r="D48" s="4">
         <f>January!D48+February!D48+March!D48+April!D48+May!D48+June!D48+July!D48+August!D48+September!D48+October!D48+November!D48+December!D48</f>
-        <v>-2933</v>
+        <v>-3309</v>
       </c>
       <c r="E48" s="29" t="str">
         <f t="shared" si="3"/>
@@ -3110,15 +3125,15 @@
       </c>
       <c r="B49" s="2">
         <f>January!B49+February!B49+March!B49+April!B49+May!B49+June!B49+July!B49+August!B49+September!B49+October!B49+November!B49+December!B49</f>
-        <v>5055</v>
+        <v>5676</v>
       </c>
       <c r="C49" s="2">
         <f>January!C49+February!C49+March!C49+April!C49+May!C49+June!C49+July!C49+August!C49+September!C49+October!C49+November!C49+December!C49</f>
-        <v>2343</v>
+        <v>2613</v>
       </c>
       <c r="D49" s="2">
         <f>January!D49+February!D49+March!D49+April!D49+May!D49+June!D49+July!D49+August!D49+September!D49+October!D49+November!D49+December!D49</f>
-        <v>2712</v>
+        <v>3063</v>
       </c>
       <c r="E49" s="28" t="str">
         <f t="shared" si="3"/>
@@ -3130,7 +3145,7 @@
       </c>
       <c r="G49" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>2.16 : 1</v>
+        <v>2.17 : 1</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3139,15 +3154,15 @@
       </c>
       <c r="B50" s="4">
         <f>January!B50+February!B50+March!B50+April!B50+May!B50+June!B50+July!B50+August!B50+September!B50+October!B50+November!B50+December!B50</f>
-        <v>8437</v>
+        <v>9244</v>
       </c>
       <c r="C50" s="4">
         <f>January!C50+February!C50+March!C50+April!C50+May!C50+June!C50+July!C50+August!C50+September!C50+October!C50+November!C50+December!C50</f>
-        <v>5065</v>
+        <v>5630</v>
       </c>
       <c r="D50" s="4">
         <f>January!D50+February!D50+March!D50+April!D50+May!D50+June!D50+July!D50+August!D50+September!D50+October!D50+November!D50+December!D50</f>
-        <v>3372</v>
+        <v>3614</v>
       </c>
       <c r="E50" s="29" t="str">
         <f t="shared" si="3"/>
@@ -3159,7 +3174,7 @@
       </c>
       <c r="G50" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>1.67 : 1</v>
+        <v>1.64 : 1</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3168,15 +3183,15 @@
       </c>
       <c r="B51" s="2">
         <f>January!B51+February!B51+March!B51+April!B51+May!B51+June!B51+July!B51+August!B51+September!B51+October!B51+November!B51+December!B51</f>
-        <v>1946</v>
+        <v>2214</v>
       </c>
       <c r="C51" s="2">
         <f>January!C51+February!C51+March!C51+April!C51+May!C51+June!C51+July!C51+August!C51+September!C51+October!C51+November!C51+December!C51</f>
-        <v>1484</v>
+        <v>1651</v>
       </c>
       <c r="D51" s="2">
         <f>January!D51+February!D51+March!D51+April!D51+May!D51+June!D51+July!D51+August!D51+September!D51+October!D51+November!D51+December!D51</f>
-        <v>462</v>
+        <v>563</v>
       </c>
       <c r="E51" s="28" t="str">
         <f t="shared" si="3"/>
@@ -3188,7 +3203,7 @@
       </c>
       <c r="G51" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>1.31 : 1</v>
+        <v>1.34 : 1</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3197,15 +3212,15 @@
       </c>
       <c r="B52" s="4">
         <f>January!B52+February!B52+March!B52+April!B52+May!B52+June!B52+July!B52+August!B52+September!B52+October!B52+November!B52+December!B52</f>
-        <v>3167</v>
+        <v>3541</v>
       </c>
       <c r="C52" s="4">
         <f>January!C52+February!C52+March!C52+April!C52+May!C52+June!C52+July!C52+August!C52+September!C52+October!C52+November!C52+December!C52</f>
-        <v>3603</v>
+        <v>4052</v>
       </c>
       <c r="D52" s="4">
         <f>January!D52+February!D52+March!D52+April!D52+May!D52+June!D52+July!D52+August!D52+September!D52+October!D52+November!D52+December!D52</f>
-        <v>-436</v>
+        <v>-511</v>
       </c>
       <c r="E52" s="29" t="str">
         <f t="shared" si="3"/>
@@ -3217,7 +3232,7 @@
       </c>
       <c r="G52" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>0.88 : 1</v>
+        <v>0.87 : 1</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3226,15 +3241,15 @@
       </c>
       <c r="B53" s="2">
         <f>January!B53+February!B53+March!B53+April!B53+May!B53+June!B53+July!B53+August!B53+September!B53+October!B53+November!B53+December!B53</f>
-        <v>1168</v>
+        <v>1371</v>
       </c>
       <c r="C53" s="2">
         <f>January!C53+February!C53+March!C53+April!C53+May!C53+June!C53+July!C53+August!C53+September!C53+October!C53+November!C53+December!C53</f>
-        <v>2055</v>
+        <v>2296</v>
       </c>
       <c r="D53" s="2">
         <f>January!D53+February!D53+March!D53+April!D53+May!D53+June!D53+July!D53+August!D53+September!D53+October!D53+November!D53+December!D53</f>
-        <v>-887</v>
+        <v>-925</v>
       </c>
       <c r="E53" s="28" t="str">
         <f t="shared" si="3"/>
@@ -3246,7 +3261,7 @@
       </c>
       <c r="G53" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>0.57 : 1</v>
+        <v>0.6 : 1</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3255,15 +3270,15 @@
       </c>
       <c r="B54" s="4">
         <f>January!B54+February!B54+March!B54+April!B54+May!B54+June!B54+July!B54+August!B54+September!B54+October!B54+November!B54+December!B54</f>
-        <v>233</v>
+        <v>284</v>
       </c>
       <c r="C54" s="4">
         <f>January!C54+February!C54+March!C54+April!C54+May!C54+June!C54+July!C54+August!C54+September!C54+October!C54+November!C54+December!C54</f>
-        <v>1954</v>
+        <v>2211</v>
       </c>
       <c r="D54" s="4">
         <f>January!D54+February!D54+March!D54+April!D54+May!D54+June!D54+July!D54+August!D54+September!D54+October!D54+November!D54+December!D54</f>
-        <v>-1721</v>
+        <v>-1927</v>
       </c>
       <c r="E54" s="29" t="str">
         <f t="shared" si="3"/>
@@ -3275,7 +3290,7 @@
       </c>
       <c r="G54" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>0.12 : 1</v>
+        <v>0.13 : 1</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3284,15 +3299,15 @@
       </c>
       <c r="B55" s="10">
         <f>January!B55+February!B55+March!B55+April!B55+May!B55+June!B55+July!B55+August!B55+September!B55+October!B55+November!B55+December!B55</f>
-        <v>2861</v>
+        <v>3268</v>
       </c>
       <c r="C55" s="10">
         <f>January!C55+February!C55+March!C55+April!C55+May!C55+June!C55+July!C55+August!C55+September!C55+October!C55+November!C55+December!C55</f>
-        <v>1764</v>
+        <v>1960</v>
       </c>
       <c r="D55" s="10">
         <f>January!D55+February!D55+March!D55+April!D55+May!D55+June!D55+July!D55+August!D55+September!D55+October!D55+November!D55+December!D55</f>
-        <v>1097</v>
+        <v>1308</v>
       </c>
       <c r="E55" s="32" t="str">
         <f t="shared" si="3"/>
@@ -3304,7 +3319,7 @@
       </c>
       <c r="G55" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>1.62 : 1</v>
+        <v>1.67 : 1</v>
       </c>
     </row>
   </sheetData>
@@ -4561,108 +4576,204 @@
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="28"/>
+      <c r="B2" s="18">
+        <v>1716</v>
+      </c>
+      <c r="C2" s="18">
+        <v>1294</v>
+      </c>
+      <c r="D2" s="18">
+        <v>422</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F2" s="28"/>
-      <c r="G2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="29"/>
+      <c r="B3" s="21">
+        <v>712</v>
+      </c>
+      <c r="C3" s="21">
+        <v>416</v>
+      </c>
+      <c r="D3" s="21">
+        <v>296</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F3" s="29"/>
-      <c r="G3" s="5"/>
+      <c r="G3" s="5" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="B4" s="18">
+        <v>1213</v>
+      </c>
+      <c r="C4" s="18">
+        <v>1459</v>
+      </c>
+      <c r="D4" s="18">
+        <v>-246</v>
+      </c>
       <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="3"/>
+      <c r="F4" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
+      <c r="B5" s="21">
+        <v>33</v>
+      </c>
+      <c r="C5" s="21">
+        <v>157</v>
+      </c>
+      <c r="D5" s="21">
+        <v>-124</v>
+      </c>
       <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="5"/>
+      <c r="F5" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
+      <c r="B6" s="18">
+        <v>1258</v>
+      </c>
+      <c r="C6" s="18">
+        <v>1549</v>
+      </c>
+      <c r="D6" s="18">
+        <v>-291</v>
+      </c>
       <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="3"/>
+      <c r="F6" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
+      <c r="B7" s="21">
+        <v>175</v>
+      </c>
+      <c r="C7" s="21">
+        <v>191</v>
+      </c>
+      <c r="D7" s="21">
+        <v>-16</v>
+      </c>
       <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="5"/>
+      <c r="F7" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
+      <c r="B8" s="18">
+        <v>181</v>
+      </c>
+      <c r="C8" s="18">
+        <v>207</v>
+      </c>
+      <c r="D8" s="18">
+        <v>-26</v>
+      </c>
       <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
+      <c r="B9" s="21">
+        <v>55</v>
+      </c>
+      <c r="C9" s="21">
+        <v>77</v>
+      </c>
+      <c r="D9" s="21">
+        <v>-22</v>
+      </c>
       <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="5"/>
+      <c r="F9" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
+      <c r="B10" s="18">
+        <v>0</v>
+      </c>
+      <c r="C10" s="18">
+        <v>42</v>
+      </c>
+      <c r="D10" s="18">
+        <v>-42</v>
+      </c>
       <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="3"/>
+      <c r="F10" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
+      <c r="B11" s="21">
+        <v>0</v>
+      </c>
+      <c r="C11" s="21">
+        <v>0</v>
+      </c>
+      <c r="D11" s="21">
+        <v>0</v>
+      </c>
       <c r="E11" s="29"/>
       <c r="F11" s="29"/>
       <c r="G11" s="5"/>
@@ -4671,163 +4782,309 @@
       <c r="A12" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="30"/>
+      <c r="B12" s="23">
+        <v>17</v>
+      </c>
+      <c r="C12" s="23">
+        <v>12</v>
+      </c>
+      <c r="D12" s="23">
+        <v>5</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>61</v>
+      </c>
       <c r="F12" s="30"/>
-      <c r="G12" s="7"/>
+      <c r="G12" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="30"/>
+      <c r="B13" s="23">
+        <v>111</v>
+      </c>
+      <c r="C13" s="23">
+        <v>75</v>
+      </c>
+      <c r="D13" s="23">
+        <v>36</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>61</v>
+      </c>
       <c r="F13" s="30"/>
-      <c r="G13" s="7"/>
+      <c r="G13" s="7" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
+      <c r="B14" s="23">
+        <v>192</v>
+      </c>
+      <c r="C14" s="23">
+        <v>235</v>
+      </c>
+      <c r="D14" s="23">
+        <v>-43</v>
+      </c>
       <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="7"/>
+      <c r="F14" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
+      <c r="B15" s="23">
+        <v>55</v>
+      </c>
+      <c r="C15" s="23">
+        <v>171</v>
+      </c>
+      <c r="D15" s="23">
+        <v>-116</v>
+      </c>
       <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="7"/>
+      <c r="F15" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
+      <c r="B16" s="18">
+        <v>38</v>
+      </c>
+      <c r="C16" s="18">
+        <v>134</v>
+      </c>
+      <c r="D16" s="18">
+        <v>-96</v>
+      </c>
       <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="3"/>
+      <c r="F16" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="29"/>
+      <c r="B17" s="21">
+        <v>701</v>
+      </c>
+      <c r="C17" s="21">
+        <v>434</v>
+      </c>
+      <c r="D17" s="21">
+        <v>267</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F17" s="29"/>
-      <c r="G17" s="5"/>
+      <c r="G17" s="5" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
+      <c r="B18" s="18">
+        <v>93</v>
+      </c>
+      <c r="C18" s="18">
+        <v>160</v>
+      </c>
+      <c r="D18" s="18">
+        <v>-67</v>
+      </c>
       <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="3"/>
+      <c r="F18" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="29"/>
+      <c r="B19" s="21">
+        <v>615</v>
+      </c>
+      <c r="C19" s="21">
+        <v>455</v>
+      </c>
+      <c r="D19" s="21">
+        <v>160</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F19" s="29"/>
-      <c r="G19" s="5"/>
+      <c r="G19" s="5" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
+      <c r="B20" s="18">
+        <v>49</v>
+      </c>
+      <c r="C20" s="18">
+        <v>69</v>
+      </c>
+      <c r="D20" s="18">
+        <v>-20</v>
+      </c>
       <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="3"/>
+      <c r="F20" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="29"/>
+      <c r="B21" s="21">
+        <v>557</v>
+      </c>
+      <c r="C21" s="21">
+        <v>361</v>
+      </c>
+      <c r="D21" s="21">
+        <v>196</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F21" s="29"/>
-      <c r="G21" s="5"/>
+      <c r="G21" s="5" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
+      <c r="B22" s="18">
+        <v>53</v>
+      </c>
+      <c r="C22" s="18">
+        <v>102</v>
+      </c>
+      <c r="D22" s="18">
+        <v>-49</v>
+      </c>
       <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="3"/>
+      <c r="F22" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="29"/>
+      <c r="B23" s="21">
+        <v>635</v>
+      </c>
+      <c r="C23" s="21">
+        <v>344</v>
+      </c>
+      <c r="D23" s="21">
+        <v>291</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F23" s="29"/>
-      <c r="G23" s="5"/>
+      <c r="G23" s="5" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="28"/>
+      <c r="B24" s="18">
+        <v>1623</v>
+      </c>
+      <c r="C24" s="18">
+        <v>1202</v>
+      </c>
+      <c r="D24" s="18">
+        <v>421</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F24" s="28"/>
-      <c r="G24" s="3"/>
+      <c r="G24" s="3" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
+      <c r="B25" s="21">
+        <v>169</v>
+      </c>
+      <c r="C25" s="21">
+        <v>534</v>
+      </c>
+      <c r="D25" s="21">
+        <v>-365</v>
+      </c>
       <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="5"/>
+      <c r="F25" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
+      <c r="B26" s="18">
+        <v>0</v>
+      </c>
+      <c r="C26" s="18">
+        <v>0</v>
+      </c>
+      <c r="D26" s="18">
+        <v>0</v>
+      </c>
       <c r="E26" s="28"/>
       <c r="F26" s="28"/>
       <c r="G26" s="3"/>
@@ -4836,185 +5093,351 @@
       <c r="A27" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="29"/>
+      <c r="B27" s="21">
+        <v>252</v>
+      </c>
+      <c r="C27" s="21">
+        <v>221</v>
+      </c>
+      <c r="D27" s="21">
+        <v>31</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F27" s="29"/>
-      <c r="G27" s="5"/>
+      <c r="G27" s="5" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="28"/>
+      <c r="B28" s="18">
+        <v>151</v>
+      </c>
+      <c r="C28" s="18">
+        <v>90</v>
+      </c>
+      <c r="D28" s="18">
+        <v>61</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F28" s="28"/>
-      <c r="G28" s="3"/>
+      <c r="G28" s="3" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="29"/>
+      <c r="B29" s="21">
+        <v>701</v>
+      </c>
+      <c r="C29" s="21">
+        <v>471</v>
+      </c>
+      <c r="D29" s="21">
+        <v>230</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F29" s="29"/>
-      <c r="G29" s="5"/>
+      <c r="G29" s="5" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="28"/>
+      <c r="B30" s="18">
+        <v>55</v>
+      </c>
+      <c r="C30" s="18">
+        <v>33</v>
+      </c>
+      <c r="D30" s="18">
+        <v>22</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F30" s="28"/>
-      <c r="G30" s="3"/>
+      <c r="G30" s="3" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
+      <c r="B31" s="21">
+        <v>81</v>
+      </c>
+      <c r="C31" s="21">
+        <v>286</v>
+      </c>
+      <c r="D31" s="21">
+        <v>-205</v>
+      </c>
       <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="5"/>
+      <c r="F31" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
+      <c r="B32" s="18">
+        <v>443</v>
+      </c>
+      <c r="C32" s="18">
+        <v>610</v>
+      </c>
+      <c r="D32" s="18">
+        <v>-167</v>
+      </c>
       <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="3"/>
+      <c r="F32" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
+      <c r="B33" s="21">
+        <v>367</v>
+      </c>
+      <c r="C33" s="21">
+        <v>512</v>
+      </c>
+      <c r="D33" s="21">
+        <v>-145</v>
+      </c>
       <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="5"/>
+      <c r="F33" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="28"/>
+      <c r="B34" s="18">
+        <v>185</v>
+      </c>
+      <c r="C34" s="18">
+        <v>137</v>
+      </c>
+      <c r="D34" s="18">
+        <v>48</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F34" s="28"/>
-      <c r="G34" s="3"/>
+      <c r="G34" s="3" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
+      <c r="B35" s="21">
+        <v>910</v>
+      </c>
+      <c r="C35" s="21">
+        <v>1300</v>
+      </c>
+      <c r="D35" s="21">
+        <v>-390</v>
+      </c>
       <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="5"/>
+      <c r="F35" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
+      <c r="B36" s="18">
+        <v>186</v>
+      </c>
+      <c r="C36" s="18">
+        <v>572</v>
+      </c>
+      <c r="D36" s="18">
+        <v>-386</v>
+      </c>
       <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="3"/>
+      <c r="F36" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="29"/>
+      <c r="B37" s="21">
+        <v>615</v>
+      </c>
+      <c r="C37" s="21">
+        <v>489</v>
+      </c>
+      <c r="D37" s="21">
+        <v>126</v>
+      </c>
+      <c r="E37" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F37" s="29"/>
-      <c r="G37" s="5"/>
+      <c r="G37" s="5" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
+      <c r="B38" s="18">
+        <v>46</v>
+      </c>
+      <c r="C38" s="18">
+        <v>186</v>
+      </c>
+      <c r="D38" s="18">
+        <v>-140</v>
+      </c>
       <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="3"/>
+      <c r="F38" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
+      <c r="B39" s="25">
+        <v>35</v>
+      </c>
+      <c r="C39" s="25">
+        <v>109</v>
+      </c>
+      <c r="D39" s="25">
+        <v>-74</v>
+      </c>
       <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="9"/>
+      <c r="F39" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
+      <c r="B40" s="25">
+        <v>59</v>
+      </c>
+      <c r="C40" s="25">
+        <v>147</v>
+      </c>
+      <c r="D40" s="25">
+        <v>-88</v>
+      </c>
       <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="9"/>
+      <c r="F40" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
+      <c r="B41" s="25">
+        <v>20</v>
+      </c>
+      <c r="C41" s="25">
+        <v>41</v>
+      </c>
+      <c r="D41" s="25">
+        <v>-21</v>
+      </c>
       <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="9"/>
+      <c r="F41" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
+      <c r="B42" s="25">
+        <v>8</v>
+      </c>
+      <c r="C42" s="25">
+        <v>56</v>
+      </c>
+      <c r="D42" s="25">
+        <v>-48</v>
+      </c>
       <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="9"/>
+      <c r="F42" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
+      <c r="B43" s="25">
+        <v>0</v>
+      </c>
+      <c r="C43" s="25">
+        <v>0</v>
+      </c>
+      <c r="D43" s="25">
+        <v>0</v>
+      </c>
       <c r="E43" s="31"/>
       <c r="F43" s="31"/>
       <c r="G43" s="9"/>
@@ -5023,133 +5446,253 @@
       <c r="A44" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
+      <c r="B44" s="21">
+        <v>98</v>
+      </c>
+      <c r="C44" s="21">
+        <v>103</v>
+      </c>
+      <c r="D44" s="21">
+        <v>-5</v>
+      </c>
       <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="5"/>
+      <c r="F44" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
+      <c r="B45" s="18">
+        <v>43</v>
+      </c>
+      <c r="C45" s="18">
+        <v>194</v>
+      </c>
+      <c r="D45" s="18">
+        <v>-151</v>
+      </c>
       <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="3"/>
+      <c r="F45" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="29"/>
+      <c r="B46" s="21">
+        <v>626</v>
+      </c>
+      <c r="C46" s="21">
+        <v>624</v>
+      </c>
+      <c r="D46" s="21">
+        <v>2</v>
+      </c>
+      <c r="E46" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F46" s="29"/>
-      <c r="G46" s="5"/>
+      <c r="G46" s="5" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="28"/>
+      <c r="B47" s="18">
+        <v>1154</v>
+      </c>
+      <c r="C47" s="18">
+        <v>635</v>
+      </c>
+      <c r="D47" s="18">
+        <v>519</v>
+      </c>
+      <c r="E47" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F47" s="28"/>
-      <c r="G47" s="3"/>
+      <c r="G47" s="3" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
+      <c r="B48" s="21">
+        <v>242</v>
+      </c>
+      <c r="C48" s="21">
+        <v>618</v>
+      </c>
+      <c r="D48" s="21">
+        <v>-376</v>
+      </c>
       <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="5"/>
+      <c r="F48" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="28"/>
+      <c r="B49" s="18">
+        <v>621</v>
+      </c>
+      <c r="C49" s="18">
+        <v>270</v>
+      </c>
+      <c r="D49" s="18">
+        <v>351</v>
+      </c>
+      <c r="E49" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F49" s="28"/>
-      <c r="G49" s="3"/>
+      <c r="G49" s="3" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="29"/>
+      <c r="B50" s="21">
+        <v>807</v>
+      </c>
+      <c r="C50" s="21">
+        <v>565</v>
+      </c>
+      <c r="D50" s="21">
+        <v>242</v>
+      </c>
+      <c r="E50" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F50" s="29"/>
-      <c r="G50" s="5"/>
+      <c r="G50" s="5" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="28"/>
+      <c r="B51" s="18">
+        <v>268</v>
+      </c>
+      <c r="C51" s="18">
+        <v>167</v>
+      </c>
+      <c r="D51" s="18">
+        <v>101</v>
+      </c>
+      <c r="E51" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F51" s="28"/>
-      <c r="G51" s="3"/>
+      <c r="G51" s="3" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
+      <c r="B52" s="21">
+        <v>374</v>
+      </c>
+      <c r="C52" s="21">
+        <v>449</v>
+      </c>
+      <c r="D52" s="21">
+        <v>-75</v>
+      </c>
       <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="5"/>
+      <c r="F52" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
+      <c r="B53" s="18">
+        <v>203</v>
+      </c>
+      <c r="C53" s="18">
+        <v>241</v>
+      </c>
+      <c r="D53" s="18">
+        <v>-38</v>
+      </c>
       <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="3"/>
+      <c r="F53" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B54" s="21"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
+      <c r="B54" s="21">
+        <v>51</v>
+      </c>
+      <c r="C54" s="21">
+        <v>257</v>
+      </c>
+      <c r="D54" s="21">
+        <v>-206</v>
+      </c>
       <c r="E54" s="29"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="5"/>
+      <c r="F54" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="B55" s="27"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="32"/>
+      <c r="B55" s="27">
+        <v>407</v>
+      </c>
+      <c r="C55" s="27">
+        <v>196</v>
+      </c>
+      <c r="D55" s="27">
+        <v>211</v>
+      </c>
+      <c r="E55" s="32" t="s">
+        <v>61</v>
+      </c>
       <c r="F55" s="32"/>
-      <c r="G55" s="11"/>
+      <c r="G55" s="11" t="s">
+        <v>263</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G55" xr:uid="{00000000-0009-0000-0000-00000A000000}"/>

--- a/statistics_files/2024/2024_99_g_net_borrower_lender.xlsx
+++ b/statistics_files/2024/2024_99_g_net_borrower_lender.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\github\next_statistics\statistics_files\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9DFBEBF-063E-4058-9F3B-639F86FC816A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE865377-F646-4F52-A885-ECD43DD0EFF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="673" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1915" uniqueCount="272">
   <si>
     <t>NET</t>
   </si>
@@ -853,6 +853,30 @@
   </si>
   <si>
     <t>2.08 : 1</t>
+  </si>
+  <si>
+    <t>0.24 : 1</t>
+  </si>
+  <si>
+    <t>2.00 : 1</t>
+  </si>
+  <si>
+    <t>1.55 : 1</t>
+  </si>
+  <si>
+    <t>0.77 : 1</t>
+  </si>
+  <si>
+    <t>2.62 : 1</t>
+  </si>
+  <si>
+    <t>0.97 : 1</t>
+  </si>
+  <si>
+    <t>0.16 : 1</t>
+  </si>
+  <si>
+    <t>3.61 : 1</t>
   </si>
 </sst>
 </file>
@@ -1762,15 +1786,15 @@
       </c>
       <c r="B2" s="2">
         <f>January!B2+February!B2+March!B2+April!B2+May!B2+June!B2+July!B2+August!B2+September!B2+October!B2+November!B2+December!B2</f>
-        <v>14389</v>
+        <v>15885</v>
       </c>
       <c r="C2" s="2">
         <f>January!C2+February!C2+March!C2+April!C2+May!C2+June!C2+July!C2+August!C2+September!C2+October!C2+November!C2+December!C2</f>
-        <v>12130</v>
+        <v>13212</v>
       </c>
       <c r="D2" s="2">
         <f>January!D2+February!D2+March!D2+April!D2+May!D2+June!D2+July!D2+August!D2+September!D2+October!D2+November!D2+December!D2</f>
-        <v>2259</v>
+        <v>2673</v>
       </c>
       <c r="E2" s="28" t="str">
         <f t="shared" ref="E2:E33" si="0">IF(D2 &gt; 0, "We borrowed more than we lent this year", "")</f>
@@ -1782,7 +1806,7 @@
       </c>
       <c r="G2" s="3" t="str">
         <f t="shared" ref="G2:G33" si="2">IF(ISERROR(ROUND(B2/C2,2)&amp;" : 1"), "", ROUND(B2/C2,2)&amp;" : 1")</f>
-        <v>1.19 : 1</v>
+        <v>1.2 : 1</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1791,15 +1815,15 @@
       </c>
       <c r="B3" s="4">
         <f>January!B3+February!B3+March!B3+April!B3+May!B3+June!B3+July!B3+August!B3+September!B3+October!B3+November!B3+December!B3</f>
-        <v>6346</v>
+        <v>6847</v>
       </c>
       <c r="C3" s="4">
         <f>January!C3+February!C3+March!C3+April!C3+May!C3+June!C3+July!C3+August!C3+September!C3+October!C3+November!C3+December!C3</f>
-        <v>4332</v>
+        <v>4685</v>
       </c>
       <c r="D3" s="4">
         <f>January!D3+February!D3+March!D3+April!D3+May!D3+June!D3+July!D3+August!D3+September!D3+October!D3+November!D3+December!D3</f>
-        <v>2014</v>
+        <v>2162</v>
       </c>
       <c r="E3" s="29" t="str">
         <f t="shared" si="0"/>
@@ -1820,15 +1844,15 @@
       </c>
       <c r="B4" s="2">
         <f>January!B4+February!B4+March!B4+April!B4+May!B4+June!B4+July!B4+August!B4+September!B4+October!B4+November!B4+December!B4</f>
-        <v>11795</v>
+        <v>12883</v>
       </c>
       <c r="C4" s="2">
         <f>January!C4+February!C4+March!C4+April!C4+May!C4+June!C4+July!C4+August!C4+September!C4+October!C4+November!C4+December!C4</f>
-        <v>11967</v>
+        <v>13148</v>
       </c>
       <c r="D4" s="2">
         <f>January!D4+February!D4+March!D4+April!D4+May!D4+June!D4+July!D4+August!D4+September!D4+October!D4+November!D4+December!D4</f>
-        <v>-172</v>
+        <v>-265</v>
       </c>
       <c r="E4" s="28" t="str">
         <f t="shared" si="0"/>
@@ -1840,7 +1864,7 @@
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.99 : 1</v>
+        <v>0.98 : 1</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1849,15 +1873,15 @@
       </c>
       <c r="B5" s="4">
         <f>January!B5+February!B5+March!B5+April!B5+May!B5+June!B5+July!B5+August!B5+September!B5+October!B5+November!B5+December!B5</f>
-        <v>434</v>
+        <v>474</v>
       </c>
       <c r="C5" s="4">
         <f>January!C5+February!C5+March!C5+April!C5+May!C5+June!C5+July!C5+August!C5+September!C5+October!C5+November!C5+December!C5</f>
-        <v>1279</v>
+        <v>1386</v>
       </c>
       <c r="D5" s="4">
         <f>January!D5+February!D5+March!D5+April!D5+May!D5+June!D5+July!D5+August!D5+September!D5+October!D5+November!D5+December!D5</f>
-        <v>-845</v>
+        <v>-912</v>
       </c>
       <c r="E5" s="29" t="str">
         <f t="shared" si="0"/>
@@ -1878,15 +1902,15 @@
       </c>
       <c r="B6" s="2">
         <f>January!B6+February!B6+March!B6+April!B6+May!B6+June!B6+July!B6+August!B6+September!B6+October!B6+November!B6+December!B6</f>
-        <v>10736</v>
+        <v>11635</v>
       </c>
       <c r="C6" s="2">
         <f>January!C6+February!C6+March!C6+April!C6+May!C6+June!C6+July!C6+August!C6+September!C6+October!C6+November!C6+December!C6</f>
-        <v>14346</v>
+        <v>15664</v>
       </c>
       <c r="D6" s="2">
         <f>January!D6+February!D6+March!D6+April!D6+May!D6+June!D6+July!D6+August!D6+September!D6+October!D6+November!D6+December!D6</f>
-        <v>-3610</v>
+        <v>-4029</v>
       </c>
       <c r="E6" s="28" t="str">
         <f t="shared" si="0"/>
@@ -1898,7 +1922,7 @@
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.75 : 1</v>
+        <v>0.74 : 1</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1907,15 +1931,15 @@
       </c>
       <c r="B7" s="4">
         <f>January!B7+February!B7+March!B7+April!B7+May!B7+June!B7+July!B7+August!B7+September!B7+October!B7+November!B7+December!B7</f>
-        <v>2772</v>
+        <v>2900</v>
       </c>
       <c r="C7" s="4">
         <f>January!C7+February!C7+March!C7+April!C7+May!C7+June!C7+July!C7+August!C7+September!C7+October!C7+November!C7+December!C7</f>
-        <v>1675</v>
+        <v>1836</v>
       </c>
       <c r="D7" s="4">
         <f>January!D7+February!D7+March!D7+April!D7+May!D7+June!D7+July!D7+August!D7+September!D7+October!D7+November!D7+December!D7</f>
-        <v>1097</v>
+        <v>1064</v>
       </c>
       <c r="E7" s="29" t="str">
         <f t="shared" si="0"/>
@@ -1927,7 +1951,7 @@
       </c>
       <c r="G7" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>1.65 : 1</v>
+        <v>1.58 : 1</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1936,15 +1960,15 @@
       </c>
       <c r="B8" s="2">
         <f>January!B8+February!B8+March!B8+April!B8+May!B8+June!B8+July!B8+August!B8+September!B8+October!B8+November!B8+December!B8</f>
-        <v>1338</v>
+        <v>1471</v>
       </c>
       <c r="C8" s="2">
         <f>January!C8+February!C8+March!C8+April!C8+May!C8+June!C8+July!C8+August!C8+September!C8+October!C8+November!C8+December!C8</f>
-        <v>1905</v>
+        <v>2090</v>
       </c>
       <c r="D8" s="2">
         <f>January!D8+February!D8+March!D8+April!D8+May!D8+June!D8+July!D8+August!D8+September!D8+October!D8+November!D8+December!D8</f>
-        <v>-567</v>
+        <v>-619</v>
       </c>
       <c r="E8" s="28" t="str">
         <f t="shared" si="0"/>
@@ -1965,15 +1989,15 @@
       </c>
       <c r="B9" s="4">
         <f>January!B9+February!B9+March!B9+April!B9+May!B9+June!B9+July!B9+August!B9+September!B9+October!B9+November!B9+December!B9</f>
-        <v>448</v>
+        <v>477</v>
       </c>
       <c r="C9" s="4">
         <f>January!C9+February!C9+March!C9+April!C9+May!C9+June!C9+July!C9+August!C9+September!C9+October!C9+November!C9+December!C9</f>
-        <v>709</v>
+        <v>768</v>
       </c>
       <c r="D9" s="4">
         <f>January!D9+February!D9+March!D9+April!D9+May!D9+June!D9+July!D9+August!D9+September!D9+October!D9+November!D9+December!D9</f>
-        <v>-261</v>
+        <v>-291</v>
       </c>
       <c r="E9" s="29" t="str">
         <f t="shared" si="0"/>
@@ -1985,7 +2009,7 @@
       </c>
       <c r="G9" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>0.63 : 1</v>
+        <v>0.62 : 1</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1994,15 +2018,15 @@
       </c>
       <c r="B10" s="2">
         <f>January!B10+February!B10+March!B10+April!B10+May!B10+June!B10+July!B10+August!B10+September!B10+October!B10+November!B10+December!B10</f>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2">
         <f>January!C10+February!C10+March!C10+April!C10+May!C10+June!C10+July!C10+August!C10+September!C10+October!C10+November!C10+December!C10</f>
-        <v>503</v>
+        <v>544</v>
       </c>
       <c r="D10" s="2">
         <f>January!D10+February!D10+March!D10+April!D10+May!D10+June!D10+July!D10+August!D10+September!D10+October!D10+November!D10+December!D10</f>
-        <v>-484</v>
+        <v>-520</v>
       </c>
       <c r="E10" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2052,15 +2076,15 @@
       </c>
       <c r="B12" s="6">
         <f>January!B12+February!B12+March!B12+April!B12+May!B12+June!B12+July!B12+August!B12+September!B12+October!B12+November!B12+December!B12</f>
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="C12" s="6">
         <f>January!C12+February!C12+March!C12+April!C12+May!C12+June!C12+July!C12+August!C12+September!C12+October!C12+November!C12+December!C12</f>
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="D12" s="6">
         <f>January!D12+February!D12+March!D12+April!D12+May!D12+June!D12+July!D12+August!D12+September!D12+October!D12+November!D12+December!D12</f>
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E12" s="30" t="str">
         <f t="shared" si="0"/>
@@ -2072,7 +2096,7 @@
       </c>
       <c r="G12" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>1.63 : 1</v>
+        <v>1.55 : 1</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2081,15 +2105,15 @@
       </c>
       <c r="B13" s="6">
         <f>January!B13+February!B13+March!B13+April!B13+May!B13+June!B13+July!B13+August!B13+September!B13+October!B13+November!B13+December!B13</f>
-        <v>1430</v>
+        <v>1505</v>
       </c>
       <c r="C13" s="6">
         <f>January!C13+February!C13+March!C13+April!C13+May!C13+June!C13+July!C13+August!C13+September!C13+October!C13+November!C13+December!C13</f>
-        <v>825</v>
+        <v>866</v>
       </c>
       <c r="D13" s="6">
         <f>January!D13+February!D13+March!D13+April!D13+May!D13+June!D13+July!D13+August!D13+September!D13+October!D13+November!D13+December!D13</f>
-        <v>605</v>
+        <v>639</v>
       </c>
       <c r="E13" s="30" t="str">
         <f t="shared" si="0"/>
@@ -2101,7 +2125,7 @@
       </c>
       <c r="G13" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>1.73 : 1</v>
+        <v>1.74 : 1</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2110,15 +2134,15 @@
       </c>
       <c r="B14" s="6">
         <f>January!B14+February!B14+March!B14+April!B14+May!B14+June!B14+July!B14+August!B14+September!B14+October!B14+November!B14+December!B14</f>
-        <v>1396</v>
+        <v>1596</v>
       </c>
       <c r="C14" s="6">
         <f>January!C14+February!C14+March!C14+April!C14+May!C14+June!C14+July!C14+August!C14+September!C14+October!C14+November!C14+December!C14</f>
-        <v>2521</v>
+        <v>2724</v>
       </c>
       <c r="D14" s="6">
         <f>January!D14+February!D14+March!D14+April!D14+May!D14+June!D14+July!D14+August!D14+September!D14+October!D14+November!D14+December!D14</f>
-        <v>-1125</v>
+        <v>-1128</v>
       </c>
       <c r="E14" s="30" t="str">
         <f t="shared" si="0"/>
@@ -2130,7 +2154,7 @@
       </c>
       <c r="G14" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>0.55 : 1</v>
+        <v>0.59 : 1</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2139,15 +2163,15 @@
       </c>
       <c r="B15" s="6">
         <f>January!B15+February!B15+March!B15+April!B15+May!B15+June!B15+July!B15+August!B15+September!B15+October!B15+November!B15+December!B15</f>
-        <v>613</v>
+        <v>661</v>
       </c>
       <c r="C15" s="6">
         <f>January!C15+February!C15+March!C15+April!C15+May!C15+June!C15+July!C15+August!C15+September!C15+October!C15+November!C15+December!C15</f>
-        <v>1424</v>
+        <v>1542</v>
       </c>
       <c r="D15" s="6">
         <f>January!D15+February!D15+March!D15+April!D15+May!D15+June!D15+July!D15+August!D15+September!D15+October!D15+November!D15+December!D15</f>
-        <v>-811</v>
+        <v>-881</v>
       </c>
       <c r="E15" s="30" t="str">
         <f t="shared" si="0"/>
@@ -2168,15 +2192,15 @@
       </c>
       <c r="B16" s="2">
         <f>January!B16+February!B16+March!B16+April!B16+May!B16+June!B16+July!B16+August!B16+September!B16+October!B16+November!B16+December!B16</f>
-        <v>607</v>
+        <v>644</v>
       </c>
       <c r="C16" s="2">
         <f>January!C16+February!C16+March!C16+April!C16+May!C16+June!C16+July!C16+August!C16+September!C16+October!C16+November!C16+December!C16</f>
-        <v>1463</v>
+        <v>1602</v>
       </c>
       <c r="D16" s="2">
         <f>January!D16+February!D16+March!D16+April!D16+May!D16+June!D16+July!D16+August!D16+September!D16+October!D16+November!D16+December!D16</f>
-        <v>-856</v>
+        <v>-958</v>
       </c>
       <c r="E16" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2188,7 +2212,7 @@
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.41 : 1</v>
+        <v>0.4 : 1</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2197,15 +2221,15 @@
       </c>
       <c r="B17" s="4">
         <f>January!B17+February!B17+March!B17+April!B17+May!B17+June!B17+July!B17+August!B17+September!B17+October!B17+November!B17+December!B17</f>
-        <v>6070</v>
+        <v>6622</v>
       </c>
       <c r="C17" s="4">
         <f>January!C17+February!C17+March!C17+April!C17+May!C17+June!C17+July!C17+August!C17+September!C17+October!C17+November!C17+December!C17</f>
-        <v>4200</v>
+        <v>4550</v>
       </c>
       <c r="D17" s="4">
         <f>January!D17+February!D17+March!D17+April!D17+May!D17+June!D17+July!D17+August!D17+September!D17+October!D17+November!D17+December!D17</f>
-        <v>1870</v>
+        <v>2072</v>
       </c>
       <c r="E17" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2217,7 +2241,7 @@
       </c>
       <c r="G17" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>1.45 : 1</v>
+        <v>1.46 : 1</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2226,15 +2250,15 @@
       </c>
       <c r="B18" s="2">
         <f>January!B18+February!B18+March!B18+April!B18+May!B18+June!B18+July!B18+August!B18+September!B18+October!B18+November!B18+December!B18</f>
-        <v>771</v>
+        <v>858</v>
       </c>
       <c r="C18" s="2">
         <f>January!C18+February!C18+March!C18+April!C18+May!C18+June!C18+July!C18+August!C18+September!C18+October!C18+November!C18+December!C18</f>
-        <v>1081</v>
+        <v>1172</v>
       </c>
       <c r="D18" s="2">
         <f>January!D18+February!D18+March!D18+April!D18+May!D18+June!D18+July!D18+August!D18+September!D18+October!D18+November!D18+December!D18</f>
-        <v>-310</v>
+        <v>-314</v>
       </c>
       <c r="E18" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2246,7 +2270,7 @@
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.71 : 1</v>
+        <v>0.73 : 1</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2255,15 +2279,15 @@
       </c>
       <c r="B19" s="4">
         <f>January!B19+February!B19+March!B19+April!B19+May!B19+June!B19+July!B19+August!B19+September!B19+October!B19+November!B19+December!B19</f>
-        <v>5451</v>
+        <v>5895</v>
       </c>
       <c r="C19" s="4">
         <f>January!C19+February!C19+March!C19+April!C19+May!C19+June!C19+July!C19+August!C19+September!C19+October!C19+November!C19+December!C19</f>
-        <v>4406</v>
+        <v>4719</v>
       </c>
       <c r="D19" s="4">
         <f>January!D19+February!D19+March!D19+April!D19+May!D19+June!D19+July!D19+August!D19+September!D19+October!D19+November!D19+December!D19</f>
-        <v>1045</v>
+        <v>1176</v>
       </c>
       <c r="E19" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2275,7 +2299,7 @@
       </c>
       <c r="G19" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>1.24 : 1</v>
+        <v>1.25 : 1</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2284,15 +2308,15 @@
       </c>
       <c r="B20" s="2">
         <f>January!B20+February!B20+March!B20+April!B20+May!B20+June!B20+July!B20+August!B20+September!B20+October!B20+November!B20+December!B20</f>
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="C20" s="2">
         <f>January!C20+February!C20+March!C20+April!C20+May!C20+June!C20+July!C20+August!C20+September!C20+October!C20+November!C20+December!C20</f>
-        <v>742</v>
+        <v>791</v>
       </c>
       <c r="D20" s="2">
         <f>January!D20+February!D20+March!D20+April!D20+May!D20+June!D20+July!D20+August!D20+September!D20+October!D20+November!D20+December!D20</f>
-        <v>-607</v>
+        <v>-619</v>
       </c>
       <c r="E20" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2304,7 +2328,7 @@
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.18 : 1</v>
+        <v>0.22 : 1</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2313,15 +2337,15 @@
       </c>
       <c r="B21" s="4">
         <f>January!B21+February!B21+March!B21+April!B21+May!B21+June!B21+July!B21+August!B21+September!B21+October!B21+November!B21+December!B21</f>
-        <v>4966</v>
+        <v>5466</v>
       </c>
       <c r="C21" s="4">
         <f>January!C21+February!C21+March!C21+April!C21+May!C21+June!C21+July!C21+August!C21+September!C21+October!C21+November!C21+December!C21</f>
-        <v>3521</v>
+        <v>3792</v>
       </c>
       <c r="D21" s="4">
         <f>January!D21+February!D21+March!D21+April!D21+May!D21+June!D21+July!D21+August!D21+September!D21+October!D21+November!D21+December!D21</f>
-        <v>1445</v>
+        <v>1674</v>
       </c>
       <c r="E21" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2333,7 +2357,7 @@
       </c>
       <c r="G21" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>1.41 : 1</v>
+        <v>1.44 : 1</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2342,15 +2366,15 @@
       </c>
       <c r="B22" s="2">
         <f>January!B22+February!B22+March!B22+April!B22+May!B22+June!B22+July!B22+August!B22+September!B22+October!B22+November!B22+December!B22</f>
-        <v>287</v>
+        <v>320</v>
       </c>
       <c r="C22" s="2">
         <f>January!C22+February!C22+March!C22+April!C22+May!C22+June!C22+July!C22+August!C22+September!C22+October!C22+November!C22+December!C22</f>
-        <v>1118</v>
+        <v>1257</v>
       </c>
       <c r="D22" s="2">
         <f>January!D22+February!D22+March!D22+April!D22+May!D22+June!D22+July!D22+August!D22+September!D22+October!D22+November!D22+December!D22</f>
-        <v>-831</v>
+        <v>-937</v>
       </c>
       <c r="E22" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2362,7 +2386,7 @@
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.26 : 1</v>
+        <v>0.25 : 1</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2371,15 +2395,15 @@
       </c>
       <c r="B23" s="4">
         <f>January!B23+February!B23+March!B23+April!B23+May!B23+June!B23+July!B23+August!B23+September!B23+October!B23+November!B23+December!B23</f>
-        <v>6542</v>
+        <v>7017</v>
       </c>
       <c r="C23" s="4">
         <f>January!C23+February!C23+March!C23+April!C23+May!C23+June!C23+July!C23+August!C23+September!C23+October!C23+November!C23+December!C23</f>
-        <v>3563</v>
+        <v>3801</v>
       </c>
       <c r="D23" s="4">
         <f>January!D23+February!D23+March!D23+April!D23+May!D23+June!D23+July!D23+August!D23+September!D23+October!D23+November!D23+December!D23</f>
-        <v>2979</v>
+        <v>3216</v>
       </c>
       <c r="E23" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2391,7 +2415,7 @@
       </c>
       <c r="G23" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>1.84 : 1</v>
+        <v>1.85 : 1</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2400,15 +2424,15 @@
       </c>
       <c r="B24" s="2">
         <f>January!B24+February!B24+March!B24+April!B24+May!B24+June!B24+July!B24+August!B24+September!B24+October!B24+November!B24+December!B24</f>
-        <v>16658</v>
+        <v>17995</v>
       </c>
       <c r="C24" s="2">
         <f>January!C24+February!C24+March!C24+April!C24+May!C24+June!C24+July!C24+August!C24+September!C24+October!C24+November!C24+December!C24</f>
-        <v>11993</v>
+        <v>12974</v>
       </c>
       <c r="D24" s="2">
         <f>January!D24+February!D24+March!D24+April!D24+May!D24+June!D24+July!D24+August!D24+September!D24+October!D24+November!D24+December!D24</f>
-        <v>4665</v>
+        <v>5021</v>
       </c>
       <c r="E24" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2429,15 +2453,15 @@
       </c>
       <c r="B25" s="4">
         <f>January!B25+February!B25+March!B25+April!B25+May!B25+June!B25+July!B25+August!B25+September!B25+October!B25+November!B25+December!B25</f>
-        <v>1474</v>
+        <v>1640</v>
       </c>
       <c r="C25" s="4">
         <f>January!C25+February!C25+March!C25+April!C25+May!C25+June!C25+July!C25+August!C25+September!C25+October!C25+November!C25+December!C25</f>
-        <v>3875</v>
+        <v>4348</v>
       </c>
       <c r="D25" s="4">
         <f>January!D25+February!D25+March!D25+April!D25+May!D25+June!D25+July!D25+August!D25+September!D25+October!D25+November!D25+December!D25</f>
-        <v>-2401</v>
+        <v>-2708</v>
       </c>
       <c r="E25" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2487,15 +2511,15 @@
       </c>
       <c r="B27" s="4">
         <f>January!B27+February!B27+March!B27+April!B27+May!B27+June!B27+July!B27+August!B27+September!B27+October!B27+November!B27+December!B27</f>
-        <v>2413</v>
+        <v>2627</v>
       </c>
       <c r="C27" s="4">
         <f>January!C27+February!C27+March!C27+April!C27+May!C27+June!C27+July!C27+August!C27+September!C27+October!C27+November!C27+December!C27</f>
-        <v>2019</v>
+        <v>2186</v>
       </c>
       <c r="D27" s="4">
         <f>January!D27+February!D27+March!D27+April!D27+May!D27+June!D27+July!D27+August!D27+September!D27+October!D27+November!D27+December!D27</f>
-        <v>394</v>
+        <v>441</v>
       </c>
       <c r="E27" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2516,15 +2540,15 @@
       </c>
       <c r="B28" s="2">
         <f>January!B28+February!B28+March!B28+April!B28+May!B28+June!B28+July!B28+August!B28+September!B28+October!B28+November!B28+December!B28</f>
-        <v>892</v>
+        <v>1004</v>
       </c>
       <c r="C28" s="2">
         <f>January!C28+February!C28+March!C28+April!C28+May!C28+June!C28+July!C28+August!C28+September!C28+October!C28+November!C28+December!C28</f>
-        <v>955</v>
+        <v>1036</v>
       </c>
       <c r="D28" s="2">
         <f>January!D28+February!D28+March!D28+April!D28+May!D28+June!D28+July!D28+August!D28+September!D28+October!D28+November!D28+December!D28</f>
-        <v>-63</v>
+        <v>-32</v>
       </c>
       <c r="E28" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2536,7 +2560,7 @@
       </c>
       <c r="G28" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.93 : 1</v>
+        <v>0.97 : 1</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2545,15 +2569,15 @@
       </c>
       <c r="B29" s="4">
         <f>January!B29+February!B29+March!B29+April!B29+May!B29+June!B29+July!B29+August!B29+September!B29+October!B29+November!B29+December!B29</f>
-        <v>5546</v>
+        <v>6207</v>
       </c>
       <c r="C29" s="4">
         <f>January!C29+February!C29+March!C29+April!C29+May!C29+June!C29+July!C29+August!C29+September!C29+October!C29+November!C29+December!C29</f>
-        <v>4259</v>
+        <v>4726</v>
       </c>
       <c r="D29" s="4">
         <f>January!D29+February!D29+March!D29+April!D29+May!D29+June!D29+July!D29+August!D29+September!D29+October!D29+November!D29+December!D29</f>
-        <v>1287</v>
+        <v>1481</v>
       </c>
       <c r="E29" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2565,7 +2589,7 @@
       </c>
       <c r="G29" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>1.3 : 1</v>
+        <v>1.31 : 1</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2574,15 +2598,15 @@
       </c>
       <c r="B30" s="2">
         <f>January!B30+February!B30+March!B30+April!B30+May!B30+June!B30+July!B30+August!B30+September!B30+October!B30+November!B30+December!B30</f>
-        <v>438</v>
+        <v>451</v>
       </c>
       <c r="C30" s="2">
         <f>January!C30+February!C30+March!C30+April!C30+May!C30+June!C30+July!C30+August!C30+September!C30+October!C30+November!C30+December!C30</f>
-        <v>224</v>
+        <v>262</v>
       </c>
       <c r="D30" s="2">
         <f>January!D30+February!D30+March!D30+April!D30+May!D30+June!D30+July!D30+August!D30+September!D30+October!D30+November!D30+December!D30</f>
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="E30" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2594,7 +2618,7 @@
       </c>
       <c r="G30" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>1.96 : 1</v>
+        <v>1.72 : 1</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2603,15 +2627,15 @@
       </c>
       <c r="B31" s="4">
         <f>January!B31+February!B31+March!B31+April!B31+May!B31+June!B31+July!B31+August!B31+September!B31+October!B31+November!B31+December!B31</f>
-        <v>553</v>
+        <v>616</v>
       </c>
       <c r="C31" s="4">
         <f>January!C31+February!C31+March!C31+April!C31+May!C31+June!C31+July!C31+August!C31+September!C31+October!C31+November!C31+December!C31</f>
-        <v>2903</v>
+        <v>3141</v>
       </c>
       <c r="D31" s="4">
         <f>January!D31+February!D31+March!D31+April!D31+May!D31+June!D31+July!D31+August!D31+September!D31+October!D31+November!D31+December!D31</f>
-        <v>-2350</v>
+        <v>-2525</v>
       </c>
       <c r="E31" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2623,7 +2647,7 @@
       </c>
       <c r="G31" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>0.19 : 1</v>
+        <v>0.2 : 1</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2632,15 +2656,15 @@
       </c>
       <c r="B32" s="2">
         <f>January!B32+February!B32+March!B32+April!B32+May!B32+June!B32+July!B32+August!B32+September!B32+October!B32+November!B32+December!B32</f>
-        <v>4294</v>
+        <v>4731</v>
       </c>
       <c r="C32" s="2">
         <f>January!C32+February!C32+March!C32+April!C32+May!C32+June!C32+July!C32+August!C32+September!C32+October!C32+November!C32+December!C32</f>
-        <v>5640</v>
+        <v>6128</v>
       </c>
       <c r="D32" s="2">
         <f>January!D32+February!D32+March!D32+April!D32+May!D32+June!D32+July!D32+August!D32+September!D32+October!D32+November!D32+December!D32</f>
-        <v>-1346</v>
+        <v>-1397</v>
       </c>
       <c r="E32" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2652,7 +2676,7 @@
       </c>
       <c r="G32" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.76 : 1</v>
+        <v>0.77 : 1</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2661,15 +2685,15 @@
       </c>
       <c r="B33" s="4">
         <f>January!B33+February!B33+March!B33+April!B33+May!B33+June!B33+July!B33+August!B33+September!B33+October!B33+November!B33+December!B33</f>
-        <v>3567</v>
+        <v>3821</v>
       </c>
       <c r="C33" s="4">
         <f>January!C33+February!C33+March!C33+April!C33+May!C33+June!C33+July!C33+August!C33+September!C33+October!C33+November!C33+December!C33</f>
-        <v>5617</v>
+        <v>6071</v>
       </c>
       <c r="D33" s="4">
         <f>January!D33+February!D33+March!D33+April!D33+May!D33+June!D33+July!D33+August!D33+September!D33+October!D33+November!D33+December!D33</f>
-        <v>-2050</v>
+        <v>-2250</v>
       </c>
       <c r="E33" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2681,7 +2705,7 @@
       </c>
       <c r="G33" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>0.64 : 1</v>
+        <v>0.63 : 1</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2690,15 +2714,15 @@
       </c>
       <c r="B34" s="2">
         <f>January!B34+February!B34+March!B34+April!B34+May!B34+June!B34+July!B34+August!B34+September!B34+October!B34+November!B34+December!B34</f>
-        <v>1760</v>
+        <v>1908</v>
       </c>
       <c r="C34" s="2">
         <f>January!C34+February!C34+March!C34+April!C34+May!C34+June!C34+July!C34+August!C34+September!C34+October!C34+November!C34+December!C34</f>
-        <v>1043</v>
+        <v>1192</v>
       </c>
       <c r="D34" s="2">
         <f>January!D34+February!D34+March!D34+April!D34+May!D34+June!D34+July!D34+August!D34+September!D34+October!D34+November!D34+December!D34</f>
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E34" s="28" t="str">
         <f t="shared" ref="E34:E55" si="3">IF(D34 &gt; 0, "We borrowed more than we lent this year", "")</f>
@@ -2710,7 +2734,7 @@
       </c>
       <c r="G34" s="3" t="str">
         <f t="shared" ref="G34:G55" si="5">IF(ISERROR(ROUND(B34/C34,2)&amp;" : 1"), "", ROUND(B34/C34,2)&amp;" : 1")</f>
-        <v>1.69 : 1</v>
+        <v>1.6 : 1</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2719,15 +2743,15 @@
       </c>
       <c r="B35" s="4">
         <f>January!B35+February!B35+March!B35+April!B35+May!B35+June!B35+July!B35+August!B35+September!B35+October!B35+November!B35+December!B35</f>
-        <v>8509</v>
+        <v>9364</v>
       </c>
       <c r="C35" s="4">
         <f>January!C35+February!C35+March!C35+April!C35+May!C35+June!C35+July!C35+August!C35+September!C35+October!C35+November!C35+December!C35</f>
-        <v>11380</v>
+        <v>12411</v>
       </c>
       <c r="D35" s="4">
         <f>January!D35+February!D35+March!D35+April!D35+May!D35+June!D35+July!D35+August!D35+September!D35+October!D35+November!D35+December!D35</f>
-        <v>-2871</v>
+        <v>-3047</v>
       </c>
       <c r="E35" s="29" t="str">
         <f t="shared" si="3"/>
@@ -2748,15 +2772,15 @@
       </c>
       <c r="B36" s="2">
         <f>January!B36+February!B36+March!B36+April!B36+May!B36+June!B36+July!B36+August!B36+September!B36+October!B36+November!B36+December!B36</f>
-        <v>1932</v>
+        <v>2065</v>
       </c>
       <c r="C36" s="2">
         <f>January!C36+February!C36+March!C36+April!C36+May!C36+June!C36+July!C36+August!C36+September!C36+October!C36+November!C36+December!C36</f>
-        <v>4846</v>
+        <v>5357</v>
       </c>
       <c r="D36" s="2">
         <f>January!D36+February!D36+March!D36+April!D36+May!D36+June!D36+July!D36+August!D36+September!D36+October!D36+November!D36+December!D36</f>
-        <v>-2914</v>
+        <v>-3292</v>
       </c>
       <c r="E36" s="28" t="str">
         <f t="shared" si="3"/>
@@ -2768,7 +2792,7 @@
       </c>
       <c r="G36" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>0.4 : 1</v>
+        <v>0.39 : 1</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2777,15 +2801,15 @@
       </c>
       <c r="B37" s="4">
         <f>January!B37+February!B37+March!B37+April!B37+May!B37+June!B37+July!B37+August!B37+September!B37+October!B37+November!B37+December!B37</f>
-        <v>4888</v>
+        <v>5350</v>
       </c>
       <c r="C37" s="4">
         <f>January!C37+February!C37+March!C37+April!C37+May!C37+June!C37+July!C37+August!C37+September!C37+October!C37+November!C37+December!C37</f>
-        <v>3456</v>
+        <v>3755</v>
       </c>
       <c r="D37" s="4">
         <f>January!D37+February!D37+March!D37+April!D37+May!D37+June!D37+July!D37+August!D37+September!D37+October!D37+November!D37+December!D37</f>
-        <v>1432</v>
+        <v>1595</v>
       </c>
       <c r="E37" s="29" t="str">
         <f t="shared" si="3"/>
@@ -2797,7 +2821,7 @@
       </c>
       <c r="G37" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>1.41 : 1</v>
+        <v>1.42 : 1</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2806,15 +2830,15 @@
       </c>
       <c r="B38" s="2">
         <f>January!B38+February!B38+March!B38+April!B38+May!B38+June!B38+July!B38+August!B38+September!B38+October!B38+November!B38+December!B38</f>
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="C38" s="2">
         <f>January!C38+February!C38+March!C38+April!C38+May!C38+June!C38+July!C38+August!C38+September!C38+October!C38+November!C38+December!C38</f>
-        <v>1770</v>
+        <v>1905</v>
       </c>
       <c r="D38" s="2">
         <f>January!D38+February!D38+March!D38+April!D38+May!D38+June!D38+July!D38+August!D38+September!D38+October!D38+November!D38+December!D38</f>
-        <v>-1473</v>
+        <v>-1577</v>
       </c>
       <c r="E38" s="28" t="str">
         <f t="shared" si="3"/>
@@ -2835,15 +2859,15 @@
       </c>
       <c r="B39" s="4">
         <f>January!B44+February!B44+March!B44+April!B44+May!B44+June!B44+July!B44+August!B44+September!B44+October!B44+November!B44+December!B44</f>
-        <v>796</v>
+        <v>880</v>
       </c>
       <c r="C39" s="4">
         <f>January!C44+February!C44+March!C44+April!C44+May!C44+June!C44+July!C44+August!C44+September!C44+October!C44+November!C44+December!C44</f>
-        <v>799</v>
+        <v>885</v>
       </c>
       <c r="D39" s="4">
         <f>January!D44+February!D44+March!D44+April!D44+May!D44+June!D44+July!D44+August!D44+September!D44+October!D44+November!D44+December!D44</f>
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="E39" s="29" t="str">
         <f t="shared" si="3"/>
@@ -2855,7 +2879,7 @@
       </c>
       <c r="G39" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>1 : 1</v>
+        <v>0.99 : 1</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2864,15 +2888,15 @@
       </c>
       <c r="B40" s="8">
         <f>January!B39+February!B39+March!B39+April!B39+May!B39+June!B39+July!B39+August!B39+September!B39+October!B39+November!B39+December!B39</f>
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="C40" s="8">
         <f>January!C39+February!C39+March!C39+April!C39+May!C39+June!C39+July!C39+August!C39+September!C39+October!C39+November!C39+December!C39</f>
-        <v>742</v>
+        <v>839</v>
       </c>
       <c r="D40" s="8">
         <f>January!D39+February!D39+March!D39+April!D39+May!D39+June!D39+July!D39+August!D39+September!D39+October!D39+November!D39+December!D39</f>
-        <v>-512</v>
+        <v>-591</v>
       </c>
       <c r="E40" s="31" t="str">
         <f t="shared" si="3"/>
@@ -2884,7 +2908,7 @@
       </c>
       <c r="G40" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>0.31 : 1</v>
+        <v>0.3 : 1</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2893,15 +2917,15 @@
       </c>
       <c r="B41" s="8">
         <f>January!B40+February!B40+March!B40+April!B40+May!B40+June!B40+July!B40+August!B40+September!B40+October!B40+November!B40+December!B40</f>
-        <v>465</v>
+        <v>574</v>
       </c>
       <c r="C41" s="8">
         <f>January!C40+February!C40+March!C40+April!C40+May!C40+June!C40+July!C40+August!C40+September!C40+October!C40+November!C40+December!C40</f>
-        <v>825</v>
+        <v>947</v>
       </c>
       <c r="D41" s="8">
         <f>January!D40+February!D40+March!D40+April!D40+May!D40+June!D40+July!D40+August!D40+September!D40+October!D40+November!D40+December!D40</f>
-        <v>-360</v>
+        <v>-373</v>
       </c>
       <c r="E41" s="31" t="str">
         <f t="shared" si="3"/>
@@ -2913,7 +2937,7 @@
       </c>
       <c r="G41" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>0.56 : 1</v>
+        <v>0.61 : 1</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2922,15 +2946,15 @@
       </c>
       <c r="B42" s="8">
         <f>January!B41+February!B41+March!B41+April!B41+May!B41+June!B41+July!B41+August!B41+September!B41+October!B41+November!B41+December!B41</f>
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C42" s="8">
         <f>January!C41+February!C41+March!C41+April!C41+May!C41+June!C41+July!C41+August!C41+September!C41+October!C41+November!C41+December!C41</f>
-        <v>277</v>
+        <v>309</v>
       </c>
       <c r="D42" s="8">
         <f>January!D41+February!D41+March!D41+April!D41+May!D41+June!D41+July!D41+August!D41+September!D41+October!D41+November!D41+December!D41</f>
-        <v>-213</v>
+        <v>-229</v>
       </c>
       <c r="E42" s="31" t="str">
         <f t="shared" si="3"/>
@@ -2942,7 +2966,7 @@
       </c>
       <c r="G42" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>0.23 : 1</v>
+        <v>0.26 : 1</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2951,15 +2975,15 @@
       </c>
       <c r="B43" s="8">
         <f>January!B42+February!B42+March!B42+April!B42+May!B42+June!B42+July!B42+August!B42+September!B42+October!B42+November!B42+December!B42</f>
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="C43" s="8">
         <f>January!C42+February!C42+March!C42+April!C42+May!C42+June!C42+July!C42+August!C42+September!C42+October!C42+November!C42+December!C42</f>
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="D43" s="8">
         <f>January!D42+February!D42+March!D42+April!D42+May!D42+June!D42+July!D42+August!D42+September!D42+October!D42+November!D42+December!D42</f>
-        <v>-181</v>
+        <v>-199</v>
       </c>
       <c r="E43" s="31" t="str">
         <f t="shared" si="3"/>
@@ -2971,7 +2995,7 @@
       </c>
       <c r="G43" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>0.24 : 1</v>
+        <v>0.25 : 1</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3009,15 +3033,15 @@
       </c>
       <c r="B45" s="2">
         <f>January!B45+February!B45+March!B45+April!B45+May!B45+June!B45+July!B45+August!B45+September!B45+October!B45+November!B45+December!B45</f>
-        <v>772</v>
+        <v>824</v>
       </c>
       <c r="C45" s="2">
         <f>January!C45+February!C45+March!C45+April!C45+May!C45+June!C45+July!C45+August!C45+September!C45+October!C45+November!C45+December!C45</f>
-        <v>1775</v>
+        <v>1968</v>
       </c>
       <c r="D45" s="2">
         <f>January!D45+February!D45+March!D45+April!D45+May!D45+June!D45+July!D45+August!D45+September!D45+October!D45+November!D45+December!D45</f>
-        <v>-1003</v>
+        <v>-1144</v>
       </c>
       <c r="E45" s="28" t="str">
         <f t="shared" si="3"/>
@@ -3029,7 +3053,7 @@
       </c>
       <c r="G45" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>0.43 : 1</v>
+        <v>0.42 : 1</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3038,15 +3062,15 @@
       </c>
       <c r="B46" s="4">
         <f>January!B46+February!B46+March!B46+April!B46+May!B46+June!B46+July!B46+August!B46+September!B46+October!B46+November!B46+December!B46</f>
-        <v>5267</v>
+        <v>5684</v>
       </c>
       <c r="C46" s="4">
         <f>January!C46+February!C46+March!C46+April!C46+May!C46+June!C46+July!C46+August!C46+September!C46+October!C46+November!C46+December!C46</f>
-        <v>5825</v>
+        <v>6366</v>
       </c>
       <c r="D46" s="4">
         <f>January!D46+February!D46+March!D46+April!D46+May!D46+June!D46+July!D46+August!D46+September!D46+October!D46+November!D46+December!D46</f>
-        <v>-558</v>
+        <v>-682</v>
       </c>
       <c r="E46" s="29" t="str">
         <f t="shared" si="3"/>
@@ -3058,7 +3082,7 @@
       </c>
       <c r="G46" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>0.9 : 1</v>
+        <v>0.89 : 1</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3067,15 +3091,15 @@
       </c>
       <c r="B47" s="2">
         <f>January!B47+February!B47+March!B47+April!B47+May!B47+June!B47+July!B47+August!B47+September!B47+October!B47+November!B47+December!B47</f>
-        <v>10574</v>
+        <v>11431</v>
       </c>
       <c r="C47" s="2">
         <f>January!C47+February!C47+March!C47+April!C47+May!C47+June!C47+July!C47+August!C47+September!C47+October!C47+November!C47+December!C47</f>
-        <v>5821</v>
+        <v>6376</v>
       </c>
       <c r="D47" s="2">
         <f>January!D47+February!D47+March!D47+April!D47+May!D47+June!D47+July!D47+August!D47+September!D47+October!D47+November!D47+December!D47</f>
-        <v>4753</v>
+        <v>5055</v>
       </c>
       <c r="E47" s="28" t="str">
         <f t="shared" si="3"/>
@@ -3087,7 +3111,7 @@
       </c>
       <c r="G47" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>1.82 : 1</v>
+        <v>1.79 : 1</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3096,15 +3120,15 @@
       </c>
       <c r="B48" s="4">
         <f>January!B48+February!B48+March!B48+April!B48+May!B48+June!B48+July!B48+August!B48+September!B48+October!B48+November!B48+December!B48</f>
-        <v>2495</v>
+        <v>2667</v>
       </c>
       <c r="C48" s="4">
         <f>January!C48+February!C48+March!C48+April!C48+May!C48+June!C48+July!C48+August!C48+September!C48+October!C48+November!C48+December!C48</f>
-        <v>5804</v>
+        <v>6382</v>
       </c>
       <c r="D48" s="4">
         <f>January!D48+February!D48+March!D48+April!D48+May!D48+June!D48+July!D48+August!D48+September!D48+October!D48+November!D48+December!D48</f>
-        <v>-3309</v>
+        <v>-3715</v>
       </c>
       <c r="E48" s="29" t="str">
         <f t="shared" si="3"/>
@@ -3116,7 +3140,7 @@
       </c>
       <c r="G48" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>0.43 : 1</v>
+        <v>0.42 : 1</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3125,15 +3149,15 @@
       </c>
       <c r="B49" s="2">
         <f>January!B49+February!B49+March!B49+April!B49+May!B49+June!B49+July!B49+August!B49+September!B49+October!B49+November!B49+December!B49</f>
-        <v>5676</v>
+        <v>6336</v>
       </c>
       <c r="C49" s="2">
         <f>January!C49+February!C49+March!C49+April!C49+May!C49+June!C49+July!C49+August!C49+September!C49+October!C49+November!C49+December!C49</f>
-        <v>2613</v>
+        <v>2865</v>
       </c>
       <c r="D49" s="2">
         <f>January!D49+February!D49+March!D49+April!D49+May!D49+June!D49+July!D49+August!D49+September!D49+October!D49+November!D49+December!D49</f>
-        <v>3063</v>
+        <v>3471</v>
       </c>
       <c r="E49" s="28" t="str">
         <f t="shared" si="3"/>
@@ -3145,7 +3169,7 @@
       </c>
       <c r="G49" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>2.17 : 1</v>
+        <v>2.21 : 1</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3154,15 +3178,15 @@
       </c>
       <c r="B50" s="4">
         <f>January!B50+February!B50+March!B50+April!B50+May!B50+June!B50+July!B50+August!B50+September!B50+October!B50+November!B50+December!B50</f>
-        <v>9244</v>
+        <v>9934</v>
       </c>
       <c r="C50" s="4">
         <f>January!C50+February!C50+March!C50+April!C50+May!C50+June!C50+July!C50+August!C50+September!C50+October!C50+November!C50+December!C50</f>
-        <v>5630</v>
+        <v>6154</v>
       </c>
       <c r="D50" s="4">
         <f>January!D50+February!D50+March!D50+April!D50+May!D50+June!D50+July!D50+August!D50+September!D50+October!D50+November!D50+December!D50</f>
-        <v>3614</v>
+        <v>3780</v>
       </c>
       <c r="E50" s="29" t="str">
         <f t="shared" si="3"/>
@@ -3174,7 +3198,7 @@
       </c>
       <c r="G50" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>1.64 : 1</v>
+        <v>1.61 : 1</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3183,15 +3207,15 @@
       </c>
       <c r="B51" s="2">
         <f>January!B51+February!B51+March!B51+April!B51+May!B51+June!B51+July!B51+August!B51+September!B51+October!B51+November!B51+December!B51</f>
-        <v>2214</v>
+        <v>2405</v>
       </c>
       <c r="C51" s="2">
         <f>January!C51+February!C51+March!C51+April!C51+May!C51+June!C51+July!C51+August!C51+September!C51+October!C51+November!C51+December!C51</f>
-        <v>1651</v>
+        <v>1812</v>
       </c>
       <c r="D51" s="2">
         <f>January!D51+February!D51+March!D51+April!D51+May!D51+June!D51+July!D51+August!D51+September!D51+October!D51+November!D51+December!D51</f>
-        <v>563</v>
+        <v>593</v>
       </c>
       <c r="E51" s="28" t="str">
         <f t="shared" si="3"/>
@@ -3203,7 +3227,7 @@
       </c>
       <c r="G51" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>1.34 : 1</v>
+        <v>1.33 : 1</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3212,15 +3236,15 @@
       </c>
       <c r="B52" s="4">
         <f>January!B52+February!B52+March!B52+April!B52+May!B52+June!B52+July!B52+August!B52+September!B52+October!B52+November!B52+December!B52</f>
-        <v>3541</v>
+        <v>3853</v>
       </c>
       <c r="C52" s="4">
         <f>January!C52+February!C52+March!C52+April!C52+May!C52+June!C52+July!C52+August!C52+September!C52+October!C52+November!C52+December!C52</f>
-        <v>4052</v>
+        <v>4374</v>
       </c>
       <c r="D52" s="4">
         <f>January!D52+February!D52+March!D52+April!D52+May!D52+June!D52+July!D52+August!D52+September!D52+October!D52+November!D52+December!D52</f>
-        <v>-511</v>
+        <v>-521</v>
       </c>
       <c r="E52" s="29" t="str">
         <f t="shared" si="3"/>
@@ -3232,7 +3256,7 @@
       </c>
       <c r="G52" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>0.87 : 1</v>
+        <v>0.88 : 1</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3241,15 +3265,15 @@
       </c>
       <c r="B53" s="2">
         <f>January!B53+February!B53+March!B53+April!B53+May!B53+June!B53+July!B53+August!B53+September!B53+October!B53+November!B53+December!B53</f>
-        <v>1371</v>
+        <v>1604</v>
       </c>
       <c r="C53" s="2">
         <f>January!C53+February!C53+March!C53+April!C53+May!C53+June!C53+July!C53+August!C53+September!C53+October!C53+November!C53+December!C53</f>
-        <v>2296</v>
+        <v>2473</v>
       </c>
       <c r="D53" s="2">
         <f>January!D53+February!D53+March!D53+April!D53+May!D53+June!D53+July!D53+August!D53+September!D53+October!D53+November!D53+December!D53</f>
-        <v>-925</v>
+        <v>-869</v>
       </c>
       <c r="E53" s="28" t="str">
         <f t="shared" si="3"/>
@@ -3261,7 +3285,7 @@
       </c>
       <c r="G53" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>0.6 : 1</v>
+        <v>0.65 : 1</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3270,15 +3294,15 @@
       </c>
       <c r="B54" s="4">
         <f>January!B54+February!B54+March!B54+April!B54+May!B54+June!B54+July!B54+August!B54+September!B54+October!B54+November!B54+December!B54</f>
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="C54" s="4">
         <f>January!C54+February!C54+March!C54+April!C54+May!C54+June!C54+July!C54+August!C54+September!C54+October!C54+November!C54+December!C54</f>
-        <v>2211</v>
+        <v>2442</v>
       </c>
       <c r="D54" s="4">
         <f>January!D54+February!D54+March!D54+April!D54+May!D54+June!D54+July!D54+August!D54+September!D54+October!D54+November!D54+December!D54</f>
-        <v>-1927</v>
+        <v>-2120</v>
       </c>
       <c r="E54" s="29" t="str">
         <f t="shared" si="3"/>
@@ -3299,15 +3323,15 @@
       </c>
       <c r="B55" s="10">
         <f>January!B55+February!B55+March!B55+April!B55+May!B55+June!B55+July!B55+August!B55+September!B55+October!B55+November!B55+December!B55</f>
-        <v>3268</v>
+        <v>3690</v>
       </c>
       <c r="C55" s="10">
         <f>January!C55+February!C55+March!C55+April!C55+May!C55+June!C55+July!C55+August!C55+September!C55+October!C55+November!C55+December!C55</f>
-        <v>1960</v>
+        <v>2077</v>
       </c>
       <c r="D55" s="10">
         <f>January!D55+February!D55+March!D55+April!D55+May!D55+June!D55+July!D55+August!D55+September!D55+October!D55+November!D55+December!D55</f>
-        <v>1308</v>
+        <v>1613</v>
       </c>
       <c r="E55" s="32" t="str">
         <f t="shared" si="3"/>
@@ -3319,7 +3343,7 @@
       </c>
       <c r="G55" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>1.67 : 1</v>
+        <v>1.78 : 1</v>
       </c>
     </row>
   </sheetData>
@@ -5722,7 +5746,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5762,108 +5786,204 @@
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="28"/>
+      <c r="B2" s="18">
+        <v>1496</v>
+      </c>
+      <c r="C2" s="18">
+        <v>1082</v>
+      </c>
+      <c r="D2" s="18">
+        <v>414</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F2" s="28"/>
-      <c r="G2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="29"/>
+      <c r="B3" s="21">
+        <v>501</v>
+      </c>
+      <c r="C3" s="21">
+        <v>353</v>
+      </c>
+      <c r="D3" s="21">
+        <v>148</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F3" s="29"/>
-      <c r="G3" s="5"/>
+      <c r="G3" s="5" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="B4" s="18">
+        <v>1088</v>
+      </c>
+      <c r="C4" s="18">
+        <v>1181</v>
+      </c>
+      <c r="D4" s="18">
+        <v>-93</v>
+      </c>
       <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="3"/>
+      <c r="F4" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
+      <c r="B5" s="21">
+        <v>40</v>
+      </c>
+      <c r="C5" s="21">
+        <v>107</v>
+      </c>
+      <c r="D5" s="21">
+        <v>-67</v>
+      </c>
       <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="5"/>
+      <c r="F5" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
+      <c r="B6" s="18">
+        <v>899</v>
+      </c>
+      <c r="C6" s="18">
+        <v>1318</v>
+      </c>
+      <c r="D6" s="18">
+        <v>-419</v>
+      </c>
       <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="3"/>
+      <c r="F6" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
+      <c r="B7" s="21">
+        <v>128</v>
+      </c>
+      <c r="C7" s="21">
+        <v>161</v>
+      </c>
+      <c r="D7" s="21">
+        <v>-33</v>
+      </c>
       <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="5"/>
+      <c r="F7" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
+      <c r="B8" s="18">
+        <v>133</v>
+      </c>
+      <c r="C8" s="18">
+        <v>185</v>
+      </c>
+      <c r="D8" s="18">
+        <v>-52</v>
+      </c>
       <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
+      <c r="B9" s="21">
+        <v>29</v>
+      </c>
+      <c r="C9" s="21">
+        <v>59</v>
+      </c>
+      <c r="D9" s="21">
+        <v>-30</v>
+      </c>
       <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="5"/>
+      <c r="F9" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
+      <c r="B10" s="18">
+        <v>5</v>
+      </c>
+      <c r="C10" s="18">
+        <v>41</v>
+      </c>
+      <c r="D10" s="18">
+        <v>-36</v>
+      </c>
       <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="3"/>
+      <c r="F10" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
+      <c r="B11" s="21">
+        <v>0</v>
+      </c>
+      <c r="C11" s="21">
+        <v>0</v>
+      </c>
+      <c r="D11" s="21">
+        <v>0</v>
+      </c>
       <c r="E11" s="29"/>
       <c r="F11" s="29"/>
       <c r="G11" s="5"/>
@@ -5872,163 +5992,309 @@
       <c r="A12" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
+      <c r="B12" s="23">
+        <v>11</v>
+      </c>
+      <c r="C12" s="23">
+        <v>18</v>
+      </c>
+      <c r="D12" s="23">
+        <v>-7</v>
+      </c>
       <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="7"/>
+      <c r="F12" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="30"/>
+      <c r="B13" s="23">
+        <v>75</v>
+      </c>
+      <c r="C13" s="23">
+        <v>41</v>
+      </c>
+      <c r="D13" s="23">
+        <v>34</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>61</v>
+      </c>
       <c r="F13" s="30"/>
-      <c r="G13" s="7"/>
+      <c r="G13" s="7" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
+      <c r="B14" s="23">
+        <v>200</v>
+      </c>
+      <c r="C14" s="23">
+        <v>203</v>
+      </c>
+      <c r="D14" s="23">
+        <v>-3</v>
+      </c>
       <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="7"/>
+      <c r="F14" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
+      <c r="B15" s="23">
+        <v>48</v>
+      </c>
+      <c r="C15" s="23">
+        <v>118</v>
+      </c>
+      <c r="D15" s="23">
+        <v>-70</v>
+      </c>
       <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="7"/>
+      <c r="F15" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
+      <c r="B16" s="18">
+        <v>37</v>
+      </c>
+      <c r="C16" s="18">
+        <v>139</v>
+      </c>
+      <c r="D16" s="18">
+        <v>-102</v>
+      </c>
       <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="3"/>
+      <c r="F16" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="29"/>
+      <c r="B17" s="21">
+        <v>552</v>
+      </c>
+      <c r="C17" s="21">
+        <v>350</v>
+      </c>
+      <c r="D17" s="21">
+        <v>202</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F17" s="29"/>
-      <c r="G17" s="5"/>
+      <c r="G17" s="5" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
+      <c r="B18" s="18">
+        <v>87</v>
+      </c>
+      <c r="C18" s="18">
+        <v>91</v>
+      </c>
+      <c r="D18" s="18">
+        <v>-4</v>
+      </c>
       <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="3"/>
+      <c r="F18" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="29"/>
+      <c r="B19" s="21">
+        <v>444</v>
+      </c>
+      <c r="C19" s="21">
+        <v>313</v>
+      </c>
+      <c r="D19" s="21">
+        <v>131</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F19" s="29"/>
-      <c r="G19" s="5"/>
+      <c r="G19" s="5" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
+      <c r="B20" s="18">
+        <v>37</v>
+      </c>
+      <c r="C20" s="18">
+        <v>49</v>
+      </c>
+      <c r="D20" s="18">
+        <v>-12</v>
+      </c>
       <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="3"/>
+      <c r="F20" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="29"/>
+      <c r="B21" s="21">
+        <v>500</v>
+      </c>
+      <c r="C21" s="21">
+        <v>271</v>
+      </c>
+      <c r="D21" s="21">
+        <v>229</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F21" s="29"/>
-      <c r="G21" s="5"/>
+      <c r="G21" s="5" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
+      <c r="B22" s="18">
+        <v>33</v>
+      </c>
+      <c r="C22" s="18">
+        <v>139</v>
+      </c>
+      <c r="D22" s="18">
+        <v>-106</v>
+      </c>
       <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="3"/>
+      <c r="F22" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="29"/>
+      <c r="B23" s="21">
+        <v>475</v>
+      </c>
+      <c r="C23" s="21">
+        <v>238</v>
+      </c>
+      <c r="D23" s="21">
+        <v>237</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F23" s="29"/>
-      <c r="G23" s="5"/>
+      <c r="G23" s="5" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="28"/>
+      <c r="B24" s="18">
+        <v>1337</v>
+      </c>
+      <c r="C24" s="18">
+        <v>981</v>
+      </c>
+      <c r="D24" s="18">
+        <v>356</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F24" s="28"/>
-      <c r="G24" s="3"/>
+      <c r="G24" s="3" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
+      <c r="B25" s="21">
+        <v>166</v>
+      </c>
+      <c r="C25" s="21">
+        <v>473</v>
+      </c>
+      <c r="D25" s="21">
+        <v>-307</v>
+      </c>
       <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="5"/>
+      <c r="F25" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
+      <c r="B26" s="18">
+        <v>0</v>
+      </c>
+      <c r="C26" s="18">
+        <v>0</v>
+      </c>
+      <c r="D26" s="18">
+        <v>0</v>
+      </c>
       <c r="E26" s="28"/>
       <c r="F26" s="28"/>
       <c r="G26" s="3"/>
@@ -6037,185 +6303,351 @@
       <c r="A27" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="29"/>
+      <c r="B27" s="21">
+        <v>214</v>
+      </c>
+      <c r="C27" s="21">
+        <v>167</v>
+      </c>
+      <c r="D27" s="21">
+        <v>47</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F27" s="29"/>
-      <c r="G27" s="5"/>
+      <c r="G27" s="5" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="28"/>
+      <c r="B28" s="18">
+        <v>112</v>
+      </c>
+      <c r="C28" s="18">
+        <v>81</v>
+      </c>
+      <c r="D28" s="18">
+        <v>31</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F28" s="28"/>
-      <c r="G28" s="3"/>
+      <c r="G28" s="3" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="29"/>
+      <c r="B29" s="21">
+        <v>661</v>
+      </c>
+      <c r="C29" s="21">
+        <v>467</v>
+      </c>
+      <c r="D29" s="21">
+        <v>194</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F29" s="29"/>
-      <c r="G29" s="5"/>
+      <c r="G29" s="5" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
+      <c r="B30" s="18">
+        <v>13</v>
+      </c>
+      <c r="C30" s="18">
+        <v>38</v>
+      </c>
+      <c r="D30" s="18">
+        <v>-25</v>
+      </c>
       <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="3"/>
+      <c r="F30" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
+      <c r="B31" s="21">
+        <v>63</v>
+      </c>
+      <c r="C31" s="21">
+        <v>238</v>
+      </c>
+      <c r="D31" s="21">
+        <v>-175</v>
+      </c>
       <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="5"/>
+      <c r="F31" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
+      <c r="B32" s="18">
+        <v>437</v>
+      </c>
+      <c r="C32" s="18">
+        <v>488</v>
+      </c>
+      <c r="D32" s="18">
+        <v>-51</v>
+      </c>
       <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="3"/>
+      <c r="F32" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
+      <c r="B33" s="21">
+        <v>254</v>
+      </c>
+      <c r="C33" s="21">
+        <v>454</v>
+      </c>
+      <c r="D33" s="21">
+        <v>-200</v>
+      </c>
       <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="5"/>
+      <c r="F33" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
+      <c r="B34" s="18">
+        <v>148</v>
+      </c>
+      <c r="C34" s="18">
+        <v>149</v>
+      </c>
+      <c r="D34" s="18">
+        <v>-1</v>
+      </c>
       <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="3"/>
+      <c r="F34" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
+      <c r="B35" s="21">
+        <v>855</v>
+      </c>
+      <c r="C35" s="21">
+        <v>1031</v>
+      </c>
+      <c r="D35" s="21">
+        <v>-176</v>
+      </c>
       <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="5"/>
+      <c r="F35" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
+      <c r="B36" s="18">
+        <v>133</v>
+      </c>
+      <c r="C36" s="18">
+        <v>511</v>
+      </c>
+      <c r="D36" s="18">
+        <v>-378</v>
+      </c>
       <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="3"/>
+      <c r="F36" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="29"/>
+      <c r="B37" s="21">
+        <v>462</v>
+      </c>
+      <c r="C37" s="21">
+        <v>299</v>
+      </c>
+      <c r="D37" s="21">
+        <v>163</v>
+      </c>
+      <c r="E37" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F37" s="29"/>
-      <c r="G37" s="5"/>
+      <c r="G37" s="5" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
+      <c r="B38" s="18">
+        <v>31</v>
+      </c>
+      <c r="C38" s="18">
+        <v>135</v>
+      </c>
+      <c r="D38" s="18">
+        <v>-104</v>
+      </c>
       <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="3"/>
+      <c r="F38" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
+      <c r="B39" s="25">
+        <v>18</v>
+      </c>
+      <c r="C39" s="25">
+        <v>97</v>
+      </c>
+      <c r="D39" s="25">
+        <v>-79</v>
+      </c>
       <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="9"/>
+      <c r="F39" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
+      <c r="B40" s="25">
+        <v>109</v>
+      </c>
+      <c r="C40" s="25">
+        <v>122</v>
+      </c>
+      <c r="D40" s="25">
+        <v>-13</v>
+      </c>
       <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="9"/>
+      <c r="F40" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
+      <c r="B41" s="25">
+        <v>16</v>
+      </c>
+      <c r="C41" s="25">
+        <v>32</v>
+      </c>
+      <c r="D41" s="25">
+        <v>-16</v>
+      </c>
       <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="9"/>
+      <c r="F41" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
+      <c r="B42" s="25">
+        <v>11</v>
+      </c>
+      <c r="C42" s="25">
+        <v>29</v>
+      </c>
+      <c r="D42" s="25">
+        <v>-18</v>
+      </c>
       <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="9"/>
+      <c r="F42" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
+      <c r="B43" s="25">
+        <v>0</v>
+      </c>
+      <c r="C43" s="25">
+        <v>0</v>
+      </c>
+      <c r="D43" s="25">
+        <v>0</v>
+      </c>
       <c r="E43" s="31"/>
       <c r="F43" s="31"/>
       <c r="G43" s="9"/>
@@ -6224,133 +6656,253 @@
       <c r="A44" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
+      <c r="B44" s="21">
+        <v>84</v>
+      </c>
+      <c r="C44" s="21">
+        <v>86</v>
+      </c>
+      <c r="D44" s="21">
+        <v>-2</v>
+      </c>
       <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="5"/>
+      <c r="F44" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
+      <c r="B45" s="18">
+        <v>52</v>
+      </c>
+      <c r="C45" s="18">
+        <v>193</v>
+      </c>
+      <c r="D45" s="18">
+        <v>-141</v>
+      </c>
       <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="3"/>
+      <c r="F45" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
+      <c r="B46" s="21">
+        <v>417</v>
+      </c>
+      <c r="C46" s="21">
+        <v>541</v>
+      </c>
+      <c r="D46" s="21">
+        <v>-124</v>
+      </c>
       <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="5"/>
+      <c r="F46" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="28"/>
+      <c r="B47" s="18">
+        <v>857</v>
+      </c>
+      <c r="C47" s="18">
+        <v>555</v>
+      </c>
+      <c r="D47" s="18">
+        <v>302</v>
+      </c>
+      <c r="E47" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F47" s="28"/>
-      <c r="G47" s="3"/>
+      <c r="G47" s="3" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
+      <c r="B48" s="21">
+        <v>172</v>
+      </c>
+      <c r="C48" s="21">
+        <v>578</v>
+      </c>
+      <c r="D48" s="21">
+        <v>-406</v>
+      </c>
       <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="5"/>
+      <c r="F48" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="28"/>
+      <c r="B49" s="18">
+        <v>660</v>
+      </c>
+      <c r="C49" s="18">
+        <v>252</v>
+      </c>
+      <c r="D49" s="18">
+        <v>408</v>
+      </c>
+      <c r="E49" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F49" s="28"/>
-      <c r="G49" s="3"/>
+      <c r="G49" s="3" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="29"/>
+      <c r="B50" s="21">
+        <v>690</v>
+      </c>
+      <c r="C50" s="21">
+        <v>524</v>
+      </c>
+      <c r="D50" s="21">
+        <v>166</v>
+      </c>
+      <c r="E50" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F50" s="29"/>
-      <c r="G50" s="5"/>
+      <c r="G50" s="5" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="28"/>
+      <c r="B51" s="18">
+        <v>191</v>
+      </c>
+      <c r="C51" s="18">
+        <v>161</v>
+      </c>
+      <c r="D51" s="18">
+        <v>30</v>
+      </c>
+      <c r="E51" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F51" s="28"/>
-      <c r="G51" s="3"/>
+      <c r="G51" s="3" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
+      <c r="B52" s="21">
+        <v>312</v>
+      </c>
+      <c r="C52" s="21">
+        <v>322</v>
+      </c>
+      <c r="D52" s="21">
+        <v>-10</v>
+      </c>
       <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="5"/>
+      <c r="F52" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="28"/>
+      <c r="B53" s="18">
+        <v>233</v>
+      </c>
+      <c r="C53" s="18">
+        <v>177</v>
+      </c>
+      <c r="D53" s="18">
+        <v>56</v>
+      </c>
+      <c r="E53" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F53" s="28"/>
-      <c r="G53" s="3"/>
+      <c r="G53" s="3" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B54" s="21"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
+      <c r="B54" s="21">
+        <v>38</v>
+      </c>
+      <c r="C54" s="21">
+        <v>231</v>
+      </c>
+      <c r="D54" s="21">
+        <v>-193</v>
+      </c>
       <c r="E54" s="29"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="5"/>
+      <c r="F54" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="B55" s="27"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="32"/>
+      <c r="B55" s="27">
+        <v>422</v>
+      </c>
+      <c r="C55" s="27">
+        <v>117</v>
+      </c>
+      <c r="D55" s="27">
+        <v>305</v>
+      </c>
+      <c r="E55" s="32" t="s">
+        <v>61</v>
+      </c>
       <c r="F55" s="32"/>
-      <c r="G55" s="11"/>
+      <c r="G55" s="11" t="s">
+        <v>271</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G55" xr:uid="{00000000-0009-0000-0000-00000B000000}"/>

--- a/statistics_files/2024/2024_99_g_net_borrower_lender.xlsx
+++ b/statistics_files/2024/2024_99_g_net_borrower_lender.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\github\next_statistics\statistics_files\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE865377-F646-4F52-A885-ECD43DD0EFF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D4AC52-B5B3-4BED-A19C-7741B16CE70C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="673" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1915" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2017" uniqueCount="282">
   <si>
     <t>NET</t>
   </si>
@@ -877,6 +877,36 @@
   </si>
   <si>
     <t>3.61 : 1</t>
+  </si>
+  <si>
+    <t>1.12 : 1</t>
+  </si>
+  <si>
+    <t>0.91 : 1</t>
+  </si>
+  <si>
+    <t>1.29 : 1</t>
+  </si>
+  <si>
+    <t>0.29 : 1</t>
+  </si>
+  <si>
+    <t>1.22 : 1</t>
+  </si>
+  <si>
+    <t>1.52 : 1</t>
+  </si>
+  <si>
+    <t>3.53 : 1</t>
+  </si>
+  <si>
+    <t>1.65 : 1</t>
+  </si>
+  <si>
+    <t>0.94 : 1</t>
+  </si>
+  <si>
+    <t>3.58 : 1</t>
   </si>
 </sst>
 </file>
@@ -1786,15 +1816,15 @@
       </c>
       <c r="B2" s="2">
         <f>January!B2+February!B2+March!B2+April!B2+May!B2+June!B2+July!B2+August!B2+September!B2+October!B2+November!B2+December!B2</f>
-        <v>15885</v>
+        <v>17209</v>
       </c>
       <c r="C2" s="2">
         <f>January!C2+February!C2+March!C2+April!C2+May!C2+June!C2+July!C2+August!C2+September!C2+October!C2+November!C2+December!C2</f>
-        <v>13212</v>
+        <v>14314</v>
       </c>
       <c r="D2" s="2">
         <f>January!D2+February!D2+March!D2+April!D2+May!D2+June!D2+July!D2+August!D2+September!D2+October!D2+November!D2+December!D2</f>
-        <v>2673</v>
+        <v>2895</v>
       </c>
       <c r="E2" s="28" t="str">
         <f t="shared" ref="E2:E33" si="0">IF(D2 &gt; 0, "We borrowed more than we lent this year", "")</f>
@@ -1815,15 +1845,15 @@
       </c>
       <c r="B3" s="4">
         <f>January!B3+February!B3+March!B3+April!B3+May!B3+June!B3+July!B3+August!B3+September!B3+October!B3+November!B3+December!B3</f>
-        <v>6847</v>
+        <v>7357</v>
       </c>
       <c r="C3" s="4">
         <f>January!C3+February!C3+March!C3+April!C3+May!C3+June!C3+July!C3+August!C3+September!C3+October!C3+November!C3+December!C3</f>
-        <v>4685</v>
+        <v>5054</v>
       </c>
       <c r="D3" s="4">
         <f>January!D3+February!D3+March!D3+April!D3+May!D3+June!D3+July!D3+August!D3+September!D3+October!D3+November!D3+December!D3</f>
-        <v>2162</v>
+        <v>2303</v>
       </c>
       <c r="E3" s="29" t="str">
         <f t="shared" si="0"/>
@@ -1844,15 +1874,15 @@
       </c>
       <c r="B4" s="2">
         <f>January!B4+February!B4+March!B4+April!B4+May!B4+June!B4+July!B4+August!B4+September!B4+October!B4+November!B4+December!B4</f>
-        <v>12883</v>
+        <v>13858</v>
       </c>
       <c r="C4" s="2">
         <f>January!C4+February!C4+March!C4+April!C4+May!C4+June!C4+July!C4+August!C4+September!C4+October!C4+November!C4+December!C4</f>
-        <v>13148</v>
+        <v>14246</v>
       </c>
       <c r="D4" s="2">
         <f>January!D4+February!D4+March!D4+April!D4+May!D4+June!D4+July!D4+August!D4+September!D4+October!D4+November!D4+December!D4</f>
-        <v>-265</v>
+        <v>-388</v>
       </c>
       <c r="E4" s="28" t="str">
         <f t="shared" si="0"/>
@@ -1864,7 +1894,7 @@
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.98 : 1</v>
+        <v>0.97 : 1</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1873,15 +1903,15 @@
       </c>
       <c r="B5" s="4">
         <f>January!B5+February!B5+March!B5+April!B5+May!B5+June!B5+July!B5+August!B5+September!B5+October!B5+November!B5+December!B5</f>
-        <v>474</v>
+        <v>503</v>
       </c>
       <c r="C5" s="4">
         <f>January!C5+February!C5+March!C5+April!C5+May!C5+June!C5+July!C5+August!C5+September!C5+October!C5+November!C5+December!C5</f>
-        <v>1386</v>
+        <v>1490</v>
       </c>
       <c r="D5" s="4">
         <f>January!D5+February!D5+March!D5+April!D5+May!D5+June!D5+July!D5+August!D5+September!D5+October!D5+November!D5+December!D5</f>
-        <v>-912</v>
+        <v>-987</v>
       </c>
       <c r="E5" s="29" t="str">
         <f t="shared" si="0"/>
@@ -1902,15 +1932,15 @@
       </c>
       <c r="B6" s="2">
         <f>January!B6+February!B6+March!B6+April!B6+May!B6+June!B6+July!B6+August!B6+September!B6+October!B6+November!B6+December!B6</f>
-        <v>11635</v>
+        <v>12471</v>
       </c>
       <c r="C6" s="2">
         <f>January!C6+February!C6+March!C6+April!C6+May!C6+June!C6+July!C6+August!C6+September!C6+October!C6+November!C6+December!C6</f>
-        <v>15664</v>
+        <v>17039</v>
       </c>
       <c r="D6" s="2">
         <f>January!D6+February!D6+March!D6+April!D6+May!D6+June!D6+July!D6+August!D6+September!D6+October!D6+November!D6+December!D6</f>
-        <v>-4029</v>
+        <v>-4568</v>
       </c>
       <c r="E6" s="28" t="str">
         <f t="shared" si="0"/>
@@ -1922,7 +1952,7 @@
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.74 : 1</v>
+        <v>0.73 : 1</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1931,15 +1961,15 @@
       </c>
       <c r="B7" s="4">
         <f>January!B7+February!B7+March!B7+April!B7+May!B7+June!B7+July!B7+August!B7+September!B7+October!B7+November!B7+December!B7</f>
-        <v>2900</v>
+        <v>3054</v>
       </c>
       <c r="C7" s="4">
         <f>January!C7+February!C7+March!C7+April!C7+May!C7+June!C7+July!C7+August!C7+September!C7+October!C7+November!C7+December!C7</f>
-        <v>1836</v>
+        <v>1994</v>
       </c>
       <c r="D7" s="4">
         <f>January!D7+February!D7+March!D7+April!D7+May!D7+June!D7+July!D7+August!D7+September!D7+October!D7+November!D7+December!D7</f>
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="E7" s="29" t="str">
         <f t="shared" si="0"/>
@@ -1951,7 +1981,7 @@
       </c>
       <c r="G7" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>1.58 : 1</v>
+        <v>1.53 : 1</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1960,15 +1990,15 @@
       </c>
       <c r="B8" s="2">
         <f>January!B8+February!B8+March!B8+April!B8+May!B8+June!B8+July!B8+August!B8+September!B8+October!B8+November!B8+December!B8</f>
-        <v>1471</v>
+        <v>1611</v>
       </c>
       <c r="C8" s="2">
         <f>January!C8+February!C8+March!C8+April!C8+May!C8+June!C8+July!C8+August!C8+September!C8+October!C8+November!C8+December!C8</f>
-        <v>2090</v>
+        <v>2233</v>
       </c>
       <c r="D8" s="2">
         <f>January!D8+February!D8+March!D8+April!D8+May!D8+June!D8+July!D8+August!D8+September!D8+October!D8+November!D8+December!D8</f>
-        <v>-619</v>
+        <v>-622</v>
       </c>
       <c r="E8" s="28" t="str">
         <f t="shared" si="0"/>
@@ -1980,7 +2010,7 @@
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.7 : 1</v>
+        <v>0.72 : 1</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1989,15 +2019,15 @@
       </c>
       <c r="B9" s="4">
         <f>January!B9+February!B9+March!B9+April!B9+May!B9+June!B9+July!B9+August!B9+September!B9+October!B9+November!B9+December!B9</f>
-        <v>477</v>
+        <v>509</v>
       </c>
       <c r="C9" s="4">
         <f>January!C9+February!C9+March!C9+April!C9+May!C9+June!C9+July!C9+August!C9+September!C9+October!C9+November!C9+December!C9</f>
-        <v>768</v>
+        <v>817</v>
       </c>
       <c r="D9" s="4">
         <f>January!D9+February!D9+March!D9+April!D9+May!D9+June!D9+July!D9+August!D9+September!D9+October!D9+November!D9+December!D9</f>
-        <v>-291</v>
+        <v>-308</v>
       </c>
       <c r="E9" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2018,15 +2048,15 @@
       </c>
       <c r="B10" s="2">
         <f>January!B10+February!B10+March!B10+April!B10+May!B10+June!B10+July!B10+August!B10+September!B10+October!B10+November!B10+December!B10</f>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C10" s="2">
         <f>January!C10+February!C10+March!C10+April!C10+May!C10+June!C10+July!C10+August!C10+September!C10+October!C10+November!C10+December!C10</f>
-        <v>544</v>
+        <v>570</v>
       </c>
       <c r="D10" s="2">
         <f>January!D10+February!D10+March!D10+April!D10+May!D10+June!D10+July!D10+August!D10+September!D10+October!D10+November!D10+December!D10</f>
-        <v>-520</v>
+        <v>-543</v>
       </c>
       <c r="E10" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2038,7 +2068,7 @@
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.04 : 1</v>
+        <v>0.05 : 1</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2076,15 +2106,15 @@
       </c>
       <c r="B12" s="6">
         <f>January!B12+February!B12+March!B12+April!B12+May!B12+June!B12+July!B12+August!B12+September!B12+October!B12+November!B12+December!B12</f>
-        <v>340</v>
+        <v>359</v>
       </c>
       <c r="C12" s="6">
         <f>January!C12+February!C12+March!C12+April!C12+May!C12+June!C12+July!C12+August!C12+September!C12+October!C12+November!C12+December!C12</f>
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="D12" s="6">
         <f>January!D12+February!D12+March!D12+April!D12+May!D12+June!D12+July!D12+August!D12+September!D12+October!D12+November!D12+December!D12</f>
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E12" s="30" t="str">
         <f t="shared" si="0"/>
@@ -2096,7 +2126,7 @@
       </c>
       <c r="G12" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>1.55 : 1</v>
+        <v>1.51 : 1</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2105,15 +2135,15 @@
       </c>
       <c r="B13" s="6">
         <f>January!B13+February!B13+March!B13+April!B13+May!B13+June!B13+July!B13+August!B13+September!B13+October!B13+November!B13+December!B13</f>
-        <v>1505</v>
+        <v>1596</v>
       </c>
       <c r="C13" s="6">
         <f>January!C13+February!C13+March!C13+April!C13+May!C13+June!C13+July!C13+August!C13+September!C13+October!C13+November!C13+December!C13</f>
-        <v>866</v>
+        <v>920</v>
       </c>
       <c r="D13" s="6">
         <f>January!D13+February!D13+March!D13+April!D13+May!D13+June!D13+July!D13+August!D13+September!D13+October!D13+November!D13+December!D13</f>
-        <v>639</v>
+        <v>676</v>
       </c>
       <c r="E13" s="30" t="str">
         <f t="shared" si="0"/>
@@ -2125,7 +2155,7 @@
       </c>
       <c r="G13" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>1.74 : 1</v>
+        <v>1.73 : 1</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2134,15 +2164,15 @@
       </c>
       <c r="B14" s="6">
         <f>January!B14+February!B14+March!B14+April!B14+May!B14+June!B14+July!B14+August!B14+September!B14+October!B14+November!B14+December!B14</f>
-        <v>1596</v>
+        <v>1740</v>
       </c>
       <c r="C14" s="6">
         <f>January!C14+February!C14+March!C14+April!C14+May!C14+June!C14+July!C14+August!C14+September!C14+October!C14+November!C14+December!C14</f>
-        <v>2724</v>
+        <v>2883</v>
       </c>
       <c r="D14" s="6">
         <f>January!D14+February!D14+March!D14+April!D14+May!D14+June!D14+July!D14+August!D14+September!D14+October!D14+November!D14+December!D14</f>
-        <v>-1128</v>
+        <v>-1143</v>
       </c>
       <c r="E14" s="30" t="str">
         <f t="shared" si="0"/>
@@ -2154,7 +2184,7 @@
       </c>
       <c r="G14" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>0.59 : 1</v>
+        <v>0.6 : 1</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2163,15 +2193,15 @@
       </c>
       <c r="B15" s="6">
         <f>January!B15+February!B15+March!B15+April!B15+May!B15+June!B15+July!B15+August!B15+September!B15+October!B15+November!B15+December!B15</f>
-        <v>661</v>
+        <v>704</v>
       </c>
       <c r="C15" s="6">
         <f>January!C15+February!C15+March!C15+April!C15+May!C15+June!C15+July!C15+August!C15+September!C15+October!C15+November!C15+December!C15</f>
-        <v>1542</v>
+        <v>1675</v>
       </c>
       <c r="D15" s="6">
         <f>January!D15+February!D15+March!D15+April!D15+May!D15+June!D15+July!D15+August!D15+September!D15+October!D15+November!D15+December!D15</f>
-        <v>-881</v>
+        <v>-971</v>
       </c>
       <c r="E15" s="30" t="str">
         <f t="shared" si="0"/>
@@ -2183,7 +2213,7 @@
       </c>
       <c r="G15" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>0.43 : 1</v>
+        <v>0.42 : 1</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2192,15 +2222,15 @@
       </c>
       <c r="B16" s="2">
         <f>January!B16+February!B16+March!B16+April!B16+May!B16+June!B16+July!B16+August!B16+September!B16+October!B16+November!B16+December!B16</f>
-        <v>644</v>
+        <v>708</v>
       </c>
       <c r="C16" s="2">
         <f>January!C16+February!C16+March!C16+April!C16+May!C16+June!C16+July!C16+August!C16+September!C16+October!C16+November!C16+December!C16</f>
-        <v>1602</v>
+        <v>1749</v>
       </c>
       <c r="D16" s="2">
         <f>January!D16+February!D16+March!D16+April!D16+May!D16+June!D16+July!D16+August!D16+September!D16+October!D16+November!D16+December!D16</f>
-        <v>-958</v>
+        <v>-1041</v>
       </c>
       <c r="E16" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2221,15 +2251,15 @@
       </c>
       <c r="B17" s="4">
         <f>January!B17+February!B17+March!B17+April!B17+May!B17+June!B17+July!B17+August!B17+September!B17+October!B17+November!B17+December!B17</f>
-        <v>6622</v>
+        <v>7121</v>
       </c>
       <c r="C17" s="4">
         <f>January!C17+February!C17+March!C17+April!C17+May!C17+June!C17+July!C17+August!C17+September!C17+October!C17+November!C17+December!C17</f>
-        <v>4550</v>
+        <v>4937</v>
       </c>
       <c r="D17" s="4">
         <f>January!D17+February!D17+March!D17+April!D17+May!D17+June!D17+July!D17+August!D17+September!D17+October!D17+November!D17+December!D17</f>
-        <v>2072</v>
+        <v>2184</v>
       </c>
       <c r="E17" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2241,7 +2271,7 @@
       </c>
       <c r="G17" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>1.46 : 1</v>
+        <v>1.44 : 1</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2250,15 +2280,15 @@
       </c>
       <c r="B18" s="2">
         <f>January!B18+February!B18+March!B18+April!B18+May!B18+June!B18+July!B18+August!B18+September!B18+October!B18+November!B18+December!B18</f>
-        <v>858</v>
+        <v>922</v>
       </c>
       <c r="C18" s="2">
         <f>January!C18+February!C18+March!C18+April!C18+May!C18+June!C18+July!C18+August!C18+September!C18+October!C18+November!C18+December!C18</f>
-        <v>1172</v>
+        <v>1233</v>
       </c>
       <c r="D18" s="2">
         <f>January!D18+February!D18+March!D18+April!D18+May!D18+June!D18+July!D18+August!D18+September!D18+October!D18+November!D18+December!D18</f>
-        <v>-314</v>
+        <v>-311</v>
       </c>
       <c r="E18" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2270,7 +2300,7 @@
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.73 : 1</v>
+        <v>0.75 : 1</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2279,15 +2309,15 @@
       </c>
       <c r="B19" s="4">
         <f>January!B19+February!B19+March!B19+April!B19+May!B19+June!B19+July!B19+August!B19+September!B19+October!B19+November!B19+December!B19</f>
-        <v>5895</v>
+        <v>6322</v>
       </c>
       <c r="C19" s="4">
         <f>January!C19+February!C19+March!C19+April!C19+May!C19+June!C19+July!C19+August!C19+September!C19+October!C19+November!C19+December!C19</f>
-        <v>4719</v>
+        <v>5063</v>
       </c>
       <c r="D19" s="4">
         <f>January!D19+February!D19+March!D19+April!D19+May!D19+June!D19+July!D19+August!D19+September!D19+October!D19+November!D19+December!D19</f>
-        <v>1176</v>
+        <v>1259</v>
       </c>
       <c r="E19" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2308,15 +2338,15 @@
       </c>
       <c r="B20" s="2">
         <f>January!B20+February!B20+March!B20+April!B20+May!B20+June!B20+July!B20+August!B20+September!B20+October!B20+November!B20+December!B20</f>
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="C20" s="2">
         <f>January!C20+February!C20+March!C20+April!C20+May!C20+June!C20+July!C20+August!C20+September!C20+October!C20+November!C20+December!C20</f>
-        <v>791</v>
+        <v>829</v>
       </c>
       <c r="D20" s="2">
         <f>January!D20+February!D20+March!D20+April!D20+May!D20+June!D20+July!D20+August!D20+September!D20+October!D20+November!D20+December!D20</f>
-        <v>-619</v>
+        <v>-637</v>
       </c>
       <c r="E20" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2328,7 +2358,7 @@
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.22 : 1</v>
+        <v>0.23 : 1</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2337,15 +2367,15 @@
       </c>
       <c r="B21" s="4">
         <f>January!B21+February!B21+March!B21+April!B21+May!B21+June!B21+July!B21+August!B21+September!B21+October!B21+November!B21+December!B21</f>
-        <v>5466</v>
+        <v>5943</v>
       </c>
       <c r="C21" s="4">
         <f>January!C21+February!C21+March!C21+April!C21+May!C21+June!C21+July!C21+August!C21+September!C21+October!C21+November!C21+December!C21</f>
-        <v>3792</v>
+        <v>4052</v>
       </c>
       <c r="D21" s="4">
         <f>January!D21+February!D21+March!D21+April!D21+May!D21+June!D21+July!D21+August!D21+September!D21+October!D21+November!D21+December!D21</f>
-        <v>1674</v>
+        <v>1891</v>
       </c>
       <c r="E21" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2357,7 +2387,7 @@
       </c>
       <c r="G21" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>1.44 : 1</v>
+        <v>1.47 : 1</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2366,15 +2396,15 @@
       </c>
       <c r="B22" s="2">
         <f>January!B22+February!B22+March!B22+April!B22+May!B22+June!B22+July!B22+August!B22+September!B22+October!B22+November!B22+December!B22</f>
-        <v>320</v>
+        <v>365</v>
       </c>
       <c r="C22" s="2">
         <f>January!C22+February!C22+March!C22+April!C22+May!C22+June!C22+July!C22+August!C22+September!C22+October!C22+November!C22+December!C22</f>
-        <v>1257</v>
+        <v>1410</v>
       </c>
       <c r="D22" s="2">
         <f>January!D22+February!D22+March!D22+April!D22+May!D22+June!D22+July!D22+August!D22+September!D22+October!D22+November!D22+December!D22</f>
-        <v>-937</v>
+        <v>-1045</v>
       </c>
       <c r="E22" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2386,7 +2416,7 @@
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.25 : 1</v>
+        <v>0.26 : 1</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2395,15 +2425,15 @@
       </c>
       <c r="B23" s="4">
         <f>January!B23+February!B23+March!B23+April!B23+May!B23+June!B23+July!B23+August!B23+September!B23+October!B23+November!B23+December!B23</f>
-        <v>7017</v>
+        <v>7484</v>
       </c>
       <c r="C23" s="4">
         <f>January!C23+February!C23+March!C23+April!C23+May!C23+June!C23+July!C23+August!C23+September!C23+October!C23+November!C23+December!C23</f>
-        <v>3801</v>
+        <v>4065</v>
       </c>
       <c r="D23" s="4">
         <f>January!D23+February!D23+March!D23+April!D23+May!D23+June!D23+July!D23+August!D23+September!D23+October!D23+November!D23+December!D23</f>
-        <v>3216</v>
+        <v>3419</v>
       </c>
       <c r="E23" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2415,7 +2445,7 @@
       </c>
       <c r="G23" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>1.85 : 1</v>
+        <v>1.84 : 1</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2424,15 +2454,15 @@
       </c>
       <c r="B24" s="2">
         <f>January!B24+February!B24+March!B24+April!B24+May!B24+June!B24+July!B24+August!B24+September!B24+October!B24+November!B24+December!B24</f>
-        <v>17995</v>
+        <v>19415</v>
       </c>
       <c r="C24" s="2">
         <f>January!C24+February!C24+March!C24+April!C24+May!C24+June!C24+July!C24+August!C24+September!C24+October!C24+November!C24+December!C24</f>
-        <v>12974</v>
+        <v>14034</v>
       </c>
       <c r="D24" s="2">
         <f>January!D24+February!D24+March!D24+April!D24+May!D24+June!D24+July!D24+August!D24+September!D24+October!D24+November!D24+December!D24</f>
-        <v>5021</v>
+        <v>5381</v>
       </c>
       <c r="E24" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2444,7 +2474,7 @@
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>1.39 : 1</v>
+        <v>1.38 : 1</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2453,15 +2483,15 @@
       </c>
       <c r="B25" s="4">
         <f>January!B25+February!B25+March!B25+April!B25+May!B25+June!B25+July!B25+August!B25+September!B25+October!B25+November!B25+December!B25</f>
-        <v>1640</v>
+        <v>1817</v>
       </c>
       <c r="C25" s="4">
         <f>January!C25+February!C25+March!C25+April!C25+May!C25+June!C25+July!C25+August!C25+September!C25+October!C25+November!C25+December!C25</f>
-        <v>4348</v>
+        <v>4745</v>
       </c>
       <c r="D25" s="4">
         <f>January!D25+February!D25+March!D25+April!D25+May!D25+June!D25+July!D25+August!D25+September!D25+October!D25+November!D25+December!D25</f>
-        <v>-2708</v>
+        <v>-2928</v>
       </c>
       <c r="E25" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2511,15 +2541,15 @@
       </c>
       <c r="B27" s="4">
         <f>January!B27+February!B27+March!B27+April!B27+May!B27+June!B27+July!B27+August!B27+September!B27+October!B27+November!B27+December!B27</f>
-        <v>2627</v>
+        <v>2854</v>
       </c>
       <c r="C27" s="4">
         <f>January!C27+February!C27+March!C27+April!C27+May!C27+June!C27+July!C27+August!C27+September!C27+October!C27+November!C27+December!C27</f>
-        <v>2186</v>
+        <v>2333</v>
       </c>
       <c r="D27" s="4">
         <f>January!D27+February!D27+March!D27+April!D27+May!D27+June!D27+July!D27+August!D27+September!D27+October!D27+November!D27+December!D27</f>
-        <v>441</v>
+        <v>521</v>
       </c>
       <c r="E27" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2531,7 +2561,7 @@
       </c>
       <c r="G27" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>1.2 : 1</v>
+        <v>1.22 : 1</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2540,15 +2570,15 @@
       </c>
       <c r="B28" s="2">
         <f>January!B28+February!B28+March!B28+April!B28+May!B28+June!B28+July!B28+August!B28+September!B28+October!B28+November!B28+December!B28</f>
-        <v>1004</v>
+        <v>1077</v>
       </c>
       <c r="C28" s="2">
         <f>January!C28+February!C28+March!C28+April!C28+May!C28+June!C28+July!C28+August!C28+September!C28+October!C28+November!C28+December!C28</f>
-        <v>1036</v>
+        <v>1123</v>
       </c>
       <c r="D28" s="2">
         <f>January!D28+February!D28+March!D28+April!D28+May!D28+June!D28+July!D28+August!D28+September!D28+October!D28+November!D28+December!D28</f>
-        <v>-32</v>
+        <v>-46</v>
       </c>
       <c r="E28" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2560,7 +2590,7 @@
       </c>
       <c r="G28" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.97 : 1</v>
+        <v>0.96 : 1</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2569,15 +2599,15 @@
       </c>
       <c r="B29" s="4">
         <f>January!B29+February!B29+March!B29+April!B29+May!B29+June!B29+July!B29+August!B29+September!B29+October!B29+November!B29+December!B29</f>
-        <v>6207</v>
+        <v>6746</v>
       </c>
       <c r="C29" s="4">
         <f>January!C29+February!C29+March!C29+April!C29+May!C29+June!C29+July!C29+August!C29+September!C29+October!C29+November!C29+December!C29</f>
-        <v>4726</v>
+        <v>5167</v>
       </c>
       <c r="D29" s="4">
         <f>January!D29+February!D29+March!D29+April!D29+May!D29+June!D29+July!D29+August!D29+September!D29+October!D29+November!D29+December!D29</f>
-        <v>1481</v>
+        <v>1579</v>
       </c>
       <c r="E29" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2598,15 +2628,15 @@
       </c>
       <c r="B30" s="2">
         <f>January!B30+February!B30+March!B30+April!B30+May!B30+June!B30+July!B30+August!B30+September!B30+October!B30+November!B30+December!B30</f>
-        <v>451</v>
+        <v>506</v>
       </c>
       <c r="C30" s="2">
         <f>January!C30+February!C30+March!C30+April!C30+May!C30+June!C30+July!C30+August!C30+September!C30+October!C30+November!C30+December!C30</f>
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="D30" s="2">
         <f>January!D30+February!D30+March!D30+April!D30+May!D30+June!D30+July!D30+August!D30+September!D30+October!D30+November!D30+December!D30</f>
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="E30" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2618,7 +2648,7 @@
       </c>
       <c r="G30" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>1.72 : 1</v>
+        <v>1.74 : 1</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2627,15 +2657,15 @@
       </c>
       <c r="B31" s="4">
         <f>January!B31+February!B31+March!B31+April!B31+May!B31+June!B31+July!B31+August!B31+September!B31+October!B31+November!B31+December!B31</f>
-        <v>616</v>
+        <v>663</v>
       </c>
       <c r="C31" s="4">
         <f>January!C31+February!C31+March!C31+April!C31+May!C31+June!C31+July!C31+August!C31+September!C31+October!C31+November!C31+December!C31</f>
-        <v>3141</v>
+        <v>3312</v>
       </c>
       <c r="D31" s="4">
         <f>January!D31+February!D31+March!D31+April!D31+May!D31+June!D31+July!D31+August!D31+September!D31+October!D31+November!D31+December!D31</f>
-        <v>-2525</v>
+        <v>-2649</v>
       </c>
       <c r="E31" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2656,15 +2686,15 @@
       </c>
       <c r="B32" s="2">
         <f>January!B32+February!B32+March!B32+April!B32+May!B32+June!B32+July!B32+August!B32+September!B32+October!B32+November!B32+December!B32</f>
-        <v>4731</v>
+        <v>5085</v>
       </c>
       <c r="C32" s="2">
         <f>January!C32+February!C32+March!C32+April!C32+May!C32+June!C32+July!C32+August!C32+September!C32+October!C32+November!C32+December!C32</f>
-        <v>6128</v>
+        <v>6631</v>
       </c>
       <c r="D32" s="2">
         <f>January!D32+February!D32+March!D32+April!D32+May!D32+June!D32+July!D32+August!D32+September!D32+October!D32+November!D32+December!D32</f>
-        <v>-1397</v>
+        <v>-1546</v>
       </c>
       <c r="E32" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2685,15 +2715,15 @@
       </c>
       <c r="B33" s="4">
         <f>January!B33+February!B33+March!B33+April!B33+May!B33+June!B33+July!B33+August!B33+September!B33+October!B33+November!B33+December!B33</f>
-        <v>3821</v>
+        <v>4143</v>
       </c>
       <c r="C33" s="4">
         <f>January!C33+February!C33+March!C33+April!C33+May!C33+June!C33+July!C33+August!C33+September!C33+October!C33+November!C33+December!C33</f>
-        <v>6071</v>
+        <v>6498</v>
       </c>
       <c r="D33" s="4">
         <f>January!D33+February!D33+March!D33+April!D33+May!D33+June!D33+July!D33+August!D33+September!D33+October!D33+November!D33+December!D33</f>
-        <v>-2250</v>
+        <v>-2355</v>
       </c>
       <c r="E33" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2705,7 +2735,7 @@
       </c>
       <c r="G33" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>0.63 : 1</v>
+        <v>0.64 : 1</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2714,15 +2744,15 @@
       </c>
       <c r="B34" s="2">
         <f>January!B34+February!B34+March!B34+April!B34+May!B34+June!B34+July!B34+August!B34+September!B34+October!B34+November!B34+December!B34</f>
-        <v>1908</v>
+        <v>2086</v>
       </c>
       <c r="C34" s="2">
         <f>January!C34+February!C34+March!C34+April!C34+May!C34+June!C34+July!C34+August!C34+September!C34+October!C34+November!C34+December!C34</f>
-        <v>1192</v>
+        <v>1309</v>
       </c>
       <c r="D34" s="2">
         <f>January!D34+February!D34+March!D34+April!D34+May!D34+June!D34+July!D34+August!D34+September!D34+October!D34+November!D34+December!D34</f>
-        <v>716</v>
+        <v>777</v>
       </c>
       <c r="E34" s="28" t="str">
         <f t="shared" ref="E34:E55" si="3">IF(D34 &gt; 0, "We borrowed more than we lent this year", "")</f>
@@ -2734,7 +2764,7 @@
       </c>
       <c r="G34" s="3" t="str">
         <f t="shared" ref="G34:G55" si="5">IF(ISERROR(ROUND(B34/C34,2)&amp;" : 1"), "", ROUND(B34/C34,2)&amp;" : 1")</f>
-        <v>1.6 : 1</v>
+        <v>1.59 : 1</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2743,15 +2773,15 @@
       </c>
       <c r="B35" s="4">
         <f>January!B35+February!B35+March!B35+April!B35+May!B35+June!B35+July!B35+August!B35+September!B35+October!B35+November!B35+December!B35</f>
-        <v>9364</v>
+        <v>10096</v>
       </c>
       <c r="C35" s="4">
         <f>January!C35+February!C35+March!C35+April!C35+May!C35+June!C35+July!C35+August!C35+September!C35+October!C35+November!C35+December!C35</f>
-        <v>12411</v>
+        <v>13408</v>
       </c>
       <c r="D35" s="4">
         <f>January!D35+February!D35+March!D35+April!D35+May!D35+June!D35+July!D35+August!D35+September!D35+October!D35+November!D35+December!D35</f>
-        <v>-3047</v>
+        <v>-3312</v>
       </c>
       <c r="E35" s="29" t="str">
         <f t="shared" si="3"/>
@@ -2772,15 +2802,15 @@
       </c>
       <c r="B36" s="2">
         <f>January!B36+February!B36+March!B36+April!B36+May!B36+June!B36+July!B36+August!B36+September!B36+October!B36+November!B36+December!B36</f>
-        <v>2065</v>
+        <v>2188</v>
       </c>
       <c r="C36" s="2">
         <f>January!C36+February!C36+March!C36+April!C36+May!C36+June!C36+July!C36+August!C36+September!C36+October!C36+November!C36+December!C36</f>
-        <v>5357</v>
+        <v>5796</v>
       </c>
       <c r="D36" s="2">
         <f>January!D36+February!D36+March!D36+April!D36+May!D36+June!D36+July!D36+August!D36+September!D36+October!D36+November!D36+December!D36</f>
-        <v>-3292</v>
+        <v>-3608</v>
       </c>
       <c r="E36" s="28" t="str">
         <f t="shared" si="3"/>
@@ -2792,7 +2822,7 @@
       </c>
       <c r="G36" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>0.39 : 1</v>
+        <v>0.38 : 1</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2801,15 +2831,15 @@
       </c>
       <c r="B37" s="4">
         <f>January!B37+February!B37+March!B37+April!B37+May!B37+June!B37+July!B37+August!B37+September!B37+October!B37+November!B37+December!B37</f>
-        <v>5350</v>
+        <v>5834</v>
       </c>
       <c r="C37" s="4">
         <f>January!C37+February!C37+March!C37+April!C37+May!C37+June!C37+July!C37+August!C37+September!C37+October!C37+November!C37+December!C37</f>
-        <v>3755</v>
+        <v>4063</v>
       </c>
       <c r="D37" s="4">
         <f>January!D37+February!D37+March!D37+April!D37+May!D37+June!D37+July!D37+August!D37+September!D37+October!D37+November!D37+December!D37</f>
-        <v>1595</v>
+        <v>1771</v>
       </c>
       <c r="E37" s="29" t="str">
         <f t="shared" si="3"/>
@@ -2821,7 +2851,7 @@
       </c>
       <c r="G37" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>1.42 : 1</v>
+        <v>1.44 : 1</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2830,15 +2860,15 @@
       </c>
       <c r="B38" s="2">
         <f>January!B38+February!B38+March!B38+April!B38+May!B38+June!B38+July!B38+August!B38+September!B38+October!B38+November!B38+December!B38</f>
-        <v>328</v>
+        <v>359</v>
       </c>
       <c r="C38" s="2">
         <f>January!C38+February!C38+March!C38+April!C38+May!C38+June!C38+July!C38+August!C38+September!C38+October!C38+November!C38+December!C38</f>
-        <v>1905</v>
+        <v>2034</v>
       </c>
       <c r="D38" s="2">
         <f>January!D38+February!D38+March!D38+April!D38+May!D38+June!D38+July!D38+August!D38+September!D38+October!D38+November!D38+December!D38</f>
-        <v>-1577</v>
+        <v>-1675</v>
       </c>
       <c r="E38" s="28" t="str">
         <f t="shared" si="3"/>
@@ -2850,7 +2880,7 @@
       </c>
       <c r="G38" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>0.17 : 1</v>
+        <v>0.18 : 1</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2859,15 +2889,15 @@
       </c>
       <c r="B39" s="4">
         <f>January!B44+February!B44+March!B44+April!B44+May!B44+June!B44+July!B44+August!B44+September!B44+October!B44+November!B44+December!B44</f>
-        <v>880</v>
+        <v>954</v>
       </c>
       <c r="C39" s="4">
         <f>January!C44+February!C44+March!C44+April!C44+May!C44+June!C44+July!C44+August!C44+September!C44+October!C44+November!C44+December!C44</f>
-        <v>885</v>
+        <v>960</v>
       </c>
       <c r="D39" s="4">
         <f>January!D44+February!D44+March!D44+April!D44+May!D44+June!D44+July!D44+August!D44+September!D44+October!D44+November!D44+December!D44</f>
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="E39" s="29" t="str">
         <f t="shared" si="3"/>
@@ -2888,15 +2918,15 @@
       </c>
       <c r="B40" s="8">
         <f>January!B39+February!B39+March!B39+April!B39+May!B39+June!B39+July!B39+August!B39+September!B39+October!B39+November!B39+December!B39</f>
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="C40" s="8">
         <f>January!C39+February!C39+March!C39+April!C39+May!C39+June!C39+July!C39+August!C39+September!C39+October!C39+November!C39+December!C39</f>
-        <v>839</v>
+        <v>919</v>
       </c>
       <c r="D40" s="8">
         <f>January!D39+February!D39+March!D39+April!D39+May!D39+June!D39+July!D39+August!D39+September!D39+October!D39+November!D39+December!D39</f>
-        <v>-591</v>
+        <v>-650</v>
       </c>
       <c r="E40" s="31" t="str">
         <f t="shared" si="3"/>
@@ -2908,7 +2938,7 @@
       </c>
       <c r="G40" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>0.3 : 1</v>
+        <v>0.29 : 1</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2917,15 +2947,15 @@
       </c>
       <c r="B41" s="8">
         <f>January!B40+February!B40+March!B40+April!B40+May!B40+June!B40+July!B40+August!B40+September!B40+October!B40+November!B40+December!B40</f>
-        <v>574</v>
+        <v>662</v>
       </c>
       <c r="C41" s="8">
         <f>January!C40+February!C40+March!C40+April!C40+May!C40+June!C40+July!C40+August!C40+September!C40+October!C40+November!C40+December!C40</f>
-        <v>947</v>
+        <v>1093</v>
       </c>
       <c r="D41" s="8">
         <f>January!D40+February!D40+March!D40+April!D40+May!D40+June!D40+July!D40+August!D40+September!D40+October!D40+November!D40+December!D40</f>
-        <v>-373</v>
+        <v>-431</v>
       </c>
       <c r="E41" s="31" t="str">
         <f t="shared" si="3"/>
@@ -2946,15 +2976,15 @@
       </c>
       <c r="B42" s="8">
         <f>January!B41+February!B41+March!B41+April!B41+May!B41+June!B41+July!B41+August!B41+September!B41+October!B41+November!B41+December!B41</f>
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C42" s="8">
         <f>January!C41+February!C41+March!C41+April!C41+May!C41+June!C41+July!C41+August!C41+September!C41+October!C41+November!C41+December!C41</f>
-        <v>309</v>
+        <v>335</v>
       </c>
       <c r="D42" s="8">
         <f>January!D41+February!D41+March!D41+April!D41+May!D41+June!D41+July!D41+August!D41+September!D41+October!D41+November!D41+December!D41</f>
-        <v>-229</v>
+        <v>-252</v>
       </c>
       <c r="E42" s="31" t="str">
         <f t="shared" si="3"/>
@@ -2966,7 +2996,7 @@
       </c>
       <c r="G42" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>0.26 : 1</v>
+        <v>0.25 : 1</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2975,15 +3005,15 @@
       </c>
       <c r="B43" s="8">
         <f>January!B42+February!B42+March!B42+April!B42+May!B42+June!B42+July!B42+August!B42+September!B42+October!B42+November!B42+December!B42</f>
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C43" s="8">
         <f>January!C42+February!C42+March!C42+April!C42+May!C42+June!C42+July!C42+August!C42+September!C42+October!C42+November!C42+December!C42</f>
-        <v>267</v>
+        <v>290</v>
       </c>
       <c r="D43" s="8">
         <f>January!D42+February!D42+March!D42+April!D42+May!D42+June!D42+July!D42+August!D42+September!D42+October!D42+November!D42+December!D42</f>
-        <v>-199</v>
+        <v>-216</v>
       </c>
       <c r="E43" s="31" t="str">
         <f t="shared" si="3"/>
@@ -2995,7 +3025,7 @@
       </c>
       <c r="G43" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>0.25 : 1</v>
+        <v>0.26 : 1</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3033,15 +3063,15 @@
       </c>
       <c r="B45" s="2">
         <f>January!B45+February!B45+March!B45+April!B45+May!B45+June!B45+July!B45+August!B45+September!B45+October!B45+November!B45+December!B45</f>
-        <v>824</v>
+        <v>887</v>
       </c>
       <c r="C45" s="2">
         <f>January!C45+February!C45+March!C45+April!C45+May!C45+June!C45+July!C45+August!C45+September!C45+October!C45+November!C45+December!C45</f>
-        <v>1968</v>
+        <v>2139</v>
       </c>
       <c r="D45" s="2">
         <f>January!D45+February!D45+March!D45+April!D45+May!D45+June!D45+July!D45+August!D45+September!D45+October!D45+November!D45+December!D45</f>
-        <v>-1144</v>
+        <v>-1252</v>
       </c>
       <c r="E45" s="28" t="str">
         <f t="shared" si="3"/>
@@ -3053,7 +3083,7 @@
       </c>
       <c r="G45" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>0.42 : 1</v>
+        <v>0.41 : 1</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3062,15 +3092,15 @@
       </c>
       <c r="B46" s="4">
         <f>January!B46+February!B46+March!B46+April!B46+May!B46+June!B46+July!B46+August!B46+September!B46+October!B46+November!B46+December!B46</f>
-        <v>5684</v>
+        <v>6083</v>
       </c>
       <c r="C46" s="4">
         <f>January!C46+February!C46+March!C46+April!C46+May!C46+June!C46+July!C46+August!C46+September!C46+October!C46+November!C46+December!C46</f>
-        <v>6366</v>
+        <v>6755</v>
       </c>
       <c r="D46" s="4">
         <f>January!D46+February!D46+March!D46+April!D46+May!D46+June!D46+July!D46+August!D46+September!D46+October!D46+November!D46+December!D46</f>
-        <v>-682</v>
+        <v>-672</v>
       </c>
       <c r="E46" s="29" t="str">
         <f t="shared" si="3"/>
@@ -3082,7 +3112,7 @@
       </c>
       <c r="G46" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>0.89 : 1</v>
+        <v>0.9 : 1</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3091,15 +3121,15 @@
       </c>
       <c r="B47" s="2">
         <f>January!B47+February!B47+March!B47+April!B47+May!B47+June!B47+July!B47+August!B47+September!B47+October!B47+November!B47+December!B47</f>
-        <v>11431</v>
+        <v>12223</v>
       </c>
       <c r="C47" s="2">
         <f>January!C47+February!C47+March!C47+April!C47+May!C47+June!C47+July!C47+August!C47+September!C47+October!C47+November!C47+December!C47</f>
-        <v>6376</v>
+        <v>6882</v>
       </c>
       <c r="D47" s="2">
         <f>January!D47+February!D47+March!D47+April!D47+May!D47+June!D47+July!D47+August!D47+September!D47+October!D47+November!D47+December!D47</f>
-        <v>5055</v>
+        <v>5341</v>
       </c>
       <c r="E47" s="28" t="str">
         <f t="shared" si="3"/>
@@ -3111,7 +3141,7 @@
       </c>
       <c r="G47" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>1.79 : 1</v>
+        <v>1.78 : 1</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3120,15 +3150,15 @@
       </c>
       <c r="B48" s="4">
         <f>January!B48+February!B48+March!B48+April!B48+May!B48+June!B48+July!B48+August!B48+September!B48+October!B48+November!B48+December!B48</f>
-        <v>2667</v>
+        <v>2822</v>
       </c>
       <c r="C48" s="4">
         <f>January!C48+February!C48+March!C48+April!C48+May!C48+June!C48+July!C48+August!C48+September!C48+October!C48+November!C48+December!C48</f>
-        <v>6382</v>
+        <v>6919</v>
       </c>
       <c r="D48" s="4">
         <f>January!D48+February!D48+March!D48+April!D48+May!D48+June!D48+July!D48+August!D48+September!D48+October!D48+November!D48+December!D48</f>
-        <v>-3715</v>
+        <v>-4097</v>
       </c>
       <c r="E48" s="29" t="str">
         <f t="shared" si="3"/>
@@ -3140,7 +3170,7 @@
       </c>
       <c r="G48" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>0.42 : 1</v>
+        <v>0.41 : 1</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3149,15 +3179,15 @@
       </c>
       <c r="B49" s="2">
         <f>January!B49+February!B49+March!B49+April!B49+May!B49+June!B49+July!B49+August!B49+September!B49+October!B49+November!B49+December!B49</f>
-        <v>6336</v>
+        <v>6986</v>
       </c>
       <c r="C49" s="2">
         <f>January!C49+February!C49+March!C49+April!C49+May!C49+June!C49+July!C49+August!C49+September!C49+October!C49+November!C49+December!C49</f>
-        <v>2865</v>
+        <v>3049</v>
       </c>
       <c r="D49" s="2">
         <f>January!D49+February!D49+March!D49+April!D49+May!D49+June!D49+July!D49+August!D49+September!D49+October!D49+November!D49+December!D49</f>
-        <v>3471</v>
+        <v>3937</v>
       </c>
       <c r="E49" s="28" t="str">
         <f t="shared" si="3"/>
@@ -3169,7 +3199,7 @@
       </c>
       <c r="G49" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>2.21 : 1</v>
+        <v>2.29 : 1</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3178,15 +3208,15 @@
       </c>
       <c r="B50" s="4">
         <f>January!B50+February!B50+March!B50+April!B50+May!B50+June!B50+July!B50+August!B50+September!B50+October!B50+November!B50+December!B50</f>
-        <v>9934</v>
+        <v>10711</v>
       </c>
       <c r="C50" s="4">
         <f>January!C50+February!C50+March!C50+April!C50+May!C50+June!C50+July!C50+August!C50+September!C50+October!C50+November!C50+December!C50</f>
-        <v>6154</v>
+        <v>6625</v>
       </c>
       <c r="D50" s="4">
         <f>January!D50+February!D50+March!D50+April!D50+May!D50+June!D50+July!D50+August!D50+September!D50+October!D50+November!D50+December!D50</f>
-        <v>3780</v>
+        <v>4086</v>
       </c>
       <c r="E50" s="29" t="str">
         <f t="shared" si="3"/>
@@ -3198,7 +3228,7 @@
       </c>
       <c r="G50" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>1.61 : 1</v>
+        <v>1.62 : 1</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3207,15 +3237,15 @@
       </c>
       <c r="B51" s="2">
         <f>January!B51+February!B51+March!B51+April!B51+May!B51+June!B51+July!B51+August!B51+September!B51+October!B51+November!B51+December!B51</f>
-        <v>2405</v>
+        <v>2566</v>
       </c>
       <c r="C51" s="2">
         <f>January!C51+February!C51+March!C51+April!C51+May!C51+June!C51+July!C51+August!C51+September!C51+October!C51+November!C51+December!C51</f>
-        <v>1812</v>
+        <v>1983</v>
       </c>
       <c r="D51" s="2">
         <f>January!D51+February!D51+March!D51+April!D51+May!D51+June!D51+July!D51+August!D51+September!D51+October!D51+November!D51+December!D51</f>
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="E51" s="28" t="str">
         <f t="shared" si="3"/>
@@ -3227,7 +3257,7 @@
       </c>
       <c r="G51" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>1.33 : 1</v>
+        <v>1.29 : 1</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3236,15 +3266,15 @@
       </c>
       <c r="B52" s="4">
         <f>January!B52+February!B52+March!B52+April!B52+May!B52+June!B52+July!B52+August!B52+September!B52+October!B52+November!B52+December!B52</f>
-        <v>3853</v>
+        <v>4062</v>
       </c>
       <c r="C52" s="4">
         <f>January!C52+February!C52+March!C52+April!C52+May!C52+June!C52+July!C52+August!C52+September!C52+October!C52+November!C52+December!C52</f>
-        <v>4374</v>
+        <v>4600</v>
       </c>
       <c r="D52" s="4">
         <f>January!D52+February!D52+March!D52+April!D52+May!D52+June!D52+July!D52+August!D52+September!D52+October!D52+November!D52+December!D52</f>
-        <v>-521</v>
+        <v>-538</v>
       </c>
       <c r="E52" s="29" t="str">
         <f t="shared" si="3"/>
@@ -3265,15 +3295,15 @@
       </c>
       <c r="B53" s="2">
         <f>January!B53+February!B53+March!B53+April!B53+May!B53+June!B53+July!B53+August!B53+September!B53+October!B53+November!B53+December!B53</f>
-        <v>1604</v>
+        <v>1736</v>
       </c>
       <c r="C53" s="2">
         <f>January!C53+February!C53+March!C53+April!C53+May!C53+June!C53+July!C53+August!C53+September!C53+October!C53+November!C53+December!C53</f>
-        <v>2473</v>
+        <v>2638</v>
       </c>
       <c r="D53" s="2">
         <f>January!D53+February!D53+March!D53+April!D53+May!D53+June!D53+July!D53+August!D53+September!D53+October!D53+November!D53+December!D53</f>
-        <v>-869</v>
+        <v>-902</v>
       </c>
       <c r="E53" s="28" t="str">
         <f t="shared" si="3"/>
@@ -3285,7 +3315,7 @@
       </c>
       <c r="G53" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>0.65 : 1</v>
+        <v>0.66 : 1</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3294,15 +3324,15 @@
       </c>
       <c r="B54" s="4">
         <f>January!B54+February!B54+March!B54+April!B54+May!B54+June!B54+July!B54+August!B54+September!B54+October!B54+November!B54+December!B54</f>
-        <v>322</v>
+        <v>352</v>
       </c>
       <c r="C54" s="4">
         <f>January!C54+February!C54+March!C54+April!C54+May!C54+June!C54+July!C54+August!C54+September!C54+October!C54+November!C54+December!C54</f>
-        <v>2442</v>
+        <v>2639</v>
       </c>
       <c r="D54" s="4">
         <f>January!D54+February!D54+March!D54+April!D54+May!D54+June!D54+July!D54+August!D54+September!D54+October!D54+November!D54+December!D54</f>
-        <v>-2120</v>
+        <v>-2287</v>
       </c>
       <c r="E54" s="29" t="str">
         <f t="shared" si="3"/>
@@ -3323,15 +3353,15 @@
       </c>
       <c r="B55" s="10">
         <f>January!B55+February!B55+March!B55+April!B55+May!B55+June!B55+July!B55+August!B55+September!B55+October!B55+November!B55+December!B55</f>
-        <v>3690</v>
+        <v>4209</v>
       </c>
       <c r="C55" s="10">
         <f>January!C55+February!C55+March!C55+April!C55+May!C55+June!C55+July!C55+August!C55+September!C55+October!C55+November!C55+December!C55</f>
-        <v>2077</v>
+        <v>2222</v>
       </c>
       <c r="D55" s="10">
         <f>January!D55+February!D55+March!D55+April!D55+May!D55+June!D55+July!D55+August!D55+September!D55+October!D55+November!D55+December!D55</f>
-        <v>1613</v>
+        <v>1987</v>
       </c>
       <c r="E55" s="32" t="str">
         <f t="shared" si="3"/>
@@ -3343,7 +3373,7 @@
       </c>
       <c r="G55" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>1.78 : 1</v>
+        <v>1.89 : 1</v>
       </c>
     </row>
   </sheetData>
@@ -6934,7 +6964,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A21" sqref="A21"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6974,108 +7004,204 @@
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="28"/>
+      <c r="B2" s="18">
+        <v>1324</v>
+      </c>
+      <c r="C2" s="18">
+        <v>1102</v>
+      </c>
+      <c r="D2" s="18">
+        <v>222</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F2" s="28"/>
-      <c r="G2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="29"/>
+      <c r="B3" s="21">
+        <v>510</v>
+      </c>
+      <c r="C3" s="21">
+        <v>369</v>
+      </c>
+      <c r="D3" s="21">
+        <v>141</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F3" s="29"/>
-      <c r="G3" s="5"/>
+      <c r="G3" s="5" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="B4" s="18">
+        <v>975</v>
+      </c>
+      <c r="C4" s="18">
+        <v>1098</v>
+      </c>
+      <c r="D4" s="18">
+        <v>-123</v>
+      </c>
       <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="3"/>
+      <c r="F4" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
+      <c r="B5" s="21">
+        <v>29</v>
+      </c>
+      <c r="C5" s="21">
+        <v>104</v>
+      </c>
+      <c r="D5" s="21">
+        <v>-75</v>
+      </c>
       <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="5"/>
+      <c r="F5" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
+      <c r="B6" s="18">
+        <v>836</v>
+      </c>
+      <c r="C6" s="18">
+        <v>1375</v>
+      </c>
+      <c r="D6" s="18">
+        <v>-539</v>
+      </c>
       <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="3"/>
+      <c r="F6" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
+      <c r="B7" s="21">
+        <v>154</v>
+      </c>
+      <c r="C7" s="21">
+        <v>158</v>
+      </c>
+      <c r="D7" s="21">
+        <v>-4</v>
+      </c>
       <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="5"/>
+      <c r="F7" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
+      <c r="B8" s="18">
+        <v>140</v>
+      </c>
+      <c r="C8" s="18">
+        <v>143</v>
+      </c>
+      <c r="D8" s="18">
+        <v>-3</v>
+      </c>
       <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
+      <c r="B9" s="21">
+        <v>32</v>
+      </c>
+      <c r="C9" s="21">
+        <v>49</v>
+      </c>
+      <c r="D9" s="21">
+        <v>-17</v>
+      </c>
       <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="5"/>
+      <c r="F9" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
+      <c r="B10" s="18">
+        <v>3</v>
+      </c>
+      <c r="C10" s="18">
+        <v>26</v>
+      </c>
+      <c r="D10" s="18">
+        <v>-23</v>
+      </c>
       <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="3"/>
+      <c r="F10" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
+      <c r="B11" s="21">
+        <v>0</v>
+      </c>
+      <c r="C11" s="21">
+        <v>0</v>
+      </c>
+      <c r="D11" s="21">
+        <v>0</v>
+      </c>
       <c r="E11" s="29"/>
       <c r="F11" s="29"/>
       <c r="G11" s="5"/>
@@ -7084,163 +7210,309 @@
       <c r="A12" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="30"/>
+      <c r="B12" s="23">
+        <v>19</v>
+      </c>
+      <c r="C12" s="23">
+        <v>17</v>
+      </c>
+      <c r="D12" s="23">
+        <v>2</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>61</v>
+      </c>
       <c r="F12" s="30"/>
-      <c r="G12" s="7"/>
+      <c r="G12" s="7" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="30"/>
+      <c r="B13" s="23">
+        <v>91</v>
+      </c>
+      <c r="C13" s="23">
+        <v>54</v>
+      </c>
+      <c r="D13" s="23">
+        <v>37</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>61</v>
+      </c>
       <c r="F13" s="30"/>
-      <c r="G13" s="7"/>
+      <c r="G13" s="7" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
+      <c r="B14" s="23">
+        <v>144</v>
+      </c>
+      <c r="C14" s="23">
+        <v>159</v>
+      </c>
+      <c r="D14" s="23">
+        <v>-15</v>
+      </c>
       <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="7"/>
+      <c r="F14" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
+      <c r="B15" s="23">
+        <v>43</v>
+      </c>
+      <c r="C15" s="23">
+        <v>133</v>
+      </c>
+      <c r="D15" s="23">
+        <v>-90</v>
+      </c>
       <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="7"/>
+      <c r="F15" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
+      <c r="B16" s="18">
+        <v>64</v>
+      </c>
+      <c r="C16" s="18">
+        <v>147</v>
+      </c>
+      <c r="D16" s="18">
+        <v>-83</v>
+      </c>
       <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="3"/>
+      <c r="F16" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="29"/>
+      <c r="B17" s="21">
+        <v>499</v>
+      </c>
+      <c r="C17" s="21">
+        <v>387</v>
+      </c>
+      <c r="D17" s="21">
+        <v>112</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F17" s="29"/>
-      <c r="G17" s="5"/>
+      <c r="G17" s="5" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="28"/>
+      <c r="B18" s="18">
+        <v>64</v>
+      </c>
+      <c r="C18" s="18">
+        <v>61</v>
+      </c>
+      <c r="D18" s="18">
+        <v>3</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F18" s="28"/>
-      <c r="G18" s="3"/>
+      <c r="G18" s="3" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="29"/>
+      <c r="B19" s="21">
+        <v>427</v>
+      </c>
+      <c r="C19" s="21">
+        <v>344</v>
+      </c>
+      <c r="D19" s="21">
+        <v>83</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F19" s="29"/>
-      <c r="G19" s="5"/>
+      <c r="G19" s="5" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
+      <c r="B20" s="18">
+        <v>20</v>
+      </c>
+      <c r="C20" s="18">
+        <v>38</v>
+      </c>
+      <c r="D20" s="18">
+        <v>-18</v>
+      </c>
       <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="3"/>
+      <c r="F20" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="29"/>
+      <c r="B21" s="21">
+        <v>477</v>
+      </c>
+      <c r="C21" s="21">
+        <v>260</v>
+      </c>
+      <c r="D21" s="21">
+        <v>217</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F21" s="29"/>
-      <c r="G21" s="5"/>
+      <c r="G21" s="5" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
+      <c r="B22" s="18">
+        <v>45</v>
+      </c>
+      <c r="C22" s="18">
+        <v>153</v>
+      </c>
+      <c r="D22" s="18">
+        <v>-108</v>
+      </c>
       <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="3"/>
+      <c r="F22" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="29"/>
+      <c r="B23" s="21">
+        <v>467</v>
+      </c>
+      <c r="C23" s="21">
+        <v>264</v>
+      </c>
+      <c r="D23" s="21">
+        <v>203</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F23" s="29"/>
-      <c r="G23" s="5"/>
+      <c r="G23" s="5" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="28"/>
+      <c r="B24" s="18">
+        <v>1420</v>
+      </c>
+      <c r="C24" s="18">
+        <v>1060</v>
+      </c>
+      <c r="D24" s="18">
+        <v>360</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F24" s="28"/>
-      <c r="G24" s="3"/>
+      <c r="G24" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
+      <c r="B25" s="21">
+        <v>177</v>
+      </c>
+      <c r="C25" s="21">
+        <v>397</v>
+      </c>
+      <c r="D25" s="21">
+        <v>-220</v>
+      </c>
       <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="5"/>
+      <c r="F25" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
+      <c r="B26" s="18">
+        <v>0</v>
+      </c>
+      <c r="C26" s="18">
+        <v>0</v>
+      </c>
+      <c r="D26" s="18">
+        <v>0</v>
+      </c>
       <c r="E26" s="28"/>
       <c r="F26" s="28"/>
       <c r="G26" s="3"/>
@@ -7249,185 +7521,351 @@
       <c r="A27" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="29"/>
+      <c r="B27" s="21">
+        <v>227</v>
+      </c>
+      <c r="C27" s="21">
+        <v>147</v>
+      </c>
+      <c r="D27" s="21">
+        <v>80</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F27" s="29"/>
-      <c r="G27" s="5"/>
+      <c r="G27" s="5" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
+      <c r="B28" s="18">
+        <v>73</v>
+      </c>
+      <c r="C28" s="18">
+        <v>87</v>
+      </c>
+      <c r="D28" s="18">
+        <v>-14</v>
+      </c>
       <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="3"/>
+      <c r="F28" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="29"/>
+      <c r="B29" s="21">
+        <v>539</v>
+      </c>
+      <c r="C29" s="21">
+        <v>441</v>
+      </c>
+      <c r="D29" s="21">
+        <v>98</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F29" s="29"/>
-      <c r="G29" s="5"/>
+      <c r="G29" s="5" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="28"/>
+      <c r="B30" s="18">
+        <v>55</v>
+      </c>
+      <c r="C30" s="18">
+        <v>28</v>
+      </c>
+      <c r="D30" s="18">
+        <v>27</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F30" s="28"/>
-      <c r="G30" s="3"/>
+      <c r="G30" s="3" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
+      <c r="B31" s="21">
+        <v>47</v>
+      </c>
+      <c r="C31" s="21">
+        <v>171</v>
+      </c>
+      <c r="D31" s="21">
+        <v>-124</v>
+      </c>
       <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="5"/>
+      <c r="F31" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
+      <c r="B32" s="18">
+        <v>354</v>
+      </c>
+      <c r="C32" s="18">
+        <v>503</v>
+      </c>
+      <c r="D32" s="18">
+        <v>-149</v>
+      </c>
       <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="3"/>
+      <c r="F32" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
+      <c r="B33" s="21">
+        <v>322</v>
+      </c>
+      <c r="C33" s="21">
+        <v>427</v>
+      </c>
+      <c r="D33" s="21">
+        <v>-105</v>
+      </c>
       <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="5"/>
+      <c r="F33" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="28"/>
+      <c r="B34" s="18">
+        <v>178</v>
+      </c>
+      <c r="C34" s="18">
+        <v>117</v>
+      </c>
+      <c r="D34" s="18">
+        <v>61</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F34" s="28"/>
-      <c r="G34" s="3"/>
+      <c r="G34" s="3" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
+      <c r="B35" s="21">
+        <v>732</v>
+      </c>
+      <c r="C35" s="21">
+        <v>997</v>
+      </c>
+      <c r="D35" s="21">
+        <v>-265</v>
+      </c>
       <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="5"/>
+      <c r="F35" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
+      <c r="B36" s="18">
+        <v>123</v>
+      </c>
+      <c r="C36" s="18">
+        <v>439</v>
+      </c>
+      <c r="D36" s="18">
+        <v>-316</v>
+      </c>
       <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="3"/>
+      <c r="F36" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="29"/>
+      <c r="B37" s="21">
+        <v>484</v>
+      </c>
+      <c r="C37" s="21">
+        <v>308</v>
+      </c>
+      <c r="D37" s="21">
+        <v>176</v>
+      </c>
+      <c r="E37" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F37" s="29"/>
-      <c r="G37" s="5"/>
+      <c r="G37" s="5" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
+      <c r="B38" s="18">
+        <v>31</v>
+      </c>
+      <c r="C38" s="18">
+        <v>129</v>
+      </c>
+      <c r="D38" s="18">
+        <v>-98</v>
+      </c>
       <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="3"/>
+      <c r="F38" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
+      <c r="B39" s="25">
+        <v>21</v>
+      </c>
+      <c r="C39" s="25">
+        <v>80</v>
+      </c>
+      <c r="D39" s="25">
+        <v>-59</v>
+      </c>
       <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="9"/>
+      <c r="F39" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
+      <c r="B40" s="25">
+        <v>88</v>
+      </c>
+      <c r="C40" s="25">
+        <v>146</v>
+      </c>
+      <c r="D40" s="25">
+        <v>-58</v>
+      </c>
       <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="9"/>
+      <c r="F40" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
+      <c r="B41" s="25">
+        <v>3</v>
+      </c>
+      <c r="C41" s="25">
+        <v>26</v>
+      </c>
+      <c r="D41" s="25">
+        <v>-23</v>
+      </c>
       <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="9"/>
+      <c r="F41" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
+      <c r="B42" s="25">
+        <v>6</v>
+      </c>
+      <c r="C42" s="25">
+        <v>23</v>
+      </c>
+      <c r="D42" s="25">
+        <v>-17</v>
+      </c>
       <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="9"/>
+      <c r="F42" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
+      <c r="B43" s="25">
+        <v>0</v>
+      </c>
+      <c r="C43" s="25">
+        <v>0</v>
+      </c>
+      <c r="D43" s="25">
+        <v>0</v>
+      </c>
       <c r="E43" s="31"/>
       <c r="F43" s="31"/>
       <c r="G43" s="9"/>
@@ -7436,133 +7874,253 @@
       <c r="A44" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
+      <c r="B44" s="21">
+        <v>74</v>
+      </c>
+      <c r="C44" s="21">
+        <v>75</v>
+      </c>
+      <c r="D44" s="21">
+        <v>-1</v>
+      </c>
       <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="5"/>
+      <c r="F44" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
+      <c r="B45" s="18">
+        <v>63</v>
+      </c>
+      <c r="C45" s="18">
+        <v>171</v>
+      </c>
+      <c r="D45" s="18">
+        <v>-108</v>
+      </c>
       <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="3"/>
+      <c r="F45" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="29"/>
+      <c r="B46" s="21">
+        <v>399</v>
+      </c>
+      <c r="C46" s="21">
+        <v>389</v>
+      </c>
+      <c r="D46" s="21">
+        <v>10</v>
+      </c>
+      <c r="E46" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F46" s="29"/>
-      <c r="G46" s="5"/>
+      <c r="G46" s="5" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="28"/>
+      <c r="B47" s="18">
+        <v>792</v>
+      </c>
+      <c r="C47" s="18">
+        <v>506</v>
+      </c>
+      <c r="D47" s="18">
+        <v>286</v>
+      </c>
+      <c r="E47" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F47" s="28"/>
-      <c r="G47" s="3"/>
+      <c r="G47" s="3" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
+      <c r="B48" s="21">
+        <v>155</v>
+      </c>
+      <c r="C48" s="21">
+        <v>537</v>
+      </c>
+      <c r="D48" s="21">
+        <v>-382</v>
+      </c>
       <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="5"/>
+      <c r="F48" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="28"/>
+      <c r="B49" s="18">
+        <v>650</v>
+      </c>
+      <c r="C49" s="18">
+        <v>184</v>
+      </c>
+      <c r="D49" s="18">
+        <v>466</v>
+      </c>
+      <c r="E49" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F49" s="28"/>
-      <c r="G49" s="3"/>
+      <c r="G49" s="3" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="29"/>
+      <c r="B50" s="21">
+        <v>777</v>
+      </c>
+      <c r="C50" s="21">
+        <v>471</v>
+      </c>
+      <c r="D50" s="21">
+        <v>306</v>
+      </c>
+      <c r="E50" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F50" s="29"/>
-      <c r="G50" s="5"/>
+      <c r="G50" s="5" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
+      <c r="B51" s="18">
+        <v>161</v>
+      </c>
+      <c r="C51" s="18">
+        <v>171</v>
+      </c>
+      <c r="D51" s="18">
+        <v>-10</v>
+      </c>
       <c r="E51" s="28"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="3"/>
+      <c r="F51" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
+      <c r="B52" s="21">
+        <v>209</v>
+      </c>
+      <c r="C52" s="21">
+        <v>226</v>
+      </c>
+      <c r="D52" s="21">
+        <v>-17</v>
+      </c>
       <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="5"/>
+      <c r="F52" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
+      <c r="B53" s="18">
+        <v>132</v>
+      </c>
+      <c r="C53" s="18">
+        <v>165</v>
+      </c>
+      <c r="D53" s="18">
+        <v>-33</v>
+      </c>
       <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="3"/>
+      <c r="F53" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B54" s="21"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
+      <c r="B54" s="21">
+        <v>30</v>
+      </c>
+      <c r="C54" s="21">
+        <v>197</v>
+      </c>
+      <c r="D54" s="21">
+        <v>-167</v>
+      </c>
       <c r="E54" s="29"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="5"/>
+      <c r="F54" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="B55" s="27"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="32"/>
+      <c r="B55" s="27">
+        <v>519</v>
+      </c>
+      <c r="C55" s="27">
+        <v>145</v>
+      </c>
+      <c r="D55" s="27">
+        <v>374</v>
+      </c>
+      <c r="E55" s="32" t="s">
+        <v>61</v>
+      </c>
       <c r="F55" s="32"/>
-      <c r="G55" s="11"/>
+      <c r="G55" s="11" t="s">
+        <v>281</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G55" xr:uid="{00000000-0009-0000-0000-00000C000000}"/>
